--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789A41F2-A893-456E-93DF-9F1E57813CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340CB314-66C7-483A-AF1F-513219841EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="365">
   <si>
     <t>Name</t>
   </si>
@@ -331,12 +331,6 @@
     <t>C15</t>
   </si>
   <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>Modulator</t>
-  </si>
-  <si>
     <t>C37</t>
   </si>
   <si>
@@ -388,9 +382,6 @@
     <t>Connector</t>
   </si>
   <si>
-    <t>Video/audio</t>
-  </si>
-  <si>
     <t>CN4</t>
   </si>
   <si>
@@ -547,9 +538,6 @@
     <t>CN7</t>
   </si>
   <si>
-    <t>Power</t>
-  </si>
-  <si>
     <t>C20</t>
   </si>
   <si>
@@ -563,30 +551,6 @@
   </si>
   <si>
     <t>C34</t>
-  </si>
-  <si>
-    <t>20 pin</t>
-  </si>
-  <si>
-    <t>24 pin edge</t>
-  </si>
-  <si>
-    <t>6 pin edge</t>
-  </si>
-  <si>
-    <t>6 pin DIN</t>
-  </si>
-  <si>
-    <t>8 pin DIN</t>
-  </si>
-  <si>
-    <t>7 pin DIN</t>
-  </si>
-  <si>
-    <t>9 pin DB9</t>
-  </si>
-  <si>
-    <t>3 pin</t>
   </si>
   <si>
     <t>CIA 1</t>
@@ -897,9 +861,6 @@
     <t>250V/1.5A</t>
   </si>
   <si>
-    <t>44 pin edge</t>
-  </si>
-  <si>
     <t>PET/VIC-20/C64 Port Pinouts</t>
   </si>
   <si>
@@ -912,14 +873,6 @@
 $D000-$DFFF</t>
   </si>
   <si>
-    <t>Memory location:
-$DC00-$DCFF</t>
-  </si>
-  <si>
-    <t>Memory location:
-$DD00-$DDFF</t>
-  </si>
-  <si>
     <t>MOS 901226-01
 Memory location:
 $A000-$BFFF</t>
@@ -933,19 +886,6 @@
 $D400-$D7FF</t>
   </si>
   <si>
-    <t>6569 (PAL)
-6567 (NTSC)
-Pin meassurements:
-17: PAL = 0.98 MHz
-17: NTSC = 1.02 MHz
-21: PAL = 17.734472 MHz
-21: NTSC = 14.31818 MHz
-22: PAL = 7.88 MHz
-22: NTSC = 8.18 MHz
-Memory location:
-$D000-$D3FF</t>
-  </si>
-  <si>
     <t>1024 x 4-bit</t>
   </si>
   <si>
@@ -1033,16 +973,10 @@
     <t>Data/Commodore shared files/Component images/6569.jpg</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component images/LM556.jpg</t>
-  </si>
-  <si>
     <t>Data/Commodore shared files/Component images/74LS373.jpg</t>
   </si>
   <si>
     <t>Data/Commodore shared files/Component images/7408.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/MC7800-series.jpg</t>
   </si>
   <si>
     <t>Data/Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
@@ -1168,6 +1102,91 @@
     </r>
   </si>
   <si>
+    <t>6 pin male edge</t>
+  </si>
+  <si>
+    <t>6 pin female DIN</t>
+  </si>
+  <si>
+    <t>20 pin male</t>
+  </si>
+  <si>
+    <t>9 pin male DB9</t>
+  </si>
+  <si>
+    <t>24 pin male edge</t>
+  </si>
+  <si>
+    <t>3 pin male</t>
+  </si>
+  <si>
+    <t>7 pin female DIN</t>
+  </si>
+  <si>
+    <t>Power input</t>
+  </si>
+  <si>
+    <t>44 pin female edge</t>
+  </si>
+  <si>
+    <t>8 pin female DIN</t>
+  </si>
+  <si>
+    <t>Audio/video</t>
+  </si>
+  <si>
+    <t>Rocker switch</t>
+  </si>
+  <si>
+    <t>Datasheet for 8701</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/MOS8701.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/8701.jpg</t>
+  </si>
+  <si>
+    <t>6569 (PAL)
+6567 (NTSC)
+Memory location:
+$D000-$D3FF</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>RF modulator</t>
+  </si>
+  <si>
+    <t>My Old Computer; 6510</t>
+  </si>
+  <si>
+    <t>https://myoldcomputer.nl/technical-info/datasheets/integrated-chip-pinout-and-datasheets/processors/6510-2/</t>
+  </si>
+  <si>
+    <t>Also used in:
+Commodore 64 + 128 computers
+Commodore 1570 + 1571 + 1581 diskdrives
+Compatible part-number: 8521
+Memory location:
+$DC00-$DCFF</t>
+  </si>
+  <si>
+    <t>Also used in:
+Commodore 64 + 128 computers
+Commodore 1570 + 1571 + 1581 diskdrives
+Compatible part-number: 8521
+Memory location:
+$DD00-$DDFF</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/556.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/7800-series.jpg</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1180,7 +1199,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-May-11</t>
+      <t>2025-May-31</t>
     </r>
   </si>
 </sst>
@@ -1774,17 +1793,17 @@
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1797,7 +1816,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="28" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1808,7 +1827,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="32" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1869,7 +1888,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
@@ -1892,7 +1911,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
@@ -1913,10 +1932,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C12" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>9</v>
@@ -2041,12 +2060,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="13" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2054,12 +2073,12 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="28" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="32" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2097,44 +2116,44 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2142,13 +2161,13 @@
         <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2156,13 +2175,13 @@
         <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2170,13 +2189,13 @@
         <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2184,41 +2203,41 @@
         <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2226,41 +2245,41 @@
         <v>86</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2271,80 +2290,80 @@
         <v>93</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2352,13 +2371,13 @@
         <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2366,13 +2385,13 @@
         <v>41</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2380,13 +2399,13 @@
         <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2394,13 +2413,13 @@
         <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2408,13 +2427,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2422,13 +2441,13 @@
         <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2436,13 +2455,13 @@
         <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2450,72 +2469,72 @@
         <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="28.8">
       <c r="A37" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2523,13 +2542,13 @@
         <v>73</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2537,13 +2556,13 @@
         <v>71</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2551,13 +2570,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2565,13 +2584,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2579,13 +2598,13 @@
         <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2593,27 +2612,27 @@
         <v>64</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2621,13 +2640,13 @@
         <v>89</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2635,13 +2654,13 @@
         <v>91</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2649,13 +2668,13 @@
         <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2663,95 +2682,95 @@
         <v>79</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2759,27 +2778,27 @@
         <v>90</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2787,69 +2806,69 @@
         <v>78</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2857,41 +2876,41 @@
         <v>74</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2899,218 +2918,218 @@
         <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>173</v>
+        <v>342</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>174</v>
+        <v>344</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>175</v>
+        <v>340</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>176</v>
+        <v>341</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>177</v>
+        <v>349</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>114</v>
+        <v>350</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>178</v>
+        <v>346</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>167</v>
+        <v>347</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>179</v>
+        <v>343</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>179</v>
+        <v>343</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>180</v>
+        <v>345</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="28.8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="115.2">
       <c r="A79" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B79" s="1">
         <v>6526</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="28.8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="115.2">
       <c r="A80" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B80" s="1">
         <v>6526</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>284</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="57.6">
@@ -3124,13 +3143,13 @@
         <v>60</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="28.8">
@@ -3144,13 +3163,13 @@
         <v>61</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="72">
@@ -3164,13 +3183,13 @@
         <v>63</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="28.8">
@@ -3184,30 +3203,30 @@
         <v>85</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B85" s="1">
         <v>6510</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3218,10 +3237,10 @@
         <v>7406</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3232,16 +3251,16 @@
         <v>4164</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3252,16 +3271,16 @@
         <v>4164</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3272,16 +3291,16 @@
         <v>4164</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3292,16 +3311,16 @@
         <v>4164</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3312,10 +3331,10 @@
         <v>36</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3326,13 +3345,13 @@
         <v>76</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3343,10 +3362,10 @@
         <v>56</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3357,10 +3376,10 @@
         <v>4066</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="57.6">
@@ -3368,16 +3387,16 @@
         <v>53</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="28.8">
@@ -3391,13 +3410,13 @@
         <v>88</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="187.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="72">
       <c r="A97" s="17" t="s">
         <v>80</v>
       </c>
@@ -3408,24 +3427,24 @@
         <v>81</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>288</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B98" s="1">
         <v>556</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3436,16 +3455,16 @@
         <v>4164</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3456,16 +3475,16 @@
         <v>4164</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3476,16 +3495,16 @@
         <v>4164</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3496,16 +3515,16 @@
         <v>4164</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3516,10 +3535,10 @@
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3530,10 +3549,10 @@
         <v>66</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3544,122 +3563,125 @@
         <v>49</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B106" s="1">
         <v>4066</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B107" s="1">
         <v>8701</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="17" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="17" t="s">
-        <v>95</v>
+        <v>356</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>96</v>
+        <v>357</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B111" s="1">
         <v>7812</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B112" s="1">
         <v>7805</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="100.8">
       <c r="A113" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4476,12 +4498,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4496,7 +4518,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="28" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4508,7 +4530,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="32" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4645,7 +4667,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="19">
         <v>2509</v>
@@ -4685,7 +4707,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="19">
         <v>3014</v>
@@ -4705,7 +4727,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="19">
         <v>3267</v>
@@ -4905,7 +4927,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C26" s="19">
         <v>3045</v>
@@ -5125,7 +5147,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C37" s="19">
         <v>3183</v>
@@ -5225,7 +5247,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C42" s="19">
         <v>3219</v>
@@ -5245,7 +5267,7 @@
         <v>30</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C43" s="19">
         <v>3487</v>
@@ -5265,7 +5287,7 @@
         <v>30</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C44" s="19">
         <v>360</v>
@@ -5285,7 +5307,7 @@
         <v>30</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C45" s="19">
         <v>3142</v>
@@ -5305,7 +5327,7 @@
         <v>30</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>95</v>
+        <v>356</v>
       </c>
       <c r="C46" s="19">
         <v>2978</v>
@@ -5845,7 +5867,7 @@
         <v>30</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C73" s="19">
         <v>2996</v>
@@ -5865,7 +5887,7 @@
         <v>30</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="19">
         <v>3116</v>
@@ -5885,7 +5907,7 @@
         <v>31</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C75" s="19">
         <v>2372</v>
@@ -5905,7 +5927,7 @@
         <v>31</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C76" s="19">
         <v>1058</v>
@@ -5925,7 +5947,7 @@
         <v>31</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C77" s="19">
         <v>1097</v>
@@ -5945,7 +5967,7 @@
         <v>31</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C78" s="19">
         <v>1074</v>
@@ -5965,7 +5987,7 @@
         <v>31</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C79" s="19">
         <v>2299</v>
@@ -5985,7 +6007,7 @@
         <v>31</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C80" s="19">
         <v>2441</v>
@@ -6005,7 +6027,7 @@
         <v>31</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C81" s="19">
         <v>893</v>
@@ -6025,7 +6047,7 @@
         <v>31</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C82" s="19">
         <v>597</v>
@@ -6045,7 +6067,7 @@
         <v>31</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C83" s="19">
         <v>2690</v>
@@ -6065,7 +6087,7 @@
         <v>31</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C84" s="19">
         <v>2772</v>
@@ -6085,7 +6107,7 @@
         <v>31</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C85" s="19">
         <v>475</v>
@@ -6105,7 +6127,7 @@
         <v>31</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C86" s="19">
         <v>2971</v>
@@ -6125,7 +6147,7 @@
         <v>31</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C87" s="19">
         <v>1501</v>
@@ -6145,7 +6167,7 @@
         <v>31</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C88" s="19">
         <v>1982</v>
@@ -6165,7 +6187,7 @@
         <v>31</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C89" s="19">
         <v>2299</v>
@@ -6185,7 +6207,7 @@
         <v>31</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C90" s="19">
         <v>2230</v>
@@ -6205,7 +6227,7 @@
         <v>31</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C91" s="19">
         <v>2445</v>
@@ -6225,7 +6247,7 @@
         <v>31</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C92" s="19">
         <v>2626</v>
@@ -6245,7 +6267,7 @@
         <v>31</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C93" s="19">
         <v>2237</v>
@@ -6265,7 +6287,7 @@
         <v>31</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C94" s="19">
         <v>1976</v>
@@ -6285,7 +6307,7 @@
         <v>31</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C95" s="19">
         <v>2260</v>
@@ -6305,7 +6327,7 @@
         <v>31</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C96" s="19">
         <v>2099</v>
@@ -6325,7 +6347,7 @@
         <v>31</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C97" s="19">
         <v>1954</v>
@@ -6345,7 +6367,7 @@
         <v>31</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C98" s="19">
         <v>1565</v>
@@ -6365,7 +6387,7 @@
         <v>31</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C99" s="19">
         <v>1760</v>
@@ -6385,7 +6407,7 @@
         <v>31</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C100" s="19">
         <v>238</v>
@@ -6405,7 +6427,7 @@
         <v>31</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C101" s="19">
         <v>244</v>
@@ -6425,7 +6447,7 @@
         <v>31</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C102" s="19">
         <v>2614</v>
@@ -6445,7 +6467,7 @@
         <v>31</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C103" s="19">
         <v>225</v>
@@ -6465,7 +6487,7 @@
         <v>31</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C104" s="19">
         <v>1004</v>
@@ -6485,7 +6507,7 @@
         <v>31</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C105" s="19">
         <v>2408</v>
@@ -6505,7 +6527,7 @@
         <v>31</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C106" s="19">
         <v>230</v>
@@ -6525,7 +6547,7 @@
         <v>31</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C107" s="19">
         <v>233</v>
@@ -6545,7 +6567,7 @@
         <v>31</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C108" s="19">
         <v>2037</v>
@@ -6565,7 +6587,7 @@
         <v>31</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C109" s="19">
         <v>2408</v>
@@ -6585,7 +6607,7 @@
         <v>31</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C110" s="19">
         <v>2478</v>
@@ -6605,7 +6627,7 @@
         <v>31</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C111" s="19">
         <v>1167</v>
@@ -6625,7 +6647,7 @@
         <v>31</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C112" s="19">
         <v>1172</v>
@@ -6645,7 +6667,7 @@
         <v>31</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C113" s="19">
         <v>1160</v>
@@ -6725,7 +6747,7 @@
         <v>31</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C117" s="19">
         <v>707</v>
@@ -6745,7 +6767,7 @@
         <v>31</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C118" s="19">
         <v>2829</v>
@@ -6785,7 +6807,7 @@
         <v>31</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C120" s="19">
         <v>372</v>
@@ -6805,7 +6827,7 @@
         <v>31</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C121" s="19">
         <v>2144</v>
@@ -6825,7 +6847,7 @@
         <v>31</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C122" s="19">
         <v>2145</v>
@@ -6842,10 +6864,10 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C123" s="19">
         <v>1090</v>
@@ -6862,10 +6884,10 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C124" s="19">
         <v>368</v>
@@ -6882,10 +6904,10 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C125" s="19">
         <v>591</v>
@@ -6902,7 +6924,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>51</v>
@@ -6922,7 +6944,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B127" s="19" t="s">
         <v>52</v>
@@ -6942,7 +6964,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B128" s="19" t="s">
         <v>58</v>
@@ -6962,7 +6984,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>83</v>
@@ -6982,10 +7004,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C130" s="19">
         <v>1465</v>
@@ -7002,10 +7024,10 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C131" s="19">
         <v>1627</v>
@@ -7022,7 +7044,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B132" s="19" t="s">
         <v>86</v>
@@ -7042,10 +7064,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C133" s="19">
         <v>1837</v>
@@ -7062,10 +7084,10 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C134" s="19">
         <v>2024</v>
@@ -7082,7 +7104,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>94</v>
@@ -7102,10 +7124,10 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C136" s="19">
         <v>3294</v>
@@ -7122,10 +7144,10 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C137" s="19">
         <v>3696</v>
@@ -7142,10 +7164,10 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C138" s="19">
         <v>395</v>
@@ -7162,10 +7184,10 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C139" s="19">
         <v>247</v>
@@ -7182,10 +7204,10 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C140" s="19">
         <v>407</v>
@@ -7202,7 +7224,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B141" s="19" t="s">
         <v>72</v>
@@ -7222,7 +7244,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>41</v>
@@ -7242,7 +7264,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>39</v>
@@ -7262,7 +7284,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B144" s="19" t="s">
         <v>34</v>
@@ -7282,7 +7304,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B145" s="19" t="s">
         <v>33</v>
@@ -7302,7 +7324,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B146" s="19" t="s">
         <v>77</v>
@@ -7322,7 +7344,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B147" s="19" t="s">
         <v>57</v>
@@ -7342,7 +7364,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>54</v>
@@ -7362,10 +7384,10 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C149" s="19">
         <v>399</v>
@@ -7382,10 +7404,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C150" s="19">
         <v>1902</v>
@@ -7402,10 +7424,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C151" s="19">
         <v>247</v>
@@ -7422,10 +7444,10 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C152" s="19">
         <v>398</v>
@@ -7442,7 +7464,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>73</v>
@@ -7462,7 +7484,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>71</v>
@@ -7482,7 +7504,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>40</v>
@@ -7502,7 +7524,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>38</v>
@@ -7522,7 +7544,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>37</v>
@@ -7542,7 +7564,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>64</v>
@@ -7562,10 +7584,10 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C159" s="19">
         <v>1491</v>
@@ -7582,7 +7604,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>89</v>
@@ -7602,7 +7624,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>91</v>
@@ -7622,7 +7644,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>92</v>
@@ -7642,7 +7664,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>79</v>
@@ -7662,10 +7684,10 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C164" s="19">
         <v>2863</v>
@@ -7682,10 +7704,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C165" s="19">
         <v>2962</v>
@@ -7702,10 +7724,10 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C166" s="19">
         <v>3130</v>
@@ -7722,10 +7744,10 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C167" s="19">
         <v>3112</v>
@@ -7742,10 +7764,10 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C168" s="19">
         <v>3457</v>
@@ -7762,10 +7784,10 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C169" s="19">
         <v>3823</v>
@@ -7782,7 +7804,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>90</v>
@@ -7802,10 +7824,10 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C171" s="19">
         <v>3311</v>
@@ -7822,7 +7844,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B172" s="19" t="s">
         <v>78</v>
@@ -7842,10 +7864,10 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C173" s="19">
         <v>3160</v>
@@ -7862,10 +7884,10 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C174" s="19">
         <v>1214</v>
@@ -7882,10 +7904,10 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C175" s="19">
         <v>1092</v>
@@ -7902,10 +7924,10 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C176" s="19">
         <v>967</v>
@@ -7922,7 +7944,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B177" s="19" t="s">
         <v>74</v>
@@ -7942,10 +7964,10 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C178" s="19">
         <v>744</v>
@@ -7962,10 +7984,10 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C179" s="19">
         <v>969</v>
@@ -7982,7 +8004,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B180" s="19" t="s">
         <v>46</v>
@@ -8002,10 +8024,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C181" s="19">
         <v>2012</v>
@@ -8022,10 +8044,10 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C182" s="19">
         <v>259</v>
@@ -8042,10 +8064,10 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C183" s="19">
         <v>345</v>
@@ -8062,10 +8084,10 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C184" s="19">
         <v>1186</v>
@@ -8082,10 +8104,10 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C185" s="19">
         <v>1677</v>
@@ -8102,10 +8124,10 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C186" s="19">
         <v>1974</v>
@@ -8122,10 +8144,10 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C187" s="19">
         <v>2905</v>
@@ -8142,10 +8164,10 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C188" s="19">
         <v>3812</v>
@@ -8162,10 +8184,10 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C189" s="19">
         <v>3775</v>
@@ -8182,10 +8204,10 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C190" s="19">
         <v>3774</v>
@@ -8202,10 +8224,10 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C191" s="19">
         <v>3878</v>
@@ -8222,10 +8244,10 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C192" s="19">
         <v>2891</v>
@@ -8242,10 +8264,10 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C193" s="19">
         <v>3167</v>
@@ -8262,10 +8284,10 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>95</v>
+        <v>356</v>
       </c>
       <c r="C194" s="19">
         <v>2234</v>
@@ -8282,10 +8304,10 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C195" s="19">
         <v>3713</v>
@@ -8302,10 +8324,10 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C196" s="19">
         <v>372</v>
@@ -8322,10 +8344,10 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C197" s="19">
         <v>572</v>
@@ -8342,7 +8364,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>50</v>
@@ -8362,7 +8384,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>59</v>
@@ -8382,7 +8404,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>62</v>
@@ -8402,7 +8424,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B201" s="19" t="s">
         <v>84</v>
@@ -8422,10 +8444,10 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C202" s="19">
         <v>1419</v>
@@ -8442,7 +8464,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>32</v>
@@ -8462,7 +8484,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B204" s="19" t="s">
         <v>69</v>
@@ -8482,7 +8504,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B205" s="19" t="s">
         <v>67</v>
@@ -8502,7 +8524,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B206" s="19" t="s">
         <v>44</v>
@@ -8522,7 +8544,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B207" s="19" t="s">
         <v>42</v>
@@ -8542,7 +8564,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B208" s="19" t="s">
         <v>35</v>
@@ -8562,7 +8584,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B209" s="19" t="s">
         <v>75</v>
@@ -8582,7 +8604,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B210" s="19" t="s">
         <v>55</v>
@@ -8602,7 +8624,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B211" s="19" t="s">
         <v>82</v>
@@ -8622,7 +8644,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B212" s="19" t="s">
         <v>53</v>
@@ -8642,7 +8664,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B213" s="19" t="s">
         <v>87</v>
@@ -8662,7 +8684,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B214" s="19" t="s">
         <v>80</v>
@@ -8682,10 +8704,10 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C215" s="19">
         <v>399</v>
@@ -8702,7 +8724,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B216" s="19" t="s">
         <v>70</v>
@@ -8722,7 +8744,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B217" s="19" t="s">
         <v>68</v>
@@ -8742,7 +8764,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B218" s="19" t="s">
         <v>45</v>
@@ -8762,7 +8784,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B219" s="19" t="s">
         <v>43</v>
@@ -8782,7 +8804,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B220" s="19" t="s">
         <v>47</v>
@@ -8802,7 +8824,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B221" s="19" t="s">
         <v>65</v>
@@ -8822,7 +8844,7 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B222" s="19" t="s">
         <v>48</v>
@@ -8842,10 +8864,10 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C223" s="19">
         <v>1794</v>
@@ -8862,10 +8884,10 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C224" s="19">
         <v>2663</v>
@@ -8882,10 +8904,10 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B225" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C225" s="19">
         <v>3167</v>
@@ -8902,10 +8924,10 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C226" s="19">
         <v>3322</v>
@@ -8922,10 +8944,10 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C227" s="19">
         <v>2732</v>
@@ -10657,7 +10679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E1E303-7B1B-47A6-93AB-8380DC68CC76}">
   <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -10670,7 +10694,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="33"/>
@@ -10678,7 +10702,7 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="33"/>
@@ -10693,7 +10717,7 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
       <c r="A4" s="28" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="35"/>
@@ -10703,7 +10727,7 @@
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
       <c r="A5" s="32" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="36"/>
@@ -10720,7 +10744,7 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
       <c r="A7" s="24" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="37"/>
@@ -10732,14 +10756,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="44" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
@@ -11700,7 +11724,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -11719,14 +11743,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21">
       <c r="A1" s="13" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="33"/>
@@ -11740,7 +11764,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="28" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="35"/>
@@ -11750,7 +11774,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="32" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="36"/>
@@ -11779,10 +11803,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>0</v>
@@ -11793,132 +11817,132 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="34"/>
       <c r="D9" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="39"/>
       <c r="D10" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="39"/>
       <c r="D11" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="34"/>
       <c r="D12" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="39"/>
       <c r="D13" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="39"/>
       <c r="D14" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="39"/>
       <c r="D15" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="39"/>
       <c r="D16" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="39"/>
       <c r="D17" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="39"/>
       <c r="D18" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11928,10 +11952,10 @@
       <c r="B19" s="14"/>
       <c r="C19" s="40"/>
       <c r="D19" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11941,10 +11965,10 @@
       <c r="B20" s="19"/>
       <c r="C20" s="39"/>
       <c r="D20" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11954,10 +11978,10 @@
       <c r="B21" s="19"/>
       <c r="C21" s="39"/>
       <c r="D21" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -11967,23 +11991,23 @@
       <c r="B22" s="19"/>
       <c r="C22" s="39"/>
       <c r="D22" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="34"/>
       <c r="D23" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -11993,10 +12017,10 @@
       <c r="B24" s="17"/>
       <c r="C24" s="34"/>
       <c r="D24" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12006,10 +12030,10 @@
       <c r="B25" s="17"/>
       <c r="C25" s="34"/>
       <c r="D25" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -12019,10 +12043,10 @@
       <c r="B26" s="17"/>
       <c r="C26" s="34"/>
       <c r="D26" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -12032,10 +12056,10 @@
       <c r="B27" s="17"/>
       <c r="C27" s="34"/>
       <c r="D27" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -12045,10 +12069,10 @@
       <c r="B28" s="14"/>
       <c r="C28" s="40"/>
       <c r="D28" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -12058,10 +12082,10 @@
       <c r="B29" s="14"/>
       <c r="C29" s="40"/>
       <c r="D29" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -12071,10 +12095,10 @@
       <c r="B30" s="14"/>
       <c r="C30" s="40"/>
       <c r="D30" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -12084,10 +12108,10 @@
       <c r="B31" s="14"/>
       <c r="C31" s="40"/>
       <c r="D31" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -12097,10 +12121,10 @@
       <c r="B32" s="14"/>
       <c r="C32" s="40"/>
       <c r="D32" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -12110,10 +12134,10 @@
       <c r="B33" s="14"/>
       <c r="C33" s="40"/>
       <c r="D33" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -12123,10 +12147,10 @@
       <c r="B34" s="14"/>
       <c r="C34" s="40"/>
       <c r="D34" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -12136,23 +12160,23 @@
       <c r="B35" s="14"/>
       <c r="C35" s="40"/>
       <c r="D35" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="40"/>
       <c r="D36" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -12162,10 +12186,10 @@
       <c r="B37" s="14"/>
       <c r="C37" s="40"/>
       <c r="D37" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -12175,10 +12199,10 @@
       <c r="B38" s="14"/>
       <c r="C38" s="40"/>
       <c r="D38" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -12188,10 +12212,10 @@
       <c r="B39" s="14"/>
       <c r="C39" s="40"/>
       <c r="D39" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -12201,10 +12225,10 @@
       <c r="B40" s="14"/>
       <c r="C40" s="40"/>
       <c r="D40" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -12214,10 +12238,10 @@
       <c r="B41" s="14"/>
       <c r="C41" s="40"/>
       <c r="D41" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -12227,10 +12251,10 @@
       <c r="B42" s="14"/>
       <c r="C42" s="40"/>
       <c r="D42" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -12240,80 +12264,88 @@
       <c r="B43" s="14"/>
       <c r="C43" s="40"/>
       <c r="D43" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="40"/>
       <c r="D44" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="14" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="40"/>
-      <c r="D45" s="1" t="s">
-        <v>207</v>
+      <c r="D45" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="40"/>
       <c r="D46" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="B47" s="14"/>
       <c r="C47" s="40"/>
+      <c r="D47" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="35"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="40"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49" s="4"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="35"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="41"/>
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51" s="4"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="41"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="40"/>
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="14"/>
@@ -12321,14 +12353,14 @@
       <c r="C53" s="40"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="42"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="40"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="40"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="42"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="14"/>
@@ -12341,14 +12373,14 @@
       <c r="C57" s="40"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="42"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="40"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="40"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="42"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="14"/>
@@ -12434,6 +12466,11 @@
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="40"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="40"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12447,7 +12484,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F00A795-F924-4957-BF24-7CBCF1582012}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -12463,12 +12500,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12478,14 +12515,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -12515,101 +12552,101 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -12617,10 +12654,10 @@
         <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -12628,10 +12665,10 @@
         <v>59</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -12639,10 +12676,10 @@
         <v>62</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -12650,21 +12687,21 @@
         <v>84</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -12672,10 +12709,10 @@
         <v>32</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -12683,10 +12720,10 @@
         <v>69</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -12694,10 +12731,10 @@
         <v>67</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -12705,10 +12742,10 @@
         <v>44</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -12716,10 +12753,10 @@
         <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -12727,10 +12764,10 @@
         <v>35</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -12738,10 +12775,10 @@
         <v>75</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -12749,10 +12786,10 @@
         <v>55</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -12760,10 +12797,10 @@
         <v>82</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -12771,10 +12808,10 @@
         <v>53</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -12782,21 +12819,21 @@
         <v>80</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C33" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C34" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -12804,10 +12841,10 @@
         <v>70</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -12815,10 +12852,10 @@
         <v>68</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -12826,10 +12863,10 @@
         <v>45</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -12837,10 +12874,10 @@
         <v>43</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -12848,10 +12885,10 @@
         <v>47</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -12859,10 +12896,10 @@
         <v>65</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C40" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -12870,68 +12907,79 @@
         <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C41" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>224</v>
+        <v>352</v>
       </c>
       <c r="C43" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C44" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="28"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="31"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="29"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="29"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="30"/>
+      <c r="A47" s="28"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="31"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="29"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="29"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="14"/>
+      <c r="A59" s="30"/>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="14"/>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="14"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12956,17 +13004,17 @@
   <cols>
     <col min="1" max="1" width="12.21875" customWidth="1"/>
     <col min="2" max="2" width="57.33203125" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12974,12 +13022,12 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -13005,13 +13053,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -13060,12 +13119,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13074,14 +13133,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -13110,24 +13169,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -13182,12 +13241,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13196,14 +13255,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -13232,112 +13291,112 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" t="s">
         <v>260</v>
       </c>
-      <c r="B14" t="s">
-        <v>272</v>
-      </c>
       <c r="C14" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B18" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C18" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:3">

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340CB314-66C7-483A-AF1F-513219841EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A566A53C-BF7C-4268-B898-02A347C5CCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="364">
   <si>
     <t>Name</t>
   </si>
@@ -74,19 +74,10 @@
     <t>Red</t>
   </si>
   <si>
-    <t>Highlights in Main or List</t>
-  </si>
-  <si>
     <t>Main image highlight color</t>
   </si>
   <si>
-    <t>List image highlight color</t>
-  </si>
-  <si>
     <t>Main highlight opacity</t>
-  </si>
-  <si>
-    <t>List highlight opacity</t>
   </si>
   <si>
     <t>Components</t>
@@ -122,12 +113,6 @@
   <si>
     <t>Short one-liner description
 (one short line only!)</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Board schematics</t>
   </si>
   <si>
     <t>Schematic name</t>
@@ -1199,8 +1184,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-May-31</t>
+      <t>2025-June-10</t>
     </r>
+  </si>
+  <si>
+    <t>Board schematic images</t>
+  </si>
+  <si>
+    <t>Thumbnail image highlight color</t>
+  </si>
+  <si>
+    <t>Thumbnail highlight opacity</t>
+  </si>
+  <si>
+    <t>Highlights in Main or Thumbnail</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1321,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1395,9 +1392,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1775,7 +1769,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB56770-8233-4B8D-A81F-EDDC9713B054}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -1784,182 +1778,166 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" customWidth="1"/>
-    <col min="3" max="3" width="62.21875" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="39.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="14" customFormat="1" ht="21">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" ht="21">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="21">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="28" t="s">
-        <v>215</v>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="27" t="s">
+        <v>210</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="32" t="s">
-        <v>222</v>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="31" t="s">
+        <v>217</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1">
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>27</v>
+        <v>360</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="28.8">
+      <c r="A9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>10</v>
-      </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="43.2">
-      <c r="A9" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4">
-        <v>1</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="D10" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.3</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7">
         <v>0.3</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7">
         <v>0.3</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G12" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="28"/>
-    </row>
-    <row r="14" spans="1:9">
+    <row r="13" spans="1:7">
+      <c r="A13" s="27"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="29"/>
-    </row>
-    <row r="16" spans="1:9">
+    <row r="15" spans="1:7">
+      <c r="A15" s="28"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16"/>
     </row>
     <row r="17" spans="1:1">
@@ -1969,7 +1947,7 @@
       <c r="A18"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="28"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="14"/>
@@ -1987,7 +1965,7 @@
       <c r="A24"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="28"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="14"/>
@@ -2002,7 +1980,7 @@
       <c r="A29"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="30"/>
+      <c r="A30" s="29"/>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="14"/>
@@ -2014,7 +1992,7 @@
       <c r="A33" s="14"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="30"/>
+      <c r="A34" s="29"/>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="14"/>
@@ -2027,7 +2005,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" location="worksheet-board-schematics" xr:uid="{EC02DD6E-03E9-4AF1-8A99-9AAB3C72C4A9}"/>
@@ -2060,25 +2038,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="13" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="28" t="s">
-        <v>215</v>
+      <c r="A4" s="27" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="32" t="s">
-        <v>221</v>
+      <c r="A5" s="31" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2086,7 +2064,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2105,1596 +2083,1596 @@
         <v>2</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F8" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="17" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="17" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="28.8">
       <c r="A37" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="17" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="17" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="115.2">
       <c r="A79" s="17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B79" s="1">
         <v>6526</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="115.2">
       <c r="A80" s="17" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B80" s="1">
         <v>6526</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="57.6">
       <c r="A81" s="17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B81" s="1">
         <v>2364</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="28.8">
       <c r="A82" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B82" s="1">
         <v>2364</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="72">
       <c r="A83" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B83" s="1">
         <v>2332</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="28.8">
       <c r="A84" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B84" s="1">
         <v>2114</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B85" s="1">
         <v>6510</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B86" s="1">
         <v>7406</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B87" s="1">
         <v>4164</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B88" s="1">
         <v>4164</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B89" s="1">
         <v>4164</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B90" s="1">
         <v>4164</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B94" s="1">
         <v>4066</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="57.6">
       <c r="A95" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="28.8">
       <c r="A96" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B96" s="1">
         <v>6581</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="72">
       <c r="A97" s="17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B97" s="1">
         <v>6569</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B98" s="1">
         <v>556</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B99" s="1">
         <v>4164</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B100" s="1">
         <v>4164</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B101" s="1">
         <v>4164</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B102" s="1">
         <v>4164</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B106" s="1">
         <v>4066</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B107" s="1">
         <v>8701</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="17" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="17" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="17" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B111" s="1">
         <v>7812</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B112" s="1">
         <v>7805</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="100.8">
       <c r="A113" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="17"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="28"/>
+      <c r="A115" s="27"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="28"/>
+      <c r="A116" s="27"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="29"/>
+      <c r="A117" s="28"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118"/>
@@ -3706,7 +3684,7 @@
       <c r="A120"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="29"/>
+      <c r="A121" s="28"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122"/>
@@ -3721,7 +3699,7 @@
       <c r="A125"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="29"/>
+      <c r="A126" s="28"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="14"/>
@@ -3739,7 +3717,7 @@
       <c r="A131" s="14"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="30"/>
+      <c r="A132" s="29"/>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="14"/>
@@ -3757,7 +3735,7 @@
       <c r="A137" s="14"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="30"/>
+      <c r="A138" s="29"/>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="14"/>
@@ -3769,7 +3747,7 @@
       <c r="A141" s="14"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="30"/>
+      <c r="A142" s="29"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="14"/>
@@ -3784,7 +3762,7 @@
       <c r="A146" s="14"/>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="30"/>
+      <c r="A147" s="29"/>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="14"/>
@@ -4498,12 +4476,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4517,8 +4495,8 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="28" t="s">
-        <v>215</v>
+      <c r="A4" s="27" t="s">
+        <v>210</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4529,8 +4507,8 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="32" t="s">
-        <v>220</v>
+      <c r="A5" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4552,7 +4530,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -4562,7 +4540,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -4582,10 +4560,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C9" s="19">
         <v>846</v>
@@ -4604,10 +4582,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C10" s="19">
         <v>1094</v>
@@ -4624,10 +4602,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C11" s="19">
         <v>1337</v>
@@ -4644,10 +4622,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C12" s="19">
         <v>2045</v>
@@ -4664,10 +4642,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C13" s="19">
         <v>2509</v>
@@ -4684,10 +4662,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C14" s="19">
         <v>2512</v>
@@ -4704,10 +4682,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C15" s="19">
         <v>3014</v>
@@ -4724,10 +4702,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C16" s="19">
         <v>3267</v>
@@ -4744,10 +4722,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C17" s="19">
         <v>2501</v>
@@ -4764,10 +4742,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C18" s="19">
         <v>1349</v>
@@ -4784,10 +4762,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C19" s="19">
         <v>1137</v>
@@ -4804,10 +4782,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C20" s="19">
         <v>930</v>
@@ -4824,10 +4802,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C21" s="19">
         <v>722</v>
@@ -4844,10 +4822,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C22" s="19">
         <v>586</v>
@@ -4864,10 +4842,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C23" s="19">
         <v>2003</v>
@@ -4884,10 +4862,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C24" s="19">
         <v>1771</v>
@@ -4904,10 +4882,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C25" s="19">
         <v>1082</v>
@@ -4924,10 +4902,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C26" s="19">
         <v>3045</v>
@@ -4944,10 +4922,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C27" s="19">
         <v>1444</v>
@@ -4964,10 +4942,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C28" s="19">
         <v>1245</v>
@@ -4984,10 +4962,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C29" s="19">
         <v>1034</v>
@@ -5004,10 +4982,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C30" s="19">
         <v>831</v>
@@ -5024,10 +5002,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C31" s="19">
         <v>583</v>
@@ -5044,10 +5022,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C32" s="19">
         <v>1620</v>
@@ -5064,10 +5042,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C33" s="19">
         <v>2571</v>
@@ -5084,10 +5062,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C34" s="19">
         <v>2814</v>
@@ -5104,10 +5082,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C35" s="19">
         <v>2817</v>
@@ -5124,10 +5102,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C36" s="19">
         <v>2218</v>
@@ -5144,10 +5122,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C37" s="19">
         <v>3183</v>
@@ -5164,10 +5142,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C38" s="19">
         <v>2497</v>
@@ -5184,10 +5162,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C39" s="19">
         <v>2403</v>
@@ -5204,10 +5182,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C40" s="19">
         <v>1816</v>
@@ -5224,10 +5202,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C41" s="19">
         <v>566</v>
@@ -5244,10 +5222,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C42" s="19">
         <v>3219</v>
@@ -5264,10 +5242,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C43" s="19">
         <v>3487</v>
@@ -5284,10 +5262,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C44" s="19">
         <v>360</v>
@@ -5304,10 +5282,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C45" s="19">
         <v>3142</v>
@@ -5324,10 +5302,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C46" s="19">
         <v>2978</v>
@@ -5344,10 +5322,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C47" s="19">
         <v>883</v>
@@ -5364,10 +5342,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C48" s="19">
         <v>1129</v>
@@ -5384,10 +5362,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C49" s="19">
         <v>1375</v>
@@ -5404,10 +5382,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C50" s="19">
         <v>2153</v>
@@ -5424,10 +5402,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C51" s="19">
         <v>506</v>
@@ -5444,10 +5422,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C52" s="19">
         <v>1353</v>
@@ -5464,10 +5442,10 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C53" s="19">
         <v>1148</v>
@@ -5484,10 +5462,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C54" s="19">
         <v>941</v>
@@ -5504,10 +5482,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C55" s="19">
         <v>733</v>
@@ -5524,10 +5502,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="C56" s="19">
         <v>485</v>
@@ -5544,10 +5522,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C57" s="19">
         <v>2037</v>
@@ -5564,10 +5542,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C58" s="19">
         <v>1726</v>
@@ -5584,10 +5562,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C59" s="19">
         <v>1890</v>
@@ -5604,10 +5582,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C60" s="19">
         <v>2039</v>
@@ -5624,10 +5602,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C61" s="19">
         <v>885</v>
@@ -5644,10 +5622,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C62" s="19">
         <v>2652</v>
@@ -5664,10 +5642,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C63" s="19">
         <v>2337</v>
@@ -5684,10 +5662,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C64" s="19">
         <v>1455</v>
@@ -5704,10 +5682,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C65" s="19">
         <v>1249</v>
@@ -5724,10 +5702,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C66" s="19">
         <v>1043</v>
@@ -5744,10 +5722,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C67" s="19">
         <v>836</v>
@@ -5764,10 +5742,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C68" s="19">
         <v>487</v>
@@ -5784,10 +5762,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C69" s="19">
         <v>1723</v>
@@ -5804,10 +5782,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C70" s="19">
         <v>249</v>
@@ -5824,10 +5802,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C71" s="19">
         <v>257</v>
@@ -5844,10 +5822,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C72" s="19">
         <v>2036</v>
@@ -5864,10 +5842,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C73" s="19">
         <v>2996</v>
@@ -5884,10 +5862,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C74" s="19">
         <v>3116</v>
@@ -5904,10 +5882,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C75" s="19">
         <v>2372</v>
@@ -5924,10 +5902,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C76" s="19">
         <v>1058</v>
@@ -5944,10 +5922,10 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C77" s="19">
         <v>1097</v>
@@ -5964,10 +5942,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C78" s="19">
         <v>1074</v>
@@ -5984,10 +5962,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C79" s="19">
         <v>2299</v>
@@ -6004,10 +5982,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C80" s="19">
         <v>2441</v>
@@ -6024,10 +6002,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C81" s="19">
         <v>893</v>
@@ -6044,10 +6022,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C82" s="19">
         <v>597</v>
@@ -6064,10 +6042,10 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C83" s="19">
         <v>2690</v>
@@ -6084,10 +6062,10 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C84" s="19">
         <v>2772</v>
@@ -6104,10 +6082,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C85" s="19">
         <v>475</v>
@@ -6124,10 +6102,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C86" s="19">
         <v>2971</v>
@@ -6144,10 +6122,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C87" s="19">
         <v>1501</v>
@@ -6164,10 +6142,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C88" s="19">
         <v>1982</v>
@@ -6184,10 +6162,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C89" s="19">
         <v>2299</v>
@@ -6204,10 +6182,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C90" s="19">
         <v>2230</v>
@@ -6224,10 +6202,10 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C91" s="19">
         <v>2445</v>
@@ -6244,10 +6222,10 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C92" s="19">
         <v>2626</v>
@@ -6264,10 +6242,10 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C93" s="19">
         <v>2237</v>
@@ -6284,10 +6262,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C94" s="19">
         <v>1976</v>
@@ -6304,10 +6282,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C95" s="19">
         <v>2260</v>
@@ -6324,10 +6302,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C96" s="19">
         <v>2099</v>
@@ -6344,10 +6322,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C97" s="19">
         <v>1954</v>
@@ -6364,10 +6342,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C98" s="19">
         <v>1565</v>
@@ -6384,10 +6362,10 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C99" s="19">
         <v>1760</v>
@@ -6404,10 +6382,10 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C100" s="19">
         <v>238</v>
@@ -6424,10 +6402,10 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C101" s="19">
         <v>244</v>
@@ -6444,10 +6422,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C102" s="19">
         <v>2614</v>
@@ -6464,10 +6442,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C103" s="19">
         <v>225</v>
@@ -6484,10 +6462,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C104" s="19">
         <v>1004</v>
@@ -6504,10 +6482,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C105" s="19">
         <v>2408</v>
@@ -6524,10 +6502,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C106" s="19">
         <v>230</v>
@@ -6544,10 +6522,10 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C107" s="19">
         <v>233</v>
@@ -6564,10 +6542,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C108" s="19">
         <v>2037</v>
@@ -6584,10 +6562,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C109" s="19">
         <v>2408</v>
@@ -6604,10 +6582,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C110" s="19">
         <v>2478</v>
@@ -6624,10 +6602,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C111" s="19">
         <v>1167</v>
@@ -6644,10 +6622,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C112" s="19">
         <v>1172</v>
@@ -6664,10 +6642,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C113" s="19">
         <v>1160</v>
@@ -6684,10 +6662,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C114" s="19">
         <v>803</v>
@@ -6704,10 +6682,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C115" s="19">
         <v>920</v>
@@ -6724,10 +6702,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C116" s="19">
         <v>3091</v>
@@ -6744,10 +6722,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C117" s="19">
         <v>707</v>
@@ -6764,10 +6742,10 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C118" s="19">
         <v>2829</v>
@@ -6784,10 +6762,10 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C119" s="19">
         <v>1520</v>
@@ -6804,10 +6782,10 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C120" s="19">
         <v>372</v>
@@ -6824,10 +6802,10 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C121" s="19">
         <v>2144</v>
@@ -6844,10 +6822,10 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C122" s="19">
         <v>2145</v>
@@ -6864,10 +6842,10 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C123" s="19">
         <v>1090</v>
@@ -6884,10 +6862,10 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C124" s="19">
         <v>368</v>
@@ -6904,10 +6882,10 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C125" s="19">
         <v>591</v>
@@ -6924,10 +6902,10 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C126" s="19">
         <v>819</v>
@@ -6944,10 +6922,10 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C127" s="19">
         <v>967</v>
@@ -6964,10 +6942,10 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C128" s="19">
         <v>1216</v>
@@ -6984,10 +6962,10 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C129" s="19">
         <v>1495</v>
@@ -7004,10 +6982,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C130" s="19">
         <v>1465</v>
@@ -7024,10 +7002,10 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C131" s="19">
         <v>1627</v>
@@ -7044,10 +7022,10 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C132" s="19">
         <v>1589</v>
@@ -7064,10 +7042,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C133" s="19">
         <v>1837</v>
@@ -7084,10 +7062,10 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C134" s="19">
         <v>2024</v>
@@ -7104,10 +7082,10 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C135" s="19">
         <v>2315</v>
@@ -7124,10 +7102,10 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C136" s="19">
         <v>3294</v>
@@ -7144,10 +7122,10 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C137" s="19">
         <v>3696</v>
@@ -7164,10 +7142,10 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C138" s="19">
         <v>395</v>
@@ -7184,10 +7162,10 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C139" s="19">
         <v>247</v>
@@ -7204,10 +7182,10 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C140" s="19">
         <v>407</v>
@@ -7224,10 +7202,10 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C141" s="19">
         <v>543</v>
@@ -7244,10 +7222,10 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C142" s="19">
         <v>693</v>
@@ -7264,10 +7242,10 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C143" s="19">
         <v>844</v>
@@ -7284,10 +7262,10 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C144" s="19">
         <v>995</v>
@@ -7304,10 +7282,10 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C145" s="19">
         <v>1167</v>
@@ -7324,10 +7302,10 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C146" s="19">
         <v>1642</v>
@@ -7344,10 +7322,10 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C147" s="19">
         <v>1342</v>
@@ -7364,10 +7342,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C148" s="19">
         <v>1767</v>
@@ -7384,10 +7362,10 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C149" s="19">
         <v>399</v>
@@ -7404,10 +7382,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C150" s="19">
         <v>1902</v>
@@ -7424,10 +7402,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C151" s="19">
         <v>247</v>
@@ -7444,10 +7422,10 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C152" s="19">
         <v>398</v>
@@ -7464,10 +7442,10 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C153" s="19">
         <v>545</v>
@@ -7484,10 +7462,10 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C154" s="19">
         <v>698</v>
@@ -7504,10 +7482,10 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C155" s="19">
         <v>848</v>
@@ -7524,10 +7502,10 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C156" s="19">
         <v>996</v>
@@ -7544,10 +7522,10 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C157" s="19">
         <v>1169</v>
@@ -7564,10 +7542,10 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C158" s="19">
         <v>1345</v>
@@ -7584,10 +7562,10 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C159" s="19">
         <v>1491</v>
@@ -7604,10 +7582,10 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C160" s="19">
         <v>1737</v>
@@ -7624,10 +7602,10 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C161" s="19">
         <v>1751</v>
@@ -7644,10 +7622,10 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C162" s="19">
         <v>1838</v>
@@ -7664,10 +7642,10 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C163" s="19">
         <v>2888</v>
@@ -7684,10 +7662,10 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C164" s="19">
         <v>2863</v>
@@ -7704,10 +7682,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C165" s="19">
         <v>2962</v>
@@ -7724,10 +7702,10 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C166" s="19">
         <v>3130</v>
@@ -7744,10 +7722,10 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C167" s="19">
         <v>3112</v>
@@ -7764,10 +7742,10 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C168" s="19">
         <v>3457</v>
@@ -7784,10 +7762,10 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C169" s="19">
         <v>3823</v>
@@ -7804,10 +7782,10 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C170" s="19">
         <v>1739</v>
@@ -7824,10 +7802,10 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C171" s="19">
         <v>3311</v>
@@ -7844,10 +7822,10 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C172" s="19">
         <v>2315</v>
@@ -7864,10 +7842,10 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C173" s="19">
         <v>3160</v>
@@ -7884,10 +7862,10 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C174" s="19">
         <v>1214</v>
@@ -7904,10 +7882,10 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C175" s="19">
         <v>1092</v>
@@ -7924,10 +7902,10 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C176" s="19">
         <v>967</v>
@@ -7944,10 +7922,10 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C177" s="19">
         <v>2039</v>
@@ -7964,10 +7942,10 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C178" s="19">
         <v>744</v>
@@ -7984,10 +7962,10 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C179" s="19">
         <v>969</v>
@@ -8004,10 +7982,10 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C180" s="19">
         <v>709</v>
@@ -8024,10 +8002,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C181" s="19">
         <v>2012</v>
@@ -8044,10 +8022,10 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C182" s="19">
         <v>259</v>
@@ -8064,10 +8042,10 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C183" s="19">
         <v>345</v>
@@ -8084,10 +8062,10 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C184" s="19">
         <v>1186</v>
@@ -8104,10 +8082,10 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C185" s="19">
         <v>1677</v>
@@ -8124,10 +8102,10 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C186" s="19">
         <v>1974</v>
@@ -8144,10 +8122,10 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C187" s="19">
         <v>2905</v>
@@ -8164,10 +8142,10 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C188" s="19">
         <v>3812</v>
@@ -8184,10 +8162,10 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C189" s="19">
         <v>3775</v>
@@ -8204,10 +8182,10 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C190" s="19">
         <v>3774</v>
@@ -8224,10 +8202,10 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C191" s="19">
         <v>3878</v>
@@ -8244,10 +8222,10 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C192" s="19">
         <v>2891</v>
@@ -8264,10 +8242,10 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C193" s="19">
         <v>3167</v>
@@ -8284,10 +8262,10 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C194" s="19">
         <v>2234</v>
@@ -8304,10 +8282,10 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C195" s="19">
         <v>3713</v>
@@ -8324,10 +8302,10 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C196" s="19">
         <v>372</v>
@@ -8344,10 +8322,10 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C197" s="19">
         <v>572</v>
@@ -8364,10 +8342,10 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C198" s="19">
         <v>799</v>
@@ -8384,10 +8362,10 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C199" s="19">
         <v>997</v>
@@ -8404,10 +8382,10 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C200" s="19">
         <v>1196</v>
@@ -8424,10 +8402,10 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C201" s="19">
         <v>1496</v>
@@ -8444,10 +8422,10 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C202" s="19">
         <v>1419</v>
@@ -8464,10 +8442,10 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C203" s="19">
         <v>397</v>
@@ -8484,10 +8462,10 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C204" s="19">
         <v>548</v>
@@ -8504,10 +8482,10 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C205" s="19">
         <v>700</v>
@@ -8524,10 +8502,10 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C206" s="19">
         <v>849</v>
@@ -8544,10 +8522,10 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C207" s="19">
         <v>997</v>
@@ -8564,10 +8542,10 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C208" s="19">
         <v>1171</v>
@@ -8584,10 +8562,10 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C209" s="19">
         <v>1643</v>
@@ -8604,10 +8582,10 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C210" s="19">
         <v>1344</v>
@@ -8624,10 +8602,10 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C211" s="19">
         <v>1647</v>
@@ -8644,10 +8622,10 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C212" s="19">
         <v>1792</v>
@@ -8664,10 +8642,10 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C213" s="19">
         <v>1666</v>
@@ -8684,10 +8662,10 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C214" s="19">
         <v>2367</v>
@@ -8704,10 +8682,10 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C215" s="19">
         <v>399</v>
@@ -8724,10 +8702,10 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C216" s="19">
         <v>550</v>
@@ -8744,10 +8722,10 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C217" s="19">
         <v>700</v>
@@ -8764,10 +8742,10 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C218" s="19">
         <v>849</v>
@@ -8784,10 +8762,10 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C219" s="19">
         <v>997</v>
@@ -8804,10 +8782,10 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C220" s="19">
         <v>1172</v>
@@ -8824,10 +8802,10 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C221" s="19">
         <v>1347</v>
@@ -8844,10 +8822,10 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C222" s="19">
         <v>1493</v>
@@ -8864,10 +8842,10 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C223" s="19">
         <v>1794</v>
@@ -8884,10 +8862,10 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C224" s="19">
         <v>2663</v>
@@ -8904,10 +8882,10 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B225" s="19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C225" s="19">
         <v>3167</v>
@@ -8924,10 +8902,10 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C226" s="19">
         <v>3322</v>
@@ -8944,10 +8922,10 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C227" s="19">
         <v>2732</v>
@@ -10694,222 +10672,222 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
-      <c r="A4" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="A4" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
-      <c r="A5" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
       <c r="A7" s="24" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B7" s="24"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>326</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="44" t="s">
-        <v>328</v>
+      <c r="B8" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="43" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="40"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="40"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="40"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="40"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="40"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="40"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="40"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="40"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="40"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="40"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="40"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="40"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="40"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="40"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="40"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="40"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="40"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="40"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="40"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="40"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="40"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
@@ -11221,145 +11199,145 @@
     <row r="97" spans="1:4">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="40"/>
+      <c r="C97" s="39"/>
       <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="40"/>
+      <c r="C98" s="39"/>
       <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="40"/>
+      <c r="C99" s="39"/>
       <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="40"/>
+      <c r="C100" s="39"/>
       <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="40"/>
+      <c r="C101" s="39"/>
       <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="40"/>
+      <c r="C102" s="39"/>
       <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="40"/>
+      <c r="C103" s="39"/>
       <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
-      <c r="C104" s="40"/>
+      <c r="C104" s="39"/>
       <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
-      <c r="C105" s="40"/>
+      <c r="C105" s="39"/>
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="40"/>
+      <c r="C106" s="39"/>
       <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
-      <c r="C107" s="40"/>
+      <c r="C107" s="39"/>
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
-      <c r="C108" s="40"/>
+      <c r="C108" s="39"/>
       <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
-      <c r="C109" s="40"/>
+      <c r="C109" s="39"/>
       <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
-      <c r="C110" s="40"/>
+      <c r="C110" s="39"/>
       <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
-      <c r="C111" s="40"/>
+      <c r="C111" s="39"/>
       <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
-      <c r="C112" s="40"/>
+      <c r="C112" s="39"/>
       <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
-      <c r="C113" s="40"/>
+      <c r="C113" s="39"/>
       <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
-      <c r="C114" s="40"/>
+      <c r="C114" s="39"/>
       <c r="D114" s="14"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
-      <c r="C115" s="40"/>
+      <c r="C115" s="39"/>
       <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
-      <c r="C116" s="40"/>
+      <c r="C116" s="39"/>
       <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
-      <c r="C117" s="40"/>
+      <c r="C117" s="39"/>
       <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
-      <c r="C118" s="40"/>
+      <c r="C118" s="39"/>
       <c r="D118" s="14"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
-      <c r="C119" s="40"/>
+      <c r="C119" s="39"/>
       <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
-      <c r="C120" s="40"/>
+      <c r="C120" s="39"/>
       <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4">
@@ -11557,103 +11535,103 @@
     <row r="169" spans="1:5">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
-      <c r="C169" s="40"/>
+      <c r="C169" s="39"/>
       <c r="D169" s="14"/>
       <c r="E169" s="14"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
-      <c r="C170" s="40"/>
+      <c r="C170" s="39"/>
       <c r="D170" s="14"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
-      <c r="C171" s="40"/>
+      <c r="C171" s="39"/>
       <c r="D171" s="14"/>
       <c r="E171" s="14"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
-      <c r="C172" s="40"/>
+      <c r="C172" s="39"/>
       <c r="D172" s="14"/>
       <c r="E172" s="14"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
-      <c r="C173" s="40"/>
+      <c r="C173" s="39"/>
       <c r="D173" s="14"/>
       <c r="E173" s="14"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
-      <c r="C174" s="40"/>
+      <c r="C174" s="39"/>
       <c r="D174" s="14"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
-      <c r="C175" s="40"/>
+      <c r="C175" s="39"/>
       <c r="D175" s="14"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
-      <c r="C176" s="40"/>
+      <c r="C176" s="39"/>
       <c r="D176" s="14"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
-      <c r="C177" s="40"/>
+      <c r="C177" s="39"/>
       <c r="D177" s="14"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
-      <c r="C178" s="40"/>
+      <c r="C178" s="39"/>
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
-      <c r="C179" s="40"/>
+      <c r="C179" s="39"/>
       <c r="D179" s="14"/>
       <c r="E179" s="14"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
-      <c r="C180" s="40"/>
+      <c r="C180" s="39"/>
       <c r="D180" s="14"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
-      <c r="C181" s="40"/>
+      <c r="C181" s="39"/>
       <c r="D181" s="14"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
-      <c r="C182" s="40"/>
+      <c r="C182" s="39"/>
       <c r="D182" s="14"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
-      <c r="C183" s="40"/>
+      <c r="C183" s="39"/>
       <c r="D183" s="14"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
-      <c r="C184" s="40"/>
+      <c r="C184" s="39"/>
       <c r="D184" s="14"/>
       <c r="E184" s="14"/>
     </row>
@@ -11735,7 +11713,7 @@
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" style="42" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="71" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
@@ -11743,41 +11721,41 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21">
       <c r="A1" s="13" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="33"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="33"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="34"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="36"/>
+      <c r="A5" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="G5" s="14"/>
@@ -11785,16 +11763,16 @@
     <row r="6" spans="1:7">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="34"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="24"/>
-      <c r="C7" s="37"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
     </row>
@@ -11803,10 +11781,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>326</v>
+        <v>320</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>321</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>0</v>
@@ -11817,520 +11795,520 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="34"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="39"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="39"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="34"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B13" s="19"/>
-      <c r="C13" s="39"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="19" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B14" s="19"/>
-      <c r="C14" s="39"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="39"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B16" s="19"/>
-      <c r="C16" s="39"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="39"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B18" s="19"/>
-      <c r="C18" s="39"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="40"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B20" s="19"/>
-      <c r="C20" s="39"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="39"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="C22" s="39"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B23" s="17"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B24" s="17"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B25" s="17"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B26" s="17"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B27" s="17"/>
-      <c r="C27" s="34"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="40"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="40"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B30" s="14"/>
-      <c r="C30" s="40"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="40"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="40"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="40"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="40"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B35" s="14"/>
-      <c r="C35" s="40"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B36" s="14"/>
-      <c r="C36" s="40"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B37" s="14"/>
-      <c r="C37" s="40"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B38" s="14"/>
-      <c r="C38" s="40"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B39" s="14"/>
-      <c r="C39" s="40"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B40" s="14"/>
-      <c r="C40" s="40"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B41" s="14"/>
-      <c r="C41" s="40"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B42" s="14"/>
-      <c r="C42" s="40"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B43" s="14"/>
-      <c r="C43" s="40"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B44" s="14"/>
-      <c r="C44" s="40"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B45" s="14"/>
-      <c r="C45" s="40"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B46" s="14"/>
-      <c r="C46" s="40"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B47" s="14"/>
-      <c r="C47" s="40"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="40"/>
+      <c r="C48" s="39"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="35"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="34"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50"/>
@@ -12338,9 +12316,9 @@
       <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="41"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="40"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52"/>
@@ -12350,127 +12328,127 @@
     <row r="53" spans="1:3">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="40"/>
+      <c r="C53" s="39"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="40"/>
+      <c r="C54" s="39"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="42"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="41"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
-      <c r="C56" s="40"/>
+      <c r="C56" s="39"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="40"/>
+      <c r="C57" s="39"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="40"/>
+      <c r="C58" s="39"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="42"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="41"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="40"/>
+      <c r="C60" s="39"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
-      <c r="C61" s="40"/>
+      <c r="C61" s="39"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
-      <c r="C62" s="40"/>
+      <c r="C62" s="39"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
-      <c r="C63" s="40"/>
+      <c r="C63" s="39"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="40"/>
+      <c r="C64" s="39"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
-      <c r="C65" s="40"/>
+      <c r="C65" s="39"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
-      <c r="C66" s="40"/>
+      <c r="C66" s="39"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="40"/>
+      <c r="C67" s="39"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="40"/>
+      <c r="C68" s="39"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
-      <c r="C69" s="40"/>
+      <c r="C69" s="39"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="40"/>
+      <c r="C70" s="39"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="40"/>
+      <c r="C71" s="39"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="40"/>
+      <c r="C72" s="39"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="40"/>
+      <c r="C73" s="39"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="40"/>
+      <c r="C74" s="39"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="40"/>
+      <c r="C75" s="39"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="40"/>
+      <c r="C76" s="39"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="40"/>
+      <c r="C77" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12500,12 +12478,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12514,15 +12492,15 @@
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="28" t="s">
-        <v>215</v>
+      <c r="A4" s="27" t="s">
+        <v>210</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="32" t="s">
-        <v>218</v>
+      <c r="A5" s="31" t="s">
+        <v>213</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -12534,7 +12512,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -12552,425 +12530,425 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="17" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C34" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C43" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C45" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="28"/>
+      <c r="A47" s="27"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="31"/>
+      <c r="A48" s="30"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="29"/>
+      <c r="A52" s="28"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="29"/>
+      <c r="A56" s="28"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="30"/>
+      <c r="A59" s="29"/>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="14"/>
@@ -13009,25 +12987,25 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="28" t="s">
-        <v>215</v>
+      <c r="A4" s="27" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="32" t="s">
-        <v>217</v>
+      <c r="A5" s="31" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -13035,7 +13013,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -13048,45 +13026,45 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="31"/>
+      <c r="A18" s="30"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="28"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="28"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="30"/>
+      <c r="A29" s="29"/>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="14"/>
@@ -13119,12 +13097,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13132,15 +13110,15 @@
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="28" t="s">
-        <v>215</v>
+      <c r="A4" s="27" t="s">
+        <v>210</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="32" t="s">
-        <v>217</v>
+      <c r="A5" s="31" t="s">
+        <v>212</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -13151,14 +13129,14 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>0</v>
@@ -13169,40 +13147,40 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="31"/>
+      <c r="A18" s="30"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="28"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="28"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="30"/>
+      <c r="A29" s="29"/>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="14"/>
@@ -13241,12 +13219,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13254,15 +13232,15 @@
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="28" t="s">
-        <v>215</v>
+      <c r="A4" s="27" t="s">
+        <v>210</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="32" t="s">
-        <v>216</v>
+      <c r="A5" s="31" t="s">
+        <v>211</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -13273,14 +13251,14 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>0</v>
@@ -13291,128 +13269,128 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>332</v>
+        <v>326</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C10" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" t="s">
         <v>244</v>
-      </c>
-      <c r="B11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>335</v>
+        <v>329</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C16" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C18" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="31"/>
+      <c r="A21" s="30"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="28"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="28"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="30"/>
+      <c r="A32" s="29"/>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="14"/>

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A566A53C-BF7C-4268-B898-02A347C5CCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E6EF05-8A71-4FAA-A338-EF124E8604C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A008762A-296A-4D0C-8ED6-0A7640C61491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E66A0D-40A8-4148-9A00-22F9BA4101F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -1219,6 +1219,16 @@
     <t>Info</t>
   </si>
   <si>
+    <t>Video chip (PAL)</t>
+  </si>
+  <si>
+    <t>Video chip (NTSC)</t>
+  </si>
+  <si>
+    <t>Memory location:
+$D000-$D3FF</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1231,18 +1241,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-July-7</t>
+      <t>2025-July-11</t>
     </r>
-  </si>
-  <si>
-    <t>Video chip (PAL)</t>
-  </si>
-  <si>
-    <t>Video chip (NTSC)</t>
-  </si>
-  <si>
-    <t>Memory location:
-$D000-$D3FF</t>
   </si>
 </sst>
 </file>
@@ -1488,9 +1488,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1511,6 +1508,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1858,7 +1858,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1900,12 +1900,12 @@
         <v>353</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="50" t="s">
         <v>356</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="28.8">
       <c r="A9" s="22" t="s">
@@ -3422,7 +3422,7 @@
         <v>371</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3442,7 +3442,7 @@
         <v>372</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4615,7 +4615,7 @@
       <c r="B8" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>318</v>
       </c>
       <c r="D8" s="22" t="s">
@@ -4659,7 +4659,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>139</v>
       </c>
       <c r="B11" s="18"/>
@@ -4672,7 +4672,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>106</v>
       </c>
       <c r="B12" s="18"/>
@@ -4698,7 +4698,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="47" t="s">
         <v>100</v>
       </c>
       <c r="B14" s="18"/>
@@ -4711,7 +4711,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="47" t="s">
         <v>157</v>
       </c>
       <c r="B15" s="18"/>
@@ -4724,7 +4724,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="47" t="s">
         <v>110</v>
       </c>
       <c r="B16" s="18"/>
@@ -4737,7 +4737,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="47" t="s">
         <v>112</v>
       </c>
       <c r="B17" s="18"/>
@@ -4750,7 +4750,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="115.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="47" t="s">
         <v>134</v>
       </c>
       <c r="B18" s="18"/>
@@ -4766,7 +4766,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="115.2">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="47" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="18"/>
@@ -4798,7 +4798,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.8">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="18"/>
@@ -4814,7 +4814,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="72">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="18"/>
@@ -4830,7 +4830,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.8">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="47" t="s">
         <v>78</v>
       </c>
       <c r="B23" s="18"/>
@@ -5038,7 +5038,7 @@
         <v>293</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5242,17 +5242,17 @@
       <c r="C51" s="33"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="49"/>
+      <c r="A52" s="48"/>
       <c r="B52"/>
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="50"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="27"/>
       <c r="C53" s="38"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="49"/>
+      <c r="A54" s="48"/>
       <c r="B54"/>
       <c r="C54" s="4"/>
     </row>
@@ -5382,1644 +5382,1644 @@
       <c r="C79" s="37"/>
     </row>
     <row r="206" spans="5:5">
-      <c r="E206" s="44"/>
+      <c r="E206" s="43"/>
     </row>
     <row r="207" spans="5:5">
-      <c r="E207" s="44"/>
+      <c r="E207" s="43"/>
     </row>
     <row r="208" spans="5:5">
-      <c r="E208" s="44"/>
+      <c r="E208" s="43"/>
     </row>
     <row r="209" spans="5:7">
-      <c r="E209" s="44"/>
+      <c r="E209" s="43"/>
     </row>
     <row r="210" spans="5:7">
-      <c r="E210" s="44"/>
+      <c r="E210" s="43"/>
     </row>
     <row r="211" spans="5:7">
-      <c r="E211" s="44"/>
+      <c r="E211" s="43"/>
     </row>
     <row r="212" spans="5:7">
-      <c r="E212" s="44"/>
+      <c r="E212" s="43"/>
     </row>
     <row r="222" spans="5:7">
-      <c r="E222" s="44"/>
+      <c r="E222" s="43"/>
     </row>
     <row r="224" spans="5:7">
-      <c r="E224" s="44"/>
-      <c r="G224" s="44"/>
+      <c r="E224" s="43"/>
+      <c r="G224" s="43"/>
     </row>
     <row r="225" spans="5:7">
-      <c r="G225" s="44"/>
+      <c r="G225" s="43"/>
     </row>
     <row r="226" spans="5:7">
-      <c r="E226" s="45"/>
-      <c r="G226" s="44"/>
+      <c r="E226" s="44"/>
+      <c r="G226" s="43"/>
     </row>
     <row r="227" spans="5:7">
-      <c r="E227" s="44"/>
-      <c r="G227" s="44"/>
+      <c r="E227" s="43"/>
+      <c r="G227" s="43"/>
     </row>
     <row r="228" spans="5:7">
-      <c r="E228" s="44"/>
-      <c r="G228" s="44"/>
+      <c r="E228" s="43"/>
+      <c r="G228" s="43"/>
     </row>
     <row r="229" spans="5:7">
-      <c r="E229" s="44"/>
-      <c r="G229" s="44"/>
+      <c r="E229" s="43"/>
+      <c r="G229" s="43"/>
     </row>
     <row r="230" spans="5:7">
-      <c r="E230" s="44"/>
-      <c r="G230" s="44"/>
+      <c r="E230" s="43"/>
+      <c r="G230" s="43"/>
     </row>
     <row r="231" spans="5:7">
-      <c r="E231" s="44"/>
-      <c r="G231" s="44"/>
+      <c r="E231" s="43"/>
+      <c r="G231" s="43"/>
     </row>
     <row r="232" spans="5:7">
-      <c r="E232" s="46"/>
-      <c r="G232" s="44"/>
+      <c r="E232" s="45"/>
+      <c r="G232" s="43"/>
     </row>
     <row r="233" spans="5:7">
-      <c r="E233" s="44"/>
-      <c r="G233" s="44"/>
+      <c r="E233" s="43"/>
+      <c r="G233" s="43"/>
     </row>
     <row r="234" spans="5:7">
-      <c r="E234" s="44"/>
-      <c r="G234" s="44"/>
+      <c r="E234" s="43"/>
+      <c r="G234" s="43"/>
     </row>
     <row r="235" spans="5:7">
-      <c r="E235" s="44"/>
-      <c r="G235" s="44"/>
+      <c r="E235" s="43"/>
+      <c r="G235" s="43"/>
     </row>
     <row r="236" spans="5:7">
-      <c r="E236" s="44"/>
-      <c r="G236" s="44"/>
+      <c r="E236" s="43"/>
+      <c r="G236" s="43"/>
     </row>
     <row r="237" spans="5:7">
-      <c r="E237" s="44"/>
-      <c r="G237" s="44"/>
+      <c r="E237" s="43"/>
+      <c r="G237" s="43"/>
     </row>
     <row r="238" spans="5:7">
-      <c r="E238" s="44"/>
-      <c r="G238" s="44"/>
+      <c r="E238" s="43"/>
+      <c r="G238" s="43"/>
     </row>
     <row r="239" spans="5:7">
-      <c r="E239" s="44"/>
-      <c r="G239" s="44"/>
+      <c r="E239" s="43"/>
+      <c r="G239" s="43"/>
     </row>
     <row r="240" spans="5:7">
-      <c r="E240" s="44"/>
-      <c r="G240" s="44"/>
+      <c r="E240" s="43"/>
+      <c r="G240" s="43"/>
     </row>
     <row r="241" spans="5:7">
-      <c r="E241" s="44"/>
-      <c r="G241" s="44"/>
+      <c r="E241" s="43"/>
+      <c r="G241" s="43"/>
     </row>
     <row r="242" spans="5:7">
-      <c r="E242" s="44"/>
-      <c r="G242" s="44"/>
+      <c r="E242" s="43"/>
+      <c r="G242" s="43"/>
     </row>
     <row r="243" spans="5:7">
-      <c r="E243" s="44"/>
-      <c r="G243" s="44"/>
+      <c r="E243" s="43"/>
+      <c r="G243" s="43"/>
     </row>
     <row r="244" spans="5:7">
-      <c r="E244" s="44"/>
-      <c r="G244" s="44"/>
+      <c r="E244" s="43"/>
+      <c r="G244" s="43"/>
     </row>
     <row r="245" spans="5:7">
-      <c r="E245" s="44"/>
-      <c r="G245" s="44"/>
+      <c r="E245" s="43"/>
+      <c r="G245" s="43"/>
     </row>
     <row r="246" spans="5:7">
-      <c r="E246" s="44"/>
-      <c r="G246" s="44"/>
+      <c r="E246" s="43"/>
+      <c r="G246" s="43"/>
     </row>
     <row r="247" spans="5:7">
-      <c r="E247" s="44"/>
-      <c r="G247" s="44"/>
+      <c r="E247" s="43"/>
+      <c r="G247" s="43"/>
     </row>
     <row r="248" spans="5:7">
-      <c r="E248" s="44"/>
-      <c r="G248" s="44"/>
+      <c r="E248" s="43"/>
+      <c r="G248" s="43"/>
     </row>
     <row r="249" spans="5:7">
-      <c r="E249" s="44"/>
-      <c r="G249" s="44"/>
+      <c r="E249" s="43"/>
+      <c r="G249" s="43"/>
     </row>
     <row r="250" spans="5:7">
-      <c r="E250" s="44"/>
-      <c r="G250" s="44"/>
+      <c r="E250" s="43"/>
+      <c r="G250" s="43"/>
     </row>
     <row r="251" spans="5:7">
-      <c r="E251" s="44"/>
-      <c r="G251" s="44"/>
+      <c r="E251" s="43"/>
+      <c r="G251" s="43"/>
     </row>
     <row r="252" spans="5:7">
-      <c r="E252" s="44"/>
-      <c r="G252" s="44"/>
+      <c r="E252" s="43"/>
+      <c r="G252" s="43"/>
     </row>
     <row r="253" spans="5:7">
-      <c r="E253" s="44"/>
-      <c r="G253" s="44"/>
+      <c r="E253" s="43"/>
+      <c r="G253" s="43"/>
     </row>
     <row r="254" spans="5:7">
-      <c r="E254" s="44"/>
-      <c r="G254" s="44"/>
+      <c r="E254" s="43"/>
+      <c r="G254" s="43"/>
     </row>
     <row r="255" spans="5:7">
-      <c r="E255" s="44"/>
-      <c r="G255" s="44"/>
+      <c r="E255" s="43"/>
+      <c r="G255" s="43"/>
     </row>
     <row r="256" spans="5:7">
-      <c r="E256" s="44"/>
-      <c r="G256" s="44"/>
+      <c r="E256" s="43"/>
+      <c r="G256" s="43"/>
     </row>
     <row r="257" spans="5:7">
-      <c r="E257" s="44"/>
-      <c r="G257" s="44"/>
+      <c r="E257" s="43"/>
+      <c r="G257" s="43"/>
     </row>
     <row r="258" spans="5:7">
-      <c r="E258" s="44"/>
-      <c r="G258" s="44"/>
+      <c r="E258" s="43"/>
+      <c r="G258" s="43"/>
     </row>
     <row r="259" spans="5:7">
-      <c r="E259" s="44"/>
-      <c r="G259" s="44"/>
+      <c r="E259" s="43"/>
+      <c r="G259" s="43"/>
     </row>
     <row r="260" spans="5:7">
-      <c r="E260" s="44"/>
-      <c r="G260" s="44"/>
+      <c r="E260" s="43"/>
+      <c r="G260" s="43"/>
     </row>
     <row r="261" spans="5:7">
-      <c r="E261" s="44"/>
-      <c r="G261" s="44"/>
+      <c r="E261" s="43"/>
+      <c r="G261" s="43"/>
     </row>
     <row r="262" spans="5:7">
-      <c r="E262" s="44"/>
-      <c r="G262" s="44"/>
+      <c r="E262" s="43"/>
+      <c r="G262" s="43"/>
     </row>
     <row r="263" spans="5:7">
-      <c r="E263" s="44"/>
-      <c r="G263" s="44"/>
+      <c r="E263" s="43"/>
+      <c r="G263" s="43"/>
     </row>
     <row r="264" spans="5:7">
-      <c r="E264" s="44"/>
-      <c r="G264" s="44"/>
+      <c r="E264" s="43"/>
+      <c r="G264" s="43"/>
     </row>
     <row r="265" spans="5:7">
-      <c r="E265" s="44"/>
-      <c r="G265" s="44"/>
+      <c r="E265" s="43"/>
+      <c r="G265" s="43"/>
     </row>
     <row r="266" spans="5:7">
-      <c r="E266" s="44"/>
-      <c r="G266" s="44"/>
+      <c r="E266" s="43"/>
+      <c r="G266" s="43"/>
     </row>
     <row r="267" spans="5:7">
-      <c r="E267" s="44"/>
-      <c r="G267" s="44"/>
+      <c r="E267" s="43"/>
+      <c r="G267" s="43"/>
     </row>
     <row r="268" spans="5:7">
-      <c r="E268" s="44"/>
-      <c r="G268" s="44"/>
+      <c r="E268" s="43"/>
+      <c r="G268" s="43"/>
     </row>
     <row r="269" spans="5:7">
-      <c r="E269" s="44"/>
-      <c r="G269" s="44"/>
+      <c r="E269" s="43"/>
+      <c r="G269" s="43"/>
     </row>
     <row r="270" spans="5:7">
-      <c r="E270" s="44"/>
-      <c r="G270" s="44"/>
+      <c r="E270" s="43"/>
+      <c r="G270" s="43"/>
     </row>
     <row r="271" spans="5:7">
-      <c r="E271" s="44"/>
-      <c r="G271" s="44"/>
+      <c r="E271" s="43"/>
+      <c r="G271" s="43"/>
     </row>
     <row r="279" spans="5:7">
-      <c r="E279" s="44"/>
+      <c r="E279" s="43"/>
     </row>
     <row r="288" spans="5:7">
-      <c r="G288" s="44"/>
+      <c r="G288" s="43"/>
     </row>
     <row r="289" spans="7:7">
-      <c r="G289" s="44"/>
+      <c r="G289" s="43"/>
     </row>
     <row r="290" spans="7:7">
-      <c r="G290" s="44"/>
+      <c r="G290" s="43"/>
     </row>
     <row r="291" spans="7:7">
-      <c r="G291" s="44"/>
+      <c r="G291" s="43"/>
     </row>
     <row r="292" spans="7:7">
-      <c r="G292" s="44"/>
+      <c r="G292" s="43"/>
     </row>
     <row r="293" spans="7:7">
-      <c r="G293" s="44"/>
+      <c r="G293" s="43"/>
     </row>
     <row r="294" spans="7:7">
-      <c r="G294" s="44"/>
+      <c r="G294" s="43"/>
     </row>
     <row r="295" spans="7:7">
-      <c r="G295" s="44"/>
+      <c r="G295" s="43"/>
     </row>
     <row r="296" spans="7:7">
-      <c r="G296" s="44"/>
+      <c r="G296" s="43"/>
     </row>
     <row r="297" spans="7:7">
-      <c r="G297" s="44"/>
+      <c r="G297" s="43"/>
     </row>
     <row r="298" spans="7:7">
-      <c r="G298" s="44"/>
+      <c r="G298" s="43"/>
     </row>
     <row r="299" spans="7:7">
-      <c r="G299" s="44"/>
+      <c r="G299" s="43"/>
     </row>
     <row r="300" spans="7:7">
-      <c r="G300" s="44"/>
+      <c r="G300" s="43"/>
     </row>
     <row r="301" spans="7:7">
-      <c r="G301" s="44"/>
+      <c r="G301" s="43"/>
     </row>
     <row r="331" spans="5:5">
-      <c r="E331" s="44"/>
+      <c r="E331" s="43"/>
     </row>
     <row r="350" spans="5:5">
-      <c r="E350" s="44"/>
+      <c r="E350" s="43"/>
     </row>
     <row r="351" spans="5:5">
-      <c r="E351" s="44"/>
+      <c r="E351" s="43"/>
     </row>
     <row r="354" spans="5:5">
-      <c r="E354" s="44"/>
+      <c r="E354" s="43"/>
     </row>
     <row r="355" spans="5:5">
-      <c r="E355" s="44"/>
+      <c r="E355" s="43"/>
     </row>
     <row r="356" spans="5:5">
-      <c r="E356" s="44"/>
+      <c r="E356" s="43"/>
     </row>
     <row r="357" spans="5:5">
-      <c r="E357" s="44"/>
+      <c r="E357" s="43"/>
     </row>
     <row r="358" spans="5:5">
-      <c r="E358" s="44"/>
+      <c r="E358" s="43"/>
     </row>
     <row r="359" spans="5:5">
-      <c r="E359" s="44"/>
+      <c r="E359" s="43"/>
     </row>
     <row r="365" spans="5:5">
-      <c r="E365" s="44"/>
+      <c r="E365" s="43"/>
     </row>
     <row r="366" spans="5:5">
-      <c r="E366" s="44"/>
+      <c r="E366" s="43"/>
     </row>
     <row r="367" spans="5:5">
-      <c r="E367" s="44"/>
+      <c r="E367" s="43"/>
     </row>
     <row r="368" spans="5:5">
-      <c r="E368" s="44"/>
+      <c r="E368" s="43"/>
     </row>
     <row r="369" spans="5:5">
-      <c r="E369" s="44"/>
+      <c r="E369" s="43"/>
     </row>
     <row r="370" spans="5:5">
-      <c r="E370" s="44"/>
+      <c r="E370" s="43"/>
     </row>
     <row r="371" spans="5:5">
-      <c r="E371" s="44"/>
+      <c r="E371" s="43"/>
     </row>
     <row r="373" spans="5:5">
-      <c r="E373" s="44"/>
+      <c r="E373" s="43"/>
     </row>
     <row r="374" spans="5:5">
-      <c r="E374" s="44"/>
+      <c r="E374" s="43"/>
     </row>
     <row r="375" spans="5:5">
-      <c r="E375" s="44"/>
+      <c r="E375" s="43"/>
     </row>
     <row r="376" spans="5:5">
-      <c r="E376" s="44"/>
+      <c r="E376" s="43"/>
     </row>
     <row r="380" spans="5:5">
-      <c r="E380" s="44"/>
+      <c r="E380" s="43"/>
     </row>
     <row r="387" spans="5:5">
-      <c r="E387" s="44"/>
+      <c r="E387" s="43"/>
     </row>
     <row r="391" spans="5:5">
-      <c r="E391" s="44"/>
+      <c r="E391" s="43"/>
     </row>
     <row r="402" spans="5:7">
-      <c r="E402" s="44"/>
+      <c r="E402" s="43"/>
     </row>
     <row r="412" spans="5:7">
-      <c r="E412" s="44"/>
+      <c r="E412" s="43"/>
     </row>
     <row r="414" spans="5:7">
-      <c r="G414" s="44"/>
+      <c r="G414" s="43"/>
     </row>
     <row r="415" spans="5:7">
-      <c r="G415" s="44"/>
+      <c r="G415" s="43"/>
     </row>
     <row r="416" spans="5:7">
-      <c r="G416" s="44"/>
+      <c r="G416" s="43"/>
     </row>
     <row r="417" spans="7:7">
-      <c r="G417" s="44"/>
+      <c r="G417" s="43"/>
     </row>
     <row r="418" spans="7:7">
-      <c r="G418" s="44"/>
+      <c r="G418" s="43"/>
     </row>
     <row r="419" spans="7:7">
-      <c r="G419" s="44"/>
+      <c r="G419" s="43"/>
     </row>
     <row r="420" spans="7:7">
-      <c r="G420" s="44"/>
+      <c r="G420" s="43"/>
     </row>
     <row r="421" spans="7:7">
-      <c r="G421" s="44"/>
+      <c r="G421" s="43"/>
     </row>
     <row r="422" spans="7:7">
-      <c r="G422" s="44"/>
+      <c r="G422" s="43"/>
     </row>
     <row r="423" spans="7:7">
-      <c r="G423" s="44"/>
+      <c r="G423" s="43"/>
     </row>
     <row r="424" spans="7:7">
-      <c r="G424" s="44"/>
+      <c r="G424" s="43"/>
     </row>
     <row r="425" spans="7:7">
-      <c r="G425" s="44"/>
+      <c r="G425" s="43"/>
     </row>
     <row r="426" spans="7:7">
-      <c r="G426" s="44"/>
+      <c r="G426" s="43"/>
     </row>
     <row r="427" spans="7:7">
-      <c r="G427" s="44"/>
+      <c r="G427" s="43"/>
     </row>
     <row r="428" spans="7:7">
-      <c r="G428" s="44"/>
+      <c r="G428" s="43"/>
     </row>
     <row r="429" spans="7:7">
-      <c r="G429" s="44"/>
+      <c r="G429" s="43"/>
     </row>
     <row r="430" spans="7:7">
-      <c r="G430" s="44"/>
+      <c r="G430" s="43"/>
     </row>
     <row r="431" spans="7:7">
-      <c r="G431" s="44"/>
+      <c r="G431" s="43"/>
     </row>
     <row r="432" spans="7:7">
-      <c r="G432" s="44"/>
+      <c r="G432" s="43"/>
     </row>
     <row r="433" spans="5:7">
-      <c r="E433" s="44"/>
-      <c r="G433" s="44"/>
+      <c r="E433" s="43"/>
+      <c r="G433" s="43"/>
     </row>
     <row r="435" spans="5:7">
-      <c r="G435" s="44"/>
+      <c r="G435" s="43"/>
     </row>
     <row r="436" spans="5:7">
-      <c r="G436" s="44"/>
+      <c r="G436" s="43"/>
     </row>
     <row r="437" spans="5:7">
-      <c r="G437" s="44"/>
+      <c r="G437" s="43"/>
     </row>
     <row r="438" spans="5:7">
-      <c r="G438" s="44"/>
+      <c r="G438" s="43"/>
     </row>
     <row r="439" spans="5:7">
-      <c r="G439" s="44"/>
+      <c r="G439" s="43"/>
     </row>
     <row r="440" spans="5:7">
-      <c r="G440" s="44"/>
+      <c r="G440" s="43"/>
     </row>
     <row r="441" spans="5:7">
-      <c r="G441" s="44"/>
+      <c r="G441" s="43"/>
     </row>
     <row r="442" spans="5:7">
-      <c r="E442" s="44"/>
-      <c r="G442" s="44"/>
+      <c r="E442" s="43"/>
+      <c r="G442" s="43"/>
     </row>
     <row r="443" spans="5:7">
-      <c r="G443" s="44"/>
+      <c r="G443" s="43"/>
     </row>
     <row r="444" spans="5:7">
-      <c r="G444" s="44"/>
+      <c r="G444" s="43"/>
     </row>
     <row r="445" spans="5:7">
-      <c r="G445" s="44"/>
+      <c r="G445" s="43"/>
     </row>
     <row r="446" spans="5:7">
-      <c r="G446" s="44"/>
+      <c r="G446" s="43"/>
     </row>
     <row r="447" spans="5:7">
-      <c r="G447" s="44"/>
+      <c r="G447" s="43"/>
     </row>
     <row r="448" spans="5:7">
-      <c r="G448" s="44"/>
+      <c r="G448" s="43"/>
     </row>
     <row r="449" spans="5:7">
-      <c r="G449" s="44"/>
+      <c r="G449" s="43"/>
     </row>
     <row r="450" spans="5:7">
-      <c r="E450" s="44"/>
-      <c r="G450" s="44"/>
+      <c r="E450" s="43"/>
+      <c r="G450" s="43"/>
     </row>
     <row r="452" spans="5:7">
-      <c r="G452" s="44"/>
+      <c r="G452" s="43"/>
     </row>
     <row r="453" spans="5:7">
-      <c r="G453" s="44"/>
+      <c r="G453" s="43"/>
     </row>
     <row r="454" spans="5:7">
-      <c r="G454" s="44"/>
+      <c r="G454" s="43"/>
     </row>
     <row r="455" spans="5:7">
-      <c r="G455" s="44"/>
+      <c r="G455" s="43"/>
     </row>
     <row r="456" spans="5:7">
-      <c r="G456" s="44"/>
+      <c r="G456" s="43"/>
     </row>
     <row r="457" spans="5:7">
-      <c r="G457" s="44"/>
+      <c r="G457" s="43"/>
     </row>
     <row r="458" spans="5:7">
-      <c r="G458" s="44"/>
+      <c r="G458" s="43"/>
     </row>
     <row r="459" spans="5:7">
-      <c r="E459" s="44"/>
-      <c r="G459" s="44"/>
+      <c r="E459" s="43"/>
+      <c r="G459" s="43"/>
     </row>
     <row r="460" spans="5:7">
-      <c r="G460" s="44"/>
+      <c r="G460" s="43"/>
     </row>
     <row r="461" spans="5:7">
-      <c r="G461" s="44"/>
+      <c r="G461" s="43"/>
     </row>
     <row r="462" spans="5:7">
-      <c r="G462" s="44"/>
+      <c r="G462" s="43"/>
     </row>
     <row r="463" spans="5:7">
-      <c r="G463" s="44"/>
+      <c r="G463" s="43"/>
     </row>
     <row r="464" spans="5:7">
-      <c r="G464" s="44"/>
+      <c r="G464" s="43"/>
     </row>
     <row r="465" spans="5:7">
-      <c r="G465" s="44"/>
+      <c r="G465" s="43"/>
     </row>
     <row r="466" spans="5:7">
-      <c r="G466" s="44"/>
+      <c r="G466" s="43"/>
     </row>
     <row r="467" spans="5:7">
-      <c r="E467" s="44"/>
-      <c r="G467" s="44"/>
+      <c r="E467" s="43"/>
+      <c r="G467" s="43"/>
     </row>
     <row r="475" spans="5:7">
-      <c r="E475" s="44"/>
+      <c r="E475" s="43"/>
     </row>
     <row r="482" spans="5:5">
-      <c r="E482" s="44"/>
+      <c r="E482" s="43"/>
     </row>
     <row r="498" spans="5:5">
-      <c r="E498" s="45"/>
+      <c r="E498" s="44"/>
     </row>
     <row r="499" spans="5:5">
-      <c r="E499" s="45"/>
+      <c r="E499" s="44"/>
     </row>
     <row r="502" spans="5:5">
-      <c r="E502" s="45"/>
+      <c r="E502" s="44"/>
     </row>
     <row r="503" spans="5:5">
-      <c r="E503" s="44"/>
+      <c r="E503" s="43"/>
     </row>
     <row r="516" spans="5:5">
-      <c r="E516" s="44"/>
+      <c r="E516" s="43"/>
     </row>
     <row r="528" spans="5:5">
-      <c r="E528" s="44"/>
+      <c r="E528" s="43"/>
     </row>
     <row r="532" spans="5:5">
-      <c r="E532" s="44"/>
+      <c r="E532" s="43"/>
     </row>
     <row r="533" spans="5:5">
-      <c r="E533" s="44"/>
+      <c r="E533" s="43"/>
     </row>
     <row r="534" spans="5:5">
-      <c r="E534" s="44"/>
+      <c r="E534" s="43"/>
     </row>
     <row r="535" spans="5:5">
-      <c r="E535" s="44"/>
+      <c r="E535" s="43"/>
     </row>
     <row r="536" spans="5:5">
-      <c r="E536" s="44"/>
+      <c r="E536" s="43"/>
     </row>
     <row r="537" spans="5:5">
-      <c r="E537" s="44"/>
+      <c r="E537" s="43"/>
     </row>
     <row r="538" spans="5:5">
-      <c r="E538" s="44"/>
+      <c r="E538" s="43"/>
     </row>
     <row r="539" spans="5:5">
-      <c r="E539" s="44"/>
+      <c r="E539" s="43"/>
     </row>
     <row r="540" spans="5:5">
-      <c r="E540" s="44"/>
+      <c r="E540" s="43"/>
     </row>
     <row r="541" spans="5:5">
-      <c r="E541" s="44"/>
+      <c r="E541" s="43"/>
     </row>
     <row r="542" spans="5:5">
-      <c r="E542" s="44"/>
+      <c r="E542" s="43"/>
     </row>
     <row r="543" spans="5:5">
-      <c r="E543" s="44"/>
+      <c r="E543" s="43"/>
     </row>
     <row r="544" spans="5:5">
-      <c r="E544" s="44"/>
+      <c r="E544" s="43"/>
     </row>
     <row r="545" spans="5:7">
-      <c r="E545" s="44"/>
+      <c r="E545" s="43"/>
     </row>
     <row r="546" spans="5:7">
-      <c r="E546" s="44"/>
+      <c r="E546" s="43"/>
     </row>
     <row r="547" spans="5:7">
-      <c r="E547" s="44"/>
+      <c r="E547" s="43"/>
     </row>
     <row r="548" spans="5:7">
-      <c r="E548" s="44"/>
+      <c r="E548" s="43"/>
     </row>
     <row r="549" spans="5:7">
-      <c r="E549" s="44"/>
+      <c r="E549" s="43"/>
     </row>
     <row r="550" spans="5:7">
-      <c r="E550" s="44"/>
+      <c r="E550" s="43"/>
     </row>
     <row r="551" spans="5:7">
-      <c r="E551" s="44"/>
+      <c r="E551" s="43"/>
     </row>
     <row r="552" spans="5:7">
-      <c r="E552" s="44"/>
+      <c r="E552" s="43"/>
     </row>
     <row r="553" spans="5:7">
-      <c r="E553" s="44"/>
+      <c r="E553" s="43"/>
     </row>
     <row r="554" spans="5:7">
-      <c r="E554" s="44"/>
+      <c r="E554" s="43"/>
     </row>
     <row r="555" spans="5:7">
-      <c r="E555" s="44"/>
+      <c r="E555" s="43"/>
     </row>
     <row r="557" spans="5:7">
-      <c r="G557" s="44"/>
+      <c r="G557" s="43"/>
     </row>
     <row r="558" spans="5:7">
-      <c r="G558" s="44"/>
+      <c r="G558" s="43"/>
     </row>
     <row r="559" spans="5:7">
-      <c r="G559" s="44"/>
+      <c r="G559" s="43"/>
     </row>
     <row r="560" spans="5:7">
-      <c r="G560" s="44"/>
+      <c r="G560" s="43"/>
     </row>
     <row r="561" spans="5:7">
-      <c r="G561" s="44"/>
+      <c r="G561" s="43"/>
     </row>
     <row r="562" spans="5:7">
-      <c r="G562" s="44"/>
+      <c r="G562" s="43"/>
     </row>
     <row r="563" spans="5:7">
-      <c r="G563" s="44"/>
+      <c r="G563" s="43"/>
     </row>
     <row r="564" spans="5:7">
-      <c r="G564" s="44"/>
+      <c r="G564" s="43"/>
     </row>
     <row r="565" spans="5:7">
-      <c r="G565" s="44"/>
+      <c r="G565" s="43"/>
     </row>
     <row r="566" spans="5:7">
-      <c r="G566" s="44"/>
+      <c r="G566" s="43"/>
     </row>
     <row r="567" spans="5:7">
-      <c r="G567" s="44"/>
+      <c r="G567" s="43"/>
     </row>
     <row r="568" spans="5:7">
-      <c r="G568" s="44"/>
+      <c r="G568" s="43"/>
     </row>
     <row r="569" spans="5:7">
-      <c r="G569" s="44"/>
+      <c r="G569" s="43"/>
     </row>
     <row r="570" spans="5:7">
-      <c r="E570" s="44"/>
-      <c r="G570" s="44"/>
+      <c r="E570" s="43"/>
+      <c r="G570" s="43"/>
     </row>
     <row r="572" spans="5:7">
-      <c r="E572" s="44"/>
+      <c r="E572" s="43"/>
     </row>
     <row r="573" spans="5:7">
-      <c r="E573" s="44"/>
+      <c r="E573" s="43"/>
     </row>
     <row r="574" spans="5:7">
-      <c r="E574" s="44"/>
+      <c r="E574" s="43"/>
     </row>
     <row r="575" spans="5:7">
-      <c r="E575" s="44"/>
+      <c r="E575" s="43"/>
     </row>
     <row r="576" spans="5:7">
-      <c r="E576" s="44"/>
+      <c r="E576" s="43"/>
     </row>
     <row r="577" spans="5:5">
-      <c r="E577" s="44"/>
+      <c r="E577" s="43"/>
     </row>
     <row r="578" spans="5:5">
-      <c r="E578" s="44"/>
+      <c r="E578" s="43"/>
     </row>
     <row r="579" spans="5:5">
-      <c r="E579" s="44"/>
+      <c r="E579" s="43"/>
     </row>
     <row r="580" spans="5:5">
-      <c r="E580" s="44"/>
+      <c r="E580" s="43"/>
     </row>
     <row r="581" spans="5:5">
-      <c r="E581" s="44"/>
+      <c r="E581" s="43"/>
     </row>
     <row r="582" spans="5:5">
-      <c r="E582" s="44"/>
+      <c r="E582" s="43"/>
     </row>
     <row r="583" spans="5:5">
-      <c r="E583" s="44"/>
+      <c r="E583" s="43"/>
     </row>
     <row r="584" spans="5:5">
-      <c r="E584" s="44"/>
+      <c r="E584" s="43"/>
     </row>
     <row r="585" spans="5:5">
-      <c r="E585" s="44"/>
+      <c r="E585" s="43"/>
     </row>
     <row r="586" spans="5:5">
-      <c r="E586" s="44"/>
+      <c r="E586" s="43"/>
     </row>
     <row r="587" spans="5:5">
-      <c r="E587" s="44"/>
+      <c r="E587" s="43"/>
     </row>
     <row r="588" spans="5:5">
-      <c r="E588" s="44"/>
+      <c r="E588" s="43"/>
     </row>
     <row r="589" spans="5:5">
-      <c r="E589" s="44"/>
+      <c r="E589" s="43"/>
     </row>
     <row r="590" spans="5:5">
-      <c r="E590" s="44"/>
+      <c r="E590" s="43"/>
     </row>
     <row r="591" spans="5:5">
-      <c r="E591" s="44"/>
+      <c r="E591" s="43"/>
     </row>
     <row r="592" spans="5:5">
-      <c r="E592" s="44"/>
+      <c r="E592" s="43"/>
     </row>
     <row r="593" spans="5:5">
-      <c r="E593" s="44"/>
+      <c r="E593" s="43"/>
     </row>
     <row r="594" spans="5:5">
-      <c r="E594" s="44"/>
+      <c r="E594" s="43"/>
     </row>
     <row r="595" spans="5:5">
-      <c r="E595" s="44"/>
+      <c r="E595" s="43"/>
     </row>
     <row r="596" spans="5:5">
-      <c r="E596" s="44"/>
+      <c r="E596" s="43"/>
     </row>
     <row r="597" spans="5:5">
-      <c r="E597" s="44"/>
+      <c r="E597" s="43"/>
     </row>
     <row r="598" spans="5:5">
-      <c r="E598" s="44"/>
+      <c r="E598" s="43"/>
     </row>
     <row r="599" spans="5:5">
-      <c r="E599" s="44"/>
+      <c r="E599" s="43"/>
     </row>
     <row r="600" spans="5:5">
-      <c r="E600" s="44"/>
+      <c r="E600" s="43"/>
     </row>
     <row r="601" spans="5:5">
-      <c r="E601" s="44"/>
+      <c r="E601" s="43"/>
     </row>
     <row r="602" spans="5:5">
-      <c r="E602" s="44"/>
+      <c r="E602" s="43"/>
     </row>
     <row r="603" spans="5:5">
-      <c r="E603" s="44"/>
+      <c r="E603" s="43"/>
     </row>
     <row r="604" spans="5:5">
-      <c r="E604" s="44"/>
+      <c r="E604" s="43"/>
     </row>
     <row r="605" spans="5:5">
-      <c r="E605" s="44"/>
+      <c r="E605" s="43"/>
     </row>
     <row r="606" spans="5:5">
-      <c r="E606" s="44"/>
+      <c r="E606" s="43"/>
     </row>
     <row r="607" spans="5:5">
-      <c r="E607" s="44"/>
+      <c r="E607" s="43"/>
     </row>
     <row r="608" spans="5:5">
-      <c r="E608" s="44"/>
+      <c r="E608" s="43"/>
     </row>
     <row r="609" spans="5:7">
-      <c r="E609" s="44"/>
+      <c r="E609" s="43"/>
     </row>
     <row r="610" spans="5:7">
-      <c r="E610" s="44"/>
+      <c r="E610" s="43"/>
     </row>
     <row r="611" spans="5:7">
-      <c r="E611" s="44"/>
+      <c r="E611" s="43"/>
     </row>
     <row r="612" spans="5:7">
-      <c r="E612" s="44"/>
+      <c r="E612" s="43"/>
     </row>
     <row r="613" spans="5:7">
-      <c r="E613" s="44"/>
+      <c r="E613" s="43"/>
     </row>
     <row r="614" spans="5:7">
-      <c r="E614" s="44"/>
+      <c r="E614" s="43"/>
     </row>
     <row r="615" spans="5:7">
-      <c r="E615" s="44"/>
+      <c r="E615" s="43"/>
     </row>
     <row r="616" spans="5:7">
-      <c r="E616" s="44"/>
+      <c r="E616" s="43"/>
     </row>
     <row r="617" spans="5:7">
-      <c r="E617" s="44"/>
+      <c r="E617" s="43"/>
     </row>
     <row r="618" spans="5:7">
-      <c r="E618" s="44"/>
+      <c r="E618" s="43"/>
     </row>
     <row r="619" spans="5:7">
-      <c r="E619" s="44"/>
+      <c r="E619" s="43"/>
     </row>
     <row r="621" spans="5:7">
-      <c r="E621" s="44"/>
-      <c r="G621" s="44"/>
+      <c r="E621" s="43"/>
+      <c r="G621" s="43"/>
     </row>
     <row r="622" spans="5:7">
-      <c r="E622" s="44"/>
-      <c r="G622" s="44"/>
+      <c r="E622" s="43"/>
+      <c r="G622" s="43"/>
     </row>
     <row r="623" spans="5:7">
-      <c r="E623" s="44"/>
-      <c r="G623" s="44"/>
+      <c r="E623" s="43"/>
+      <c r="G623" s="43"/>
     </row>
     <row r="624" spans="5:7">
-      <c r="E624" s="44"/>
-      <c r="G624" s="44"/>
+      <c r="E624" s="43"/>
+      <c r="G624" s="43"/>
     </row>
     <row r="625" spans="5:7">
-      <c r="E625" s="44"/>
-      <c r="G625" s="44"/>
+      <c r="E625" s="43"/>
+      <c r="G625" s="43"/>
     </row>
     <row r="626" spans="5:7">
-      <c r="E626" s="44"/>
-      <c r="G626" s="44"/>
+      <c r="E626" s="43"/>
+      <c r="G626" s="43"/>
     </row>
     <row r="627" spans="5:7">
-      <c r="E627" s="44"/>
-      <c r="G627" s="44"/>
+      <c r="E627" s="43"/>
+      <c r="G627" s="43"/>
     </row>
     <row r="628" spans="5:7">
-      <c r="E628" s="44"/>
-      <c r="G628" s="44"/>
+      <c r="E628" s="43"/>
+      <c r="G628" s="43"/>
     </row>
     <row r="629" spans="5:7">
-      <c r="E629" s="44"/>
-      <c r="G629" s="44"/>
+      <c r="E629" s="43"/>
+      <c r="G629" s="43"/>
     </row>
     <row r="630" spans="5:7">
-      <c r="E630" s="44"/>
-      <c r="G630" s="44"/>
+      <c r="E630" s="43"/>
+      <c r="G630" s="43"/>
     </row>
     <row r="631" spans="5:7">
-      <c r="E631" s="44"/>
-      <c r="G631" s="44"/>
+      <c r="E631" s="43"/>
+      <c r="G631" s="43"/>
     </row>
     <row r="632" spans="5:7">
-      <c r="E632" s="44"/>
-      <c r="G632" s="44"/>
+      <c r="E632" s="43"/>
+      <c r="G632" s="43"/>
     </row>
     <row r="633" spans="5:7">
-      <c r="E633" s="44"/>
-      <c r="G633" s="44"/>
+      <c r="E633" s="43"/>
+      <c r="G633" s="43"/>
     </row>
     <row r="634" spans="5:7">
-      <c r="E634" s="44"/>
-      <c r="G634" s="44"/>
+      <c r="E634" s="43"/>
+      <c r="G634" s="43"/>
     </row>
     <row r="635" spans="5:7">
-      <c r="E635" s="44"/>
-      <c r="G635" s="44"/>
+      <c r="E635" s="43"/>
+      <c r="G635" s="43"/>
     </row>
     <row r="636" spans="5:7">
-      <c r="E636" s="44"/>
-      <c r="G636" s="44"/>
+      <c r="E636" s="43"/>
+      <c r="G636" s="43"/>
     </row>
     <row r="637" spans="5:7">
-      <c r="E637" s="44"/>
-      <c r="G637" s="44"/>
+      <c r="E637" s="43"/>
+      <c r="G637" s="43"/>
     </row>
     <row r="638" spans="5:7">
-      <c r="E638" s="44"/>
-      <c r="G638" s="44"/>
+      <c r="E638" s="43"/>
+      <c r="G638" s="43"/>
     </row>
     <row r="639" spans="5:7">
-      <c r="E639" s="44"/>
-      <c r="G639" s="44"/>
+      <c r="E639" s="43"/>
+      <c r="G639" s="43"/>
     </row>
     <row r="640" spans="5:7">
-      <c r="E640" s="44"/>
-      <c r="G640" s="44"/>
+      <c r="E640" s="43"/>
+      <c r="G640" s="43"/>
     </row>
     <row r="641" spans="5:7">
-      <c r="E641" s="44"/>
-      <c r="G641" s="44"/>
+      <c r="E641" s="43"/>
+      <c r="G641" s="43"/>
     </row>
     <row r="642" spans="5:7">
-      <c r="E642" s="44"/>
-      <c r="G642" s="44"/>
+      <c r="E642" s="43"/>
+      <c r="G642" s="43"/>
     </row>
     <row r="643" spans="5:7">
-      <c r="E643" s="44"/>
-      <c r="G643" s="44"/>
+      <c r="E643" s="43"/>
+      <c r="G643" s="43"/>
     </row>
     <row r="644" spans="5:7">
-      <c r="E644" s="44"/>
-      <c r="G644" s="44"/>
+      <c r="E644" s="43"/>
+      <c r="G644" s="43"/>
     </row>
     <row r="645" spans="5:7">
-      <c r="E645" s="44"/>
-      <c r="G645" s="44"/>
+      <c r="E645" s="43"/>
+      <c r="G645" s="43"/>
     </row>
     <row r="646" spans="5:7">
-      <c r="E646" s="44"/>
-      <c r="G646" s="44"/>
+      <c r="E646" s="43"/>
+      <c r="G646" s="43"/>
     </row>
     <row r="647" spans="5:7">
-      <c r="E647" s="44"/>
-      <c r="G647" s="44"/>
+      <c r="E647" s="43"/>
+      <c r="G647" s="43"/>
     </row>
     <row r="648" spans="5:7">
-      <c r="E648" s="44"/>
-      <c r="G648" s="44"/>
+      <c r="E648" s="43"/>
+      <c r="G648" s="43"/>
     </row>
     <row r="649" spans="5:7">
-      <c r="E649" s="44"/>
-      <c r="G649" s="44"/>
+      <c r="E649" s="43"/>
+      <c r="G649" s="43"/>
     </row>
     <row r="650" spans="5:7">
-      <c r="E650" s="44"/>
-      <c r="G650" s="44"/>
+      <c r="E650" s="43"/>
+      <c r="G650" s="43"/>
     </row>
     <row r="651" spans="5:7">
-      <c r="E651" s="44"/>
-      <c r="G651" s="44"/>
+      <c r="E651" s="43"/>
+      <c r="G651" s="43"/>
     </row>
     <row r="652" spans="5:7">
-      <c r="E652" s="44"/>
-      <c r="G652" s="44"/>
+      <c r="E652" s="43"/>
+      <c r="G652" s="43"/>
     </row>
     <row r="653" spans="5:7">
-      <c r="E653" s="44"/>
-      <c r="G653" s="44"/>
+      <c r="E653" s="43"/>
+      <c r="G653" s="43"/>
     </row>
     <row r="654" spans="5:7">
-      <c r="E654" s="44"/>
-      <c r="G654" s="44"/>
+      <c r="E654" s="43"/>
+      <c r="G654" s="43"/>
     </row>
     <row r="655" spans="5:7">
-      <c r="E655" s="44"/>
-      <c r="G655" s="44"/>
+      <c r="E655" s="43"/>
+      <c r="G655" s="43"/>
     </row>
     <row r="656" spans="5:7">
-      <c r="E656" s="44"/>
-      <c r="G656" s="44"/>
+      <c r="E656" s="43"/>
+      <c r="G656" s="43"/>
     </row>
     <row r="657" spans="5:7">
-      <c r="E657" s="44"/>
-      <c r="G657" s="44"/>
+      <c r="E657" s="43"/>
+      <c r="G657" s="43"/>
     </row>
     <row r="658" spans="5:7">
-      <c r="E658" s="44"/>
-      <c r="G658" s="44"/>
+      <c r="E658" s="43"/>
+      <c r="G658" s="43"/>
     </row>
     <row r="659" spans="5:7">
-      <c r="E659" s="44"/>
-      <c r="G659" s="44"/>
+      <c r="E659" s="43"/>
+      <c r="G659" s="43"/>
     </row>
     <row r="660" spans="5:7">
-      <c r="E660" s="44"/>
-      <c r="G660" s="44"/>
+      <c r="E660" s="43"/>
+      <c r="G660" s="43"/>
     </row>
     <row r="661" spans="5:7">
-      <c r="E661" s="44"/>
-      <c r="G661" s="44"/>
+      <c r="E661" s="43"/>
+      <c r="G661" s="43"/>
     </row>
     <row r="662" spans="5:7">
-      <c r="E662" s="44"/>
-      <c r="G662" s="44"/>
+      <c r="E662" s="43"/>
+      <c r="G662" s="43"/>
     </row>
     <row r="663" spans="5:7">
-      <c r="E663" s="44"/>
-      <c r="G663" s="44"/>
+      <c r="E663" s="43"/>
+      <c r="G663" s="43"/>
     </row>
     <row r="664" spans="5:7">
-      <c r="E664" s="44"/>
-      <c r="G664" s="44"/>
+      <c r="E664" s="43"/>
+      <c r="G664" s="43"/>
     </row>
     <row r="665" spans="5:7">
-      <c r="E665" s="44"/>
-      <c r="G665" s="44"/>
+      <c r="E665" s="43"/>
+      <c r="G665" s="43"/>
     </row>
     <row r="666" spans="5:7">
-      <c r="E666" s="44"/>
-      <c r="G666" s="44"/>
+      <c r="E666" s="43"/>
+      <c r="G666" s="43"/>
     </row>
     <row r="667" spans="5:7">
-      <c r="E667" s="44"/>
-      <c r="G667" s="44"/>
+      <c r="E667" s="43"/>
+      <c r="G667" s="43"/>
     </row>
     <row r="668" spans="5:7">
-      <c r="E668" s="44"/>
-      <c r="G668" s="44"/>
+      <c r="E668" s="43"/>
+      <c r="G668" s="43"/>
     </row>
     <row r="678" spans="5:5">
-      <c r="E678" s="44"/>
+      <c r="E678" s="43"/>
     </row>
     <row r="689" spans="7:7">
-      <c r="G689" s="44"/>
+      <c r="G689" s="43"/>
     </row>
     <row r="690" spans="7:7">
-      <c r="G690" s="44"/>
+      <c r="G690" s="43"/>
     </row>
     <row r="691" spans="7:7">
-      <c r="G691" s="44"/>
+      <c r="G691" s="43"/>
     </row>
     <row r="692" spans="7:7">
-      <c r="G692" s="44"/>
+      <c r="G692" s="43"/>
     </row>
     <row r="693" spans="7:7">
-      <c r="G693" s="44"/>
+      <c r="G693" s="43"/>
     </row>
     <row r="694" spans="7:7">
-      <c r="G694" s="44"/>
+      <c r="G694" s="43"/>
     </row>
     <row r="695" spans="7:7">
-      <c r="G695" s="44"/>
+      <c r="G695" s="43"/>
     </row>
     <row r="696" spans="7:7">
-      <c r="G696" s="44"/>
+      <c r="G696" s="43"/>
     </row>
     <row r="697" spans="7:7">
-      <c r="G697" s="44"/>
+      <c r="G697" s="43"/>
     </row>
     <row r="698" spans="7:7">
-      <c r="G698" s="44"/>
+      <c r="G698" s="43"/>
     </row>
     <row r="699" spans="7:7">
-      <c r="G699" s="44"/>
+      <c r="G699" s="43"/>
     </row>
     <row r="700" spans="7:7">
-      <c r="G700" s="44"/>
+      <c r="G700" s="43"/>
     </row>
     <row r="701" spans="7:7">
-      <c r="G701" s="44"/>
+      <c r="G701" s="43"/>
     </row>
     <row r="702" spans="7:7">
-      <c r="G702" s="44"/>
+      <c r="G702" s="43"/>
     </row>
     <row r="703" spans="7:7">
-      <c r="G703" s="44"/>
+      <c r="G703" s="43"/>
     </row>
     <row r="704" spans="7:7">
-      <c r="G704" s="44"/>
+      <c r="G704" s="43"/>
     </row>
     <row r="705" spans="5:7">
-      <c r="G705" s="44"/>
+      <c r="G705" s="43"/>
     </row>
     <row r="706" spans="5:7">
-      <c r="G706" s="44"/>
+      <c r="G706" s="43"/>
     </row>
     <row r="707" spans="5:7">
-      <c r="G707" s="44"/>
+      <c r="G707" s="43"/>
     </row>
     <row r="708" spans="5:7">
-      <c r="E708" s="44"/>
-      <c r="G708" s="44"/>
+      <c r="E708" s="43"/>
+      <c r="G708" s="43"/>
     </row>
     <row r="718" spans="5:7">
-      <c r="E718" s="44"/>
+      <c r="E718" s="43"/>
     </row>
     <row r="729" spans="5:7">
-      <c r="E729" s="44"/>
-      <c r="G729" s="44"/>
+      <c r="E729" s="43"/>
+      <c r="G729" s="43"/>
     </row>
     <row r="730" spans="5:7">
-      <c r="E730" s="44"/>
-      <c r="G730" s="44"/>
+      <c r="E730" s="43"/>
+      <c r="G730" s="43"/>
     </row>
     <row r="731" spans="5:7">
-      <c r="E731" s="44"/>
-      <c r="G731" s="44"/>
+      <c r="E731" s="43"/>
+      <c r="G731" s="43"/>
     </row>
     <row r="732" spans="5:7">
-      <c r="E732" s="44"/>
-      <c r="G732" s="44"/>
+      <c r="E732" s="43"/>
+      <c r="G732" s="43"/>
     </row>
     <row r="733" spans="5:7">
-      <c r="E733" s="44"/>
-      <c r="G733" s="44"/>
+      <c r="E733" s="43"/>
+      <c r="G733" s="43"/>
     </row>
     <row r="734" spans="5:7">
-      <c r="E734" s="44"/>
-      <c r="G734" s="44"/>
+      <c r="E734" s="43"/>
+      <c r="G734" s="43"/>
     </row>
     <row r="735" spans="5:7">
-      <c r="E735" s="44"/>
-      <c r="G735" s="44"/>
+      <c r="E735" s="43"/>
+      <c r="G735" s="43"/>
     </row>
     <row r="736" spans="5:7">
-      <c r="E736" s="44"/>
-      <c r="G736" s="44"/>
+      <c r="E736" s="43"/>
+      <c r="G736" s="43"/>
     </row>
     <row r="737" spans="5:7">
-      <c r="E737" s="44"/>
-      <c r="G737" s="44"/>
+      <c r="E737" s="43"/>
+      <c r="G737" s="43"/>
     </row>
     <row r="738" spans="5:7">
-      <c r="E738" s="44"/>
-      <c r="G738" s="44"/>
+      <c r="E738" s="43"/>
+      <c r="G738" s="43"/>
     </row>
     <row r="739" spans="5:7">
-      <c r="E739" s="44"/>
-      <c r="G739" s="44"/>
+      <c r="E739" s="43"/>
+      <c r="G739" s="43"/>
     </row>
     <row r="740" spans="5:7">
-      <c r="E740" s="44"/>
-      <c r="G740" s="44"/>
+      <c r="E740" s="43"/>
+      <c r="G740" s="43"/>
     </row>
     <row r="741" spans="5:7">
-      <c r="E741" s="44"/>
-      <c r="G741" s="44"/>
+      <c r="E741" s="43"/>
+      <c r="G741" s="43"/>
     </row>
     <row r="742" spans="5:7">
-      <c r="E742" s="44"/>
-      <c r="G742" s="44"/>
+      <c r="E742" s="43"/>
+      <c r="G742" s="43"/>
     </row>
     <row r="743" spans="5:7">
-      <c r="E743" s="44"/>
-      <c r="G743" s="44"/>
+      <c r="E743" s="43"/>
+      <c r="G743" s="43"/>
     </row>
     <row r="744" spans="5:7">
-      <c r="E744" s="44"/>
-      <c r="G744" s="44"/>
+      <c r="E744" s="43"/>
+      <c r="G744" s="43"/>
     </row>
     <row r="746" spans="5:7">
-      <c r="E746" s="44"/>
-      <c r="G746" s="44"/>
+      <c r="E746" s="43"/>
+      <c r="G746" s="43"/>
     </row>
     <row r="747" spans="5:7">
-      <c r="E747" s="44"/>
-      <c r="G747" s="44"/>
+      <c r="E747" s="43"/>
+      <c r="G747" s="43"/>
     </row>
     <row r="748" spans="5:7">
-      <c r="E748" s="44"/>
-      <c r="G748" s="44"/>
+      <c r="E748" s="43"/>
+      <c r="G748" s="43"/>
     </row>
     <row r="749" spans="5:7">
-      <c r="E749" s="44"/>
-      <c r="G749" s="44"/>
+      <c r="E749" s="43"/>
+      <c r="G749" s="43"/>
     </row>
     <row r="750" spans="5:7">
-      <c r="E750" s="44"/>
-      <c r="G750" s="44"/>
+      <c r="E750" s="43"/>
+      <c r="G750" s="43"/>
     </row>
     <row r="751" spans="5:7">
-      <c r="E751" s="44"/>
-      <c r="G751" s="44"/>
+      <c r="E751" s="43"/>
+      <c r="G751" s="43"/>
     </row>
     <row r="752" spans="5:7">
-      <c r="E752" s="44"/>
-      <c r="G752" s="44"/>
+      <c r="E752" s="43"/>
+      <c r="G752" s="43"/>
     </row>
     <row r="753" spans="5:7">
-      <c r="E753" s="44"/>
-      <c r="G753" s="44"/>
+      <c r="E753" s="43"/>
+      <c r="G753" s="43"/>
     </row>
     <row r="754" spans="5:7">
-      <c r="E754" s="44"/>
-      <c r="G754" s="44"/>
+      <c r="E754" s="43"/>
+      <c r="G754" s="43"/>
     </row>
     <row r="755" spans="5:7">
-      <c r="E755" s="44"/>
-      <c r="G755" s="44"/>
+      <c r="E755" s="43"/>
+      <c r="G755" s="43"/>
     </row>
     <row r="756" spans="5:7">
-      <c r="E756" s="44"/>
-      <c r="G756" s="44"/>
+      <c r="E756" s="43"/>
+      <c r="G756" s="43"/>
     </row>
     <row r="757" spans="5:7">
-      <c r="E757" s="44"/>
-      <c r="G757" s="44"/>
+      <c r="E757" s="43"/>
+      <c r="G757" s="43"/>
     </row>
     <row r="758" spans="5:7">
-      <c r="E758" s="44"/>
-      <c r="G758" s="44"/>
+      <c r="E758" s="43"/>
+      <c r="G758" s="43"/>
     </row>
     <row r="759" spans="5:7">
-      <c r="E759" s="44"/>
-      <c r="G759" s="44"/>
+      <c r="E759" s="43"/>
+      <c r="G759" s="43"/>
     </row>
     <row r="762" spans="5:7">
-      <c r="E762" s="44"/>
+      <c r="E762" s="43"/>
     </row>
     <row r="766" spans="5:7">
-      <c r="E766" s="44"/>
+      <c r="E766" s="43"/>
     </row>
     <row r="767" spans="5:7">
-      <c r="E767" s="44"/>
+      <c r="E767" s="43"/>
     </row>
     <row r="768" spans="5:7">
-      <c r="E768" s="44"/>
+      <c r="E768" s="43"/>
     </row>
     <row r="769" spans="5:5">
-      <c r="E769" s="44"/>
+      <c r="E769" s="43"/>
     </row>
     <row r="772" spans="5:5">
-      <c r="E772" s="44"/>
+      <c r="E772" s="43"/>
     </row>
     <row r="773" spans="5:5">
-      <c r="E773" s="44"/>
+      <c r="E773" s="43"/>
     </row>
     <row r="774" spans="5:5">
-      <c r="E774" s="44"/>
+      <c r="E774" s="43"/>
     </row>
     <row r="775" spans="5:5">
-      <c r="E775" s="44"/>
+      <c r="E775" s="43"/>
     </row>
     <row r="778" spans="5:5">
-      <c r="E778" s="44"/>
+      <c r="E778" s="43"/>
     </row>
     <row r="779" spans="5:5">
-      <c r="E779" s="44"/>
+      <c r="E779" s="43"/>
     </row>
     <row r="780" spans="5:5">
-      <c r="E780" s="44"/>
+      <c r="E780" s="43"/>
     </row>
     <row r="781" spans="5:5">
-      <c r="E781" s="44"/>
+      <c r="E781" s="43"/>
     </row>
     <row r="782" spans="5:5">
-      <c r="E782" s="44"/>
+      <c r="E782" s="43"/>
     </row>
     <row r="783" spans="5:5">
-      <c r="E783" s="44"/>
+      <c r="E783" s="43"/>
     </row>
     <row r="784" spans="5:5">
-      <c r="E784" s="44"/>
+      <c r="E784" s="43"/>
     </row>
     <row r="785" spans="5:5">
-      <c r="E785" s="44"/>
+      <c r="E785" s="43"/>
     </row>
     <row r="786" spans="5:5">
-      <c r="E786" s="44"/>
+      <c r="E786" s="43"/>
     </row>
     <row r="787" spans="5:5">
-      <c r="E787" s="44"/>
+      <c r="E787" s="43"/>
     </row>
     <row r="788" spans="5:5">
-      <c r="E788" s="44"/>
+      <c r="E788" s="43"/>
     </row>
     <row r="789" spans="5:5">
-      <c r="E789" s="44"/>
+      <c r="E789" s="43"/>
     </row>
     <row r="790" spans="5:5">
-      <c r="E790" s="44"/>
+      <c r="E790" s="43"/>
     </row>
     <row r="791" spans="5:5">
-      <c r="E791" s="44"/>
+      <c r="E791" s="43"/>
     </row>
     <row r="793" spans="5:5">
-      <c r="E793" s="44"/>
+      <c r="E793" s="43"/>
     </row>
     <row r="794" spans="5:5">
-      <c r="E794" s="44"/>
+      <c r="E794" s="43"/>
     </row>
     <row r="795" spans="5:5">
-      <c r="E795" s="44"/>
+      <c r="E795" s="43"/>
     </row>
     <row r="796" spans="5:5">
-      <c r="E796" s="44"/>
+      <c r="E796" s="43"/>
     </row>
     <row r="797" spans="5:5">
-      <c r="E797" s="44"/>
+      <c r="E797" s="43"/>
     </row>
     <row r="798" spans="5:5">
-      <c r="E798" s="44"/>
+      <c r="E798" s="43"/>
     </row>
     <row r="799" spans="5:5">
-      <c r="E799" s="44"/>
+      <c r="E799" s="43"/>
     </row>
     <row r="800" spans="5:5">
-      <c r="E800" s="44"/>
+      <c r="E800" s="43"/>
     </row>
     <row r="801" spans="5:5">
-      <c r="E801" s="44"/>
+      <c r="E801" s="43"/>
     </row>
     <row r="802" spans="5:5">
-      <c r="E802" s="44"/>
+      <c r="E802" s="43"/>
     </row>
     <row r="803" spans="5:5">
-      <c r="E803" s="44"/>
+      <c r="E803" s="43"/>
     </row>
     <row r="804" spans="5:5">
-      <c r="E804" s="44"/>
+      <c r="E804" s="43"/>
     </row>
     <row r="805" spans="5:5">
-      <c r="E805" s="44"/>
+      <c r="E805" s="43"/>
     </row>
     <row r="806" spans="5:5">
-      <c r="E806" s="44"/>
+      <c r="E806" s="43"/>
     </row>
     <row r="808" spans="5:5">
-      <c r="E808" s="44"/>
+      <c r="E808" s="43"/>
     </row>
     <row r="809" spans="5:5">
-      <c r="E809" s="44"/>
+      <c r="E809" s="43"/>
     </row>
     <row r="810" spans="5:5">
-      <c r="E810" s="44"/>
+      <c r="E810" s="43"/>
     </row>
     <row r="811" spans="5:5">
-      <c r="E811" s="44"/>
+      <c r="E811" s="43"/>
     </row>
     <row r="812" spans="5:5">
-      <c r="E812" s="44"/>
+      <c r="E812" s="43"/>
     </row>
     <row r="813" spans="5:5">
-      <c r="E813" s="44"/>
+      <c r="E813" s="43"/>
     </row>
     <row r="814" spans="5:5">
-      <c r="E814" s="44"/>
+      <c r="E814" s="43"/>
     </row>
     <row r="815" spans="5:5">
-      <c r="E815" s="44"/>
+      <c r="E815" s="43"/>
     </row>
     <row r="816" spans="5:5">
-      <c r="E816" s="44"/>
+      <c r="E816" s="43"/>
     </row>
     <row r="817" spans="5:5">
-      <c r="E817" s="44"/>
+      <c r="E817" s="43"/>
     </row>
     <row r="818" spans="5:5">
-      <c r="E818" s="44"/>
+      <c r="E818" s="43"/>
     </row>
     <row r="819" spans="5:5">
-      <c r="E819" s="44"/>
+      <c r="E819" s="43"/>
     </row>
     <row r="820" spans="5:5">
-      <c r="E820" s="44"/>
+      <c r="E820" s="43"/>
     </row>
     <row r="821" spans="5:5">
-      <c r="E821" s="44"/>
+      <c r="E821" s="43"/>
     </row>
     <row r="823" spans="5:5">
-      <c r="E823" s="44"/>
+      <c r="E823" s="43"/>
     </row>
     <row r="824" spans="5:5">
-      <c r="E824" s="44"/>
+      <c r="E824" s="43"/>
     </row>
     <row r="825" spans="5:5">
-      <c r="E825" s="44"/>
+      <c r="E825" s="43"/>
     </row>
     <row r="826" spans="5:5">
-      <c r="E826" s="44"/>
+      <c r="E826" s="43"/>
     </row>
     <row r="827" spans="5:5">
-      <c r="E827" s="44"/>
+      <c r="E827" s="43"/>
     </row>
     <row r="828" spans="5:5">
-      <c r="E828" s="44"/>
+      <c r="E828" s="43"/>
     </row>
     <row r="829" spans="5:5">
-      <c r="E829" s="44"/>
+      <c r="E829" s="43"/>
     </row>
     <row r="830" spans="5:5">
-      <c r="E830" s="44"/>
+      <c r="E830" s="43"/>
     </row>
     <row r="831" spans="5:5">
-      <c r="E831" s="44"/>
+      <c r="E831" s="43"/>
     </row>
     <row r="832" spans="5:5">
-      <c r="E832" s="44"/>
+      <c r="E832" s="43"/>
     </row>
     <row r="833" spans="5:5">
-      <c r="E833" s="44"/>
+      <c r="E833" s="43"/>
     </row>
     <row r="834" spans="5:5">
-      <c r="E834" s="44"/>
+      <c r="E834" s="43"/>
     </row>
     <row r="835" spans="5:5">
-      <c r="E835" s="44"/>
+      <c r="E835" s="43"/>
     </row>
     <row r="836" spans="5:5">
-      <c r="E836" s="44"/>
+      <c r="E836" s="43"/>
     </row>
     <row r="837" spans="5:5">
-      <c r="E837" s="44"/>
+      <c r="E837" s="43"/>
     </row>
     <row r="838" spans="5:5">
-      <c r="E838" s="44"/>
+      <c r="E838" s="43"/>
     </row>
     <row r="839" spans="5:5">
-      <c r="E839" s="44"/>
+      <c r="E839" s="43"/>
     </row>
     <row r="840" spans="5:5">
-      <c r="E840" s="44"/>
+      <c r="E840" s="43"/>
     </row>
     <row r="841" spans="5:5">
-      <c r="E841" s="44"/>
+      <c r="E841" s="43"/>
     </row>
     <row r="842" spans="5:5">
-      <c r="E842" s="44"/>
+      <c r="E842" s="43"/>
     </row>
     <row r="843" spans="5:5">
-      <c r="E843" s="44"/>
+      <c r="E843" s="43"/>
     </row>
     <row r="844" spans="5:5">
-      <c r="E844" s="44"/>
+      <c r="E844" s="43"/>
     </row>
     <row r="845" spans="5:5">
-      <c r="E845" s="44"/>
+      <c r="E845" s="43"/>
     </row>
     <row r="846" spans="5:5">
-      <c r="E846" s="44"/>
+      <c r="E846" s="43"/>
     </row>
     <row r="847" spans="5:5">
-      <c r="E847" s="44"/>
+      <c r="E847" s="43"/>
     </row>
     <row r="848" spans="5:5">
-      <c r="E848" s="44"/>
+      <c r="E848" s="43"/>
     </row>
     <row r="849" spans="5:5">
-      <c r="E849" s="44"/>
+      <c r="E849" s="43"/>
     </row>
     <row r="850" spans="5:5">
-      <c r="E850" s="44"/>
+      <c r="E850" s="43"/>
     </row>
     <row r="852" spans="5:5">
-      <c r="E852" s="44"/>
+      <c r="E852" s="43"/>
     </row>
     <row r="865" spans="5:5">
-      <c r="E865" s="44"/>
+      <c r="E865" s="43"/>
     </row>
     <row r="879" spans="5:5">
-      <c r="E879" s="44"/>
+      <c r="E879" s="43"/>
     </row>
     <row r="881" spans="5:5">
-      <c r="E881" s="44"/>
+      <c r="E881" s="43"/>
     </row>
     <row r="894" spans="5:5">
-      <c r="E894" s="44"/>
+      <c r="E894" s="43"/>
     </row>
     <row r="908" spans="5:5">
-      <c r="E908" s="44"/>
+      <c r="E908" s="43"/>
     </row>
     <row r="910" spans="5:5">
-      <c r="E910" s="44"/>
+      <c r="E910" s="43"/>
     </row>
     <row r="923" spans="5:5">
-      <c r="E923" s="44"/>
+      <c r="E923" s="43"/>
     </row>
     <row r="937" spans="5:5">
-      <c r="E937" s="44"/>
+      <c r="E937" s="43"/>
     </row>
     <row r="940" spans="5:5">
-      <c r="E940" s="44"/>
+      <c r="E940" s="43"/>
     </row>
     <row r="941" spans="5:5">
-      <c r="E941" s="44"/>
+      <c r="E941" s="43"/>
     </row>
     <row r="942" spans="5:5">
-      <c r="E942" s="44"/>
+      <c r="E942" s="43"/>
     </row>
     <row r="943" spans="5:5">
-      <c r="E943" s="44"/>
+      <c r="E943" s="43"/>
     </row>
     <row r="944" spans="5:5">
-      <c r="E944" s="44"/>
+      <c r="E944" s="43"/>
     </row>
     <row r="945" spans="5:5">
-      <c r="E945" s="44"/>
+      <c r="E945" s="43"/>
     </row>
     <row r="946" spans="5:5">
-      <c r="E946" s="44"/>
+      <c r="E946" s="43"/>
     </row>
     <row r="947" spans="5:5">
-      <c r="E947" s="44"/>
+      <c r="E947" s="43"/>
     </row>
     <row r="948" spans="5:5">
-      <c r="E948" s="44"/>
+      <c r="E948" s="43"/>
     </row>
     <row r="949" spans="5:5">
-      <c r="E949" s="44"/>
+      <c r="E949" s="43"/>
     </row>
     <row r="950" spans="5:5">
-      <c r="E950" s="44"/>
+      <c r="E950" s="43"/>
     </row>
     <row r="951" spans="5:5">
-      <c r="E951" s="44"/>
+      <c r="E951" s="43"/>
     </row>
     <row r="952" spans="5:5">
-      <c r="E952" s="44"/>
+      <c r="E952" s="43"/>
     </row>
     <row r="953" spans="5:5">
-      <c r="E953" s="44"/>
+      <c r="E953" s="43"/>
     </row>
     <row r="962" spans="5:5">
-      <c r="E962" s="44"/>
+      <c r="E962" s="43"/>
     </row>
     <row r="979" spans="5:5">
-      <c r="E979" s="44"/>
+      <c r="E979" s="43"/>
     </row>
     <row r="996" spans="5:5">
-      <c r="E996" s="44"/>
+      <c r="E996" s="43"/>
     </row>
     <row r="1013" spans="5:5">
-      <c r="E1013" s="44"/>
+      <c r="E1013" s="43"/>
     </row>
     <row r="1030" spans="5:5">
-      <c r="E1030" s="44"/>
+      <c r="E1030" s="43"/>
     </row>
     <row r="1047" spans="5:5">
-      <c r="E1047" s="44"/>
+      <c r="E1047" s="43"/>
     </row>
     <row r="1064" spans="5:5">
-      <c r="E1064" s="44"/>
+      <c r="E1064" s="43"/>
     </row>
     <row r="1081" spans="5:5">
-      <c r="E1081" s="44"/>
+      <c r="E1081" s="43"/>
     </row>
     <row r="1098" spans="5:5">
-      <c r="E1098" s="44"/>
+      <c r="E1098" s="43"/>
     </row>
     <row r="1115" spans="5:5">
-      <c r="E1115" s="44"/>
+      <c r="E1115" s="43"/>
     </row>
     <row r="1132" spans="5:5">
-      <c r="E1132" s="44"/>
+      <c r="E1132" s="43"/>
     </row>
     <row r="1149" spans="5:5">
-      <c r="E1149" s="44"/>
+      <c r="E1149" s="43"/>
     </row>
     <row r="1166" spans="5:5">
-      <c r="E1166" s="44"/>
+      <c r="E1166" s="43"/>
     </row>
     <row r="1183" spans="5:5">
-      <c r="E1183" s="44"/>
+      <c r="E1183" s="43"/>
     </row>
     <row r="1200" spans="5:5">
-      <c r="E1200" s="44"/>
+      <c r="E1200" s="43"/>
     </row>
     <row r="1217" spans="5:7">
-      <c r="E1217" s="44"/>
+      <c r="E1217" s="43"/>
     </row>
     <row r="1227" spans="5:7">
-      <c r="G1227" s="44"/>
+      <c r="G1227" s="43"/>
     </row>
     <row r="1228" spans="5:7">
-      <c r="G1228" s="44"/>
+      <c r="G1228" s="43"/>
     </row>
     <row r="1229" spans="5:7">
-      <c r="G1229" s="44"/>
+      <c r="G1229" s="43"/>
     </row>
     <row r="1230" spans="5:7">
-      <c r="G1230" s="44"/>
+      <c r="G1230" s="43"/>
     </row>
     <row r="1231" spans="5:7">
-      <c r="G1231" s="44"/>
+      <c r="G1231" s="43"/>
     </row>
     <row r="1232" spans="5:7">
-      <c r="G1232" s="44"/>
+      <c r="G1232" s="43"/>
     </row>
     <row r="1233" spans="5:7">
-      <c r="G1233" s="44"/>
+      <c r="G1233" s="43"/>
     </row>
     <row r="1234" spans="5:7">
-      <c r="G1234" s="44"/>
+      <c r="G1234" s="43"/>
     </row>
     <row r="1235" spans="5:7">
-      <c r="G1235" s="44"/>
+      <c r="G1235" s="43"/>
     </row>
     <row r="1236" spans="5:7">
-      <c r="G1236" s="44"/>
+      <c r="G1236" s="43"/>
     </row>
     <row r="1237" spans="5:7">
-      <c r="G1237" s="44"/>
+      <c r="G1237" s="43"/>
     </row>
     <row r="1238" spans="5:7">
-      <c r="G1238" s="44"/>
+      <c r="G1238" s="43"/>
     </row>
     <row r="1239" spans="5:7">
-      <c r="G1239" s="44"/>
+      <c r="G1239" s="43"/>
     </row>
     <row r="1240" spans="5:7">
-      <c r="E1240" s="44"/>
-      <c r="G1240" s="44"/>
+      <c r="E1240" s="43"/>
+      <c r="G1240" s="43"/>
     </row>
     <row r="1261" spans="5:5">
-      <c r="E1261" s="44"/>
+      <c r="E1261" s="43"/>
     </row>
     <row r="1276" spans="5:5">
-      <c r="E1276" s="44"/>
+      <c r="E1276" s="43"/>
     </row>
     <row r="1291" spans="5:5">
-      <c r="E1291" s="44"/>
+      <c r="E1291" s="43"/>
     </row>
     <row r="1306" spans="5:5">
-      <c r="E1306" s="44"/>
+      <c r="E1306" s="43"/>
     </row>
     <row r="1322" spans="5:5">
-      <c r="E1322" s="44"/>
+      <c r="E1322" s="43"/>
     </row>
     <row r="1330" spans="5:7">
-      <c r="E1330" s="44"/>
+      <c r="E1330" s="43"/>
     </row>
     <row r="1339" spans="5:7">
-      <c r="G1339" s="44"/>
+      <c r="G1339" s="43"/>
     </row>
     <row r="1340" spans="5:7">
-      <c r="G1340" s="44"/>
+      <c r="G1340" s="43"/>
     </row>
     <row r="1341" spans="5:7">
-      <c r="G1341" s="44"/>
+      <c r="G1341" s="43"/>
     </row>
     <row r="1342" spans="5:7">
-      <c r="G1342" s="44"/>
+      <c r="G1342" s="43"/>
     </row>
     <row r="1343" spans="5:7">
-      <c r="G1343" s="44"/>
+      <c r="G1343" s="43"/>
     </row>
     <row r="1344" spans="5:7">
-      <c r="G1344" s="44"/>
+      <c r="G1344" s="43"/>
     </row>
     <row r="1345" spans="5:7">
-      <c r="G1345" s="44"/>
+      <c r="G1345" s="43"/>
     </row>
     <row r="1346" spans="5:7">
-      <c r="G1346" s="44"/>
+      <c r="G1346" s="43"/>
     </row>
     <row r="1347" spans="5:7">
-      <c r="G1347" s="44"/>
+      <c r="G1347" s="43"/>
     </row>
     <row r="1348" spans="5:7">
-      <c r="G1348" s="44"/>
+      <c r="G1348" s="43"/>
     </row>
     <row r="1349" spans="5:7">
-      <c r="G1349" s="44"/>
+      <c r="G1349" s="43"/>
     </row>
     <row r="1350" spans="5:7">
-      <c r="G1350" s="44"/>
+      <c r="G1350" s="43"/>
     </row>
     <row r="1351" spans="5:7">
-      <c r="G1351" s="44"/>
+      <c r="G1351" s="43"/>
     </row>
     <row r="1352" spans="5:7">
-      <c r="G1352" s="44"/>
+      <c r="G1352" s="43"/>
     </row>
     <row r="1353" spans="5:7">
-      <c r="G1353" s="44"/>
+      <c r="G1353" s="43"/>
     </row>
     <row r="1354" spans="5:7">
-      <c r="G1354" s="44"/>
+      <c r="G1354" s="43"/>
     </row>
     <row r="1355" spans="5:7">
-      <c r="G1355" s="44"/>
+      <c r="G1355" s="43"/>
     </row>
     <row r="1356" spans="5:7">
-      <c r="G1356" s="44"/>
+      <c r="G1356" s="43"/>
     </row>
     <row r="1357" spans="5:7">
-      <c r="G1357" s="44"/>
+      <c r="G1357" s="43"/>
     </row>
     <row r="1358" spans="5:7">
-      <c r="E1358" s="44"/>
-      <c r="G1358" s="44"/>
+      <c r="E1358" s="43"/>
+      <c r="G1358" s="43"/>
     </row>
     <row r="1366" spans="5:5">
-      <c r="E1366" s="44"/>
+      <c r="E1366" s="43"/>
     </row>
     <row r="1373" spans="5:5">
-      <c r="E1373" s="44"/>
+      <c r="E1373" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E66A0D-40A8-4148-9A00-22F9BA4101F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BF3AA4-C55F-42CC-8A3F-E4F62CD49C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="392">
   <si>
     <t>Name</t>
   </si>
@@ -561,9 +561,6 @@
     <t>Multiplexer</t>
   </si>
   <si>
-    <t>This is the same as the 74LS257 but with inverted outputs.</t>
-  </si>
-  <si>
     <t>Demultiplexer</t>
   </si>
   <si>
@@ -576,13 +573,6 @@
     <t>PLA</t>
   </si>
   <si>
-    <t>PLA (Programmable Logic Array) is responsible for bank switching and dealing with chip select signals.
-Is this a 8700 PAL?</t>
-  </si>
-  <si>
-    <t>Dual timer</t>
-  </si>
-  <si>
     <t>D0</t>
   </si>
   <si>
@@ -602,9 +592,6 @@
   </si>
   <si>
     <t>6 pin</t>
-  </si>
-  <si>
-    <t>FreqGen</t>
   </si>
   <si>
     <t>Crystal oscillator</t>
@@ -846,33 +833,13 @@
 $D800-$DBFF</t>
   </si>
   <si>
-    <t>The socket is not pin-compatible with the 2732 EPROM, so to use an EPROM you need to create an adapter.
-Memory location:
-$D000-$DFFF</t>
-  </si>
-  <si>
-    <t>MOS 901226-01
-Memory location:
-$A000-$BFFF</t>
-  </si>
-  <si>
     <t>Memory location:
 $E000-$FFFF</t>
   </si>
   <si>
-    <t>Memory location:
-$D400-$D7FF</t>
-  </si>
-  <si>
     <t>1024 x 4-bit</t>
   </si>
   <si>
-    <t>4096 x 8-bit</t>
-  </si>
-  <si>
-    <t>8192 x 8-bit</t>
-  </si>
-  <si>
     <t>Dynamic RAM</t>
   </si>
   <si>
@@ -969,9 +936,6 @@
     <t>Data/Commodore shared files/Component local files/2114L_fairchild.pdf</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component local files/mos_6510_mpu_nov_1982.pdf</t>
-  </si>
-  <si>
     <t>Data/Commodore shared files/Component local files/SN7406.PDF</t>
   </si>
   <si>
@@ -1012,11 +976,6 @@
   </si>
   <si>
     <t>Data/Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
-  </si>
-  <si>
-    <t>PAL = 17.73447 MHz
-NTSC = 14.31818 MHz
-Do note that you maybe will not be able to measure directly on the crystal, as the signal may be too fragile for that, and the system may stall (harmless, but requires a power-recycle). Try measuring with a 10X or even 100X attenuation oscilloscope probe.</t>
   </si>
   <si>
     <t>Region</t>
@@ -1128,105 +1087,173 @@
     <t>https://myoldcomputer.nl/technical-info/datasheets/integrated-chip-pinout-and-datasheets/processors/6510-2/</t>
   </si>
   <si>
-    <t>Also used in:
+    <t>Data/Commodore shared files/Component images/556.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/7800-series.jpg</t>
+  </si>
+  <si>
+    <t>Board schematic images</t>
+  </si>
+  <si>
+    <t>Thumbnail image highlight color</t>
+  </si>
+  <si>
+    <t>Thumbnail highlight opacity</t>
+  </si>
+  <si>
+    <t>Highlights in Main or Thumbnail</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Power C64.jpg</t>
+  </si>
+  <si>
+    <t>Board credits</t>
+  </si>
+  <si>
+    <t>Sub-category</t>
+  </si>
+  <si>
+    <t>Name or handle</t>
+  </si>
+  <si>
+    <t>Contact (email or web page)</t>
+  </si>
+  <si>
+    <t>Board labelling</t>
+  </si>
+  <si>
+    <t>Dennis Helligsø</t>
+  </si>
+  <si>
+    <t>dennis@commodore-repair-toolbox.dk</t>
+  </si>
+  <si>
+    <t>Excel data</t>
+  </si>
+  <si>
+    <t>No measurements yet, but PAL will for sure come later, and hopefully someone will also do the NTSC measurements</t>
+  </si>
+  <si>
+    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#worksheet-board-local-files</t>
+  </si>
+  <si>
+    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#worksheet-credits</t>
+  </si>
+  <si>
+    <t>PAL</t>
+  </si>
+  <si>
+    <t>NTSC</t>
+  </si>
+  <si>
+    <t>Expected oscilloscope reading</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Video chip (PAL)</t>
+  </si>
+  <si>
+    <t>Video chip (NTSC)</t>
+  </si>
+  <si>
+    <t>Memory location:
+$D000-$D3FF</t>
+  </si>
+  <si>
+    <t>The CIA (Complex Interface Adapter) is an I/O chip with parallel and serial port as well a time of day clock (TOD) and timers.
+Compatible part-number: 8521
+Also used in:
 Commodore 64 + 128 computers
 Commodore 1570 + 1571 + 1581 diskdrives
-Compatible part-number: 8521
 Memory location:
 $DC00-$DCFF</t>
   </si>
   <si>
-    <t>Also used in:
+    <t>The CIA (Complex Interface Adapter) is an I/O chip with parallel and serial port as well a time of day clock (TOD) and timers.
+Compatible part-number: 8521
+Also used in:
 Commodore 64 + 128 computers
 Commodore 1570 + 1571 + 1581 diskdrives
-Compatible part-number: 8521
 Memory location:
 $DD00-$DDFF</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component images/556.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/7800-series.jpg</t>
-  </si>
-  <si>
-    <t>Board schematic images</t>
-  </si>
-  <si>
-    <t>Thumbnail image highlight color</t>
-  </si>
-  <si>
-    <t>Thumbnail highlight opacity</t>
-  </si>
-  <si>
-    <t>Highlights in Main or Thumbnail</t>
-  </si>
-  <si>
-    <t>Resources</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Power C64.jpg</t>
-  </si>
-  <si>
-    <t>Board credits</t>
-  </si>
-  <si>
-    <t>Sub-category</t>
-  </si>
-  <si>
-    <t>Name or handle</t>
-  </si>
-  <si>
-    <t>Contact (email or web page)</t>
-  </si>
-  <si>
-    <t>Board labelling</t>
-  </si>
-  <si>
-    <t>Dennis Helligsø</t>
-  </si>
-  <si>
-    <t>dennis@commodore-repair-toolbox.dk</t>
-  </si>
-  <si>
-    <t>Excel data</t>
-  </si>
-  <si>
-    <t>Oscilloscope imaging</t>
-  </si>
-  <si>
-    <t>No measurements yet, but PAL will for sure come later, and hopefully someone will also do the NTSC measurements</t>
-  </si>
-  <si>
-    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#worksheet-board-local-files</t>
-  </si>
-  <si>
-    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#worksheet-credits</t>
-  </si>
-  <si>
-    <t>PAL</t>
-  </si>
-  <si>
-    <t>NTSC</t>
-  </si>
-  <si>
-    <t>Expected oscilloscope reading</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>Video chip (PAL)</t>
-  </si>
-  <si>
-    <t>Video chip (NTSC)</t>
+    <t>2364; 8192 x 8-bit</t>
+  </si>
+  <si>
+    <t>2332; 4096 x 8-bit</t>
+  </si>
+  <si>
+    <t>901226-01</t>
+  </si>
+  <si>
+    <t>901227-03</t>
+  </si>
+  <si>
+    <t>901225-01</t>
   </si>
   <si>
     <t>Memory location:
-$D000-$D3FF</t>
+$A000-$BFFF</t>
+  </si>
+  <si>
+    <t>If you burn your own 2732 EPROM, you need to create an adapter, as they are not directly pin compatible.
+Memory location:
+$D000-$DFFF</t>
+  </si>
+  <si>
+    <t>Also known as "MPU"</t>
+  </si>
+  <si>
+    <t>Sound chip</t>
+  </si>
+  <si>
+    <t>Compatible part-number: MOS 7707</t>
+  </si>
+  <si>
+    <t>Compatible part-number: MOS 7708</t>
+  </si>
+  <si>
+    <t>This is the same as the 74LS257 but with inverted outputs.
+Compatible part-number: MOS 7709</t>
+  </si>
+  <si>
+    <t>Compatible part-number: MOS 7711</t>
+  </si>
+  <si>
+    <t>Compatible part-number: MOS 7712</t>
+  </si>
+  <si>
+    <t>17.73447 MHz (PAL)</t>
+  </si>
+  <si>
+    <t>14.31818 MHz (NTSC)</t>
+  </si>
+  <si>
+    <t>Compatible part-number: MOS 7701</t>
+  </si>
+  <si>
+    <t>Do note that you maybe will not be able to measure directly on the crystal, as the signal may be too fragile for that, and the system may stall (harmless, but requires a power-recycle).
+Try measuring with a 10X or even 100X attenuation oscilloscope probe.</t>
+  </si>
+  <si>
+    <t>The SID (Sound Interface Device) is a mono sound chip that has 3 voices. It is also used to read the paddles X and Y axies.
+Memory location:
+$D400-$D7FF</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>PLA (Programmable Logic Array) is responsible for bank switching and dealing with chip select signals.
+Compatible part-number: Signetics 82S100
+Compatible part-number: Philips PLS100</t>
   </si>
   <si>
     <r>
@@ -1241,8 +1268,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-July-11</t>
+      <t>2025-July-22</t>
     </r>
+  </si>
+  <si>
+    <t>Oscilloscope baseline measurement</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
+  </si>
+  <si>
+    <t>Datasheet for 6581</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6581_sid.pdf</t>
   </si>
 </sst>
 </file>
@@ -1831,9 +1870,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1848,17 +1887,17 @@
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1870,7 +1909,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1880,7 +1919,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="30" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1897,11 +1936,11 @@
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="50" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
@@ -1921,10 +1960,10 @@
         <v>11</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1932,7 +1971,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -1952,7 +1991,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -1970,10 +2009,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -2078,8 +2117,8 @@
   <dimension ref="A1:F306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="8" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2094,12 +2133,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="13" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2107,12 +2146,12 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2142,7 +2181,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>21</v>
@@ -2153,10 +2192,10 @@
         <v>142</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>101</v>
@@ -2167,10 +2206,10 @@
         <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>101</v>
@@ -2181,10 +2220,10 @@
         <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>101</v>
@@ -2195,10 +2234,10 @@
         <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>101</v>
@@ -2209,10 +2248,10 @@
         <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>101</v>
@@ -2223,10 +2262,10 @@
         <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>101</v>
@@ -2237,10 +2276,10 @@
         <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>101</v>
@@ -2251,10 +2290,10 @@
         <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>101</v>
@@ -2265,10 +2304,10 @@
         <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>101</v>
@@ -2279,10 +2318,10 @@
         <v>80</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>101</v>
@@ -2293,10 +2332,10 @@
         <v>93</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>101</v>
@@ -2310,7 +2349,7 @@
         <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>101</v>
@@ -2324,7 +2363,7 @@
         <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>101</v>
@@ -2338,7 +2377,7 @@
         <v>152</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>101</v>
@@ -2349,10 +2388,10 @@
         <v>158</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>101</v>
@@ -2363,10 +2402,10 @@
         <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>101</v>
@@ -2380,7 +2419,7 @@
         <v>123</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>101</v>
@@ -2394,7 +2433,7 @@
         <v>160</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>101</v>
@@ -2405,10 +2444,10 @@
         <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>101</v>
@@ -2419,10 +2458,10 @@
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>101</v>
@@ -2433,10 +2472,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>101</v>
@@ -2447,10 +2486,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>101</v>
@@ -2461,10 +2500,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>101</v>
@@ -2475,10 +2514,10 @@
         <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>101</v>
@@ -2489,10 +2528,10 @@
         <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>101</v>
@@ -2503,10 +2542,10 @@
         <v>48</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>101</v>
@@ -2517,10 +2556,10 @@
         <v>162</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>101</v>
@@ -2531,10 +2570,10 @@
         <v>89</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>101</v>
@@ -2548,7 +2587,7 @@
         <v>121</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>101</v>
@@ -2559,10 +2598,10 @@
         <v>161</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>101</v>
@@ -2573,10 +2612,10 @@
         <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>101</v>
@@ -2587,10 +2626,10 @@
         <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>101</v>
@@ -2601,10 +2640,10 @@
         <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>101</v>
@@ -2615,10 +2654,10 @@
         <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>101</v>
@@ -2629,10 +2668,10 @@
         <v>31</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>101</v>
@@ -2643,10 +2682,10 @@
         <v>58</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>101</v>
@@ -2657,10 +2696,10 @@
         <v>127</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>101</v>
@@ -2671,10 +2710,10 @@
         <v>83</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>101</v>
@@ -2685,10 +2724,10 @@
         <v>85</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>101</v>
@@ -2699,10 +2738,10 @@
         <v>86</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>101</v>
@@ -2713,10 +2752,10 @@
         <v>73</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>101</v>
@@ -2727,7 +2766,7 @@
         <v>94</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="1" t="s">
@@ -2739,10 +2778,10 @@
         <v>133</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>101</v>
@@ -2756,7 +2795,7 @@
         <v>147</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>101</v>
@@ -2767,10 +2806,10 @@
         <v>145</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>101</v>
@@ -2784,7 +2823,7 @@
         <v>149</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>101</v>
@@ -2798,7 +2837,7 @@
         <v>154</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>101</v>
@@ -2809,10 +2848,10 @@
         <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>101</v>
@@ -2823,10 +2862,10 @@
         <v>150</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>101</v>
@@ -2837,10 +2876,10 @@
         <v>72</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>101</v>
@@ -2851,10 +2890,10 @@
         <v>132</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>101</v>
@@ -2865,10 +2904,10 @@
         <v>141</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>101</v>
@@ -2879,10 +2918,10 @@
         <v>138</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>101</v>
@@ -2893,10 +2932,10 @@
         <v>137</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>101</v>
@@ -2907,10 +2946,10 @@
         <v>68</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>101</v>
@@ -2921,10 +2960,10 @@
         <v>128</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>101</v>
@@ -2935,10 +2974,10 @@
         <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>101</v>
@@ -2949,10 +2988,10 @@
         <v>40</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>101</v>
@@ -2963,10 +3002,10 @@
         <v>98</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>101</v>
@@ -2977,16 +3016,16 @@
         <v>97</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2994,7 +3033,7 @@
         <v>116</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>117</v>
@@ -3008,7 +3047,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>119</v>
@@ -3022,7 +3061,7 @@
         <v>139</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>140</v>
@@ -3036,7 +3075,7 @@
         <v>106</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>107</v>
@@ -3050,10 +3089,10 @@
         <v>99</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>105</v>
@@ -3064,7 +3103,7 @@
         <v>100</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>104</v>
@@ -3078,10 +3117,10 @@
         <v>157</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>105</v>
@@ -3092,7 +3131,7 @@
         <v>110</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>111</v>
@@ -3106,7 +3145,7 @@
         <v>112</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>113</v>
@@ -3120,7 +3159,7 @@
         <v>129</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>130</v>
@@ -3161,8 +3200,8 @@
       <c r="A81" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B81" s="1">
-        <v>2364</v>
+      <c r="B81" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>54</v>
@@ -3171,15 +3210,15 @@
         <v>102</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>268</v>
+        <v>366</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="1">
-        <v>2364</v>
+      <c r="B82" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>55</v>
@@ -3188,15 +3227,15 @@
         <v>102</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>268</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="1">
-        <v>2332</v>
+      <c r="B83" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>57</v>
@@ -3205,7 +3244,7 @@
         <v>102</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>267</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3222,7 +3261,7 @@
         <v>102</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3238,6 +3277,9 @@
       <c r="D85" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="F85" s="1" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="16" t="s">
@@ -3261,13 +3303,13 @@
         <v>4164</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3278,13 +3320,13 @@
         <v>4164</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3295,13 +3337,13 @@
         <v>4164</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3312,13 +3354,13 @@
         <v>4164</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3357,7 +3399,7 @@
         <v>50</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>102</v>
@@ -3371,7 +3413,7 @@
         <v>4066</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>102</v>
@@ -3381,11 +3423,11 @@
       <c r="A95" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>102</v>
@@ -3404,6 +3446,9 @@
       <c r="D96" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="F96" s="1" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="16" t="s">
@@ -3419,10 +3464,10 @@
         <v>102</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3439,10 +3484,10 @@
         <v>102</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3453,7 +3498,7 @@
         <v>556</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>178</v>
+        <v>385</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>102</v>
@@ -3467,13 +3512,13 @@
         <v>4164</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3484,13 +3529,13 @@
         <v>4164</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3501,13 +3546,13 @@
         <v>4164</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3518,13 +3563,13 @@
         <v>4164</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3549,7 +3594,7 @@
         <v>60</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>102</v>
@@ -3563,7 +3608,7 @@
         <v>43</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>102</v>
@@ -3577,7 +3622,7 @@
         <v>4066</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>102</v>
@@ -3591,7 +3636,7 @@
         <v>8701</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>102</v>
@@ -3599,13 +3644,13 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>103</v>
@@ -3613,10 +3658,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="16" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>103</v>
@@ -3627,7 +3672,7 @@
         <v>155</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>156</v>
@@ -3644,13 +3689,13 @@
         <v>7812</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:6">
       <c r="A113" s="16" t="s">
         <v>144</v>
       </c>
@@ -3658,66 +3703,83 @@
         <v>7805</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:6">
       <c r="A114" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="C114" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="16"/>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E114" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="26"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:6">
       <c r="A117" s="26"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:6">
       <c r="A118" s="27"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:6">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:6">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:6">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:6">
       <c r="A122" s="27"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:6">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:6">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:6">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:6">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:6">
       <c r="A127" s="27"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:6">
       <c r="A128" s="14"/>
     </row>
     <row r="129" spans="1:1">
@@ -4533,8 +4595,10 @@
   <dimension ref="A1:I1373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4551,14 +4615,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21">
       <c r="A1" s="13" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="31"/>
@@ -4572,7 +4636,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="33"/>
@@ -4582,7 +4646,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="34"/>
@@ -4613,22 +4677,22 @@
         <v>3</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8">
@@ -4638,11 +4702,11 @@
       <c r="B9" s="16"/>
       <c r="C9" s="32"/>
       <c r="D9" s="14" t="s">
-        <v>375</v>
+        <v>185</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4652,10 +4716,10 @@
       <c r="B10" s="16"/>
       <c r="C10" s="32"/>
       <c r="D10" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4665,10 +4729,10 @@
       <c r="B11" s="18"/>
       <c r="C11" s="36"/>
       <c r="D11" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4678,10 +4742,10 @@
       <c r="B12" s="18"/>
       <c r="C12" s="36"/>
       <c r="D12" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4691,10 +4755,10 @@
       <c r="B13" s="16"/>
       <c r="C13" s="32"/>
       <c r="D13" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4704,10 +4768,10 @@
       <c r="B14" s="18"/>
       <c r="C14" s="36"/>
       <c r="D14" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4717,10 +4781,10 @@
       <c r="B15" s="18"/>
       <c r="C15" s="36"/>
       <c r="D15" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4730,10 +4794,10 @@
       <c r="B16" s="18"/>
       <c r="C16" s="36"/>
       <c r="D16" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4743,58 +4807,58 @@
       <c r="B17" s="18"/>
       <c r="C17" s="36"/>
       <c r="D17" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="115.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="158.4">
       <c r="A18" s="47" t="s">
         <v>134</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="36"/>
       <c r="D18" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="115.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="158.4">
       <c r="A19" s="47" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="36"/>
       <c r="D19" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="57.6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8">
       <c r="A20" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="37"/>
       <c r="D20" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>263</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.8">
@@ -4804,13 +4868,13 @@
       <c r="B21" s="18"/>
       <c r="C21" s="36"/>
       <c r="D21" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="72">
@@ -4820,13 +4884,13 @@
       <c r="B22" s="18"/>
       <c r="C22" s="36"/>
       <c r="D22" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>262</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.8">
@@ -4836,13 +4900,13 @@
       <c r="B23" s="18"/>
       <c r="C23" s="36"/>
       <c r="D23" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4852,10 +4916,10 @@
       <c r="B24" s="16"/>
       <c r="C24" s="32"/>
       <c r="D24" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>165</v>
@@ -4868,10 +4932,13 @@
       <c r="B25" s="16"/>
       <c r="C25" s="32"/>
       <c r="D25" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>285</v>
+        <v>276</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4881,10 +4948,10 @@
       <c r="B26" s="16"/>
       <c r="C26" s="32"/>
       <c r="D26" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>167</v>
@@ -4897,10 +4964,10 @@
       <c r="B27" s="16"/>
       <c r="C27" s="32"/>
       <c r="D27" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>168</v>
@@ -4913,10 +4980,10 @@
       <c r="B28" s="16"/>
       <c r="C28" s="32"/>
       <c r="D28" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>169</v>
@@ -4929,10 +4996,10 @@
       <c r="B29" s="14"/>
       <c r="C29" s="37"/>
       <c r="D29" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>170</v>
@@ -4945,26 +5012,29 @@
       <c r="B30" s="14"/>
       <c r="C30" s="37"/>
       <c r="D30" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>278</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="43.2">
       <c r="A31" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="37"/>
       <c r="D31" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>172</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4974,10 +5044,13 @@
       <c r="B32" s="14"/>
       <c r="C32" s="37"/>
       <c r="D32" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>289</v>
+        <v>280</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4987,42 +5060,42 @@
       <c r="B33" s="14"/>
       <c r="C33" s="37"/>
       <c r="D33" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="57.6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="72">
       <c r="A34" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="37"/>
       <c r="D34" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="28.8">
+        <v>282</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="72">
       <c r="A35" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="37"/>
       <c r="D35" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>265</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28.8">
@@ -5032,13 +5105,13 @@
       <c r="B36" s="14"/>
       <c r="C36" s="37"/>
       <c r="D36" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5048,10 +5121,10 @@
       <c r="B37" s="14"/>
       <c r="C37" s="37"/>
       <c r="D37" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5061,13 +5134,13 @@
       <c r="B38" s="14"/>
       <c r="C38" s="37"/>
       <c r="D38" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5077,13 +5150,13 @@
       <c r="B39" s="14"/>
       <c r="C39" s="37"/>
       <c r="D39" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5093,13 +5166,13 @@
       <c r="B40" s="14"/>
       <c r="C40" s="37"/>
       <c r="D40" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5109,13 +5182,13 @@
       <c r="B41" s="14"/>
       <c r="C41" s="37"/>
       <c r="D41" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5125,10 +5198,13 @@
       <c r="B42" s="14"/>
       <c r="C42" s="37"/>
       <c r="D42" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5138,10 +5214,10 @@
       <c r="B43" s="14"/>
       <c r="C43" s="37"/>
       <c r="D43" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5151,10 +5227,13 @@
       <c r="B44" s="14"/>
       <c r="C44" s="37"/>
       <c r="D44" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>295</v>
+        <v>286</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5164,10 +5243,10 @@
       <c r="B45" s="14"/>
       <c r="C45" s="37"/>
       <c r="D45" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5177,10 +5256,13 @@
       <c r="B46" s="14"/>
       <c r="C46" s="37"/>
       <c r="D46" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>344</v>
+        <v>333</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5190,11 +5272,11 @@
       <c r="B47" s="14"/>
       <c r="C47" s="37"/>
       <c r="D47" s="14" t="s">
-        <v>375</v>
+        <v>185</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5204,10 +5286,10 @@
       <c r="B48" s="14"/>
       <c r="C48" s="37"/>
       <c r="D48" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5217,23 +5299,23 @@
       <c r="B49" s="14"/>
       <c r="C49" s="37"/>
       <c r="D49" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="100.8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="72">
       <c r="A50" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="37"/>
       <c r="D50" s="1" t="s">
-        <v>375</v>
+        <v>185</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>316</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -7049,12 +7131,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7069,7 +7151,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -7081,7 +7163,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="30" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -7878,7 +7960,7 @@
         <v>24</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C46" s="18">
         <v>2978</v>
@@ -9138,7 +9220,7 @@
         <v>25</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C109" s="18">
         <v>2408</v>
@@ -9415,7 +9497,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>142</v>
@@ -9435,7 +9517,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>114</v>
@@ -9455,7 +9537,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>115</v>
@@ -9475,7 +9557,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>45</v>
@@ -9495,7 +9577,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>46</v>
@@ -9515,7 +9597,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B128" s="18" t="s">
         <v>52</v>
@@ -9535,7 +9617,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>77</v>
@@ -9555,7 +9637,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>109</v>
@@ -9575,7 +9657,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>90</v>
@@ -9595,7 +9677,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>80</v>
@@ -9615,7 +9697,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>93</v>
@@ -9635,7 +9717,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>91</v>
@@ -9655,7 +9737,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B135" s="18" t="s">
         <v>88</v>
@@ -9675,7 +9757,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>151</v>
@@ -9695,7 +9777,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>158</v>
@@ -9715,7 +9797,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>125</v>
@@ -9735,7 +9817,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>122</v>
@@ -9755,7 +9837,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B140" s="18" t="s">
         <v>159</v>
@@ -9775,7 +9857,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B141" s="18" t="s">
         <v>66</v>
@@ -9795,7 +9877,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>35</v>
@@ -9815,7 +9897,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B143" s="18" t="s">
         <v>33</v>
@@ -9835,7 +9917,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B144" s="18" t="s">
         <v>28</v>
@@ -9855,7 +9937,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B145" s="18" t="s">
         <v>27</v>
@@ -9875,7 +9957,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B146" s="18" t="s">
         <v>71</v>
@@ -9895,7 +9977,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>51</v>
@@ -9915,7 +9997,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>48</v>
@@ -9935,7 +10017,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>162</v>
@@ -9955,7 +10037,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>89</v>
@@ -9975,7 +10057,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>120</v>
@@ -9995,7 +10077,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>161</v>
@@ -10015,7 +10097,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B153" s="18" t="s">
         <v>67</v>
@@ -10035,7 +10117,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B154" s="18" t="s">
         <v>65</v>
@@ -10055,7 +10137,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B155" s="18" t="s">
         <v>34</v>
@@ -10075,7 +10157,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B156" s="18" t="s">
         <v>32</v>
@@ -10095,7 +10177,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B157" s="18" t="s">
         <v>31</v>
@@ -10115,7 +10197,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B158" s="18" t="s">
         <v>58</v>
@@ -10135,7 +10217,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B159" s="18" t="s">
         <v>127</v>
@@ -10155,7 +10237,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B160" s="18" t="s">
         <v>83</v>
@@ -10175,7 +10257,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B161" s="18" t="s">
         <v>85</v>
@@ -10195,7 +10277,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B162" s="18" t="s">
         <v>86</v>
@@ -10215,7 +10297,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B163" s="18" t="s">
         <v>73</v>
@@ -10235,7 +10317,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B164" s="18" t="s">
         <v>94</v>
@@ -10255,7 +10337,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B165" s="18" t="s">
         <v>133</v>
@@ -10275,7 +10357,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>146</v>
@@ -10295,7 +10377,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B167" s="18" t="s">
         <v>145</v>
@@ -10315,7 +10397,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B168" s="18" t="s">
         <v>148</v>
@@ -10335,7 +10417,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B169" s="18" t="s">
         <v>153</v>
@@ -10355,7 +10437,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B170" s="18" t="s">
         <v>84</v>
@@ -10375,7 +10457,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B171" s="18" t="s">
         <v>150</v>
@@ -10395,7 +10477,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B172" s="18" t="s">
         <v>72</v>
@@ -10415,7 +10497,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B173" s="18" t="s">
         <v>132</v>
@@ -10435,7 +10517,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B174" s="18" t="s">
         <v>141</v>
@@ -10455,7 +10537,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B175" s="18" t="s">
         <v>138</v>
@@ -10475,7 +10557,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B176" s="18" t="s">
         <v>137</v>
@@ -10495,7 +10577,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B177" s="18" t="s">
         <v>68</v>
@@ -10515,7 +10597,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B178" s="18" t="s">
         <v>128</v>
@@ -10535,7 +10617,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B179" s="18" t="s">
         <v>126</v>
@@ -10555,7 +10637,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B180" s="18" t="s">
         <v>40</v>
@@ -10575,7 +10657,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B181" s="18" t="s">
         <v>98</v>
@@ -10595,7 +10677,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B182" s="18" t="s">
         <v>116</v>
@@ -10615,7 +10697,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B183" s="18" t="s">
         <v>118</v>
@@ -10635,7 +10717,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B184" s="18" t="s">
         <v>139</v>
@@ -10655,7 +10737,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B185" s="18" t="s">
         <v>106</v>
@@ -10675,7 +10757,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B186" s="18" t="s">
         <v>99</v>
@@ -10695,7 +10777,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B187" s="18" t="s">
         <v>100</v>
@@ -10715,7 +10797,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B188" s="18" t="s">
         <v>157</v>
@@ -10735,7 +10817,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B189" s="18" t="s">
         <v>110</v>
@@ -10755,7 +10837,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B190" s="18" t="s">
         <v>112</v>
@@ -10775,7 +10857,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B191" s="18" t="s">
         <v>129</v>
@@ -10795,7 +10877,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B192" s="18" t="s">
         <v>97</v>
@@ -10815,10 +10897,10 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C193" s="18">
         <v>3167</v>
@@ -10835,10 +10917,10 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C194" s="18">
         <v>2234</v>
@@ -10855,7 +10937,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B195" s="18" t="s">
         <v>155</v>
@@ -10875,7 +10957,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B196" s="18" t="s">
         <v>134</v>
@@ -10895,7 +10977,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B197" s="18" t="s">
         <v>131</v>
@@ -10915,7 +10997,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B198" s="18" t="s">
         <v>44</v>
@@ -10935,7 +11017,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B199" s="18" t="s">
         <v>53</v>
@@ -10955,7 +11037,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B200" s="18" t="s">
         <v>56</v>
@@ -10975,7 +11057,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B201" s="18" t="s">
         <v>78</v>
@@ -10995,7 +11077,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B202" s="18" t="s">
         <v>135</v>
@@ -11015,7 +11097,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B203" s="18" t="s">
         <v>26</v>
@@ -11035,7 +11117,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B204" s="18" t="s">
         <v>63</v>
@@ -11055,7 +11137,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B205" s="18" t="s">
         <v>61</v>
@@ -11075,7 +11157,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B206" s="18" t="s">
         <v>38</v>
@@ -11095,7 +11177,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B207" s="18" t="s">
         <v>36</v>
@@ -11115,7 +11197,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B208" s="18" t="s">
         <v>29</v>
@@ -11135,7 +11217,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B209" s="18" t="s">
         <v>69</v>
@@ -11155,7 +11237,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B210" s="18" t="s">
         <v>49</v>
@@ -11175,7 +11257,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B211" s="18" t="s">
         <v>76</v>
@@ -11195,7 +11277,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B212" s="18" t="s">
         <v>47</v>
@@ -11215,7 +11297,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B213" s="18" t="s">
         <v>81</v>
@@ -11235,7 +11317,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B214" s="18" t="s">
         <v>74</v>
@@ -11255,7 +11337,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B215" s="18" t="s">
         <v>124</v>
@@ -11275,7 +11357,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B216" s="18" t="s">
         <v>64</v>
@@ -11295,7 +11377,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B217" s="18" t="s">
         <v>62</v>
@@ -11315,7 +11397,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B218" s="18" t="s">
         <v>39</v>
@@ -11335,7 +11417,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B219" s="18" t="s">
         <v>37</v>
@@ -11355,7 +11437,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B220" s="18" t="s">
         <v>41</v>
@@ -11375,7 +11457,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B221" s="18" t="s">
         <v>59</v>
@@ -11395,7 +11477,7 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B222" s="18" t="s">
         <v>42</v>
@@ -11415,7 +11497,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B223" s="18" t="s">
         <v>108</v>
@@ -11435,7 +11517,7 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B224" s="18" t="s">
         <v>95</v>
@@ -11455,7 +11537,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B225" s="18" t="s">
         <v>143</v>
@@ -11475,7 +11557,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B226" s="18" t="s">
         <v>144</v>
@@ -11495,7 +11577,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B227" s="18" t="s">
         <v>96</v>
@@ -13226,11 +13308,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F00A795-F924-4957-BF24-7CBCF1582012}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13242,12 +13324,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13257,14 +13339,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="30" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -13297,10 +13379,10 @@
         <v>118</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13308,10 +13390,10 @@
         <v>139</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -13319,10 +13401,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -13330,10 +13412,10 @@
         <v>99</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -13341,10 +13423,10 @@
         <v>100</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -13352,10 +13434,10 @@
         <v>110</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -13363,10 +13445,10 @@
         <v>112</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13374,10 +13456,10 @@
         <v>134</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13385,10 +13467,10 @@
         <v>131</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -13396,10 +13478,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13407,10 +13489,10 @@
         <v>53</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -13418,10 +13500,10 @@
         <v>56</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -13429,10 +13511,10 @@
         <v>78</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -13440,10 +13522,10 @@
         <v>135</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>301</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13451,10 +13533,10 @@
         <v>26</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -13462,10 +13544,10 @@
         <v>63</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -13473,10 +13555,10 @@
         <v>61</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -13484,10 +13566,10 @@
         <v>38</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -13495,10 +13577,10 @@
         <v>36</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -13506,10 +13588,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -13517,10 +13599,10 @@
         <v>69</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -13528,10 +13610,10 @@
         <v>49</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -13539,10 +13621,10 @@
         <v>76</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -13550,178 +13632,189 @@
         <v>47</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="A33" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="16" t="s">
+      <c r="B34" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>64</v>
-      </c>
       <c r="B35" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>303</v>
+        <v>199</v>
+      </c>
+      <c r="C35" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="6" t="s">
+      <c r="B39" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
       <c r="B40" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C40" t="s">
-        <v>311</v>
+        <v>193</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>205</v>
+        <v>59</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>307</v>
+        <v>42</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C43" t="s">
-        <v>343</v>
+        <v>196</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>206</v>
+        <v>331</v>
       </c>
       <c r="C44" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="26"/>
+      <c r="B46" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="29"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="27"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="27"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="28"/>
+      <c r="A48" s="26"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="29"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="27"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="27"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="14"/>
+      <c r="A60" s="28"/>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="14"/>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="14"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13748,12 +13841,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13761,12 +13854,12 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="30" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -13795,10 +13888,10 @@
         <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13806,10 +13899,10 @@
         <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -13855,12 +13948,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13869,14 +13962,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="30" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -13905,24 +13998,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -13974,12 +14067,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13988,14 +14081,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="30" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -14024,112 +14117,112 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B15" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" t="s">
         <v>243</v>
-      </c>
-      <c r="B16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C18" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -14166,12 +14259,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="39.109375" customWidth="1"/>
     <col min="4" max="4" width="48.21875" customWidth="1"/>
@@ -14179,7 +14272,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="13" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="10"/>
@@ -14187,7 +14280,7 @@
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="11"/>
@@ -14195,7 +14288,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="6"/>
@@ -14203,7 +14296,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="30" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="6"/>
@@ -14211,7 +14304,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -14222,43 +14315,43 @@
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C10" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="C11" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="D11" s="42"/>
     </row>

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BF3AA4-C55F-42CC-8A3F-E4F62CD49C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18CB903-FD32-4A93-A421-FAE4E2326267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -1135,9 +1135,6 @@
     <t>Excel data</t>
   </si>
   <si>
-    <t>No measurements yet, but PAL will for sure come later, and hopefully someone will also do the NTSC measurements</t>
-  </si>
-  <si>
     <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#worksheet-board-local-files</t>
   </si>
   <si>
@@ -1254,6 +1251,21 @@
     <t>PLA (Programmable Logic Array) is responsible for bank switching and dealing with chip select signals.
 Compatible part-number: Signetics 82S100
 Compatible part-number: Philips PLS100</t>
+  </si>
+  <si>
+    <t>Oscilloscope baseline measurement</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
+  </si>
+  <si>
+    <t>Datasheet for 6581</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6581_sid.pdf</t>
+  </si>
+  <si>
+    <t>No measurements yet, but PAL will for sure come later, and hopefully someone will also help with the NTSC measurements</t>
   </si>
   <si>
     <r>
@@ -1268,20 +1280,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-July-22</t>
+      <t>2025-August-1</t>
     </r>
-  </si>
-  <si>
-    <t>Oscilloscope baseline measurement</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
-  </si>
-  <si>
-    <t>Datasheet for 6581</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_6581_sid.pdf</t>
   </si>
 </sst>
 </file>
@@ -1870,9 +1870,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2117,8 +2117,8 @@
   <dimension ref="A1:F306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3201,7 +3201,7 @@
         <v>44</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>54</v>
@@ -3210,7 +3210,7 @@
         <v>102</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3218,7 +3218,7 @@
         <v>53</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>55</v>
@@ -3227,7 +3227,7 @@
         <v>102</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3235,7 +3235,7 @@
         <v>56</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>57</v>
@@ -3244,7 +3244,7 @@
         <v>102</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3278,7 +3278,7 @@
         <v>102</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3447,7 +3447,7 @@
         <v>102</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3464,10 +3464,10 @@
         <v>102</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3484,10 +3484,10 @@
         <v>102</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3498,7 +3498,7 @@
         <v>556</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>102</v>
@@ -3720,10 +3720,10 @@
         <v>103</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3737,10 +3737,10 @@
         <v>103</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4595,10 +4595,10 @@
   <dimension ref="A1:I1373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4686,13 +4686,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8">
@@ -4826,7 +4826,7 @@
         <v>271</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="158.4">
@@ -4842,7 +4842,7 @@
         <v>271</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.8">
@@ -4858,7 +4858,7 @@
         <v>272</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.8">
@@ -4890,7 +4890,7 @@
         <v>273</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.8">
@@ -4938,7 +4938,7 @@
         <v>276</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5018,7 +5018,7 @@
         <v>278</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="43.2">
@@ -5034,7 +5034,7 @@
         <v>279</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5050,7 +5050,7 @@
         <v>280</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5079,7 +5079,7 @@
         <v>282</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="72">
@@ -5095,7 +5095,7 @@
         <v>283</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28.8">
@@ -5111,7 +5111,7 @@
         <v>284</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5204,7 +5204,7 @@
         <v>278</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5233,7 +5233,7 @@
         <v>286</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5262,7 +5262,7 @@
         <v>333</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5315,7 +5315,7 @@
         <v>185</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -13310,9 +13310,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13525,7 +13525,7 @@
         <v>190</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13643,10 +13643,10 @@
         <v>81</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -13969,7 +13969,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -14259,7 +14259,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14296,7 +14296,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="6"/>
@@ -14348,10 +14348,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C11" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="D11" s="42"/>
     </row>

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250425\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18CB903-FD32-4A93-A421-FAE4E2326267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B5F5D6-B3A0-47D3-B1FD-70CDC4541707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -852,132 +852,6 @@
     <t>5VDC voltage regulator</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component images/User port.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Cassette port.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Serial bus.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Video-audio port.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Expansion port.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Joystick port 2.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Joystick port 1.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/6526.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/2364.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/2332.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/2114.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/6510.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/7406.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/4164.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/74LS257.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/74LS258.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/74LS139.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/4066.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/906114-01-PLA.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/6581.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/6569.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/74LS373.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/7408.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_6526_cia_recreated.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/2114L_fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/SN7406.PDF</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/km4164b_samsung.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/74LS257A_Fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/hd74ls258_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/hd74ls139_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/hd14066b_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/c64_pla_dissected_a4ds.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_6567_vic_ii_preliminary.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/NE556.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/dm74ls373_national_semiconductor.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/sn74ls08_ti.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/MC7800.PDF</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Board local files/C64C_Service_Manual_1992.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -1003,15 +877,6 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Commodore_64</t>
-  </si>
-  <si>
-    <t>Data/Commodore 64/250425/251469-1of2.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore 64/250425/251469-2of2.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore 64/250425/Board-Layout-250425.jpg</t>
   </si>
   <si>
     <r>
@@ -1069,12 +934,6 @@
     <t>Datasheet for 8701</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component local files/MOS8701.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/8701.jpg</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
@@ -1087,12 +946,6 @@
     <t>https://myoldcomputer.nl/technical-info/datasheets/integrated-chip-pinout-and-datasheets/processors/6510-2/</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component images/556.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/7800-series.jpg</t>
-  </si>
-  <si>
     <t>Board schematic images</t>
   </si>
   <si>
@@ -1106,9 +959,6 @@
   </si>
   <si>
     <t>Resources</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Power C64.jpg</t>
   </si>
   <si>
     <t>Board credits</t>
@@ -1256,13 +1106,7 @@
     <t>Oscilloscope baseline measurement</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
-  </si>
-  <si>
     <t>Datasheet for 6581</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_6581_sid.pdf</t>
   </si>
   <si>
     <t>No measurements yet, but PAL will for sure come later, and hopefully someone will also help with the NTSC measurements</t>
@@ -1280,8 +1124,164 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-August-1</t>
+      <t>2025-September-13</t>
     </r>
+  </si>
+  <si>
+    <t>Commodore 64/250425/251469-1of2.jpg</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/251469-2of2.jpg</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Board-Layout-250425.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/User port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Cassette port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Serial bus.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Video-audio port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Expansion port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Power C64.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Joystick port 2.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Joystick port 1.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6526.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2364.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2332.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2114.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6510.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7406.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/4164.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS257.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS258.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS139.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/4066.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/906114-01-PLA.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6581.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6569.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/556.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS373.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7408.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/8701.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7800-series.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6526_cia_recreated.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2114L_fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN7406.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/km4164b_samsung.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS257A_Fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/hd74ls258_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/hd74ls139_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/hd14066b_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/c64_pla_dissected_a4ds.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6581_sid.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6567_vic_ii_preliminary.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/NE556.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/dm74ls373_national_semiconductor.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/sn74ls08_ti.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/MOS8701.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/MC7800.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/C64C_Service_Manual_1992.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1887,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" ht="21">
@@ -1897,7 +1897,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1936,11 +1936,11 @@
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="50" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
@@ -1960,10 +1960,10 @@
         <v>11</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1971,7 +1971,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -1991,7 +1991,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -2012,7 +2012,7 @@
         <v>252</v>
       </c>
       <c r="B12" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -2133,7 +2133,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
@@ -2181,7 +2181,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>21</v>
@@ -3033,7 +3033,7 @@
         <v>116</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>117</v>
@@ -3047,7 +3047,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>119</v>
@@ -3061,7 +3061,7 @@
         <v>139</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>140</v>
@@ -3075,7 +3075,7 @@
         <v>106</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>107</v>
@@ -3089,10 +3089,10 @@
         <v>99</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>105</v>
@@ -3103,7 +3103,7 @@
         <v>100</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>104</v>
@@ -3117,10 +3117,10 @@
         <v>157</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>105</v>
@@ -3131,7 +3131,7 @@
         <v>110</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>111</v>
@@ -3145,7 +3145,7 @@
         <v>112</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>113</v>
@@ -3159,7 +3159,7 @@
         <v>129</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>130</v>
@@ -3201,7 +3201,7 @@
         <v>44</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>54</v>
@@ -3210,7 +3210,7 @@
         <v>102</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3218,7 +3218,7 @@
         <v>53</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>55</v>
@@ -3227,7 +3227,7 @@
         <v>102</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3235,7 +3235,7 @@
         <v>56</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>57</v>
@@ -3244,7 +3244,7 @@
         <v>102</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3278,7 +3278,7 @@
         <v>102</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3447,7 +3447,7 @@
         <v>102</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3464,10 +3464,10 @@
         <v>102</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3484,10 +3484,10 @@
         <v>102</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3498,7 +3498,7 @@
         <v>556</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>102</v>
@@ -3658,10 +3658,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="16" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>103</v>
@@ -3720,10 +3720,10 @@
         <v>103</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3737,10 +3737,10 @@
         <v>103</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4615,7 +4615,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="31"/>
@@ -4677,22 +4677,22 @@
         <v>3</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8">
@@ -4719,7 +4719,7 @@
         <v>185</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4732,7 +4732,7 @@
         <v>185</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4745,7 +4745,7 @@
         <v>185</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4758,7 +4758,7 @@
         <v>185</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>267</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4771,7 +4771,7 @@
         <v>185</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>268</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4784,7 +4784,7 @@
         <v>185</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4797,7 +4797,7 @@
         <v>185</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4810,7 +4810,7 @@
         <v>185</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="158.4">
@@ -4823,10 +4823,10 @@
         <v>185</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="158.4">
@@ -4839,10 +4839,10 @@
         <v>185</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.8">
@@ -4855,10 +4855,10 @@
         <v>185</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.8">
@@ -4871,7 +4871,7 @@
         <v>185</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>258</v>
@@ -4887,10 +4887,10 @@
         <v>185</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.8">
@@ -4903,7 +4903,7 @@
         <v>185</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>257</v>
@@ -4919,7 +4919,7 @@
         <v>185</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>165</v>
@@ -4935,10 +4935,10 @@
         <v>185</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4951,7 +4951,7 @@
         <v>185</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>167</v>
@@ -4967,7 +4967,7 @@
         <v>185</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>168</v>
@@ -4983,7 +4983,7 @@
         <v>185</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>169</v>
@@ -4999,7 +4999,7 @@
         <v>185</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>170</v>
@@ -5015,10 +5015,10 @@
         <v>185</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>278</v>
+        <v>358</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="43.2">
@@ -5031,10 +5031,10 @@
         <v>185</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>279</v>
+        <v>359</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5047,10 +5047,10 @@
         <v>185</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5063,7 +5063,7 @@
         <v>185</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="72">
@@ -5076,10 +5076,10 @@
         <v>185</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="72">
@@ -5092,10 +5092,10 @@
         <v>185</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28.8">
@@ -5108,10 +5108,10 @@
         <v>185</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5124,7 +5124,7 @@
         <v>185</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5137,7 +5137,7 @@
         <v>185</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>176</v>
@@ -5153,7 +5153,7 @@
         <v>185</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>177</v>
@@ -5169,7 +5169,7 @@
         <v>185</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>178</v>
@@ -5185,7 +5185,7 @@
         <v>185</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>179</v>
@@ -5201,10 +5201,10 @@
         <v>185</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>278</v>
+        <v>358</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5217,7 +5217,7 @@
         <v>185</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>285</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5230,10 +5230,10 @@
         <v>185</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>286</v>
+        <v>367</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5246,7 +5246,7 @@
         <v>185</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5259,10 +5259,10 @@
         <v>185</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="1" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5289,7 +5289,7 @@
         <v>185</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5302,7 +5302,7 @@
         <v>185</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="72">
@@ -5315,7 +5315,7 @@
         <v>185</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -7131,7 +7131,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21">
@@ -7960,7 +7960,7 @@
         <v>24</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="C46" s="18">
         <v>2978</v>
@@ -10920,7 +10920,7 @@
         <v>252</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="C194" s="18">
         <v>2234</v>
@@ -13324,7 +13324,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
@@ -13382,7 +13382,7 @@
         <v>256</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13393,7 +13393,7 @@
         <v>256</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -13404,7 +13404,7 @@
         <v>256</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -13415,7 +13415,7 @@
         <v>256</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -13426,7 +13426,7 @@
         <v>256</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -13437,7 +13437,7 @@
         <v>256</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -13448,7 +13448,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13459,7 +13459,7 @@
         <v>186</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>288</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13470,7 +13470,7 @@
         <v>186</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>288</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -13481,7 +13481,7 @@
         <v>187</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>289</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13492,7 +13492,7 @@
         <v>187</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>289</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -13503,7 +13503,7 @@
         <v>188</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>290</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -13514,7 +13514,7 @@
         <v>189</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>291</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -13525,7 +13525,7 @@
         <v>190</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13536,7 +13536,7 @@
         <v>191</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -13547,7 +13547,7 @@
         <v>192</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -13558,7 +13558,7 @@
         <v>192</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -13569,7 +13569,7 @@
         <v>192</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -13580,7 +13580,7 @@
         <v>192</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -13591,7 +13591,7 @@
         <v>193</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -13602,7 +13602,7 @@
         <v>194</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -13613,7 +13613,7 @@
         <v>195</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>296</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -13624,7 +13624,7 @@
         <v>196</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>297</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -13635,7 +13635,7 @@
         <v>197</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -13643,10 +13643,10 @@
         <v>81</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -13657,7 +13657,7 @@
         <v>198</v>
       </c>
       <c r="C34" t="s">
-        <v>299</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -13668,7 +13668,7 @@
         <v>199</v>
       </c>
       <c r="C35" t="s">
-        <v>300</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -13679,7 +13679,7 @@
         <v>192</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -13690,7 +13690,7 @@
         <v>192</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -13701,7 +13701,7 @@
         <v>192</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -13712,7 +13712,7 @@
         <v>192</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -13723,7 +13723,7 @@
         <v>193</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -13734,7 +13734,7 @@
         <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>301</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -13745,7 +13745,7 @@
         <v>201</v>
       </c>
       <c r="C42" t="s">
-        <v>302</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -13756,7 +13756,7 @@
         <v>196</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>297</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -13764,10 +13764,10 @@
         <v>95</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="C44" t="s">
-        <v>332</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -13778,7 +13778,7 @@
         <v>202</v>
       </c>
       <c r="C45" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -13789,7 +13789,7 @@
         <v>203</v>
       </c>
       <c r="C46" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -13841,7 +13841,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
@@ -13899,10 +13899,10 @@
         <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -13948,7 +13948,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
@@ -13969,7 +13969,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="30" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -13998,13 +13998,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>304</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14015,7 +14015,7 @@
         <v>248</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -14067,7 +14067,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
@@ -14117,21 +14117,21 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
         <v>234</v>
@@ -14139,7 +14139,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="B11" t="s">
         <v>251</v>
@@ -14150,18 +14150,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
         <v>235</v>
@@ -14219,10 +14219,10 @@
         <v>244</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="C18" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -14272,7 +14272,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="10"/>
@@ -14296,7 +14296,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="30" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="6"/>
@@ -14304,7 +14304,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -14315,43 +14315,43 @@
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="C9" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="C11" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="D11" s="42"/>
     </row>

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B5F5D6-B3A0-47D3-B1FD-70CDC4541707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1074D6-4EA7-40CC-9129-F04A844809B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="395">
   <si>
     <t>Name</t>
   </si>
@@ -1112,6 +1112,162 @@
     <t>No measurements yet, but PAL will for sure come later, and hopefully someone will also help with the NTSC measurements</t>
   </si>
   <si>
+    <t>Commodore 64/250425/251469-1of2.jpg</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/251469-2of2.jpg</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Board-Layout-250425.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/User port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Cassette port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Serial bus.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Video-audio port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Expansion port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Power C64.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Joystick port 2.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Joystick port 1.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6526.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2364.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2332.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2114.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6510.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7406.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/4164.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS257.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS258.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS139.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/4066.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/906114-01-PLA.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6581.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6569.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/556.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS373.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7408.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/8701.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7800-series.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6526_cia_recreated.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2114L_fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN7406.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/km4164b_samsung.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS257A_Fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/hd74ls258_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/hd74ls139_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/hd14066b_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/c64_pla_dissected_a4ds.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6581_sid.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6567_vic_ii_preliminary.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/NE556.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/dm74ls373_national_semiconductor.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/sn74ls08_ti.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/MOS8701.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/MC7800.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/C64C_Service_Manual_1992.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1124,164 +1280,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-September-13</t>
+      <t>2025-October-15</t>
     </r>
   </si>
   <si>
-    <t>Commodore 64/250425/251469-1of2.jpg</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/251469-2of2.jpg</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Board-Layout-250425.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/User port.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Cassette port.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Serial bus.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Video-audio port.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Expansion port.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Power C64.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Joystick port 2.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Joystick port 1.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/6526.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/2364.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/2332.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/2114.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/6510.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/7406.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/4164.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/74LS257.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/74LS258.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/74LS139.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/4066.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/906114-01-PLA.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/6581.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/6569.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/556.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/74LS373.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/7408.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/8701.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/7800-series.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6526_cia_recreated.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/2114L_fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/SN7406.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/km4164b_samsung.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS257A_Fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/hd74ls258_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/hd74ls139_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/hd14066b_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/c64_pla_dissected_a4ds.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6581_sid.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6567_vic_ii_preliminary.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/NE556.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/dm74ls373_national_semiconductor.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/sn74ls08_ti.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/MOS8701.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/MC7800.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Board local files/C64C_Service_Manual_1992.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
+    <t>Best-practises</t>
+  </si>
+  <si>
+    <t>Commodore 64/128 Best-Practises</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/Commodore 64-128 Best-Practises.txt</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1906,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1971,7 +1980,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -1991,7 +2000,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -2012,7 +2021,7 @@
         <v>252</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -4719,7 +4728,7 @@
         <v>185</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4732,7 +4741,7 @@
         <v>185</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4745,7 +4754,7 @@
         <v>185</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4758,7 +4767,7 @@
         <v>185</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4771,7 +4780,7 @@
         <v>185</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4784,7 +4793,7 @@
         <v>185</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4797,7 +4806,7 @@
         <v>185</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4810,7 +4819,7 @@
         <v>185</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="158.4">
@@ -4823,7 +4832,7 @@
         <v>185</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>313</v>
@@ -4839,7 +4848,7 @@
         <v>185</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>314</v>
@@ -4855,7 +4864,7 @@
         <v>185</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>320</v>
@@ -4871,7 +4880,7 @@
         <v>185</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>258</v>
@@ -4887,7 +4896,7 @@
         <v>185</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>321</v>
@@ -4903,7 +4912,7 @@
         <v>185</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>257</v>
@@ -4919,7 +4928,7 @@
         <v>185</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>165</v>
@@ -4935,7 +4944,7 @@
         <v>185</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>324</v>
@@ -4951,7 +4960,7 @@
         <v>185</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>167</v>
@@ -4967,7 +4976,7 @@
         <v>185</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>168</v>
@@ -4983,7 +4992,7 @@
         <v>185</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>169</v>
@@ -4999,7 +5008,7 @@
         <v>185</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>170</v>
@@ -5015,7 +5024,7 @@
         <v>185</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>325</v>
@@ -5031,7 +5040,7 @@
         <v>185</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>326</v>
@@ -5047,7 +5056,7 @@
         <v>185</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>327</v>
@@ -5063,7 +5072,7 @@
         <v>185</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="72">
@@ -5076,7 +5085,7 @@
         <v>185</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>335</v>
@@ -5092,7 +5101,7 @@
         <v>185</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>333</v>
@@ -5108,7 +5117,7 @@
         <v>185</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>312</v>
@@ -5124,7 +5133,7 @@
         <v>185</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5137,7 +5146,7 @@
         <v>185</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>176</v>
@@ -5153,7 +5162,7 @@
         <v>185</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>177</v>
@@ -5169,7 +5178,7 @@
         <v>185</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>178</v>
@@ -5185,7 +5194,7 @@
         <v>185</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>179</v>
@@ -5201,7 +5210,7 @@
         <v>185</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>325</v>
@@ -5217,7 +5226,7 @@
         <v>185</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5230,7 +5239,7 @@
         <v>185</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>328</v>
@@ -5246,7 +5255,7 @@
         <v>185</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5259,7 +5268,7 @@
         <v>185</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>331</v>
@@ -5289,7 +5298,7 @@
         <v>185</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5302,7 +5311,7 @@
         <v>185</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="72">
@@ -13382,7 +13391,7 @@
         <v>256</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13393,7 +13402,7 @@
         <v>256</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -13404,7 +13413,7 @@
         <v>256</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -13415,7 +13424,7 @@
         <v>256</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -13426,7 +13435,7 @@
         <v>256</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -13437,7 +13446,7 @@
         <v>256</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -13448,7 +13457,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13459,7 +13468,7 @@
         <v>186</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13470,7 +13479,7 @@
         <v>186</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -13481,7 +13490,7 @@
         <v>187</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13492,7 +13501,7 @@
         <v>187</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -13503,7 +13512,7 @@
         <v>188</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -13514,7 +13523,7 @@
         <v>189</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -13525,7 +13534,7 @@
         <v>190</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13536,7 +13545,7 @@
         <v>191</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -13547,7 +13556,7 @@
         <v>192</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -13558,7 +13567,7 @@
         <v>192</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -13569,7 +13578,7 @@
         <v>192</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -13580,7 +13589,7 @@
         <v>192</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -13591,7 +13600,7 @@
         <v>193</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -13602,7 +13611,7 @@
         <v>194</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -13613,7 +13622,7 @@
         <v>195</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -13624,7 +13633,7 @@
         <v>196</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -13635,7 +13644,7 @@
         <v>197</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -13646,7 +13655,7 @@
         <v>337</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -13657,7 +13666,7 @@
         <v>198</v>
       </c>
       <c r="C34" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -13668,7 +13677,7 @@
         <v>199</v>
       </c>
       <c r="C35" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -13679,7 +13688,7 @@
         <v>192</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -13690,7 +13699,7 @@
         <v>192</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -13701,7 +13710,7 @@
         <v>192</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -13712,7 +13721,7 @@
         <v>192</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -13723,7 +13732,7 @@
         <v>193</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -13734,7 +13743,7 @@
         <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -13745,7 +13754,7 @@
         <v>201</v>
       </c>
       <c r="C42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -13756,7 +13765,7 @@
         <v>196</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -13767,7 +13776,7 @@
         <v>286</v>
       </c>
       <c r="C44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -13778,7 +13787,7 @@
         <v>202</v>
       </c>
       <c r="C45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -13789,7 +13798,7 @@
         <v>203</v>
       </c>
       <c r="C46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -14004,7 +14013,7 @@
         <v>247</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14015,7 +14024,7 @@
         <v>248</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -14051,7 +14060,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787D0651-AC56-4C79-A3A0-381B16C48D1E}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -14183,13 +14192,13 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>392</v>
       </c>
       <c r="B15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" t="s">
-        <v>241</v>
+        <v>393</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -14197,21 +14206,21 @@
         <v>239</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B17" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -14219,29 +14228,40 @@
         <v>244</v>
       </c>
       <c r="B18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" t="s">
         <v>266</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="26"/>
-    </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="29"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="27"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="27"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="28"/>
+      <c r="A21" s="26"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="29"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="27"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="27"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="14"/>
+      <c r="A33" s="28"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1074D6-4EA7-40CC-9129-F04A844809B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F90DEAB-9AA9-4951-AEE0-45EBD14279CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="706">
   <si>
     <t>Name</t>
   </si>
@@ -1268,6 +1268,948 @@
     <t>Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
   </si>
   <si>
+    <t>Best-practises</t>
+  </si>
+  <si>
+    <t>Commodore 64/128 Best-Practises</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/Commodore 64-128 Best-Practises.txt</t>
+  </si>
+  <si>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>0V (GND)</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>Pulsing</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>PB0</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>/PC</t>
+  </si>
+  <si>
+    <t>TOD</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>5.1V (+5VDC power rail)</t>
+  </si>
+  <si>
+    <t>/IRQ</t>
+  </si>
+  <si>
+    <t>R//W</t>
+  </si>
+  <si>
+    <t>/CS</t>
+  </si>
+  <si>
+    <t>/FLAG</t>
+  </si>
+  <si>
+    <t>PHI2</t>
+  </si>
+  <si>
+    <t>/RES</t>
+  </si>
+  <si>
+    <t>RS3</t>
+  </si>
+  <si>
+    <t>RS2</t>
+  </si>
+  <si>
+    <t>RS1</t>
+  </si>
+  <si>
+    <t>RS0</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>CNT</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_18_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_19_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_20_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_21_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_22_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_23_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_24_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_25_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_26_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_27_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_28_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_29_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_30_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_31_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_32_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_33_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_34_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_35_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_36_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_37_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_38_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_39_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_40_PAL.png</t>
+  </si>
+  <si>
+    <t>985.252 kHz</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_18_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_19_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_20_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_21_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_22_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_23_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_24_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_25_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_26_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_27_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_28_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_29_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_30_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_31_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_32_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_33_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_34_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_35_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_36_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_37_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_38_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_39_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_40_PAL.png</t>
+  </si>
+  <si>
+    <t>985.253 kHz</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>/CE</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_18_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_19_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_20_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_21_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_22_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_23_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_24_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_18_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_19_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_20_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_21_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_22_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_23_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_24_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_18_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_19_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_20_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_21_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_22_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_23_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_24_PAL.png</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>/WE</t>
+  </si>
+  <si>
+    <t>DQ4</t>
+  </si>
+  <si>
+    <t>DQ3</t>
+  </si>
+  <si>
+    <t>DQ2</t>
+  </si>
+  <si>
+    <t>DQ1</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_18_PAL.png</t>
+  </si>
+  <si>
+    <t>PHI0</t>
+  </si>
+  <si>
+    <t>This is a clock INPUT (CPU recieves this signal from U32?)</t>
+  </si>
+  <si>
+    <t>RDY</t>
+  </si>
+  <si>
+    <t>/NMI</t>
+  </si>
+  <si>
+    <t>AEC</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>This is a clock OUTPUT (CPU generates this signal)</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_18_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_19_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_20_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_21_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_22_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_23_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_24_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_25_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_26_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_27_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_28_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_29_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_30_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_31_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_32_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_33_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_34_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_35_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_36_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_37_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_38_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_39_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_40_PAL.png</t>
+  </si>
+  <si>
+    <t>985.254 kHz</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1Y</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2Y</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3Y</t>
+  </si>
+  <si>
+    <t>4Y</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>5Y</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>6Y</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_14_PAL.png</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1280,17 +2222,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-October-15</t>
+      <t>2025-October-16</t>
     </r>
-  </si>
-  <si>
-    <t>Best-practises</t>
-  </si>
-  <si>
-    <t>Commodore 64/128 Best-Practises</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Board local files/Commodore 64-128 Best-Practises.txt</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +2812,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -1906,7 +2839,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>391</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4601,13 +5534,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I1373"/>
+  <dimension ref="A1:I1597"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B238" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="A250" sqref="A250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4838,1105 +5771,5191 @@
         <v>313</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="158.4">
+    <row r="19" spans="1:7">
       <c r="A19" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="32">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="32">
+        <v>2</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C21" s="32">
+        <v>3</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" s="32">
+        <v>4</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" s="32">
+        <v>5</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" s="32">
+        <v>6</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" s="32">
+        <v>7</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" s="32">
+        <v>8</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C27" s="32">
+        <v>9</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="32">
+        <v>10</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" s="32">
+        <v>11</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" s="32">
+        <v>12</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C31" s="32">
+        <v>13</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C32" s="32">
+        <v>14</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C33" s="32">
+        <v>15</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C34" s="32">
+        <v>16</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C35" s="32">
+        <v>17</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36" s="32">
+        <v>18</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C37" s="32">
+        <v>19</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C38" s="32">
+        <v>20</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" s="32">
+        <v>21</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C40" s="32">
+        <v>22</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" s="32">
+        <v>23</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C42" s="32">
+        <v>24</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C43" s="32">
+        <v>25</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C44" s="32">
+        <v>26</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C45" s="32">
+        <v>27</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C46" s="32">
+        <v>28</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C47" s="32">
+        <v>29</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" s="32">
+        <v>30</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C49" s="32">
+        <v>31</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C50" s="32">
+        <v>32</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C51" s="32">
+        <v>33</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C52" s="32">
+        <v>34</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C53" s="32">
+        <v>35</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C54" s="32">
+        <v>36</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C55" s="32">
+        <v>37</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C56" s="32">
+        <v>38</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C57" s="32">
+        <v>39</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C58" s="32">
+        <v>40</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="158.4">
+      <c r="A59" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="14" t="s">
+      <c r="B59" s="18"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F59" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8">
-      <c r="A20" s="14" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C60" s="32">
+        <v>1</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C61" s="32">
+        <v>2</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C62" s="32">
+        <v>3</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C63" s="32">
+        <v>4</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C64" s="32">
+        <v>5</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C65" s="32">
+        <v>6</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C66" s="32">
+        <v>7</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C67" s="32">
+        <v>8</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C68" s="32">
+        <v>9</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C69" s="32">
+        <v>10</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C70" s="32">
+        <v>11</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C71" s="32">
+        <v>12</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C72" s="32">
+        <v>13</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" s="32">
+        <v>14</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C74" s="32">
+        <v>15</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C75" s="32">
+        <v>16</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C76" s="32">
+        <v>17</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C77" s="32">
+        <v>18</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C78" s="32">
+        <v>19</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C79" s="32">
+        <v>20</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C80" s="32">
+        <v>21</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C81" s="32">
+        <v>22</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C82" s="32">
+        <v>23</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C83" s="32">
+        <v>24</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C84" s="32">
+        <v>25</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C85" s="32">
+        <v>26</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C86" s="32">
+        <v>27</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C87" s="32">
+        <v>28</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C88" s="32">
+        <v>29</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C89" s="32">
+        <v>30</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C90" s="32">
+        <v>31</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C91" s="32">
+        <v>32</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C92" s="32">
+        <v>33</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C93" s="32">
+        <v>34</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C94" s="32">
+        <v>35</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C95" s="32">
+        <v>36</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C96" s="32">
+        <v>37</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C97" s="32">
+        <v>38</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C98" s="32">
+        <v>39</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C99" s="32">
+        <v>40</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="28.8">
+      <c r="A100" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="14" t="s">
+      <c r="B100" s="14"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F100" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8">
-      <c r="A21" s="47" t="s">
+    <row r="101" spans="1:7">
+      <c r="A101" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C101" s="32">
+        <v>1</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C102" s="32">
+        <v>2</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" s="32">
+        <v>3</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" s="32">
+        <v>4</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C105" s="32">
+        <v>5</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C106" s="32">
+        <v>6</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C107" s="32">
+        <v>7</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C108" s="32">
+        <v>8</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C109" s="32">
+        <v>9</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C110" s="32">
+        <v>10</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C111" s="32">
+        <v>11</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C112" s="32">
+        <v>12</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C113" s="32">
+        <v>13</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C114" s="32">
+        <v>14</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C115" s="32">
+        <v>15</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C116" s="32">
+        <v>16</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C117" s="32">
+        <v>17</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C118" s="32">
+        <v>18</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C119" s="32">
+        <v>19</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C120" s="32">
+        <v>20</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C121" s="32">
+        <v>21</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C122" s="32">
+        <v>22</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C123" s="32">
+        <v>23</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C124" s="32">
+        <v>24</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="28.8">
+      <c r="A125" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="14" t="s">
+      <c r="B125" s="18"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F125" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="72">
-      <c r="A22" s="47" t="s">
+    <row r="126" spans="1:7">
+      <c r="A126" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C126" s="32">
+        <v>1</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C127" s="32">
+        <v>2</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C128" s="32">
+        <v>3</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C129" s="32">
+        <v>4</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C130" s="32">
+        <v>5</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C131" s="32">
+        <v>6</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C132" s="32">
+        <v>7</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C133" s="32">
+        <v>8</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C134" s="32">
+        <v>9</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C135" s="32">
+        <v>10</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C136" s="32">
+        <v>11</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C137" s="32">
+        <v>12</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C138" s="32">
+        <v>13</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C139" s="32">
+        <v>14</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C140" s="32">
+        <v>15</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C141" s="32">
+        <v>16</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C142" s="32">
+        <v>17</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C143" s="32">
+        <v>18</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C144" s="32">
+        <v>19</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C145" s="32">
+        <v>20</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C146" s="32">
+        <v>21</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C147" s="32">
+        <v>22</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C148" s="32">
+        <v>23</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C149" s="32">
+        <v>24</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="72">
+      <c r="A150" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="14" t="s">
+      <c r="B150" s="18"/>
+      <c r="C150" s="36"/>
+      <c r="D150" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F150" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="28.8">
-      <c r="A23" s="47" t="s">
+    <row r="151" spans="1:7">
+      <c r="A151" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C151" s="32">
+        <v>1</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152" s="32">
+        <v>2</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C153" s="32">
+        <v>3</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C154" s="32">
+        <v>4</v>
+      </c>
+      <c r="D154" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C155" s="32">
+        <v>5</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C156" s="32">
+        <v>6</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C157" s="32">
+        <v>7</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C158" s="32">
+        <v>8</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C159" s="32">
+        <v>9</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C160" s="32">
+        <v>10</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C161" s="32">
+        <v>11</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C162" s="32">
+        <v>12</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C163" s="32">
+        <v>13</v>
+      </c>
+      <c r="D163" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C164" s="32">
+        <v>14</v>
+      </c>
+      <c r="D164" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C165" s="32">
+        <v>15</v>
+      </c>
+      <c r="D165" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C166" s="32">
+        <v>16</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C167" s="32">
+        <v>17</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C168" s="32">
+        <v>18</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F168" s="14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C169" s="32">
+        <v>19</v>
+      </c>
+      <c r="D169" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C170" s="32">
+        <v>20</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C171" s="32">
+        <v>21</v>
+      </c>
+      <c r="D171" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C172" s="32">
+        <v>22</v>
+      </c>
+      <c r="D172" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C173" s="32">
+        <v>23</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B174" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C174" s="32">
+        <v>24</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="28.8">
+      <c r="A175" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="14" t="s">
+      <c r="B175" s="18"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F175" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G175" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="16" t="s">
+    <row r="176" spans="1:7">
+      <c r="A176" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B176" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C176" s="32">
+        <v>1</v>
+      </c>
+      <c r="D176" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B177" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C177" s="32">
+        <v>2</v>
+      </c>
+      <c r="D177" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B178" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C178" s="32">
+        <v>3</v>
+      </c>
+      <c r="D178" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F178" s="14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C179" s="32">
+        <v>4</v>
+      </c>
+      <c r="D179" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F179" s="14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C180" s="32">
+        <v>5</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B181" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C181" s="32">
+        <v>6</v>
+      </c>
+      <c r="D181" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B182" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C182" s="32">
+        <v>7</v>
+      </c>
+      <c r="D182" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C183" s="32">
+        <v>8</v>
+      </c>
+      <c r="D183" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C184" s="32">
+        <v>9</v>
+      </c>
+      <c r="D184" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C185" s="32">
+        <v>10</v>
+      </c>
+      <c r="D185" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F185" s="14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B186" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C186" s="32">
+        <v>11</v>
+      </c>
+      <c r="D186" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B187" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C187" s="32">
+        <v>12</v>
+      </c>
+      <c r="D187" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B188" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C188" s="32">
+        <v>13</v>
+      </c>
+      <c r="D188" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F188" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C189" s="32">
+        <v>14</v>
+      </c>
+      <c r="D189" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B190" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C190" s="32">
+        <v>15</v>
+      </c>
+      <c r="D190" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C191" s="32">
+        <v>16</v>
+      </c>
+      <c r="D191" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F191" s="14" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C192" s="32">
+        <v>17</v>
+      </c>
+      <c r="D192" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C193" s="32">
+        <v>18</v>
+      </c>
+      <c r="D193" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F193" s="14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="14" t="s">
+      <c r="B194" s="16"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F194" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G194" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="16" t="s">
+    <row r="195" spans="1:7">
+      <c r="A195" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C195" s="32">
+        <v>1</v>
+      </c>
+      <c r="D195" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C196" s="32">
+        <v>2</v>
+      </c>
+      <c r="D196" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F196" s="14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B197" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C197" s="32">
+        <v>3</v>
+      </c>
+      <c r="D197" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B198" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C198" s="32">
+        <v>4</v>
+      </c>
+      <c r="D198" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F198" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C199" s="32">
+        <v>5</v>
+      </c>
+      <c r="D199" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C200" s="32">
+        <v>6</v>
+      </c>
+      <c r="D200" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B201" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C201" s="32">
+        <v>7</v>
+      </c>
+      <c r="D201" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B202" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C202" s="32">
+        <v>8</v>
+      </c>
+      <c r="D202" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F202" s="14" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B203" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C203" s="32">
+        <v>9</v>
+      </c>
+      <c r="D203" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F203" s="14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B204" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C204" s="32">
+        <v>10</v>
+      </c>
+      <c r="D204" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F204" s="14" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B205" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C205" s="32">
+        <v>11</v>
+      </c>
+      <c r="D205" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F205" s="14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B206" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C206" s="32">
+        <v>12</v>
+      </c>
+      <c r="D206" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F206" s="14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C207" s="32">
+        <v>13</v>
+      </c>
+      <c r="D207" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F207" s="14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B208" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C208" s="32">
+        <v>14</v>
+      </c>
+      <c r="D208" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F208" s="14" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C209" s="32">
+        <v>15</v>
+      </c>
+      <c r="D209" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F209" s="14" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B210" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C210" s="32">
+        <v>16</v>
+      </c>
+      <c r="D210" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F210" s="14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B211" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C211" s="32">
+        <v>17</v>
+      </c>
+      <c r="D211" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F211" s="14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B212" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C212" s="32">
+        <v>18</v>
+      </c>
+      <c r="D212" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F212" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C213" s="32">
+        <v>19</v>
+      </c>
+      <c r="D213" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F213" s="14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B214" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C214" s="32">
+        <v>20</v>
+      </c>
+      <c r="D214" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F214" s="14" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C215" s="32">
+        <v>21</v>
+      </c>
+      <c r="D215" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F215" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B216" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C216" s="32">
+        <v>22</v>
+      </c>
+      <c r="D216" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F216" s="14" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C217" s="32">
+        <v>23</v>
+      </c>
+      <c r="D217" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F217" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B218" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C218" s="32">
+        <v>24</v>
+      </c>
+      <c r="D218" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F218" s="14" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B219" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C219" s="32">
+        <v>25</v>
+      </c>
+      <c r="D219" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F219" s="14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B220" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C220" s="32">
         <v>26</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="14" t="s">
+      <c r="D220" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F220" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B221" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C221" s="32">
+        <v>27</v>
+      </c>
+      <c r="D221" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F221" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B222" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C222" s="32">
+        <v>28</v>
+      </c>
+      <c r="D222" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F222" s="14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B223" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C223" s="32">
+        <v>29</v>
+      </c>
+      <c r="D223" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F223" s="14" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B224" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C224" s="32">
+        <v>30</v>
+      </c>
+      <c r="D224" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F224" s="14" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C225" s="32">
+        <v>31</v>
+      </c>
+      <c r="D225" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F225" s="14" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B226" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C226" s="32">
+        <v>32</v>
+      </c>
+      <c r="D226" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F226" s="14" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B227" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C227" s="32">
+        <v>33</v>
+      </c>
+      <c r="D227" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F227" s="14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B228" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C228" s="32">
+        <v>34</v>
+      </c>
+      <c r="D228" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F228" s="14" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B229" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C229" s="32">
+        <v>35</v>
+      </c>
+      <c r="D229" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F229" s="14" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B230" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C230" s="32">
+        <v>36</v>
+      </c>
+      <c r="D230" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F230" s="14" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B231" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C231" s="32">
+        <v>37</v>
+      </c>
+      <c r="D231" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F231" s="14" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B232" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C232" s="32">
+        <v>38</v>
+      </c>
+      <c r="D232" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F232" s="14" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B233" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C233" s="32">
+        <v>39</v>
+      </c>
+      <c r="D233" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F233" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B234" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C234" s="32">
+        <v>40</v>
+      </c>
+      <c r="D234" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F234" s="14" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B235" s="16"/>
+      <c r="C235" s="32"/>
+      <c r="D235" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F235" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G235" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="16" t="s">
+    <row r="236" spans="1:7">
+      <c r="A236" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B236" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C236" s="32">
+        <v>1</v>
+      </c>
+      <c r="D236" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F236" s="14" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B237" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C237" s="32">
+        <v>2</v>
+      </c>
+      <c r="D237" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F237" s="14" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B238" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C238" s="32">
+        <v>3</v>
+      </c>
+      <c r="D238" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F238" s="14" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B239" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C239" s="32">
+        <v>4</v>
+      </c>
+      <c r="D239" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F239" s="14" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B240" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C240" s="32">
+        <v>5</v>
+      </c>
+      <c r="D240" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F240" s="14" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B241" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C241" s="32">
+        <v>6</v>
+      </c>
+      <c r="D241" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F241" s="14" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B242" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C242" s="32">
+        <v>7</v>
+      </c>
+      <c r="D242" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F242" s="14" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B243" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C243" s="32">
+        <v>8</v>
+      </c>
+      <c r="D243" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F243" s="14" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B244" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C244" s="32">
+        <v>9</v>
+      </c>
+      <c r="D244" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F244" s="14" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B245" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C245" s="32">
+        <v>10</v>
+      </c>
+      <c r="D245" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F245" s="14" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B246" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C246" s="32">
+        <v>11</v>
+      </c>
+      <c r="D246" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F246" s="14" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B247" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C247" s="32">
+        <v>12</v>
+      </c>
+      <c r="D247" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F247" s="14" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B248" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C248" s="32">
+        <v>13</v>
+      </c>
+      <c r="D248" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F248" s="14" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B249" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C249" s="32">
+        <v>14</v>
+      </c>
+      <c r="D249" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F249" s="14" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="14" t="s">
+      <c r="B250" s="16"/>
+      <c r="C250" s="32"/>
+      <c r="D250" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F250" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G250" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="16" t="s">
+    <row r="251" spans="1:7">
+      <c r="A251" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="14" t="s">
+      <c r="B251" s="16"/>
+      <c r="C251" s="32"/>
+      <c r="D251" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F251" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G251" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="16" t="s">
+    <row r="252" spans="1:7">
+      <c r="A252" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="14" t="s">
+      <c r="B252" s="16"/>
+      <c r="C252" s="32"/>
+      <c r="D252" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F252" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G252" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="14" t="s">
+    <row r="253" spans="1:7">
+      <c r="A253" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="14" t="s">
+      <c r="B253" s="14"/>
+      <c r="C253" s="37"/>
+      <c r="D253" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F253" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G253" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="14" t="s">
+    <row r="254" spans="1:7">
+      <c r="A254" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="14" t="s">
+      <c r="B254" s="14"/>
+      <c r="C254" s="37"/>
+      <c r="D254" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F254" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G254" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="43.2">
-      <c r="A31" s="14" t="s">
+    <row r="255" spans="1:7" ht="43.2">
+      <c r="A255" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="14" t="s">
+      <c r="B255" s="14"/>
+      <c r="C255" s="37"/>
+      <c r="D255" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F255" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G255" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="14" t="s">
+    <row r="256" spans="1:7">
+      <c r="A256" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="14" t="s">
+      <c r="B256" s="14"/>
+      <c r="C256" s="37"/>
+      <c r="D256" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F256" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G256" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="14" t="s">
+    <row r="257" spans="1:7">
+      <c r="A257" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="14" t="s">
+      <c r="B257" s="14"/>
+      <c r="C257" s="37"/>
+      <c r="D257" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F257" s="14" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="72">
-      <c r="A34" s="14" t="s">
+    <row r="258" spans="1:7" ht="72">
+      <c r="A258" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="14" t="s">
+      <c r="B258" s="14"/>
+      <c r="C258" s="37"/>
+      <c r="D258" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F258" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G258" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="72">
-      <c r="A35" s="14" t="s">
+    <row r="259" spans="1:7" ht="72">
+      <c r="A259" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="14" t="s">
+      <c r="B259" s="14"/>
+      <c r="C259" s="37"/>
+      <c r="D259" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F259" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G259" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.8">
-      <c r="A36" s="14" t="s">
+    <row r="260" spans="1:7" ht="28.8">
+      <c r="A260" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="14" t="s">
+      <c r="B260" s="14"/>
+      <c r="C260" s="37"/>
+      <c r="D260" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F260" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G260" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="14" t="s">
+    <row r="261" spans="1:7">
+      <c r="A261" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="14" t="s">
+      <c r="B261" s="14"/>
+      <c r="C261" s="37"/>
+      <c r="D261" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F261" s="14" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="14" t="s">
+    <row r="262" spans="1:7">
+      <c r="A262" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="14" t="s">
+      <c r="B262" s="14"/>
+      <c r="C262" s="37"/>
+      <c r="D262" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F262" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G262" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="14" t="s">
+    <row r="263" spans="1:7">
+      <c r="A263" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="14" t="s">
+      <c r="B263" s="14"/>
+      <c r="C263" s="37"/>
+      <c r="D263" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F263" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G263" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="14" t="s">
+    <row r="264" spans="1:7">
+      <c r="A264" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="14" t="s">
+      <c r="B264" s="14"/>
+      <c r="C264" s="37"/>
+      <c r="D264" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F264" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G264" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="14" t="s">
+    <row r="265" spans="1:7">
+      <c r="A265" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="14" t="s">
+      <c r="B265" s="14"/>
+      <c r="C265" s="37"/>
+      <c r="D265" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F265" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G265" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="14" t="s">
+    <row r="266" spans="1:7">
+      <c r="A266" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="14" t="s">
+      <c r="B266" s="14"/>
+      <c r="C266" s="37"/>
+      <c r="D266" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F266" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G266" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="14" t="s">
+    <row r="267" spans="1:7">
+      <c r="A267" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="14" t="s">
+      <c r="B267" s="14"/>
+      <c r="C267" s="37"/>
+      <c r="D267" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F267" s="14" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="14" t="s">
+    <row r="268" spans="1:7">
+      <c r="A268" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="14" t="s">
+      <c r="B268" s="14"/>
+      <c r="C268" s="37"/>
+      <c r="D268" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F268" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G268" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="14" t="s">
+    <row r="269" spans="1:7">
+      <c r="A269" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="14" t="s">
+      <c r="B269" s="14"/>
+      <c r="C269" s="37"/>
+      <c r="D269" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F269" s="14" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="14" t="s">
+    <row r="270" spans="1:7">
+      <c r="A270" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="14" t="s">
+      <c r="B270" s="14"/>
+      <c r="C270" s="37"/>
+      <c r="D270" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F270" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G270" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="14" t="s">
+    <row r="271" spans="1:7">
+      <c r="A271" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="14" t="s">
+      <c r="B271" s="14"/>
+      <c r="C271" s="37"/>
+      <c r="D271" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="1" t="s">
+      <c r="F271" s="14"/>
+      <c r="G271" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="14" t="s">
+    <row r="272" spans="1:7">
+      <c r="A272" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="1" t="s">
+      <c r="B272" s="14"/>
+      <c r="C272" s="37"/>
+      <c r="D272" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F272" s="14" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="14" t="s">
+    <row r="273" spans="1:7">
+      <c r="A273" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="1" t="s">
+      <c r="B273" s="14"/>
+      <c r="C273" s="37"/>
+      <c r="D273" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F273" s="14" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="72">
-      <c r="A50" s="14" t="s">
+    <row r="274" spans="1:7" ht="72">
+      <c r="A274" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="1" t="s">
+      <c r="B274" s="14"/>
+      <c r="C274" s="37"/>
+      <c r="D274" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G274" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="33"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="48"/>
-      <c r="B52"/>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="49"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="38"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="48"/>
-      <c r="B54"/>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="37"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="37"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="39"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="37"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="37"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="37"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="39"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="37"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="37"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="37"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="37"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="37"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="37"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="37"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="37"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="37"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="37"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="37"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="37"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="37"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="37"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="37"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="37"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="37"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="37"/>
-    </row>
-    <row r="206" spans="5:5">
-      <c r="E206" s="43"/>
-    </row>
-    <row r="207" spans="5:5">
-      <c r="E207" s="43"/>
-    </row>
-    <row r="208" spans="5:5">
-      <c r="E208" s="43"/>
-    </row>
-    <row r="209" spans="5:7">
-      <c r="E209" s="43"/>
-    </row>
-    <row r="210" spans="5:7">
-      <c r="E210" s="43"/>
-    </row>
-    <row r="211" spans="5:7">
-      <c r="E211" s="43"/>
-    </row>
-    <row r="212" spans="5:7">
-      <c r="E212" s="43"/>
-    </row>
-    <row r="222" spans="5:7">
-      <c r="E222" s="43"/>
-    </row>
-    <row r="224" spans="5:7">
-      <c r="E224" s="43"/>
-      <c r="G224" s="43"/>
-    </row>
-    <row r="225" spans="5:7">
-      <c r="G225" s="43"/>
-    </row>
-    <row r="226" spans="5:7">
-      <c r="E226" s="44"/>
-      <c r="G226" s="43"/>
-    </row>
-    <row r="227" spans="5:7">
-      <c r="E227" s="43"/>
-      <c r="G227" s="43"/>
-    </row>
-    <row r="228" spans="5:7">
-      <c r="E228" s="43"/>
-      <c r="G228" s="43"/>
-    </row>
-    <row r="229" spans="5:7">
-      <c r="E229" s="43"/>
-      <c r="G229" s="43"/>
-    </row>
-    <row r="230" spans="5:7">
-      <c r="E230" s="43"/>
-      <c r="G230" s="43"/>
-    </row>
-    <row r="231" spans="5:7">
-      <c r="E231" s="43"/>
-      <c r="G231" s="43"/>
-    </row>
-    <row r="232" spans="5:7">
-      <c r="E232" s="45"/>
-      <c r="G232" s="43"/>
-    </row>
-    <row r="233" spans="5:7">
-      <c r="E233" s="43"/>
-      <c r="G233" s="43"/>
-    </row>
-    <row r="234" spans="5:7">
-      <c r="E234" s="43"/>
-      <c r="G234" s="43"/>
-    </row>
-    <row r="235" spans="5:7">
-      <c r="E235" s="43"/>
-      <c r="G235" s="43"/>
-    </row>
-    <row r="236" spans="5:7">
-      <c r="E236" s="43"/>
-      <c r="G236" s="43"/>
-    </row>
-    <row r="237" spans="5:7">
-      <c r="E237" s="43"/>
-      <c r="G237" s="43"/>
-    </row>
-    <row r="238" spans="5:7">
-      <c r="E238" s="43"/>
-      <c r="G238" s="43"/>
-    </row>
-    <row r="239" spans="5:7">
-      <c r="E239" s="43"/>
-      <c r="G239" s="43"/>
-    </row>
-    <row r="240" spans="5:7">
-      <c r="E240" s="43"/>
-      <c r="G240" s="43"/>
-    </row>
-    <row r="241" spans="5:7">
-      <c r="E241" s="43"/>
-      <c r="G241" s="43"/>
-    </row>
-    <row r="242" spans="5:7">
-      <c r="E242" s="43"/>
-      <c r="G242" s="43"/>
-    </row>
-    <row r="243" spans="5:7">
-      <c r="E243" s="43"/>
-      <c r="G243" s="43"/>
-    </row>
-    <row r="244" spans="5:7">
-      <c r="E244" s="43"/>
-      <c r="G244" s="43"/>
-    </row>
-    <row r="245" spans="5:7">
-      <c r="E245" s="43"/>
-      <c r="G245" s="43"/>
-    </row>
-    <row r="246" spans="5:7">
-      <c r="E246" s="43"/>
-      <c r="G246" s="43"/>
-    </row>
-    <row r="247" spans="5:7">
-      <c r="E247" s="43"/>
-      <c r="G247" s="43"/>
-    </row>
-    <row r="248" spans="5:7">
-      <c r="E248" s="43"/>
-      <c r="G248" s="43"/>
-    </row>
-    <row r="249" spans="5:7">
-      <c r="E249" s="43"/>
-      <c r="G249" s="43"/>
-    </row>
-    <row r="250" spans="5:7">
-      <c r="E250" s="43"/>
-      <c r="G250" s="43"/>
-    </row>
-    <row r="251" spans="5:7">
-      <c r="E251" s="43"/>
-      <c r="G251" s="43"/>
-    </row>
-    <row r="252" spans="5:7">
-      <c r="E252" s="43"/>
-      <c r="G252" s="43"/>
-    </row>
-    <row r="253" spans="5:7">
-      <c r="E253" s="43"/>
-      <c r="G253" s="43"/>
-    </row>
-    <row r="254" spans="5:7">
-      <c r="E254" s="43"/>
-      <c r="G254" s="43"/>
-    </row>
-    <row r="255" spans="5:7">
-      <c r="E255" s="43"/>
-      <c r="G255" s="43"/>
-    </row>
-    <row r="256" spans="5:7">
-      <c r="E256" s="43"/>
-      <c r="G256" s="43"/>
-    </row>
-    <row r="257" spans="5:7">
-      <c r="E257" s="43"/>
-      <c r="G257" s="43"/>
-    </row>
-    <row r="258" spans="5:7">
-      <c r="E258" s="43"/>
-      <c r="G258" s="43"/>
-    </row>
-    <row r="259" spans="5:7">
-      <c r="E259" s="43"/>
-      <c r="G259" s="43"/>
-    </row>
-    <row r="260" spans="5:7">
-      <c r="E260" s="43"/>
-      <c r="G260" s="43"/>
-    </row>
-    <row r="261" spans="5:7">
-      <c r="E261" s="43"/>
-      <c r="G261" s="43"/>
-    </row>
-    <row r="262" spans="5:7">
-      <c r="E262" s="43"/>
-      <c r="G262" s="43"/>
-    </row>
-    <row r="263" spans="5:7">
-      <c r="E263" s="43"/>
-      <c r="G263" s="43"/>
-    </row>
-    <row r="264" spans="5:7">
-      <c r="E264" s="43"/>
-      <c r="G264" s="43"/>
-    </row>
-    <row r="265" spans="5:7">
-      <c r="E265" s="43"/>
-      <c r="G265" s="43"/>
-    </row>
-    <row r="266" spans="5:7">
-      <c r="E266" s="43"/>
-      <c r="G266" s="43"/>
-    </row>
-    <row r="267" spans="5:7">
-      <c r="E267" s="43"/>
-      <c r="G267" s="43"/>
-    </row>
-    <row r="268" spans="5:7">
-      <c r="E268" s="43"/>
-      <c r="G268" s="43"/>
-    </row>
-    <row r="269" spans="5:7">
-      <c r="E269" s="43"/>
-      <c r="G269" s="43"/>
-    </row>
-    <row r="270" spans="5:7">
-      <c r="E270" s="43"/>
-      <c r="G270" s="43"/>
-    </row>
-    <row r="271" spans="5:7">
-      <c r="E271" s="43"/>
-      <c r="G271" s="43"/>
-    </row>
-    <row r="279" spans="5:7">
-      <c r="E279" s="43"/>
-    </row>
-    <row r="288" spans="5:7">
-      <c r="G288" s="43"/>
-    </row>
-    <row r="289" spans="7:7">
-      <c r="G289" s="43"/>
-    </row>
-    <row r="290" spans="7:7">
-      <c r="G290" s="43"/>
-    </row>
-    <row r="291" spans="7:7">
-      <c r="G291" s="43"/>
-    </row>
-    <row r="292" spans="7:7">
-      <c r="G292" s="43"/>
-    </row>
-    <row r="293" spans="7:7">
-      <c r="G293" s="43"/>
-    </row>
-    <row r="294" spans="7:7">
-      <c r="G294" s="43"/>
-    </row>
-    <row r="295" spans="7:7">
-      <c r="G295" s="43"/>
-    </row>
-    <row r="296" spans="7:7">
-      <c r="G296" s="43"/>
-    </row>
-    <row r="297" spans="7:7">
-      <c r="G297" s="43"/>
-    </row>
-    <row r="298" spans="7:7">
-      <c r="G298" s="43"/>
-    </row>
-    <row r="299" spans="7:7">
-      <c r="G299" s="43"/>
-    </row>
-    <row r="300" spans="7:7">
-      <c r="G300" s="43"/>
-    </row>
-    <row r="301" spans="7:7">
-      <c r="G301" s="43"/>
-    </row>
-    <row r="331" spans="5:5">
-      <c r="E331" s="43"/>
-    </row>
-    <row r="350" spans="5:5">
-      <c r="E350" s="43"/>
-    </row>
-    <row r="351" spans="5:5">
-      <c r="E351" s="43"/>
-    </row>
-    <row r="354" spans="5:5">
-      <c r="E354" s="43"/>
-    </row>
-    <row r="355" spans="5:5">
-      <c r="E355" s="43"/>
-    </row>
-    <row r="356" spans="5:5">
-      <c r="E356" s="43"/>
-    </row>
-    <row r="357" spans="5:5">
-      <c r="E357" s="43"/>
-    </row>
-    <row r="358" spans="5:5">
-      <c r="E358" s="43"/>
-    </row>
-    <row r="359" spans="5:5">
-      <c r="E359" s="43"/>
-    </row>
-    <row r="365" spans="5:5">
-      <c r="E365" s="43"/>
-    </row>
-    <row r="366" spans="5:5">
-      <c r="E366" s="43"/>
-    </row>
-    <row r="367" spans="5:5">
-      <c r="E367" s="43"/>
-    </row>
-    <row r="368" spans="5:5">
-      <c r="E368" s="43"/>
-    </row>
-    <row r="369" spans="5:5">
-      <c r="E369" s="43"/>
-    </row>
-    <row r="370" spans="5:5">
-      <c r="E370" s="43"/>
-    </row>
-    <row r="371" spans="5:5">
-      <c r="E371" s="43"/>
-    </row>
-    <row r="373" spans="5:5">
-      <c r="E373" s="43"/>
-    </row>
-    <row r="374" spans="5:5">
-      <c r="E374" s="43"/>
-    </row>
-    <row r="375" spans="5:5">
-      <c r="E375" s="43"/>
-    </row>
-    <row r="376" spans="5:5">
-      <c r="E376" s="43"/>
-    </row>
-    <row r="380" spans="5:5">
-      <c r="E380" s="43"/>
-    </row>
-    <row r="387" spans="5:5">
-      <c r="E387" s="43"/>
-    </row>
-    <row r="391" spans="5:5">
-      <c r="E391" s="43"/>
-    </row>
-    <row r="402" spans="5:7">
-      <c r="E402" s="43"/>
-    </row>
-    <row r="412" spans="5:7">
-      <c r="E412" s="43"/>
-    </row>
-    <row r="414" spans="5:7">
-      <c r="G414" s="43"/>
-    </row>
-    <row r="415" spans="5:7">
-      <c r="G415" s="43"/>
-    </row>
-    <row r="416" spans="5:7">
-      <c r="G416" s="43"/>
-    </row>
-    <row r="417" spans="7:7">
-      <c r="G417" s="43"/>
-    </row>
-    <row r="418" spans="7:7">
-      <c r="G418" s="43"/>
-    </row>
-    <row r="419" spans="7:7">
-      <c r="G419" s="43"/>
-    </row>
-    <row r="420" spans="7:7">
-      <c r="G420" s="43"/>
-    </row>
-    <row r="421" spans="7:7">
-      <c r="G421" s="43"/>
-    </row>
-    <row r="422" spans="7:7">
-      <c r="G422" s="43"/>
-    </row>
-    <row r="423" spans="7:7">
-      <c r="G423" s="43"/>
-    </row>
-    <row r="424" spans="7:7">
-      <c r="G424" s="43"/>
-    </row>
-    <row r="425" spans="7:7">
-      <c r="G425" s="43"/>
-    </row>
-    <row r="426" spans="7:7">
-      <c r="G426" s="43"/>
-    </row>
-    <row r="427" spans="7:7">
-      <c r="G427" s="43"/>
-    </row>
-    <row r="428" spans="7:7">
-      <c r="G428" s="43"/>
-    </row>
-    <row r="429" spans="7:7">
-      <c r="G429" s="43"/>
-    </row>
-    <row r="430" spans="7:7">
-      <c r="G430" s="43"/>
-    </row>
-    <row r="431" spans="7:7">
-      <c r="G431" s="43"/>
-    </row>
-    <row r="432" spans="7:7">
-      <c r="G432" s="43"/>
+    <row r="275" spans="1:7">
+      <c r="A275" s="26"/>
+      <c r="B275" s="26"/>
+      <c r="C275" s="33"/>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="48"/>
+      <c r="B276"/>
+      <c r="C276" s="4"/>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="49"/>
+      <c r="B277" s="27"/>
+      <c r="C277" s="38"/>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="48"/>
+      <c r="B278"/>
+      <c r="C278" s="4"/>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="14"/>
+      <c r="B279" s="14"/>
+      <c r="C279" s="37"/>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="14"/>
+      <c r="B280" s="14"/>
+      <c r="C280" s="37"/>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="28"/>
+      <c r="B281" s="28"/>
+      <c r="C281" s="39"/>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="14"/>
+      <c r="B282" s="14"/>
+      <c r="C282" s="37"/>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="14"/>
+      <c r="B283" s="14"/>
+      <c r="C283" s="37"/>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="14"/>
+      <c r="B284" s="14"/>
+      <c r="C284" s="37"/>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="28"/>
+      <c r="B285" s="28"/>
+      <c r="C285" s="39"/>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="14"/>
+      <c r="B286" s="14"/>
+      <c r="C286" s="37"/>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="14"/>
+      <c r="B287" s="14"/>
+      <c r="C287" s="37"/>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="14"/>
+      <c r="B288" s="14"/>
+      <c r="C288" s="37"/>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="14"/>
+      <c r="B289" s="14"/>
+      <c r="C289" s="37"/>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="14"/>
+      <c r="B290" s="14"/>
+      <c r="C290" s="37"/>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="14"/>
+      <c r="B291" s="14"/>
+      <c r="C291" s="37"/>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="14"/>
+      <c r="B292" s="14"/>
+      <c r="C292" s="37"/>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="14"/>
+      <c r="B293" s="14"/>
+      <c r="C293" s="37"/>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="14"/>
+      <c r="B294" s="14"/>
+      <c r="C294" s="37"/>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="14"/>
+      <c r="B295" s="14"/>
+      <c r="C295" s="37"/>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="14"/>
+      <c r="B296" s="14"/>
+      <c r="C296" s="37"/>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="14"/>
+      <c r="B297" s="14"/>
+      <c r="C297" s="37"/>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="14"/>
+      <c r="B298" s="14"/>
+      <c r="C298" s="37"/>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="14"/>
+      <c r="B299" s="14"/>
+      <c r="C299" s="37"/>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="14"/>
+      <c r="B300" s="14"/>
+      <c r="C300" s="37"/>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="14"/>
+      <c r="B301" s="14"/>
+      <c r="C301" s="37"/>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="14"/>
+      <c r="B302" s="14"/>
+      <c r="C302" s="37"/>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="14"/>
+      <c r="B303" s="14"/>
+      <c r="C303" s="37"/>
+    </row>
+    <row r="430" spans="5:5">
+      <c r="E430" s="43"/>
+    </row>
+    <row r="431" spans="5:5">
+      <c r="E431" s="43"/>
+    </row>
+    <row r="432" spans="5:5">
+      <c r="E432" s="43"/>
     </row>
     <row r="433" spans="5:7">
       <c r="E433" s="43"/>
-      <c r="G433" s="43"/>
+    </row>
+    <row r="434" spans="5:7">
+      <c r="E434" s="43"/>
     </row>
     <row r="435" spans="5:7">
-      <c r="G435" s="43"/>
+      <c r="E435" s="43"/>
     </row>
     <row r="436" spans="5:7">
-      <c r="G436" s="43"/>
-    </row>
-    <row r="437" spans="5:7">
-      <c r="G437" s="43"/>
-    </row>
-    <row r="438" spans="5:7">
-      <c r="G438" s="43"/>
-    </row>
-    <row r="439" spans="5:7">
-      <c r="G439" s="43"/>
-    </row>
-    <row r="440" spans="5:7">
-      <c r="G440" s="43"/>
-    </row>
-    <row r="441" spans="5:7">
-      <c r="G441" s="43"/>
-    </row>
-    <row r="442" spans="5:7">
-      <c r="E442" s="43"/>
-      <c r="G442" s="43"/>
-    </row>
-    <row r="443" spans="5:7">
-      <c r="G443" s="43"/>
-    </row>
-    <row r="444" spans="5:7">
-      <c r="G444" s="43"/>
-    </row>
-    <row r="445" spans="5:7">
-      <c r="G445" s="43"/>
+      <c r="E436" s="43"/>
     </row>
     <row r="446" spans="5:7">
-      <c r="G446" s="43"/>
-    </row>
-    <row r="447" spans="5:7">
-      <c r="G447" s="43"/>
+      <c r="E446" s="43"/>
     </row>
     <row r="448" spans="5:7">
+      <c r="E448" s="43"/>
       <c r="G448" s="43"/>
     </row>
     <row r="449" spans="5:7">
       <c r="G449" s="43"/>
     </row>
     <row r="450" spans="5:7">
-      <c r="E450" s="43"/>
+      <c r="E450" s="44"/>
       <c r="G450" s="43"/>
     </row>
+    <row r="451" spans="5:7">
+      <c r="E451" s="43"/>
+      <c r="G451" s="43"/>
+    </row>
     <row r="452" spans="5:7">
+      <c r="E452" s="43"/>
       <c r="G452" s="43"/>
     </row>
     <row r="453" spans="5:7">
+      <c r="E453" s="43"/>
       <c r="G453" s="43"/>
     </row>
     <row r="454" spans="5:7">
+      <c r="E454" s="43"/>
       <c r="G454" s="43"/>
     </row>
     <row r="455" spans="5:7">
+      <c r="E455" s="43"/>
       <c r="G455" s="43"/>
     </row>
     <row r="456" spans="5:7">
+      <c r="E456" s="45"/>
       <c r="G456" s="43"/>
     </row>
     <row r="457" spans="5:7">
+      <c r="E457" s="43"/>
       <c r="G457" s="43"/>
     </row>
     <row r="458" spans="5:7">
+      <c r="E458" s="43"/>
       <c r="G458" s="43"/>
     </row>
     <row r="459" spans="5:7">
@@ -5944,186 +10963,202 @@
       <c r="G459" s="43"/>
     </row>
     <row r="460" spans="5:7">
+      <c r="E460" s="43"/>
       <c r="G460" s="43"/>
     </row>
     <row r="461" spans="5:7">
+      <c r="E461" s="43"/>
       <c r="G461" s="43"/>
     </row>
     <row r="462" spans="5:7">
+      <c r="E462" s="43"/>
       <c r="G462" s="43"/>
     </row>
     <row r="463" spans="5:7">
+      <c r="E463" s="43"/>
       <c r="G463" s="43"/>
     </row>
     <row r="464" spans="5:7">
+      <c r="E464" s="43"/>
       <c r="G464" s="43"/>
     </row>
     <row r="465" spans="5:7">
+      <c r="E465" s="43"/>
       <c r="G465" s="43"/>
     </row>
     <row r="466" spans="5:7">
+      <c r="E466" s="43"/>
       <c r="G466" s="43"/>
     </row>
     <row r="467" spans="5:7">
       <c r="E467" s="43"/>
       <c r="G467" s="43"/>
     </row>
+    <row r="468" spans="5:7">
+      <c r="E468" s="43"/>
+      <c r="G468" s="43"/>
+    </row>
+    <row r="469" spans="5:7">
+      <c r="E469" s="43"/>
+      <c r="G469" s="43"/>
+    </row>
+    <row r="470" spans="5:7">
+      <c r="E470" s="43"/>
+      <c r="G470" s="43"/>
+    </row>
+    <row r="471" spans="5:7">
+      <c r="E471" s="43"/>
+      <c r="G471" s="43"/>
+    </row>
+    <row r="472" spans="5:7">
+      <c r="E472" s="43"/>
+      <c r="G472" s="43"/>
+    </row>
+    <row r="473" spans="5:7">
+      <c r="E473" s="43"/>
+      <c r="G473" s="43"/>
+    </row>
+    <row r="474" spans="5:7">
+      <c r="E474" s="43"/>
+      <c r="G474" s="43"/>
+    </row>
     <row r="475" spans="5:7">
       <c r="E475" s="43"/>
-    </row>
-    <row r="482" spans="5:5">
+      <c r="G475" s="43"/>
+    </row>
+    <row r="476" spans="5:7">
+      <c r="E476" s="43"/>
+      <c r="G476" s="43"/>
+    </row>
+    <row r="477" spans="5:7">
+      <c r="E477" s="43"/>
+      <c r="G477" s="43"/>
+    </row>
+    <row r="478" spans="5:7">
+      <c r="E478" s="43"/>
+      <c r="G478" s="43"/>
+    </row>
+    <row r="479" spans="5:7">
+      <c r="E479" s="43"/>
+      <c r="G479" s="43"/>
+    </row>
+    <row r="480" spans="5:7">
+      <c r="E480" s="43"/>
+      <c r="G480" s="43"/>
+    </row>
+    <row r="481" spans="5:7">
+      <c r="E481" s="43"/>
+      <c r="G481" s="43"/>
+    </row>
+    <row r="482" spans="5:7">
       <c r="E482" s="43"/>
-    </row>
-    <row r="498" spans="5:5">
-      <c r="E498" s="44"/>
-    </row>
-    <row r="499" spans="5:5">
-      <c r="E499" s="44"/>
-    </row>
-    <row r="502" spans="5:5">
-      <c r="E502" s="44"/>
-    </row>
-    <row r="503" spans="5:5">
+      <c r="G482" s="43"/>
+    </row>
+    <row r="483" spans="5:7">
+      <c r="E483" s="43"/>
+      <c r="G483" s="43"/>
+    </row>
+    <row r="484" spans="5:7">
+      <c r="E484" s="43"/>
+      <c r="G484" s="43"/>
+    </row>
+    <row r="485" spans="5:7">
+      <c r="E485" s="43"/>
+      <c r="G485" s="43"/>
+    </row>
+    <row r="486" spans="5:7">
+      <c r="E486" s="43"/>
+      <c r="G486" s="43"/>
+    </row>
+    <row r="487" spans="5:7">
+      <c r="E487" s="43"/>
+      <c r="G487" s="43"/>
+    </row>
+    <row r="488" spans="5:7">
+      <c r="E488" s="43"/>
+      <c r="G488" s="43"/>
+    </row>
+    <row r="489" spans="5:7">
+      <c r="E489" s="43"/>
+      <c r="G489" s="43"/>
+    </row>
+    <row r="490" spans="5:7">
+      <c r="E490" s="43"/>
+      <c r="G490" s="43"/>
+    </row>
+    <row r="491" spans="5:7">
+      <c r="E491" s="43"/>
+      <c r="G491" s="43"/>
+    </row>
+    <row r="492" spans="5:7">
+      <c r="E492" s="43"/>
+      <c r="G492" s="43"/>
+    </row>
+    <row r="493" spans="5:7">
+      <c r="E493" s="43"/>
+      <c r="G493" s="43"/>
+    </row>
+    <row r="494" spans="5:7">
+      <c r="E494" s="43"/>
+      <c r="G494" s="43"/>
+    </row>
+    <row r="495" spans="5:7">
+      <c r="E495" s="43"/>
+      <c r="G495" s="43"/>
+    </row>
+    <row r="503" spans="5:7">
       <c r="E503" s="43"/>
     </row>
-    <row r="516" spans="5:5">
-      <c r="E516" s="43"/>
-    </row>
-    <row r="528" spans="5:5">
-      <c r="E528" s="43"/>
-    </row>
-    <row r="532" spans="5:5">
-      <c r="E532" s="43"/>
-    </row>
-    <row r="533" spans="5:5">
-      <c r="E533" s="43"/>
-    </row>
-    <row r="534" spans="5:5">
-      <c r="E534" s="43"/>
-    </row>
-    <row r="535" spans="5:5">
-      <c r="E535" s="43"/>
-    </row>
-    <row r="536" spans="5:5">
-      <c r="E536" s="43"/>
-    </row>
-    <row r="537" spans="5:5">
-      <c r="E537" s="43"/>
-    </row>
-    <row r="538" spans="5:5">
-      <c r="E538" s="43"/>
-    </row>
-    <row r="539" spans="5:5">
-      <c r="E539" s="43"/>
-    </row>
-    <row r="540" spans="5:5">
-      <c r="E540" s="43"/>
-    </row>
-    <row r="541" spans="5:5">
-      <c r="E541" s="43"/>
-    </row>
-    <row r="542" spans="5:5">
-      <c r="E542" s="43"/>
-    </row>
-    <row r="543" spans="5:5">
-      <c r="E543" s="43"/>
-    </row>
-    <row r="544" spans="5:5">
-      <c r="E544" s="43"/>
-    </row>
-    <row r="545" spans="5:7">
-      <c r="E545" s="43"/>
-    </row>
-    <row r="546" spans="5:7">
-      <c r="E546" s="43"/>
-    </row>
-    <row r="547" spans="5:7">
-      <c r="E547" s="43"/>
-    </row>
-    <row r="548" spans="5:7">
-      <c r="E548" s="43"/>
-    </row>
-    <row r="549" spans="5:7">
-      <c r="E549" s="43"/>
-    </row>
-    <row r="550" spans="5:7">
-      <c r="E550" s="43"/>
-    </row>
-    <row r="551" spans="5:7">
-      <c r="E551" s="43"/>
-    </row>
-    <row r="552" spans="5:7">
-      <c r="E552" s="43"/>
-    </row>
-    <row r="553" spans="5:7">
-      <c r="E553" s="43"/>
-    </row>
-    <row r="554" spans="5:7">
-      <c r="E554" s="43"/>
-    </row>
-    <row r="555" spans="5:7">
+    <row r="512" spans="5:7">
+      <c r="G512" s="43"/>
+    </row>
+    <row r="513" spans="7:7">
+      <c r="G513" s="43"/>
+    </row>
+    <row r="514" spans="7:7">
+      <c r="G514" s="43"/>
+    </row>
+    <row r="515" spans="7:7">
+      <c r="G515" s="43"/>
+    </row>
+    <row r="516" spans="7:7">
+      <c r="G516" s="43"/>
+    </row>
+    <row r="517" spans="7:7">
+      <c r="G517" s="43"/>
+    </row>
+    <row r="518" spans="7:7">
+      <c r="G518" s="43"/>
+    </row>
+    <row r="519" spans="7:7">
+      <c r="G519" s="43"/>
+    </row>
+    <row r="520" spans="7:7">
+      <c r="G520" s="43"/>
+    </row>
+    <row r="521" spans="7:7">
+      <c r="G521" s="43"/>
+    </row>
+    <row r="522" spans="7:7">
+      <c r="G522" s="43"/>
+    </row>
+    <row r="523" spans="7:7">
+      <c r="G523" s="43"/>
+    </row>
+    <row r="524" spans="7:7">
+      <c r="G524" s="43"/>
+    </row>
+    <row r="525" spans="7:7">
+      <c r="G525" s="43"/>
+    </row>
+    <row r="555" spans="5:5">
       <c r="E555" s="43"/>
     </row>
-    <row r="557" spans="5:7">
-      <c r="G557" s="43"/>
-    </row>
-    <row r="558" spans="5:7">
-      <c r="G558" s="43"/>
-    </row>
-    <row r="559" spans="5:7">
-      <c r="G559" s="43"/>
-    </row>
-    <row r="560" spans="5:7">
-      <c r="G560" s="43"/>
-    </row>
-    <row r="561" spans="5:7">
-      <c r="G561" s="43"/>
-    </row>
-    <row r="562" spans="5:7">
-      <c r="G562" s="43"/>
-    </row>
-    <row r="563" spans="5:7">
-      <c r="G563" s="43"/>
-    </row>
-    <row r="564" spans="5:7">
-      <c r="G564" s="43"/>
-    </row>
-    <row r="565" spans="5:7">
-      <c r="G565" s="43"/>
-    </row>
-    <row r="566" spans="5:7">
-      <c r="G566" s="43"/>
-    </row>
-    <row r="567" spans="5:7">
-      <c r="G567" s="43"/>
-    </row>
-    <row r="568" spans="5:7">
-      <c r="G568" s="43"/>
-    </row>
-    <row r="569" spans="5:7">
-      <c r="G569" s="43"/>
-    </row>
-    <row r="570" spans="5:7">
-      <c r="E570" s="43"/>
-      <c r="G570" s="43"/>
-    </row>
-    <row r="572" spans="5:7">
-      <c r="E572" s="43"/>
-    </row>
-    <row r="573" spans="5:7">
-      <c r="E573" s="43"/>
-    </row>
-    <row r="574" spans="5:7">
+    <row r="574" spans="5:5">
       <c r="E574" s="43"/>
     </row>
-    <row r="575" spans="5:7">
+    <row r="575" spans="5:5">
       <c r="E575" s="43"/>
-    </row>
-    <row r="576" spans="5:7">
-      <c r="E576" s="43"/>
-    </row>
-    <row r="577" spans="5:5">
-      <c r="E577" s="43"/>
     </row>
     <row r="578" spans="5:5">
       <c r="E578" s="43"/>
@@ -6143,21 +11178,6 @@
     <row r="583" spans="5:5">
       <c r="E583" s="43"/>
     </row>
-    <row r="584" spans="5:5">
-      <c r="E584" s="43"/>
-    </row>
-    <row r="585" spans="5:5">
-      <c r="E585" s="43"/>
-    </row>
-    <row r="586" spans="5:5">
-      <c r="E586" s="43"/>
-    </row>
-    <row r="587" spans="5:5">
-      <c r="E587" s="43"/>
-    </row>
-    <row r="588" spans="5:5">
-      <c r="E588" s="43"/>
-    </row>
     <row r="589" spans="5:5">
       <c r="E589" s="43"/>
     </row>
@@ -6179,9 +11199,6 @@
     <row r="595" spans="5:5">
       <c r="E595" s="43"/>
     </row>
-    <row r="596" spans="5:5">
-      <c r="E596" s="43"/>
-    </row>
     <row r="597" spans="5:5">
       <c r="E597" s="43"/>
     </row>
@@ -6194,241 +11211,101 @@
     <row r="600" spans="5:5">
       <c r="E600" s="43"/>
     </row>
-    <row r="601" spans="5:5">
-      <c r="E601" s="43"/>
-    </row>
-    <row r="602" spans="5:5">
-      <c r="E602" s="43"/>
-    </row>
-    <row r="603" spans="5:5">
-      <c r="E603" s="43"/>
-    </row>
     <row r="604" spans="5:5">
       <c r="E604" s="43"/>
     </row>
-    <row r="605" spans="5:5">
-      <c r="E605" s="43"/>
-    </row>
-    <row r="606" spans="5:5">
-      <c r="E606" s="43"/>
-    </row>
-    <row r="607" spans="5:5">
-      <c r="E607" s="43"/>
-    </row>
-    <row r="608" spans="5:5">
-      <c r="E608" s="43"/>
-    </row>
-    <row r="609" spans="5:7">
-      <c r="E609" s="43"/>
-    </row>
-    <row r="610" spans="5:7">
-      <c r="E610" s="43"/>
-    </row>
-    <row r="611" spans="5:7">
+    <row r="611" spans="5:5">
       <c r="E611" s="43"/>
     </row>
-    <row r="612" spans="5:7">
-      <c r="E612" s="43"/>
-    </row>
-    <row r="613" spans="5:7">
-      <c r="E613" s="43"/>
-    </row>
-    <row r="614" spans="5:7">
-      <c r="E614" s="43"/>
-    </row>
-    <row r="615" spans="5:7">
+    <row r="615" spans="5:5">
       <c r="E615" s="43"/>
-    </row>
-    <row r="616" spans="5:7">
-      <c r="E616" s="43"/>
-    </row>
-    <row r="617" spans="5:7">
-      <c r="E617" s="43"/>
-    </row>
-    <row r="618" spans="5:7">
-      <c r="E618" s="43"/>
-    </row>
-    <row r="619" spans="5:7">
-      <c r="E619" s="43"/>
-    </row>
-    <row r="621" spans="5:7">
-      <c r="E621" s="43"/>
-      <c r="G621" s="43"/>
-    </row>
-    <row r="622" spans="5:7">
-      <c r="E622" s="43"/>
-      <c r="G622" s="43"/>
-    </row>
-    <row r="623" spans="5:7">
-      <c r="E623" s="43"/>
-      <c r="G623" s="43"/>
-    </row>
-    <row r="624" spans="5:7">
-      <c r="E624" s="43"/>
-      <c r="G624" s="43"/>
-    </row>
-    <row r="625" spans="5:7">
-      <c r="E625" s="43"/>
-      <c r="G625" s="43"/>
     </row>
     <row r="626" spans="5:7">
       <c r="E626" s="43"/>
-      <c r="G626" s="43"/>
-    </row>
-    <row r="627" spans="5:7">
-      <c r="E627" s="43"/>
-      <c r="G627" s="43"/>
-    </row>
-    <row r="628" spans="5:7">
-      <c r="E628" s="43"/>
-      <c r="G628" s="43"/>
-    </row>
-    <row r="629" spans="5:7">
-      <c r="E629" s="43"/>
-      <c r="G629" s="43"/>
-    </row>
-    <row r="630" spans="5:7">
-      <c r="E630" s="43"/>
-      <c r="G630" s="43"/>
-    </row>
-    <row r="631" spans="5:7">
-      <c r="E631" s="43"/>
-      <c r="G631" s="43"/>
-    </row>
-    <row r="632" spans="5:7">
-      <c r="E632" s="43"/>
-      <c r="G632" s="43"/>
-    </row>
-    <row r="633" spans="5:7">
-      <c r="E633" s="43"/>
-      <c r="G633" s="43"/>
-    </row>
-    <row r="634" spans="5:7">
-      <c r="E634" s="43"/>
-      <c r="G634" s="43"/>
-    </row>
-    <row r="635" spans="5:7">
-      <c r="E635" s="43"/>
-      <c r="G635" s="43"/>
     </row>
     <row r="636" spans="5:7">
       <c r="E636" s="43"/>
-      <c r="G636" s="43"/>
-    </row>
-    <row r="637" spans="5:7">
-      <c r="E637" s="43"/>
-      <c r="G637" s="43"/>
     </row>
     <row r="638" spans="5:7">
-      <c r="E638" s="43"/>
       <c r="G638" s="43"/>
     </row>
     <row r="639" spans="5:7">
-      <c r="E639" s="43"/>
       <c r="G639" s="43"/>
     </row>
     <row r="640" spans="5:7">
-      <c r="E640" s="43"/>
       <c r="G640" s="43"/>
     </row>
-    <row r="641" spans="5:7">
-      <c r="E641" s="43"/>
+    <row r="641" spans="7:7">
       <c r="G641" s="43"/>
     </row>
-    <row r="642" spans="5:7">
-      <c r="E642" s="43"/>
+    <row r="642" spans="7:7">
       <c r="G642" s="43"/>
     </row>
-    <row r="643" spans="5:7">
-      <c r="E643" s="43"/>
+    <row r="643" spans="7:7">
       <c r="G643" s="43"/>
     </row>
-    <row r="644" spans="5:7">
-      <c r="E644" s="43"/>
+    <row r="644" spans="7:7">
       <c r="G644" s="43"/>
     </row>
-    <row r="645" spans="5:7">
-      <c r="E645" s="43"/>
+    <row r="645" spans="7:7">
       <c r="G645" s="43"/>
     </row>
-    <row r="646" spans="5:7">
-      <c r="E646" s="43"/>
+    <row r="646" spans="7:7">
       <c r="G646" s="43"/>
     </row>
-    <row r="647" spans="5:7">
-      <c r="E647" s="43"/>
+    <row r="647" spans="7:7">
       <c r="G647" s="43"/>
     </row>
-    <row r="648" spans="5:7">
-      <c r="E648" s="43"/>
+    <row r="648" spans="7:7">
       <c r="G648" s="43"/>
     </row>
-    <row r="649" spans="5:7">
-      <c r="E649" s="43"/>
+    <row r="649" spans="7:7">
       <c r="G649" s="43"/>
     </row>
-    <row r="650" spans="5:7">
-      <c r="E650" s="43"/>
+    <row r="650" spans="7:7">
       <c r="G650" s="43"/>
     </row>
-    <row r="651" spans="5:7">
-      <c r="E651" s="43"/>
+    <row r="651" spans="7:7">
       <c r="G651" s="43"/>
     </row>
-    <row r="652" spans="5:7">
-      <c r="E652" s="43"/>
+    <row r="652" spans="7:7">
       <c r="G652" s="43"/>
     </row>
-    <row r="653" spans="5:7">
-      <c r="E653" s="43"/>
+    <row r="653" spans="7:7">
       <c r="G653" s="43"/>
     </row>
-    <row r="654" spans="5:7">
-      <c r="E654" s="43"/>
+    <row r="654" spans="7:7">
       <c r="G654" s="43"/>
     </row>
-    <row r="655" spans="5:7">
-      <c r="E655" s="43"/>
+    <row r="655" spans="7:7">
       <c r="G655" s="43"/>
     </row>
-    <row r="656" spans="5:7">
-      <c r="E656" s="43"/>
+    <row r="656" spans="7:7">
       <c r="G656" s="43"/>
     </row>
     <row r="657" spans="5:7">
       <c r="E657" s="43"/>
       <c r="G657" s="43"/>
     </row>
-    <row r="658" spans="5:7">
-      <c r="E658" s="43"/>
-      <c r="G658" s="43"/>
-    </row>
     <row r="659" spans="5:7">
-      <c r="E659" s="43"/>
       <c r="G659" s="43"/>
     </row>
     <row r="660" spans="5:7">
-      <c r="E660" s="43"/>
       <c r="G660" s="43"/>
     </row>
     <row r="661" spans="5:7">
-      <c r="E661" s="43"/>
       <c r="G661" s="43"/>
     </row>
     <row r="662" spans="5:7">
-      <c r="E662" s="43"/>
       <c r="G662" s="43"/>
     </row>
     <row r="663" spans="5:7">
-      <c r="E663" s="43"/>
       <c r="G663" s="43"/>
     </row>
     <row r="664" spans="5:7">
-      <c r="E664" s="43"/>
       <c r="G664" s="43"/>
     </row>
     <row r="665" spans="5:7">
-      <c r="E665" s="43"/>
       <c r="G665" s="43"/>
     </row>
     <row r="666" spans="5:7">
@@ -6436,291 +11313,232 @@
       <c r="G666" s="43"/>
     </row>
     <row r="667" spans="5:7">
-      <c r="E667" s="43"/>
       <c r="G667" s="43"/>
     </row>
     <row r="668" spans="5:7">
-      <c r="E668" s="43"/>
       <c r="G668" s="43"/>
     </row>
-    <row r="678" spans="5:5">
-      <c r="E678" s="43"/>
-    </row>
-    <row r="689" spans="7:7">
+    <row r="669" spans="5:7">
+      <c r="G669" s="43"/>
+    </row>
+    <row r="670" spans="5:7">
+      <c r="G670" s="43"/>
+    </row>
+    <row r="671" spans="5:7">
+      <c r="G671" s="43"/>
+    </row>
+    <row r="672" spans="5:7">
+      <c r="G672" s="43"/>
+    </row>
+    <row r="673" spans="5:7">
+      <c r="G673" s="43"/>
+    </row>
+    <row r="674" spans="5:7">
+      <c r="E674" s="43"/>
+      <c r="G674" s="43"/>
+    </row>
+    <row r="676" spans="5:7">
+      <c r="G676" s="43"/>
+    </row>
+    <row r="677" spans="5:7">
+      <c r="G677" s="43"/>
+    </row>
+    <row r="678" spans="5:7">
+      <c r="G678" s="43"/>
+    </row>
+    <row r="679" spans="5:7">
+      <c r="G679" s="43"/>
+    </row>
+    <row r="680" spans="5:7">
+      <c r="G680" s="43"/>
+    </row>
+    <row r="681" spans="5:7">
+      <c r="G681" s="43"/>
+    </row>
+    <row r="682" spans="5:7">
+      <c r="G682" s="43"/>
+    </row>
+    <row r="683" spans="5:7">
+      <c r="E683" s="43"/>
+      <c r="G683" s="43"/>
+    </row>
+    <row r="684" spans="5:7">
+      <c r="G684" s="43"/>
+    </row>
+    <row r="685" spans="5:7">
+      <c r="G685" s="43"/>
+    </row>
+    <row r="686" spans="5:7">
+      <c r="G686" s="43"/>
+    </row>
+    <row r="687" spans="5:7">
+      <c r="G687" s="43"/>
+    </row>
+    <row r="688" spans="5:7">
+      <c r="G688" s="43"/>
+    </row>
+    <row r="689" spans="5:7">
       <c r="G689" s="43"/>
     </row>
-    <row r="690" spans="7:7">
+    <row r="690" spans="5:7">
       <c r="G690" s="43"/>
     </row>
-    <row r="691" spans="7:7">
+    <row r="691" spans="5:7">
+      <c r="E691" s="43"/>
       <c r="G691" s="43"/>
     </row>
-    <row r="692" spans="7:7">
-      <c r="G692" s="43"/>
-    </row>
-    <row r="693" spans="7:7">
-      <c r="G693" s="43"/>
-    </row>
-    <row r="694" spans="7:7">
-      <c r="G694" s="43"/>
-    </row>
-    <row r="695" spans="7:7">
-      <c r="G695" s="43"/>
-    </row>
-    <row r="696" spans="7:7">
-      <c r="G696" s="43"/>
-    </row>
-    <row r="697" spans="7:7">
-      <c r="G697" s="43"/>
-    </row>
-    <row r="698" spans="7:7">
-      <c r="G698" s="43"/>
-    </row>
-    <row r="699" spans="7:7">
-      <c r="G699" s="43"/>
-    </row>
-    <row r="700" spans="7:7">
-      <c r="G700" s="43"/>
-    </row>
-    <row r="701" spans="7:7">
-      <c r="G701" s="43"/>
-    </row>
-    <row r="702" spans="7:7">
-      <c r="G702" s="43"/>
-    </row>
-    <row r="703" spans="7:7">
-      <c r="G703" s="43"/>
-    </row>
-    <row r="704" spans="7:7">
-      <c r="G704" s="43"/>
-    </row>
-    <row r="705" spans="5:7">
-      <c r="G705" s="43"/>
-    </row>
-    <row r="706" spans="5:7">
-      <c r="G706" s="43"/>
-    </row>
-    <row r="707" spans="5:7">
-      <c r="G707" s="43"/>
-    </row>
-    <row r="708" spans="5:7">
-      <c r="E708" s="43"/>
-      <c r="G708" s="43"/>
-    </row>
-    <row r="718" spans="5:7">
-      <c r="E718" s="43"/>
-    </row>
-    <row r="729" spans="5:7">
-      <c r="E729" s="43"/>
-      <c r="G729" s="43"/>
-    </row>
-    <row r="730" spans="5:7">
-      <c r="E730" s="43"/>
-      <c r="G730" s="43"/>
-    </row>
-    <row r="731" spans="5:7">
-      <c r="E731" s="43"/>
-      <c r="G731" s="43"/>
-    </row>
-    <row r="732" spans="5:7">
-      <c r="E732" s="43"/>
-      <c r="G732" s="43"/>
-    </row>
-    <row r="733" spans="5:7">
-      <c r="E733" s="43"/>
-      <c r="G733" s="43"/>
-    </row>
-    <row r="734" spans="5:7">
-      <c r="E734" s="43"/>
-      <c r="G734" s="43"/>
-    </row>
-    <row r="735" spans="5:7">
-      <c r="E735" s="43"/>
-      <c r="G735" s="43"/>
-    </row>
-    <row r="736" spans="5:7">
-      <c r="E736" s="43"/>
-      <c r="G736" s="43"/>
-    </row>
-    <row r="737" spans="5:7">
-      <c r="E737" s="43"/>
-      <c r="G737" s="43"/>
-    </row>
-    <row r="738" spans="5:7">
-      <c r="E738" s="43"/>
-      <c r="G738" s="43"/>
-    </row>
-    <row r="739" spans="5:7">
-      <c r="E739" s="43"/>
-      <c r="G739" s="43"/>
-    </row>
-    <row r="740" spans="5:7">
+    <row r="699" spans="5:7">
+      <c r="E699" s="43"/>
+    </row>
+    <row r="706" spans="5:5">
+      <c r="E706" s="43"/>
+    </row>
+    <row r="722" spans="5:5">
+      <c r="E722" s="44"/>
+    </row>
+    <row r="723" spans="5:5">
+      <c r="E723" s="44"/>
+    </row>
+    <row r="726" spans="5:5">
+      <c r="E726" s="44"/>
+    </row>
+    <row r="727" spans="5:5">
+      <c r="E727" s="43"/>
+    </row>
+    <row r="740" spans="5:5">
       <c r="E740" s="43"/>
-      <c r="G740" s="43"/>
-    </row>
-    <row r="741" spans="5:7">
-      <c r="E741" s="43"/>
-      <c r="G741" s="43"/>
-    </row>
-    <row r="742" spans="5:7">
-      <c r="E742" s="43"/>
-      <c r="G742" s="43"/>
-    </row>
-    <row r="743" spans="5:7">
-      <c r="E743" s="43"/>
-      <c r="G743" s="43"/>
-    </row>
-    <row r="744" spans="5:7">
-      <c r="E744" s="43"/>
-      <c r="G744" s="43"/>
-    </row>
-    <row r="746" spans="5:7">
-      <c r="E746" s="43"/>
-      <c r="G746" s="43"/>
-    </row>
-    <row r="747" spans="5:7">
-      <c r="E747" s="43"/>
-      <c r="G747" s="43"/>
-    </row>
-    <row r="748" spans="5:7">
-      <c r="E748" s="43"/>
-      <c r="G748" s="43"/>
-    </row>
-    <row r="749" spans="5:7">
-      <c r="E749" s="43"/>
-      <c r="G749" s="43"/>
-    </row>
-    <row r="750" spans="5:7">
-      <c r="E750" s="43"/>
-      <c r="G750" s="43"/>
-    </row>
-    <row r="751" spans="5:7">
-      <c r="E751" s="43"/>
-      <c r="G751" s="43"/>
-    </row>
-    <row r="752" spans="5:7">
+    </row>
+    <row r="752" spans="5:5">
       <c r="E752" s="43"/>
-      <c r="G752" s="43"/>
-    </row>
-    <row r="753" spans="5:7">
-      <c r="E753" s="43"/>
-      <c r="G753" s="43"/>
-    </row>
-    <row r="754" spans="5:7">
-      <c r="E754" s="43"/>
-      <c r="G754" s="43"/>
-    </row>
-    <row r="755" spans="5:7">
-      <c r="E755" s="43"/>
-      <c r="G755" s="43"/>
-    </row>
-    <row r="756" spans="5:7">
+    </row>
+    <row r="756" spans="5:5">
       <c r="E756" s="43"/>
-      <c r="G756" s="43"/>
-    </row>
-    <row r="757" spans="5:7">
+    </row>
+    <row r="757" spans="5:5">
       <c r="E757" s="43"/>
-      <c r="G757" s="43"/>
-    </row>
-    <row r="758" spans="5:7">
+    </row>
+    <row r="758" spans="5:5">
       <c r="E758" s="43"/>
-      <c r="G758" s="43"/>
-    </row>
-    <row r="759" spans="5:7">
+    </row>
+    <row r="759" spans="5:5">
       <c r="E759" s="43"/>
-      <c r="G759" s="43"/>
-    </row>
-    <row r="762" spans="5:7">
+    </row>
+    <row r="760" spans="5:5">
+      <c r="E760" s="43"/>
+    </row>
+    <row r="761" spans="5:5">
+      <c r="E761" s="43"/>
+    </row>
+    <row r="762" spans="5:5">
       <c r="E762" s="43"/>
     </row>
-    <row r="766" spans="5:7">
+    <row r="763" spans="5:5">
+      <c r="E763" s="43"/>
+    </row>
+    <row r="764" spans="5:5">
+      <c r="E764" s="43"/>
+    </row>
+    <row r="765" spans="5:5">
+      <c r="E765" s="43"/>
+    </row>
+    <row r="766" spans="5:5">
       <c r="E766" s="43"/>
     </row>
-    <row r="767" spans="5:7">
+    <row r="767" spans="5:5">
       <c r="E767" s="43"/>
     </row>
-    <row r="768" spans="5:7">
+    <row r="768" spans="5:5">
       <c r="E768" s="43"/>
     </row>
-    <row r="769" spans="5:5">
+    <row r="769" spans="5:7">
       <c r="E769" s="43"/>
     </row>
-    <row r="772" spans="5:5">
+    <row r="770" spans="5:7">
+      <c r="E770" s="43"/>
+    </row>
+    <row r="771" spans="5:7">
+      <c r="E771" s="43"/>
+    </row>
+    <row r="772" spans="5:7">
       <c r="E772" s="43"/>
     </row>
-    <row r="773" spans="5:5">
+    <row r="773" spans="5:7">
       <c r="E773" s="43"/>
     </row>
-    <row r="774" spans="5:5">
+    <row r="774" spans="5:7">
       <c r="E774" s="43"/>
     </row>
-    <row r="775" spans="5:5">
+    <row r="775" spans="5:7">
       <c r="E775" s="43"/>
     </row>
-    <row r="778" spans="5:5">
+    <row r="776" spans="5:7">
+      <c r="E776" s="43"/>
+    </row>
+    <row r="777" spans="5:7">
+      <c r="E777" s="43"/>
+    </row>
+    <row r="778" spans="5:7">
       <c r="E778" s="43"/>
     </row>
-    <row r="779" spans="5:5">
+    <row r="779" spans="5:7">
       <c r="E779" s="43"/>
     </row>
-    <row r="780" spans="5:5">
-      <c r="E780" s="43"/>
-    </row>
-    <row r="781" spans="5:5">
-      <c r="E781" s="43"/>
-    </row>
-    <row r="782" spans="5:5">
-      <c r="E782" s="43"/>
-    </row>
-    <row r="783" spans="5:5">
-      <c r="E783" s="43"/>
-    </row>
-    <row r="784" spans="5:5">
-      <c r="E784" s="43"/>
-    </row>
-    <row r="785" spans="5:5">
-      <c r="E785" s="43"/>
-    </row>
-    <row r="786" spans="5:5">
-      <c r="E786" s="43"/>
-    </row>
-    <row r="787" spans="5:5">
-      <c r="E787" s="43"/>
-    </row>
-    <row r="788" spans="5:5">
-      <c r="E788" s="43"/>
-    </row>
-    <row r="789" spans="5:5">
-      <c r="E789" s="43"/>
-    </row>
-    <row r="790" spans="5:5">
-      <c r="E790" s="43"/>
-    </row>
-    <row r="791" spans="5:5">
-      <c r="E791" s="43"/>
-    </row>
-    <row r="793" spans="5:5">
-      <c r="E793" s="43"/>
-    </row>
-    <row r="794" spans="5:5">
+    <row r="781" spans="5:7">
+      <c r="G781" s="43"/>
+    </row>
+    <row r="782" spans="5:7">
+      <c r="G782" s="43"/>
+    </row>
+    <row r="783" spans="5:7">
+      <c r="G783" s="43"/>
+    </row>
+    <row r="784" spans="5:7">
+      <c r="G784" s="43"/>
+    </row>
+    <row r="785" spans="5:7">
+      <c r="G785" s="43"/>
+    </row>
+    <row r="786" spans="5:7">
+      <c r="G786" s="43"/>
+    </row>
+    <row r="787" spans="5:7">
+      <c r="G787" s="43"/>
+    </row>
+    <row r="788" spans="5:7">
+      <c r="G788" s="43"/>
+    </row>
+    <row r="789" spans="5:7">
+      <c r="G789" s="43"/>
+    </row>
+    <row r="790" spans="5:7">
+      <c r="G790" s="43"/>
+    </row>
+    <row r="791" spans="5:7">
+      <c r="G791" s="43"/>
+    </row>
+    <row r="792" spans="5:7">
+      <c r="G792" s="43"/>
+    </row>
+    <row r="793" spans="5:7">
+      <c r="G793" s="43"/>
+    </row>
+    <row r="794" spans="5:7">
       <c r="E794" s="43"/>
-    </row>
-    <row r="795" spans="5:5">
-      <c r="E795" s="43"/>
-    </row>
-    <row r="796" spans="5:5">
+      <c r="G794" s="43"/>
+    </row>
+    <row r="796" spans="5:7">
       <c r="E796" s="43"/>
     </row>
-    <row r="797" spans="5:5">
+    <row r="797" spans="5:7">
       <c r="E797" s="43"/>
     </row>
-    <row r="798" spans="5:5">
+    <row r="798" spans="5:7">
       <c r="E798" s="43"/>
     </row>
-    <row r="799" spans="5:5">
+    <row r="799" spans="5:7">
       <c r="E799" s="43"/>
     </row>
-    <row r="800" spans="5:5">
+    <row r="800" spans="5:7">
       <c r="E800" s="43"/>
     </row>
     <row r="801" spans="5:5">
@@ -6741,6 +11559,9 @@
     <row r="806" spans="5:5">
       <c r="E806" s="43"/>
     </row>
+    <row r="807" spans="5:5">
+      <c r="E807" s="43"/>
+    </row>
     <row r="808" spans="5:5">
       <c r="E808" s="43"/>
     </row>
@@ -6783,6 +11604,9 @@
     <row r="821" spans="5:5">
       <c r="E821" s="43"/>
     </row>
+    <row r="822" spans="5:5">
+      <c r="E822" s="43"/>
+    </row>
     <row r="823" spans="5:5">
       <c r="E823" s="43"/>
     </row>
@@ -6813,304 +11637,899 @@
     <row r="832" spans="5:5">
       <c r="E832" s="43"/>
     </row>
-    <row r="833" spans="5:5">
+    <row r="833" spans="5:7">
       <c r="E833" s="43"/>
     </row>
-    <row r="834" spans="5:5">
+    <row r="834" spans="5:7">
       <c r="E834" s="43"/>
     </row>
-    <row r="835" spans="5:5">
+    <row r="835" spans="5:7">
       <c r="E835" s="43"/>
     </row>
-    <row r="836" spans="5:5">
+    <row r="836" spans="5:7">
       <c r="E836" s="43"/>
     </row>
-    <row r="837" spans="5:5">
+    <row r="837" spans="5:7">
       <c r="E837" s="43"/>
     </row>
-    <row r="838" spans="5:5">
+    <row r="838" spans="5:7">
       <c r="E838" s="43"/>
     </row>
-    <row r="839" spans="5:5">
+    <row r="839" spans="5:7">
       <c r="E839" s="43"/>
     </row>
-    <row r="840" spans="5:5">
+    <row r="840" spans="5:7">
       <c r="E840" s="43"/>
     </row>
-    <row r="841" spans="5:5">
+    <row r="841" spans="5:7">
       <c r="E841" s="43"/>
     </row>
-    <row r="842" spans="5:5">
+    <row r="842" spans="5:7">
       <c r="E842" s="43"/>
     </row>
-    <row r="843" spans="5:5">
+    <row r="843" spans="5:7">
       <c r="E843" s="43"/>
     </row>
-    <row r="844" spans="5:5">
-      <c r="E844" s="43"/>
-    </row>
-    <row r="845" spans="5:5">
+    <row r="845" spans="5:7">
       <c r="E845" s="43"/>
-    </row>
-    <row r="846" spans="5:5">
+      <c r="G845" s="43"/>
+    </row>
+    <row r="846" spans="5:7">
       <c r="E846" s="43"/>
-    </row>
-    <row r="847" spans="5:5">
+      <c r="G846" s="43"/>
+    </row>
+    <row r="847" spans="5:7">
       <c r="E847" s="43"/>
-    </row>
-    <row r="848" spans="5:5">
+      <c r="G847" s="43"/>
+    </row>
+    <row r="848" spans="5:7">
       <c r="E848" s="43"/>
-    </row>
-    <row r="849" spans="5:5">
+      <c r="G848" s="43"/>
+    </row>
+    <row r="849" spans="5:7">
       <c r="E849" s="43"/>
-    </row>
-    <row r="850" spans="5:5">
+      <c r="G849" s="43"/>
+    </row>
+    <row r="850" spans="5:7">
       <c r="E850" s="43"/>
-    </row>
-    <row r="852" spans="5:5">
+      <c r="G850" s="43"/>
+    </row>
+    <row r="851" spans="5:7">
+      <c r="E851" s="43"/>
+      <c r="G851" s="43"/>
+    </row>
+    <row r="852" spans="5:7">
       <c r="E852" s="43"/>
-    </row>
-    <row r="865" spans="5:5">
+      <c r="G852" s="43"/>
+    </row>
+    <row r="853" spans="5:7">
+      <c r="E853" s="43"/>
+      <c r="G853" s="43"/>
+    </row>
+    <row r="854" spans="5:7">
+      <c r="E854" s="43"/>
+      <c r="G854" s="43"/>
+    </row>
+    <row r="855" spans="5:7">
+      <c r="E855" s="43"/>
+      <c r="G855" s="43"/>
+    </row>
+    <row r="856" spans="5:7">
+      <c r="E856" s="43"/>
+      <c r="G856" s="43"/>
+    </row>
+    <row r="857" spans="5:7">
+      <c r="E857" s="43"/>
+      <c r="G857" s="43"/>
+    </row>
+    <row r="858" spans="5:7">
+      <c r="E858" s="43"/>
+      <c r="G858" s="43"/>
+    </row>
+    <row r="859" spans="5:7">
+      <c r="E859" s="43"/>
+      <c r="G859" s="43"/>
+    </row>
+    <row r="860" spans="5:7">
+      <c r="E860" s="43"/>
+      <c r="G860" s="43"/>
+    </row>
+    <row r="861" spans="5:7">
+      <c r="E861" s="43"/>
+      <c r="G861" s="43"/>
+    </row>
+    <row r="862" spans="5:7">
+      <c r="E862" s="43"/>
+      <c r="G862" s="43"/>
+    </row>
+    <row r="863" spans="5:7">
+      <c r="E863" s="43"/>
+      <c r="G863" s="43"/>
+    </row>
+    <row r="864" spans="5:7">
+      <c r="E864" s="43"/>
+      <c r="G864" s="43"/>
+    </row>
+    <row r="865" spans="5:7">
       <c r="E865" s="43"/>
-    </row>
-    <row r="879" spans="5:5">
+      <c r="G865" s="43"/>
+    </row>
+    <row r="866" spans="5:7">
+      <c r="E866" s="43"/>
+      <c r="G866" s="43"/>
+    </row>
+    <row r="867" spans="5:7">
+      <c r="E867" s="43"/>
+      <c r="G867" s="43"/>
+    </row>
+    <row r="868" spans="5:7">
+      <c r="E868" s="43"/>
+      <c r="G868" s="43"/>
+    </row>
+    <row r="869" spans="5:7">
+      <c r="E869" s="43"/>
+      <c r="G869" s="43"/>
+    </row>
+    <row r="870" spans="5:7">
+      <c r="E870" s="43"/>
+      <c r="G870" s="43"/>
+    </row>
+    <row r="871" spans="5:7">
+      <c r="E871" s="43"/>
+      <c r="G871" s="43"/>
+    </row>
+    <row r="872" spans="5:7">
+      <c r="E872" s="43"/>
+      <c r="G872" s="43"/>
+    </row>
+    <row r="873" spans="5:7">
+      <c r="E873" s="43"/>
+      <c r="G873" s="43"/>
+    </row>
+    <row r="874" spans="5:7">
+      <c r="E874" s="43"/>
+      <c r="G874" s="43"/>
+    </row>
+    <row r="875" spans="5:7">
+      <c r="E875" s="43"/>
+      <c r="G875" s="43"/>
+    </row>
+    <row r="876" spans="5:7">
+      <c r="E876" s="43"/>
+      <c r="G876" s="43"/>
+    </row>
+    <row r="877" spans="5:7">
+      <c r="E877" s="43"/>
+      <c r="G877" s="43"/>
+    </row>
+    <row r="878" spans="5:7">
+      <c r="E878" s="43"/>
+      <c r="G878" s="43"/>
+    </row>
+    <row r="879" spans="5:7">
       <c r="E879" s="43"/>
-    </row>
-    <row r="881" spans="5:5">
+      <c r="G879" s="43"/>
+    </row>
+    <row r="880" spans="5:7">
+      <c r="E880" s="43"/>
+      <c r="G880" s="43"/>
+    </row>
+    <row r="881" spans="5:7">
       <c r="E881" s="43"/>
-    </row>
-    <row r="894" spans="5:5">
-      <c r="E894" s="43"/>
-    </row>
-    <row r="908" spans="5:5">
-      <c r="E908" s="43"/>
-    </row>
-    <row r="910" spans="5:5">
-      <c r="E910" s="43"/>
-    </row>
-    <row r="923" spans="5:5">
-      <c r="E923" s="43"/>
-    </row>
-    <row r="937" spans="5:5">
-      <c r="E937" s="43"/>
-    </row>
-    <row r="940" spans="5:5">
-      <c r="E940" s="43"/>
-    </row>
-    <row r="941" spans="5:5">
-      <c r="E941" s="43"/>
-    </row>
-    <row r="942" spans="5:5">
+      <c r="G881" s="43"/>
+    </row>
+    <row r="882" spans="5:7">
+      <c r="E882" s="43"/>
+      <c r="G882" s="43"/>
+    </row>
+    <row r="883" spans="5:7">
+      <c r="E883" s="43"/>
+      <c r="G883" s="43"/>
+    </row>
+    <row r="884" spans="5:7">
+      <c r="E884" s="43"/>
+      <c r="G884" s="43"/>
+    </row>
+    <row r="885" spans="5:7">
+      <c r="E885" s="43"/>
+      <c r="G885" s="43"/>
+    </row>
+    <row r="886" spans="5:7">
+      <c r="E886" s="43"/>
+      <c r="G886" s="43"/>
+    </row>
+    <row r="887" spans="5:7">
+      <c r="E887" s="43"/>
+      <c r="G887" s="43"/>
+    </row>
+    <row r="888" spans="5:7">
+      <c r="E888" s="43"/>
+      <c r="G888" s="43"/>
+    </row>
+    <row r="889" spans="5:7">
+      <c r="E889" s="43"/>
+      <c r="G889" s="43"/>
+    </row>
+    <row r="890" spans="5:7">
+      <c r="E890" s="43"/>
+      <c r="G890" s="43"/>
+    </row>
+    <row r="891" spans="5:7">
+      <c r="E891" s="43"/>
+      <c r="G891" s="43"/>
+    </row>
+    <row r="892" spans="5:7">
+      <c r="E892" s="43"/>
+      <c r="G892" s="43"/>
+    </row>
+    <row r="902" spans="5:5">
+      <c r="E902" s="43"/>
+    </row>
+    <row r="913" spans="7:7">
+      <c r="G913" s="43"/>
+    </row>
+    <row r="914" spans="7:7">
+      <c r="G914" s="43"/>
+    </row>
+    <row r="915" spans="7:7">
+      <c r="G915" s="43"/>
+    </row>
+    <row r="916" spans="7:7">
+      <c r="G916" s="43"/>
+    </row>
+    <row r="917" spans="7:7">
+      <c r="G917" s="43"/>
+    </row>
+    <row r="918" spans="7:7">
+      <c r="G918" s="43"/>
+    </row>
+    <row r="919" spans="7:7">
+      <c r="G919" s="43"/>
+    </row>
+    <row r="920" spans="7:7">
+      <c r="G920" s="43"/>
+    </row>
+    <row r="921" spans="7:7">
+      <c r="G921" s="43"/>
+    </row>
+    <row r="922" spans="7:7">
+      <c r="G922" s="43"/>
+    </row>
+    <row r="923" spans="7:7">
+      <c r="G923" s="43"/>
+    </row>
+    <row r="924" spans="7:7">
+      <c r="G924" s="43"/>
+    </row>
+    <row r="925" spans="7:7">
+      <c r="G925" s="43"/>
+    </row>
+    <row r="926" spans="7:7">
+      <c r="G926" s="43"/>
+    </row>
+    <row r="927" spans="7:7">
+      <c r="G927" s="43"/>
+    </row>
+    <row r="928" spans="7:7">
+      <c r="G928" s="43"/>
+    </row>
+    <row r="929" spans="5:7">
+      <c r="G929" s="43"/>
+    </row>
+    <row r="930" spans="5:7">
+      <c r="G930" s="43"/>
+    </row>
+    <row r="931" spans="5:7">
+      <c r="G931" s="43"/>
+    </row>
+    <row r="932" spans="5:7">
+      <c r="E932" s="43"/>
+      <c r="G932" s="43"/>
+    </row>
+    <row r="942" spans="5:7">
       <c r="E942" s="43"/>
     </row>
-    <row r="943" spans="5:5">
-      <c r="E943" s="43"/>
-    </row>
-    <row r="944" spans="5:5">
-      <c r="E944" s="43"/>
-    </row>
-    <row r="945" spans="5:5">
-      <c r="E945" s="43"/>
-    </row>
-    <row r="946" spans="5:5">
-      <c r="E946" s="43"/>
-    </row>
-    <row r="947" spans="5:5">
-      <c r="E947" s="43"/>
-    </row>
-    <row r="948" spans="5:5">
-      <c r="E948" s="43"/>
-    </row>
-    <row r="949" spans="5:5">
-      <c r="E949" s="43"/>
-    </row>
-    <row r="950" spans="5:5">
-      <c r="E950" s="43"/>
-    </row>
-    <row r="951" spans="5:5">
-      <c r="E951" s="43"/>
-    </row>
-    <row r="952" spans="5:5">
-      <c r="E952" s="43"/>
-    </row>
-    <row r="953" spans="5:5">
+    <row r="953" spans="5:7">
       <c r="E953" s="43"/>
-    </row>
-    <row r="962" spans="5:5">
+      <c r="G953" s="43"/>
+    </row>
+    <row r="954" spans="5:7">
+      <c r="E954" s="43"/>
+      <c r="G954" s="43"/>
+    </row>
+    <row r="955" spans="5:7">
+      <c r="E955" s="43"/>
+      <c r="G955" s="43"/>
+    </row>
+    <row r="956" spans="5:7">
+      <c r="E956" s="43"/>
+      <c r="G956" s="43"/>
+    </row>
+    <row r="957" spans="5:7">
+      <c r="E957" s="43"/>
+      <c r="G957" s="43"/>
+    </row>
+    <row r="958" spans="5:7">
+      <c r="E958" s="43"/>
+      <c r="G958" s="43"/>
+    </row>
+    <row r="959" spans="5:7">
+      <c r="E959" s="43"/>
+      <c r="G959" s="43"/>
+    </row>
+    <row r="960" spans="5:7">
+      <c r="E960" s="43"/>
+      <c r="G960" s="43"/>
+    </row>
+    <row r="961" spans="5:7">
+      <c r="E961" s="43"/>
+      <c r="G961" s="43"/>
+    </row>
+    <row r="962" spans="5:7">
       <c r="E962" s="43"/>
-    </row>
-    <row r="979" spans="5:5">
+      <c r="G962" s="43"/>
+    </row>
+    <row r="963" spans="5:7">
+      <c r="E963" s="43"/>
+      <c r="G963" s="43"/>
+    </row>
+    <row r="964" spans="5:7">
+      <c r="E964" s="43"/>
+      <c r="G964" s="43"/>
+    </row>
+    <row r="965" spans="5:7">
+      <c r="E965" s="43"/>
+      <c r="G965" s="43"/>
+    </row>
+    <row r="966" spans="5:7">
+      <c r="E966" s="43"/>
+      <c r="G966" s="43"/>
+    </row>
+    <row r="967" spans="5:7">
+      <c r="E967" s="43"/>
+      <c r="G967" s="43"/>
+    </row>
+    <row r="968" spans="5:7">
+      <c r="E968" s="43"/>
+      <c r="G968" s="43"/>
+    </row>
+    <row r="970" spans="5:7">
+      <c r="E970" s="43"/>
+      <c r="G970" s="43"/>
+    </row>
+    <row r="971" spans="5:7">
+      <c r="E971" s="43"/>
+      <c r="G971" s="43"/>
+    </row>
+    <row r="972" spans="5:7">
+      <c r="E972" s="43"/>
+      <c r="G972" s="43"/>
+    </row>
+    <row r="973" spans="5:7">
+      <c r="E973" s="43"/>
+      <c r="G973" s="43"/>
+    </row>
+    <row r="974" spans="5:7">
+      <c r="E974" s="43"/>
+      <c r="G974" s="43"/>
+    </row>
+    <row r="975" spans="5:7">
+      <c r="E975" s="43"/>
+      <c r="G975" s="43"/>
+    </row>
+    <row r="976" spans="5:7">
+      <c r="E976" s="43"/>
+      <c r="G976" s="43"/>
+    </row>
+    <row r="977" spans="5:7">
+      <c r="E977" s="43"/>
+      <c r="G977" s="43"/>
+    </row>
+    <row r="978" spans="5:7">
+      <c r="E978" s="43"/>
+      <c r="G978" s="43"/>
+    </row>
+    <row r="979" spans="5:7">
       <c r="E979" s="43"/>
+      <c r="G979" s="43"/>
+    </row>
+    <row r="980" spans="5:7">
+      <c r="E980" s="43"/>
+      <c r="G980" s="43"/>
+    </row>
+    <row r="981" spans="5:7">
+      <c r="E981" s="43"/>
+      <c r="G981" s="43"/>
+    </row>
+    <row r="982" spans="5:7">
+      <c r="E982" s="43"/>
+      <c r="G982" s="43"/>
+    </row>
+    <row r="983" spans="5:7">
+      <c r="E983" s="43"/>
+      <c r="G983" s="43"/>
+    </row>
+    <row r="986" spans="5:7">
+      <c r="E986" s="43"/>
+    </row>
+    <row r="990" spans="5:7">
+      <c r="E990" s="43"/>
+    </row>
+    <row r="991" spans="5:7">
+      <c r="E991" s="43"/>
+    </row>
+    <row r="992" spans="5:7">
+      <c r="E992" s="43"/>
+    </row>
+    <row r="993" spans="5:5">
+      <c r="E993" s="43"/>
     </row>
     <row r="996" spans="5:5">
       <c r="E996" s="43"/>
     </row>
+    <row r="997" spans="5:5">
+      <c r="E997" s="43"/>
+    </row>
+    <row r="998" spans="5:5">
+      <c r="E998" s="43"/>
+    </row>
+    <row r="999" spans="5:5">
+      <c r="E999" s="43"/>
+    </row>
+    <row r="1002" spans="5:5">
+      <c r="E1002" s="43"/>
+    </row>
+    <row r="1003" spans="5:5">
+      <c r="E1003" s="43"/>
+    </row>
+    <row r="1004" spans="5:5">
+      <c r="E1004" s="43"/>
+    </row>
+    <row r="1005" spans="5:5">
+      <c r="E1005" s="43"/>
+    </row>
+    <row r="1006" spans="5:5">
+      <c r="E1006" s="43"/>
+    </row>
+    <row r="1007" spans="5:5">
+      <c r="E1007" s="43"/>
+    </row>
+    <row r="1008" spans="5:5">
+      <c r="E1008" s="43"/>
+    </row>
+    <row r="1009" spans="5:5">
+      <c r="E1009" s="43"/>
+    </row>
+    <row r="1010" spans="5:5">
+      <c r="E1010" s="43"/>
+    </row>
+    <row r="1011" spans="5:5">
+      <c r="E1011" s="43"/>
+    </row>
+    <row r="1012" spans="5:5">
+      <c r="E1012" s="43"/>
+    </row>
     <row r="1013" spans="5:5">
       <c r="E1013" s="43"/>
     </row>
+    <row r="1014" spans="5:5">
+      <c r="E1014" s="43"/>
+    </row>
+    <row r="1015" spans="5:5">
+      <c r="E1015" s="43"/>
+    </row>
+    <row r="1017" spans="5:5">
+      <c r="E1017" s="43"/>
+    </row>
+    <row r="1018" spans="5:5">
+      <c r="E1018" s="43"/>
+    </row>
+    <row r="1019" spans="5:5">
+      <c r="E1019" s="43"/>
+    </row>
+    <row r="1020" spans="5:5">
+      <c r="E1020" s="43"/>
+    </row>
+    <row r="1021" spans="5:5">
+      <c r="E1021" s="43"/>
+    </row>
+    <row r="1022" spans="5:5">
+      <c r="E1022" s="43"/>
+    </row>
+    <row r="1023" spans="5:5">
+      <c r="E1023" s="43"/>
+    </row>
+    <row r="1024" spans="5:5">
+      <c r="E1024" s="43"/>
+    </row>
+    <row r="1025" spans="5:5">
+      <c r="E1025" s="43"/>
+    </row>
+    <row r="1026" spans="5:5">
+      <c r="E1026" s="43"/>
+    </row>
+    <row r="1027" spans="5:5">
+      <c r="E1027" s="43"/>
+    </row>
+    <row r="1028" spans="5:5">
+      <c r="E1028" s="43"/>
+    </row>
+    <row r="1029" spans="5:5">
+      <c r="E1029" s="43"/>
+    </row>
     <row r="1030" spans="5:5">
       <c r="E1030" s="43"/>
     </row>
+    <row r="1032" spans="5:5">
+      <c r="E1032" s="43"/>
+    </row>
+    <row r="1033" spans="5:5">
+      <c r="E1033" s="43"/>
+    </row>
+    <row r="1034" spans="5:5">
+      <c r="E1034" s="43"/>
+    </row>
+    <row r="1035" spans="5:5">
+      <c r="E1035" s="43"/>
+    </row>
+    <row r="1036" spans="5:5">
+      <c r="E1036" s="43"/>
+    </row>
+    <row r="1037" spans="5:5">
+      <c r="E1037" s="43"/>
+    </row>
+    <row r="1038" spans="5:5">
+      <c r="E1038" s="43"/>
+    </row>
+    <row r="1039" spans="5:5">
+      <c r="E1039" s="43"/>
+    </row>
+    <row r="1040" spans="5:5">
+      <c r="E1040" s="43"/>
+    </row>
+    <row r="1041" spans="5:5">
+      <c r="E1041" s="43"/>
+    </row>
+    <row r="1042" spans="5:5">
+      <c r="E1042" s="43"/>
+    </row>
+    <row r="1043" spans="5:5">
+      <c r="E1043" s="43"/>
+    </row>
+    <row r="1044" spans="5:5">
+      <c r="E1044" s="43"/>
+    </row>
+    <row r="1045" spans="5:5">
+      <c r="E1045" s="43"/>
+    </row>
     <row r="1047" spans="5:5">
       <c r="E1047" s="43"/>
     </row>
+    <row r="1048" spans="5:5">
+      <c r="E1048" s="43"/>
+    </row>
+    <row r="1049" spans="5:5">
+      <c r="E1049" s="43"/>
+    </row>
+    <row r="1050" spans="5:5">
+      <c r="E1050" s="43"/>
+    </row>
+    <row r="1051" spans="5:5">
+      <c r="E1051" s="43"/>
+    </row>
+    <row r="1052" spans="5:5">
+      <c r="E1052" s="43"/>
+    </row>
+    <row r="1053" spans="5:5">
+      <c r="E1053" s="43"/>
+    </row>
+    <row r="1054" spans="5:5">
+      <c r="E1054" s="43"/>
+    </row>
+    <row r="1055" spans="5:5">
+      <c r="E1055" s="43"/>
+    </row>
+    <row r="1056" spans="5:5">
+      <c r="E1056" s="43"/>
+    </row>
+    <row r="1057" spans="5:5">
+      <c r="E1057" s="43"/>
+    </row>
+    <row r="1058" spans="5:5">
+      <c r="E1058" s="43"/>
+    </row>
+    <row r="1059" spans="5:5">
+      <c r="E1059" s="43"/>
+    </row>
+    <row r="1060" spans="5:5">
+      <c r="E1060" s="43"/>
+    </row>
+    <row r="1061" spans="5:5">
+      <c r="E1061" s="43"/>
+    </row>
+    <row r="1062" spans="5:5">
+      <c r="E1062" s="43"/>
+    </row>
+    <row r="1063" spans="5:5">
+      <c r="E1063" s="43"/>
+    </row>
     <row r="1064" spans="5:5">
       <c r="E1064" s="43"/>
     </row>
-    <row r="1081" spans="5:5">
-      <c r="E1081" s="43"/>
-    </row>
-    <row r="1098" spans="5:5">
-      <c r="E1098" s="43"/>
-    </row>
-    <row r="1115" spans="5:5">
-      <c r="E1115" s="43"/>
+    <row r="1065" spans="5:5">
+      <c r="E1065" s="43"/>
+    </row>
+    <row r="1066" spans="5:5">
+      <c r="E1066" s="43"/>
+    </row>
+    <row r="1067" spans="5:5">
+      <c r="E1067" s="43"/>
+    </row>
+    <row r="1068" spans="5:5">
+      <c r="E1068" s="43"/>
+    </row>
+    <row r="1069" spans="5:5">
+      <c r="E1069" s="43"/>
+    </row>
+    <row r="1070" spans="5:5">
+      <c r="E1070" s="43"/>
+    </row>
+    <row r="1071" spans="5:5">
+      <c r="E1071" s="43"/>
+    </row>
+    <row r="1072" spans="5:5">
+      <c r="E1072" s="43"/>
+    </row>
+    <row r="1073" spans="5:5">
+      <c r="E1073" s="43"/>
+    </row>
+    <row r="1074" spans="5:5">
+      <c r="E1074" s="43"/>
+    </row>
+    <row r="1076" spans="5:5">
+      <c r="E1076" s="43"/>
+    </row>
+    <row r="1089" spans="5:5">
+      <c r="E1089" s="43"/>
+    </row>
+    <row r="1103" spans="5:5">
+      <c r="E1103" s="43"/>
+    </row>
+    <row r="1105" spans="5:5">
+      <c r="E1105" s="43"/>
+    </row>
+    <row r="1118" spans="5:5">
+      <c r="E1118" s="43"/>
     </row>
     <row r="1132" spans="5:5">
       <c r="E1132" s="43"/>
     </row>
-    <row r="1149" spans="5:5">
-      <c r="E1149" s="43"/>
+    <row r="1134" spans="5:5">
+      <c r="E1134" s="43"/>
+    </row>
+    <row r="1147" spans="5:5">
+      <c r="E1147" s="43"/>
+    </row>
+    <row r="1161" spans="5:5">
+      <c r="E1161" s="43"/>
+    </row>
+    <row r="1164" spans="5:5">
+      <c r="E1164" s="43"/>
+    </row>
+    <row r="1165" spans="5:5">
+      <c r="E1165" s="43"/>
     </row>
     <row r="1166" spans="5:5">
       <c r="E1166" s="43"/>
     </row>
-    <row r="1183" spans="5:5">
-      <c r="E1183" s="43"/>
-    </row>
-    <row r="1200" spans="5:5">
-      <c r="E1200" s="43"/>
-    </row>
-    <row r="1217" spans="5:7">
-      <c r="E1217" s="43"/>
-    </row>
-    <row r="1227" spans="5:7">
-      <c r="G1227" s="43"/>
-    </row>
-    <row r="1228" spans="5:7">
-      <c r="G1228" s="43"/>
-    </row>
-    <row r="1229" spans="5:7">
-      <c r="G1229" s="43"/>
-    </row>
-    <row r="1230" spans="5:7">
-      <c r="G1230" s="43"/>
-    </row>
-    <row r="1231" spans="5:7">
-      <c r="G1231" s="43"/>
-    </row>
-    <row r="1232" spans="5:7">
-      <c r="G1232" s="43"/>
-    </row>
-    <row r="1233" spans="5:7">
-      <c r="G1233" s="43"/>
-    </row>
-    <row r="1234" spans="5:7">
-      <c r="G1234" s="43"/>
-    </row>
-    <row r="1235" spans="5:7">
-      <c r="G1235" s="43"/>
-    </row>
-    <row r="1236" spans="5:7">
-      <c r="G1236" s="43"/>
-    </row>
-    <row r="1237" spans="5:7">
-      <c r="G1237" s="43"/>
-    </row>
-    <row r="1238" spans="5:7">
-      <c r="G1238" s="43"/>
-    </row>
-    <row r="1239" spans="5:7">
-      <c r="G1239" s="43"/>
-    </row>
-    <row r="1240" spans="5:7">
-      <c r="E1240" s="43"/>
-      <c r="G1240" s="43"/>
-    </row>
-    <row r="1261" spans="5:5">
-      <c r="E1261" s="43"/>
-    </row>
-    <row r="1276" spans="5:5">
-      <c r="E1276" s="43"/>
-    </row>
-    <row r="1291" spans="5:5">
-      <c r="E1291" s="43"/>
-    </row>
-    <row r="1306" spans="5:5">
-      <c r="E1306" s="43"/>
+    <row r="1167" spans="5:5">
+      <c r="E1167" s="43"/>
+    </row>
+    <row r="1168" spans="5:5">
+      <c r="E1168" s="43"/>
+    </row>
+    <row r="1169" spans="5:5">
+      <c r="E1169" s="43"/>
+    </row>
+    <row r="1170" spans="5:5">
+      <c r="E1170" s="43"/>
+    </row>
+    <row r="1171" spans="5:5">
+      <c r="E1171" s="43"/>
+    </row>
+    <row r="1172" spans="5:5">
+      <c r="E1172" s="43"/>
+    </row>
+    <row r="1173" spans="5:5">
+      <c r="E1173" s="43"/>
+    </row>
+    <row r="1174" spans="5:5">
+      <c r="E1174" s="43"/>
+    </row>
+    <row r="1175" spans="5:5">
+      <c r="E1175" s="43"/>
+    </row>
+    <row r="1176" spans="5:5">
+      <c r="E1176" s="43"/>
+    </row>
+    <row r="1177" spans="5:5">
+      <c r="E1177" s="43"/>
+    </row>
+    <row r="1186" spans="5:5">
+      <c r="E1186" s="43"/>
+    </row>
+    <row r="1203" spans="5:5">
+      <c r="E1203" s="43"/>
+    </row>
+    <row r="1220" spans="5:5">
+      <c r="E1220" s="43"/>
+    </row>
+    <row r="1237" spans="5:5">
+      <c r="E1237" s="43"/>
+    </row>
+    <row r="1254" spans="5:5">
+      <c r="E1254" s="43"/>
+    </row>
+    <row r="1271" spans="5:5">
+      <c r="E1271" s="43"/>
+    </row>
+    <row r="1288" spans="5:5">
+      <c r="E1288" s="43"/>
+    </row>
+    <row r="1305" spans="5:5">
+      <c r="E1305" s="43"/>
     </row>
     <row r="1322" spans="5:5">
       <c r="E1322" s="43"/>
     </row>
-    <row r="1330" spans="5:7">
-      <c r="E1330" s="43"/>
-    </row>
-    <row r="1339" spans="5:7">
-      <c r="G1339" s="43"/>
-    </row>
-    <row r="1340" spans="5:7">
-      <c r="G1340" s="43"/>
-    </row>
-    <row r="1341" spans="5:7">
-      <c r="G1341" s="43"/>
-    </row>
-    <row r="1342" spans="5:7">
-      <c r="G1342" s="43"/>
-    </row>
-    <row r="1343" spans="5:7">
-      <c r="G1343" s="43"/>
-    </row>
-    <row r="1344" spans="5:7">
-      <c r="G1344" s="43"/>
-    </row>
-    <row r="1345" spans="5:7">
-      <c r="G1345" s="43"/>
-    </row>
-    <row r="1346" spans="5:7">
-      <c r="G1346" s="43"/>
-    </row>
-    <row r="1347" spans="5:7">
-      <c r="G1347" s="43"/>
-    </row>
-    <row r="1348" spans="5:7">
-      <c r="G1348" s="43"/>
-    </row>
-    <row r="1349" spans="5:7">
-      <c r="G1349" s="43"/>
-    </row>
-    <row r="1350" spans="5:7">
-      <c r="G1350" s="43"/>
-    </row>
-    <row r="1351" spans="5:7">
-      <c r="G1351" s="43"/>
-    </row>
-    <row r="1352" spans="5:7">
-      <c r="G1352" s="43"/>
-    </row>
-    <row r="1353" spans="5:7">
-      <c r="G1353" s="43"/>
-    </row>
-    <row r="1354" spans="5:7">
-      <c r="G1354" s="43"/>
-    </row>
-    <row r="1355" spans="5:7">
-      <c r="G1355" s="43"/>
-    </row>
-    <row r="1356" spans="5:7">
-      <c r="G1356" s="43"/>
-    </row>
-    <row r="1357" spans="5:7">
-      <c r="G1357" s="43"/>
-    </row>
-    <row r="1358" spans="5:7">
-      <c r="E1358" s="43"/>
-      <c r="G1358" s="43"/>
-    </row>
-    <row r="1366" spans="5:5">
-      <c r="E1366" s="43"/>
+    <row r="1339" spans="5:5">
+      <c r="E1339" s="43"/>
+    </row>
+    <row r="1356" spans="5:5">
+      <c r="E1356" s="43"/>
     </row>
     <row r="1373" spans="5:5">
       <c r="E1373" s="43"/>
+    </row>
+    <row r="1390" spans="5:5">
+      <c r="E1390" s="43"/>
+    </row>
+    <row r="1407" spans="5:5">
+      <c r="E1407" s="43"/>
+    </row>
+    <row r="1424" spans="5:5">
+      <c r="E1424" s="43"/>
+    </row>
+    <row r="1441" spans="5:7">
+      <c r="E1441" s="43"/>
+    </row>
+    <row r="1451" spans="5:7">
+      <c r="G1451" s="43"/>
+    </row>
+    <row r="1452" spans="5:7">
+      <c r="G1452" s="43"/>
+    </row>
+    <row r="1453" spans="5:7">
+      <c r="G1453" s="43"/>
+    </row>
+    <row r="1454" spans="5:7">
+      <c r="G1454" s="43"/>
+    </row>
+    <row r="1455" spans="5:7">
+      <c r="G1455" s="43"/>
+    </row>
+    <row r="1456" spans="5:7">
+      <c r="G1456" s="43"/>
+    </row>
+    <row r="1457" spans="5:7">
+      <c r="G1457" s="43"/>
+    </row>
+    <row r="1458" spans="5:7">
+      <c r="G1458" s="43"/>
+    </row>
+    <row r="1459" spans="5:7">
+      <c r="G1459" s="43"/>
+    </row>
+    <row r="1460" spans="5:7">
+      <c r="G1460" s="43"/>
+    </row>
+    <row r="1461" spans="5:7">
+      <c r="G1461" s="43"/>
+    </row>
+    <row r="1462" spans="5:7">
+      <c r="G1462" s="43"/>
+    </row>
+    <row r="1463" spans="5:7">
+      <c r="G1463" s="43"/>
+    </row>
+    <row r="1464" spans="5:7">
+      <c r="E1464" s="43"/>
+      <c r="G1464" s="43"/>
+    </row>
+    <row r="1485" spans="5:5">
+      <c r="E1485" s="43"/>
+    </row>
+    <row r="1500" spans="5:5">
+      <c r="E1500" s="43"/>
+    </row>
+    <row r="1515" spans="5:5">
+      <c r="E1515" s="43"/>
+    </row>
+    <row r="1530" spans="5:5">
+      <c r="E1530" s="43"/>
+    </row>
+    <row r="1546" spans="5:5">
+      <c r="E1546" s="43"/>
+    </row>
+    <row r="1554" spans="5:7">
+      <c r="E1554" s="43"/>
+    </row>
+    <row r="1563" spans="5:7">
+      <c r="G1563" s="43"/>
+    </row>
+    <row r="1564" spans="5:7">
+      <c r="G1564" s="43"/>
+    </row>
+    <row r="1565" spans="5:7">
+      <c r="G1565" s="43"/>
+    </row>
+    <row r="1566" spans="5:7">
+      <c r="G1566" s="43"/>
+    </row>
+    <row r="1567" spans="5:7">
+      <c r="G1567" s="43"/>
+    </row>
+    <row r="1568" spans="5:7">
+      <c r="G1568" s="43"/>
+    </row>
+    <row r="1569" spans="5:7">
+      <c r="G1569" s="43"/>
+    </row>
+    <row r="1570" spans="5:7">
+      <c r="G1570" s="43"/>
+    </row>
+    <row r="1571" spans="5:7">
+      <c r="G1571" s="43"/>
+    </row>
+    <row r="1572" spans="5:7">
+      <c r="G1572" s="43"/>
+    </row>
+    <row r="1573" spans="5:7">
+      <c r="G1573" s="43"/>
+    </row>
+    <row r="1574" spans="5:7">
+      <c r="G1574" s="43"/>
+    </row>
+    <row r="1575" spans="5:7">
+      <c r="G1575" s="43"/>
+    </row>
+    <row r="1576" spans="5:7">
+      <c r="G1576" s="43"/>
+    </row>
+    <row r="1577" spans="5:7">
+      <c r="G1577" s="43"/>
+    </row>
+    <row r="1578" spans="5:7">
+      <c r="G1578" s="43"/>
+    </row>
+    <row r="1579" spans="5:7">
+      <c r="G1579" s="43"/>
+    </row>
+    <row r="1580" spans="5:7">
+      <c r="G1580" s="43"/>
+    </row>
+    <row r="1581" spans="5:7">
+      <c r="G1581" s="43"/>
+    </row>
+    <row r="1582" spans="5:7">
+      <c r="E1582" s="43"/>
+      <c r="G1582" s="43"/>
+    </row>
+    <row r="1590" spans="5:5">
+      <c r="E1590" s="43"/>
+    </row>
+    <row r="1597" spans="5:5">
+      <c r="E1597" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14192,13 +19611,13 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B15" t="s">
         <v>392</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:3">

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426C7B62-8FA7-4FFE-85D7-FFAA20AD23BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A68CE1B-6E76-46CB-8238-63A315C339A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4312" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4315" uniqueCount="1115">
   <si>
     <t>Name</t>
   </si>
@@ -3454,8 +3454,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-October-24</t>
+      <t>2025-October-30</t>
     </r>
+  </si>
+  <si>
+    <t>None yet - will you help?</t>
   </si>
 </sst>
 </file>
@@ -28208,7 +28211,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01DEE13-8567-47C0-98EF-B4590CF5D2FE}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -28296,38 +28299,49 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>1110</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>1111</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="26"/>
-    </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="29"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="27"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="27"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="28"/>
+      <c r="A18" s="26"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="29"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="27"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="14"/>
+      <c r="A30" s="28"/>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="14"/>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="14"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28338,7 +28352,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787D0651-AC56-4C79-A3A0-381B16C48D1E}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -28470,13 +28484,13 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>390</v>
+        <v>239</v>
       </c>
       <c r="B15" t="s">
-        <v>391</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>392</v>
+        <v>240</v>
+      </c>
+      <c r="C15" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -28484,21 +28498,21 @@
         <v>239</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -28506,40 +28520,29 @@
         <v>244</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>244</v>
-      </c>
-      <c r="B19" t="s">
-        <v>266</v>
-      </c>
-      <c r="C19" t="s">
         <v>267</v>
       </c>
     </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="26"/>
+    </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="26"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="29"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="27"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="27"/>
+      <c r="A21" s="29"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="27"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="27"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="28"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="28"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="14"/>
+      <c r="A33" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -28553,7 +28556,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A573D68B-1AAE-4BC8-8AFB-376F0F39C320}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -28658,6 +28661,18 @@
         <v>302</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D12" s="42"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" xr:uid="{7FCD58C5-206F-4753-A888-48FAAA20D03C}"/>

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C1A337-BEE4-4950-BCE7-EB4E504504D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA8F739-3BB1-408C-9D50-574B3AA4D5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7026" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7022" uniqueCount="1550">
   <si>
     <t>Name</t>
   </si>
@@ -3446,6 +3446,1311 @@
 Compatible part-number: MOS 251064-01</t>
   </si>
   <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_17_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_18_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_19_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_20_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_21_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_22_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_23_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_24_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_25_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_26_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_27_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_28_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_29_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_30_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_31_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_32_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_33_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_34_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_35_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_36_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_37_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_38_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_39_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U1_40_NTSC.png</t>
+  </si>
+  <si>
+    <t>4.7V (+5VDC power rail)</t>
+  </si>
+  <si>
+    <t>1.02273 MHz</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_17_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_18_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_19_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_20_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_21_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_22_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_23_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_24_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_25_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_26_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_27_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_28_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_29_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_30_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_31_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_32_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_33_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_34_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_35_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_36_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_37_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_38_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_39_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U2_40_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_17_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_18_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_19_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_20_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_21_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_22_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_23_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U3_24_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>4.8V (+5VDC power rail)</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_17_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_18_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_19_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_20_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_21_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_22_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_23_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U4_24_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_17_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_18_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_19_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_20_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_21_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_22_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_23_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U5_24_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_17_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U6_18_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_17_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_18_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_19_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_20_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_21_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_22_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_23_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_24_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_25_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_26_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_27_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_28_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_29_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_30_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_31_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_32_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_33_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_34_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_35_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_36_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_37_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_38_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_39_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U7_40_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U8_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U13_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U13_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U13_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U13_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U13_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U13_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U13_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U13_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U13_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U13_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U13_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U13_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U13_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U13_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U13_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U13_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U14_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U14_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U14_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U14_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U14_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U14_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U14_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U14_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U14_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U14_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U14_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U14_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U14_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U14_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U14_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U14_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U15_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U15_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U15_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U15_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U15_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U15_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U15_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U15_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U15_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U15_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U15_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U15_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U15_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U15_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U15_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U16_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U16_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U16_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U16_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U16_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U16_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U16_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U16_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U16_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U16_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U16_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U16_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U16_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U16_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_17_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_18_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_19_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_20_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_21_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_22_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_23_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_24_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_25_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_26_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_27_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U17_28_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_17_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_18_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_19_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_20_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_21_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_22_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_23_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_24_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_25_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_26_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_27_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U18_28_NTSC.png</t>
+  </si>
+  <si>
+    <t>12.2V (+12VDC power rail)</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_17_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_18_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_19_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_20_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_21_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_22_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_23_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_24_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_25_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_26_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_27_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_28_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_29_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_30_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_31_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_32_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_33_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_34_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_35_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_36_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_37_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_38_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_39_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U19_40_NTSC.png</t>
+  </si>
+  <si>
+    <t>8.18182 MHz</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U20_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U20_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U20_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U20_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U20_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U20_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U20_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U20_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U20_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U20_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U20_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U20_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U20_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U20_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U15_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>WE HAVE A DIFF</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U25_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U25_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U25_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U25_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U25_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U25_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U25_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U25_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U25_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U25_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U25_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U25_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U25_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U25_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U25_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U25_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>14.3182 MHz</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -3458,1313 +4763,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-November-11</t>
+      <t>2025-November-20</t>
     </r>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_16_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_17_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_18_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_19_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_20_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_21_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_22_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_23_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_24_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_25_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_26_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_27_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_28_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_29_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_30_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_31_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_32_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_33_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_34_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_35_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_36_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_37_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_38_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_39_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U1_40_NTSC.png</t>
-  </si>
-  <si>
-    <t>4.7V (+5VDC power rail)</t>
-  </si>
-  <si>
-    <t>1.02273 MHz</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_16_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_17_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_18_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_19_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_20_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_21_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_22_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_23_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_24_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_25_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_26_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_27_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_28_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_29_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_30_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_31_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_32_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_33_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_34_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_35_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_36_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_37_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_38_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_39_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U2_40_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_16_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_17_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_18_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_19_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_20_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_21_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_22_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_23_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U3_24_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>4.8V (+5VDC power rail)</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_16_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_17_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_18_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_19_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_20_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_21_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_22_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_23_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U4_24_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_16_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_17_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_18_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_19_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_20_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_21_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_22_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_23_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U5_24_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_16_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_17_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U6_18_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_16_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_17_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_18_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_19_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_20_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_21_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_22_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_23_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_24_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_25_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_26_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_27_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_28_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_29_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_30_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_31_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_32_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_33_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_34_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_35_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_36_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_37_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_38_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_39_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U7_40_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U8_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U8_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U8_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U8_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U8_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U8_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U8_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U8_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U8_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U8_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U8_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U8_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U8_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U8_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U9-U12_U21-U24_16_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U13_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U13_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U13_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U13_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U13_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U13_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U13_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U13_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U13_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U13_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U13_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U13_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U13_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U13_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U13_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U13_16_NTSC.png</t>
-  </si>
-  <si>
-    <t>HERE WE HAVE A DIFF</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U14_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U14_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U14_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U14_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U14_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U14_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U14_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U14_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U14_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U14_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U14_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U14_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U14_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U14_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U14_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U14_16_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U15_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U15_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U15_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U15_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U15_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U15_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U15_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U15_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U15_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U15_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U15_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U15_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U15_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U15_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U15_16_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U16_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U16_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U16_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U16_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U16_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U16_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U16_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U16_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U16_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U16_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U16_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U16_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U16_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U16_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_16_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_17_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_18_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_19_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_20_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_21_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_22_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_23_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_24_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_25_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_26_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_27_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U17_28_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_16_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_17_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_18_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_19_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_20_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_21_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_22_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_23_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_24_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_25_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_26_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_27_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U18_28_NTSC.png</t>
-  </si>
-  <si>
-    <t>12.2V (+12VDC power rail)</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_16_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_17_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_18_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_19_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_20_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_21_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_22_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_23_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_24_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_25_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_26_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_27_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_28_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_29_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_30_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_31_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_32_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_33_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_34_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_35_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_36_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_37_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_38_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_39_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U19_40_NTSC.png</t>
-  </si>
-  <si>
-    <t>8.18182 MHz</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U20_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U20_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U20_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U20_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U20_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U20_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U20_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U20_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U20_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U20_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U20_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U20_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U20_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U20_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U15_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>WE HAVE A DIFF</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U25_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U25_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U25_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U25_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U25_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U25_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U25_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U25_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U25_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U25_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U25_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U25_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U25_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U25_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U25_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U25_16_NTSC.png</t>
   </si>
 </sst>
 </file>
@@ -5040,11 +5040,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>1114</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5437,12 +5437,12 @@
         <v>291</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="28.8">
       <c r="A9" s="22" t="s">
@@ -8093,10 +8093,10 @@
   <dimension ref="A1:I2517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B1120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B880" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D1124" sqref="D1124"/>
+      <selection pane="bottomRight" activeCell="E890" sqref="E890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8364,7 +8364,7 @@
         <v>393</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -8404,7 +8404,7 @@
         <v>395</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -8444,7 +8444,7 @@
         <v>395</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -8484,7 +8484,7 @@
         <v>395</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -8524,7 +8524,7 @@
         <v>395</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -8564,7 +8564,7 @@
         <v>395</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -8604,7 +8604,7 @@
         <v>395</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -8644,7 +8644,7 @@
         <v>395</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -8684,7 +8684,7 @@
         <v>403</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -8724,7 +8724,7 @@
         <v>405</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -8764,7 +8764,7 @@
         <v>405</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -8804,7 +8804,7 @@
         <v>405</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8844,7 +8844,7 @@
         <v>405</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8884,7 +8884,7 @@
         <v>405</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8924,7 +8924,7 @@
         <v>405</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8964,7 +8964,7 @@
         <v>405</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9004,7 +9004,7 @@
         <v>405</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -9044,7 +9044,7 @@
         <v>395</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9084,7 +9084,7 @@
         <v>395</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -9121,10 +9121,10 @@
         <v>415</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9164,7 +9164,7 @@
         <v>395</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9204,7 +9204,7 @@
         <v>395</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -9244,7 +9244,7 @@
         <v>395</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9284,7 +9284,7 @@
         <v>405</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -9321,10 +9321,10 @@
         <v>421</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -9364,7 +9364,7 @@
         <v>395</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -9404,7 +9404,7 @@
         <v>395</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -9444,7 +9444,7 @@
         <v>395</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -9484,7 +9484,7 @@
         <v>395</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -9524,7 +9524,7 @@
         <v>395</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -9564,7 +9564,7 @@
         <v>395</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -9604,7 +9604,7 @@
         <v>395</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -9644,7 +9644,7 @@
         <v>395</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -9684,7 +9684,7 @@
         <v>405</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -9724,7 +9724,7 @@
         <v>395</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -9764,7 +9764,7 @@
         <v>395</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -9804,7 +9804,7 @@
         <v>395</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9844,7 +9844,7 @@
         <v>395</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9884,7 +9884,7 @@
         <v>405</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -9924,7 +9924,7 @@
         <v>405</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="158.4">
@@ -9980,7 +9980,7 @@
         <v>393</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -10020,7 +10020,7 @@
         <v>405</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -10060,7 +10060,7 @@
         <v>405</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -10100,7 +10100,7 @@
         <v>405</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -10140,7 +10140,7 @@
         <v>403</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -10180,7 +10180,7 @@
         <v>405</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -10220,7 +10220,7 @@
         <v>403</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -10260,7 +10260,7 @@
         <v>403</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -10300,7 +10300,7 @@
         <v>405</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -10340,7 +10340,7 @@
         <v>405</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -10380,7 +10380,7 @@
         <v>405</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -10420,7 +10420,7 @@
         <v>405</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -10460,7 +10460,7 @@
         <v>405</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -10500,7 +10500,7 @@
         <v>405</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -10540,7 +10540,7 @@
         <v>405</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -10580,7 +10580,7 @@
         <v>405</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -10620,7 +10620,7 @@
         <v>405</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -10660,7 +10660,7 @@
         <v>405</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -10700,7 +10700,7 @@
         <v>395</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -10737,10 +10737,10 @@
         <v>415</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -10780,7 +10780,7 @@
         <v>405</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -10820,7 +10820,7 @@
         <v>395</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -10860,7 +10860,7 @@
         <v>405</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -10900,7 +10900,7 @@
         <v>405</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -10937,10 +10937,10 @@
         <v>421</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -10980,7 +10980,7 @@
         <v>395</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -11020,7 +11020,7 @@
         <v>395</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -11060,7 +11060,7 @@
         <v>395</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -11100,7 +11100,7 @@
         <v>395</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -11140,7 +11140,7 @@
         <v>395</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -11180,7 +11180,7 @@
         <v>395</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -11220,7 +11220,7 @@
         <v>395</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -11260,7 +11260,7 @@
         <v>395</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -11300,7 +11300,7 @@
         <v>405</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -11340,7 +11340,7 @@
         <v>395</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -11380,7 +11380,7 @@
         <v>395</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -11420,7 +11420,7 @@
         <v>395</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -11460,7 +11460,7 @@
         <v>395</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -11500,7 +11500,7 @@
         <v>405</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -11540,7 +11540,7 @@
         <v>405</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="28.8">
@@ -11596,7 +11596,7 @@
         <v>395</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -11636,7 +11636,7 @@
         <v>395</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -11676,7 +11676,7 @@
         <v>395</v>
       </c>
       <c r="F186" s="14" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -11716,7 +11716,7 @@
         <v>395</v>
       </c>
       <c r="F188" s="14" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -11756,7 +11756,7 @@
         <v>395</v>
       </c>
       <c r="F190" s="14" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -11796,7 +11796,7 @@
         <v>395</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -11836,7 +11836,7 @@
         <v>395</v>
       </c>
       <c r="F194" s="14" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -11876,7 +11876,7 @@
         <v>395</v>
       </c>
       <c r="F196" s="14" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -11916,7 +11916,7 @@
         <v>395</v>
       </c>
       <c r="F198" s="14" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -11956,7 +11956,7 @@
         <v>395</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -11996,7 +11996,7 @@
         <v>395</v>
       </c>
       <c r="F202" s="14" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -12036,7 +12036,7 @@
         <v>393</v>
       </c>
       <c r="F204" s="14" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -12076,7 +12076,7 @@
         <v>395</v>
       </c>
       <c r="F206" s="14" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -12116,7 +12116,7 @@
         <v>395</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -12156,7 +12156,7 @@
         <v>395</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -12196,7 +12196,7 @@
         <v>395</v>
       </c>
       <c r="F212" s="14" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -12236,7 +12236,7 @@
         <v>395</v>
       </c>
       <c r="F214" s="14" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -12276,7 +12276,7 @@
         <v>395</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -12316,7 +12316,7 @@
         <v>395</v>
       </c>
       <c r="F218" s="14" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -12356,7 +12356,7 @@
         <v>405</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -12396,7 +12396,7 @@
         <v>395</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -12436,7 +12436,7 @@
         <v>395</v>
       </c>
       <c r="F224" s="14" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -12476,7 +12476,7 @@
         <v>395</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -12513,10 +12513,10 @@
         <v>415</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F228" s="14" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="28.8">
@@ -12572,7 +12572,7 @@
         <v>395</v>
       </c>
       <c r="F231" s="14" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -12612,7 +12612,7 @@
         <v>395</v>
       </c>
       <c r="F233" s="14" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -12652,7 +12652,7 @@
         <v>395</v>
       </c>
       <c r="F235" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -12692,7 +12692,7 @@
         <v>395</v>
       </c>
       <c r="F237" s="14" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -12732,7 +12732,7 @@
         <v>395</v>
       </c>
       <c r="F239" s="14" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -12772,7 +12772,7 @@
         <v>395</v>
       </c>
       <c r="F241" s="14" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -12812,7 +12812,7 @@
         <v>395</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -12852,7 +12852,7 @@
         <v>395</v>
       </c>
       <c r="F245" s="14" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -12892,7 +12892,7 @@
         <v>395</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -12932,7 +12932,7 @@
         <v>395</v>
       </c>
       <c r="F249" s="14" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -12972,7 +12972,7 @@
         <v>395</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -13012,7 +13012,7 @@
         <v>393</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -13052,7 +13052,7 @@
         <v>395</v>
       </c>
       <c r="F255" s="14" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -13092,7 +13092,7 @@
         <v>395</v>
       </c>
       <c r="F257" s="14" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -13132,7 +13132,7 @@
         <v>395</v>
       </c>
       <c r="F259" s="14" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -13172,7 +13172,7 @@
         <v>395</v>
       </c>
       <c r="F261" s="14" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -13212,7 +13212,7 @@
         <v>395</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -13252,7 +13252,7 @@
         <v>395</v>
       </c>
       <c r="F265" s="14" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -13292,7 +13292,7 @@
         <v>395</v>
       </c>
       <c r="F267" s="14" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -13332,7 +13332,7 @@
         <v>395</v>
       </c>
       <c r="F269" s="14" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -13372,7 +13372,7 @@
         <v>395</v>
       </c>
       <c r="F271" s="14" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -13412,7 +13412,7 @@
         <v>395</v>
       </c>
       <c r="F273" s="14" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -13452,7 +13452,7 @@
         <v>395</v>
       </c>
       <c r="F275" s="14" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -13489,10 +13489,10 @@
         <v>415</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="72">
@@ -13548,7 +13548,7 @@
         <v>395</v>
       </c>
       <c r="F280" s="14" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -13588,7 +13588,7 @@
         <v>395</v>
       </c>
       <c r="F282" s="14" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -13628,7 +13628,7 @@
         <v>395</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -13668,7 +13668,7 @@
         <v>395</v>
       </c>
       <c r="F286" s="14" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -13708,7 +13708,7 @@
         <v>395</v>
       </c>
       <c r="F288" s="14" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -13748,7 +13748,7 @@
         <v>395</v>
       </c>
       <c r="F290" s="14" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -13788,7 +13788,7 @@
         <v>395</v>
       </c>
       <c r="F292" s="14" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -13828,7 +13828,7 @@
         <v>395</v>
       </c>
       <c r="F294" s="14" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -13868,7 +13868,7 @@
         <v>395</v>
       </c>
       <c r="F296" s="14" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -13908,7 +13908,7 @@
         <v>395</v>
       </c>
       <c r="F298" s="14" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -13948,7 +13948,7 @@
         <v>395</v>
       </c>
       <c r="F300" s="14" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -13988,7 +13988,7 @@
         <v>393</v>
       </c>
       <c r="F302" s="14" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -14028,7 +14028,7 @@
         <v>395</v>
       </c>
       <c r="F304" s="14" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -14068,7 +14068,7 @@
         <v>395</v>
       </c>
       <c r="F306" s="14" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -14108,7 +14108,7 @@
         <v>395</v>
       </c>
       <c r="F308" s="14" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -14148,7 +14148,7 @@
         <v>395</v>
       </c>
       <c r="F310" s="14" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -14188,7 +14188,7 @@
         <v>395</v>
       </c>
       <c r="F312" s="14" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -14228,7 +14228,7 @@
         <v>395</v>
       </c>
       <c r="F314" s="14" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -14268,7 +14268,7 @@
         <v>395</v>
       </c>
       <c r="F316" s="14" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -14308,7 +14308,7 @@
         <v>395</v>
       </c>
       <c r="F318" s="14" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -14348,7 +14348,7 @@
         <v>405</v>
       </c>
       <c r="F320" s="14" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -14388,7 +14388,7 @@
         <v>395</v>
       </c>
       <c r="F322" s="14" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -14428,7 +14428,7 @@
         <v>395</v>
       </c>
       <c r="F324" s="14" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -14465,10 +14465,10 @@
         <v>415</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F326" s="14" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="28.8">
@@ -14524,7 +14524,7 @@
         <v>395</v>
       </c>
       <c r="F329" s="14" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -14564,7 +14564,7 @@
         <v>395</v>
       </c>
       <c r="F331" s="14" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -14604,7 +14604,7 @@
         <v>395</v>
       </c>
       <c r="F333" s="14" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -14644,7 +14644,7 @@
         <v>395</v>
       </c>
       <c r="F335" s="14" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -14684,7 +14684,7 @@
         <v>395</v>
       </c>
       <c r="F337" s="14" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -14724,7 +14724,7 @@
         <v>395</v>
       </c>
       <c r="F339" s="14" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -14764,7 +14764,7 @@
         <v>395</v>
       </c>
       <c r="F341" s="14" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -14804,7 +14804,7 @@
         <v>395</v>
       </c>
       <c r="F343" s="14" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -14844,7 +14844,7 @@
         <v>393</v>
       </c>
       <c r="F345" s="14" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -14884,7 +14884,7 @@
         <v>395</v>
       </c>
       <c r="F347" s="14" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -14924,7 +14924,7 @@
         <v>395</v>
       </c>
       <c r="F349" s="14" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -14964,7 +14964,7 @@
         <v>395</v>
       </c>
       <c r="F351" s="14" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -15004,7 +15004,7 @@
         <v>395</v>
       </c>
       <c r="F353" s="14" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -15044,7 +15044,7 @@
         <v>395</v>
       </c>
       <c r="F355" s="14" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -15084,7 +15084,7 @@
         <v>395</v>
       </c>
       <c r="F357" s="14" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -15124,7 +15124,7 @@
         <v>395</v>
       </c>
       <c r="F359" s="14" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -15164,7 +15164,7 @@
         <v>395</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -15201,10 +15201,10 @@
         <v>415</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F363" s="14" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -15260,10 +15260,10 @@
         <v>621</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F366" s="14" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G366" s="1" t="s">
         <v>622</v>
@@ -15306,7 +15306,7 @@
         <v>395</v>
       </c>
       <c r="F368" s="14" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -15346,7 +15346,7 @@
         <v>395</v>
       </c>
       <c r="F370" s="14" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -15386,7 +15386,7 @@
         <v>405</v>
       </c>
       <c r="F372" s="14" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -15426,7 +15426,7 @@
         <v>395</v>
       </c>
       <c r="F374" s="14" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -15463,10 +15463,10 @@
         <v>415</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F376" s="14" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -15506,7 +15506,7 @@
         <v>395</v>
       </c>
       <c r="F378" s="14" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -15546,7 +15546,7 @@
         <v>395</v>
       </c>
       <c r="F380" s="14" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -15586,7 +15586,7 @@
         <v>395</v>
       </c>
       <c r="F382" s="14" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -15626,7 +15626,7 @@
         <v>395</v>
       </c>
       <c r="F384" s="14" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -15666,7 +15666,7 @@
         <v>395</v>
       </c>
       <c r="F386" s="14" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -15706,7 +15706,7 @@
         <v>395</v>
       </c>
       <c r="F388" s="14" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -15746,7 +15746,7 @@
         <v>395</v>
       </c>
       <c r="F390" s="14" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -15786,7 +15786,7 @@
         <v>395</v>
       </c>
       <c r="F392" s="14" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -15826,7 +15826,7 @@
         <v>395</v>
       </c>
       <c r="F394" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -15866,7 +15866,7 @@
         <v>395</v>
       </c>
       <c r="F396" s="14" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -15906,7 +15906,7 @@
         <v>395</v>
       </c>
       <c r="F398" s="14" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -15946,7 +15946,7 @@
         <v>395</v>
       </c>
       <c r="F400" s="14" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -15986,7 +15986,7 @@
         <v>395</v>
       </c>
       <c r="F402" s="14" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -16026,7 +16026,7 @@
         <v>395</v>
       </c>
       <c r="F404" s="14" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -16066,7 +16066,7 @@
         <v>393</v>
       </c>
       <c r="F406" s="14" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -16106,7 +16106,7 @@
         <v>395</v>
       </c>
       <c r="F408" s="14" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -16146,7 +16146,7 @@
         <v>395</v>
       </c>
       <c r="F410" s="14" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -16186,7 +16186,7 @@
         <v>405</v>
       </c>
       <c r="F412" s="14" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -16226,7 +16226,7 @@
         <v>405</v>
       </c>
       <c r="F414" s="14" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -16266,7 +16266,7 @@
         <v>403</v>
       </c>
       <c r="F416" s="14" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -16306,7 +16306,7 @@
         <v>405</v>
       </c>
       <c r="F418" s="14" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -16346,7 +16346,7 @@
         <v>405</v>
       </c>
       <c r="F420" s="14" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -16386,7 +16386,7 @@
         <v>405</v>
       </c>
       <c r="F422" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -16426,7 +16426,7 @@
         <v>395</v>
       </c>
       <c r="F424" s="14" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -16466,7 +16466,7 @@
         <v>395</v>
       </c>
       <c r="F426" s="14" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -16506,7 +16506,7 @@
         <v>395</v>
       </c>
       <c r="F428" s="14" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -16546,7 +16546,7 @@
         <v>395</v>
       </c>
       <c r="F430" s="14" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -16586,7 +16586,7 @@
         <v>395</v>
       </c>
       <c r="F432" s="14" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -16626,7 +16626,7 @@
         <v>395</v>
       </c>
       <c r="F434" s="14" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -16666,7 +16666,7 @@
         <v>395</v>
       </c>
       <c r="F436" s="14" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -16706,7 +16706,7 @@
         <v>395</v>
       </c>
       <c r="F438" s="14" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -16746,7 +16746,7 @@
         <v>395</v>
       </c>
       <c r="F440" s="14" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -16786,10 +16786,10 @@
         <v>421</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F442" s="14" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G442" s="1" t="s">
         <v>635</v>
@@ -16832,7 +16832,7 @@
         <v>405</v>
       </c>
       <c r="F444" s="14" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -16888,7 +16888,7 @@
         <v>403</v>
       </c>
       <c r="F447" s="14" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -16928,7 +16928,7 @@
         <v>405</v>
       </c>
       <c r="F449" s="14" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -16968,7 +16968,7 @@
         <v>395</v>
       </c>
       <c r="F451" s="14" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -17008,7 +17008,7 @@
         <v>395</v>
       </c>
       <c r="F453" s="14" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -17048,7 +17048,7 @@
         <v>403</v>
       </c>
       <c r="F455" s="14" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -17088,7 +17088,7 @@
         <v>405</v>
       </c>
       <c r="F457" s="14" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -17128,7 +17128,7 @@
         <v>393</v>
       </c>
       <c r="F459" s="14" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -17168,7 +17168,7 @@
         <v>405</v>
       </c>
       <c r="F461" s="14" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -17208,7 +17208,7 @@
         <v>403</v>
       </c>
       <c r="F463" s="14" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -17248,7 +17248,7 @@
         <v>403</v>
       </c>
       <c r="F465" s="14" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -17288,7 +17288,7 @@
         <v>405</v>
       </c>
       <c r="F467" s="14" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -17328,7 +17328,7 @@
         <v>405</v>
       </c>
       <c r="F469" s="14" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -17368,7 +17368,7 @@
         <v>403</v>
       </c>
       <c r="F471" s="14" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -17405,10 +17405,10 @@
         <v>415</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F473" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="474" spans="1:7" ht="72">
@@ -17464,7 +17464,7 @@
         <v>704</v>
       </c>
       <c r="F476" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -17504,7 +17504,7 @@
         <v>395</v>
       </c>
       <c r="F478" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -17544,7 +17544,7 @@
         <v>395</v>
       </c>
       <c r="F480" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -17584,7 +17584,7 @@
         <v>395</v>
       </c>
       <c r="F482" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -17624,7 +17624,7 @@
         <v>395</v>
       </c>
       <c r="F484" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -17664,7 +17664,7 @@
         <v>395</v>
       </c>
       <c r="F486" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -17704,7 +17704,7 @@
         <v>395</v>
       </c>
       <c r="F488" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -17741,10 +17741,10 @@
         <v>415</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F490" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -17784,7 +17784,7 @@
         <v>395</v>
       </c>
       <c r="F492" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -17824,7 +17824,7 @@
         <v>395</v>
       </c>
       <c r="F494" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -17864,7 +17864,7 @@
         <v>395</v>
       </c>
       <c r="F496" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -17904,7 +17904,7 @@
         <v>395</v>
       </c>
       <c r="F498" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -17944,7 +17944,7 @@
         <v>395</v>
       </c>
       <c r="F500" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -17984,7 +17984,7 @@
         <v>395</v>
       </c>
       <c r="F502" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -18024,7 +18024,7 @@
         <v>395</v>
       </c>
       <c r="F504" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -18064,7 +18064,7 @@
         <v>393</v>
       </c>
       <c r="F506" s="14" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="507" spans="1:7" ht="72">
@@ -18120,7 +18120,7 @@
         <v>704</v>
       </c>
       <c r="F509" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -18160,7 +18160,7 @@
         <v>395</v>
       </c>
       <c r="F511" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -18200,7 +18200,7 @@
         <v>395</v>
       </c>
       <c r="F513" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="514" spans="1:6">
@@ -18240,7 +18240,7 @@
         <v>395</v>
       </c>
       <c r="F515" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="516" spans="1:6">
@@ -18280,7 +18280,7 @@
         <v>395</v>
       </c>
       <c r="F517" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="518" spans="1:6">
@@ -18320,7 +18320,7 @@
         <v>395</v>
       </c>
       <c r="F519" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -18360,7 +18360,7 @@
         <v>395</v>
       </c>
       <c r="F521" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -18397,10 +18397,10 @@
         <v>415</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F523" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -18440,7 +18440,7 @@
         <v>395</v>
       </c>
       <c r="F525" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -18480,7 +18480,7 @@
         <v>395</v>
       </c>
       <c r="F527" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -18520,7 +18520,7 @@
         <v>395</v>
       </c>
       <c r="F529" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -18560,7 +18560,7 @@
         <v>395</v>
       </c>
       <c r="F531" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -18600,7 +18600,7 @@
         <v>395</v>
       </c>
       <c r="F533" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -18640,7 +18640,7 @@
         <v>395</v>
       </c>
       <c r="F535" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -18680,7 +18680,7 @@
         <v>395</v>
       </c>
       <c r="F537" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -18720,7 +18720,7 @@
         <v>393</v>
       </c>
       <c r="F539" s="14" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="540" spans="1:7" ht="72">
@@ -18776,7 +18776,7 @@
         <v>704</v>
       </c>
       <c r="F542" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -18816,7 +18816,7 @@
         <v>395</v>
       </c>
       <c r="F544" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -18856,7 +18856,7 @@
         <v>395</v>
       </c>
       <c r="F546" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -18896,7 +18896,7 @@
         <v>395</v>
       </c>
       <c r="F548" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -18936,7 +18936,7 @@
         <v>395</v>
       </c>
       <c r="F550" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -18976,7 +18976,7 @@
         <v>395</v>
       </c>
       <c r="F552" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -19016,7 +19016,7 @@
         <v>395</v>
       </c>
       <c r="F554" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -19053,10 +19053,10 @@
         <v>415</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F556" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -19096,7 +19096,7 @@
         <v>395</v>
       </c>
       <c r="F558" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -19136,7 +19136,7 @@
         <v>395</v>
       </c>
       <c r="F560" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -19176,7 +19176,7 @@
         <v>395</v>
       </c>
       <c r="F562" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -19216,7 +19216,7 @@
         <v>395</v>
       </c>
       <c r="F564" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="565" spans="1:7">
@@ -19256,7 +19256,7 @@
         <v>395</v>
       </c>
       <c r="F566" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -19296,7 +19296,7 @@
         <v>395</v>
       </c>
       <c r="F568" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -19336,7 +19336,7 @@
         <v>395</v>
       </c>
       <c r="F570" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -19376,7 +19376,7 @@
         <v>393</v>
       </c>
       <c r="F572" s="14" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="573" spans="1:7" ht="72">
@@ -19432,7 +19432,7 @@
         <v>704</v>
       </c>
       <c r="F575" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -19472,7 +19472,7 @@
         <v>395</v>
       </c>
       <c r="F577" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="578" spans="1:6">
@@ -19512,7 +19512,7 @@
         <v>395</v>
       </c>
       <c r="F579" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -19552,7 +19552,7 @@
         <v>395</v>
       </c>
       <c r="F581" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -19592,7 +19592,7 @@
         <v>395</v>
       </c>
       <c r="F583" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -19632,7 +19632,7 @@
         <v>395</v>
       </c>
       <c r="F585" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -19672,7 +19672,7 @@
         <v>395</v>
       </c>
       <c r="F587" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -19709,10 +19709,10 @@
         <v>415</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F589" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -19752,7 +19752,7 @@
         <v>395</v>
       </c>
       <c r="F591" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -19792,7 +19792,7 @@
         <v>395</v>
       </c>
       <c r="F593" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="594" spans="1:7">
@@ -19832,7 +19832,7 @@
         <v>395</v>
       </c>
       <c r="F595" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="596" spans="1:7">
@@ -19872,7 +19872,7 @@
         <v>395</v>
       </c>
       <c r="F597" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -19912,7 +19912,7 @@
         <v>395</v>
       </c>
       <c r="F599" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="600" spans="1:7">
@@ -19952,7 +19952,7 @@
         <v>395</v>
       </c>
       <c r="F601" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="602" spans="1:7">
@@ -19992,7 +19992,7 @@
         <v>395</v>
       </c>
       <c r="F603" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -20032,7 +20032,7 @@
         <v>393</v>
       </c>
       <c r="F605" s="14" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="606" spans="1:7">
@@ -20088,7 +20088,7 @@
         <v>395</v>
       </c>
       <c r="F608" s="14" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="609" spans="1:7">
@@ -20128,7 +20128,7 @@
         <v>395</v>
       </c>
       <c r="F610" s="14" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="611" spans="1:7">
@@ -20168,7 +20168,7 @@
         <v>395</v>
       </c>
       <c r="F612" s="14" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="613" spans="1:7">
@@ -20190,9 +20190,7 @@
       <c r="F613" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="G613" s="52" t="s">
-        <v>1374</v>
-      </c>
+      <c r="G613" s="53"/>
     </row>
     <row r="614" spans="1:7">
       <c r="A614" s="14" t="s">
@@ -20211,11 +20209,9 @@
         <v>395</v>
       </c>
       <c r="F614" s="14" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G614" s="52" t="s">
-        <v>1374</v>
-      </c>
+        <v>1360</v>
+      </c>
+      <c r="G614" s="53"/>
     </row>
     <row r="615" spans="1:7">
       <c r="A615" s="14" t="s">
@@ -20236,9 +20232,7 @@
       <c r="F615" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="G615" s="52" t="s">
-        <v>1374</v>
-      </c>
+      <c r="G615" s="53"/>
     </row>
     <row r="616" spans="1:7">
       <c r="A616" s="14" t="s">
@@ -20257,11 +20251,9 @@
         <v>395</v>
       </c>
       <c r="F616" s="14" t="s">
-        <v>1362</v>
-      </c>
-      <c r="G616" s="52" t="s">
-        <v>1374</v>
-      </c>
+        <v>1361</v>
+      </c>
+      <c r="G616" s="53"/>
     </row>
     <row r="617" spans="1:7">
       <c r="A617" s="14" t="s">
@@ -20300,7 +20292,7 @@
         <v>395</v>
       </c>
       <c r="F618" s="14" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="619" spans="1:7">
@@ -20340,7 +20332,7 @@
         <v>395</v>
       </c>
       <c r="F620" s="14" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="621" spans="1:7">
@@ -20380,7 +20372,7 @@
         <v>393</v>
       </c>
       <c r="F622" s="14" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="623" spans="1:7">
@@ -20420,7 +20412,7 @@
         <v>395</v>
       </c>
       <c r="F624" s="14" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="625" spans="1:7">
@@ -20460,7 +20452,7 @@
         <v>395</v>
       </c>
       <c r="F626" s="14" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="627" spans="1:7">
@@ -20500,7 +20492,7 @@
         <v>395</v>
       </c>
       <c r="F628" s="14" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="629" spans="1:7">
@@ -20540,7 +20532,7 @@
         <v>395</v>
       </c>
       <c r="F630" s="14" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="631" spans="1:7">
@@ -20580,7 +20572,7 @@
         <v>395</v>
       </c>
       <c r="F632" s="14" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="633" spans="1:7">
@@ -20620,7 +20612,7 @@
         <v>395</v>
       </c>
       <c r="F634" s="14" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="635" spans="1:7">
@@ -20660,7 +20652,7 @@
         <v>395</v>
       </c>
       <c r="F636" s="14" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="637" spans="1:7">
@@ -20697,10 +20689,10 @@
         <v>415</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F638" s="14" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="639" spans="1:7" ht="43.2">
@@ -20756,7 +20748,7 @@
         <v>395</v>
       </c>
       <c r="F641" s="14" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="642" spans="1:7">
@@ -20778,9 +20770,7 @@
       <c r="F642" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="G642" s="52" t="s">
-        <v>1533</v>
-      </c>
+      <c r="G642" s="53"/>
     </row>
     <row r="643" spans="1:7">
       <c r="A643" s="14" t="s">
@@ -20799,11 +20789,9 @@
         <v>405</v>
       </c>
       <c r="F643" s="14" t="s">
-        <v>1376</v>
-      </c>
-      <c r="G643" s="52" t="s">
-        <v>1533</v>
-      </c>
+        <v>1374</v>
+      </c>
+      <c r="G643" s="53"/>
     </row>
     <row r="644" spans="1:7">
       <c r="A644" s="14" t="s">
@@ -20842,7 +20830,7 @@
         <v>395</v>
       </c>
       <c r="F645" s="14" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="646" spans="1:7">
@@ -20882,7 +20870,7 @@
         <v>395</v>
       </c>
       <c r="F647" s="14" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="648" spans="1:7">
@@ -20922,7 +20910,7 @@
         <v>405</v>
       </c>
       <c r="F649" s="14" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="650" spans="1:7">
@@ -20962,7 +20950,7 @@
         <v>395</v>
       </c>
       <c r="F651" s="14" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="652" spans="1:7">
@@ -21002,7 +20990,7 @@
         <v>395</v>
       </c>
       <c r="F653" s="14" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="654" spans="1:7">
@@ -21042,7 +21030,7 @@
         <v>393</v>
       </c>
       <c r="F655" s="14" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="656" spans="1:7">
@@ -21082,7 +21070,7 @@
         <v>395</v>
       </c>
       <c r="F657" s="14" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="658" spans="1:7">
@@ -21122,7 +21110,7 @@
         <v>395</v>
       </c>
       <c r="F659" s="14" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="660" spans="1:7">
@@ -21162,7 +21150,7 @@
         <v>395</v>
       </c>
       <c r="F661" s="14" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="662" spans="1:7">
@@ -21202,7 +21190,7 @@
         <v>395</v>
       </c>
       <c r="F663" s="14" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="664" spans="1:7">
@@ -21242,7 +21230,7 @@
         <v>395</v>
       </c>
       <c r="F665" s="14" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="666" spans="1:7">
@@ -21282,7 +21270,7 @@
         <v>395</v>
       </c>
       <c r="F667" s="14" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="668" spans="1:7">
@@ -21322,7 +21310,7 @@
         <v>395</v>
       </c>
       <c r="F669" s="14" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="670" spans="1:7">
@@ -21359,10 +21347,10 @@
         <v>415</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F671" s="14" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="672" spans="1:7">
@@ -21418,7 +21406,7 @@
         <v>395</v>
       </c>
       <c r="F674" s="14" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -21458,7 +21446,7 @@
         <v>395</v>
       </c>
       <c r="F676" s="14" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="677" spans="1:6">
@@ -21498,7 +21486,7 @@
         <v>395</v>
       </c>
       <c r="F678" s="14" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -21538,7 +21526,7 @@
         <v>405</v>
       </c>
       <c r="F680" s="14" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="681" spans="1:6">
@@ -21578,7 +21566,7 @@
         <v>395</v>
       </c>
       <c r="F682" s="14" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="683" spans="1:6">
@@ -21618,7 +21606,7 @@
         <v>395</v>
       </c>
       <c r="F684" s="14" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="685" spans="1:6">
@@ -21658,7 +21646,7 @@
         <v>395</v>
       </c>
       <c r="F686" s="14" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="687" spans="1:6">
@@ -21698,7 +21686,7 @@
         <v>393</v>
       </c>
       <c r="F688" s="14" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="689" spans="1:7" s="24" customFormat="1">
@@ -21739,7 +21727,7 @@
         <v>395</v>
       </c>
       <c r="F690" s="14" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="G690" s="1"/>
     </row>
@@ -21780,7 +21768,7 @@
         <v>395</v>
       </c>
       <c r="F692" s="14" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="693" spans="1:7">
@@ -21820,7 +21808,7 @@
         <v>405</v>
       </c>
       <c r="F694" s="14" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="695" spans="1:7">
@@ -21860,7 +21848,7 @@
         <v>395</v>
       </c>
       <c r="F696" s="14" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="697" spans="1:7">
@@ -21882,6 +21870,9 @@
       <c r="F697" s="14" t="s">
         <v>797</v>
       </c>
+      <c r="G697" s="51" t="s">
+        <v>1531</v>
+      </c>
     </row>
     <row r="698" spans="1:7">
       <c r="A698" s="14" t="s">
@@ -21900,7 +21891,10 @@
         <v>395</v>
       </c>
       <c r="F698" s="14" t="s">
-        <v>1402</v>
+        <v>1400</v>
+      </c>
+      <c r="G698" s="51" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="699" spans="1:7">
@@ -21940,7 +21934,7 @@
         <v>395</v>
       </c>
       <c r="F700" s="14" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="701" spans="1:7">
@@ -21980,7 +21974,7 @@
         <v>395</v>
       </c>
       <c r="F702" s="14" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="703" spans="1:7">
@@ -22017,10 +22011,10 @@
         <v>415</v>
       </c>
       <c r="E704" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F704" s="14" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="705" spans="1:6">
@@ -22073,7 +22067,7 @@
         <v>395</v>
       </c>
       <c r="F707" s="14" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="708" spans="1:6">
@@ -22113,7 +22107,7 @@
         <v>395</v>
       </c>
       <c r="F709" s="14" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="710" spans="1:6">
@@ -22153,7 +22147,7 @@
         <v>395</v>
       </c>
       <c r="F711" s="14" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="712" spans="1:6">
@@ -22193,7 +22187,7 @@
         <v>395</v>
       </c>
       <c r="F713" s="14" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -22233,7 +22227,7 @@
         <v>395</v>
       </c>
       <c r="F715" s="14" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="716" spans="1:6">
@@ -22273,7 +22267,7 @@
         <v>395</v>
       </c>
       <c r="F717" s="14" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="718" spans="1:6">
@@ -22313,7 +22307,7 @@
         <v>393</v>
       </c>
       <c r="F719" s="14" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="720" spans="1:6">
@@ -22353,7 +22347,7 @@
         <v>395</v>
       </c>
       <c r="F721" s="14" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="722" spans="1:7">
@@ -22393,7 +22387,7 @@
         <v>395</v>
       </c>
       <c r="F723" s="14" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="724" spans="1:7">
@@ -22433,7 +22427,7 @@
         <v>395</v>
       </c>
       <c r="F725" s="14" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="726" spans="1:7">
@@ -22473,7 +22467,7 @@
         <v>395</v>
       </c>
       <c r="F727" s="14" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="728" spans="1:7">
@@ -22513,7 +22507,7 @@
         <v>395</v>
       </c>
       <c r="F729" s="14" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="730" spans="1:7">
@@ -22553,7 +22547,7 @@
         <v>395</v>
       </c>
       <c r="F731" s="14" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="732" spans="1:7">
@@ -22590,10 +22584,10 @@
         <v>813</v>
       </c>
       <c r="E733" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F733" s="14" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="734" spans="1:7" ht="86.4">
@@ -22649,7 +22643,7 @@
         <v>704</v>
       </c>
       <c r="F736" s="14" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="737" spans="1:6">
@@ -22689,7 +22683,7 @@
         <v>395</v>
       </c>
       <c r="F738" s="14" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="739" spans="1:6">
@@ -22729,7 +22723,7 @@
         <v>395</v>
       </c>
       <c r="F740" s="14" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="741" spans="1:6">
@@ -22769,7 +22763,7 @@
         <v>395</v>
       </c>
       <c r="F742" s="14" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="743" spans="1:6">
@@ -22809,7 +22803,7 @@
         <v>405</v>
       </c>
       <c r="F744" s="14" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -22849,7 +22843,7 @@
         <v>405</v>
       </c>
       <c r="F746" s="14" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="747" spans="1:6">
@@ -22889,7 +22883,7 @@
         <v>405</v>
       </c>
       <c r="F748" s="14" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -22929,7 +22923,7 @@
         <v>405</v>
       </c>
       <c r="F750" s="14" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="751" spans="1:6">
@@ -22969,7 +22963,7 @@
         <v>395</v>
       </c>
       <c r="F752" s="14" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="753" spans="1:6">
@@ -23009,7 +23003,7 @@
         <v>405</v>
       </c>
       <c r="F754" s="14" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="755" spans="1:6">
@@ -23049,7 +23043,7 @@
         <v>405</v>
       </c>
       <c r="F756" s="14" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="757" spans="1:6">
@@ -23089,7 +23083,7 @@
         <v>395</v>
       </c>
       <c r="F758" s="14" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="759" spans="1:6">
@@ -23129,7 +23123,7 @@
         <v>395</v>
       </c>
       <c r="F760" s="14" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="761" spans="1:6">
@@ -23169,7 +23163,7 @@
         <v>393</v>
       </c>
       <c r="F762" s="14" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="763" spans="1:6">
@@ -23209,7 +23203,7 @@
         <v>395</v>
       </c>
       <c r="F764" s="14" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="765" spans="1:6">
@@ -23249,7 +23243,7 @@
         <v>395</v>
       </c>
       <c r="F766" s="14" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="767" spans="1:6">
@@ -23289,7 +23283,7 @@
         <v>405</v>
       </c>
       <c r="F768" s="14" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="769" spans="1:6">
@@ -23329,7 +23323,7 @@
         <v>395</v>
       </c>
       <c r="F770" s="14" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="771" spans="1:6">
@@ -23369,7 +23363,7 @@
         <v>403</v>
       </c>
       <c r="F772" s="14" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -23409,7 +23403,7 @@
         <v>395</v>
       </c>
       <c r="F774" s="14" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="775" spans="1:6">
@@ -23449,7 +23443,7 @@
         <v>395</v>
       </c>
       <c r="F776" s="14" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="777" spans="1:6">
@@ -23489,7 +23483,7 @@
         <v>405</v>
       </c>
       <c r="F778" s="14" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="779" spans="1:6">
@@ -23529,7 +23523,7 @@
         <v>405</v>
       </c>
       <c r="F780" s="14" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="781" spans="1:6">
@@ -23569,7 +23563,7 @@
         <v>395</v>
       </c>
       <c r="F782" s="14" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="783" spans="1:6">
@@ -23609,7 +23603,7 @@
         <v>395</v>
       </c>
       <c r="F784" s="14" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="785" spans="1:7">
@@ -23649,7 +23643,7 @@
         <v>395</v>
       </c>
       <c r="F786" s="14" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="787" spans="1:7">
@@ -23689,7 +23683,7 @@
         <v>395</v>
       </c>
       <c r="F788" s="14" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="789" spans="1:7">
@@ -23726,10 +23720,10 @@
         <v>415</v>
       </c>
       <c r="E790" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F790" s="14" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="791" spans="1:7" ht="72">
@@ -23785,7 +23779,7 @@
         <v>405</v>
       </c>
       <c r="F793" s="14" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="794" spans="1:7">
@@ -23825,7 +23819,7 @@
         <v>405</v>
       </c>
       <c r="F795" s="14" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="796" spans="1:7">
@@ -23865,7 +23859,7 @@
         <v>405</v>
       </c>
       <c r="F797" s="14" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="798" spans="1:7">
@@ -23905,7 +23899,7 @@
         <v>405</v>
       </c>
       <c r="F799" s="14" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="800" spans="1:7">
@@ -23945,7 +23939,7 @@
         <v>405</v>
       </c>
       <c r="F801" s="14" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="802" spans="1:6">
@@ -23982,10 +23976,10 @@
         <v>879</v>
       </c>
       <c r="E803" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F803" s="14" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="804" spans="1:6">
@@ -24025,7 +24019,7 @@
         <v>395</v>
       </c>
       <c r="F805" s="14" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="806" spans="1:6">
@@ -24065,7 +24059,7 @@
         <v>395</v>
       </c>
       <c r="F807" s="14" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="808" spans="1:6">
@@ -24105,7 +24099,7 @@
         <v>395</v>
       </c>
       <c r="F809" s="14" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="810" spans="1:6">
@@ -24145,7 +24139,7 @@
         <v>395</v>
       </c>
       <c r="F811" s="14" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="812" spans="1:6">
@@ -24185,7 +24179,7 @@
         <v>395</v>
       </c>
       <c r="F813" s="14" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="814" spans="1:6">
@@ -24225,7 +24219,7 @@
         <v>395</v>
       </c>
       <c r="F815" s="14" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="816" spans="1:6">
@@ -24265,7 +24259,7 @@
         <v>395</v>
       </c>
       <c r="F817" s="14" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="818" spans="1:6">
@@ -24305,7 +24299,7 @@
         <v>393</v>
       </c>
       <c r="F819" s="14" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="820" spans="1:6">
@@ -24345,7 +24339,7 @@
         <v>395</v>
       </c>
       <c r="F821" s="14" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="822" spans="1:6">
@@ -24385,7 +24379,7 @@
         <v>395</v>
       </c>
       <c r="F823" s="14" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="824" spans="1:6">
@@ -24425,7 +24419,7 @@
         <v>395</v>
       </c>
       <c r="F825" s="14" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="826" spans="1:6">
@@ -24465,7 +24459,7 @@
         <v>395</v>
       </c>
       <c r="F827" s="14" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="828" spans="1:6">
@@ -24505,7 +24499,7 @@
         <v>395</v>
       </c>
       <c r="F829" s="14" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="830" spans="1:6">
@@ -24545,7 +24539,7 @@
         <v>395</v>
       </c>
       <c r="F831" s="14" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="832" spans="1:6">
@@ -24585,7 +24579,7 @@
         <v>395</v>
       </c>
       <c r="F833" s="14" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="834" spans="1:7">
@@ -24625,7 +24619,7 @@
         <v>395</v>
       </c>
       <c r="F835" s="14" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="836" spans="1:7">
@@ -24665,7 +24659,7 @@
         <v>881</v>
       </c>
       <c r="F837" s="14" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="838" spans="1:7">
@@ -24705,7 +24699,7 @@
         <v>881</v>
       </c>
       <c r="F839" s="14" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="840" spans="1:7">
@@ -24745,7 +24739,7 @@
         <v>416</v>
       </c>
       <c r="F841" s="14" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="842" spans="1:7">
@@ -24785,7 +24779,7 @@
         <v>405</v>
       </c>
       <c r="F843" s="14" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="844" spans="1:7">
@@ -24825,7 +24819,7 @@
         <v>405</v>
       </c>
       <c r="F845" s="14" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="846" spans="1:7">
@@ -24862,10 +24856,10 @@
         <v>813</v>
       </c>
       <c r="E847" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="F847" s="14" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="848" spans="1:7" ht="28.8">
@@ -24921,7 +24915,7 @@
         <v>395</v>
       </c>
       <c r="F850" s="14" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="851" spans="1:6">
@@ -24961,7 +24955,7 @@
         <v>395</v>
       </c>
       <c r="F852" s="14" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="853" spans="1:6">
@@ -25001,7 +24995,7 @@
         <v>395</v>
       </c>
       <c r="F854" s="14" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="855" spans="1:6">
@@ -25041,7 +25035,7 @@
         <v>395</v>
       </c>
       <c r="F856" s="14" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="857" spans="1:6">
@@ -25081,7 +25075,7 @@
         <v>395</v>
       </c>
       <c r="F858" s="14" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="859" spans="1:6">
@@ -25121,7 +25115,7 @@
         <v>395</v>
       </c>
       <c r="F860" s="14" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="861" spans="1:6">
@@ -25161,7 +25155,7 @@
         <v>395</v>
       </c>
       <c r="F862" s="14" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="863" spans="1:6">
@@ -25201,7 +25195,7 @@
         <v>395</v>
       </c>
       <c r="F864" s="14" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="865" spans="1:6">
@@ -25241,7 +25235,7 @@
         <v>405</v>
       </c>
       <c r="F866" s="14" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="867" spans="1:6">
@@ -25281,7 +25275,7 @@
         <v>405</v>
       </c>
       <c r="F868" s="14" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="869" spans="1:6">
@@ -25321,7 +25315,7 @@
         <v>395</v>
       </c>
       <c r="F870" s="14" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="871" spans="1:6">
@@ -25361,7 +25355,7 @@
         <v>395</v>
       </c>
       <c r="F872" s="14" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="873" spans="1:6">
@@ -25398,10 +25392,10 @@
         <v>813</v>
       </c>
       <c r="E874" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="F874" s="14" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="875" spans="1:6" ht="28.8">
@@ -25441,7 +25435,7 @@
         <v>972</v>
       </c>
       <c r="F876" s="14" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="877" spans="1:6">
@@ -25481,7 +25475,7 @@
         <v>395</v>
       </c>
       <c r="F878" s="14" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="879" spans="1:6">
@@ -25521,7 +25515,7 @@
         <v>395</v>
       </c>
       <c r="F880" s="14" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="881" spans="1:7">
@@ -25561,10 +25555,10 @@
         <v>917</v>
       </c>
       <c r="E882" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F882" s="14" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="G882" s="1" t="s">
         <v>918</v>
@@ -25607,7 +25601,7 @@
         <v>395</v>
       </c>
       <c r="F884" s="14" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="885" spans="1:7">
@@ -25647,7 +25641,7 @@
         <v>395</v>
       </c>
       <c r="F886" s="14" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="887" spans="1:7">
@@ -25687,7 +25681,7 @@
         <v>393</v>
       </c>
       <c r="F888" s="14" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="889" spans="1:7">
@@ -25726,11 +25720,11 @@
       <c r="D890" s="14" t="s">
         <v>919</v>
       </c>
-      <c r="E890" s="52" t="s">
-        <v>1517</v>
+      <c r="E890" s="53" t="s">
+        <v>1548</v>
       </c>
       <c r="F890" s="14" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="G890" s="1" t="s">
         <v>921</v>
@@ -25772,11 +25766,11 @@
       <c r="D892" s="14" t="s">
         <v>920</v>
       </c>
-      <c r="E892" s="53" t="s">
-        <v>1517</v>
+      <c r="E892" s="1" t="s">
+        <v>1515</v>
       </c>
       <c r="F892" s="14" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="G892" s="1" t="s">
         <v>921</v>
@@ -25819,7 +25813,7 @@
         <v>395</v>
       </c>
       <c r="F894" s="14" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="895" spans="1:7">
@@ -25859,7 +25853,7 @@
         <v>395</v>
       </c>
       <c r="F896" s="14" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="897" spans="1:6">
@@ -25899,7 +25893,7 @@
         <v>395</v>
       </c>
       <c r="F898" s="14" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="899" spans="1:6">
@@ -25939,7 +25933,7 @@
         <v>395</v>
       </c>
       <c r="F900" s="14" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -25979,7 +25973,7 @@
         <v>395</v>
       </c>
       <c r="F902" s="14" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="903" spans="1:6">
@@ -26019,7 +26013,7 @@
         <v>395</v>
       </c>
       <c r="F904" s="14" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="905" spans="1:6">
@@ -26059,7 +26053,7 @@
         <v>395</v>
       </c>
       <c r="F906" s="14" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="907" spans="1:6">
@@ -26099,7 +26093,7 @@
         <v>395</v>
       </c>
       <c r="F908" s="14" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="909" spans="1:6">
@@ -26139,7 +26133,7 @@
         <v>395</v>
       </c>
       <c r="F910" s="14" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="911" spans="1:6">
@@ -26179,7 +26173,7 @@
         <v>395</v>
       </c>
       <c r="F912" s="14" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="913" spans="1:6">
@@ -26219,7 +26213,7 @@
         <v>395</v>
       </c>
       <c r="F914" s="14" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="915" spans="1:6">
@@ -26259,7 +26253,7 @@
         <v>395</v>
       </c>
       <c r="F916" s="14" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="917" spans="1:6">
@@ -26299,7 +26293,7 @@
         <v>395</v>
       </c>
       <c r="F918" s="14" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="919" spans="1:6">
@@ -26339,7 +26333,7 @@
         <v>395</v>
       </c>
       <c r="F920" s="14" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="921" spans="1:6">
@@ -26379,7 +26373,7 @@
         <v>395</v>
       </c>
       <c r="F922" s="14" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="923" spans="1:6">
@@ -26419,7 +26413,7 @@
         <v>395</v>
       </c>
       <c r="F924" s="14" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="925" spans="1:6">
@@ -26459,7 +26453,7 @@
         <v>395</v>
       </c>
       <c r="F926" s="14" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="927" spans="1:6">
@@ -26499,7 +26493,7 @@
         <v>708</v>
       </c>
       <c r="F928" s="14" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="929" spans="1:6">
@@ -26552,7 +26546,7 @@
         <v>403</v>
       </c>
       <c r="F931" s="14" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="932" spans="1:6">
@@ -26592,7 +26586,7 @@
         <v>403</v>
       </c>
       <c r="F933" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="934" spans="1:6">
@@ -26632,7 +26626,7 @@
         <v>405</v>
       </c>
       <c r="F935" s="14" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="936" spans="1:6">
@@ -26672,7 +26666,7 @@
         <v>405</v>
       </c>
       <c r="F937" s="14" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="938" spans="1:6">
@@ -26712,7 +26706,7 @@
         <v>403</v>
       </c>
       <c r="F939" s="14" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="940" spans="1:6">
@@ -26752,7 +26746,7 @@
         <v>405</v>
       </c>
       <c r="F941" s="14" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="942" spans="1:6">
@@ -26792,7 +26786,7 @@
         <v>393</v>
       </c>
       <c r="F943" s="14" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="944" spans="1:6">
@@ -26832,7 +26826,7 @@
         <v>405</v>
       </c>
       <c r="F945" s="14" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="946" spans="1:7">
@@ -26872,7 +26866,7 @@
         <v>403</v>
       </c>
       <c r="F947" s="14" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="948" spans="1:7">
@@ -26912,7 +26906,7 @@
         <v>405</v>
       </c>
       <c r="F949" s="14" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="950" spans="1:7">
@@ -26952,7 +26946,7 @@
         <v>405</v>
       </c>
       <c r="F951" s="14" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="952" spans="1:7">
@@ -26992,7 +26986,7 @@
         <v>403</v>
       </c>
       <c r="F953" s="14" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="954" spans="1:7">
@@ -27032,7 +27026,7 @@
         <v>403</v>
       </c>
       <c r="F955" s="14" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="956" spans="1:7">
@@ -27069,10 +27063,10 @@
         <v>415</v>
       </c>
       <c r="E957" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F957" s="14" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="958" spans="1:7" ht="72">
@@ -27128,7 +27122,7 @@
         <v>704</v>
       </c>
       <c r="F960" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="961" spans="1:6">
@@ -27168,7 +27162,7 @@
         <v>395</v>
       </c>
       <c r="F962" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="963" spans="1:6">
@@ -27208,7 +27202,7 @@
         <v>395</v>
       </c>
       <c r="F964" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="965" spans="1:6">
@@ -27248,7 +27242,7 @@
         <v>395</v>
       </c>
       <c r="F966" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="967" spans="1:6">
@@ -27288,7 +27282,7 @@
         <v>395</v>
       </c>
       <c r="F968" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="969" spans="1:6">
@@ -27328,7 +27322,7 @@
         <v>395</v>
       </c>
       <c r="F970" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="971" spans="1:6">
@@ -27368,7 +27362,7 @@
         <v>395</v>
       </c>
       <c r="F972" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="973" spans="1:6">
@@ -27405,10 +27399,10 @@
         <v>415</v>
       </c>
       <c r="E974" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F974" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="975" spans="1:6">
@@ -27448,7 +27442,7 @@
         <v>395</v>
       </c>
       <c r="F976" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="977" spans="1:7">
@@ -27488,7 +27482,7 @@
         <v>395</v>
       </c>
       <c r="F978" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="979" spans="1:7">
@@ -27528,7 +27522,7 @@
         <v>395</v>
       </c>
       <c r="F980" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="981" spans="1:7">
@@ -27568,7 +27562,7 @@
         <v>395</v>
       </c>
       <c r="F982" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="983" spans="1:7">
@@ -27608,7 +27602,7 @@
         <v>395</v>
       </c>
       <c r="F984" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="985" spans="1:7">
@@ -27648,7 +27642,7 @@
         <v>395</v>
       </c>
       <c r="F986" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="987" spans="1:7">
@@ -27688,7 +27682,7 @@
         <v>395</v>
       </c>
       <c r="F988" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="989" spans="1:7">
@@ -27728,7 +27722,7 @@
         <v>393</v>
       </c>
       <c r="F990" s="14" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="991" spans="1:7" ht="72">
@@ -27784,7 +27778,7 @@
         <v>704</v>
       </c>
       <c r="F993" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="994" spans="1:6">
@@ -27824,7 +27818,7 @@
         <v>395</v>
       </c>
       <c r="F995" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="996" spans="1:6">
@@ -27864,7 +27858,7 @@
         <v>395</v>
       </c>
       <c r="F997" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="998" spans="1:6">
@@ -27904,7 +27898,7 @@
         <v>395</v>
       </c>
       <c r="F999" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1000" spans="1:6">
@@ -27944,7 +27938,7 @@
         <v>395</v>
       </c>
       <c r="F1001" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1002" spans="1:6">
@@ -27984,7 +27978,7 @@
         <v>395</v>
       </c>
       <c r="F1003" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1004" spans="1:6">
@@ -28024,7 +28018,7 @@
         <v>395</v>
       </c>
       <c r="F1005" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1006" spans="1:6">
@@ -28061,10 +28055,10 @@
         <v>415</v>
       </c>
       <c r="E1007" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F1007" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1008" spans="1:6">
@@ -28104,7 +28098,7 @@
         <v>395</v>
       </c>
       <c r="F1009" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1010" spans="1:7">
@@ -28144,7 +28138,7 @@
         <v>395</v>
       </c>
       <c r="F1011" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1012" spans="1:7">
@@ -28184,7 +28178,7 @@
         <v>395</v>
       </c>
       <c r="F1013" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1014" spans="1:7">
@@ -28224,7 +28218,7 @@
         <v>395</v>
       </c>
       <c r="F1015" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1016" spans="1:7">
@@ -28264,7 +28258,7 @@
         <v>395</v>
       </c>
       <c r="F1017" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1018" spans="1:7">
@@ -28304,7 +28298,7 @@
         <v>395</v>
       </c>
       <c r="F1019" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1020" spans="1:7">
@@ -28344,7 +28338,7 @@
         <v>395</v>
       </c>
       <c r="F1021" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1022" spans="1:7">
@@ -28384,7 +28378,7 @@
         <v>393</v>
       </c>
       <c r="F1023" s="14" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1024" spans="1:7" ht="72">
@@ -28440,7 +28434,7 @@
         <v>704</v>
       </c>
       <c r="F1026" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1027" spans="1:6">
@@ -28480,7 +28474,7 @@
         <v>395</v>
       </c>
       <c r="F1028" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1029" spans="1:6">
@@ -28520,7 +28514,7 @@
         <v>395</v>
       </c>
       <c r="F1030" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1031" spans="1:6">
@@ -28560,7 +28554,7 @@
         <v>395</v>
       </c>
       <c r="F1032" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1033" spans="1:6">
@@ -28600,7 +28594,7 @@
         <v>395</v>
       </c>
       <c r="F1034" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1035" spans="1:6">
@@ -28640,7 +28634,7 @@
         <v>395</v>
       </c>
       <c r="F1036" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1037" spans="1:6">
@@ -28680,7 +28674,7 @@
         <v>395</v>
       </c>
       <c r="F1038" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1039" spans="1:6">
@@ -28717,10 +28711,10 @@
         <v>415</v>
       </c>
       <c r="E1040" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F1040" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1041" spans="1:6">
@@ -28760,7 +28754,7 @@
         <v>395</v>
       </c>
       <c r="F1042" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1043" spans="1:6">
@@ -28800,7 +28794,7 @@
         <v>395</v>
       </c>
       <c r="F1044" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1045" spans="1:6">
@@ -28840,7 +28834,7 @@
         <v>395</v>
       </c>
       <c r="F1046" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1047" spans="1:6">
@@ -28880,7 +28874,7 @@
         <v>395</v>
       </c>
       <c r="F1048" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1049" spans="1:6">
@@ -28920,7 +28914,7 @@
         <v>395</v>
       </c>
       <c r="F1050" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1051" spans="1:6">
@@ -28960,7 +28954,7 @@
         <v>395</v>
       </c>
       <c r="F1052" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1053" spans="1:6">
@@ -29000,7 +28994,7 @@
         <v>395</v>
       </c>
       <c r="F1054" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1055" spans="1:6">
@@ -29040,7 +29034,7 @@
         <v>393</v>
       </c>
       <c r="F1056" s="14" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1057" spans="1:7" ht="72">
@@ -29096,7 +29090,7 @@
         <v>704</v>
       </c>
       <c r="F1059" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1060" spans="1:7">
@@ -29136,7 +29130,7 @@
         <v>395</v>
       </c>
       <c r="F1061" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1062" spans="1:7">
@@ -29176,7 +29170,7 @@
         <v>395</v>
       </c>
       <c r="F1063" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1064" spans="1:7">
@@ -29216,7 +29210,7 @@
         <v>395</v>
       </c>
       <c r="F1065" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1066" spans="1:7">
@@ -29256,7 +29250,7 @@
         <v>395</v>
       </c>
       <c r="F1067" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1068" spans="1:7">
@@ -29296,7 +29290,7 @@
         <v>395</v>
       </c>
       <c r="F1069" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1070" spans="1:7">
@@ -29336,7 +29330,7 @@
         <v>395</v>
       </c>
       <c r="F1071" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1072" spans="1:7">
@@ -29373,10 +29367,10 @@
         <v>415</v>
       </c>
       <c r="E1073" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F1073" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1074" spans="1:6">
@@ -29416,7 +29410,7 @@
         <v>395</v>
       </c>
       <c r="F1075" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1076" spans="1:6">
@@ -29456,7 +29450,7 @@
         <v>395</v>
       </c>
       <c r="F1077" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1078" spans="1:6">
@@ -29496,7 +29490,7 @@
         <v>395</v>
       </c>
       <c r="F1079" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1080" spans="1:6">
@@ -29536,7 +29530,7 @@
         <v>395</v>
       </c>
       <c r="F1081" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1082" spans="1:6">
@@ -29576,7 +29570,7 @@
         <v>395</v>
       </c>
       <c r="F1083" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1084" spans="1:6">
@@ -29616,7 +29610,7 @@
         <v>395</v>
       </c>
       <c r="F1085" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1086" spans="1:6">
@@ -29656,7 +29650,7 @@
         <v>395</v>
       </c>
       <c r="F1087" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1088" spans="1:6">
@@ -29696,7 +29690,7 @@
         <v>393</v>
       </c>
       <c r="F1089" s="14" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1090" spans="1:7">
@@ -29752,7 +29746,7 @@
         <v>395</v>
       </c>
       <c r="F1092" s="14" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1093" spans="1:7">
@@ -29792,7 +29786,7 @@
         <v>395</v>
       </c>
       <c r="F1094" s="14" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1095" spans="1:7">
@@ -29832,7 +29826,7 @@
         <v>395</v>
       </c>
       <c r="F1096" s="14" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1097" spans="1:7">
@@ -29872,7 +29866,7 @@
         <v>395</v>
       </c>
       <c r="F1098" s="14" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1099" spans="1:7">
@@ -29912,7 +29906,7 @@
         <v>395</v>
       </c>
       <c r="F1100" s="14" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1101" spans="1:7">
@@ -29952,7 +29946,7 @@
         <v>395</v>
       </c>
       <c r="F1102" s="14" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1103" spans="1:7">
@@ -29992,7 +29986,7 @@
         <v>395</v>
       </c>
       <c r="F1104" s="14" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1105" spans="1:6">
@@ -30032,7 +30026,7 @@
         <v>393</v>
       </c>
       <c r="F1106" s="14" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1107" spans="1:6">
@@ -30072,7 +30066,7 @@
         <v>395</v>
       </c>
       <c r="F1108" s="14" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1109" spans="1:6">
@@ -30112,7 +30106,7 @@
         <v>395</v>
       </c>
       <c r="F1110" s="14" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1111" spans="1:6">
@@ -30152,7 +30146,7 @@
         <v>395</v>
       </c>
       <c r="F1112" s="14" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1113" spans="1:6">
@@ -30192,7 +30186,7 @@
         <v>395</v>
       </c>
       <c r="F1114" s="14" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1115" spans="1:6">
@@ -30232,7 +30226,7 @@
         <v>395</v>
       </c>
       <c r="F1116" s="14" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1117" spans="1:6">
@@ -30272,7 +30266,7 @@
         <v>395</v>
       </c>
       <c r="F1118" s="14" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1119" spans="1:6">
@@ -30312,7 +30306,7 @@
         <v>395</v>
       </c>
       <c r="F1120" s="14" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1121" spans="1:6">
@@ -30349,10 +30343,10 @@
         <v>415</v>
       </c>
       <c r="E1122" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F1122" s="14" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1123" spans="1:6">

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA8F739-3BB1-408C-9D50-574B3AA4D5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAEB5F4-B9AD-4840-BE9D-F4F0299F3B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7022" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7345" uniqueCount="1620">
   <si>
     <t>Name</t>
   </si>
@@ -4765,6 +4765,216 @@
       </rPr>
       <t>2025-November-20</t>
     </r>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_17_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_18_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_19_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_20_NTSC.png</t>
+  </si>
+  <si>
+    <t>4.18 (+5VDC power rail)</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>8.18181 MHz</t>
+  </si>
+  <si>
+    <t>14.3171 MHz</t>
+  </si>
+  <si>
+    <t>14.3177 MHz</t>
+  </si>
+  <si>
+    <t>PAL has this LOW</t>
+  </si>
+  <si>
+    <t>NTSC has this HIGH</t>
   </si>
 </sst>
 </file>
@@ -4900,7 +5110,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5048,6 +5258,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5370,7 +5583,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8090,13 +8303,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I2517"/>
+  <dimension ref="A1:I2581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B880" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="C1236" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E890" sqref="E890"/>
+      <selection pane="bottomRight" activeCell="E1248" sqref="E1248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30387,19 +30600,19 @@
         <v>59</v>
       </c>
       <c r="B1125" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C1125" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1125" s="14" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E1125" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F1125" s="14" t="s">
-        <v>1036</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1126" spans="1:6">
@@ -30410,16 +30623,16 @@
         <v>306</v>
       </c>
       <c r="C1126" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1126" s="14" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E1126" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F1126" s="14" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1127" spans="1:6">
@@ -30427,19 +30640,19 @@
         <v>59</v>
       </c>
       <c r="B1127" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C1127" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1127" s="14" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E1127" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F1127" s="14" t="s">
-        <v>1038</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1128" spans="1:6">
@@ -30450,16 +30663,16 @@
         <v>306</v>
       </c>
       <c r="C1128" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1128" s="14" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E1128" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F1128" s="14" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1129" spans="1:6">
@@ -30467,19 +30680,19 @@
         <v>59</v>
       </c>
       <c r="B1129" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C1129" s="32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1129" s="14" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E1129" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F1129" s="14" t="s">
-        <v>1040</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1130" spans="1:6">
@@ -30490,16 +30703,16 @@
         <v>306</v>
       </c>
       <c r="C1130" s="32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1130" s="14" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E1130" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F1130" s="14" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1131" spans="1:6">
@@ -30507,19 +30720,19 @@
         <v>59</v>
       </c>
       <c r="B1131" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C1131" s="32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1131" s="14" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E1131" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F1131" s="14" t="s">
-        <v>1042</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1132" spans="1:6">
@@ -30530,16 +30743,16 @@
         <v>306</v>
       </c>
       <c r="C1132" s="32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1132" s="14" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E1132" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F1132" s="14" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1133" spans="1:6">
@@ -30547,19 +30760,19 @@
         <v>59</v>
       </c>
       <c r="B1133" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C1133" s="32">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1133" s="14" t="s">
-        <v>597</v>
+        <v>1021</v>
       </c>
       <c r="E1133" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F1133" s="14" t="s">
-        <v>1044</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1134" spans="1:6">
@@ -30570,16 +30783,16 @@
         <v>306</v>
       </c>
       <c r="C1134" s="32">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1134" s="14" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E1134" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F1134" s="14" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1135" spans="1:6">
@@ -30587,19 +30800,19 @@
         <v>59</v>
       </c>
       <c r="B1135" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C1135" s="32">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1135" s="14" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="E1135" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F1135" s="14" t="s">
-        <v>1046</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1136" spans="1:6">
@@ -30610,39 +30823,39 @@
         <v>306</v>
       </c>
       <c r="C1136" s="32">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D1136" s="14" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="E1136" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F1136" s="14" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:7">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:6">
       <c r="A1137" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B1137" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C1137" s="32">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D1137" s="14" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E1137" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F1137" s="14" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:7">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:6">
       <c r="A1138" s="14" t="s">
         <v>59</v>
       </c>
@@ -30650,39 +30863,39 @@
         <v>306</v>
       </c>
       <c r="C1138" s="32">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D1138" s="14" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="E1138" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F1138" s="14" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:7">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:6">
       <c r="A1139" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B1139" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C1139" s="32">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D1139" s="14" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="E1139" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F1139" s="14" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:7">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6">
       <c r="A1140" s="14" t="s">
         <v>59</v>
       </c>
@@ -30690,39 +30903,39 @@
         <v>306</v>
       </c>
       <c r="C1140" s="32">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D1140" s="14" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="E1140" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F1140" s="14" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:7">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6">
       <c r="A1141" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B1141" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C1141" s="32">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D1141" s="14" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="E1141" s="1" t="s">
         <v>395</v>
       </c>
       <c r="F1141" s="14" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:7">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6">
       <c r="A1142" s="14" t="s">
         <v>59</v>
       </c>
@@ -30730,1871 +30943,2973 @@
         <v>306</v>
       </c>
       <c r="C1142" s="32">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D1142" s="14" t="s">
-        <v>1034</v>
+        <v>597</v>
       </c>
       <c r="E1142" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F1142" s="14" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:7">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:6">
       <c r="A1143" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B1143" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C1143" s="32">
+        <v>10</v>
+      </c>
+      <c r="D1143" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1143" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1143" s="14" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:6">
+      <c r="A1144" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1144" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1144" s="32">
+        <v>11</v>
+      </c>
+      <c r="D1144" s="14" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E1144" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1144" s="14" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:6">
+      <c r="A1145" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1145" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1145" s="32">
+        <v>11</v>
+      </c>
+      <c r="D1145" s="14" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E1145" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1145" s="14" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:6">
+      <c r="A1146" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1146" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1146" s="32">
+        <v>12</v>
+      </c>
+      <c r="D1146" s="14" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E1146" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1146" s="14" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:6">
+      <c r="A1147" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1147" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1147" s="32">
+        <v>12</v>
+      </c>
+      <c r="D1147" s="14" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E1147" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1147" s="14" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:6">
+      <c r="A1148" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1148" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1148" s="32">
+        <v>13</v>
+      </c>
+      <c r="D1148" s="14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E1148" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1148" s="14" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:6">
+      <c r="A1149" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1149" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1149" s="32">
+        <v>13</v>
+      </c>
+      <c r="D1149" s="14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E1149" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1149" s="14" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:6">
+      <c r="A1150" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1150" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1150" s="32">
+        <v>14</v>
+      </c>
+      <c r="D1150" s="14" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E1150" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1150" s="14" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:6">
+      <c r="A1151" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1151" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1151" s="32">
+        <v>14</v>
+      </c>
+      <c r="D1151" s="14" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E1151" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1151" s="14" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:6">
+      <c r="A1152" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1152" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1152" s="32">
+        <v>15</v>
+      </c>
+      <c r="D1152" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E1152" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1152" s="14" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:7">
+      <c r="A1153" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1153" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1153" s="32">
+        <v>15</v>
+      </c>
+      <c r="D1153" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E1153" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1153" s="14" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:7">
+      <c r="A1154" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1154" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1154" s="32">
+        <v>16</v>
+      </c>
+      <c r="D1154" s="14" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E1154" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1154" s="14" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:7">
+      <c r="A1155" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1155" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1155" s="32">
+        <v>16</v>
+      </c>
+      <c r="D1155" s="14" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E1155" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1155" s="14" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:7">
+      <c r="A1156" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1156" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1156" s="32">
+        <v>17</v>
+      </c>
+      <c r="D1156" s="14" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E1156" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1156" s="14" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:7">
+      <c r="A1157" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1157" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1157" s="32">
+        <v>17</v>
+      </c>
+      <c r="D1157" s="14" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E1157" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1157" s="14" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:7">
+      <c r="A1158" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1158" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1158" s="32">
+        <v>18</v>
+      </c>
+      <c r="D1158" s="14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E1158" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1158" s="14" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:7">
+      <c r="A1159" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1159" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1159" s="32">
+        <v>18</v>
+      </c>
+      <c r="D1159" s="14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E1159" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1159" s="14" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:7">
+      <c r="A1160" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1160" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1160" s="32">
+        <v>19</v>
+      </c>
+      <c r="D1160" s="14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E1160" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1160" s="14" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:7">
+      <c r="A1161" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1161" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1161" s="32">
+        <v>19</v>
+      </c>
+      <c r="D1161" s="14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E1161" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1161" s="14" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:7">
+      <c r="A1162" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1162" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1162" s="32">
         <v>20</v>
       </c>
-      <c r="D1143" s="14" t="s">
+      <c r="D1162" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="E1143" s="1" t="s">
+      <c r="E1162" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F1143" s="14" t="s">
+      <c r="F1162" s="14" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="1144" spans="1:7">
-      <c r="A1144" s="14" t="s">
+    <row r="1163" spans="1:7">
+      <c r="A1163" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1163" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1163" s="32">
+        <v>20</v>
+      </c>
+      <c r="D1163" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1163" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F1163" s="14" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:7">
+      <c r="A1164" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1144" s="14"/>
-      <c r="C1144" s="37"/>
-      <c r="D1144" s="14" t="s">
+      <c r="B1164" s="14"/>
+      <c r="C1164" s="37"/>
+      <c r="D1164" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F1144" s="14" t="s">
+      <c r="F1164" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="G1144" s="1" t="s">
+      <c r="G1164" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="1145" spans="1:7">
-      <c r="A1145" s="14" t="s">
+    <row r="1165" spans="1:7">
+      <c r="A1165" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1145" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1145" s="32">
+      <c r="B1165" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1165" s="32">
         <v>1</v>
       </c>
-      <c r="D1145" s="14" t="s">
+      <c r="D1165" s="14" t="s">
         <v>677</v>
       </c>
-      <c r="E1145" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F1145" s="14" t="s">
+      <c r="E1165" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1165" s="14" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="1146" spans="1:7">
-      <c r="A1146" s="14" t="s">
+    <row r="1166" spans="1:7">
+      <c r="A1166" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1146" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1146" s="32">
+      <c r="B1166" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1166" s="32">
+        <v>1</v>
+      </c>
+      <c r="D1166" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="E1166" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1166" s="14" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:7">
+      <c r="A1167" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1167" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1167" s="32">
         <v>2</v>
       </c>
-      <c r="D1146" s="14" t="s">
+      <c r="D1167" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="E1146" s="1" t="s">
+      <c r="E1167" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F1146" s="14" t="s">
+      <c r="F1167" s="14" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="1147" spans="1:7">
-      <c r="A1147" s="14" t="s">
+    <row r="1168" spans="1:7">
+      <c r="A1168" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1147" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1147" s="32">
+      <c r="B1168" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1168" s="32">
+        <v>2</v>
+      </c>
+      <c r="D1168" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="E1168" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1168" s="14" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6">
+      <c r="A1169" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1169" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1169" s="32">
         <v>3</v>
       </c>
-      <c r="D1147" s="14" t="s">
+      <c r="D1169" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="E1147" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F1147" s="14" t="s">
+      <c r="E1169" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1169" s="14" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="1148" spans="1:7">
-      <c r="A1148" s="14" t="s">
+    <row r="1170" spans="1:6">
+      <c r="A1170" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1148" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1148" s="32">
+      <c r="B1170" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1170" s="32">
+        <v>3</v>
+      </c>
+      <c r="D1170" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="E1170" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1170" s="14" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6">
+      <c r="A1171" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1171" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1171" s="32">
         <v>4</v>
       </c>
-      <c r="D1148" s="14" t="s">
+      <c r="D1171" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="E1148" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F1148" s="14" t="s">
+      <c r="E1171" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1171" s="14" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="1149" spans="1:7">
-      <c r="A1149" s="14" t="s">
+    <row r="1172" spans="1:6">
+      <c r="A1172" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1149" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1149" s="32">
+      <c r="B1172" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1172" s="32">
+        <v>4</v>
+      </c>
+      <c r="D1172" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="E1172" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1172" s="14" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6">
+      <c r="A1173" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1173" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1173" s="32">
         <v>5</v>
       </c>
-      <c r="D1149" s="14" t="s">
+      <c r="D1173" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="E1149" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F1149" s="14" t="s">
+      <c r="E1173" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1173" s="14" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="1150" spans="1:7">
-      <c r="A1150" s="14" t="s">
+    <row r="1174" spans="1:6">
+      <c r="A1174" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1150" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1150" s="32">
+      <c r="B1174" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1174" s="32">
+        <v>5</v>
+      </c>
+      <c r="D1174" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="E1174" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1174" s="14" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6">
+      <c r="A1175" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1175" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1175" s="32">
         <v>6</v>
       </c>
-      <c r="D1150" s="14" t="s">
+      <c r="D1175" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="E1150" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F1150" s="14" t="s">
+      <c r="E1175" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1175" s="14" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="1151" spans="1:7">
-      <c r="A1151" s="14" t="s">
+    <row r="1176" spans="1:6">
+      <c r="A1176" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1151" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1151" s="32">
+      <c r="B1176" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1176" s="32">
+        <v>6</v>
+      </c>
+      <c r="D1176" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="E1176" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1176" s="14" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6">
+      <c r="A1177" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1177" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1177" s="32">
         <v>7</v>
       </c>
-      <c r="D1151" s="14" t="s">
+      <c r="D1177" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="E1151" s="1" t="s">
+      <c r="E1177" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F1151" s="14" t="s">
+      <c r="F1177" s="14" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="1152" spans="1:7">
-      <c r="A1152" s="14" t="s">
+    <row r="1178" spans="1:6">
+      <c r="A1178" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1152" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1152" s="32">
+      <c r="B1178" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1178" s="32">
+        <v>7</v>
+      </c>
+      <c r="D1178" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1178" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1178" s="14" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6">
+      <c r="A1179" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1179" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1179" s="32">
         <v>8</v>
       </c>
-      <c r="D1152" s="14" t="s">
+      <c r="D1179" s="14" t="s">
         <v>682</v>
       </c>
-      <c r="E1152" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F1152" s="14" t="s">
+      <c r="E1179" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1179" s="14" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="1153" spans="1:6">
-      <c r="A1153" s="14" t="s">
+    <row r="1180" spans="1:6">
+      <c r="A1180" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1153" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1153" s="32">
+      <c r="B1180" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1180" s="32">
+        <v>8</v>
+      </c>
+      <c r="D1180" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="E1180" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1180" s="14" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6">
+      <c r="A1181" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1181" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1181" s="32">
         <v>9</v>
       </c>
-      <c r="D1153" s="14" t="s">
+      <c r="D1181" s="14" t="s">
         <v>681</v>
       </c>
-      <c r="E1153" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F1153" s="14" t="s">
+      <c r="E1181" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1181" s="14" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="1154" spans="1:6">
-      <c r="A1154" s="14" t="s">
+    <row r="1182" spans="1:6">
+      <c r="A1182" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1154" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1154" s="32">
+      <c r="B1182" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1182" s="32">
+        <v>9</v>
+      </c>
+      <c r="D1182" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="E1182" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1182" s="14" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6">
+      <c r="A1183" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1183" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1183" s="32">
         <v>10</v>
       </c>
-      <c r="D1154" s="14" t="s">
+      <c r="D1183" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="E1154" s="1" t="s">
+      <c r="E1183" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F1154" s="14" t="s">
+      <c r="F1183" s="14" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="1155" spans="1:6">
-      <c r="A1155" s="14" t="s">
+    <row r="1184" spans="1:6">
+      <c r="A1184" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1155" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1155" s="32">
+      <c r="B1184" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1184" s="32">
+        <v>10</v>
+      </c>
+      <c r="D1184" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="E1184" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1184" s="14" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6">
+      <c r="A1185" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1185" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1185" s="32">
         <v>11</v>
       </c>
-      <c r="D1155" s="14" t="s">
+      <c r="D1185" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="E1155" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F1155" s="14" t="s">
+      <c r="E1185" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1185" s="14" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="1156" spans="1:6">
-      <c r="A1156" s="14" t="s">
+    <row r="1186" spans="1:6">
+      <c r="A1186" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1156" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1156" s="32">
+      <c r="B1186" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1186" s="32">
+        <v>11</v>
+      </c>
+      <c r="D1186" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="E1186" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1186" s="14" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6">
+      <c r="A1187" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1187" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1187" s="32">
         <v>12</v>
       </c>
-      <c r="D1156" s="14" t="s">
+      <c r="D1187" s="14" t="s">
         <v>684</v>
       </c>
-      <c r="E1156" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F1156" s="14" t="s">
+      <c r="E1187" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1187" s="14" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="1157" spans="1:6">
-      <c r="A1157" s="14" t="s">
+    <row r="1188" spans="1:6">
+      <c r="A1188" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1157" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1157" s="32">
+      <c r="B1188" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1188" s="32">
+        <v>12</v>
+      </c>
+      <c r="D1188" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="E1188" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1188" s="14" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6">
+      <c r="A1189" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1189" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1189" s="32">
         <v>13</v>
       </c>
-      <c r="D1157" s="14" t="s">
+      <c r="D1189" s="14" t="s">
         <v>739</v>
       </c>
-      <c r="E1157" s="1" t="s">
+      <c r="E1189" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F1157" s="14" t="s">
+      <c r="F1189" s="14" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="1158" spans="1:6">
-      <c r="A1158" s="14" t="s">
+    <row r="1190" spans="1:6">
+      <c r="A1190" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1158" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1158" s="32">
+      <c r="B1190" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1190" s="32">
+        <v>13</v>
+      </c>
+      <c r="D1190" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="E1190" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1190" s="14" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6">
+      <c r="A1191" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1191" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1191" s="32">
         <v>14</v>
       </c>
-      <c r="D1158" s="14" t="s">
+      <c r="D1191" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="E1158" s="1" t="s">
+      <c r="E1191" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F1158" s="14" t="s">
+      <c r="F1191" s="14" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="1159" spans="1:6">
-      <c r="A1159" s="14" t="s">
+    <row r="1192" spans="1:6">
+      <c r="A1192" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1192" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1192" s="32">
+        <v>14</v>
+      </c>
+      <c r="D1192" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1192" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F1192" s="14" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6">
+      <c r="A1193" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="B1159" s="14"/>
-      <c r="C1159" s="37"/>
-      <c r="D1159" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1159" s="14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:6">
-      <c r="A1160" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1160" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1160" s="32">
-        <v>1</v>
-      </c>
-      <c r="D1160" s="14" t="s">
-        <v>801</v>
-      </c>
-      <c r="E1160" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F1160" s="14" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:6">
-      <c r="A1161" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1161" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1161" s="32">
-        <v>2</v>
-      </c>
-      <c r="D1161" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="E1161" s="24" t="s">
-        <v>881</v>
-      </c>
-      <c r="F1161" s="14" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:6">
-      <c r="A1162" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1162" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1162" s="32">
-        <v>3</v>
-      </c>
-      <c r="D1162" s="14" t="s">
-        <v>803</v>
-      </c>
-      <c r="E1162" s="24" t="s">
-        <v>881</v>
-      </c>
-      <c r="F1162" s="14" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:6">
-      <c r="A1163" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1163" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1163" s="32">
-        <v>4</v>
-      </c>
-      <c r="D1163" s="14" t="s">
-        <v>804</v>
-      </c>
-      <c r="E1163" s="24" t="s">
-        <v>881</v>
-      </c>
-      <c r="F1163" s="14" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:6">
-      <c r="A1164" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1164" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1164" s="32">
-        <v>5</v>
-      </c>
-      <c r="D1164" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E1164" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F1164" s="14" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:6">
-      <c r="A1165" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1165" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1165" s="32">
-        <v>6</v>
-      </c>
-      <c r="D1165" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="E1165" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F1165" s="14" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:6">
-      <c r="A1166" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1166" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1166" s="32">
-        <v>7</v>
-      </c>
-      <c r="D1166" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="E1166" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F1166" s="14" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:6">
-      <c r="A1167" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1167" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1167" s="32">
-        <v>8</v>
-      </c>
-      <c r="D1167" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="E1167" s="24" t="s">
-        <v>881</v>
-      </c>
-      <c r="F1167" s="14" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:6">
-      <c r="A1168" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1168" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1168" s="32">
-        <v>9</v>
-      </c>
-      <c r="D1168" s="14" t="s">
-        <v>808</v>
-      </c>
-      <c r="E1168" s="24" t="s">
-        <v>881</v>
-      </c>
-      <c r="F1168" s="14" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:7">
-      <c r="A1169" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1169" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1169" s="32">
-        <v>10</v>
-      </c>
-      <c r="D1169" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="E1169" s="24" t="s">
-        <v>881</v>
-      </c>
-      <c r="F1169" s="14" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:7">
-      <c r="A1170" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1170" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1170" s="32">
-        <v>11</v>
-      </c>
-      <c r="D1170" s="14" t="s">
-        <v>810</v>
-      </c>
-      <c r="E1170" s="24" t="s">
-        <v>881</v>
-      </c>
-      <c r="F1170" s="14" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:7">
-      <c r="A1171" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1171" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1171" s="32">
-        <v>12</v>
-      </c>
-      <c r="D1171" s="14" t="s">
-        <v>811</v>
-      </c>
-      <c r="E1171" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F1171" s="14" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:7">
-      <c r="A1172" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1172" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1172" s="32">
-        <v>13</v>
-      </c>
-      <c r="D1172" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="E1172" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F1172" s="14" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:7">
-      <c r="A1173" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1173" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1173" s="32">
-        <v>14</v>
-      </c>
-      <c r="D1173" s="14" t="s">
-        <v>813</v>
-      </c>
-      <c r="E1173" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F1173" s="14" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:7">
-      <c r="A1174" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1174" s="14"/>
-      <c r="C1174" s="37"/>
-      <c r="D1174" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1174" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="G1174" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:7">
-      <c r="A1175" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1175" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1175" s="37">
-        <v>1</v>
-      </c>
-      <c r="D1175" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="E1175" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="F1175" s="14" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:7">
-      <c r="A1176" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1176" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1176" s="37">
-        <v>2</v>
-      </c>
-      <c r="D1176" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="E1176" s="43" t="s">
-        <v>393</v>
-      </c>
-      <c r="F1176" s="14" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:7">
-      <c r="A1177" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1177" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1177" s="37">
-        <v>3</v>
-      </c>
-      <c r="D1177" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="E1177" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="F1177" s="14" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:7">
-      <c r="A1178" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1178" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1178" s="37">
-        <v>4</v>
-      </c>
-      <c r="D1178" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="E1178" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="F1178" s="14" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:7">
-      <c r="A1179" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1179" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1179" s="37">
-        <v>5</v>
-      </c>
-      <c r="D1179" s="14" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E1179" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1179" s="14" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G1179" s="24" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:7">
-      <c r="A1180" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1180" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1180" s="37">
-        <v>6</v>
-      </c>
-      <c r="D1180" s="14" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E1180" s="43" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F1180" s="14" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:7">
-      <c r="A1181" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1181" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1181" s="37">
-        <v>7</v>
-      </c>
-      <c r="D1181" s="14" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E1181" s="43" t="s">
-        <v>403</v>
-      </c>
-      <c r="F1181" s="14" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:7">
-      <c r="A1182" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1182" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1182" s="37">
-        <v>8</v>
-      </c>
-      <c r="D1182" s="14" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E1182" s="43" t="s">
-        <v>973</v>
-      </c>
-      <c r="F1182" s="14" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:7">
-      <c r="A1183" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1183" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1183" s="37">
-        <v>9</v>
-      </c>
-      <c r="D1183" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="E1183" s="43" t="s">
-        <v>393</v>
-      </c>
-      <c r="F1183" s="14" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:7">
-      <c r="A1184" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1184" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1184" s="37">
-        <v>10</v>
-      </c>
-      <c r="D1184" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="E1184" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="F1184" s="14" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:7">
-      <c r="A1185" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1185" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1185" s="37">
-        <v>11</v>
-      </c>
-      <c r="D1185" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="E1185" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="F1185" s="14" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:7">
-      <c r="A1186" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1186" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1186" s="37">
-        <v>12</v>
-      </c>
-      <c r="D1186" s="14" t="s">
-        <v>813</v>
-      </c>
-      <c r="E1186" s="43" t="s">
-        <v>708</v>
-      </c>
-      <c r="F1186" s="14" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:7">
-      <c r="A1187" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1187" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1187" s="37">
-        <v>13</v>
-      </c>
-      <c r="D1187" s="14" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E1187" s="43" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F1187" s="14" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:7">
-      <c r="A1188" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1188" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1188" s="37">
-        <v>14</v>
-      </c>
-      <c r="D1188" s="14" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E1188" s="43" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F1188" s="14" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:7">
-      <c r="A1189" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1189" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1189" s="37">
-        <v>15</v>
-      </c>
-      <c r="D1189" s="14" t="s">
-        <v>813</v>
-      </c>
-      <c r="E1189" s="43" t="s">
-        <v>708</v>
-      </c>
-      <c r="F1189" s="14" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:7">
-      <c r="A1190" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1190" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1190" s="37">
-        <v>16</v>
-      </c>
-      <c r="D1190" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="E1190" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="F1190" s="14" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:7">
-      <c r="A1191" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1191" s="14"/>
-      <c r="C1191" s="37"/>
-      <c r="D1191" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1191" s="14"/>
-      <c r="G1191" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:7">
-      <c r="A1192" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1192" s="14"/>
-      <c r="C1192" s="37"/>
-      <c r="D1192" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1192" s="14" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:7">
-      <c r="A1193" s="14" t="s">
-        <v>144</v>
       </c>
       <c r="B1193" s="14"/>
       <c r="C1193" s="37"/>
-      <c r="D1193" s="1" t="s">
+      <c r="D1193" s="14" t="s">
         <v>185</v>
       </c>
       <c r="F1193" s="14" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:7" ht="72">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6">
       <c r="A1194" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1194" s="14"/>
-      <c r="C1194" s="37"/>
-      <c r="D1194" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1194" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:7">
-      <c r="A1195" s="26"/>
-      <c r="B1195" s="26"/>
-      <c r="C1195" s="33"/>
-    </row>
-    <row r="1196" spans="1:7">
-      <c r="A1196" s="48"/>
-      <c r="B1196"/>
-      <c r="C1196" s="4"/>
-    </row>
-    <row r="1197" spans="1:7">
-      <c r="A1197" s="49"/>
-      <c r="B1197" s="27"/>
-      <c r="C1197" s="38"/>
-    </row>
-    <row r="1198" spans="1:7">
-      <c r="A1198" s="48"/>
-      <c r="B1198"/>
-      <c r="C1198" s="4"/>
-    </row>
-    <row r="1199" spans="1:7">
-      <c r="A1199" s="14"/>
-      <c r="B1199" s="14"/>
-      <c r="C1199" s="37"/>
-    </row>
-    <row r="1200" spans="1:7">
-      <c r="A1200" s="14"/>
-      <c r="B1200" s="14"/>
-      <c r="C1200" s="37"/>
-    </row>
-    <row r="1201" spans="1:3">
-      <c r="A1201" s="28"/>
-      <c r="B1201" s="28"/>
-      <c r="C1201" s="39"/>
-    </row>
-    <row r="1202" spans="1:3">
-      <c r="A1202" s="14"/>
-      <c r="B1202" s="14"/>
-      <c r="C1202" s="37"/>
-    </row>
-    <row r="1203" spans="1:3">
-      <c r="A1203" s="14"/>
-      <c r="B1203" s="14"/>
-      <c r="C1203" s="37"/>
-    </row>
-    <row r="1204" spans="1:3">
-      <c r="A1204" s="14"/>
-      <c r="B1204" s="14"/>
-      <c r="C1204" s="37"/>
-    </row>
-    <row r="1205" spans="1:3">
-      <c r="A1205" s="28"/>
-      <c r="B1205" s="28"/>
-      <c r="C1205" s="39"/>
-    </row>
-    <row r="1206" spans="1:3">
-      <c r="A1206" s="14"/>
-      <c r="B1206" s="14"/>
-      <c r="C1206" s="37"/>
-    </row>
-    <row r="1207" spans="1:3">
-      <c r="A1207" s="14"/>
-      <c r="B1207" s="14"/>
-      <c r="C1207" s="37"/>
-    </row>
-    <row r="1208" spans="1:3">
-      <c r="A1208" s="14"/>
-      <c r="B1208" s="14"/>
-      <c r="C1208" s="37"/>
-    </row>
-    <row r="1209" spans="1:3">
-      <c r="A1209" s="14"/>
-      <c r="B1209" s="14"/>
-      <c r="C1209" s="37"/>
-    </row>
-    <row r="1210" spans="1:3">
-      <c r="A1210" s="14"/>
-      <c r="B1210" s="14"/>
-      <c r="C1210" s="37"/>
-    </row>
-    <row r="1211" spans="1:3">
-      <c r="A1211" s="14"/>
-      <c r="B1211" s="14"/>
-      <c r="C1211" s="37"/>
-    </row>
-    <row r="1212" spans="1:3">
-      <c r="A1212" s="14"/>
-      <c r="B1212" s="14"/>
-      <c r="C1212" s="37"/>
-    </row>
-    <row r="1213" spans="1:3">
-      <c r="A1213" s="14"/>
-      <c r="B1213" s="14"/>
-      <c r="C1213" s="37"/>
-    </row>
-    <row r="1214" spans="1:3">
-      <c r="A1214" s="14"/>
-      <c r="B1214" s="14"/>
-      <c r="C1214" s="37"/>
-    </row>
-    <row r="1215" spans="1:3">
-      <c r="A1215" s="14"/>
-      <c r="B1215" s="14"/>
-      <c r="C1215" s="37"/>
-    </row>
-    <row r="1216" spans="1:3">
-      <c r="A1216" s="14"/>
-      <c r="B1216" s="14"/>
-      <c r="C1216" s="37"/>
-    </row>
-    <row r="1217" spans="1:3">
-      <c r="A1217" s="14"/>
-      <c r="B1217" s="14"/>
-      <c r="C1217" s="37"/>
-    </row>
-    <row r="1218" spans="1:3">
-      <c r="A1218" s="14"/>
-      <c r="B1218" s="14"/>
-      <c r="C1218" s="37"/>
-    </row>
-    <row r="1219" spans="1:3">
-      <c r="A1219" s="14"/>
-      <c r="B1219" s="14"/>
-      <c r="C1219" s="37"/>
-    </row>
-    <row r="1220" spans="1:3">
-      <c r="A1220" s="14"/>
-      <c r="B1220" s="14"/>
-      <c r="C1220" s="37"/>
-    </row>
-    <row r="1221" spans="1:3">
-      <c r="A1221" s="14"/>
-      <c r="B1221" s="14"/>
-      <c r="C1221" s="37"/>
-    </row>
-    <row r="1222" spans="1:3">
-      <c r="A1222" s="14"/>
+        <v>108</v>
+      </c>
+      <c r="B1194" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1194" s="32">
+        <v>1</v>
+      </c>
+      <c r="D1194" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="E1194" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1194" s="14" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6">
+      <c r="A1195" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1195" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1195" s="32">
+        <v>1</v>
+      </c>
+      <c r="D1195" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="E1195" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1195" s="14" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6">
+      <c r="A1196" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1196" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1196" s="32">
+        <v>2</v>
+      </c>
+      <c r="D1196" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="E1196" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1196" s="14" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6">
+      <c r="A1197" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1197" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1197" s="32">
+        <v>2</v>
+      </c>
+      <c r="D1197" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="E1197" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1197" s="14" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6">
+      <c r="A1198" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1198" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1198" s="32">
+        <v>3</v>
+      </c>
+      <c r="D1198" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="E1198" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1198" s="14" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6">
+      <c r="A1199" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1199" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1199" s="32">
+        <v>3</v>
+      </c>
+      <c r="D1199" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="E1199" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1199" s="14" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6">
+      <c r="A1200" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1200" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1200" s="32">
+        <v>4</v>
+      </c>
+      <c r="D1200" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="E1200" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1200" s="14" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6">
+      <c r="A1201" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1201" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1201" s="32">
+        <v>4</v>
+      </c>
+      <c r="D1201" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="E1201" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1201" s="14" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6">
+      <c r="A1202" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1202" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1202" s="32">
+        <v>5</v>
+      </c>
+      <c r="D1202" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E1202" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1202" s="14" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6">
+      <c r="A1203" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1203" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1203" s="32">
+        <v>5</v>
+      </c>
+      <c r="D1203" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E1203" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1203" s="14" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6">
+      <c r="A1204" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1204" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1204" s="32">
+        <v>6</v>
+      </c>
+      <c r="D1204" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="E1204" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1204" s="14" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6">
+      <c r="A1205" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1205" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1205" s="32">
+        <v>6</v>
+      </c>
+      <c r="D1205" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="E1205" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1205" s="14" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6">
+      <c r="A1206" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1206" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1206" s="32">
+        <v>7</v>
+      </c>
+      <c r="D1206" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1206" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1206" s="14" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6">
+      <c r="A1207" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1207" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1207" s="32">
+        <v>7</v>
+      </c>
+      <c r="D1207" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1207" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1207" s="14" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6">
+      <c r="A1208" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1208" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1208" s="32">
+        <v>8</v>
+      </c>
+      <c r="D1208" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="E1208" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1208" s="14" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6">
+      <c r="A1209" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1209" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1209" s="32">
+        <v>8</v>
+      </c>
+      <c r="D1209" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="E1209" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1209" s="14" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6">
+      <c r="A1210" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1210" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1210" s="32">
+        <v>9</v>
+      </c>
+      <c r="D1210" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="E1210" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1210" s="14" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6">
+      <c r="A1211" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1211" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1211" s="32">
+        <v>9</v>
+      </c>
+      <c r="D1211" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="E1211" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1211" s="14" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6">
+      <c r="A1212" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1212" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1212" s="32">
+        <v>10</v>
+      </c>
+      <c r="D1212" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="E1212" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1212" s="14" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6">
+      <c r="A1213" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1213" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1213" s="32">
+        <v>10</v>
+      </c>
+      <c r="D1213" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="E1213" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1213" s="14" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6">
+      <c r="A1214" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1214" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1214" s="32">
+        <v>11</v>
+      </c>
+      <c r="D1214" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="E1214" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1214" s="14" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6">
+      <c r="A1215" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1215" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1215" s="32">
+        <v>11</v>
+      </c>
+      <c r="D1215" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="E1215" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1215" s="14" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6">
+      <c r="A1216" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1216" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1216" s="32">
+        <v>12</v>
+      </c>
+      <c r="D1216" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="E1216" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1216" s="14" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:7">
+      <c r="A1217" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1217" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1217" s="32">
+        <v>12</v>
+      </c>
+      <c r="D1217" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="E1217" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1217" s="14" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:7">
+      <c r="A1218" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1218" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1218" s="32">
+        <v>13</v>
+      </c>
+      <c r="D1218" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="E1218" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1218" s="14" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:7">
+      <c r="A1219" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1219" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1219" s="32">
+        <v>13</v>
+      </c>
+      <c r="D1219" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="E1219" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1219" s="14" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:7">
+      <c r="A1220" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1220" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1220" s="32">
+        <v>14</v>
+      </c>
+      <c r="D1220" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="E1220" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1220" s="14" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:7">
+      <c r="A1221" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1221" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1221" s="32">
+        <v>14</v>
+      </c>
+      <c r="D1221" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="E1221" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F1221" s="14" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:7">
+      <c r="A1222" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="B1222" s="14"/>
       <c r="C1222" s="37"/>
-    </row>
-    <row r="1223" spans="1:3">
-      <c r="A1223" s="14"/>
-      <c r="B1223" s="14"/>
-      <c r="C1223" s="37"/>
-    </row>
-    <row r="1350" spans="5:5">
-      <c r="E1350" s="43"/>
-    </row>
-    <row r="1351" spans="5:5">
-      <c r="E1351" s="43"/>
-    </row>
-    <row r="1352" spans="5:5">
-      <c r="E1352" s="43"/>
-    </row>
-    <row r="1353" spans="5:5">
-      <c r="E1353" s="43"/>
-    </row>
-    <row r="1354" spans="5:5">
-      <c r="E1354" s="43"/>
-    </row>
-    <row r="1355" spans="5:5">
-      <c r="E1355" s="43"/>
-    </row>
-    <row r="1356" spans="5:5">
-      <c r="E1356" s="43"/>
-    </row>
-    <row r="1366" spans="5:7">
-      <c r="E1366" s="43"/>
-    </row>
-    <row r="1368" spans="5:7">
-      <c r="E1368" s="43"/>
-      <c r="G1368" s="43"/>
-    </row>
-    <row r="1369" spans="5:7">
-      <c r="G1369" s="43"/>
-    </row>
-    <row r="1370" spans="5:7">
-      <c r="E1370" s="44"/>
-      <c r="G1370" s="43"/>
-    </row>
-    <row r="1371" spans="5:7">
-      <c r="E1371" s="43"/>
-      <c r="G1371" s="43"/>
-    </row>
-    <row r="1372" spans="5:7">
-      <c r="E1372" s="43"/>
-      <c r="G1372" s="43"/>
-    </row>
-    <row r="1373" spans="5:7">
-      <c r="E1373" s="43"/>
-      <c r="G1373" s="43"/>
-    </row>
-    <row r="1374" spans="5:7">
-      <c r="E1374" s="43"/>
-      <c r="G1374" s="43"/>
-    </row>
-    <row r="1375" spans="5:7">
-      <c r="E1375" s="43"/>
-      <c r="G1375" s="43"/>
-    </row>
-    <row r="1376" spans="5:7">
-      <c r="E1376" s="45"/>
-      <c r="G1376" s="43"/>
-    </row>
-    <row r="1377" spans="5:7">
-      <c r="E1377" s="43"/>
-      <c r="G1377" s="43"/>
-    </row>
-    <row r="1378" spans="5:7">
-      <c r="E1378" s="43"/>
-      <c r="G1378" s="43"/>
-    </row>
-    <row r="1379" spans="5:7">
-      <c r="E1379" s="43"/>
-      <c r="G1379" s="43"/>
-    </row>
-    <row r="1380" spans="5:7">
-      <c r="E1380" s="43"/>
-      <c r="G1380" s="43"/>
-    </row>
-    <row r="1381" spans="5:7">
-      <c r="E1381" s="43"/>
-      <c r="G1381" s="43"/>
-    </row>
-    <row r="1382" spans="5:7">
-      <c r="E1382" s="43"/>
-      <c r="G1382" s="43"/>
-    </row>
-    <row r="1383" spans="5:7">
-      <c r="E1383" s="43"/>
-      <c r="G1383" s="43"/>
-    </row>
-    <row r="1384" spans="5:7">
-      <c r="E1384" s="43"/>
-      <c r="G1384" s="43"/>
-    </row>
-    <row r="1385" spans="5:7">
-      <c r="E1385" s="43"/>
-      <c r="G1385" s="43"/>
-    </row>
-    <row r="1386" spans="5:7">
-      <c r="E1386" s="43"/>
-      <c r="G1386" s="43"/>
-    </row>
-    <row r="1387" spans="5:7">
-      <c r="E1387" s="43"/>
-      <c r="G1387" s="43"/>
-    </row>
-    <row r="1388" spans="5:7">
-      <c r="E1388" s="43"/>
-      <c r="G1388" s="43"/>
-    </row>
-    <row r="1389" spans="5:7">
-      <c r="E1389" s="43"/>
-      <c r="G1389" s="43"/>
-    </row>
-    <row r="1390" spans="5:7">
-      <c r="E1390" s="43"/>
-      <c r="G1390" s="43"/>
-    </row>
-    <row r="1391" spans="5:7">
-      <c r="E1391" s="43"/>
-      <c r="G1391" s="43"/>
-    </row>
-    <row r="1392" spans="5:7">
-      <c r="E1392" s="43"/>
-      <c r="G1392" s="43"/>
-    </row>
-    <row r="1393" spans="5:7">
-      <c r="E1393" s="43"/>
-      <c r="G1393" s="43"/>
-    </row>
-    <row r="1394" spans="5:7">
-      <c r="E1394" s="43"/>
-      <c r="G1394" s="43"/>
-    </row>
-    <row r="1395" spans="5:7">
-      <c r="E1395" s="43"/>
-      <c r="G1395" s="43"/>
-    </row>
-    <row r="1396" spans="5:7">
-      <c r="E1396" s="43"/>
-      <c r="G1396" s="43"/>
-    </row>
-    <row r="1397" spans="5:7">
-      <c r="E1397" s="43"/>
-      <c r="G1397" s="43"/>
-    </row>
-    <row r="1398" spans="5:7">
-      <c r="E1398" s="43"/>
-      <c r="G1398" s="43"/>
-    </row>
-    <row r="1399" spans="5:7">
-      <c r="E1399" s="43"/>
-      <c r="G1399" s="43"/>
-    </row>
-    <row r="1400" spans="5:7">
-      <c r="E1400" s="43"/>
-      <c r="G1400" s="43"/>
-    </row>
-    <row r="1401" spans="5:7">
-      <c r="E1401" s="43"/>
-      <c r="G1401" s="43"/>
-    </row>
-    <row r="1402" spans="5:7">
-      <c r="E1402" s="43"/>
-      <c r="G1402" s="43"/>
-    </row>
-    <row r="1403" spans="5:7">
-      <c r="E1403" s="43"/>
-      <c r="G1403" s="43"/>
-    </row>
-    <row r="1404" spans="5:7">
-      <c r="E1404" s="43"/>
-      <c r="G1404" s="43"/>
-    </row>
-    <row r="1405" spans="5:7">
-      <c r="E1405" s="43"/>
-      <c r="G1405" s="43"/>
-    </row>
-    <row r="1406" spans="5:7">
-      <c r="E1406" s="43"/>
-      <c r="G1406" s="43"/>
-    </row>
-    <row r="1407" spans="5:7">
-      <c r="E1407" s="43"/>
-      <c r="G1407" s="43"/>
-    </row>
-    <row r="1408" spans="5:7">
-      <c r="E1408" s="43"/>
-      <c r="G1408" s="43"/>
-    </row>
-    <row r="1409" spans="5:7">
-      <c r="E1409" s="43"/>
-      <c r="G1409" s="43"/>
-    </row>
-    <row r="1410" spans="5:7">
-      <c r="E1410" s="43"/>
-      <c r="G1410" s="43"/>
-    </row>
-    <row r="1411" spans="5:7">
-      <c r="E1411" s="43"/>
-      <c r="G1411" s="43"/>
-    </row>
-    <row r="1412" spans="5:7">
-      <c r="E1412" s="43"/>
-      <c r="G1412" s="43"/>
-    </row>
-    <row r="1413" spans="5:7">
-      <c r="E1413" s="43"/>
-      <c r="G1413" s="43"/>
-    </row>
-    <row r="1414" spans="5:7">
+      <c r="D1222" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1222" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1222" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:7">
+      <c r="A1223" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1223" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1223" s="37">
+        <v>1</v>
+      </c>
+      <c r="D1223" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1223" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F1223" s="14" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:7">
+      <c r="A1224" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1224" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1224" s="37">
+        <v>1</v>
+      </c>
+      <c r="D1224" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1224" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F1224" s="14" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:7">
+      <c r="A1225" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1225" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1225" s="37">
+        <v>2</v>
+      </c>
+      <c r="D1225" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1225" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1225" s="14" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:7">
+      <c r="A1226" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1226" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1226" s="37">
+        <v>2</v>
+      </c>
+      <c r="D1226" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1226" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1226" s="14" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:7">
+      <c r="A1227" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1227" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1227" s="37">
+        <v>3</v>
+      </c>
+      <c r="D1227" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1227" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F1227" s="14" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:7">
+      <c r="A1228" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1228" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1228" s="37">
+        <v>3</v>
+      </c>
+      <c r="D1228" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1228" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F1228" s="14" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:7">
+      <c r="A1229" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1229" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1229" s="37">
+        <v>4</v>
+      </c>
+      <c r="D1229" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1229" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F1229" s="14" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:7">
+      <c r="A1230" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1230" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1230" s="37">
+        <v>4</v>
+      </c>
+      <c r="D1230" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1230" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F1230" s="14" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:7">
+      <c r="A1231" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1231" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1231" s="37">
+        <v>5</v>
+      </c>
+      <c r="D1231" s="14" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E1231" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1231" s="14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G1231" s="24" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:7">
+      <c r="A1232" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1232" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1232" s="37">
+        <v>5</v>
+      </c>
+      <c r="D1232" s="14" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E1232" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1232" s="14" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G1232" s="24" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:7">
+      <c r="A1233" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1233" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1233" s="37">
+        <v>6</v>
+      </c>
+      <c r="D1233" s="14" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E1233" s="43" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F1233" s="14" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:7">
+      <c r="A1234" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1234" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1234" s="37">
+        <v>6</v>
+      </c>
+      <c r="D1234" s="14" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E1234" s="43" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F1234" s="14" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:7">
+      <c r="A1235" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1235" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1235" s="37">
+        <v>7</v>
+      </c>
+      <c r="D1235" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E1235" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1235" s="14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G1235" s="1" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:7">
+      <c r="A1236" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1236" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1236" s="37">
+        <v>7</v>
+      </c>
+      <c r="D1236" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E1236" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1236" s="14" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G1236" s="1" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:7">
+      <c r="A1237" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1237" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1237" s="37">
+        <v>8</v>
+      </c>
+      <c r="D1237" s="14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E1237" s="43" t="s">
+        <v>973</v>
+      </c>
+      <c r="F1237" s="14" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:7">
+      <c r="A1238" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1238" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1238" s="37">
+        <v>8</v>
+      </c>
+      <c r="D1238" s="14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E1238" s="43" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F1238" s="14" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:7">
+      <c r="A1239" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1239" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1239" s="37">
+        <v>9</v>
+      </c>
+      <c r="D1239" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1239" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1239" s="14" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:7">
+      <c r="A1240" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1240" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1240" s="37">
+        <v>9</v>
+      </c>
+      <c r="D1240" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1240" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1240" s="14" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:7">
+      <c r="A1241" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1241" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1241" s="37">
+        <v>10</v>
+      </c>
+      <c r="D1241" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1241" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F1241" s="14" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:7">
+      <c r="A1242" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1242" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1242" s="37">
+        <v>10</v>
+      </c>
+      <c r="D1242" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1242" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F1242" s="14" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:7">
+      <c r="A1243" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1243" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1243" s="37">
+        <v>11</v>
+      </c>
+      <c r="D1243" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1243" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F1243" s="14" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:7">
+      <c r="A1244" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1244" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1244" s="37">
+        <v>11</v>
+      </c>
+      <c r="D1244" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1244" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F1244" s="14" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:7">
+      <c r="A1245" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1245" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1245" s="37">
+        <v>12</v>
+      </c>
+      <c r="D1245" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="E1245" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="F1245" s="14" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:7">
+      <c r="A1246" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1246" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1246" s="37">
+        <v>12</v>
+      </c>
+      <c r="D1246" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="E1246" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="F1246" s="14" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:7">
+      <c r="A1247" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1247" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1247" s="37">
+        <v>13</v>
+      </c>
+      <c r="D1247" s="14" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E1247" s="43" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F1247" s="14" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:7">
+      <c r="A1248" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1248" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1248" s="37">
+        <v>13</v>
+      </c>
+      <c r="D1248" s="14" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E1248" s="43" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F1248" s="14" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:7">
+      <c r="A1249" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1249" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1249" s="37">
+        <v>14</v>
+      </c>
+      <c r="D1249" s="14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E1249" s="43" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F1249" s="14" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:7">
+      <c r="A1250" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1250" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1250" s="37">
+        <v>14</v>
+      </c>
+      <c r="D1250" s="14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E1250" s="43" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F1250" s="14" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:7">
+      <c r="A1251" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1251" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1251" s="37">
+        <v>15</v>
+      </c>
+      <c r="D1251" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="E1251" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="F1251" s="14" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:7">
+      <c r="A1252" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1252" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1252" s="37">
+        <v>15</v>
+      </c>
+      <c r="D1252" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="E1252" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="F1252" s="14" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:7">
+      <c r="A1253" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1253" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1253" s="37">
+        <v>16</v>
+      </c>
+      <c r="D1253" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1253" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F1253" s="14" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:7">
+      <c r="A1254" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1254" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1254" s="37">
+        <v>16</v>
+      </c>
+      <c r="D1254" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1254" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F1254" s="14" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:7">
+      <c r="A1255" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1255" s="14"/>
+      <c r="C1255" s="37"/>
+      <c r="D1255" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1255" s="14"/>
+      <c r="G1255" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:7">
+      <c r="A1256" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1256" s="14"/>
+      <c r="C1256" s="37"/>
+      <c r="D1256" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1256" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:7">
+      <c r="A1257" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1257" s="14"/>
+      <c r="C1257" s="37"/>
+      <c r="D1257" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1257" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:7" ht="72">
+      <c r="A1258" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1258" s="14"/>
+      <c r="C1258" s="37"/>
+      <c r="D1258" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1258" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:7">
+      <c r="A1259" s="26"/>
+      <c r="B1259" s="26"/>
+      <c r="C1259" s="33"/>
+    </row>
+    <row r="1260" spans="1:7">
+      <c r="A1260" s="48"/>
+      <c r="B1260"/>
+      <c r="C1260" s="4"/>
+    </row>
+    <row r="1261" spans="1:7">
+      <c r="A1261" s="49"/>
+      <c r="B1261" s="27"/>
+      <c r="C1261" s="38"/>
+    </row>
+    <row r="1262" spans="1:7">
+      <c r="A1262" s="48"/>
+      <c r="B1262"/>
+      <c r="C1262" s="4"/>
+    </row>
+    <row r="1263" spans="1:7">
+      <c r="A1263" s="14"/>
+      <c r="B1263" s="14"/>
+      <c r="C1263" s="37"/>
+    </row>
+    <row r="1264" spans="1:7">
+      <c r="A1264" s="14"/>
+      <c r="B1264" s="14"/>
+      <c r="C1264" s="37"/>
+    </row>
+    <row r="1265" spans="1:3">
+      <c r="A1265" s="28"/>
+      <c r="B1265" s="28"/>
+      <c r="C1265" s="39"/>
+    </row>
+    <row r="1266" spans="1:3">
+      <c r="A1266" s="14"/>
+      <c r="B1266" s="14"/>
+      <c r="C1266" s="37"/>
+    </row>
+    <row r="1267" spans="1:3">
+      <c r="A1267" s="14"/>
+      <c r="B1267" s="14"/>
+      <c r="C1267" s="37"/>
+    </row>
+    <row r="1268" spans="1:3">
+      <c r="A1268" s="14"/>
+      <c r="B1268" s="14"/>
+      <c r="C1268" s="37"/>
+    </row>
+    <row r="1269" spans="1:3">
+      <c r="A1269" s="28"/>
+      <c r="B1269" s="28"/>
+      <c r="C1269" s="39"/>
+    </row>
+    <row r="1270" spans="1:3">
+      <c r="A1270" s="14"/>
+      <c r="B1270" s="14"/>
+      <c r="C1270" s="37"/>
+    </row>
+    <row r="1271" spans="1:3">
+      <c r="A1271" s="14"/>
+      <c r="B1271" s="14"/>
+      <c r="C1271" s="37"/>
+    </row>
+    <row r="1272" spans="1:3">
+      <c r="A1272" s="14"/>
+      <c r="B1272" s="14"/>
+      <c r="C1272" s="37"/>
+    </row>
+    <row r="1273" spans="1:3">
+      <c r="A1273" s="14"/>
+      <c r="B1273" s="14"/>
+      <c r="C1273" s="37"/>
+    </row>
+    <row r="1274" spans="1:3">
+      <c r="A1274" s="14"/>
+      <c r="B1274" s="14"/>
+      <c r="C1274" s="37"/>
+    </row>
+    <row r="1275" spans="1:3">
+      <c r="A1275" s="14"/>
+      <c r="B1275" s="14"/>
+      <c r="C1275" s="37"/>
+    </row>
+    <row r="1276" spans="1:3">
+      <c r="A1276" s="14"/>
+      <c r="B1276" s="14"/>
+      <c r="C1276" s="37"/>
+    </row>
+    <row r="1277" spans="1:3">
+      <c r="A1277" s="14"/>
+      <c r="B1277" s="14"/>
+      <c r="C1277" s="37"/>
+    </row>
+    <row r="1278" spans="1:3">
+      <c r="A1278" s="14"/>
+      <c r="B1278" s="14"/>
+      <c r="C1278" s="37"/>
+    </row>
+    <row r="1279" spans="1:3">
+      <c r="A1279" s="14"/>
+      <c r="B1279" s="14"/>
+      <c r="C1279" s="37"/>
+    </row>
+    <row r="1280" spans="1:3">
+      <c r="A1280" s="14"/>
+      <c r="B1280" s="14"/>
+      <c r="C1280" s="37"/>
+    </row>
+    <row r="1281" spans="1:3">
+      <c r="A1281" s="14"/>
+      <c r="B1281" s="14"/>
+      <c r="C1281" s="37"/>
+    </row>
+    <row r="1282" spans="1:3">
+      <c r="A1282" s="14"/>
+      <c r="B1282" s="14"/>
+      <c r="C1282" s="37"/>
+    </row>
+    <row r="1283" spans="1:3">
+      <c r="A1283" s="14"/>
+      <c r="B1283" s="14"/>
+      <c r="C1283" s="37"/>
+    </row>
+    <row r="1284" spans="1:3">
+      <c r="A1284" s="14"/>
+      <c r="B1284" s="14"/>
+      <c r="C1284" s="37"/>
+    </row>
+    <row r="1285" spans="1:3">
+      <c r="A1285" s="14"/>
+      <c r="B1285" s="14"/>
+      <c r="C1285" s="37"/>
+    </row>
+    <row r="1286" spans="1:3">
+      <c r="A1286" s="14"/>
+      <c r="B1286" s="14"/>
+      <c r="C1286" s="37"/>
+    </row>
+    <row r="1287" spans="1:3">
+      <c r="A1287" s="14"/>
+      <c r="B1287" s="14"/>
+      <c r="C1287" s="37"/>
+    </row>
+    <row r="1414" spans="5:5">
       <c r="E1414" s="43"/>
-      <c r="G1414" s="43"/>
-    </row>
-    <row r="1415" spans="5:7">
+    </row>
+    <row r="1415" spans="5:5">
       <c r="E1415" s="43"/>
-      <c r="G1415" s="43"/>
-    </row>
-    <row r="1423" spans="5:7">
-      <c r="E1423" s="43"/>
-    </row>
-    <row r="1432" spans="7:7">
+    </row>
+    <row r="1416" spans="5:5">
+      <c r="E1416" s="43"/>
+    </row>
+    <row r="1417" spans="5:5">
+      <c r="E1417" s="43"/>
+    </row>
+    <row r="1418" spans="5:5">
+      <c r="E1418" s="43"/>
+    </row>
+    <row r="1419" spans="5:5">
+      <c r="E1419" s="43"/>
+    </row>
+    <row r="1420" spans="5:5">
+      <c r="E1420" s="43"/>
+    </row>
+    <row r="1430" spans="5:7">
+      <c r="E1430" s="43"/>
+    </row>
+    <row r="1432" spans="5:7">
+      <c r="E1432" s="43"/>
       <c r="G1432" s="43"/>
     </row>
-    <row r="1433" spans="7:7">
+    <row r="1433" spans="5:7">
       <c r="G1433" s="43"/>
     </row>
-    <row r="1434" spans="7:7">
+    <row r="1434" spans="5:7">
+      <c r="E1434" s="44"/>
       <c r="G1434" s="43"/>
     </row>
-    <row r="1435" spans="7:7">
+    <row r="1435" spans="5:7">
+      <c r="E1435" s="43"/>
       <c r="G1435" s="43"/>
     </row>
-    <row r="1436" spans="7:7">
+    <row r="1436" spans="5:7">
+      <c r="E1436" s="43"/>
       <c r="G1436" s="43"/>
     </row>
-    <row r="1437" spans="7:7">
+    <row r="1437" spans="5:7">
+      <c r="E1437" s="43"/>
       <c r="G1437" s="43"/>
     </row>
-    <row r="1438" spans="7:7">
+    <row r="1438" spans="5:7">
+      <c r="E1438" s="43"/>
       <c r="G1438" s="43"/>
     </row>
-    <row r="1439" spans="7:7">
+    <row r="1439" spans="5:7">
+      <c r="E1439" s="43"/>
       <c r="G1439" s="43"/>
     </row>
-    <row r="1440" spans="7:7">
+    <row r="1440" spans="5:7">
+      <c r="E1440" s="45"/>
       <c r="G1440" s="43"/>
     </row>
-    <row r="1441" spans="7:7">
+    <row r="1441" spans="5:7">
+      <c r="E1441" s="43"/>
       <c r="G1441" s="43"/>
     </row>
-    <row r="1442" spans="7:7">
+    <row r="1442" spans="5:7">
+      <c r="E1442" s="43"/>
       <c r="G1442" s="43"/>
     </row>
-    <row r="1443" spans="7:7">
+    <row r="1443" spans="5:7">
+      <c r="E1443" s="43"/>
       <c r="G1443" s="43"/>
     </row>
-    <row r="1444" spans="7:7">
+    <row r="1444" spans="5:7">
+      <c r="E1444" s="43"/>
       <c r="G1444" s="43"/>
     </row>
-    <row r="1445" spans="7:7">
+    <row r="1445" spans="5:7">
+      <c r="E1445" s="43"/>
       <c r="G1445" s="43"/>
     </row>
-    <row r="1475" spans="5:5">
+    <row r="1446" spans="5:7">
+      <c r="E1446" s="43"/>
+      <c r="G1446" s="43"/>
+    </row>
+    <row r="1447" spans="5:7">
+      <c r="E1447" s="43"/>
+      <c r="G1447" s="43"/>
+    </row>
+    <row r="1448" spans="5:7">
+      <c r="E1448" s="43"/>
+      <c r="G1448" s="43"/>
+    </row>
+    <row r="1449" spans="5:7">
+      <c r="E1449" s="43"/>
+      <c r="G1449" s="43"/>
+    </row>
+    <row r="1450" spans="5:7">
+      <c r="E1450" s="43"/>
+      <c r="G1450" s="43"/>
+    </row>
+    <row r="1451" spans="5:7">
+      <c r="E1451" s="43"/>
+      <c r="G1451" s="43"/>
+    </row>
+    <row r="1452" spans="5:7">
+      <c r="E1452" s="43"/>
+      <c r="G1452" s="43"/>
+    </row>
+    <row r="1453" spans="5:7">
+      <c r="E1453" s="43"/>
+      <c r="G1453" s="43"/>
+    </row>
+    <row r="1454" spans="5:7">
+      <c r="E1454" s="43"/>
+      <c r="G1454" s="43"/>
+    </row>
+    <row r="1455" spans="5:7">
+      <c r="E1455" s="43"/>
+      <c r="G1455" s="43"/>
+    </row>
+    <row r="1456" spans="5:7">
+      <c r="E1456" s="43"/>
+      <c r="G1456" s="43"/>
+    </row>
+    <row r="1457" spans="5:7">
+      <c r="E1457" s="43"/>
+      <c r="G1457" s="43"/>
+    </row>
+    <row r="1458" spans="5:7">
+      <c r="E1458" s="43"/>
+      <c r="G1458" s="43"/>
+    </row>
+    <row r="1459" spans="5:7">
+      <c r="E1459" s="43"/>
+      <c r="G1459" s="43"/>
+    </row>
+    <row r="1460" spans="5:7">
+      <c r="E1460" s="43"/>
+      <c r="G1460" s="43"/>
+    </row>
+    <row r="1461" spans="5:7">
+      <c r="E1461" s="43"/>
+      <c r="G1461" s="43"/>
+    </row>
+    <row r="1462" spans="5:7">
+      <c r="E1462" s="43"/>
+      <c r="G1462" s="43"/>
+    </row>
+    <row r="1463" spans="5:7">
+      <c r="E1463" s="43"/>
+      <c r="G1463" s="43"/>
+    </row>
+    <row r="1464" spans="5:7">
+      <c r="E1464" s="43"/>
+      <c r="G1464" s="43"/>
+    </row>
+    <row r="1465" spans="5:7">
+      <c r="E1465" s="43"/>
+      <c r="G1465" s="43"/>
+    </row>
+    <row r="1466" spans="5:7">
+      <c r="E1466" s="43"/>
+      <c r="G1466" s="43"/>
+    </row>
+    <row r="1467" spans="5:7">
+      <c r="E1467" s="43"/>
+      <c r="G1467" s="43"/>
+    </row>
+    <row r="1468" spans="5:7">
+      <c r="E1468" s="43"/>
+      <c r="G1468" s="43"/>
+    </row>
+    <row r="1469" spans="5:7">
+      <c r="E1469" s="43"/>
+      <c r="G1469" s="43"/>
+    </row>
+    <row r="1470" spans="5:7">
+      <c r="E1470" s="43"/>
+      <c r="G1470" s="43"/>
+    </row>
+    <row r="1471" spans="5:7">
+      <c r="E1471" s="43"/>
+      <c r="G1471" s="43"/>
+    </row>
+    <row r="1472" spans="5:7">
+      <c r="E1472" s="43"/>
+      <c r="G1472" s="43"/>
+    </row>
+    <row r="1473" spans="5:7">
+      <c r="E1473" s="43"/>
+      <c r="G1473" s="43"/>
+    </row>
+    <row r="1474" spans="5:7">
+      <c r="E1474" s="43"/>
+      <c r="G1474" s="43"/>
+    </row>
+    <row r="1475" spans="5:7">
       <c r="E1475" s="43"/>
-    </row>
-    <row r="1494" spans="5:5">
-      <c r="E1494" s="43"/>
-    </row>
-    <row r="1495" spans="5:5">
-      <c r="E1495" s="43"/>
-    </row>
-    <row r="1498" spans="5:5">
-      <c r="E1498" s="43"/>
-    </row>
-    <row r="1499" spans="5:5">
-      <c r="E1499" s="43"/>
-    </row>
-    <row r="1500" spans="5:5">
-      <c r="E1500" s="43"/>
-    </row>
-    <row r="1501" spans="5:5">
-      <c r="E1501" s="43"/>
-    </row>
-    <row r="1502" spans="5:5">
-      <c r="E1502" s="43"/>
-    </row>
-    <row r="1503" spans="5:5">
-      <c r="E1503" s="43"/>
-    </row>
-    <row r="1509" spans="5:5">
-      <c r="E1509" s="43"/>
-    </row>
-    <row r="1510" spans="5:5">
-      <c r="E1510" s="43"/>
-    </row>
-    <row r="1511" spans="5:5">
-      <c r="E1511" s="43"/>
-    </row>
-    <row r="1512" spans="5:5">
-      <c r="E1512" s="43"/>
-    </row>
-    <row r="1513" spans="5:5">
-      <c r="E1513" s="43"/>
-    </row>
-    <row r="1514" spans="5:5">
-      <c r="E1514" s="43"/>
-    </row>
-    <row r="1515" spans="5:5">
-      <c r="E1515" s="43"/>
-    </row>
-    <row r="1517" spans="5:5">
-      <c r="E1517" s="43"/>
-    </row>
-    <row r="1518" spans="5:5">
-      <c r="E1518" s="43"/>
-    </row>
-    <row r="1519" spans="5:5">
-      <c r="E1519" s="43"/>
-    </row>
-    <row r="1520" spans="5:5">
-      <c r="E1520" s="43"/>
-    </row>
-    <row r="1524" spans="5:5">
-      <c r="E1524" s="43"/>
-    </row>
-    <row r="1531" spans="5:5">
-      <c r="E1531" s="43"/>
-    </row>
-    <row r="1535" spans="5:5">
-      <c r="E1535" s="43"/>
-    </row>
-    <row r="1546" spans="5:5">
-      <c r="E1546" s="43"/>
-    </row>
-    <row r="1556" spans="5:7">
-      <c r="E1556" s="43"/>
-    </row>
-    <row r="1558" spans="5:7">
-      <c r="G1558" s="43"/>
-    </row>
-    <row r="1559" spans="5:7">
-      <c r="G1559" s="43"/>
-    </row>
-    <row r="1560" spans="5:7">
-      <c r="G1560" s="43"/>
-    </row>
-    <row r="1561" spans="5:7">
-      <c r="G1561" s="43"/>
-    </row>
-    <row r="1562" spans="5:7">
-      <c r="G1562" s="43"/>
-    </row>
-    <row r="1563" spans="5:7">
-      <c r="G1563" s="43"/>
-    </row>
-    <row r="1564" spans="5:7">
-      <c r="G1564" s="43"/>
-    </row>
-    <row r="1565" spans="5:7">
-      <c r="G1565" s="43"/>
-    </row>
-    <row r="1566" spans="5:7">
-      <c r="G1566" s="43"/>
-    </row>
-    <row r="1567" spans="5:7">
-      <c r="G1567" s="43"/>
-    </row>
-    <row r="1568" spans="5:7">
-      <c r="G1568" s="43"/>
-    </row>
-    <row r="1569" spans="5:7">
-      <c r="G1569" s="43"/>
-    </row>
-    <row r="1570" spans="5:7">
-      <c r="G1570" s="43"/>
-    </row>
-    <row r="1571" spans="5:7">
-      <c r="G1571" s="43"/>
-    </row>
-    <row r="1572" spans="5:7">
-      <c r="G1572" s="43"/>
-    </row>
-    <row r="1573" spans="5:7">
-      <c r="G1573" s="43"/>
-    </row>
-    <row r="1574" spans="5:7">
-      <c r="G1574" s="43"/>
-    </row>
-    <row r="1575" spans="5:7">
-      <c r="G1575" s="43"/>
-    </row>
-    <row r="1576" spans="5:7">
-      <c r="G1576" s="43"/>
-    </row>
-    <row r="1577" spans="5:7">
+      <c r="G1475" s="43"/>
+    </row>
+    <row r="1476" spans="5:7">
+      <c r="E1476" s="43"/>
+      <c r="G1476" s="43"/>
+    </row>
+    <row r="1477" spans="5:7">
+      <c r="E1477" s="43"/>
+      <c r="G1477" s="43"/>
+    </row>
+    <row r="1478" spans="5:7">
+      <c r="E1478" s="43"/>
+      <c r="G1478" s="43"/>
+    </row>
+    <row r="1479" spans="5:7">
+      <c r="E1479" s="43"/>
+      <c r="G1479" s="43"/>
+    </row>
+    <row r="1487" spans="5:7">
+      <c r="E1487" s="43"/>
+    </row>
+    <row r="1496" spans="7:7">
+      <c r="G1496" s="43"/>
+    </row>
+    <row r="1497" spans="7:7">
+      <c r="G1497" s="43"/>
+    </row>
+    <row r="1498" spans="7:7">
+      <c r="G1498" s="43"/>
+    </row>
+    <row r="1499" spans="7:7">
+      <c r="G1499" s="43"/>
+    </row>
+    <row r="1500" spans="7:7">
+      <c r="G1500" s="43"/>
+    </row>
+    <row r="1501" spans="7:7">
+      <c r="G1501" s="43"/>
+    </row>
+    <row r="1502" spans="7:7">
+      <c r="G1502" s="43"/>
+    </row>
+    <row r="1503" spans="7:7">
+      <c r="G1503" s="43"/>
+    </row>
+    <row r="1504" spans="7:7">
+      <c r="G1504" s="43"/>
+    </row>
+    <row r="1505" spans="7:7">
+      <c r="G1505" s="43"/>
+    </row>
+    <row r="1506" spans="7:7">
+      <c r="G1506" s="43"/>
+    </row>
+    <row r="1507" spans="7:7">
+      <c r="G1507" s="43"/>
+    </row>
+    <row r="1508" spans="7:7">
+      <c r="G1508" s="43"/>
+    </row>
+    <row r="1509" spans="7:7">
+      <c r="G1509" s="43"/>
+    </row>
+    <row r="1539" spans="5:5">
+      <c r="E1539" s="43"/>
+    </row>
+    <row r="1558" spans="5:5">
+      <c r="E1558" s="43"/>
+    </row>
+    <row r="1559" spans="5:5">
+      <c r="E1559" s="43"/>
+    </row>
+    <row r="1562" spans="5:5">
+      <c r="E1562" s="43"/>
+    </row>
+    <row r="1563" spans="5:5">
+      <c r="E1563" s="43"/>
+    </row>
+    <row r="1564" spans="5:5">
+      <c r="E1564" s="43"/>
+    </row>
+    <row r="1565" spans="5:5">
+      <c r="E1565" s="43"/>
+    </row>
+    <row r="1566" spans="5:5">
+      <c r="E1566" s="43"/>
+    </row>
+    <row r="1567" spans="5:5">
+      <c r="E1567" s="43"/>
+    </row>
+    <row r="1573" spans="5:5">
+      <c r="E1573" s="43"/>
+    </row>
+    <row r="1574" spans="5:5">
+      <c r="E1574" s="43"/>
+    </row>
+    <row r="1575" spans="5:5">
+      <c r="E1575" s="43"/>
+    </row>
+    <row r="1576" spans="5:5">
+      <c r="E1576" s="43"/>
+    </row>
+    <row r="1577" spans="5:5">
       <c r="E1577" s="43"/>
-      <c r="G1577" s="43"/>
-    </row>
-    <row r="1579" spans="5:7">
-      <c r="G1579" s="43"/>
-    </row>
-    <row r="1580" spans="5:7">
-      <c r="G1580" s="43"/>
-    </row>
-    <row r="1581" spans="5:7">
-      <c r="G1581" s="43"/>
-    </row>
-    <row r="1582" spans="5:7">
-      <c r="G1582" s="43"/>
-    </row>
-    <row r="1583" spans="5:7">
-      <c r="G1583" s="43"/>
-    </row>
-    <row r="1584" spans="5:7">
-      <c r="G1584" s="43"/>
-    </row>
-    <row r="1585" spans="5:7">
-      <c r="G1585" s="43"/>
-    </row>
-    <row r="1586" spans="5:7">
-      <c r="E1586" s="43"/>
-      <c r="G1586" s="43"/>
-    </row>
-    <row r="1587" spans="5:7">
-      <c r="G1587" s="43"/>
-    </row>
-    <row r="1588" spans="5:7">
-      <c r="G1588" s="43"/>
-    </row>
-    <row r="1589" spans="5:7">
-      <c r="G1589" s="43"/>
-    </row>
-    <row r="1590" spans="5:7">
-      <c r="G1590" s="43"/>
-    </row>
-    <row r="1591" spans="5:7">
-      <c r="G1591" s="43"/>
-    </row>
-    <row r="1592" spans="5:7">
-      <c r="G1592" s="43"/>
-    </row>
-    <row r="1593" spans="5:7">
-      <c r="G1593" s="43"/>
-    </row>
-    <row r="1594" spans="5:7">
-      <c r="E1594" s="43"/>
-      <c r="G1594" s="43"/>
-    </row>
-    <row r="1596" spans="5:7">
-      <c r="G1596" s="43"/>
-    </row>
-    <row r="1597" spans="5:7">
-      <c r="G1597" s="43"/>
-    </row>
-    <row r="1598" spans="5:7">
-      <c r="G1598" s="43"/>
-    </row>
-    <row r="1599" spans="5:7">
-      <c r="G1599" s="43"/>
-    </row>
-    <row r="1600" spans="5:7">
-      <c r="G1600" s="43"/>
-    </row>
-    <row r="1601" spans="5:7">
-      <c r="G1601" s="43"/>
-    </row>
-    <row r="1602" spans="5:7">
-      <c r="G1602" s="43"/>
-    </row>
-    <row r="1603" spans="5:7">
-      <c r="E1603" s="43"/>
-      <c r="G1603" s="43"/>
-    </row>
-    <row r="1604" spans="5:7">
-      <c r="G1604" s="43"/>
-    </row>
-    <row r="1605" spans="5:7">
-      <c r="G1605" s="43"/>
-    </row>
-    <row r="1606" spans="5:7">
-      <c r="G1606" s="43"/>
-    </row>
-    <row r="1607" spans="5:7">
-      <c r="G1607" s="43"/>
-    </row>
-    <row r="1608" spans="5:7">
-      <c r="G1608" s="43"/>
-    </row>
-    <row r="1609" spans="5:7">
-      <c r="G1609" s="43"/>
-    </row>
-    <row r="1610" spans="5:7">
-      <c r="G1610" s="43"/>
-    </row>
-    <row r="1611" spans="5:7">
-      <c r="E1611" s="43"/>
-      <c r="G1611" s="43"/>
-    </row>
-    <row r="1619" spans="5:5">
-      <c r="E1619" s="43"/>
-    </row>
-    <row r="1626" spans="5:5">
-      <c r="E1626" s="43"/>
-    </row>
-    <row r="1642" spans="5:5">
-      <c r="E1642" s="44"/>
-    </row>
-    <row r="1643" spans="5:5">
-      <c r="E1643" s="44"/>
-    </row>
-    <row r="1646" spans="5:5">
-      <c r="E1646" s="44"/>
-    </row>
-    <row r="1647" spans="5:5">
-      <c r="E1647" s="43"/>
-    </row>
-    <row r="1660" spans="5:5">
-      <c r="E1660" s="43"/>
-    </row>
-    <row r="1672" spans="5:5">
-      <c r="E1672" s="43"/>
-    </row>
-    <row r="1676" spans="5:5">
-      <c r="E1676" s="43"/>
-    </row>
-    <row r="1677" spans="5:5">
-      <c r="E1677" s="43"/>
-    </row>
-    <row r="1678" spans="5:5">
-      <c r="E1678" s="43"/>
-    </row>
-    <row r="1679" spans="5:5">
-      <c r="E1679" s="43"/>
-    </row>
-    <row r="1680" spans="5:5">
-      <c r="E1680" s="43"/>
-    </row>
-    <row r="1681" spans="5:5">
-      <c r="E1681" s="43"/>
-    </row>
-    <row r="1682" spans="5:5">
-      <c r="E1682" s="43"/>
+    </row>
+    <row r="1578" spans="5:5">
+      <c r="E1578" s="43"/>
+    </row>
+    <row r="1579" spans="5:5">
+      <c r="E1579" s="43"/>
+    </row>
+    <row r="1581" spans="5:5">
+      <c r="E1581" s="43"/>
+    </row>
+    <row r="1582" spans="5:5">
+      <c r="E1582" s="43"/>
+    </row>
+    <row r="1583" spans="5:5">
+      <c r="E1583" s="43"/>
+    </row>
+    <row r="1584" spans="5:5">
+      <c r="E1584" s="43"/>
+    </row>
+    <row r="1588" spans="5:5">
+      <c r="E1588" s="43"/>
+    </row>
+    <row r="1595" spans="5:5">
+      <c r="E1595" s="43"/>
+    </row>
+    <row r="1599" spans="5:5">
+      <c r="E1599" s="43"/>
+    </row>
+    <row r="1610" spans="5:5">
+      <c r="E1610" s="43"/>
+    </row>
+    <row r="1620" spans="5:7">
+      <c r="E1620" s="43"/>
+    </row>
+    <row r="1622" spans="5:7">
+      <c r="G1622" s="43"/>
+    </row>
+    <row r="1623" spans="5:7">
+      <c r="G1623" s="43"/>
+    </row>
+    <row r="1624" spans="5:7">
+      <c r="G1624" s="43"/>
+    </row>
+    <row r="1625" spans="5:7">
+      <c r="G1625" s="43"/>
+    </row>
+    <row r="1626" spans="5:7">
+      <c r="G1626" s="43"/>
+    </row>
+    <row r="1627" spans="5:7">
+      <c r="G1627" s="43"/>
+    </row>
+    <row r="1628" spans="5:7">
+      <c r="G1628" s="43"/>
+    </row>
+    <row r="1629" spans="5:7">
+      <c r="G1629" s="43"/>
+    </row>
+    <row r="1630" spans="5:7">
+      <c r="G1630" s="43"/>
+    </row>
+    <row r="1631" spans="5:7">
+      <c r="G1631" s="43"/>
+    </row>
+    <row r="1632" spans="5:7">
+      <c r="G1632" s="43"/>
+    </row>
+    <row r="1633" spans="5:7">
+      <c r="G1633" s="43"/>
+    </row>
+    <row r="1634" spans="5:7">
+      <c r="G1634" s="43"/>
+    </row>
+    <row r="1635" spans="5:7">
+      <c r="G1635" s="43"/>
+    </row>
+    <row r="1636" spans="5:7">
+      <c r="G1636" s="43"/>
+    </row>
+    <row r="1637" spans="5:7">
+      <c r="G1637" s="43"/>
+    </row>
+    <row r="1638" spans="5:7">
+      <c r="G1638" s="43"/>
+    </row>
+    <row r="1639" spans="5:7">
+      <c r="G1639" s="43"/>
+    </row>
+    <row r="1640" spans="5:7">
+      <c r="G1640" s="43"/>
+    </row>
+    <row r="1641" spans="5:7">
+      <c r="E1641" s="43"/>
+      <c r="G1641" s="43"/>
+    </row>
+    <row r="1643" spans="5:7">
+      <c r="G1643" s="43"/>
+    </row>
+    <row r="1644" spans="5:7">
+      <c r="G1644" s="43"/>
+    </row>
+    <row r="1645" spans="5:7">
+      <c r="G1645" s="43"/>
+    </row>
+    <row r="1646" spans="5:7">
+      <c r="G1646" s="43"/>
+    </row>
+    <row r="1647" spans="5:7">
+      <c r="G1647" s="43"/>
+    </row>
+    <row r="1648" spans="5:7">
+      <c r="G1648" s="43"/>
+    </row>
+    <row r="1649" spans="5:7">
+      <c r="G1649" s="43"/>
+    </row>
+    <row r="1650" spans="5:7">
+      <c r="E1650" s="43"/>
+      <c r="G1650" s="43"/>
+    </row>
+    <row r="1651" spans="5:7">
+      <c r="G1651" s="43"/>
+    </row>
+    <row r="1652" spans="5:7">
+      <c r="G1652" s="43"/>
+    </row>
+    <row r="1653" spans="5:7">
+      <c r="G1653" s="43"/>
+    </row>
+    <row r="1654" spans="5:7">
+      <c r="G1654" s="43"/>
+    </row>
+    <row r="1655" spans="5:7">
+      <c r="G1655" s="43"/>
+    </row>
+    <row r="1656" spans="5:7">
+      <c r="G1656" s="43"/>
+    </row>
+    <row r="1657" spans="5:7">
+      <c r="G1657" s="43"/>
+    </row>
+    <row r="1658" spans="5:7">
+      <c r="E1658" s="43"/>
+      <c r="G1658" s="43"/>
+    </row>
+    <row r="1660" spans="5:7">
+      <c r="G1660" s="43"/>
+    </row>
+    <row r="1661" spans="5:7">
+      <c r="G1661" s="43"/>
+    </row>
+    <row r="1662" spans="5:7">
+      <c r="G1662" s="43"/>
+    </row>
+    <row r="1663" spans="5:7">
+      <c r="G1663" s="43"/>
+    </row>
+    <row r="1664" spans="5:7">
+      <c r="G1664" s="43"/>
+    </row>
+    <row r="1665" spans="5:7">
+      <c r="G1665" s="43"/>
+    </row>
+    <row r="1666" spans="5:7">
+      <c r="G1666" s="43"/>
+    </row>
+    <row r="1667" spans="5:7">
+      <c r="E1667" s="43"/>
+      <c r="G1667" s="43"/>
+    </row>
+    <row r="1668" spans="5:7">
+      <c r="G1668" s="43"/>
+    </row>
+    <row r="1669" spans="5:7">
+      <c r="G1669" s="43"/>
+    </row>
+    <row r="1670" spans="5:7">
+      <c r="G1670" s="43"/>
+    </row>
+    <row r="1671" spans="5:7">
+      <c r="G1671" s="43"/>
+    </row>
+    <row r="1672" spans="5:7">
+      <c r="G1672" s="43"/>
+    </row>
+    <row r="1673" spans="5:7">
+      <c r="G1673" s="43"/>
+    </row>
+    <row r="1674" spans="5:7">
+      <c r="G1674" s="43"/>
+    </row>
+    <row r="1675" spans="5:7">
+      <c r="E1675" s="43"/>
+      <c r="G1675" s="43"/>
     </row>
     <row r="1683" spans="5:5">
       <c r="E1683" s="43"/>
     </row>
-    <row r="1684" spans="5:5">
-      <c r="E1684" s="43"/>
-    </row>
-    <row r="1685" spans="5:5">
-      <c r="E1685" s="43"/>
-    </row>
-    <row r="1686" spans="5:5">
-      <c r="E1686" s="43"/>
-    </row>
-    <row r="1687" spans="5:5">
-      <c r="E1687" s="43"/>
-    </row>
-    <row r="1688" spans="5:5">
-      <c r="E1688" s="43"/>
-    </row>
-    <row r="1689" spans="5:5">
-      <c r="E1689" s="43"/>
-    </row>
     <row r="1690" spans="5:5">
       <c r="E1690" s="43"/>
     </row>
-    <row r="1691" spans="5:5">
-      <c r="E1691" s="43"/>
-    </row>
-    <row r="1692" spans="5:5">
-      <c r="E1692" s="43"/>
-    </row>
-    <row r="1693" spans="5:5">
-      <c r="E1693" s="43"/>
-    </row>
-    <row r="1694" spans="5:5">
-      <c r="E1694" s="43"/>
-    </row>
-    <row r="1695" spans="5:5">
-      <c r="E1695" s="43"/>
-    </row>
-    <row r="1696" spans="5:5">
-      <c r="E1696" s="43"/>
-    </row>
-    <row r="1697" spans="5:7">
-      <c r="E1697" s="43"/>
-    </row>
-    <row r="1698" spans="5:7">
-      <c r="E1698" s="43"/>
-    </row>
-    <row r="1699" spans="5:7">
-      <c r="E1699" s="43"/>
-    </row>
-    <row r="1701" spans="5:7">
-      <c r="G1701" s="43"/>
-    </row>
-    <row r="1702" spans="5:7">
-      <c r="G1702" s="43"/>
-    </row>
-    <row r="1703" spans="5:7">
-      <c r="G1703" s="43"/>
-    </row>
-    <row r="1704" spans="5:7">
-      <c r="G1704" s="43"/>
-    </row>
-    <row r="1705" spans="5:7">
-      <c r="G1705" s="43"/>
-    </row>
-    <row r="1706" spans="5:7">
-      <c r="G1706" s="43"/>
-    </row>
-    <row r="1707" spans="5:7">
-      <c r="G1707" s="43"/>
-    </row>
-    <row r="1708" spans="5:7">
-      <c r="G1708" s="43"/>
-    </row>
-    <row r="1709" spans="5:7">
-      <c r="G1709" s="43"/>
-    </row>
-    <row r="1710" spans="5:7">
-      <c r="G1710" s="43"/>
-    </row>
-    <row r="1711" spans="5:7">
-      <c r="G1711" s="43"/>
-    </row>
-    <row r="1712" spans="5:7">
-      <c r="G1712" s="43"/>
-    </row>
-    <row r="1713" spans="5:7">
-      <c r="G1713" s="43"/>
-    </row>
-    <row r="1714" spans="5:7">
-      <c r="E1714" s="43"/>
-      <c r="G1714" s="43"/>
-    </row>
-    <row r="1716" spans="5:7">
-      <c r="E1716" s="43"/>
-    </row>
-    <row r="1717" spans="5:7">
-      <c r="E1717" s="43"/>
-    </row>
-    <row r="1718" spans="5:7">
-      <c r="E1718" s="43"/>
-    </row>
-    <row r="1719" spans="5:7">
-      <c r="E1719" s="43"/>
-    </row>
-    <row r="1720" spans="5:7">
-      <c r="E1720" s="43"/>
-    </row>
-    <row r="1721" spans="5:7">
-      <c r="E1721" s="43"/>
-    </row>
-    <row r="1722" spans="5:7">
-      <c r="E1722" s="43"/>
-    </row>
-    <row r="1723" spans="5:7">
-      <c r="E1723" s="43"/>
-    </row>
-    <row r="1724" spans="5:7">
+    <row r="1706" spans="5:5">
+      <c r="E1706" s="44"/>
+    </row>
+    <row r="1707" spans="5:5">
+      <c r="E1707" s="44"/>
+    </row>
+    <row r="1710" spans="5:5">
+      <c r="E1710" s="44"/>
+    </row>
+    <row r="1711" spans="5:5">
+      <c r="E1711" s="43"/>
+    </row>
+    <row r="1724" spans="5:5">
       <c r="E1724" s="43"/>
-    </row>
-    <row r="1725" spans="5:7">
-      <c r="E1725" s="43"/>
-    </row>
-    <row r="1726" spans="5:7">
-      <c r="E1726" s="43"/>
-    </row>
-    <row r="1727" spans="5:7">
-      <c r="E1727" s="43"/>
-    </row>
-    <row r="1728" spans="5:7">
-      <c r="E1728" s="43"/>
-    </row>
-    <row r="1729" spans="5:5">
-      <c r="E1729" s="43"/>
-    </row>
-    <row r="1730" spans="5:5">
-      <c r="E1730" s="43"/>
-    </row>
-    <row r="1731" spans="5:5">
-      <c r="E1731" s="43"/>
-    </row>
-    <row r="1732" spans="5:5">
-      <c r="E1732" s="43"/>
-    </row>
-    <row r="1733" spans="5:5">
-      <c r="E1733" s="43"/>
-    </row>
-    <row r="1734" spans="5:5">
-      <c r="E1734" s="43"/>
-    </row>
-    <row r="1735" spans="5:5">
-      <c r="E1735" s="43"/>
     </row>
     <row r="1736" spans="5:5">
       <c r="E1736" s="43"/>
     </row>
-    <row r="1737" spans="5:5">
-      <c r="E1737" s="43"/>
-    </row>
-    <row r="1738" spans="5:5">
-      <c r="E1738" s="43"/>
-    </row>
-    <row r="1739" spans="5:5">
-      <c r="E1739" s="43"/>
-    </row>
     <row r="1740" spans="5:5">
       <c r="E1740" s="43"/>
     </row>
@@ -32668,263 +33983,367 @@
       <c r="E1763" s="43"/>
     </row>
     <row r="1765" spans="5:7">
-      <c r="E1765" s="43"/>
       <c r="G1765" s="43"/>
     </row>
     <row r="1766" spans="5:7">
-      <c r="E1766" s="43"/>
       <c r="G1766" s="43"/>
     </row>
     <row r="1767" spans="5:7">
-      <c r="E1767" s="43"/>
       <c r="G1767" s="43"/>
     </row>
     <row r="1768" spans="5:7">
-      <c r="E1768" s="43"/>
       <c r="G1768" s="43"/>
     </row>
     <row r="1769" spans="5:7">
-      <c r="E1769" s="43"/>
       <c r="G1769" s="43"/>
     </row>
     <row r="1770" spans="5:7">
-      <c r="E1770" s="43"/>
       <c r="G1770" s="43"/>
     </row>
     <row r="1771" spans="5:7">
-      <c r="E1771" s="43"/>
       <c r="G1771" s="43"/>
     </row>
     <row r="1772" spans="5:7">
-      <c r="E1772" s="43"/>
       <c r="G1772" s="43"/>
     </row>
     <row r="1773" spans="5:7">
-      <c r="E1773" s="43"/>
       <c r="G1773" s="43"/>
     </row>
     <row r="1774" spans="5:7">
-      <c r="E1774" s="43"/>
       <c r="G1774" s="43"/>
     </row>
     <row r="1775" spans="5:7">
-      <c r="E1775" s="43"/>
       <c r="G1775" s="43"/>
     </row>
     <row r="1776" spans="5:7">
-      <c r="E1776" s="43"/>
       <c r="G1776" s="43"/>
     </row>
     <row r="1777" spans="5:7">
-      <c r="E1777" s="43"/>
       <c r="G1777" s="43"/>
     </row>
     <row r="1778" spans="5:7">
       <c r="E1778" s="43"/>
       <c r="G1778" s="43"/>
     </row>
-    <row r="1779" spans="5:7">
-      <c r="E1779" s="43"/>
-      <c r="G1779" s="43"/>
-    </row>
     <row r="1780" spans="5:7">
       <c r="E1780" s="43"/>
-      <c r="G1780" s="43"/>
     </row>
     <row r="1781" spans="5:7">
       <c r="E1781" s="43"/>
-      <c r="G1781" s="43"/>
     </row>
     <row r="1782" spans="5:7">
       <c r="E1782" s="43"/>
-      <c r="G1782" s="43"/>
     </row>
     <row r="1783" spans="5:7">
       <c r="E1783" s="43"/>
-      <c r="G1783" s="43"/>
     </row>
     <row r="1784" spans="5:7">
       <c r="E1784" s="43"/>
-      <c r="G1784" s="43"/>
     </row>
     <row r="1785" spans="5:7">
       <c r="E1785" s="43"/>
-      <c r="G1785" s="43"/>
     </row>
     <row r="1786" spans="5:7">
       <c r="E1786" s="43"/>
-      <c r="G1786" s="43"/>
     </row>
     <row r="1787" spans="5:7">
       <c r="E1787" s="43"/>
-      <c r="G1787" s="43"/>
     </row>
     <row r="1788" spans="5:7">
       <c r="E1788" s="43"/>
-      <c r="G1788" s="43"/>
     </row>
     <row r="1789" spans="5:7">
       <c r="E1789" s="43"/>
-      <c r="G1789" s="43"/>
     </row>
     <row r="1790" spans="5:7">
       <c r="E1790" s="43"/>
-      <c r="G1790" s="43"/>
     </row>
     <row r="1791" spans="5:7">
       <c r="E1791" s="43"/>
-      <c r="G1791" s="43"/>
     </row>
     <row r="1792" spans="5:7">
       <c r="E1792" s="43"/>
-      <c r="G1792" s="43"/>
-    </row>
-    <row r="1793" spans="5:7">
+    </row>
+    <row r="1793" spans="5:5">
       <c r="E1793" s="43"/>
-      <c r="G1793" s="43"/>
-    </row>
-    <row r="1794" spans="5:7">
+    </row>
+    <row r="1794" spans="5:5">
       <c r="E1794" s="43"/>
-      <c r="G1794" s="43"/>
-    </row>
-    <row r="1795" spans="5:7">
+    </row>
+    <row r="1795" spans="5:5">
       <c r="E1795" s="43"/>
-      <c r="G1795" s="43"/>
-    </row>
-    <row r="1796" spans="5:7">
+    </row>
+    <row r="1796" spans="5:5">
       <c r="E1796" s="43"/>
-      <c r="G1796" s="43"/>
-    </row>
-    <row r="1797" spans="5:7">
+    </row>
+    <row r="1797" spans="5:5">
       <c r="E1797" s="43"/>
-      <c r="G1797" s="43"/>
-    </row>
-    <row r="1798" spans="5:7">
+    </row>
+    <row r="1798" spans="5:5">
       <c r="E1798" s="43"/>
-      <c r="G1798" s="43"/>
-    </row>
-    <row r="1799" spans="5:7">
+    </row>
+    <row r="1799" spans="5:5">
       <c r="E1799" s="43"/>
-      <c r="G1799" s="43"/>
-    </row>
-    <row r="1800" spans="5:7">
+    </row>
+    <row r="1800" spans="5:5">
       <c r="E1800" s="43"/>
-      <c r="G1800" s="43"/>
-    </row>
-    <row r="1801" spans="5:7">
+    </row>
+    <row r="1801" spans="5:5">
       <c r="E1801" s="43"/>
-      <c r="G1801" s="43"/>
-    </row>
-    <row r="1802" spans="5:7">
+    </row>
+    <row r="1802" spans="5:5">
       <c r="E1802" s="43"/>
-      <c r="G1802" s="43"/>
-    </row>
-    <row r="1803" spans="5:7">
+    </row>
+    <row r="1803" spans="5:5">
       <c r="E1803" s="43"/>
-      <c r="G1803" s="43"/>
-    </row>
-    <row r="1804" spans="5:7">
+    </row>
+    <row r="1804" spans="5:5">
       <c r="E1804" s="43"/>
-      <c r="G1804" s="43"/>
-    </row>
-    <row r="1805" spans="5:7">
+    </row>
+    <row r="1805" spans="5:5">
       <c r="E1805" s="43"/>
-      <c r="G1805" s="43"/>
-    </row>
-    <row r="1806" spans="5:7">
+    </row>
+    <row r="1806" spans="5:5">
       <c r="E1806" s="43"/>
-      <c r="G1806" s="43"/>
-    </row>
-    <row r="1807" spans="5:7">
+    </row>
+    <row r="1807" spans="5:5">
       <c r="E1807" s="43"/>
-      <c r="G1807" s="43"/>
-    </row>
-    <row r="1808" spans="5:7">
+    </row>
+    <row r="1808" spans="5:5">
       <c r="E1808" s="43"/>
-      <c r="G1808" s="43"/>
-    </row>
-    <row r="1809" spans="5:7">
+    </row>
+    <row r="1809" spans="5:5">
       <c r="E1809" s="43"/>
-      <c r="G1809" s="43"/>
-    </row>
-    <row r="1810" spans="5:7">
+    </row>
+    <row r="1810" spans="5:5">
       <c r="E1810" s="43"/>
-      <c r="G1810" s="43"/>
-    </row>
-    <row r="1811" spans="5:7">
+    </row>
+    <row r="1811" spans="5:5">
       <c r="E1811" s="43"/>
-      <c r="G1811" s="43"/>
-    </row>
-    <row r="1812" spans="5:7">
+    </row>
+    <row r="1812" spans="5:5">
       <c r="E1812" s="43"/>
-      <c r="G1812" s="43"/>
-    </row>
-    <row r="1822" spans="5:7">
+    </row>
+    <row r="1813" spans="5:5">
+      <c r="E1813" s="43"/>
+    </row>
+    <row r="1814" spans="5:5">
+      <c r="E1814" s="43"/>
+    </row>
+    <row r="1815" spans="5:5">
+      <c r="E1815" s="43"/>
+    </row>
+    <row r="1816" spans="5:5">
+      <c r="E1816" s="43"/>
+    </row>
+    <row r="1817" spans="5:5">
+      <c r="E1817" s="43"/>
+    </row>
+    <row r="1818" spans="5:5">
+      <c r="E1818" s="43"/>
+    </row>
+    <row r="1819" spans="5:5">
+      <c r="E1819" s="43"/>
+    </row>
+    <row r="1820" spans="5:5">
+      <c r="E1820" s="43"/>
+    </row>
+    <row r="1821" spans="5:5">
+      <c r="E1821" s="43"/>
+    </row>
+    <row r="1822" spans="5:5">
       <c r="E1822" s="43"/>
     </row>
-    <row r="1833" spans="7:7">
+    <row r="1823" spans="5:5">
+      <c r="E1823" s="43"/>
+    </row>
+    <row r="1824" spans="5:5">
+      <c r="E1824" s="43"/>
+    </row>
+    <row r="1825" spans="5:7">
+      <c r="E1825" s="43"/>
+    </row>
+    <row r="1826" spans="5:7">
+      <c r="E1826" s="43"/>
+    </row>
+    <row r="1827" spans="5:7">
+      <c r="E1827" s="43"/>
+    </row>
+    <row r="1829" spans="5:7">
+      <c r="E1829" s="43"/>
+      <c r="G1829" s="43"/>
+    </row>
+    <row r="1830" spans="5:7">
+      <c r="E1830" s="43"/>
+      <c r="G1830" s="43"/>
+    </row>
+    <row r="1831" spans="5:7">
+      <c r="E1831" s="43"/>
+      <c r="G1831" s="43"/>
+    </row>
+    <row r="1832" spans="5:7">
+      <c r="E1832" s="43"/>
+      <c r="G1832" s="43"/>
+    </row>
+    <row r="1833" spans="5:7">
+      <c r="E1833" s="43"/>
       <c r="G1833" s="43"/>
     </row>
-    <row r="1834" spans="7:7">
+    <row r="1834" spans="5:7">
+      <c r="E1834" s="43"/>
       <c r="G1834" s="43"/>
     </row>
-    <row r="1835" spans="7:7">
+    <row r="1835" spans="5:7">
+      <c r="E1835" s="43"/>
       <c r="G1835" s="43"/>
     </row>
-    <row r="1836" spans="7:7">
+    <row r="1836" spans="5:7">
+      <c r="E1836" s="43"/>
       <c r="G1836" s="43"/>
     </row>
-    <row r="1837" spans="7:7">
+    <row r="1837" spans="5:7">
+      <c r="E1837" s="43"/>
       <c r="G1837" s="43"/>
     </row>
-    <row r="1838" spans="7:7">
+    <row r="1838" spans="5:7">
+      <c r="E1838" s="43"/>
       <c r="G1838" s="43"/>
     </row>
-    <row r="1839" spans="7:7">
+    <row r="1839" spans="5:7">
+      <c r="E1839" s="43"/>
       <c r="G1839" s="43"/>
     </row>
-    <row r="1840" spans="7:7">
+    <row r="1840" spans="5:7">
+      <c r="E1840" s="43"/>
       <c r="G1840" s="43"/>
     </row>
     <row r="1841" spans="5:7">
+      <c r="E1841" s="43"/>
       <c r="G1841" s="43"/>
     </row>
     <row r="1842" spans="5:7">
+      <c r="E1842" s="43"/>
       <c r="G1842" s="43"/>
     </row>
     <row r="1843" spans="5:7">
+      <c r="E1843" s="43"/>
       <c r="G1843" s="43"/>
     </row>
     <row r="1844" spans="5:7">
+      <c r="E1844" s="43"/>
       <c r="G1844" s="43"/>
     </row>
     <row r="1845" spans="5:7">
+      <c r="E1845" s="43"/>
       <c r="G1845" s="43"/>
     </row>
     <row r="1846" spans="5:7">
+      <c r="E1846" s="43"/>
       <c r="G1846" s="43"/>
     </row>
     <row r="1847" spans="5:7">
+      <c r="E1847" s="43"/>
       <c r="G1847" s="43"/>
     </row>
     <row r="1848" spans="5:7">
+      <c r="E1848" s="43"/>
       <c r="G1848" s="43"/>
     </row>
     <row r="1849" spans="5:7">
+      <c r="E1849" s="43"/>
       <c r="G1849" s="43"/>
     </row>
     <row r="1850" spans="5:7">
+      <c r="E1850" s="43"/>
       <c r="G1850" s="43"/>
     </row>
     <row r="1851" spans="5:7">
+      <c r="E1851" s="43"/>
       <c r="G1851" s="43"/>
     </row>
     <row r="1852" spans="5:7">
       <c r="E1852" s="43"/>
       <c r="G1852" s="43"/>
     </row>
-    <row r="1862" spans="5:5">
+    <row r="1853" spans="5:7">
+      <c r="E1853" s="43"/>
+      <c r="G1853" s="43"/>
+    </row>
+    <row r="1854" spans="5:7">
+      <c r="E1854" s="43"/>
+      <c r="G1854" s="43"/>
+    </row>
+    <row r="1855" spans="5:7">
+      <c r="E1855" s="43"/>
+      <c r="G1855" s="43"/>
+    </row>
+    <row r="1856" spans="5:7">
+      <c r="E1856" s="43"/>
+      <c r="G1856" s="43"/>
+    </row>
+    <row r="1857" spans="5:7">
+      <c r="E1857" s="43"/>
+      <c r="G1857" s="43"/>
+    </row>
+    <row r="1858" spans="5:7">
+      <c r="E1858" s="43"/>
+      <c r="G1858" s="43"/>
+    </row>
+    <row r="1859" spans="5:7">
+      <c r="E1859" s="43"/>
+      <c r="G1859" s="43"/>
+    </row>
+    <row r="1860" spans="5:7">
+      <c r="E1860" s="43"/>
+      <c r="G1860" s="43"/>
+    </row>
+    <row r="1861" spans="5:7">
+      <c r="E1861" s="43"/>
+      <c r="G1861" s="43"/>
+    </row>
+    <row r="1862" spans="5:7">
       <c r="E1862" s="43"/>
+      <c r="G1862" s="43"/>
+    </row>
+    <row r="1863" spans="5:7">
+      <c r="E1863" s="43"/>
+      <c r="G1863" s="43"/>
+    </row>
+    <row r="1864" spans="5:7">
+      <c r="E1864" s="43"/>
+      <c r="G1864" s="43"/>
+    </row>
+    <row r="1865" spans="5:7">
+      <c r="E1865" s="43"/>
+      <c r="G1865" s="43"/>
+    </row>
+    <row r="1866" spans="5:7">
+      <c r="E1866" s="43"/>
+      <c r="G1866" s="43"/>
+    </row>
+    <row r="1867" spans="5:7">
+      <c r="E1867" s="43"/>
+      <c r="G1867" s="43"/>
+    </row>
+    <row r="1868" spans="5:7">
+      <c r="E1868" s="43"/>
+      <c r="G1868" s="43"/>
+    </row>
+    <row r="1869" spans="5:7">
+      <c r="E1869" s="43"/>
+      <c r="G1869" s="43"/>
+    </row>
+    <row r="1870" spans="5:7">
+      <c r="E1870" s="43"/>
+      <c r="G1870" s="43"/>
+    </row>
+    <row r="1871" spans="5:7">
+      <c r="E1871" s="43"/>
+      <c r="G1871" s="43"/>
+    </row>
+    <row r="1872" spans="5:7">
+      <c r="E1872" s="43"/>
+      <c r="G1872" s="43"/>
     </row>
     <row r="1873" spans="5:7">
       <c r="E1873" s="43"/>
@@ -32942,284 +34361,196 @@
       <c r="E1876" s="43"/>
       <c r="G1876" s="43"/>
     </row>
-    <row r="1877" spans="5:7">
-      <c r="E1877" s="43"/>
-      <c r="G1877" s="43"/>
-    </row>
-    <row r="1878" spans="5:7">
-      <c r="E1878" s="43"/>
-      <c r="G1878" s="43"/>
-    </row>
-    <row r="1879" spans="5:7">
-      <c r="E1879" s="43"/>
-      <c r="G1879" s="43"/>
-    </row>
-    <row r="1880" spans="5:7">
-      <c r="E1880" s="43"/>
-      <c r="G1880" s="43"/>
-    </row>
-    <row r="1881" spans="5:7">
-      <c r="E1881" s="43"/>
-      <c r="G1881" s="43"/>
-    </row>
-    <row r="1882" spans="5:7">
-      <c r="E1882" s="43"/>
-      <c r="G1882" s="43"/>
-    </row>
-    <row r="1883" spans="5:7">
-      <c r="E1883" s="43"/>
-      <c r="G1883" s="43"/>
-    </row>
-    <row r="1884" spans="5:7">
-      <c r="E1884" s="43"/>
-      <c r="G1884" s="43"/>
-    </row>
-    <row r="1885" spans="5:7">
-      <c r="E1885" s="43"/>
-      <c r="G1885" s="43"/>
-    </row>
     <row r="1886" spans="5:7">
       <c r="E1886" s="43"/>
-      <c r="G1886" s="43"/>
-    </row>
-    <row r="1887" spans="5:7">
-      <c r="E1887" s="43"/>
-      <c r="G1887" s="43"/>
-    </row>
-    <row r="1888" spans="5:7">
-      <c r="E1888" s="43"/>
-      <c r="G1888" s="43"/>
-    </row>
-    <row r="1890" spans="5:7">
-      <c r="E1890" s="43"/>
-      <c r="G1890" s="43"/>
-    </row>
-    <row r="1891" spans="5:7">
-      <c r="E1891" s="43"/>
-      <c r="G1891" s="43"/>
-    </row>
-    <row r="1892" spans="5:7">
-      <c r="E1892" s="43"/>
-      <c r="G1892" s="43"/>
-    </row>
-    <row r="1893" spans="5:7">
-      <c r="E1893" s="43"/>
-      <c r="G1893" s="43"/>
-    </row>
-    <row r="1894" spans="5:7">
-      <c r="E1894" s="43"/>
-      <c r="G1894" s="43"/>
-    </row>
-    <row r="1895" spans="5:7">
-      <c r="E1895" s="43"/>
-      <c r="G1895" s="43"/>
-    </row>
-    <row r="1896" spans="5:7">
-      <c r="E1896" s="43"/>
-      <c r="G1896" s="43"/>
-    </row>
-    <row r="1897" spans="5:7">
-      <c r="E1897" s="43"/>
+    </row>
+    <row r="1897" spans="7:7">
       <c r="G1897" s="43"/>
     </row>
-    <row r="1898" spans="5:7">
-      <c r="E1898" s="43"/>
+    <row r="1898" spans="7:7">
       <c r="G1898" s="43"/>
     </row>
-    <row r="1899" spans="5:7">
-      <c r="E1899" s="43"/>
+    <row r="1899" spans="7:7">
       <c r="G1899" s="43"/>
     </row>
-    <row r="1900" spans="5:7">
-      <c r="E1900" s="43"/>
+    <row r="1900" spans="7:7">
       <c r="G1900" s="43"/>
     </row>
-    <row r="1901" spans="5:7">
-      <c r="E1901" s="43"/>
+    <row r="1901" spans="7:7">
       <c r="G1901" s="43"/>
     </row>
-    <row r="1902" spans="5:7">
-      <c r="E1902" s="43"/>
+    <row r="1902" spans="7:7">
       <c r="G1902" s="43"/>
     </row>
-    <row r="1903" spans="5:7">
-      <c r="E1903" s="43"/>
+    <row r="1903" spans="7:7">
       <c r="G1903" s="43"/>
     </row>
-    <row r="1906" spans="5:5">
-      <c r="E1906" s="43"/>
-    </row>
-    <row r="1910" spans="5:5">
-      <c r="E1910" s="43"/>
-    </row>
-    <row r="1911" spans="5:5">
-      <c r="E1911" s="43"/>
-    </row>
-    <row r="1912" spans="5:5">
-      <c r="E1912" s="43"/>
-    </row>
-    <row r="1913" spans="5:5">
-      <c r="E1913" s="43"/>
-    </row>
-    <row r="1916" spans="5:5">
+    <row r="1904" spans="7:7">
+      <c r="G1904" s="43"/>
+    </row>
+    <row r="1905" spans="5:7">
+      <c r="G1905" s="43"/>
+    </row>
+    <row r="1906" spans="5:7">
+      <c r="G1906" s="43"/>
+    </row>
+    <row r="1907" spans="5:7">
+      <c r="G1907" s="43"/>
+    </row>
+    <row r="1908" spans="5:7">
+      <c r="G1908" s="43"/>
+    </row>
+    <row r="1909" spans="5:7">
+      <c r="G1909" s="43"/>
+    </row>
+    <row r="1910" spans="5:7">
+      <c r="G1910" s="43"/>
+    </row>
+    <row r="1911" spans="5:7">
+      <c r="G1911" s="43"/>
+    </row>
+    <row r="1912" spans="5:7">
+      <c r="G1912" s="43"/>
+    </row>
+    <row r="1913" spans="5:7">
+      <c r="G1913" s="43"/>
+    </row>
+    <row r="1914" spans="5:7">
+      <c r="G1914" s="43"/>
+    </row>
+    <row r="1915" spans="5:7">
+      <c r="G1915" s="43"/>
+    </row>
+    <row r="1916" spans="5:7">
       <c r="E1916" s="43"/>
-    </row>
-    <row r="1917" spans="5:5">
-      <c r="E1917" s="43"/>
-    </row>
-    <row r="1918" spans="5:5">
-      <c r="E1918" s="43"/>
-    </row>
-    <row r="1919" spans="5:5">
-      <c r="E1919" s="43"/>
-    </row>
-    <row r="1922" spans="5:5">
-      <c r="E1922" s="43"/>
-    </row>
-    <row r="1923" spans="5:5">
-      <c r="E1923" s="43"/>
-    </row>
-    <row r="1924" spans="5:5">
-      <c r="E1924" s="43"/>
-    </row>
-    <row r="1925" spans="5:5">
-      <c r="E1925" s="43"/>
+      <c r="G1916" s="43"/>
     </row>
     <row r="1926" spans="5:5">
       <c r="E1926" s="43"/>
     </row>
-    <row r="1927" spans="5:5">
-      <c r="E1927" s="43"/>
-    </row>
-    <row r="1928" spans="5:5">
-      <c r="E1928" s="43"/>
-    </row>
-    <row r="1929" spans="5:5">
-      <c r="E1929" s="43"/>
-    </row>
-    <row r="1930" spans="5:5">
-      <c r="E1930" s="43"/>
-    </row>
-    <row r="1931" spans="5:5">
-      <c r="E1931" s="43"/>
-    </row>
-    <row r="1932" spans="5:5">
-      <c r="E1932" s="43"/>
-    </row>
-    <row r="1933" spans="5:5">
-      <c r="E1933" s="43"/>
-    </row>
-    <row r="1934" spans="5:5">
-      <c r="E1934" s="43"/>
-    </row>
-    <row r="1935" spans="5:5">
-      <c r="E1935" s="43"/>
-    </row>
-    <row r="1937" spans="5:5">
+    <row r="1937" spans="5:7">
       <c r="E1937" s="43"/>
-    </row>
-    <row r="1938" spans="5:5">
+      <c r="G1937" s="43"/>
+    </row>
+    <row r="1938" spans="5:7">
       <c r="E1938" s="43"/>
-    </row>
-    <row r="1939" spans="5:5">
+      <c r="G1938" s="43"/>
+    </row>
+    <row r="1939" spans="5:7">
       <c r="E1939" s="43"/>
-    </row>
-    <row r="1940" spans="5:5">
+      <c r="G1939" s="43"/>
+    </row>
+    <row r="1940" spans="5:7">
       <c r="E1940" s="43"/>
-    </row>
-    <row r="1941" spans="5:5">
+      <c r="G1940" s="43"/>
+    </row>
+    <row r="1941" spans="5:7">
       <c r="E1941" s="43"/>
-    </row>
-    <row r="1942" spans="5:5">
+      <c r="G1941" s="43"/>
+    </row>
+    <row r="1942" spans="5:7">
       <c r="E1942" s="43"/>
-    </row>
-    <row r="1943" spans="5:5">
+      <c r="G1942" s="43"/>
+    </row>
+    <row r="1943" spans="5:7">
       <c r="E1943" s="43"/>
-    </row>
-    <row r="1944" spans="5:5">
+      <c r="G1943" s="43"/>
+    </row>
+    <row r="1944" spans="5:7">
       <c r="E1944" s="43"/>
-    </row>
-    <row r="1945" spans="5:5">
+      <c r="G1944" s="43"/>
+    </row>
+    <row r="1945" spans="5:7">
       <c r="E1945" s="43"/>
-    </row>
-    <row r="1946" spans="5:5">
+      <c r="G1945" s="43"/>
+    </row>
+    <row r="1946" spans="5:7">
       <c r="E1946" s="43"/>
-    </row>
-    <row r="1947" spans="5:5">
+      <c r="G1946" s="43"/>
+    </row>
+    <row r="1947" spans="5:7">
       <c r="E1947" s="43"/>
-    </row>
-    <row r="1948" spans="5:5">
+      <c r="G1947" s="43"/>
+    </row>
+    <row r="1948" spans="5:7">
       <c r="E1948" s="43"/>
-    </row>
-    <row r="1949" spans="5:5">
+      <c r="G1948" s="43"/>
+    </row>
+    <row r="1949" spans="5:7">
       <c r="E1949" s="43"/>
-    </row>
-    <row r="1950" spans="5:5">
+      <c r="G1949" s="43"/>
+    </row>
+    <row r="1950" spans="5:7">
       <c r="E1950" s="43"/>
-    </row>
-    <row r="1952" spans="5:5">
+      <c r="G1950" s="43"/>
+    </row>
+    <row r="1951" spans="5:7">
+      <c r="E1951" s="43"/>
+      <c r="G1951" s="43"/>
+    </row>
+    <row r="1952" spans="5:7">
       <c r="E1952" s="43"/>
-    </row>
-    <row r="1953" spans="5:5">
-      <c r="E1953" s="43"/>
-    </row>
-    <row r="1954" spans="5:5">
+      <c r="G1952" s="43"/>
+    </row>
+    <row r="1954" spans="5:7">
       <c r="E1954" s="43"/>
-    </row>
-    <row r="1955" spans="5:5">
+      <c r="G1954" s="43"/>
+    </row>
+    <row r="1955" spans="5:7">
       <c r="E1955" s="43"/>
-    </row>
-    <row r="1956" spans="5:5">
+      <c r="G1955" s="43"/>
+    </row>
+    <row r="1956" spans="5:7">
       <c r="E1956" s="43"/>
-    </row>
-    <row r="1957" spans="5:5">
+      <c r="G1956" s="43"/>
+    </row>
+    <row r="1957" spans="5:7">
       <c r="E1957" s="43"/>
-    </row>
-    <row r="1958" spans="5:5">
+      <c r="G1957" s="43"/>
+    </row>
+    <row r="1958" spans="5:7">
       <c r="E1958" s="43"/>
-    </row>
-    <row r="1959" spans="5:5">
+      <c r="G1958" s="43"/>
+    </row>
+    <row r="1959" spans="5:7">
       <c r="E1959" s="43"/>
-    </row>
-    <row r="1960" spans="5:5">
+      <c r="G1959" s="43"/>
+    </row>
+    <row r="1960" spans="5:7">
       <c r="E1960" s="43"/>
-    </row>
-    <row r="1961" spans="5:5">
+      <c r="G1960" s="43"/>
+    </row>
+    <row r="1961" spans="5:7">
       <c r="E1961" s="43"/>
-    </row>
-    <row r="1962" spans="5:5">
+      <c r="G1961" s="43"/>
+    </row>
+    <row r="1962" spans="5:7">
       <c r="E1962" s="43"/>
-    </row>
-    <row r="1963" spans="5:5">
+      <c r="G1962" s="43"/>
+    </row>
+    <row r="1963" spans="5:7">
       <c r="E1963" s="43"/>
-    </row>
-    <row r="1964" spans="5:5">
+      <c r="G1963" s="43"/>
+    </row>
+    <row r="1964" spans="5:7">
       <c r="E1964" s="43"/>
-    </row>
-    <row r="1965" spans="5:5">
+      <c r="G1964" s="43"/>
+    </row>
+    <row r="1965" spans="5:7">
       <c r="E1965" s="43"/>
-    </row>
-    <row r="1967" spans="5:5">
+      <c r="G1965" s="43"/>
+    </row>
+    <row r="1966" spans="5:7">
+      <c r="E1966" s="43"/>
+      <c r="G1966" s="43"/>
+    </row>
+    <row r="1967" spans="5:7">
       <c r="E1967" s="43"/>
-    </row>
-    <row r="1968" spans="5:5">
-      <c r="E1968" s="43"/>
-    </row>
-    <row r="1969" spans="5:5">
-      <c r="E1969" s="43"/>
+      <c r="G1967" s="43"/>
     </row>
     <row r="1970" spans="5:5">
       <c r="E1970" s="43"/>
     </row>
-    <row r="1971" spans="5:5">
-      <c r="E1971" s="43"/>
-    </row>
-    <row r="1972" spans="5:5">
-      <c r="E1972" s="43"/>
-    </row>
-    <row r="1973" spans="5:5">
-      <c r="E1973" s="43"/>
-    </row>
     <row r="1974" spans="5:5">
       <c r="E1974" s="43"/>
     </row>
@@ -33232,12 +34563,6 @@
     <row r="1977" spans="5:5">
       <c r="E1977" s="43"/>
     </row>
-    <row r="1978" spans="5:5">
-      <c r="E1978" s="43"/>
-    </row>
-    <row r="1979" spans="5:5">
-      <c r="E1979" s="43"/>
-    </row>
     <row r="1980" spans="5:5">
       <c r="E1980" s="43"/>
     </row>
@@ -33250,12 +34575,6 @@
     <row r="1983" spans="5:5">
       <c r="E1983" s="43"/>
     </row>
-    <row r="1984" spans="5:5">
-      <c r="E1984" s="43"/>
-    </row>
-    <row r="1985" spans="5:5">
-      <c r="E1985" s="43"/>
-    </row>
     <row r="1986" spans="5:5">
       <c r="E1986" s="43"/>
     </row>
@@ -33283,250 +34602,433 @@
     <row r="1994" spans="5:5">
       <c r="E1994" s="43"/>
     </row>
+    <row r="1995" spans="5:5">
+      <c r="E1995" s="43"/>
+    </row>
     <row r="1996" spans="5:5">
       <c r="E1996" s="43"/>
     </row>
+    <row r="1997" spans="5:5">
+      <c r="E1997" s="43"/>
+    </row>
+    <row r="1998" spans="5:5">
+      <c r="E1998" s="43"/>
+    </row>
+    <row r="1999" spans="5:5">
+      <c r="E1999" s="43"/>
+    </row>
+    <row r="2001" spans="5:5">
+      <c r="E2001" s="43"/>
+    </row>
+    <row r="2002" spans="5:5">
+      <c r="E2002" s="43"/>
+    </row>
+    <row r="2003" spans="5:5">
+      <c r="E2003" s="43"/>
+    </row>
+    <row r="2004" spans="5:5">
+      <c r="E2004" s="43"/>
+    </row>
+    <row r="2005" spans="5:5">
+      <c r="E2005" s="43"/>
+    </row>
+    <row r="2006" spans="5:5">
+      <c r="E2006" s="43"/>
+    </row>
+    <row r="2007" spans="5:5">
+      <c r="E2007" s="43"/>
+    </row>
+    <row r="2008" spans="5:5">
+      <c r="E2008" s="43"/>
+    </row>
     <row r="2009" spans="5:5">
       <c r="E2009" s="43"/>
     </row>
+    <row r="2010" spans="5:5">
+      <c r="E2010" s="43"/>
+    </row>
+    <row r="2011" spans="5:5">
+      <c r="E2011" s="43"/>
+    </row>
+    <row r="2012" spans="5:5">
+      <c r="E2012" s="43"/>
+    </row>
+    <row r="2013" spans="5:5">
+      <c r="E2013" s="43"/>
+    </row>
+    <row r="2014" spans="5:5">
+      <c r="E2014" s="43"/>
+    </row>
+    <row r="2016" spans="5:5">
+      <c r="E2016" s="43"/>
+    </row>
+    <row r="2017" spans="5:5">
+      <c r="E2017" s="43"/>
+    </row>
+    <row r="2018" spans="5:5">
+      <c r="E2018" s="43"/>
+    </row>
+    <row r="2019" spans="5:5">
+      <c r="E2019" s="43"/>
+    </row>
+    <row r="2020" spans="5:5">
+      <c r="E2020" s="43"/>
+    </row>
+    <row r="2021" spans="5:5">
+      <c r="E2021" s="43"/>
+    </row>
+    <row r="2022" spans="5:5">
+      <c r="E2022" s="43"/>
+    </row>
     <row r="2023" spans="5:5">
       <c r="E2023" s="43"/>
     </row>
+    <row r="2024" spans="5:5">
+      <c r="E2024" s="43"/>
+    </row>
     <row r="2025" spans="5:5">
       <c r="E2025" s="43"/>
     </row>
+    <row r="2026" spans="5:5">
+      <c r="E2026" s="43"/>
+    </row>
+    <row r="2027" spans="5:5">
+      <c r="E2027" s="43"/>
+    </row>
+    <row r="2028" spans="5:5">
+      <c r="E2028" s="43"/>
+    </row>
+    <row r="2029" spans="5:5">
+      <c r="E2029" s="43"/>
+    </row>
+    <row r="2031" spans="5:5">
+      <c r="E2031" s="43"/>
+    </row>
+    <row r="2032" spans="5:5">
+      <c r="E2032" s="43"/>
+    </row>
+    <row r="2033" spans="5:5">
+      <c r="E2033" s="43"/>
+    </row>
+    <row r="2034" spans="5:5">
+      <c r="E2034" s="43"/>
+    </row>
+    <row r="2035" spans="5:5">
+      <c r="E2035" s="43"/>
+    </row>
+    <row r="2036" spans="5:5">
+      <c r="E2036" s="43"/>
+    </row>
+    <row r="2037" spans="5:5">
+      <c r="E2037" s="43"/>
+    </row>
     <row r="2038" spans="5:5">
       <c r="E2038" s="43"/>
     </row>
+    <row r="2039" spans="5:5">
+      <c r="E2039" s="43"/>
+    </row>
+    <row r="2040" spans="5:5">
+      <c r="E2040" s="43"/>
+    </row>
+    <row r="2041" spans="5:5">
+      <c r="E2041" s="43"/>
+    </row>
+    <row r="2042" spans="5:5">
+      <c r="E2042" s="43"/>
+    </row>
+    <row r="2043" spans="5:5">
+      <c r="E2043" s="43"/>
+    </row>
+    <row r="2044" spans="5:5">
+      <c r="E2044" s="43"/>
+    </row>
+    <row r="2045" spans="5:5">
+      <c r="E2045" s="43"/>
+    </row>
+    <row r="2046" spans="5:5">
+      <c r="E2046" s="43"/>
+    </row>
+    <row r="2047" spans="5:5">
+      <c r="E2047" s="43"/>
+    </row>
+    <row r="2048" spans="5:5">
+      <c r="E2048" s="43"/>
+    </row>
+    <row r="2049" spans="5:5">
+      <c r="E2049" s="43"/>
+    </row>
+    <row r="2050" spans="5:5">
+      <c r="E2050" s="43"/>
+    </row>
+    <row r="2051" spans="5:5">
+      <c r="E2051" s="43"/>
+    </row>
     <row r="2052" spans="5:5">
       <c r="E2052" s="43"/>
     </row>
+    <row r="2053" spans="5:5">
+      <c r="E2053" s="43"/>
+    </row>
     <row r="2054" spans="5:5">
       <c r="E2054" s="43"/>
     </row>
-    <row r="2067" spans="5:5">
-      <c r="E2067" s="43"/>
-    </row>
-    <row r="2081" spans="5:5">
-      <c r="E2081" s="43"/>
-    </row>
-    <row r="2084" spans="5:5">
-      <c r="E2084" s="43"/>
-    </row>
-    <row r="2085" spans="5:5">
-      <c r="E2085" s="43"/>
-    </row>
-    <row r="2086" spans="5:5">
-      <c r="E2086" s="43"/>
+    <row r="2055" spans="5:5">
+      <c r="E2055" s="43"/>
+    </row>
+    <row r="2056" spans="5:5">
+      <c r="E2056" s="43"/>
+    </row>
+    <row r="2057" spans="5:5">
+      <c r="E2057" s="43"/>
+    </row>
+    <row r="2058" spans="5:5">
+      <c r="E2058" s="43"/>
+    </row>
+    <row r="2060" spans="5:5">
+      <c r="E2060" s="43"/>
+    </row>
+    <row r="2073" spans="5:5">
+      <c r="E2073" s="43"/>
     </row>
     <row r="2087" spans="5:5">
       <c r="E2087" s="43"/>
     </row>
-    <row r="2088" spans="5:5">
-      <c r="E2088" s="43"/>
-    </row>
     <row r="2089" spans="5:5">
       <c r="E2089" s="43"/>
     </row>
-    <row r="2090" spans="5:5">
-      <c r="E2090" s="43"/>
-    </row>
-    <row r="2091" spans="5:5">
-      <c r="E2091" s="43"/>
-    </row>
-    <row r="2092" spans="5:5">
-      <c r="E2092" s="43"/>
-    </row>
-    <row r="2093" spans="5:5">
-      <c r="E2093" s="43"/>
-    </row>
-    <row r="2094" spans="5:5">
-      <c r="E2094" s="43"/>
-    </row>
-    <row r="2095" spans="5:5">
-      <c r="E2095" s="43"/>
-    </row>
-    <row r="2096" spans="5:5">
-      <c r="E2096" s="43"/>
-    </row>
-    <row r="2097" spans="5:5">
-      <c r="E2097" s="43"/>
-    </row>
-    <row r="2106" spans="5:5">
-      <c r="E2106" s="43"/>
-    </row>
-    <row r="2123" spans="5:5">
-      <c r="E2123" s="43"/>
-    </row>
-    <row r="2140" spans="5:5">
-      <c r="E2140" s="43"/>
+    <row r="2102" spans="5:5">
+      <c r="E2102" s="43"/>
+    </row>
+    <row r="2116" spans="5:5">
+      <c r="E2116" s="43"/>
+    </row>
+    <row r="2118" spans="5:5">
+      <c r="E2118" s="43"/>
+    </row>
+    <row r="2131" spans="5:5">
+      <c r="E2131" s="43"/>
+    </row>
+    <row r="2145" spans="5:5">
+      <c r="E2145" s="43"/>
+    </row>
+    <row r="2148" spans="5:5">
+      <c r="E2148" s="43"/>
+    </row>
+    <row r="2149" spans="5:5">
+      <c r="E2149" s="43"/>
+    </row>
+    <row r="2150" spans="5:5">
+      <c r="E2150" s="43"/>
+    </row>
+    <row r="2151" spans="5:5">
+      <c r="E2151" s="43"/>
+    </row>
+    <row r="2152" spans="5:5">
+      <c r="E2152" s="43"/>
+    </row>
+    <row r="2153" spans="5:5">
+      <c r="E2153" s="43"/>
+    </row>
+    <row r="2154" spans="5:5">
+      <c r="E2154" s="43"/>
+    </row>
+    <row r="2155" spans="5:5">
+      <c r="E2155" s="43"/>
+    </row>
+    <row r="2156" spans="5:5">
+      <c r="E2156" s="43"/>
     </row>
     <row r="2157" spans="5:5">
       <c r="E2157" s="43"/>
     </row>
-    <row r="2174" spans="5:5">
-      <c r="E2174" s="43"/>
-    </row>
-    <row r="2191" spans="5:5">
-      <c r="E2191" s="43"/>
-    </row>
-    <row r="2208" spans="5:5">
-      <c r="E2208" s="43"/>
-    </row>
-    <row r="2225" spans="5:5">
-      <c r="E2225" s="43"/>
-    </row>
-    <row r="2242" spans="5:5">
-      <c r="E2242" s="43"/>
-    </row>
-    <row r="2259" spans="5:5">
-      <c r="E2259" s="43"/>
-    </row>
-    <row r="2276" spans="5:5">
-      <c r="E2276" s="43"/>
-    </row>
-    <row r="2293" spans="5:5">
-      <c r="E2293" s="43"/>
-    </row>
-    <row r="2310" spans="5:5">
-      <c r="E2310" s="43"/>
-    </row>
-    <row r="2327" spans="5:5">
-      <c r="E2327" s="43"/>
-    </row>
-    <row r="2344" spans="5:5">
-      <c r="E2344" s="43"/>
-    </row>
-    <row r="2361" spans="5:5">
-      <c r="E2361" s="43"/>
-    </row>
-    <row r="2371" spans="5:7">
-      <c r="G2371" s="43"/>
-    </row>
-    <row r="2372" spans="5:7">
-      <c r="G2372" s="43"/>
-    </row>
-    <row r="2373" spans="5:7">
-      <c r="G2373" s="43"/>
-    </row>
-    <row r="2374" spans="5:7">
-      <c r="G2374" s="43"/>
-    </row>
-    <row r="2375" spans="5:7">
-      <c r="G2375" s="43"/>
-    </row>
-    <row r="2376" spans="5:7">
-      <c r="G2376" s="43"/>
-    </row>
-    <row r="2377" spans="5:7">
-      <c r="G2377" s="43"/>
-    </row>
-    <row r="2378" spans="5:7">
-      <c r="G2378" s="43"/>
-    </row>
-    <row r="2379" spans="5:7">
-      <c r="G2379" s="43"/>
-    </row>
-    <row r="2380" spans="5:7">
-      <c r="G2380" s="43"/>
-    </row>
-    <row r="2381" spans="5:7">
-      <c r="G2381" s="43"/>
-    </row>
-    <row r="2382" spans="5:7">
-      <c r="G2382" s="43"/>
-    </row>
-    <row r="2383" spans="5:7">
-      <c r="G2383" s="43"/>
-    </row>
-    <row r="2384" spans="5:7">
-      <c r="E2384" s="43"/>
-      <c r="G2384" s="43"/>
-    </row>
-    <row r="2405" spans="5:5">
-      <c r="E2405" s="43"/>
-    </row>
-    <row r="2420" spans="5:5">
-      <c r="E2420" s="43"/>
-    </row>
-    <row r="2435" spans="5:5">
-      <c r="E2435" s="43"/>
-    </row>
-    <row r="2450" spans="5:5">
-      <c r="E2450" s="43"/>
-    </row>
-    <row r="2466" spans="5:5">
-      <c r="E2466" s="43"/>
-    </row>
-    <row r="2474" spans="5:5">
-      <c r="E2474" s="43"/>
-    </row>
-    <row r="2483" spans="7:7">
-      <c r="G2483" s="43"/>
-    </row>
-    <row r="2484" spans="7:7">
-      <c r="G2484" s="43"/>
-    </row>
-    <row r="2485" spans="7:7">
-      <c r="G2485" s="43"/>
-    </row>
-    <row r="2486" spans="7:7">
-      <c r="G2486" s="43"/>
-    </row>
-    <row r="2487" spans="7:7">
-      <c r="G2487" s="43"/>
-    </row>
-    <row r="2488" spans="7:7">
-      <c r="G2488" s="43"/>
-    </row>
-    <row r="2489" spans="7:7">
-      <c r="G2489" s="43"/>
-    </row>
-    <row r="2490" spans="7:7">
-      <c r="G2490" s="43"/>
-    </row>
-    <row r="2491" spans="7:7">
-      <c r="G2491" s="43"/>
-    </row>
-    <row r="2492" spans="7:7">
-      <c r="G2492" s="43"/>
-    </row>
-    <row r="2493" spans="7:7">
-      <c r="G2493" s="43"/>
-    </row>
-    <row r="2494" spans="7:7">
-      <c r="G2494" s="43"/>
-    </row>
-    <row r="2495" spans="7:7">
-      <c r="G2495" s="43"/>
-    </row>
-    <row r="2496" spans="7:7">
-      <c r="G2496" s="43"/>
-    </row>
-    <row r="2497" spans="5:7">
-      <c r="G2497" s="43"/>
-    </row>
-    <row r="2498" spans="5:7">
-      <c r="G2498" s="43"/>
-    </row>
-    <row r="2499" spans="5:7">
-      <c r="G2499" s="43"/>
-    </row>
-    <row r="2500" spans="5:7">
-      <c r="G2500" s="43"/>
-    </row>
-    <row r="2501" spans="5:7">
-      <c r="G2501" s="43"/>
-    </row>
-    <row r="2502" spans="5:7">
-      <c r="E2502" s="43"/>
-      <c r="G2502" s="43"/>
-    </row>
-    <row r="2510" spans="5:7">
-      <c r="E2510" s="43"/>
-    </row>
-    <row r="2517" spans="5:5">
-      <c r="E2517" s="43"/>
+    <row r="2158" spans="5:5">
+      <c r="E2158" s="43"/>
+    </row>
+    <row r="2159" spans="5:5">
+      <c r="E2159" s="43"/>
+    </row>
+    <row r="2160" spans="5:5">
+      <c r="E2160" s="43"/>
+    </row>
+    <row r="2161" spans="5:5">
+      <c r="E2161" s="43"/>
+    </row>
+    <row r="2170" spans="5:5">
+      <c r="E2170" s="43"/>
+    </row>
+    <row r="2187" spans="5:5">
+      <c r="E2187" s="43"/>
+    </row>
+    <row r="2204" spans="5:5">
+      <c r="E2204" s="43"/>
+    </row>
+    <row r="2221" spans="5:5">
+      <c r="E2221" s="43"/>
+    </row>
+    <row r="2238" spans="5:5">
+      <c r="E2238" s="43"/>
+    </row>
+    <row r="2255" spans="5:5">
+      <c r="E2255" s="43"/>
+    </row>
+    <row r="2272" spans="5:5">
+      <c r="E2272" s="43"/>
+    </row>
+    <row r="2289" spans="5:5">
+      <c r="E2289" s="43"/>
+    </row>
+    <row r="2306" spans="5:5">
+      <c r="E2306" s="43"/>
+    </row>
+    <row r="2323" spans="5:5">
+      <c r="E2323" s="43"/>
+    </row>
+    <row r="2340" spans="5:5">
+      <c r="E2340" s="43"/>
+    </row>
+    <row r="2357" spans="5:5">
+      <c r="E2357" s="43"/>
+    </row>
+    <row r="2374" spans="5:5">
+      <c r="E2374" s="43"/>
+    </row>
+    <row r="2391" spans="5:5">
+      <c r="E2391" s="43"/>
+    </row>
+    <row r="2408" spans="5:5">
+      <c r="E2408" s="43"/>
+    </row>
+    <row r="2425" spans="5:5">
+      <c r="E2425" s="43"/>
+    </row>
+    <row r="2435" spans="5:7">
+      <c r="G2435" s="43"/>
+    </row>
+    <row r="2436" spans="5:7">
+      <c r="G2436" s="43"/>
+    </row>
+    <row r="2437" spans="5:7">
+      <c r="G2437" s="43"/>
+    </row>
+    <row r="2438" spans="5:7">
+      <c r="G2438" s="43"/>
+    </row>
+    <row r="2439" spans="5:7">
+      <c r="G2439" s="43"/>
+    </row>
+    <row r="2440" spans="5:7">
+      <c r="G2440" s="43"/>
+    </row>
+    <row r="2441" spans="5:7">
+      <c r="G2441" s="43"/>
+    </row>
+    <row r="2442" spans="5:7">
+      <c r="G2442" s="43"/>
+    </row>
+    <row r="2443" spans="5:7">
+      <c r="G2443" s="43"/>
+    </row>
+    <row r="2444" spans="5:7">
+      <c r="G2444" s="43"/>
+    </row>
+    <row r="2445" spans="5:7">
+      <c r="G2445" s="43"/>
+    </row>
+    <row r="2446" spans="5:7">
+      <c r="G2446" s="43"/>
+    </row>
+    <row r="2447" spans="5:7">
+      <c r="G2447" s="43"/>
+    </row>
+    <row r="2448" spans="5:7">
+      <c r="E2448" s="43"/>
+      <c r="G2448" s="43"/>
+    </row>
+    <row r="2469" spans="5:5">
+      <c r="E2469" s="43"/>
+    </row>
+    <row r="2484" spans="5:5">
+      <c r="E2484" s="43"/>
+    </row>
+    <row r="2499" spans="5:5">
+      <c r="E2499" s="43"/>
+    </row>
+    <row r="2514" spans="5:5">
+      <c r="E2514" s="43"/>
+    </row>
+    <row r="2530" spans="5:5">
+      <c r="E2530" s="43"/>
+    </row>
+    <row r="2538" spans="5:5">
+      <c r="E2538" s="43"/>
+    </row>
+    <row r="2547" spans="7:7">
+      <c r="G2547" s="43"/>
+    </row>
+    <row r="2548" spans="7:7">
+      <c r="G2548" s="43"/>
+    </row>
+    <row r="2549" spans="7:7">
+      <c r="G2549" s="43"/>
+    </row>
+    <row r="2550" spans="7:7">
+      <c r="G2550" s="43"/>
+    </row>
+    <row r="2551" spans="7:7">
+      <c r="G2551" s="43"/>
+    </row>
+    <row r="2552" spans="7:7">
+      <c r="G2552" s="43"/>
+    </row>
+    <row r="2553" spans="7:7">
+      <c r="G2553" s="43"/>
+    </row>
+    <row r="2554" spans="7:7">
+      <c r="G2554" s="43"/>
+    </row>
+    <row r="2555" spans="7:7">
+      <c r="G2555" s="43"/>
+    </row>
+    <row r="2556" spans="7:7">
+      <c r="G2556" s="43"/>
+    </row>
+    <row r="2557" spans="7:7">
+      <c r="G2557" s="43"/>
+    </row>
+    <row r="2558" spans="7:7">
+      <c r="G2558" s="43"/>
+    </row>
+    <row r="2559" spans="7:7">
+      <c r="G2559" s="43"/>
+    </row>
+    <row r="2560" spans="7:7">
+      <c r="G2560" s="43"/>
+    </row>
+    <row r="2561" spans="5:7">
+      <c r="G2561" s="43"/>
+    </row>
+    <row r="2562" spans="5:7">
+      <c r="G2562" s="43"/>
+    </row>
+    <row r="2563" spans="5:7">
+      <c r="G2563" s="43"/>
+    </row>
+    <row r="2564" spans="5:7">
+      <c r="G2564" s="43"/>
+    </row>
+    <row r="2565" spans="5:7">
+      <c r="G2565" s="43"/>
+    </row>
+    <row r="2566" spans="5:7">
+      <c r="E2566" s="43"/>
+      <c r="G2566" s="43"/>
+    </row>
+    <row r="2574" spans="5:7">
+      <c r="E2574" s="43"/>
+    </row>
+    <row r="2581" spans="5:5">
+      <c r="E2581" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAEB5F4-B9AD-4840-BE9D-F4F0299F3B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA2CD6A-A88B-4A6A-85B0-503B1B2B111D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -8306,10 +8306,10 @@
   <dimension ref="A1:I2581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="C1236" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B682" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E1248" sqref="E1248"/>
+      <selection pane="bottomRight" activeCell="C697" sqref="C697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA2CD6A-A88B-4A6A-85B0-503B1B2B111D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A65713C-1DA5-4E77-88AB-3D7B2D0DB16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7345" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7344" uniqueCount="1620">
   <si>
     <t>Name</t>
   </si>
@@ -3437,9 +3437,6 @@
     <t>Commodore 64/250425/Scope baseline/C64 250425 Introduction to scope baseline measurements.txt</t>
   </si>
   <si>
-    <t>None yet - will you help?</t>
-  </si>
-  <si>
     <t>PLA (Programmable Logic Array) is responsible for bank switching and dealing with chip select signals.
 Compatible part-number: Signetics 82S100
 Compatible part-number: Philips PLS100
@@ -4697,9 +4694,6 @@
     <t>Commodore 64/250425/Scope baseline/Images/U15_1_NTSC.png</t>
   </si>
   <si>
-    <t>WE HAVE A DIFF</t>
-  </si>
-  <si>
     <t>Commodore 64/250425/Scope baseline/Images/U25_1_NTSC.png</t>
   </si>
   <si>
@@ -4749,6 +4743,222 @@
   </si>
   <si>
     <t>14.3182 MHz</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_17_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_18_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_19_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U26_20_NTSC.png</t>
+  </si>
+  <si>
+    <t>4.18 (+5VDC power rail)</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U27_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U28_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_9_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_10_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_11_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_12_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_13_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_14_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_15_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/U31_16_NTSC.png</t>
+  </si>
+  <si>
+    <t>8.18181 MHz</t>
+  </si>
+  <si>
+    <t>14.3171 MHz</t>
+  </si>
+  <si>
+    <t>14.3177 MHz</t>
+  </si>
+  <si>
+    <t>PAL has this LOW</t>
+  </si>
+  <si>
+    <t>NTSC has this HIGH</t>
+  </si>
+  <si>
+    <t>Fred Sauer</t>
+  </si>
+  <si>
+    <t>https://github.com/fredsa</t>
   </si>
   <si>
     <r>
@@ -4763,218 +4973,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-November-20</t>
+      <t>2025-November-21</t>
     </r>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_16_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_17_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_18_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_19_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U26_20_NTSC.png</t>
-  </si>
-  <si>
-    <t>4.18 (+5VDC power rail)</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U27_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U27_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U27_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U27_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U27_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U27_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U27_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U27_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U27_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U27_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U27_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U27_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U27_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U27_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U28_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U28_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U28_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U28_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U28_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U28_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U28_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U28_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U28_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U28_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U28_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U28_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U28_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U28_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U31_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U31_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U31_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U31_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U31_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U31_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U31_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U31_8_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U31_9_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U31_10_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U31_11_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U31_12_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U31_13_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U31_14_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U31_15_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Scope baseline/Images/U31_16_NTSC.png</t>
-  </si>
-  <si>
-    <t>8.18181 MHz</t>
-  </si>
-  <si>
-    <t>14.3171 MHz</t>
-  </si>
-  <si>
-    <t>14.3177 MHz</t>
-  </si>
-  <si>
-    <t>PAL has this LOW</t>
-  </si>
-  <si>
-    <t>NTSC has this HIGH</t>
   </si>
 </sst>
 </file>
@@ -5058,7 +5058,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5089,12 +5089,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5110,7 +5104,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5250,17 +5244,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5581,9 +5569,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5608,7 +5596,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>1549</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5650,12 +5638,12 @@
         <v>291</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="28.8">
       <c r="A9" s="22" t="s">
@@ -8305,11 +8293,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I2581"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B682" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C697" sqref="C697"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8577,7 +8565,7 @@
         <v>393</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -8617,7 +8605,7 @@
         <v>395</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -8657,7 +8645,7 @@
         <v>395</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -8697,7 +8685,7 @@
         <v>395</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -8737,7 +8725,7 @@
         <v>395</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -8777,7 +8765,7 @@
         <v>395</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -8817,7 +8805,7 @@
         <v>395</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -8857,7 +8845,7 @@
         <v>395</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -8897,7 +8885,7 @@
         <v>403</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -8937,7 +8925,7 @@
         <v>405</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -8977,7 +8965,7 @@
         <v>405</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -9017,7 +9005,7 @@
         <v>405</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -9057,7 +9045,7 @@
         <v>405</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -9097,7 +9085,7 @@
         <v>405</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -9137,7 +9125,7 @@
         <v>405</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -9177,7 +9165,7 @@
         <v>405</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9217,7 +9205,7 @@
         <v>405</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -9257,7 +9245,7 @@
         <v>395</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9297,7 +9285,7 @@
         <v>395</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -9334,10 +9322,10 @@
         <v>415</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9377,7 +9365,7 @@
         <v>395</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9417,7 +9405,7 @@
         <v>395</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -9457,7 +9445,7 @@
         <v>395</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9497,7 +9485,7 @@
         <v>405</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -9534,10 +9522,10 @@
         <v>421</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -9577,7 +9565,7 @@
         <v>395</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -9617,7 +9605,7 @@
         <v>395</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -9657,7 +9645,7 @@
         <v>395</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -9697,7 +9685,7 @@
         <v>395</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -9737,7 +9725,7 @@
         <v>395</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -9777,7 +9765,7 @@
         <v>395</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -9817,7 +9805,7 @@
         <v>395</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -9857,7 +9845,7 @@
         <v>395</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -9897,7 +9885,7 @@
         <v>405</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -9937,7 +9925,7 @@
         <v>395</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -9977,7 +9965,7 @@
         <v>395</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -10017,7 +10005,7 @@
         <v>395</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -10057,7 +10045,7 @@
         <v>395</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -10097,7 +10085,7 @@
         <v>405</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -10137,7 +10125,7 @@
         <v>405</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="158.4">
@@ -10193,7 +10181,7 @@
         <v>393</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -10233,7 +10221,7 @@
         <v>405</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -10273,7 +10261,7 @@
         <v>405</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -10313,7 +10301,7 @@
         <v>405</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -10353,7 +10341,7 @@
         <v>403</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -10393,7 +10381,7 @@
         <v>405</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -10433,7 +10421,7 @@
         <v>403</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -10473,7 +10461,7 @@
         <v>403</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -10513,7 +10501,7 @@
         <v>405</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -10553,7 +10541,7 @@
         <v>405</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -10593,7 +10581,7 @@
         <v>405</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -10633,7 +10621,7 @@
         <v>405</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -10673,7 +10661,7 @@
         <v>405</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -10713,7 +10701,7 @@
         <v>405</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -10753,7 +10741,7 @@
         <v>405</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -10793,7 +10781,7 @@
         <v>405</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -10833,7 +10821,7 @@
         <v>405</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -10873,7 +10861,7 @@
         <v>405</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -10913,7 +10901,7 @@
         <v>395</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -10950,10 +10938,10 @@
         <v>415</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -10993,7 +10981,7 @@
         <v>405</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -11033,7 +11021,7 @@
         <v>395</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -11073,7 +11061,7 @@
         <v>405</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -11113,7 +11101,7 @@
         <v>405</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -11150,10 +11138,10 @@
         <v>421</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -11193,7 +11181,7 @@
         <v>395</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -11233,7 +11221,7 @@
         <v>395</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -11273,7 +11261,7 @@
         <v>395</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -11313,7 +11301,7 @@
         <v>395</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -11353,7 +11341,7 @@
         <v>395</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -11393,7 +11381,7 @@
         <v>395</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -11433,7 +11421,7 @@
         <v>395</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -11473,7 +11461,7 @@
         <v>395</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -11513,7 +11501,7 @@
         <v>405</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -11553,7 +11541,7 @@
         <v>395</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -11593,7 +11581,7 @@
         <v>395</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -11633,7 +11621,7 @@
         <v>395</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -11673,7 +11661,7 @@
         <v>395</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -11713,7 +11701,7 @@
         <v>405</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -11753,7 +11741,7 @@
         <v>405</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="28.8">
@@ -11809,7 +11797,7 @@
         <v>395</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -11849,7 +11837,7 @@
         <v>395</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -11889,7 +11877,7 @@
         <v>395</v>
       </c>
       <c r="F186" s="14" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -11929,7 +11917,7 @@
         <v>395</v>
       </c>
       <c r="F188" s="14" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -11969,7 +11957,7 @@
         <v>395</v>
       </c>
       <c r="F190" s="14" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -12009,7 +11997,7 @@
         <v>395</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -12049,7 +12037,7 @@
         <v>395</v>
       </c>
       <c r="F194" s="14" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -12089,7 +12077,7 @@
         <v>395</v>
       </c>
       <c r="F196" s="14" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -12129,7 +12117,7 @@
         <v>395</v>
       </c>
       <c r="F198" s="14" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -12169,7 +12157,7 @@
         <v>395</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -12209,7 +12197,7 @@
         <v>395</v>
       </c>
       <c r="F202" s="14" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -12249,7 +12237,7 @@
         <v>393</v>
       </c>
       <c r="F204" s="14" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -12289,7 +12277,7 @@
         <v>395</v>
       </c>
       <c r="F206" s="14" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -12329,7 +12317,7 @@
         <v>395</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -12369,7 +12357,7 @@
         <v>395</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -12409,7 +12397,7 @@
         <v>395</v>
       </c>
       <c r="F212" s="14" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -12449,7 +12437,7 @@
         <v>395</v>
       </c>
       <c r="F214" s="14" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -12489,7 +12477,7 @@
         <v>395</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -12529,7 +12517,7 @@
         <v>395</v>
       </c>
       <c r="F218" s="14" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -12569,7 +12557,7 @@
         <v>405</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -12609,7 +12597,7 @@
         <v>395</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -12649,7 +12637,7 @@
         <v>395</v>
       </c>
       <c r="F224" s="14" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -12689,7 +12677,7 @@
         <v>395</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -12726,10 +12714,10 @@
         <v>415</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F228" s="14" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="28.8">
@@ -12785,7 +12773,7 @@
         <v>395</v>
       </c>
       <c r="F231" s="14" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -12825,7 +12813,7 @@
         <v>395</v>
       </c>
       <c r="F233" s="14" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -12865,7 +12853,7 @@
         <v>395</v>
       </c>
       <c r="F235" s="14" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -12905,7 +12893,7 @@
         <v>395</v>
       </c>
       <c r="F237" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -12945,7 +12933,7 @@
         <v>395</v>
       </c>
       <c r="F239" s="14" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -12985,7 +12973,7 @@
         <v>395</v>
       </c>
       <c r="F241" s="14" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -13025,7 +13013,7 @@
         <v>395</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -13065,7 +13053,7 @@
         <v>395</v>
       </c>
       <c r="F245" s="14" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -13105,7 +13093,7 @@
         <v>395</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -13145,7 +13133,7 @@
         <v>395</v>
       </c>
       <c r="F249" s="14" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -13185,7 +13173,7 @@
         <v>395</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -13225,7 +13213,7 @@
         <v>393</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -13265,7 +13253,7 @@
         <v>395</v>
       </c>
       <c r="F255" s="14" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -13305,7 +13293,7 @@
         <v>395</v>
       </c>
       <c r="F257" s="14" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -13345,7 +13333,7 @@
         <v>395</v>
       </c>
       <c r="F259" s="14" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -13385,7 +13373,7 @@
         <v>395</v>
       </c>
       <c r="F261" s="14" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -13425,7 +13413,7 @@
         <v>395</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -13465,7 +13453,7 @@
         <v>395</v>
       </c>
       <c r="F265" s="14" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -13505,7 +13493,7 @@
         <v>395</v>
       </c>
       <c r="F267" s="14" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -13545,7 +13533,7 @@
         <v>395</v>
       </c>
       <c r="F269" s="14" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -13585,7 +13573,7 @@
         <v>395</v>
       </c>
       <c r="F271" s="14" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -13625,7 +13613,7 @@
         <v>395</v>
       </c>
       <c r="F273" s="14" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -13665,7 +13653,7 @@
         <v>395</v>
       </c>
       <c r="F275" s="14" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -13702,10 +13690,10 @@
         <v>415</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="72">
@@ -13761,7 +13749,7 @@
         <v>395</v>
       </c>
       <c r="F280" s="14" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -13801,7 +13789,7 @@
         <v>395</v>
       </c>
       <c r="F282" s="14" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -13841,7 +13829,7 @@
         <v>395</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -13881,7 +13869,7 @@
         <v>395</v>
       </c>
       <c r="F286" s="14" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -13921,7 +13909,7 @@
         <v>395</v>
       </c>
       <c r="F288" s="14" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -13961,7 +13949,7 @@
         <v>395</v>
       </c>
       <c r="F290" s="14" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -14001,7 +13989,7 @@
         <v>395</v>
       </c>
       <c r="F292" s="14" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -14041,7 +14029,7 @@
         <v>395</v>
       </c>
       <c r="F294" s="14" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -14081,7 +14069,7 @@
         <v>395</v>
       </c>
       <c r="F296" s="14" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -14121,7 +14109,7 @@
         <v>395</v>
       </c>
       <c r="F298" s="14" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -14161,7 +14149,7 @@
         <v>395</v>
       </c>
       <c r="F300" s="14" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -14201,7 +14189,7 @@
         <v>393</v>
       </c>
       <c r="F302" s="14" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -14241,7 +14229,7 @@
         <v>395</v>
       </c>
       <c r="F304" s="14" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -14281,7 +14269,7 @@
         <v>395</v>
       </c>
       <c r="F306" s="14" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -14321,7 +14309,7 @@
         <v>395</v>
       </c>
       <c r="F308" s="14" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -14361,7 +14349,7 @@
         <v>395</v>
       </c>
       <c r="F310" s="14" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -14401,7 +14389,7 @@
         <v>395</v>
       </c>
       <c r="F312" s="14" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -14441,7 +14429,7 @@
         <v>395</v>
       </c>
       <c r="F314" s="14" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -14481,7 +14469,7 @@
         <v>395</v>
       </c>
       <c r="F316" s="14" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -14521,7 +14509,7 @@
         <v>395</v>
       </c>
       <c r="F318" s="14" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -14561,7 +14549,7 @@
         <v>405</v>
       </c>
       <c r="F320" s="14" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -14601,7 +14589,7 @@
         <v>395</v>
       </c>
       <c r="F322" s="14" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -14641,7 +14629,7 @@
         <v>395</v>
       </c>
       <c r="F324" s="14" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -14678,10 +14666,10 @@
         <v>415</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F326" s="14" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="28.8">
@@ -14737,7 +14725,7 @@
         <v>395</v>
       </c>
       <c r="F329" s="14" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -14777,7 +14765,7 @@
         <v>395</v>
       </c>
       <c r="F331" s="14" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -14817,7 +14805,7 @@
         <v>395</v>
       </c>
       <c r="F333" s="14" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -14857,7 +14845,7 @@
         <v>395</v>
       </c>
       <c r="F335" s="14" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -14897,7 +14885,7 @@
         <v>395</v>
       </c>
       <c r="F337" s="14" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -14937,7 +14925,7 @@
         <v>395</v>
       </c>
       <c r="F339" s="14" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -14977,7 +14965,7 @@
         <v>395</v>
       </c>
       <c r="F341" s="14" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -15017,7 +15005,7 @@
         <v>395</v>
       </c>
       <c r="F343" s="14" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -15057,7 +15045,7 @@
         <v>393</v>
       </c>
       <c r="F345" s="14" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -15097,7 +15085,7 @@
         <v>395</v>
       </c>
       <c r="F347" s="14" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -15137,7 +15125,7 @@
         <v>395</v>
       </c>
       <c r="F349" s="14" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -15177,7 +15165,7 @@
         <v>395</v>
       </c>
       <c r="F351" s="14" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -15217,7 +15205,7 @@
         <v>395</v>
       </c>
       <c r="F353" s="14" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -15257,7 +15245,7 @@
         <v>395</v>
       </c>
       <c r="F355" s="14" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -15297,7 +15285,7 @@
         <v>395</v>
       </c>
       <c r="F357" s="14" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -15337,7 +15325,7 @@
         <v>395</v>
       </c>
       <c r="F359" s="14" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -15377,7 +15365,7 @@
         <v>395</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -15414,10 +15402,10 @@
         <v>415</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F363" s="14" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -15473,10 +15461,10 @@
         <v>621</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F366" s="14" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G366" s="1" t="s">
         <v>622</v>
@@ -15519,7 +15507,7 @@
         <v>395</v>
       </c>
       <c r="F368" s="14" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -15559,7 +15547,7 @@
         <v>395</v>
       </c>
       <c r="F370" s="14" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -15599,7 +15587,7 @@
         <v>405</v>
       </c>
       <c r="F372" s="14" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -15639,7 +15627,7 @@
         <v>395</v>
       </c>
       <c r="F374" s="14" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -15676,10 +15664,10 @@
         <v>415</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F376" s="14" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -15719,7 +15707,7 @@
         <v>395</v>
       </c>
       <c r="F378" s="14" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -15759,7 +15747,7 @@
         <v>395</v>
       </c>
       <c r="F380" s="14" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -15799,7 +15787,7 @@
         <v>395</v>
       </c>
       <c r="F382" s="14" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -15839,7 +15827,7 @@
         <v>395</v>
       </c>
       <c r="F384" s="14" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -15879,7 +15867,7 @@
         <v>395</v>
       </c>
       <c r="F386" s="14" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -15919,7 +15907,7 @@
         <v>395</v>
       </c>
       <c r="F388" s="14" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -15959,7 +15947,7 @@
         <v>395</v>
       </c>
       <c r="F390" s="14" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -15999,7 +15987,7 @@
         <v>395</v>
       </c>
       <c r="F392" s="14" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -16039,7 +16027,7 @@
         <v>395</v>
       </c>
       <c r="F394" s="14" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -16079,7 +16067,7 @@
         <v>395</v>
       </c>
       <c r="F396" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -16119,7 +16107,7 @@
         <v>395</v>
       </c>
       <c r="F398" s="14" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -16159,7 +16147,7 @@
         <v>395</v>
       </c>
       <c r="F400" s="14" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -16199,7 +16187,7 @@
         <v>395</v>
       </c>
       <c r="F402" s="14" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -16239,7 +16227,7 @@
         <v>395</v>
       </c>
       <c r="F404" s="14" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -16279,7 +16267,7 @@
         <v>393</v>
       </c>
       <c r="F406" s="14" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -16319,7 +16307,7 @@
         <v>395</v>
       </c>
       <c r="F408" s="14" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -16359,7 +16347,7 @@
         <v>395</v>
       </c>
       <c r="F410" s="14" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -16399,7 +16387,7 @@
         <v>405</v>
       </c>
       <c r="F412" s="14" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -16439,7 +16427,7 @@
         <v>405</v>
       </c>
       <c r="F414" s="14" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -16479,7 +16467,7 @@
         <v>403</v>
       </c>
       <c r="F416" s="14" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -16519,7 +16507,7 @@
         <v>405</v>
       </c>
       <c r="F418" s="14" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -16559,7 +16547,7 @@
         <v>405</v>
       </c>
       <c r="F420" s="14" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -16599,7 +16587,7 @@
         <v>405</v>
       </c>
       <c r="F422" s="14" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -16639,7 +16627,7 @@
         <v>395</v>
       </c>
       <c r="F424" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -16679,7 +16667,7 @@
         <v>395</v>
       </c>
       <c r="F426" s="14" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -16719,7 +16707,7 @@
         <v>395</v>
       </c>
       <c r="F428" s="14" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -16759,7 +16747,7 @@
         <v>395</v>
       </c>
       <c r="F430" s="14" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -16799,7 +16787,7 @@
         <v>395</v>
       </c>
       <c r="F432" s="14" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -16839,7 +16827,7 @@
         <v>395</v>
       </c>
       <c r="F434" s="14" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -16879,7 +16867,7 @@
         <v>395</v>
       </c>
       <c r="F436" s="14" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -16919,7 +16907,7 @@
         <v>395</v>
       </c>
       <c r="F438" s="14" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -16959,7 +16947,7 @@
         <v>395</v>
       </c>
       <c r="F440" s="14" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -16999,10 +16987,10 @@
         <v>421</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F442" s="14" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G442" s="1" t="s">
         <v>635</v>
@@ -17045,7 +17033,7 @@
         <v>405</v>
       </c>
       <c r="F444" s="14" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -17101,7 +17089,7 @@
         <v>403</v>
       </c>
       <c r="F447" s="14" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -17141,7 +17129,7 @@
         <v>405</v>
       </c>
       <c r="F449" s="14" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -17181,7 +17169,7 @@
         <v>395</v>
       </c>
       <c r="F451" s="14" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -17221,7 +17209,7 @@
         <v>395</v>
       </c>
       <c r="F453" s="14" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -17261,7 +17249,7 @@
         <v>403</v>
       </c>
       <c r="F455" s="14" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -17301,7 +17289,7 @@
         <v>405</v>
       </c>
       <c r="F457" s="14" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -17341,7 +17329,7 @@
         <v>393</v>
       </c>
       <c r="F459" s="14" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -17381,7 +17369,7 @@
         <v>405</v>
       </c>
       <c r="F461" s="14" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -17421,7 +17409,7 @@
         <v>403</v>
       </c>
       <c r="F463" s="14" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -17461,7 +17449,7 @@
         <v>403</v>
       </c>
       <c r="F465" s="14" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -17501,7 +17489,7 @@
         <v>405</v>
       </c>
       <c r="F467" s="14" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -17541,7 +17529,7 @@
         <v>405</v>
       </c>
       <c r="F469" s="14" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -17581,7 +17569,7 @@
         <v>403</v>
       </c>
       <c r="F471" s="14" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -17618,10 +17606,10 @@
         <v>415</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F473" s="14" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="474" spans="1:7" ht="72">
@@ -17677,7 +17665,7 @@
         <v>704</v>
       </c>
       <c r="F476" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -17717,7 +17705,7 @@
         <v>395</v>
       </c>
       <c r="F478" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -17757,7 +17745,7 @@
         <v>395</v>
       </c>
       <c r="F480" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -17797,7 +17785,7 @@
         <v>395</v>
       </c>
       <c r="F482" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -17837,7 +17825,7 @@
         <v>395</v>
       </c>
       <c r="F484" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -17877,7 +17865,7 @@
         <v>395</v>
       </c>
       <c r="F486" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -17917,7 +17905,7 @@
         <v>395</v>
       </c>
       <c r="F488" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -17954,10 +17942,10 @@
         <v>415</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F490" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -17997,7 +17985,7 @@
         <v>395</v>
       </c>
       <c r="F492" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -18037,7 +18025,7 @@
         <v>395</v>
       </c>
       <c r="F494" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -18077,7 +18065,7 @@
         <v>395</v>
       </c>
       <c r="F496" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -18117,7 +18105,7 @@
         <v>395</v>
       </c>
       <c r="F498" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -18157,7 +18145,7 @@
         <v>395</v>
       </c>
       <c r="F500" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -18197,7 +18185,7 @@
         <v>395</v>
       </c>
       <c r="F502" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -18237,7 +18225,7 @@
         <v>395</v>
       </c>
       <c r="F504" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -18277,7 +18265,7 @@
         <v>393</v>
       </c>
       <c r="F506" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="507" spans="1:7" ht="72">
@@ -18333,7 +18321,7 @@
         <v>704</v>
       </c>
       <c r="F509" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -18373,7 +18361,7 @@
         <v>395</v>
       </c>
       <c r="F511" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -18413,7 +18401,7 @@
         <v>395</v>
       </c>
       <c r="F513" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="514" spans="1:6">
@@ -18453,7 +18441,7 @@
         <v>395</v>
       </c>
       <c r="F515" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="516" spans="1:6">
@@ -18493,7 +18481,7 @@
         <v>395</v>
       </c>
       <c r="F517" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="518" spans="1:6">
@@ -18533,7 +18521,7 @@
         <v>395</v>
       </c>
       <c r="F519" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -18573,7 +18561,7 @@
         <v>395</v>
       </c>
       <c r="F521" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -18610,10 +18598,10 @@
         <v>415</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F523" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -18653,7 +18641,7 @@
         <v>395</v>
       </c>
       <c r="F525" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -18693,7 +18681,7 @@
         <v>395</v>
       </c>
       <c r="F527" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -18733,7 +18721,7 @@
         <v>395</v>
       </c>
       <c r="F529" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -18773,7 +18761,7 @@
         <v>395</v>
       </c>
       <c r="F531" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -18813,7 +18801,7 @@
         <v>395</v>
       </c>
       <c r="F533" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -18853,7 +18841,7 @@
         <v>395</v>
       </c>
       <c r="F535" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -18893,7 +18881,7 @@
         <v>395</v>
       </c>
       <c r="F537" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -18933,7 +18921,7 @@
         <v>393</v>
       </c>
       <c r="F539" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="540" spans="1:7" ht="72">
@@ -18989,7 +18977,7 @@
         <v>704</v>
       </c>
       <c r="F542" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -19029,7 +19017,7 @@
         <v>395</v>
       </c>
       <c r="F544" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -19069,7 +19057,7 @@
         <v>395</v>
       </c>
       <c r="F546" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -19109,7 +19097,7 @@
         <v>395</v>
       </c>
       <c r="F548" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -19149,7 +19137,7 @@
         <v>395</v>
       </c>
       <c r="F550" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -19189,7 +19177,7 @@
         <v>395</v>
       </c>
       <c r="F552" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -19229,7 +19217,7 @@
         <v>395</v>
       </c>
       <c r="F554" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -19266,10 +19254,10 @@
         <v>415</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F556" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -19309,7 +19297,7 @@
         <v>395</v>
       </c>
       <c r="F558" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -19349,7 +19337,7 @@
         <v>395</v>
       </c>
       <c r="F560" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -19389,7 +19377,7 @@
         <v>395</v>
       </c>
       <c r="F562" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -19429,7 +19417,7 @@
         <v>395</v>
       </c>
       <c r="F564" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="565" spans="1:7">
@@ -19469,7 +19457,7 @@
         <v>395</v>
       </c>
       <c r="F566" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -19509,7 +19497,7 @@
         <v>395</v>
       </c>
       <c r="F568" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -19549,7 +19537,7 @@
         <v>395</v>
       </c>
       <c r="F570" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -19589,7 +19577,7 @@
         <v>393</v>
       </c>
       <c r="F572" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="573" spans="1:7" ht="72">
@@ -19645,7 +19633,7 @@
         <v>704</v>
       </c>
       <c r="F575" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -19685,7 +19673,7 @@
         <v>395</v>
       </c>
       <c r="F577" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="578" spans="1:6">
@@ -19725,7 +19713,7 @@
         <v>395</v>
       </c>
       <c r="F579" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -19765,7 +19753,7 @@
         <v>395</v>
       </c>
       <c r="F581" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -19805,7 +19793,7 @@
         <v>395</v>
       </c>
       <c r="F583" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -19845,7 +19833,7 @@
         <v>395</v>
       </c>
       <c r="F585" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -19885,7 +19873,7 @@
         <v>395</v>
       </c>
       <c r="F587" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -19922,10 +19910,10 @@
         <v>415</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F589" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -19965,7 +19953,7 @@
         <v>395</v>
       </c>
       <c r="F591" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -20005,7 +19993,7 @@
         <v>395</v>
       </c>
       <c r="F593" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="594" spans="1:7">
@@ -20045,7 +20033,7 @@
         <v>395</v>
       </c>
       <c r="F595" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="596" spans="1:7">
@@ -20085,7 +20073,7 @@
         <v>395</v>
       </c>
       <c r="F597" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -20125,7 +20113,7 @@
         <v>395</v>
       </c>
       <c r="F599" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="600" spans="1:7">
@@ -20165,7 +20153,7 @@
         <v>395</v>
       </c>
       <c r="F601" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="602" spans="1:7">
@@ -20205,7 +20193,7 @@
         <v>395</v>
       </c>
       <c r="F603" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -20245,7 +20233,7 @@
         <v>393</v>
       </c>
       <c r="F605" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="606" spans="1:7">
@@ -20301,10 +20289,10 @@
         <v>395</v>
       </c>
       <c r="F608" s="14" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="609" spans="1:7">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6">
       <c r="A609" s="14" t="s">
         <v>29</v>
       </c>
@@ -20324,7 +20312,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="610" spans="1:7">
+    <row r="610" spans="1:6">
       <c r="A610" s="14" t="s">
         <v>29</v>
       </c>
@@ -20341,10 +20329,10 @@
         <v>395</v>
       </c>
       <c r="F610" s="14" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="611" spans="1:7">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6">
       <c r="A611" s="14" t="s">
         <v>29</v>
       </c>
@@ -20364,7 +20352,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="612" spans="1:7">
+    <row r="612" spans="1:6">
       <c r="A612" s="14" t="s">
         <v>29</v>
       </c>
@@ -20381,10 +20369,10 @@
         <v>395</v>
       </c>
       <c r="F612" s="14" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="613" spans="1:7">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6">
       <c r="A613" s="14" t="s">
         <v>29</v>
       </c>
@@ -20403,9 +20391,8 @@
       <c r="F613" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="G613" s="53"/>
-    </row>
-    <row r="614" spans="1:7">
+    </row>
+    <row r="614" spans="1:6">
       <c r="A614" s="14" t="s">
         <v>29</v>
       </c>
@@ -20422,11 +20409,10 @@
         <v>395</v>
       </c>
       <c r="F614" s="14" t="s">
-        <v>1360</v>
-      </c>
-      <c r="G614" s="53"/>
-    </row>
-    <row r="615" spans="1:7">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6">
       <c r="A615" s="14" t="s">
         <v>29</v>
       </c>
@@ -20445,9 +20431,8 @@
       <c r="F615" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="G615" s="53"/>
-    </row>
-    <row r="616" spans="1:7">
+    </row>
+    <row r="616" spans="1:6">
       <c r="A616" s="14" t="s">
         <v>29</v>
       </c>
@@ -20464,11 +20449,10 @@
         <v>395</v>
       </c>
       <c r="F616" s="14" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G616" s="53"/>
-    </row>
-    <row r="617" spans="1:7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6">
       <c r="A617" s="14" t="s">
         <v>29</v>
       </c>
@@ -20488,7 +20472,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="618" spans="1:7">
+    <row r="618" spans="1:6">
       <c r="A618" s="14" t="s">
         <v>29</v>
       </c>
@@ -20505,10 +20489,10 @@
         <v>395</v>
       </c>
       <c r="F618" s="14" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="619" spans="1:7">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6">
       <c r="A619" s="14" t="s">
         <v>29</v>
       </c>
@@ -20528,7 +20512,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="620" spans="1:7">
+    <row r="620" spans="1:6">
       <c r="A620" s="14" t="s">
         <v>29</v>
       </c>
@@ -20545,10 +20529,10 @@
         <v>395</v>
       </c>
       <c r="F620" s="14" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="621" spans="1:7">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6">
       <c r="A621" s="14" t="s">
         <v>29</v>
       </c>
@@ -20568,7 +20552,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="622" spans="1:7">
+    <row r="622" spans="1:6">
       <c r="A622" s="14" t="s">
         <v>29</v>
       </c>
@@ -20585,10 +20569,10 @@
         <v>393</v>
       </c>
       <c r="F622" s="14" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="623" spans="1:7">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6">
       <c r="A623" s="14" t="s">
         <v>29</v>
       </c>
@@ -20608,7 +20592,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="624" spans="1:7">
+    <row r="624" spans="1:6">
       <c r="A624" s="14" t="s">
         <v>29</v>
       </c>
@@ -20625,7 +20609,7 @@
         <v>395</v>
       </c>
       <c r="F624" s="14" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="625" spans="1:7">
@@ -20665,7 +20649,7 @@
         <v>395</v>
       </c>
       <c r="F626" s="14" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="627" spans="1:7">
@@ -20705,7 +20689,7 @@
         <v>395</v>
       </c>
       <c r="F628" s="14" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="629" spans="1:7">
@@ -20745,7 +20729,7 @@
         <v>395</v>
       </c>
       <c r="F630" s="14" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="631" spans="1:7">
@@ -20785,7 +20769,7 @@
         <v>395</v>
       </c>
       <c r="F632" s="14" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="633" spans="1:7">
@@ -20825,7 +20809,7 @@
         <v>395</v>
       </c>
       <c r="F634" s="14" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="635" spans="1:7">
@@ -20865,7 +20849,7 @@
         <v>395</v>
       </c>
       <c r="F636" s="14" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="637" spans="1:7">
@@ -20902,10 +20886,10 @@
         <v>415</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F638" s="14" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="639" spans="1:7" ht="43.2">
@@ -20944,7 +20928,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:6">
       <c r="A641" s="14" t="s">
         <v>69</v>
       </c>
@@ -20961,10 +20945,10 @@
         <v>395</v>
       </c>
       <c r="F641" s="14" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="642" spans="1:7">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6">
       <c r="A642" s="14" t="s">
         <v>69</v>
       </c>
@@ -20983,9 +20967,8 @@
       <c r="F642" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="G642" s="53"/>
-    </row>
-    <row r="643" spans="1:7">
+    </row>
+    <row r="643" spans="1:6">
       <c r="A643" s="14" t="s">
         <v>69</v>
       </c>
@@ -21002,11 +20985,10 @@
         <v>405</v>
       </c>
       <c r="F643" s="14" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G643" s="53"/>
-    </row>
-    <row r="644" spans="1:7">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6">
       <c r="A644" s="14" t="s">
         <v>69</v>
       </c>
@@ -21026,7 +21008,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:6">
       <c r="A645" s="14" t="s">
         <v>69</v>
       </c>
@@ -21043,10 +21025,10 @@
         <v>395</v>
       </c>
       <c r="F645" s="14" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="646" spans="1:7">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6">
       <c r="A646" s="14" t="s">
         <v>69</v>
       </c>
@@ -21066,7 +21048,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:6">
       <c r="A647" s="14" t="s">
         <v>69</v>
       </c>
@@ -21083,10 +21065,10 @@
         <v>395</v>
       </c>
       <c r="F647" s="14" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="648" spans="1:7">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6">
       <c r="A648" s="14" t="s">
         <v>69</v>
       </c>
@@ -21106,7 +21088,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:6">
       <c r="A649" s="14" t="s">
         <v>69</v>
       </c>
@@ -21123,10 +21105,10 @@
         <v>405</v>
       </c>
       <c r="F649" s="14" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="650" spans="1:7">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6">
       <c r="A650" s="14" t="s">
         <v>69</v>
       </c>
@@ -21146,7 +21128,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:6">
       <c r="A651" s="14" t="s">
         <v>69</v>
       </c>
@@ -21163,10 +21145,10 @@
         <v>395</v>
       </c>
       <c r="F651" s="14" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="652" spans="1:7">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6">
       <c r="A652" s="14" t="s">
         <v>69</v>
       </c>
@@ -21186,7 +21168,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:6">
       <c r="A653" s="14" t="s">
         <v>69</v>
       </c>
@@ -21203,10 +21185,10 @@
         <v>395</v>
       </c>
       <c r="F653" s="14" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="654" spans="1:7">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6">
       <c r="A654" s="14" t="s">
         <v>69</v>
       </c>
@@ -21226,7 +21208,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="655" spans="1:7">
+    <row r="655" spans="1:6">
       <c r="A655" s="14" t="s">
         <v>69</v>
       </c>
@@ -21243,10 +21225,10 @@
         <v>393</v>
       </c>
       <c r="F655" s="14" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="656" spans="1:7">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6">
       <c r="A656" s="14" t="s">
         <v>69</v>
       </c>
@@ -21283,7 +21265,7 @@
         <v>395</v>
       </c>
       <c r="F657" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="658" spans="1:7">
@@ -21323,7 +21305,7 @@
         <v>395</v>
       </c>
       <c r="F659" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="660" spans="1:7">
@@ -21363,7 +21345,7 @@
         <v>395</v>
       </c>
       <c r="F661" s="14" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="662" spans="1:7">
@@ -21403,7 +21385,7 @@
         <v>395</v>
       </c>
       <c r="F663" s="14" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="664" spans="1:7">
@@ -21443,7 +21425,7 @@
         <v>395</v>
       </c>
       <c r="F665" s="14" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="666" spans="1:7">
@@ -21483,7 +21465,7 @@
         <v>395</v>
       </c>
       <c r="F667" s="14" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="668" spans="1:7">
@@ -21523,7 +21505,7 @@
         <v>395</v>
       </c>
       <c r="F669" s="14" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="670" spans="1:7">
@@ -21560,10 +21542,10 @@
         <v>415</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F671" s="14" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="672" spans="1:7">
@@ -21619,7 +21601,7 @@
         <v>395</v>
       </c>
       <c r="F674" s="14" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -21659,7 +21641,7 @@
         <v>395</v>
       </c>
       <c r="F676" s="14" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="677" spans="1:6">
@@ -21699,7 +21681,7 @@
         <v>395</v>
       </c>
       <c r="F678" s="14" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -21739,7 +21721,7 @@
         <v>405</v>
       </c>
       <c r="F680" s="14" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="681" spans="1:6">
@@ -21779,7 +21761,7 @@
         <v>395</v>
       </c>
       <c r="F682" s="14" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="683" spans="1:6">
@@ -21819,7 +21801,7 @@
         <v>395</v>
       </c>
       <c r="F684" s="14" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="685" spans="1:6">
@@ -21859,7 +21841,7 @@
         <v>395</v>
       </c>
       <c r="F686" s="14" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="687" spans="1:6">
@@ -21899,7 +21881,7 @@
         <v>393</v>
       </c>
       <c r="F688" s="14" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="689" spans="1:7" s="24" customFormat="1">
@@ -21940,7 +21922,7 @@
         <v>395</v>
       </c>
       <c r="F690" s="14" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G690" s="1"/>
     </row>
@@ -21981,7 +21963,7 @@
         <v>395</v>
       </c>
       <c r="F692" s="14" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="693" spans="1:7">
@@ -22021,7 +22003,7 @@
         <v>405</v>
       </c>
       <c r="F694" s="14" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="695" spans="1:7">
@@ -22061,7 +22043,7 @@
         <v>395</v>
       </c>
       <c r="F696" s="14" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="697" spans="1:7">
@@ -22083,9 +22065,7 @@
       <c r="F697" s="14" t="s">
         <v>797</v>
       </c>
-      <c r="G697" s="51" t="s">
-        <v>1531</v>
-      </c>
+      <c r="G697" s="52"/>
     </row>
     <row r="698" spans="1:7">
       <c r="A698" s="14" t="s">
@@ -22104,11 +22084,9 @@
         <v>395</v>
       </c>
       <c r="F698" s="14" t="s">
-        <v>1400</v>
-      </c>
-      <c r="G698" s="51" t="s">
-        <v>1531</v>
-      </c>
+        <v>1399</v>
+      </c>
+      <c r="G698" s="52"/>
     </row>
     <row r="699" spans="1:7">
       <c r="A699" s="14" t="s">
@@ -22147,7 +22125,7 @@
         <v>395</v>
       </c>
       <c r="F700" s="14" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="701" spans="1:7">
@@ -22187,7 +22165,7 @@
         <v>395</v>
       </c>
       <c r="F702" s="14" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="703" spans="1:7">
@@ -22224,10 +22202,10 @@
         <v>415</v>
       </c>
       <c r="E704" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F704" s="14" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="705" spans="1:6">
@@ -22280,7 +22258,7 @@
         <v>395</v>
       </c>
       <c r="F707" s="14" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="708" spans="1:6">
@@ -22320,7 +22298,7 @@
         <v>395</v>
       </c>
       <c r="F709" s="14" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="710" spans="1:6">
@@ -22360,7 +22338,7 @@
         <v>395</v>
       </c>
       <c r="F711" s="14" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="712" spans="1:6">
@@ -22400,7 +22378,7 @@
         <v>395</v>
       </c>
       <c r="F713" s="14" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -22440,7 +22418,7 @@
         <v>395</v>
       </c>
       <c r="F715" s="14" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="716" spans="1:6">
@@ -22480,7 +22458,7 @@
         <v>395</v>
       </c>
       <c r="F717" s="14" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="718" spans="1:6">
@@ -22520,7 +22498,7 @@
         <v>393</v>
       </c>
       <c r="F719" s="14" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="720" spans="1:6">
@@ -22560,7 +22538,7 @@
         <v>395</v>
       </c>
       <c r="F721" s="14" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="722" spans="1:7">
@@ -22600,7 +22578,7 @@
         <v>395</v>
       </c>
       <c r="F723" s="14" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="724" spans="1:7">
@@ -22640,7 +22618,7 @@
         <v>395</v>
       </c>
       <c r="F725" s="14" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="726" spans="1:7">
@@ -22680,7 +22658,7 @@
         <v>395</v>
       </c>
       <c r="F727" s="14" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="728" spans="1:7">
@@ -22720,7 +22698,7 @@
         <v>395</v>
       </c>
       <c r="F729" s="14" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="730" spans="1:7">
@@ -22760,7 +22738,7 @@
         <v>395</v>
       </c>
       <c r="F731" s="14" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="732" spans="1:7">
@@ -22797,10 +22775,10 @@
         <v>813</v>
       </c>
       <c r="E733" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F733" s="14" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="734" spans="1:7" ht="86.4">
@@ -22816,7 +22794,7 @@
         <v>359</v>
       </c>
       <c r="G734" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="735" spans="1:7">
@@ -22856,7 +22834,7 @@
         <v>704</v>
       </c>
       <c r="F736" s="14" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="737" spans="1:6">
@@ -22896,7 +22874,7 @@
         <v>395</v>
       </c>
       <c r="F738" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="739" spans="1:6">
@@ -22936,7 +22914,7 @@
         <v>395</v>
       </c>
       <c r="F740" s="14" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="741" spans="1:6">
@@ -22976,7 +22954,7 @@
         <v>395</v>
       </c>
       <c r="F742" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="743" spans="1:6">
@@ -23016,7 +22994,7 @@
         <v>405</v>
       </c>
       <c r="F744" s="14" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -23056,7 +23034,7 @@
         <v>405</v>
       </c>
       <c r="F746" s="14" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="747" spans="1:6">
@@ -23096,7 +23074,7 @@
         <v>405</v>
       </c>
       <c r="F748" s="14" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -23136,7 +23114,7 @@
         <v>405</v>
       </c>
       <c r="F750" s="14" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="751" spans="1:6">
@@ -23176,7 +23154,7 @@
         <v>395</v>
       </c>
       <c r="F752" s="14" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="753" spans="1:6">
@@ -23216,7 +23194,7 @@
         <v>405</v>
       </c>
       <c r="F754" s="14" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="755" spans="1:6">
@@ -23256,7 +23234,7 @@
         <v>405</v>
       </c>
       <c r="F756" s="14" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="757" spans="1:6">
@@ -23296,7 +23274,7 @@
         <v>395</v>
       </c>
       <c r="F758" s="14" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="759" spans="1:6">
@@ -23336,7 +23314,7 @@
         <v>395</v>
       </c>
       <c r="F760" s="14" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="761" spans="1:6">
@@ -23376,7 +23354,7 @@
         <v>393</v>
       </c>
       <c r="F762" s="14" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="763" spans="1:6">
@@ -23416,7 +23394,7 @@
         <v>395</v>
       </c>
       <c r="F764" s="14" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="765" spans="1:6">
@@ -23456,7 +23434,7 @@
         <v>395</v>
       </c>
       <c r="F766" s="14" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="767" spans="1:6">
@@ -23496,7 +23474,7 @@
         <v>405</v>
       </c>
       <c r="F768" s="14" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="769" spans="1:6">
@@ -23536,7 +23514,7 @@
         <v>395</v>
       </c>
       <c r="F770" s="14" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="771" spans="1:6">
@@ -23576,7 +23554,7 @@
         <v>403</v>
       </c>
       <c r="F772" s="14" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -23616,7 +23594,7 @@
         <v>395</v>
       </c>
       <c r="F774" s="14" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="775" spans="1:6">
@@ -23656,7 +23634,7 @@
         <v>395</v>
       </c>
       <c r="F776" s="14" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="777" spans="1:6">
@@ -23696,7 +23674,7 @@
         <v>405</v>
       </c>
       <c r="F778" s="14" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="779" spans="1:6">
@@ -23736,7 +23714,7 @@
         <v>405</v>
       </c>
       <c r="F780" s="14" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="781" spans="1:6">
@@ -23776,7 +23754,7 @@
         <v>395</v>
       </c>
       <c r="F782" s="14" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="783" spans="1:6">
@@ -23816,7 +23794,7 @@
         <v>395</v>
       </c>
       <c r="F784" s="14" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="785" spans="1:7">
@@ -23856,7 +23834,7 @@
         <v>395</v>
       </c>
       <c r="F786" s="14" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="787" spans="1:7">
@@ -23896,7 +23874,7 @@
         <v>395</v>
       </c>
       <c r="F788" s="14" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="789" spans="1:7">
@@ -23933,10 +23911,10 @@
         <v>415</v>
       </c>
       <c r="E790" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F790" s="14" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="791" spans="1:7" ht="72">
@@ -23992,7 +23970,7 @@
         <v>405</v>
       </c>
       <c r="F793" s="14" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="794" spans="1:7">
@@ -24032,7 +24010,7 @@
         <v>405</v>
       </c>
       <c r="F795" s="14" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="796" spans="1:7">
@@ -24072,7 +24050,7 @@
         <v>405</v>
       </c>
       <c r="F797" s="14" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="798" spans="1:7">
@@ -24112,7 +24090,7 @@
         <v>405</v>
       </c>
       <c r="F799" s="14" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="800" spans="1:7">
@@ -24152,7 +24130,7 @@
         <v>405</v>
       </c>
       <c r="F801" s="14" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="802" spans="1:6">
@@ -24189,10 +24167,10 @@
         <v>879</v>
       </c>
       <c r="E803" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F803" s="14" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="804" spans="1:6">
@@ -24232,7 +24210,7 @@
         <v>395</v>
       </c>
       <c r="F805" s="14" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="806" spans="1:6">
@@ -24272,7 +24250,7 @@
         <v>395</v>
       </c>
       <c r="F807" s="14" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="808" spans="1:6">
@@ -24312,7 +24290,7 @@
         <v>395</v>
       </c>
       <c r="F809" s="14" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="810" spans="1:6">
@@ -24352,7 +24330,7 @@
         <v>395</v>
       </c>
       <c r="F811" s="14" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="812" spans="1:6">
@@ -24392,7 +24370,7 @@
         <v>395</v>
       </c>
       <c r="F813" s="14" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="814" spans="1:6">
@@ -24432,7 +24410,7 @@
         <v>395</v>
       </c>
       <c r="F815" s="14" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="816" spans="1:6">
@@ -24472,7 +24450,7 @@
         <v>395</v>
       </c>
       <c r="F817" s="14" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="818" spans="1:6">
@@ -24512,7 +24490,7 @@
         <v>393</v>
       </c>
       <c r="F819" s="14" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="820" spans="1:6">
@@ -24552,7 +24530,7 @@
         <v>395</v>
       </c>
       <c r="F821" s="14" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="822" spans="1:6">
@@ -24592,7 +24570,7 @@
         <v>395</v>
       </c>
       <c r="F823" s="14" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="824" spans="1:6">
@@ -24632,7 +24610,7 @@
         <v>395</v>
       </c>
       <c r="F825" s="14" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="826" spans="1:6">
@@ -24672,7 +24650,7 @@
         <v>395</v>
       </c>
       <c r="F827" s="14" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="828" spans="1:6">
@@ -24712,7 +24690,7 @@
         <v>395</v>
       </c>
       <c r="F829" s="14" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="830" spans="1:6">
@@ -24752,7 +24730,7 @@
         <v>395</v>
       </c>
       <c r="F831" s="14" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="832" spans="1:6">
@@ -24792,7 +24770,7 @@
         <v>395</v>
       </c>
       <c r="F833" s="14" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="834" spans="1:7">
@@ -24832,7 +24810,7 @@
         <v>395</v>
       </c>
       <c r="F835" s="14" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="836" spans="1:7">
@@ -24872,7 +24850,7 @@
         <v>881</v>
       </c>
       <c r="F837" s="14" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="838" spans="1:7">
@@ -24912,7 +24890,7 @@
         <v>881</v>
       </c>
       <c r="F839" s="14" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="840" spans="1:7">
@@ -24952,7 +24930,7 @@
         <v>416</v>
       </c>
       <c r="F841" s="14" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="842" spans="1:7">
@@ -24992,7 +24970,7 @@
         <v>405</v>
       </c>
       <c r="F843" s="14" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="844" spans="1:7">
@@ -25032,7 +25010,7 @@
         <v>405</v>
       </c>
       <c r="F845" s="14" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="846" spans="1:7">
@@ -25069,10 +25047,10 @@
         <v>813</v>
       </c>
       <c r="E847" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="F847" s="14" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="848" spans="1:7" ht="28.8">
@@ -25128,7 +25106,7 @@
         <v>395</v>
       </c>
       <c r="F850" s="14" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="851" spans="1:6">
@@ -25168,7 +25146,7 @@
         <v>395</v>
       </c>
       <c r="F852" s="14" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="853" spans="1:6">
@@ -25208,7 +25186,7 @@
         <v>395</v>
       </c>
       <c r="F854" s="14" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="855" spans="1:6">
@@ -25248,7 +25226,7 @@
         <v>395</v>
       </c>
       <c r="F856" s="14" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="857" spans="1:6">
@@ -25288,7 +25266,7 @@
         <v>395</v>
       </c>
       <c r="F858" s="14" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="859" spans="1:6">
@@ -25328,7 +25306,7 @@
         <v>395</v>
       </c>
       <c r="F860" s="14" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="861" spans="1:6">
@@ -25368,7 +25346,7 @@
         <v>395</v>
       </c>
       <c r="F862" s="14" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="863" spans="1:6">
@@ -25408,7 +25386,7 @@
         <v>395</v>
       </c>
       <c r="F864" s="14" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="865" spans="1:6">
@@ -25448,7 +25426,7 @@
         <v>405</v>
       </c>
       <c r="F866" s="14" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="867" spans="1:6">
@@ -25488,7 +25466,7 @@
         <v>405</v>
       </c>
       <c r="F868" s="14" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="869" spans="1:6">
@@ -25528,7 +25506,7 @@
         <v>395</v>
       </c>
       <c r="F870" s="14" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="871" spans="1:6">
@@ -25568,7 +25546,7 @@
         <v>395</v>
       </c>
       <c r="F872" s="14" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="873" spans="1:6">
@@ -25605,10 +25583,10 @@
         <v>813</v>
       </c>
       <c r="E874" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="F874" s="14" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="875" spans="1:6" ht="28.8">
@@ -25648,7 +25626,7 @@
         <v>972</v>
       </c>
       <c r="F876" s="14" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="877" spans="1:6">
@@ -25688,7 +25666,7 @@
         <v>395</v>
       </c>
       <c r="F878" s="14" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="879" spans="1:6">
@@ -25728,7 +25706,7 @@
         <v>395</v>
       </c>
       <c r="F880" s="14" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="881" spans="1:7">
@@ -25768,10 +25746,10 @@
         <v>917</v>
       </c>
       <c r="E882" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F882" s="14" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="G882" s="1" t="s">
         <v>918</v>
@@ -25814,7 +25792,7 @@
         <v>395</v>
       </c>
       <c r="F884" s="14" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="885" spans="1:7">
@@ -25854,7 +25832,7 @@
         <v>395</v>
       </c>
       <c r="F886" s="14" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="887" spans="1:7">
@@ -25894,7 +25872,7 @@
         <v>393</v>
       </c>
       <c r="F888" s="14" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="889" spans="1:7">
@@ -25933,11 +25911,11 @@
       <c r="D890" s="14" t="s">
         <v>919</v>
       </c>
-      <c r="E890" s="53" t="s">
-        <v>1548</v>
+      <c r="E890" s="1" t="s">
+        <v>1546</v>
       </c>
       <c r="F890" s="14" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G890" s="1" t="s">
         <v>921</v>
@@ -25980,10 +25958,10 @@
         <v>920</v>
       </c>
       <c r="E892" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F892" s="14" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G892" s="1" t="s">
         <v>921</v>
@@ -26026,7 +26004,7 @@
         <v>395</v>
       </c>
       <c r="F894" s="14" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="895" spans="1:7">
@@ -26066,7 +26044,7 @@
         <v>395</v>
       </c>
       <c r="F896" s="14" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="897" spans="1:6">
@@ -26106,7 +26084,7 @@
         <v>395</v>
       </c>
       <c r="F898" s="14" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="899" spans="1:6">
@@ -26146,7 +26124,7 @@
         <v>395</v>
       </c>
       <c r="F900" s="14" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -26186,7 +26164,7 @@
         <v>395</v>
       </c>
       <c r="F902" s="14" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="903" spans="1:6">
@@ -26226,7 +26204,7 @@
         <v>395</v>
       </c>
       <c r="F904" s="14" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="905" spans="1:6">
@@ -26266,7 +26244,7 @@
         <v>395</v>
       </c>
       <c r="F906" s="14" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="907" spans="1:6">
@@ -26306,7 +26284,7 @@
         <v>395</v>
       </c>
       <c r="F908" s="14" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="909" spans="1:6">
@@ -26346,7 +26324,7 @@
         <v>395</v>
       </c>
       <c r="F910" s="14" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="911" spans="1:6">
@@ -26386,7 +26364,7 @@
         <v>395</v>
       </c>
       <c r="F912" s="14" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="913" spans="1:6">
@@ -26426,7 +26404,7 @@
         <v>395</v>
       </c>
       <c r="F914" s="14" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="915" spans="1:6">
@@ -26466,7 +26444,7 @@
         <v>395</v>
       </c>
       <c r="F916" s="14" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="917" spans="1:6">
@@ -26506,7 +26484,7 @@
         <v>395</v>
       </c>
       <c r="F918" s="14" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="919" spans="1:6">
@@ -26546,7 +26524,7 @@
         <v>395</v>
       </c>
       <c r="F920" s="14" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="921" spans="1:6">
@@ -26586,7 +26564,7 @@
         <v>395</v>
       </c>
       <c r="F922" s="14" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="923" spans="1:6">
@@ -26626,7 +26604,7 @@
         <v>395</v>
       </c>
       <c r="F924" s="14" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="925" spans="1:6">
@@ -26666,7 +26644,7 @@
         <v>395</v>
       </c>
       <c r="F926" s="14" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="927" spans="1:6">
@@ -26706,7 +26684,7 @@
         <v>708</v>
       </c>
       <c r="F928" s="14" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="929" spans="1:6">
@@ -26759,7 +26737,7 @@
         <v>403</v>
       </c>
       <c r="F931" s="14" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="932" spans="1:6">
@@ -26799,7 +26777,7 @@
         <v>403</v>
       </c>
       <c r="F933" s="14" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="934" spans="1:6">
@@ -26839,7 +26817,7 @@
         <v>405</v>
       </c>
       <c r="F935" s="14" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="936" spans="1:6">
@@ -26879,7 +26857,7 @@
         <v>405</v>
       </c>
       <c r="F937" s="14" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="938" spans="1:6">
@@ -26919,7 +26897,7 @@
         <v>403</v>
       </c>
       <c r="F939" s="14" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="940" spans="1:6">
@@ -26959,7 +26937,7 @@
         <v>405</v>
       </c>
       <c r="F941" s="14" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="942" spans="1:6">
@@ -26999,7 +26977,7 @@
         <v>393</v>
       </c>
       <c r="F943" s="14" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="944" spans="1:6">
@@ -27039,7 +27017,7 @@
         <v>405</v>
       </c>
       <c r="F945" s="14" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="946" spans="1:7">
@@ -27079,7 +27057,7 @@
         <v>403</v>
       </c>
       <c r="F947" s="14" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="948" spans="1:7">
@@ -27119,7 +27097,7 @@
         <v>405</v>
       </c>
       <c r="F949" s="14" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="950" spans="1:7">
@@ -27159,7 +27137,7 @@
         <v>405</v>
       </c>
       <c r="F951" s="14" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="952" spans="1:7">
@@ -27199,7 +27177,7 @@
         <v>403</v>
       </c>
       <c r="F953" s="14" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="954" spans="1:7">
@@ -27239,7 +27217,7 @@
         <v>403</v>
       </c>
       <c r="F955" s="14" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="956" spans="1:7">
@@ -27276,10 +27254,10 @@
         <v>415</v>
       </c>
       <c r="E957" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F957" s="14" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="958" spans="1:7" ht="72">
@@ -27335,7 +27313,7 @@
         <v>704</v>
       </c>
       <c r="F960" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="961" spans="1:6">
@@ -27375,7 +27353,7 @@
         <v>395</v>
       </c>
       <c r="F962" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="963" spans="1:6">
@@ -27415,7 +27393,7 @@
         <v>395</v>
       </c>
       <c r="F964" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="965" spans="1:6">
@@ -27455,7 +27433,7 @@
         <v>395</v>
       </c>
       <c r="F966" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="967" spans="1:6">
@@ -27495,7 +27473,7 @@
         <v>395</v>
       </c>
       <c r="F968" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="969" spans="1:6">
@@ -27535,7 +27513,7 @@
         <v>395</v>
       </c>
       <c r="F970" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="971" spans="1:6">
@@ -27575,7 +27553,7 @@
         <v>395</v>
       </c>
       <c r="F972" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="973" spans="1:6">
@@ -27612,10 +27590,10 @@
         <v>415</v>
       </c>
       <c r="E974" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F974" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="975" spans="1:6">
@@ -27655,7 +27633,7 @@
         <v>395</v>
       </c>
       <c r="F976" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="977" spans="1:7">
@@ -27695,7 +27673,7 @@
         <v>395</v>
       </c>
       <c r="F978" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="979" spans="1:7">
@@ -27735,7 +27713,7 @@
         <v>395</v>
       </c>
       <c r="F980" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="981" spans="1:7">
@@ -27775,7 +27753,7 @@
         <v>395</v>
       </c>
       <c r="F982" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="983" spans="1:7">
@@ -27815,7 +27793,7 @@
         <v>395</v>
       </c>
       <c r="F984" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="985" spans="1:7">
@@ -27855,7 +27833,7 @@
         <v>395</v>
       </c>
       <c r="F986" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="987" spans="1:7">
@@ -27895,7 +27873,7 @@
         <v>395</v>
       </c>
       <c r="F988" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="989" spans="1:7">
@@ -27935,7 +27913,7 @@
         <v>393</v>
       </c>
       <c r="F990" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="991" spans="1:7" ht="72">
@@ -27991,7 +27969,7 @@
         <v>704</v>
       </c>
       <c r="F993" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="994" spans="1:6">
@@ -28031,7 +28009,7 @@
         <v>395</v>
       </c>
       <c r="F995" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="996" spans="1:6">
@@ -28071,7 +28049,7 @@
         <v>395</v>
       </c>
       <c r="F997" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="998" spans="1:6">
@@ -28111,7 +28089,7 @@
         <v>395</v>
       </c>
       <c r="F999" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1000" spans="1:6">
@@ -28151,7 +28129,7 @@
         <v>395</v>
       </c>
       <c r="F1001" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1002" spans="1:6">
@@ -28191,7 +28169,7 @@
         <v>395</v>
       </c>
       <c r="F1003" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1004" spans="1:6">
@@ -28231,7 +28209,7 @@
         <v>395</v>
       </c>
       <c r="F1005" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1006" spans="1:6">
@@ -28268,10 +28246,10 @@
         <v>415</v>
       </c>
       <c r="E1007" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F1007" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1008" spans="1:6">
@@ -28311,7 +28289,7 @@
         <v>395</v>
       </c>
       <c r="F1009" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1010" spans="1:7">
@@ -28351,7 +28329,7 @@
         <v>395</v>
       </c>
       <c r="F1011" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1012" spans="1:7">
@@ -28391,7 +28369,7 @@
         <v>395</v>
       </c>
       <c r="F1013" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1014" spans="1:7">
@@ -28431,7 +28409,7 @@
         <v>395</v>
       </c>
       <c r="F1015" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1016" spans="1:7">
@@ -28471,7 +28449,7 @@
         <v>395</v>
       </c>
       <c r="F1017" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1018" spans="1:7">
@@ -28511,7 +28489,7 @@
         <v>395</v>
       </c>
       <c r="F1019" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1020" spans="1:7">
@@ -28551,7 +28529,7 @@
         <v>395</v>
       </c>
       <c r="F1021" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1022" spans="1:7">
@@ -28591,7 +28569,7 @@
         <v>393</v>
       </c>
       <c r="F1023" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1024" spans="1:7" ht="72">
@@ -28647,7 +28625,7 @@
         <v>704</v>
       </c>
       <c r="F1026" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1027" spans="1:6">
@@ -28687,7 +28665,7 @@
         <v>395</v>
       </c>
       <c r="F1028" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1029" spans="1:6">
@@ -28727,7 +28705,7 @@
         <v>395</v>
       </c>
       <c r="F1030" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1031" spans="1:6">
@@ -28767,7 +28745,7 @@
         <v>395</v>
       </c>
       <c r="F1032" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1033" spans="1:6">
@@ -28807,7 +28785,7 @@
         <v>395</v>
       </c>
       <c r="F1034" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1035" spans="1:6">
@@ -28847,7 +28825,7 @@
         <v>395</v>
       </c>
       <c r="F1036" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1037" spans="1:6">
@@ -28887,7 +28865,7 @@
         <v>395</v>
       </c>
       <c r="F1038" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1039" spans="1:6">
@@ -28924,10 +28902,10 @@
         <v>415</v>
       </c>
       <c r="E1040" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F1040" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1041" spans="1:6">
@@ -28967,7 +28945,7 @@
         <v>395</v>
       </c>
       <c r="F1042" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1043" spans="1:6">
@@ -29007,7 +28985,7 @@
         <v>395</v>
       </c>
       <c r="F1044" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1045" spans="1:6">
@@ -29047,7 +29025,7 @@
         <v>395</v>
       </c>
       <c r="F1046" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1047" spans="1:6">
@@ -29087,7 +29065,7 @@
         <v>395</v>
       </c>
       <c r="F1048" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1049" spans="1:6">
@@ -29127,7 +29105,7 @@
         <v>395</v>
       </c>
       <c r="F1050" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1051" spans="1:6">
@@ -29167,7 +29145,7 @@
         <v>395</v>
       </c>
       <c r="F1052" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1053" spans="1:6">
@@ -29207,7 +29185,7 @@
         <v>395</v>
       </c>
       <c r="F1054" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1055" spans="1:6">
@@ -29247,7 +29225,7 @@
         <v>393</v>
       </c>
       <c r="F1056" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1057" spans="1:7" ht="72">
@@ -29303,7 +29281,7 @@
         <v>704</v>
       </c>
       <c r="F1059" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1060" spans="1:7">
@@ -29343,7 +29321,7 @@
         <v>395</v>
       </c>
       <c r="F1061" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1062" spans="1:7">
@@ -29383,7 +29361,7 @@
         <v>395</v>
       </c>
       <c r="F1063" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1064" spans="1:7">
@@ -29423,7 +29401,7 @@
         <v>395</v>
       </c>
       <c r="F1065" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1066" spans="1:7">
@@ -29463,7 +29441,7 @@
         <v>395</v>
       </c>
       <c r="F1067" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1068" spans="1:7">
@@ -29503,7 +29481,7 @@
         <v>395</v>
       </c>
       <c r="F1069" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1070" spans="1:7">
@@ -29543,7 +29521,7 @@
         <v>395</v>
       </c>
       <c r="F1071" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1072" spans="1:7">
@@ -29580,10 +29558,10 @@
         <v>415</v>
       </c>
       <c r="E1073" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F1073" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1074" spans="1:6">
@@ -29623,7 +29601,7 @@
         <v>395</v>
       </c>
       <c r="F1075" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1076" spans="1:6">
@@ -29663,7 +29641,7 @@
         <v>395</v>
       </c>
       <c r="F1077" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1078" spans="1:6">
@@ -29703,7 +29681,7 @@
         <v>395</v>
       </c>
       <c r="F1079" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1080" spans="1:6">
@@ -29743,7 +29721,7 @@
         <v>395</v>
       </c>
       <c r="F1081" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1082" spans="1:6">
@@ -29783,7 +29761,7 @@
         <v>395</v>
       </c>
       <c r="F1083" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1084" spans="1:6">
@@ -29823,7 +29801,7 @@
         <v>395</v>
       </c>
       <c r="F1085" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1086" spans="1:6">
@@ -29863,7 +29841,7 @@
         <v>395</v>
       </c>
       <c r="F1087" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1088" spans="1:6">
@@ -29903,7 +29881,7 @@
         <v>393</v>
       </c>
       <c r="F1089" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1090" spans="1:7">
@@ -29959,7 +29937,7 @@
         <v>395</v>
       </c>
       <c r="F1092" s="14" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1093" spans="1:7">
@@ -29999,7 +29977,7 @@
         <v>395</v>
       </c>
       <c r="F1094" s="14" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1095" spans="1:7">
@@ -30039,7 +30017,7 @@
         <v>395</v>
       </c>
       <c r="F1096" s="14" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1097" spans="1:7">
@@ -30079,7 +30057,7 @@
         <v>395</v>
       </c>
       <c r="F1098" s="14" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1099" spans="1:7">
@@ -30119,7 +30097,7 @@
         <v>395</v>
       </c>
       <c r="F1100" s="14" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1101" spans="1:7">
@@ -30159,7 +30137,7 @@
         <v>395</v>
       </c>
       <c r="F1102" s="14" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1103" spans="1:7">
@@ -30199,7 +30177,7 @@
         <v>395</v>
       </c>
       <c r="F1104" s="14" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1105" spans="1:6">
@@ -30239,7 +30217,7 @@
         <v>393</v>
       </c>
       <c r="F1106" s="14" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1107" spans="1:6">
@@ -30279,7 +30257,7 @@
         <v>395</v>
       </c>
       <c r="F1108" s="14" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1109" spans="1:6">
@@ -30319,7 +30297,7 @@
         <v>395</v>
       </c>
       <c r="F1110" s="14" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1111" spans="1:6">
@@ -30359,7 +30337,7 @@
         <v>395</v>
       </c>
       <c r="F1112" s="14" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1113" spans="1:6">
@@ -30399,7 +30377,7 @@
         <v>395</v>
       </c>
       <c r="F1114" s="14" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1115" spans="1:6">
@@ -30439,7 +30417,7 @@
         <v>395</v>
       </c>
       <c r="F1116" s="14" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1117" spans="1:6">
@@ -30479,7 +30457,7 @@
         <v>395</v>
       </c>
       <c r="F1118" s="14" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1119" spans="1:6">
@@ -30519,7 +30497,7 @@
         <v>395</v>
       </c>
       <c r="F1120" s="14" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1121" spans="1:6">
@@ -30556,10 +30534,10 @@
         <v>415</v>
       </c>
       <c r="E1122" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F1122" s="14" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1123" spans="1:6">
@@ -30612,7 +30590,7 @@
         <v>395</v>
       </c>
       <c r="F1125" s="14" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1126" spans="1:6">
@@ -30652,7 +30630,7 @@
         <v>395</v>
       </c>
       <c r="F1127" s="14" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1128" spans="1:6">
@@ -30692,7 +30670,7 @@
         <v>395</v>
       </c>
       <c r="F1129" s="14" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1130" spans="1:6">
@@ -30732,7 +30710,7 @@
         <v>395</v>
       </c>
       <c r="F1131" s="14" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1132" spans="1:6">
@@ -30772,7 +30750,7 @@
         <v>395</v>
       </c>
       <c r="F1133" s="14" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1134" spans="1:6">
@@ -30812,7 +30790,7 @@
         <v>395</v>
       </c>
       <c r="F1135" s="14" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1136" spans="1:6">
@@ -30852,7 +30830,7 @@
         <v>395</v>
       </c>
       <c r="F1137" s="14" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1138" spans="1:6">
@@ -30892,7 +30870,7 @@
         <v>395</v>
       </c>
       <c r="F1139" s="14" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1140" spans="1:6">
@@ -30932,7 +30910,7 @@
         <v>395</v>
       </c>
       <c r="F1141" s="14" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1142" spans="1:6">
@@ -30972,7 +30950,7 @@
         <v>393</v>
       </c>
       <c r="F1143" s="14" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1144" spans="1:6">
@@ -31012,7 +30990,7 @@
         <v>395</v>
       </c>
       <c r="F1145" s="14" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1146" spans="1:6">
@@ -31052,7 +31030,7 @@
         <v>395</v>
       </c>
       <c r="F1147" s="14" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1148" spans="1:6">
@@ -31092,7 +31070,7 @@
         <v>395</v>
       </c>
       <c r="F1149" s="14" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1150" spans="1:6">
@@ -31132,7 +31110,7 @@
         <v>395</v>
       </c>
       <c r="F1151" s="14" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1152" spans="1:6">
@@ -31172,7 +31150,7 @@
         <v>395</v>
       </c>
       <c r="F1153" s="14" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1154" spans="1:7">
@@ -31212,7 +31190,7 @@
         <v>395</v>
       </c>
       <c r="F1155" s="14" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1156" spans="1:7">
@@ -31252,7 +31230,7 @@
         <v>395</v>
       </c>
       <c r="F1157" s="14" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1158" spans="1:7">
@@ -31292,7 +31270,7 @@
         <v>395</v>
       </c>
       <c r="F1159" s="14" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1160" spans="1:7">
@@ -31332,7 +31310,7 @@
         <v>395</v>
       </c>
       <c r="F1161" s="14" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1162" spans="1:7">
@@ -31369,10 +31347,10 @@
         <v>415</v>
       </c>
       <c r="E1163" s="1" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="F1163" s="14" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1164" spans="1:7">
@@ -31428,7 +31406,7 @@
         <v>395</v>
       </c>
       <c r="F1166" s="14" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1167" spans="1:7">
@@ -31468,7 +31446,7 @@
         <v>405</v>
       </c>
       <c r="F1168" s="14" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1169" spans="1:6">
@@ -31508,7 +31486,7 @@
         <v>395</v>
       </c>
       <c r="F1170" s="14" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1171" spans="1:6">
@@ -31548,7 +31526,7 @@
         <v>395</v>
       </c>
       <c r="F1172" s="14" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1173" spans="1:6">
@@ -31588,7 +31566,7 @@
         <v>395</v>
       </c>
       <c r="F1174" s="14" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1175" spans="1:6">
@@ -31628,7 +31606,7 @@
         <v>395</v>
       </c>
       <c r="F1176" s="14" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1177" spans="1:6">
@@ -31668,7 +31646,7 @@
         <v>393</v>
       </c>
       <c r="F1178" s="14" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1179" spans="1:6">
@@ -31708,7 +31686,7 @@
         <v>395</v>
       </c>
       <c r="F1180" s="14" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1181" spans="1:6">
@@ -31748,7 +31726,7 @@
         <v>395</v>
       </c>
       <c r="F1182" s="14" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1183" spans="1:6">
@@ -31788,7 +31766,7 @@
         <v>405</v>
       </c>
       <c r="F1184" s="14" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1185" spans="1:6">
@@ -31828,7 +31806,7 @@
         <v>395</v>
       </c>
       <c r="F1186" s="14" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1187" spans="1:6">
@@ -31868,7 +31846,7 @@
         <v>395</v>
       </c>
       <c r="F1188" s="14" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1189" spans="1:6">
@@ -31908,7 +31886,7 @@
         <v>405</v>
       </c>
       <c r="F1190" s="14" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1191" spans="1:6">
@@ -31945,10 +31923,10 @@
         <v>415</v>
       </c>
       <c r="E1192" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F1192" s="14" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1193" spans="1:6">
@@ -32001,7 +31979,7 @@
         <v>403</v>
       </c>
       <c r="F1195" s="14" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1196" spans="1:6">
@@ -32041,7 +32019,7 @@
         <v>881</v>
       </c>
       <c r="F1197" s="14" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1198" spans="1:6">
@@ -32081,7 +32059,7 @@
         <v>881</v>
       </c>
       <c r="F1199" s="14" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1200" spans="1:6">
@@ -32121,7 +32099,7 @@
         <v>881</v>
       </c>
       <c r="F1201" s="14" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1202" spans="1:6">
@@ -32161,7 +32139,7 @@
         <v>403</v>
       </c>
       <c r="F1203" s="14" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1204" spans="1:6">
@@ -32201,7 +32179,7 @@
         <v>395</v>
       </c>
       <c r="F1205" s="14" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1206" spans="1:6">
@@ -32241,7 +32219,7 @@
         <v>393</v>
       </c>
       <c r="F1207" s="14" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1208" spans="1:6">
@@ -32281,7 +32259,7 @@
         <v>881</v>
       </c>
       <c r="F1209" s="14" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1210" spans="1:6">
@@ -32321,7 +32299,7 @@
         <v>881</v>
       </c>
       <c r="F1211" s="14" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1212" spans="1:6">
@@ -32361,7 +32339,7 @@
         <v>881</v>
       </c>
       <c r="F1213" s="14" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1214" spans="1:6">
@@ -32401,7 +32379,7 @@
         <v>881</v>
       </c>
       <c r="F1215" s="14" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1216" spans="1:6">
@@ -32441,7 +32419,7 @@
         <v>395</v>
       </c>
       <c r="F1217" s="14" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1218" spans="1:7">
@@ -32481,7 +32459,7 @@
         <v>403</v>
       </c>
       <c r="F1219" s="14" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1220" spans="1:7">
@@ -32518,10 +32496,10 @@
         <v>813</v>
       </c>
       <c r="E1221" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F1221" s="14" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1222" spans="1:7">
@@ -32577,7 +32555,7 @@
         <v>704</v>
       </c>
       <c r="F1224" s="14" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1225" spans="1:7">
@@ -32617,7 +32595,7 @@
         <v>393</v>
       </c>
       <c r="F1226" s="14" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1227" spans="1:7">
@@ -32657,7 +32635,7 @@
         <v>704</v>
       </c>
       <c r="F1228" s="14" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1229" spans="1:7">
@@ -32697,7 +32675,7 @@
         <v>704</v>
       </c>
       <c r="F1230" s="14" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1231" spans="1:7">
@@ -32740,7 +32718,7 @@
         <v>405</v>
       </c>
       <c r="F1232" s="14" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="G1232" s="24" t="s">
         <v>1089</v>
@@ -32780,10 +32758,10 @@
         <v>1084</v>
       </c>
       <c r="E1234" s="43" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="F1234" s="14" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1235" spans="1:7">
@@ -32799,14 +32777,14 @@
       <c r="D1235" s="14" t="s">
         <v>1085</v>
       </c>
-      <c r="E1235" s="54" t="s">
+      <c r="E1235" s="43" t="s">
         <v>403</v>
       </c>
       <c r="F1235" s="14" t="s">
         <v>1096</v>
       </c>
       <c r="G1235" s="1" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1236" spans="1:7">
@@ -32822,14 +32800,14 @@
       <c r="D1236" s="14" t="s">
         <v>1085</v>
       </c>
-      <c r="E1236" s="54" t="s">
+      <c r="E1236" s="43" t="s">
         <v>405</v>
       </c>
       <c r="F1236" s="14" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="G1236" s="1" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1237" spans="1:7">
@@ -32866,10 +32844,10 @@
         <v>1086</v>
       </c>
       <c r="E1238" s="43" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="F1238" s="14" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1239" spans="1:7">
@@ -32909,7 +32887,7 @@
         <v>393</v>
       </c>
       <c r="F1240" s="14" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1241" spans="1:7">
@@ -32949,7 +32927,7 @@
         <v>704</v>
       </c>
       <c r="F1242" s="14" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1243" spans="1:7">
@@ -32989,7 +32967,7 @@
         <v>704</v>
       </c>
       <c r="F1244" s="14" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1245" spans="1:7">
@@ -33029,7 +33007,7 @@
         <v>708</v>
       </c>
       <c r="F1246" s="14" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1247" spans="1:7">
@@ -33066,10 +33044,10 @@
         <v>1087</v>
       </c>
       <c r="E1248" s="43" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="F1248" s="14" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1249" spans="1:7">
@@ -33106,10 +33084,10 @@
         <v>1088</v>
       </c>
       <c r="E1250" s="43" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="F1250" s="14" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1251" spans="1:7">
@@ -33149,7 +33127,7 @@
         <v>708</v>
       </c>
       <c r="F1252" s="14" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1253" spans="1:7">
@@ -33189,7 +33167,7 @@
         <v>704</v>
       </c>
       <c r="F1254" s="14" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1255" spans="1:7">
@@ -42317,9 +42295,11 @@
         <v>307</v>
       </c>
       <c r="C12" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D12" s="42"/>
+        <v>1617</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>1618</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE6C1DD-1E79-4200-AA85-35BA99954CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9855E870-7DF6-4940-B460-739D3294F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8222" uniqueCount="1806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8241" uniqueCount="1808">
   <si>
     <t>Name</t>
   </si>
@@ -5564,6 +5564,12 @@
       </rPr>
       <t>2025-December-14</t>
     </r>
+  </si>
+  <si>
+    <t>IN914</t>
+  </si>
+  <si>
+    <t>900927-02</t>
   </si>
 </sst>
 </file>
@@ -6155,7 +6161,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -6453,11 +6459,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G355"/>
+  <dimension ref="A1:G361"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7568,6 +7574,9 @@
       <c r="C80" s="1" t="s">
         <v>1684</v>
       </c>
+      <c r="D80" t="s">
+        <v>1807</v>
+      </c>
       <c r="E80" s="1" t="s">
         <v>1681</v>
       </c>
@@ -7619,150 +7628,111 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B84" s="1">
-        <v>6526</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1772</v>
-      </c>
+        <v>1719</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84"/>
       <c r="E84" s="1" t="s">
-        <v>102</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B85" s="1">
-        <v>6526</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1772</v>
-      </c>
+        <v>1720</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
       <c r="E85" s="1" t="s">
-        <v>102</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D86" t="s">
-        <v>311</v>
-      </c>
+        <v>1721</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86"/>
       <c r="E86" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>309</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D87" t="s">
-        <v>312</v>
-      </c>
+        <v>1722</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87"/>
       <c r="E87" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>309</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D88" t="s">
-        <v>313</v>
-      </c>
+        <v>1723</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C88"/>
+      <c r="D88"/>
       <c r="E88" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>310</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B89" s="1">
-        <v>2114</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1773</v>
-      </c>
+        <v>1724</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89"/>
       <c r="E89" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G89" s="14" t="s">
-        <v>254</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B90" s="1">
-        <v>6510</v>
+        <v>6526</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="D90" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="16" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="B91" s="1">
-        <v>7406</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>166</v>
+        <v>6526</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="D91" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>102</v>
@@ -7770,113 +7740,116 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B92" s="1">
-        <v>4164</v>
+        <v>44</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>255</v>
+        <v>54</v>
       </c>
       <c r="D92" t="s">
-        <v>1776</v>
+        <v>311</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>256</v>
+      <c r="G92" s="14" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B93" s="1">
-        <v>4164</v>
+        <v>53</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>255</v>
+        <v>55</v>
       </c>
       <c r="D93" t="s">
-        <v>1776</v>
+        <v>312</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>256</v>
+      <c r="G93" s="14" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B94" s="1">
-        <v>4164</v>
+        <v>56</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>255</v>
+        <v>57</v>
       </c>
       <c r="D94" t="s">
-        <v>1776</v>
+        <v>313</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="16" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B95" s="1">
-        <v>4164</v>
+        <v>2114</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="D95" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>256</v>
+      <c r="G95" s="14" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>171</v>
+        <v>135</v>
+      </c>
+      <c r="B96" s="1">
+        <v>6510</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="D96" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="G96" s="1" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
+      </c>
+      <c r="B97" s="1">
+        <v>7406</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D97" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>102</v>
@@ -7884,130 +7857,130 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>172</v>
+        <v>63</v>
+      </c>
+      <c r="B98" s="1">
+        <v>4164</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="D98" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="G98" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="16" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B99" s="1">
-        <v>4066</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>173</v>
+        <v>4164</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="D99" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="G99" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>174</v>
+        <v>38</v>
+      </c>
+      <c r="B100" s="1">
+        <v>4164</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="D100" t="s">
-        <v>174</v>
+        <v>1776</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="G100" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="16" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B101" s="1">
-        <v>6581</v>
+        <v>4164</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="D101" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B102" s="1">
-        <v>6569</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1777</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B103" s="1">
-        <v>6567</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="D103" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G103" s="14" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B104" s="1">
-        <v>556</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>327</v>
+        <v>49</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="D104" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>102</v>
@@ -8015,113 +7988,113 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="16" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B105" s="1">
-        <v>4164</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>255</v>
+        <v>4066</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="D105" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B106" s="1">
-        <v>4164</v>
+        <v>47</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="D106" t="s">
-        <v>1776</v>
+        <v>174</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="16" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B107" s="1">
-        <v>4164</v>
+        <v>6581</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="D107" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="16" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B108" s="1">
-        <v>4164</v>
+        <v>6569</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D108" t="s">
-        <v>1776</v>
+        <v>75</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>256</v>
+      <c r="F108" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
+      </c>
+      <c r="B109" s="1">
+        <v>6567</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="D109" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="F109" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>60</v>
+        <v>124</v>
+      </c>
+      <c r="B110" s="1">
+        <v>556</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="D110" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>102</v>
@@ -8129,157 +8102,181 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
+      </c>
+      <c r="B111" s="1">
+        <v>4164</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="D111" t="s">
-        <v>1785</v>
+        <v>1776</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="G111" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="16" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="B112" s="1">
-        <v>4066</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>173</v>
+        <v>4164</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="D112" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="G112" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="16" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="B113" s="1">
-        <v>8701</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>204</v>
+        <v>4164</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="D113" t="s">
-        <v>1786</v>
+        <v>1776</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="G113" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>251</v>
+        <v>37</v>
+      </c>
+      <c r="B114" s="1">
+        <v>4164</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>1787</v>
+        <v>255</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1776</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="16" t="s">
-        <v>1667</v>
+        <v>41</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1788</v>
+        <v>30</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1705</v>
+        <v>171</v>
       </c>
       <c r="D115" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="16" t="s">
-        <v>1674</v>
+        <v>59</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1706</v>
+        <v>180</v>
       </c>
       <c r="D116" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="16" t="s">
-        <v>1672</v>
+        <v>42</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1791</v>
+        <v>43</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1705</v>
+        <v>181</v>
       </c>
       <c r="D117" t="s">
-        <v>1792</v>
+        <v>1785</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>282</v>
+        <v>108</v>
+      </c>
+      <c r="B118" s="1">
+        <v>4066</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="D118" t="s">
-        <v>1793</v>
+        <v>1780</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="16" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>1710</v>
+        <v>95</v>
+      </c>
+      <c r="B119" s="1">
+        <v>8701</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1786</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>1712</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="16" t="s">
-        <v>1707</v>
+        <v>249</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1714</v>
+        <v>251</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1710</v>
+        <v>250</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>1787</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>103</v>
@@ -8287,13 +8284,16 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="16" t="s">
-        <v>1708</v>
+        <v>1667</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>300</v>
+        <v>1788</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1710</v>
+        <v>1705</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1789</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>103</v>
@@ -8301,13 +8301,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="16" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>301</v>
+        <v>1674</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1710</v>
+        <v>1706</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1790</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>103</v>
@@ -8315,16 +8315,16 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="16" t="s">
-        <v>155</v>
+        <v>1672</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>182</v>
+        <v>1791</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>156</v>
+        <v>1705</v>
       </c>
       <c r="D123" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>103</v>
@@ -8332,16 +8332,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B124" s="1">
-        <v>7812</v>
+        <v>281</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="D124" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>103</v>
@@ -8349,163 +8346,187 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B125" s="1">
-        <v>7805</v>
+        <v>1638</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D125" t="s">
-        <v>1796</v>
+        <v>1710</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="G125" s="1" t="s">
+        <v>1712</v>
+      </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="16" t="s">
-        <v>96</v>
+        <v>1707</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1714</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>1798</v>
+        <v>1710</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>322</v>
-      </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="16" t="s">
-        <v>96</v>
+        <v>1708</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D127" t="s">
-        <v>1797</v>
+        <v>1710</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>323</v>
-      </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="16" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B130" s="1">
+        <v>7812</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131" s="1">
+        <v>7805</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="16" t="s">
         <v>1635</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>1687</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="16" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="16" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="16" t="s">
-        <v>1631</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="16" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>1691</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="16" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="16" t="s">
-        <v>1637</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>1692</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:7">
       <c r="A135" s="16" t="s">
-        <v>1649</v>
+        <v>1632</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:7">
       <c r="A136" s="16" t="s">
-        <v>1653</v>
+        <v>1641</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:7">
       <c r="A137" s="16" t="s">
-        <v>1642</v>
+        <v>1631</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>1690</v>
@@ -8514,64 +8535,64 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:7">
       <c r="A138" s="16" t="s">
-        <v>1643</v>
+        <v>1655</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:7">
       <c r="A139" s="16" t="s">
-        <v>1652</v>
+        <v>1636</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:7">
       <c r="A140" s="16" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:7">
       <c r="A141" s="16" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:7">
       <c r="A142" s="16" t="s">
-        <v>1646</v>
+        <v>1653</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:7">
       <c r="A143" s="16" t="s">
-        <v>1654</v>
+        <v>1642</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>1690</v>
@@ -8580,9 +8601,9 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:7">
       <c r="A144" s="16" t="s">
-        <v>1660</v>
+        <v>1643</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>1690</v>
@@ -8591,97 +8612,97 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:5">
       <c r="A145" s="16" t="s">
-        <v>1640</v>
+        <v>1652</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:5">
       <c r="A146" s="16" t="s">
-        <v>1668</v>
+        <v>1644</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:5">
       <c r="A147" s="16" t="s">
-        <v>1645</v>
+        <v>1651</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:5">
       <c r="A148" s="16" t="s">
-        <v>1659</v>
+        <v>1646</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:5">
       <c r="A149" s="16" t="s">
-        <v>1664</v>
+        <v>1654</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:5">
       <c r="A150" s="16" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:5">
       <c r="A151" s="16" t="s">
-        <v>1666</v>
+        <v>1640</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:5">
       <c r="A152" s="16" t="s">
-        <v>1647</v>
+        <v>1668</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1690</v>
+        <v>1696</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:5">
       <c r="A153" s="16" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>1697</v>
@@ -8690,204 +8711,252 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:5">
       <c r="A154" s="16" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:5">
       <c r="A155" s="16" t="s">
-        <v>1633</v>
+        <v>1664</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1700</v>
+        <v>1687</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:5">
       <c r="A156" s="16" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:5">
       <c r="A157" s="16" t="s">
-        <v>1661</v>
+        <v>1666</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1702</v>
+        <v>1687</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="16" t="s">
-        <v>1662</v>
+        <v>1647</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1702</v>
+        <v>1690</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="G158" s="1" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="16" t="s">
-        <v>1663</v>
+        <v>1650</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1687</v>
+        <v>1697</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="G159" s="1" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="16" t="s">
-        <v>1673</v>
+        <v>1658</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1687</v>
+        <v>1699</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="G160" s="1" t="s">
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="16" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="16" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="16" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="16" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="16" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="16" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G166" s="1" t="s">
         <v>1703</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="16" t="s">
+    <row r="167" spans="1:7">
+      <c r="A167" s="16" t="s">
         <v>1634</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>1679</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>1798</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="16" t="s">
+    <row r="168" spans="1:7">
+      <c r="A168" s="16" t="s">
         <v>1639</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D168" t="s">
         <v>1799</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="16" t="s">
+    <row r="169" spans="1:7">
+      <c r="A169" s="16" t="s">
         <v>1648</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D169" t="s">
         <v>1799</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="16" t="s">
+    <row r="170" spans="1:7">
+      <c r="A170" s="16" t="s">
         <v>1630</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D170" t="s">
         <v>1799</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="26"/>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="26"/>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="27"/>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168"/>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169"/>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170"/>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="27"/>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172"/>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173"/>
-    </row>
-    <row r="174" spans="1:5">
+    <row r="171" spans="1:7">
+      <c r="A171" s="26"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="26"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="27"/>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:7">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="27"/>
+    <row r="176" spans="1:7">
+      <c r="A176"/>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="14"/>
+      <c r="A177" s="27"/>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="14"/>
+      <c r="A178"/>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="14"/>
+      <c r="A179"/>
     </row>
     <row r="180" spans="1:1">
       <c r="A180"/>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="14"/>
+      <c r="A181"/>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="28"/>
+      <c r="A182" s="27"/>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="14"/>
@@ -8917,13 +8986,13 @@
       <c r="A191" s="14"/>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="28"/>
+      <c r="A192"/>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="14"/>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="14"/>
+      <c r="A194" s="28"/>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="14"/>
@@ -8932,10 +9001,10 @@
       <c r="A196" s="14"/>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="28"/>
+      <c r="A197" s="14"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="14"/>
+      <c r="A198" s="28"/>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="14"/>
@@ -8947,34 +9016,34 @@
       <c r="A201" s="14"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="18"/>
+      <c r="A202" s="14"/>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="18"/>
+      <c r="A203" s="28"/>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="18"/>
+      <c r="A204" s="14"/>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="18"/>
+      <c r="A205" s="14"/>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="18"/>
+      <c r="A206" s="14"/>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="18"/>
+      <c r="A207" s="14"/>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="18"/>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="16"/>
+      <c r="A209" s="18"/>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="16"/>
+      <c r="A210" s="18"/>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="16"/>
+      <c r="A211" s="18"/>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="18"/>
@@ -8986,7 +9055,7 @@
       <c r="A214" s="18"/>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="18"/>
+      <c r="A215" s="16"/>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="16"/>
@@ -8995,16 +9064,16 @@
       <c r="A217" s="16"/>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="16"/>
+      <c r="A218" s="18"/>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="16"/>
+      <c r="A219" s="18"/>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="16"/>
+      <c r="A220" s="18"/>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="16"/>
+      <c r="A221" s="18"/>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="16"/>
@@ -9111,65 +9180,58 @@
     <row r="256" spans="1:1">
       <c r="A256" s="16"/>
     </row>
-    <row r="257" spans="1:6">
-      <c r="A257" s="25"/>
-      <c r="B257" s="24"/>
-    </row>
-    <row r="258" spans="1:6">
+    <row r="257" spans="1:2">
+      <c r="A257" s="16"/>
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258" s="16"/>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:2">
       <c r="A259" s="16"/>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:2">
       <c r="A260" s="16"/>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:2">
       <c r="A261" s="16"/>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:2">
       <c r="A262" s="16"/>
     </row>
-    <row r="263" spans="1:6">
-      <c r="A263" s="16"/>
+    <row r="263" spans="1:2">
+      <c r="A263" s="25"/>
       <c r="B263" s="24"/>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:2">
       <c r="A264" s="16"/>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:2">
       <c r="A265" s="16"/>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:2">
       <c r="A266" s="16"/>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:2">
       <c r="A267" s="16"/>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:2">
       <c r="A268" s="16"/>
-      <c r="F268" s="14"/>
-    </row>
-    <row r="269" spans="1:6">
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" s="16"/>
-      <c r="F269" s="14"/>
-    </row>
-    <row r="270" spans="1:6">
+      <c r="B269" s="24"/>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" s="16"/>
-      <c r="F270" s="14"/>
-    </row>
-    <row r="271" spans="1:6">
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271" s="16"/>
-      <c r="F271" s="14"/>
-    </row>
-    <row r="272" spans="1:6">
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" s="16"/>
-      <c r="F272" s="14"/>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="16"/>
-      <c r="B273" s="24"/>
-      <c r="F273" s="14"/>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="16"/>
@@ -9180,27 +9242,28 @@
       <c r="F275" s="14"/>
     </row>
     <row r="276" spans="1:6">
-      <c r="A276" s="18"/>
+      <c r="A276" s="16"/>
       <c r="F276" s="14"/>
     </row>
     <row r="277" spans="1:6">
-      <c r="A277" s="18"/>
+      <c r="A277" s="16"/>
       <c r="F277" s="14"/>
     </row>
     <row r="278" spans="1:6">
-      <c r="A278" s="18"/>
+      <c r="A278" s="16"/>
       <c r="F278" s="14"/>
     </row>
     <row r="279" spans="1:6">
-      <c r="A279" s="18"/>
+      <c r="A279" s="16"/>
+      <c r="B279" s="24"/>
       <c r="F279" s="14"/>
     </row>
     <row r="280" spans="1:6">
-      <c r="A280" s="18"/>
+      <c r="A280" s="16"/>
       <c r="F280" s="14"/>
     </row>
     <row r="281" spans="1:6">
-      <c r="A281" s="18"/>
+      <c r="A281" s="16"/>
       <c r="F281" s="14"/>
     </row>
     <row r="282" spans="1:6">
@@ -9208,97 +9271,76 @@
       <c r="F282" s="14"/>
     </row>
     <row r="283" spans="1:6">
-      <c r="A283" s="16"/>
+      <c r="A283" s="18"/>
       <c r="F283" s="14"/>
     </row>
     <row r="284" spans="1:6">
-      <c r="A284" s="16"/>
+      <c r="A284" s="18"/>
       <c r="F284" s="14"/>
     </row>
     <row r="285" spans="1:6">
-      <c r="A285" s="16"/>
+      <c r="A285" s="18"/>
       <c r="F285" s="14"/>
     </row>
     <row r="286" spans="1:6">
-      <c r="A286" s="16"/>
+      <c r="A286" s="18"/>
       <c r="F286" s="14"/>
     </row>
     <row r="287" spans="1:6">
-      <c r="A287" s="16"/>
+      <c r="A287" s="18"/>
       <c r="F287" s="14"/>
     </row>
     <row r="288" spans="1:6">
-      <c r="A288" s="16"/>
+      <c r="A288" s="18"/>
       <c r="F288" s="14"/>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="16"/>
-      <c r="C289" s="16"/>
-      <c r="D289" s="16"/>
       <c r="F289" s="14"/>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="16"/>
-      <c r="C290" s="16"/>
-      <c r="D290" s="16"/>
       <c r="F290" s="14"/>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="16"/>
-      <c r="C291" s="16"/>
-      <c r="D291" s="16"/>
       <c r="F291" s="14"/>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="16"/>
-      <c r="C292" s="16"/>
-      <c r="D292" s="16"/>
       <c r="F292" s="14"/>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="14"/>
-      <c r="B293" s="14"/>
-      <c r="C293" s="14"/>
-      <c r="D293" s="14"/>
+      <c r="A293" s="16"/>
       <c r="F293" s="14"/>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="14"/>
-      <c r="B294" s="14"/>
-      <c r="C294" s="14"/>
-      <c r="D294" s="14"/>
+      <c r="A294" s="16"/>
       <c r="F294" s="14"/>
-      <c r="G294" s="14"/>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="14"/>
-      <c r="B295" s="14"/>
-      <c r="C295" s="14"/>
-      <c r="D295" s="14"/>
+      <c r="A295" s="16"/>
+      <c r="C295" s="16"/>
+      <c r="D295" s="16"/>
       <c r="F295" s="14"/>
     </row>
     <row r="296" spans="1:7">
-      <c r="A296" s="14"/>
-      <c r="B296" s="14"/>
-      <c r="C296" s="14"/>
-      <c r="D296" s="14"/>
+      <c r="A296" s="16"/>
+      <c r="C296" s="16"/>
+      <c r="D296" s="16"/>
       <c r="F296" s="14"/>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="14"/>
-      <c r="B297" s="14"/>
-      <c r="C297" s="14"/>
-      <c r="D297" s="14"/>
+      <c r="A297" s="16"/>
+      <c r="C297" s="16"/>
+      <c r="D297" s="16"/>
       <c r="F297" s="14"/>
-      <c r="G297" s="14"/>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="14"/>
-      <c r="B298" s="14"/>
-      <c r="C298" s="14"/>
-      <c r="D298" s="14"/>
+      <c r="A298" s="16"/>
+      <c r="C298" s="16"/>
+      <c r="D298" s="16"/>
       <c r="F298" s="14"/>
-      <c r="G298" s="14"/>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="14"/>
@@ -9306,7 +9348,6 @@
       <c r="C299" s="14"/>
       <c r="D299" s="14"/>
       <c r="F299" s="14"/>
-      <c r="G299" s="14"/>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="14"/>
@@ -9322,7 +9363,6 @@
       <c r="C301" s="14"/>
       <c r="D301" s="14"/>
       <c r="F301" s="14"/>
-      <c r="G301" s="14"/>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="14"/>
@@ -9330,7 +9370,6 @@
       <c r="C302" s="14"/>
       <c r="D302" s="14"/>
       <c r="F302" s="14"/>
-      <c r="G302" s="14"/>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="14"/>
@@ -9399,10 +9438,10 @@
     <row r="311" spans="1:7">
       <c r="A311" s="14"/>
       <c r="B311" s="14"/>
-      <c r="C311" s="17"/>
-      <c r="D311" s="17"/>
+      <c r="C311" s="14"/>
+      <c r="D311" s="14"/>
       <c r="F311" s="14"/>
-      <c r="G311" s="17"/>
+      <c r="G311" s="14"/>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="14"/>
@@ -9447,10 +9486,10 @@
     <row r="317" spans="1:7">
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
-      <c r="C317" s="14"/>
-      <c r="D317" s="14"/>
+      <c r="C317" s="17"/>
+      <c r="D317" s="17"/>
       <c r="F317" s="14"/>
-      <c r="G317" s="14"/>
+      <c r="G317" s="17"/>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="14"/>
@@ -9551,50 +9590,50 @@
     <row r="330" spans="1:7">
       <c r="A330" s="14"/>
       <c r="B330" s="14"/>
-      <c r="C330" s="17"/>
-      <c r="D330" s="17"/>
+      <c r="C330" s="14"/>
+      <c r="D330" s="14"/>
       <c r="F330" s="14"/>
-      <c r="G330" s="17"/>
+      <c r="G330" s="14"/>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="14"/>
       <c r="B331" s="14"/>
-      <c r="C331" s="17"/>
-      <c r="D331" s="17"/>
+      <c r="C331" s="14"/>
+      <c r="D331" s="14"/>
       <c r="F331" s="14"/>
-      <c r="G331" s="17"/>
+      <c r="G331" s="14"/>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="14"/>
       <c r="B332" s="14"/>
-      <c r="C332" s="17"/>
-      <c r="D332" s="17"/>
+      <c r="C332" s="14"/>
+      <c r="D332" s="14"/>
       <c r="F332" s="14"/>
-      <c r="G332" s="17"/>
+      <c r="G332" s="14"/>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="14"/>
       <c r="B333" s="14"/>
-      <c r="C333" s="17"/>
-      <c r="D333" s="17"/>
+      <c r="C333" s="14"/>
+      <c r="D333" s="14"/>
       <c r="F333" s="14"/>
-      <c r="G333" s="17"/>
+      <c r="G333" s="14"/>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="14"/>
       <c r="B334" s="14"/>
-      <c r="C334" s="17"/>
-      <c r="D334" s="17"/>
+      <c r="C334" s="14"/>
+      <c r="D334" s="14"/>
       <c r="F334" s="14"/>
-      <c r="G334" s="17"/>
+      <c r="G334" s="14"/>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="14"/>
       <c r="B335" s="14"/>
-      <c r="C335" s="17"/>
-      <c r="D335" s="17"/>
+      <c r="C335" s="14"/>
+      <c r="D335" s="14"/>
       <c r="F335" s="14"/>
-      <c r="G335" s="17"/>
+      <c r="G335" s="14"/>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="14"/>
@@ -9679,68 +9718,116 @@
     <row r="346" spans="1:7">
       <c r="A346" s="14"/>
       <c r="B346" s="14"/>
-      <c r="C346" s="14"/>
-      <c r="D346" s="14"/>
+      <c r="C346" s="17"/>
+      <c r="D346" s="17"/>
       <c r="F346" s="14"/>
+      <c r="G346" s="17"/>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="14"/>
       <c r="B347" s="14"/>
-      <c r="C347" s="14"/>
-      <c r="D347" s="14"/>
+      <c r="C347" s="17"/>
+      <c r="D347" s="17"/>
       <c r="F347" s="14"/>
+      <c r="G347" s="17"/>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="14"/>
       <c r="B348" s="14"/>
-      <c r="C348" s="14"/>
-      <c r="D348" s="14"/>
+      <c r="C348" s="17"/>
+      <c r="D348" s="17"/>
       <c r="F348" s="14"/>
+      <c r="G348" s="17"/>
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="14"/>
       <c r="B349" s="14"/>
-      <c r="C349" s="14"/>
-      <c r="D349" s="14"/>
+      <c r="C349" s="17"/>
+      <c r="D349" s="17"/>
       <c r="F349" s="14"/>
+      <c r="G349" s="17"/>
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="14"/>
       <c r="B350" s="14"/>
-      <c r="C350" s="14"/>
-      <c r="D350" s="14"/>
+      <c r="C350" s="17"/>
+      <c r="D350" s="17"/>
       <c r="F350" s="14"/>
+      <c r="G350" s="17"/>
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
-      <c r="C351" s="14"/>
-      <c r="D351" s="14"/>
+      <c r="C351" s="17"/>
+      <c r="D351" s="17"/>
       <c r="F351" s="14"/>
+      <c r="G351" s="17"/>
     </row>
     <row r="352" spans="1:7">
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" s="14"/>
       <c r="D352" s="14"/>
-    </row>
-    <row r="353" spans="1:4">
+      <c r="F352" s="14"/>
+    </row>
+    <row r="353" spans="1:6">
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
       <c r="C353" s="14"/>
       <c r="D353" s="14"/>
-    </row>
-    <row r="354" spans="1:4">
+      <c r="F353" s="14"/>
+    </row>
+    <row r="354" spans="1:6">
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
       <c r="C354" s="14"/>
       <c r="D354" s="14"/>
-    </row>
-    <row r="355" spans="1:4">
+      <c r="F354" s="14"/>
+    </row>
+    <row r="355" spans="1:6">
       <c r="A355" s="14"/>
       <c r="B355" s="14"/>
       <c r="C355" s="14"/>
       <c r="D355" s="14"/>
+      <c r="F355" s="14"/>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="14"/>
+      <c r="B356" s="14"/>
+      <c r="C356" s="14"/>
+      <c r="D356" s="14"/>
+      <c r="F356" s="14"/>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="14"/>
+      <c r="B357" s="14"/>
+      <c r="C357" s="14"/>
+      <c r="D357" s="14"/>
+      <c r="F357" s="14"/>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="14"/>
+      <c r="B358" s="14"/>
+      <c r="C358" s="14"/>
+      <c r="D358" s="14"/>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="14"/>
+      <c r="B359" s="14"/>
+      <c r="C359" s="14"/>
+      <c r="D359" s="14"/>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="14"/>
+      <c r="B360" s="14"/>
+      <c r="C360" s="14"/>
+      <c r="D360" s="14"/>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="14"/>
+      <c r="B361" s="14"/>
+      <c r="C361" s="14"/>
+      <c r="D361" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9855E870-7DF6-4940-B460-739D3294F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B862E726-3BDA-46AD-946D-8B093B3CBA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -5550,6 +5550,12 @@
     <t>Is this an analog signal?</t>
   </si>
   <si>
+    <t>IN914</t>
+  </si>
+  <si>
+    <t>900927-02</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -5562,14 +5568,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-14</t>
+      <t>2025-December-15</t>
     </r>
-  </si>
-  <si>
-    <t>IN914</t>
-  </si>
-  <si>
-    <t>900927-02</t>
   </si>
 </sst>
 </file>
@@ -5699,7 +5699,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5841,6 +5841,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6161,7 +6173,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -6188,7 +6200,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6461,19 +6473,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
     <col min="5" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -6519,10 +6531,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>4</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>2</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>1761</v>
@@ -6538,840 +6550,840 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="52" t="s">
         <v>142</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="52" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="52" t="s">
         <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="52" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="52" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="52" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="52" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="52" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="52" t="s">
         <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="52" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="52" t="s">
         <v>93</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="52" t="s">
         <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1728</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="52" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="52" t="s">
         <v>151</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1729</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="52" t="s">
         <v>158</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="52" t="s">
         <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="52" t="s">
         <v>122</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="52" t="s">
         <v>159</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1728</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="52" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="52" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="52" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="52" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="52" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="52" t="s">
         <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="52" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="52" t="s">
         <v>48</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="52" t="s">
         <v>162</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="52" t="s">
         <v>89</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="52" t="s">
         <v>120</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="52" t="s">
         <v>161</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="52" t="s">
         <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="52" t="s">
         <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="52" t="s">
         <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="52" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="52" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="52" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="52" t="s">
         <v>127</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="52" t="s">
         <v>83</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="52" t="s">
         <v>85</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="52" t="s">
         <v>86</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="52" t="s">
         <v>73</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="52" t="s">
         <v>94</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="52" t="s">
         <v>133</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="52" t="s">
         <v>146</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>1729</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="52" t="s">
         <v>145</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="52" t="s">
         <v>148</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>1729</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="52" t="s">
         <v>153</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1728</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="52" t="s">
         <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="52" t="s">
         <v>150</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="52" t="s">
         <v>72</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="52" t="s">
         <v>132</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="52" t="s">
         <v>141</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="52" t="s">
         <v>138</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="52" t="s">
         <v>137</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="52" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="52" t="s">
         <v>128</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="52" t="s">
         <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="52" t="s">
         <v>40</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="52" t="s">
         <v>98</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="52" t="s">
         <v>97</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>1704</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>1625</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>101</v>
@@ -7381,16 +7393,16 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="52" t="s">
         <v>116</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="D69" s="41" t="s">
         <v>1762</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -7398,28 +7410,28 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="52" t="s">
         <v>118</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="28.8">
-      <c r="A71" s="16" t="s">
+    <row r="71" spans="1:7">
+      <c r="A71" s="52" t="s">
         <v>139</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>1675</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>105</v>
@@ -7429,16 +7441,16 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="52" t="s">
         <v>106</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="D72" s="41" t="s">
         <v>1763</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -7446,16 +7458,16 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="52" t="s">
         <v>99</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="D73" s="41" t="s">
         <v>1764</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -7463,16 +7475,16 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="52" t="s">
         <v>100</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="D74" s="41" t="s">
         <v>1765</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -7480,16 +7492,16 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="52" t="s">
         <v>157</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="D75" s="41" t="s">
         <v>1766</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -7497,16 +7509,16 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="52" t="s">
         <v>110</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="D76" s="41" t="s">
         <v>1767</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -7514,16 +7526,16 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="52" t="s">
         <v>112</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="D77" s="41" t="s">
         <v>1767</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -7531,16 +7543,16 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="52" t="s">
         <v>129</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="D78" s="41" t="s">
         <v>1768</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -7548,16 +7560,16 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="52" t="s">
         <v>1656</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>1680</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="D79" s="41" t="s">
         <v>1769</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -7565,33 +7577,33 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="52" t="s">
         <v>1629</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1807</v>
+      <c r="D80" s="41" t="s">
+        <v>1806</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>1681</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="52" t="s">
         <v>1671</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>1685</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>1713</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="D81" s="41" t="s">
         <v>1770</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -7599,13 +7611,13 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="52" t="s">
         <v>1669</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>1686</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="41" t="s">
         <v>1771</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -7613,13 +7625,13 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="52" t="s">
         <v>1670</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>1686</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="41" t="s">
         <v>1771</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -7627,94 +7639,94 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="52" t="s">
         <v>1719</v>
       </c>
-      <c r="B84" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C84"/>
-      <c r="D84"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D84" s="41"/>
       <c r="E84" s="1" t="s">
         <v>1681</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="52" t="s">
         <v>1720</v>
       </c>
-      <c r="B85" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C85"/>
-      <c r="D85"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D85" s="41"/>
       <c r="E85" s="1" t="s">
         <v>1681</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="52" t="s">
         <v>1721</v>
       </c>
-      <c r="B86" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C86"/>
-      <c r="D86"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D86" s="41"/>
       <c r="E86" s="1" t="s">
         <v>1681</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="52" t="s">
         <v>1722</v>
       </c>
-      <c r="B87" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C87"/>
-      <c r="D87"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D87" s="41"/>
       <c r="E87" s="1" t="s">
         <v>1681</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="52" t="s">
         <v>1723</v>
       </c>
-      <c r="B88" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C88"/>
-      <c r="D88"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D88" s="41"/>
       <c r="E88" s="1" t="s">
         <v>1681</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="52" t="s">
         <v>1724</v>
       </c>
-      <c r="B89" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C89"/>
-      <c r="D89"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D89" s="41"/>
       <c r="E89" s="1" t="s">
         <v>1681</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="1">
         <v>6526</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="D90" s="41" t="s">
         <v>1772</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -7722,16 +7734,16 @@
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C91" s="1">
         <v>6526</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="D91" s="41" t="s">
         <v>1772</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -7739,56 +7751,56 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="52" t="s">
         <v>44</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="D92" s="41" t="s">
         <v>311</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G92" s="14" t="s">
+      <c r="G92" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="52" t="s">
         <v>53</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="D93" s="41" t="s">
         <v>312</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G93" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="52" t="s">
         <v>56</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="D94" s="41" t="s">
         <v>313</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -7799,36 +7811,36 @@
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="1">
         <v>2114</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="D95" s="41" t="s">
         <v>1773</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G95" s="14" t="s">
+      <c r="G95" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" s="1">
         <v>6510</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="D96" s="41" t="s">
         <v>1774</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -7839,16 +7851,16 @@
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="1">
         <v>7406</v>
       </c>
-      <c r="C97" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="D97" s="41" t="s">
         <v>1775</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -7856,16 +7868,16 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C98" s="1">
         <v>4164</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="D98" s="41" t="s">
         <v>1776</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -7876,16 +7888,16 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" s="1">
         <v>4164</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="D99" s="41" t="s">
         <v>1776</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -7896,16 +7908,16 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" s="1">
         <v>4164</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="D100" s="41" t="s">
         <v>1776</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -7916,16 +7928,16 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" s="1">
         <v>4164</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="D101" s="41" t="s">
         <v>1776</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -7936,16 +7948,16 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="52" t="s">
         <v>29</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C102" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="D102" s="41" t="s">
         <v>1777</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -7953,16 +7965,16 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="52" t="s">
         <v>69</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C103" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="D103" s="41" t="s">
         <v>1778</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -7970,16 +7982,16 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="52" t="s">
         <v>49</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C104" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="D104" s="41" t="s">
         <v>1779</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -7987,16 +7999,16 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C105" s="1">
         <v>4066</v>
       </c>
-      <c r="C105" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="D105" s="41" t="s">
         <v>1780</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -8004,16 +8016,16 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="52" t="s">
         <v>47</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="D106" s="41" t="s">
         <v>174</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -8021,16 +8033,16 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" s="1">
         <v>6581</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="D107" s="41" t="s">
         <v>1781</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -8041,14 +8053,14 @@
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C108" s="1">
         <v>6569</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>102</v>
@@ -8056,21 +8068,21 @@
       <c r="F108" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G108" s="14" t="s">
+      <c r="G108" s="1" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109" s="1">
         <v>6567</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="D109" s="41" t="s">
         <v>1782</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -8079,21 +8091,21 @@
       <c r="F109" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G109" s="14" t="s">
+      <c r="G109" s="1" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C110" s="1">
         <v>556</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="D110" s="41" t="s">
         <v>1783</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -8101,16 +8113,16 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C111" s="1">
         <v>4164</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="D111" s="41" t="s">
         <v>1776</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -8121,16 +8133,16 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C112" s="1">
         <v>4164</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="D112" s="41" t="s">
         <v>1776</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -8141,16 +8153,16 @@
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" s="1">
         <v>4164</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="D113" s="41" t="s">
         <v>1776</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -8161,16 +8173,16 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C114" s="1">
         <v>4164</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="D114" s="41" t="s">
         <v>1776</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -8181,16 +8193,16 @@
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="52" t="s">
         <v>41</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="D115" s="41" t="s">
         <v>1777</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -8198,16 +8210,16 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="52" t="s">
         <v>59</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="D116" s="41" t="s">
         <v>1784</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -8215,16 +8227,16 @@
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="52" t="s">
         <v>42</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="D117" s="41" t="s">
         <v>1785</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -8232,16 +8244,16 @@
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="16" t="s">
+      <c r="A118" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C118" s="1">
         <v>4066</v>
       </c>
-      <c r="C118" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="D118" s="41" t="s">
         <v>1780</v>
       </c>
       <c r="E118" s="1" t="s">
@@ -8249,16 +8261,16 @@
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C119" s="1">
         <v>8701</v>
       </c>
-      <c r="C119" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="D119" s="41" t="s">
         <v>1786</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -8266,14 +8278,14 @@
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="52" t="s">
         <v>249</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>1787</v>
@@ -8283,16 +8295,16 @@
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="16" t="s">
+      <c r="A121" s="52" t="s">
         <v>1667</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="D121" s="41" t="s">
         <v>1789</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -8300,13 +8312,13 @@
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="16" t="s">
+      <c r="A122" s="52" t="s">
         <v>1674</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>1706</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="41" t="s">
         <v>1790</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -8314,16 +8326,16 @@
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="52" t="s">
         <v>1672</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>1791</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="D123" s="41" t="s">
         <v>1792</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -8331,13 +8343,13 @@
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="41" t="s">
         <v>1793</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -8345,10 +8357,10 @@
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="52" t="s">
         <v>1638</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>1710</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -8359,58 +8371,58 @@
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="16" t="s">
+      <c r="A126" s="52" t="s">
         <v>1707</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>1714</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>1710</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="16" t="s">
+      <c r="A127" s="52" t="s">
         <v>1708</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>300</v>
+        <v>1710</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1710</v>
+        <v>300</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="16" t="s">
+      <c r="A128" s="52" t="s">
         <v>1709</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>301</v>
+        <v>1710</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1710</v>
+        <v>301</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="16" t="s">
+      <c r="A129" s="52" t="s">
         <v>155</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="D129" s="41" t="s">
         <v>1794</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -8418,16 +8430,16 @@
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C130" s="1">
         <v>7812</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="D130" s="41" t="s">
         <v>1795</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -8435,16 +8447,16 @@
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="16" t="s">
+      <c r="A131" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C131" s="1">
         <v>7805</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="D131" s="41" t="s">
         <v>1796</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -8452,10 +8464,10 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="16" t="s">
+      <c r="A132" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -8472,13 +8484,13 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="16" t="s">
+      <c r="A133" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="41" t="s">
         <v>1797</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -8492,10 +8504,10 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="16" t="s">
+      <c r="A134" s="52" t="s">
         <v>1635</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>1687</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -8503,10 +8515,10 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="16" t="s">
+      <c r="A135" s="52" t="s">
         <v>1632</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>1688</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -8514,10 +8526,10 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="16" t="s">
+      <c r="A136" s="52" t="s">
         <v>1641</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>1689</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -8525,10 +8537,10 @@
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="16" t="s">
+      <c r="A137" s="52" t="s">
         <v>1631</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>1690</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -8536,10 +8548,10 @@
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="16" t="s">
+      <c r="A138" s="52" t="s">
         <v>1655</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>1691</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -8547,10 +8559,10 @@
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="16" t="s">
+      <c r="A139" s="52" t="s">
         <v>1636</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>1690</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -8558,10 +8570,10 @@
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="16" t="s">
+      <c r="A140" s="52" t="s">
         <v>1637</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>1692</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -8569,10 +8581,10 @@
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="16" t="s">
+      <c r="A141" s="52" t="s">
         <v>1649</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>1687</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -8580,10 +8592,10 @@
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="16" t="s">
+      <c r="A142" s="52" t="s">
         <v>1653</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>1690</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -8591,10 +8603,10 @@
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="16" t="s">
+      <c r="A143" s="52" t="s">
         <v>1642</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>1690</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -8602,10 +8614,10 @@
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="16" t="s">
+      <c r="A144" s="52" t="s">
         <v>1643</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>1690</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -8613,10 +8625,10 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="16" t="s">
+      <c r="A145" s="52" t="s">
         <v>1652</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>1693</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -8624,10 +8636,10 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="16" t="s">
+      <c r="A146" s="52" t="s">
         <v>1644</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>1694</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -8635,10 +8647,10 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="16" t="s">
+      <c r="A147" s="52" t="s">
         <v>1651</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>1694</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -8646,10 +8658,10 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="16" t="s">
+      <c r="A148" s="52" t="s">
         <v>1646</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>1695</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -8657,10 +8669,10 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="16" t="s">
+      <c r="A149" s="52" t="s">
         <v>1654</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>1690</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -8668,10 +8680,10 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="16" t="s">
+      <c r="A150" s="52" t="s">
         <v>1660</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>1690</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -8679,10 +8691,10 @@
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="16" t="s">
+      <c r="A151" s="52" t="s">
         <v>1640</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>1690</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -8690,10 +8702,10 @@
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="16" t="s">
+      <c r="A152" s="52" t="s">
         <v>1668</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>1696</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -8701,10 +8713,10 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="16" t="s">
+      <c r="A153" s="52" t="s">
         <v>1645</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>1697</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -8712,10 +8724,10 @@
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="16" t="s">
+      <c r="A154" s="52" t="s">
         <v>1659</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>1698</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -8723,10 +8735,10 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="16" t="s">
+      <c r="A155" s="52" t="s">
         <v>1664</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>1687</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -8734,10 +8746,10 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="16" t="s">
+      <c r="A156" s="52" t="s">
         <v>1665</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>1687</v>
       </c>
       <c r="E156" s="1" t="s">
@@ -8745,10 +8757,10 @@
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="16" t="s">
+      <c r="A157" s="52" t="s">
         <v>1666</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>1687</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -8756,10 +8768,10 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="16" t="s">
+      <c r="A158" s="52" t="s">
         <v>1647</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>1690</v>
       </c>
       <c r="E158" s="1" t="s">
@@ -8767,10 +8779,10 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="16" t="s">
+      <c r="A159" s="52" t="s">
         <v>1650</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>1697</v>
       </c>
       <c r="E159" s="1" t="s">
@@ -8778,10 +8790,10 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="16" t="s">
+      <c r="A160" s="52" t="s">
         <v>1658</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>1699</v>
       </c>
       <c r="E160" s="1" t="s">
@@ -8789,10 +8801,10 @@
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="16" t="s">
+      <c r="A161" s="52" t="s">
         <v>1633</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>1700</v>
       </c>
       <c r="E161" s="1" t="s">
@@ -8800,10 +8812,10 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="16" t="s">
+      <c r="A162" s="52" t="s">
         <v>1657</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>1690</v>
       </c>
       <c r="E162" s="1" t="s">
@@ -8811,10 +8823,10 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="16" t="s">
+      <c r="A163" s="52" t="s">
         <v>1661</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>1702</v>
       </c>
       <c r="E163" s="1" t="s">
@@ -8825,10 +8837,10 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="16" t="s">
+      <c r="A164" s="52" t="s">
         <v>1662</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>1702</v>
       </c>
       <c r="E164" s="1" t="s">
@@ -8839,10 +8851,10 @@
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="16" t="s">
+      <c r="A165" s="52" t="s">
         <v>1663</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>1687</v>
       </c>
       <c r="E165" s="1" t="s">
@@ -8853,10 +8865,10 @@
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="16" t="s">
+      <c r="A166" s="52" t="s">
         <v>1673</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>1687</v>
       </c>
       <c r="E166" s="1" t="s">
@@ -8867,10 +8879,10 @@
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="16" t="s">
+      <c r="A167" s="52" t="s">
         <v>1634</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>1679</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -8881,13 +8893,13 @@
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="16" t="s">
+      <c r="A168" s="52" t="s">
         <v>1639</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="41" t="s">
         <v>1799</v>
       </c>
       <c r="E168" s="1" t="s">
@@ -8895,13 +8907,13 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="16" t="s">
+      <c r="A169" s="52" t="s">
         <v>1648</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="41" t="s">
         <v>1799</v>
       </c>
       <c r="E169" s="1" t="s">
@@ -8909,13 +8921,13 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="16" t="s">
+      <c r="A170" s="52" t="s">
         <v>1630</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="41" t="s">
         <v>1799</v>
       </c>
       <c r="E170" s="1" t="s">
@@ -8923,85 +8935,52 @@
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="26"/>
+      <c r="A171" s="53"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="26"/>
+      <c r="A172" s="53"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="27"/>
+      <c r="A173" s="54"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174"/>
+      <c r="A174" s="41"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175"/>
+      <c r="A175" s="41"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176"/>
+      <c r="A176" s="41"/>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="27"/>
+      <c r="A177" s="54"/>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178"/>
+      <c r="A178" s="41"/>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179"/>
+      <c r="A179" s="41"/>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180"/>
+      <c r="A180" s="41"/>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181"/>
+      <c r="A181" s="41"/>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="27"/>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="14"/>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="14"/>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="14"/>
+      <c r="A182" s="54"/>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186"/>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="14"/>
+      <c r="A186" s="41"/>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="28"/>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="14"/>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="14"/>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="14"/>
+      <c r="A188" s="55"/>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192"/>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="14"/>
+      <c r="A192" s="41"/>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="28"/>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="14"/>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="14"/>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="14"/>
+      <c r="A194" s="55"/>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="28"/>

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8153C0DD-5AD4-431A-80DB-60F950BB2EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18637214-7E73-4035-B96B-E05F33ECAD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8257" uniqueCount="1815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8263" uniqueCount="1821">
   <si>
     <t>Name</t>
   </si>
@@ -5173,45 +5173,6 @@
     <t>3.3KΩ</t>
   </si>
   <si>
-    <t>470Ω</t>
-  </si>
-  <si>
-    <t>100KΩ</t>
-  </si>
-  <si>
-    <t>1KΩ</t>
-  </si>
-  <si>
-    <t>560Ω</t>
-  </si>
-  <si>
-    <t>10KΩ</t>
-  </si>
-  <si>
-    <t>180Ω</t>
-  </si>
-  <si>
-    <t>47KΩ</t>
-  </si>
-  <si>
-    <t>470KΩ</t>
-  </si>
-  <si>
-    <t>390Ω</t>
-  </si>
-  <si>
-    <t>1MΩ</t>
-  </si>
-  <si>
-    <t>82Ω</t>
-  </si>
-  <si>
-    <t>1.5KΩ</t>
-  </si>
-  <si>
-    <t>100Ω</t>
-  </si>
-  <si>
     <t>Resistor pack, 8 pin</t>
   </si>
   <si>
@@ -5538,9 +5499,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2025-December-8</t>
-  </si>
-  <si>
     <t>HIGH(?)</t>
   </si>
   <si>
@@ -5551,6 +5509,90 @@
   </si>
   <si>
     <t>900927-02</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/C64-Power-LED.png</t>
+  </si>
+  <si>
+    <t>It does not matter how you connect the power LED, as long as all 3 pins are connected.</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Board Layout 250425 NTSC.png</t>
+  </si>
+  <si>
+    <t>Schematic image</t>
+  </si>
+  <si>
+    <t>Board Layout</t>
+  </si>
+  <si>
+    <t>CMack/Deadweasel</t>
+  </si>
+  <si>
+    <t>https://github.com/Deadweasel/Commodore-64-mainboard-layouts</t>
+  </si>
+  <si>
+    <t>Does not exist in layout</t>
+  </si>
+  <si>
+    <t>3.3KΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>470Ω 1/4W 5%</t>
+  </si>
+  <si>
+    <t>100KΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>1KΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>560Ω 1/4W 5%</t>
+  </si>
+  <si>
+    <t>10KΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>180Ω 1/4W 5%</t>
+  </si>
+  <si>
+    <t>47KΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>470KΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>390Ω 1/4W 5%</t>
+  </si>
+  <si>
+    <t>1MΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>82Ω 1/4W 5%</t>
+  </si>
+  <si>
+    <t>1.5KΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>100Ω 1/4W 5%</t>
+  </si>
+  <si>
+    <t>3.3KΩ 1/4W</t>
+  </si>
+  <si>
+    <t>Zener</t>
+  </si>
+  <si>
+    <t>NPN Power</t>
+  </si>
+  <si>
+    <t>NPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2025-December-20</t>
   </si>
   <si>
     <r>
@@ -5565,32 +5607,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-15</t>
+      <t>2025-December-18</t>
     </r>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/C64-Power-LED.png</t>
-  </si>
-  <si>
-    <t>It does not matter how you connect the power LED, as long as all 3 pins are connected.</t>
-  </si>
-  <si>
-    <t>Commodore 64/250425/Board Layout 250425 NTSC.png</t>
-  </si>
-  <si>
-    <t>FINDES IKKE?</t>
-  </si>
-  <si>
-    <t>Schematic image</t>
-  </si>
-  <si>
-    <t>Board Layout</t>
-  </si>
-  <si>
-    <t>CMack/Deadweasel</t>
-  </si>
-  <si>
-    <t>https://github.com/Deadweasel/Commodore-64-mainboard-layouts</t>
   </si>
 </sst>
 </file>
@@ -5674,7 +5692,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5702,12 +5720,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5881,7 +5893,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6203,9 +6215,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6230,7 +6242,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>1806</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6345,7 +6357,7 @@
         <v>248</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -6481,17 +6493,17 @@
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="14.4" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>1800</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>1801</v>
+        <v>1819</v>
       </c>
     </row>
   </sheetData>
@@ -6504,9 +6516,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6568,7 +6580,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>1760</v>
+        <v>1747</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>18</v>
@@ -6739,7 +6751,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1727</v>
+        <v>1714</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>92</v>
@@ -6767,7 +6779,7 @@
         <v>151</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1728</v>
+        <v>1715</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>152</v>
@@ -6823,7 +6835,7 @@
         <v>159</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1727</v>
+        <v>1714</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>160</v>
@@ -7187,7 +7199,7 @@
         <v>146</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1728</v>
+        <v>1715</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>147</v>
@@ -7215,7 +7227,7 @@
         <v>148</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1728</v>
+        <v>1715</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>149</v>
@@ -7229,7 +7241,7 @@
         <v>153</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1727</v>
+        <v>1714</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>154</v>
@@ -7414,7 +7426,7 @@
         <v>1624</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1703</v>
+        <v>1690</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>101</v>
@@ -7434,7 +7446,7 @@
         <v>270</v>
       </c>
       <c r="D69" s="41" t="s">
-        <v>1761</v>
+        <v>1748</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>105</v>
@@ -7482,7 +7494,7 @@
         <v>269</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>1762</v>
+        <v>1749</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>105</v>
@@ -7499,7 +7511,7 @@
         <v>277</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>105</v>
@@ -7516,7 +7528,7 @@
         <v>276</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>1764</v>
+        <v>1751</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>105</v>
@@ -7533,7 +7545,7 @@
         <v>274</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>1765</v>
+        <v>1752</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>105</v>
@@ -7550,7 +7562,7 @@
         <v>271</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>1766</v>
+        <v>1753</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>105</v>
@@ -7567,7 +7579,7 @@
         <v>271</v>
       </c>
       <c r="D77" s="41" t="s">
-        <v>1766</v>
+        <v>1753</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>105</v>
@@ -7584,7 +7596,7 @@
         <v>273</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>1767</v>
+        <v>1754</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>105</v>
@@ -7601,7 +7613,7 @@
         <v>1679</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>1680</v>
@@ -7618,7 +7630,7 @@
         <v>1682</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>1680</v>
@@ -7629,13 +7641,13 @@
         <v>1670</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1712</v>
+        <v>1699</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>1684</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>1769</v>
+        <v>1756</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>1680</v>
@@ -7645,11 +7657,14 @@
       <c r="A82" s="51" t="s">
         <v>1668</v>
       </c>
+      <c r="B82" s="1" t="s">
+        <v>1815</v>
+      </c>
       <c r="C82" s="1" t="s">
         <v>1685</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>1680</v>
@@ -7659,11 +7674,14 @@
       <c r="A83" s="51" t="s">
         <v>1669</v>
       </c>
+      <c r="B83" s="1" t="s">
+        <v>1815</v>
+      </c>
       <c r="C83" s="1" t="s">
         <v>1685</v>
       </c>
       <c r="D83" s="41" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>1680</v>
@@ -7671,98 +7689,98 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="51" t="s">
-        <v>1718</v>
+        <v>1705</v>
       </c>
       <c r="B84" s="41"/>
       <c r="C84" s="41" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
       <c r="D84" s="41"/>
       <c r="E84" s="1" t="s">
         <v>1680</v>
       </c>
       <c r="G84" s="56" t="s">
-        <v>1810</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="51" t="s">
-        <v>1719</v>
+        <v>1706</v>
       </c>
       <c r="B85" s="41"/>
       <c r="C85" s="41" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
       <c r="D85" s="41"/>
       <c r="E85" s="1" t="s">
         <v>1680</v>
       </c>
       <c r="G85" s="56" t="s">
-        <v>1810</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="51" t="s">
-        <v>1720</v>
+        <v>1707</v>
       </c>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
       <c r="D86" s="41"/>
       <c r="E86" s="1" t="s">
         <v>1680</v>
       </c>
       <c r="G86" s="56" t="s">
-        <v>1810</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="51" t="s">
-        <v>1721</v>
+        <v>1708</v>
       </c>
       <c r="B87" s="41"/>
       <c r="C87" s="41" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
       <c r="D87" s="41"/>
       <c r="E87" s="1" t="s">
         <v>1680</v>
       </c>
       <c r="G87" s="56" t="s">
-        <v>1810</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="51" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="B88" s="41"/>
       <c r="C88" s="41" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
       <c r="D88" s="41"/>
       <c r="E88" s="1" t="s">
         <v>1680</v>
       </c>
       <c r="G88" s="56" t="s">
-        <v>1810</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="51" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="B89" s="41"/>
       <c r="C89" s="41" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
       <c r="D89" s="41"/>
       <c r="E89" s="1" t="s">
         <v>1680</v>
       </c>
       <c r="G89" s="56" t="s">
-        <v>1810</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -7776,7 +7794,7 @@
         <v>6526</v>
       </c>
       <c r="D90" s="41" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>102</v>
@@ -7793,7 +7811,7 @@
         <v>6526</v>
       </c>
       <c r="D91" s="41" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>102</v>
@@ -7870,7 +7888,7 @@
         <v>2114</v>
       </c>
       <c r="D95" s="41" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>102</v>
@@ -7890,7 +7908,7 @@
         <v>6510</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>102</v>
@@ -7910,7 +7928,7 @@
         <v>7406</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>102</v>
@@ -7927,7 +7945,7 @@
         <v>4164</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>102</v>
@@ -7947,7 +7965,7 @@
         <v>4164</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>102</v>
@@ -7967,7 +7985,7 @@
         <v>4164</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>102</v>
@@ -7987,7 +8005,7 @@
         <v>4164</v>
       </c>
       <c r="D101" s="41" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>102</v>
@@ -8007,7 +8025,7 @@
         <v>30</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>102</v>
@@ -8024,7 +8042,7 @@
         <v>70</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>102</v>
@@ -8041,7 +8059,7 @@
         <v>50</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>102</v>
@@ -8058,7 +8076,7 @@
         <v>4066</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>102</v>
@@ -8092,7 +8110,7 @@
         <v>6581</v>
       </c>
       <c r="D107" s="41" t="s">
-        <v>1780</v>
+        <v>1767</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>102</v>
@@ -8132,7 +8150,7 @@
         <v>6567</v>
       </c>
       <c r="D109" s="41" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>102</v>
@@ -8155,7 +8173,7 @@
         <v>556</v>
       </c>
       <c r="D110" s="41" t="s">
-        <v>1782</v>
+        <v>1769</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>102</v>
@@ -8172,7 +8190,7 @@
         <v>4164</v>
       </c>
       <c r="D111" s="41" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>102</v>
@@ -8192,7 +8210,7 @@
         <v>4164</v>
       </c>
       <c r="D112" s="41" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>102</v>
@@ -8212,7 +8230,7 @@
         <v>4164</v>
       </c>
       <c r="D113" s="41" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>102</v>
@@ -8232,7 +8250,7 @@
         <v>4164</v>
       </c>
       <c r="D114" s="41" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>102</v>
@@ -8252,7 +8270,7 @@
         <v>30</v>
       </c>
       <c r="D115" s="41" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>102</v>
@@ -8269,7 +8287,7 @@
         <v>60</v>
       </c>
       <c r="D116" s="41" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>102</v>
@@ -8286,7 +8304,7 @@
         <v>43</v>
       </c>
       <c r="D117" s="41" t="s">
-        <v>1784</v>
+        <v>1771</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>102</v>
@@ -8303,7 +8321,7 @@
         <v>4066</v>
       </c>
       <c r="D118" s="41" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>102</v>
@@ -8320,7 +8338,7 @@
         <v>8701</v>
       </c>
       <c r="D119" s="41" t="s">
-        <v>1785</v>
+        <v>1772</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>102</v>
@@ -8337,7 +8355,7 @@
         <v>251</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>103</v>
@@ -8348,13 +8366,13 @@
         <v>1666</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1704</v>
+        <v>1691</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1787</v>
+        <v>1774</v>
       </c>
       <c r="D121" s="41" t="s">
-        <v>1788</v>
+        <v>1775</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>103</v>
@@ -8365,10 +8383,10 @@
         <v>1673</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1705</v>
+        <v>1692</v>
       </c>
       <c r="D122" s="41" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>103</v>
@@ -8379,13 +8397,13 @@
         <v>1671</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1704</v>
+        <v>1691</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1790</v>
+        <v>1777</v>
       </c>
       <c r="D123" s="41" t="s">
-        <v>1791</v>
+        <v>1778</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>103</v>
@@ -8399,7 +8417,7 @@
         <v>282</v>
       </c>
       <c r="D124" s="41" t="s">
-        <v>1792</v>
+        <v>1779</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>103</v>
@@ -8410,24 +8428,24 @@
         <v>1637</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1709</v>
+        <v>1696</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1711</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="51" t="s">
-        <v>1706</v>
+        <v>1693</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1709</v>
+        <v>1696</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1713</v>
+        <v>1700</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>103</v>
@@ -8435,10 +8453,10 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="51" t="s">
-        <v>1707</v>
+        <v>1694</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1709</v>
+        <v>1696</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>300</v>
@@ -8449,10 +8467,10 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="51" t="s">
-        <v>1708</v>
+        <v>1695</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1709</v>
+        <v>1696</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>301</v>
@@ -8472,10 +8490,13 @@
         <v>182</v>
       </c>
       <c r="D129" s="41" t="s">
-        <v>1793</v>
+        <v>1780</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>103</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -8489,7 +8510,7 @@
         <v>7812</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>103</v>
@@ -8506,7 +8527,7 @@
         <v>7805</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>103</v>
@@ -8520,7 +8541,7 @@
         <v>183</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>103</v>
@@ -8540,7 +8561,7 @@
         <v>183</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>103</v>
@@ -8557,10 +8578,10 @@
         <v>1634</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1686</v>
+        <v>1800</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -8568,10 +8589,10 @@
         <v>1631</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1687</v>
+        <v>1801</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -8579,10 +8600,10 @@
         <v>1640</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1688</v>
+        <v>1802</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -8590,10 +8611,10 @@
         <v>1630</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1689</v>
+        <v>1803</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -8601,10 +8622,10 @@
         <v>1654</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1690</v>
+        <v>1804</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -8612,10 +8633,10 @@
         <v>1635</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1689</v>
+        <v>1803</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -8623,10 +8644,10 @@
         <v>1636</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1691</v>
+        <v>1805</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -8634,10 +8655,10 @@
         <v>1648</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1686</v>
+        <v>1800</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -8645,10 +8666,10 @@
         <v>1652</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1689</v>
+        <v>1803</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -8656,10 +8677,10 @@
         <v>1641</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1689</v>
+        <v>1803</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -8667,10 +8688,10 @@
         <v>1642</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1689</v>
+        <v>1803</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -8678,10 +8699,10 @@
         <v>1651</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1692</v>
+        <v>1806</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -8689,10 +8710,10 @@
         <v>1643</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1693</v>
+        <v>1807</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -8700,10 +8721,10 @@
         <v>1650</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1693</v>
+        <v>1807</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -8711,10 +8732,10 @@
         <v>1645</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1694</v>
+        <v>1808</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -8722,10 +8743,10 @@
         <v>1653</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1689</v>
+        <v>1803</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -8733,10 +8754,10 @@
         <v>1659</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1689</v>
+        <v>1803</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -8744,10 +8765,10 @@
         <v>1639</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1689</v>
+        <v>1803</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -8755,10 +8776,10 @@
         <v>1667</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1695</v>
+        <v>1809</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -8766,10 +8787,10 @@
         <v>1644</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1696</v>
+        <v>1810</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -8777,10 +8798,10 @@
         <v>1658</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>1697</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>1710</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -8788,10 +8809,10 @@
         <v>1663</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1686</v>
+        <v>1800</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -8799,10 +8820,10 @@
         <v>1664</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1686</v>
+        <v>1800</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -8810,10 +8831,10 @@
         <v>1665</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1686</v>
+        <v>1800</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -8821,10 +8842,10 @@
         <v>1646</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1689</v>
+        <v>1803</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -8832,10 +8853,10 @@
         <v>1649</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1696</v>
+        <v>1810</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -8843,10 +8864,10 @@
         <v>1657</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1698</v>
+        <v>1812</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -8854,10 +8875,10 @@
         <v>1632</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1699</v>
+        <v>1813</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -8865,10 +8886,10 @@
         <v>1656</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1689</v>
+        <v>1803</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -8876,13 +8897,13 @@
         <v>1660</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1701</v>
+        <v>1688</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>1700</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -8890,13 +8911,13 @@
         <v>1661</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1701</v>
+        <v>1688</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>1700</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -8907,10 +8928,10 @@
         <v>1686</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1700</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -8918,24 +8939,27 @@
         <v>1672</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1686</v>
+        <v>1814</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>1702</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="51" t="s">
         <v>1633</v>
       </c>
+      <c r="B167" s="1" t="s">
+        <v>1816</v>
+      </c>
       <c r="C167" s="1" t="s">
         <v>1678</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>1677</v>
@@ -8945,11 +8969,14 @@
       <c r="A168" s="51" t="s">
         <v>1638</v>
       </c>
+      <c r="B168" s="1" t="s">
+        <v>1817</v>
+      </c>
       <c r="C168" s="1" t="s">
         <v>1676</v>
       </c>
       <c r="D168" s="41" t="s">
-        <v>1798</v>
+        <v>1818</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>1677</v>
@@ -8959,11 +8986,14 @@
       <c r="A169" s="51" t="s">
         <v>1647</v>
       </c>
+      <c r="B169" s="1" t="s">
+        <v>1817</v>
+      </c>
       <c r="C169" s="1" t="s">
         <v>1676</v>
       </c>
       <c r="D169" s="41" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>1677</v>
@@ -8973,11 +9003,14 @@
       <c r="A170" s="51" t="s">
         <v>1629</v>
       </c>
+      <c r="B170" s="1" t="s">
+        <v>1817</v>
+      </c>
       <c r="C170" s="1" t="s">
         <v>1676</v>
       </c>
       <c r="D170" s="41" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>1677</v>
@@ -9869,10 +9902,10 @@
   <dimension ref="A1:I2685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9978,10 +10011,10 @@
         <v>185</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8">
@@ -9993,10 +10026,10 @@
         <v>185</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8">
@@ -10008,10 +10041,10 @@
         <v>185</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8">
@@ -10023,10 +10056,10 @@
         <v>185</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8">
@@ -10038,10 +10071,10 @@
         <v>185</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8">
@@ -10053,10 +10086,10 @@
         <v>185</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8">
@@ -10068,10 +10101,10 @@
         <v>185</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8">
@@ -10083,10 +10116,10 @@
         <v>185</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.8">
@@ -10098,10 +10131,10 @@
         <v>185</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.8">
@@ -10113,10 +10146,10 @@
         <v>185</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28.8">
@@ -10128,10 +10161,10 @@
         <v>185</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="72">
@@ -10143,10 +10176,10 @@
         <v>185</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="72">
@@ -10158,10 +10191,10 @@
         <v>185</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>1739</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="72">
@@ -10173,10 +10206,10 @@
         <v>185</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>1729</v>
+        <v>1716</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.8">
@@ -10188,10 +10221,10 @@
         <v>185</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28.8">
@@ -10203,10 +10236,10 @@
         <v>185</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.8">
@@ -10218,10 +10251,10 @@
         <v>185</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="72">
@@ -10233,10 +10266,10 @@
         <v>185</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.8">
@@ -10248,10 +10281,10 @@
         <v>185</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28.8">
@@ -10263,10 +10296,10 @@
         <v>185</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.8">
@@ -10278,10 +10311,10 @@
         <v>185</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="28.8">
@@ -10293,10 +10326,10 @@
         <v>185</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="28.8">
@@ -10308,10 +10341,10 @@
         <v>185</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28.8">
@@ -10323,10 +10356,10 @@
         <v>185</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="28.8">
@@ -10338,10 +10371,10 @@
         <v>185</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.8">
@@ -10353,10 +10386,10 @@
         <v>185</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.8">
@@ -10368,10 +10401,10 @@
         <v>185</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28.8">
@@ -10383,10 +10416,10 @@
         <v>185</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="72">
@@ -10399,10 +10432,10 @@
         <v>185</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1730</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="28.8">
@@ -10414,10 +10447,10 @@
         <v>185</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="28.8">
@@ -10429,10 +10462,10 @@
         <v>185</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28.8">
@@ -10444,10 +10477,10 @@
         <v>185</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="28.8">
@@ -10459,10 +10492,10 @@
         <v>185</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.8">
@@ -10474,10 +10507,10 @@
         <v>185</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="28.8">
@@ -10489,10 +10522,10 @@
         <v>185</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G43" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="28.8">
@@ -10504,10 +10537,10 @@
         <v>185</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="28.8">
@@ -10519,10 +10552,10 @@
         <v>185</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="28.8">
@@ -10534,10 +10567,10 @@
         <v>185</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28.8">
@@ -10549,10 +10582,10 @@
         <v>185</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="28.8">
@@ -10564,10 +10597,10 @@
         <v>185</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="28.8">
@@ -10579,10 +10612,10 @@
         <v>185</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="28.8">
@@ -10594,10 +10627,10 @@
         <v>185</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="28.8">
@@ -10609,10 +10642,10 @@
         <v>185</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G51" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="72">
@@ -10624,10 +10657,10 @@
         <v>185</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>1729</v>
+        <v>1716</v>
       </c>
       <c r="G52" s="41" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="28.8">
@@ -10639,10 +10672,10 @@
         <v>185</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G53" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="72">
@@ -10654,10 +10687,10 @@
         <v>185</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>1729</v>
+        <v>1716</v>
       </c>
       <c r="G54" s="41" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="72">
@@ -10669,10 +10702,10 @@
         <v>185</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="G55" s="41" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.8">
@@ -10684,10 +10717,10 @@
         <v>185</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G56" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="28.8">
@@ -10699,10 +10732,10 @@
         <v>185</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G57" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="28.8">
@@ -10714,10 +10747,10 @@
         <v>185</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G58" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="28.8">
@@ -10729,10 +10762,10 @@
         <v>185</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G59" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="28.8">
@@ -10744,10 +10777,10 @@
         <v>185</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G60" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="28.8">
@@ -10759,10 +10792,10 @@
         <v>185</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G61" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="28.8">
@@ -10774,10 +10807,10 @@
         <v>185</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G62" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="28.8">
@@ -10789,10 +10822,10 @@
         <v>185</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G63" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="28.8">
@@ -10804,10 +10837,10 @@
         <v>185</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G64" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="28.8">
@@ -10819,10 +10852,10 @@
         <v>185</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="28.8">
@@ -10834,10 +10867,10 @@
         <v>185</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G66" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="28.8">
@@ -10849,10 +10882,10 @@
         <v>185</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="G67" s="41" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -10969,10 +11002,10 @@
         <v>185</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>1807</v>
+        <v>1792</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
       <c r="I76" s="14"/>
     </row>
@@ -20103,7 +20136,7 @@
         <v>1590</v>
       </c>
       <c r="G534" s="1" t="s">
-        <v>1752</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -20759,7 +20792,7 @@
         <v>1590</v>
       </c>
       <c r="G567" s="1" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -21415,7 +21448,7 @@
         <v>1590</v>
       </c>
       <c r="G600" s="1" t="s">
-        <v>1754</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="601" spans="1:7">
@@ -22071,7 +22104,7 @@
         <v>1590</v>
       </c>
       <c r="G633" s="1" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="634" spans="1:7">
@@ -28167,13 +28200,13 @@
         <v>882</v>
       </c>
       <c r="E941" s="24" t="s">
-        <v>1802</v>
+        <v>1788</v>
       </c>
       <c r="F941" s="14" t="s">
         <v>912</v>
       </c>
       <c r="G941" s="24" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="942" spans="1:7">
@@ -28190,13 +28223,13 @@
         <v>882</v>
       </c>
       <c r="E942" s="24" t="s">
-        <v>1802</v>
+        <v>1788</v>
       </c>
       <c r="F942" s="14" t="s">
         <v>1453</v>
       </c>
       <c r="G942" s="24" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="943" spans="1:7">
@@ -29877,7 +29910,7 @@
         <v>1590</v>
       </c>
       <c r="G1026" s="1" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1027" spans="1:7">
@@ -30533,7 +30566,7 @@
         <v>1590</v>
       </c>
       <c r="G1059" s="1" t="s">
-        <v>1757</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1060" spans="1:7">
@@ -31189,7 +31222,7 @@
         <v>1590</v>
       </c>
       <c r="G1092" s="1" t="s">
-        <v>1758</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1093" spans="1:7">
@@ -31845,7 +31878,7 @@
         <v>1590</v>
       </c>
       <c r="G1125" s="1" t="s">
-        <v>1759</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1126" spans="1:7">
@@ -35823,10 +35856,7 @@
         <v>185</v>
       </c>
       <c r="F1326" s="14" t="s">
-        <v>1731</v>
-      </c>
-      <c r="G1326" s="1" t="s">
-        <v>279</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1327" spans="1:7">
@@ -35839,7 +35869,7 @@
         <v>1603</v>
       </c>
       <c r="F1327" s="14" t="s">
-        <v>1732</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1328" spans="1:7" ht="28.8">
@@ -35855,7 +35885,7 @@
         <v>341</v>
       </c>
       <c r="G1328" s="1" t="s">
-        <v>1733</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1329" spans="1:7" ht="28.8">
@@ -35871,7 +35901,7 @@
         <v>341</v>
       </c>
       <c r="G1329" s="1" t="s">
-        <v>1733</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1330" spans="1:7" ht="72">
@@ -35889,7 +35919,7 @@
     </row>
     <row r="1331" spans="1:7" ht="43.2">
       <c r="A1331" s="14" t="s">
-        <v>1706</v>
+        <v>1693</v>
       </c>
       <c r="B1331" s="14"/>
       <c r="C1331" s="37"/>
@@ -35897,15 +35927,15 @@
         <v>185</v>
       </c>
       <c r="F1331" s="1" t="s">
-        <v>1714</v>
+        <v>1701</v>
       </c>
       <c r="G1331" s="1" t="s">
-        <v>1715</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1332" spans="1:7">
       <c r="A1332" s="49" t="s">
-        <v>1707</v>
+        <v>1694</v>
       </c>
       <c r="B1332"/>
       <c r="C1332" s="37"/>
@@ -35913,15 +35943,15 @@
         <v>185</v>
       </c>
       <c r="F1332" s="1" t="s">
-        <v>1714</v>
+        <v>1701</v>
       </c>
       <c r="G1332" s="1" t="s">
-        <v>1716</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1333" spans="1:7">
       <c r="A1333" s="49" t="s">
-        <v>1708</v>
+        <v>1695</v>
       </c>
       <c r="B1333"/>
       <c r="C1333" s="37"/>
@@ -35929,10 +35959,10 @@
         <v>185</v>
       </c>
       <c r="F1333" s="1" t="s">
-        <v>1714</v>
+        <v>1701</v>
       </c>
       <c r="G1333" s="1" t="s">
-        <v>1717</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1334" spans="1:7" ht="28.8">
@@ -35944,10 +35974,10 @@
         <v>185</v>
       </c>
       <c r="F1334" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1334" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1335" spans="1:7" ht="28.8">
@@ -35959,10 +35989,10 @@
         <v>185</v>
       </c>
       <c r="F1335" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1335" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1336" spans="1:7" ht="28.8">
@@ -35974,10 +36004,10 @@
         <v>185</v>
       </c>
       <c r="F1336" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1336" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1337" spans="1:7" ht="28.8">
@@ -35989,10 +36019,10 @@
         <v>185</v>
       </c>
       <c r="F1337" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1337" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1338" spans="1:7" ht="28.8">
@@ -36004,10 +36034,10 @@
         <v>185</v>
       </c>
       <c r="F1338" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1338" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1339" spans="1:7" ht="28.8">
@@ -36019,10 +36049,10 @@
         <v>185</v>
       </c>
       <c r="F1339" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1339" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1340" spans="1:7" ht="28.8">
@@ -36034,10 +36064,10 @@
         <v>185</v>
       </c>
       <c r="F1340" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1340" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1341" spans="1:7" ht="28.8">
@@ -36049,10 +36079,10 @@
         <v>185</v>
       </c>
       <c r="F1341" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1341" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1342" spans="1:7" ht="28.8">
@@ -36064,10 +36094,10 @@
         <v>185</v>
       </c>
       <c r="F1342" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1342" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1343" spans="1:7" ht="28.8">
@@ -36079,10 +36109,10 @@
         <v>185</v>
       </c>
       <c r="F1343" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1343" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1344" spans="1:7" ht="28.8">
@@ -36094,10 +36124,10 @@
         <v>185</v>
       </c>
       <c r="F1344" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1344" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1345" spans="1:7" ht="28.8">
@@ -36109,10 +36139,10 @@
         <v>185</v>
       </c>
       <c r="F1345" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1345" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1346" spans="1:7" ht="28.8">
@@ -36124,10 +36154,10 @@
         <v>185</v>
       </c>
       <c r="F1346" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1346" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1347" spans="1:7" ht="28.8">
@@ -36139,10 +36169,10 @@
         <v>185</v>
       </c>
       <c r="F1347" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1347" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1348" spans="1:7" ht="28.8">
@@ -36154,10 +36184,10 @@
         <v>185</v>
       </c>
       <c r="F1348" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1348" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1349" spans="1:7" ht="28.8">
@@ -36169,10 +36199,10 @@
         <v>185</v>
       </c>
       <c r="F1349" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1349" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1350" spans="1:7" ht="28.8">
@@ -36184,10 +36214,10 @@
         <v>185</v>
       </c>
       <c r="F1350" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1350" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1351" spans="1:7" ht="28.8">
@@ -36199,10 +36229,10 @@
         <v>185</v>
       </c>
       <c r="F1351" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1351" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1352" spans="1:7" ht="28.8">
@@ -36214,10 +36244,10 @@
         <v>185</v>
       </c>
       <c r="F1352" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1352" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1353" spans="1:7" ht="28.8">
@@ -36229,10 +36259,10 @@
         <v>185</v>
       </c>
       <c r="F1353" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1353" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1354" spans="1:7" ht="28.8">
@@ -36244,10 +36274,10 @@
         <v>185</v>
       </c>
       <c r="F1354" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1354" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1355" spans="1:7" ht="28.8">
@@ -36259,10 +36289,10 @@
         <v>185</v>
       </c>
       <c r="F1355" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1355" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1356" spans="1:7" ht="28.8">
@@ -36274,10 +36304,10 @@
         <v>185</v>
       </c>
       <c r="F1356" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1356" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1357" spans="1:7" ht="28.8">
@@ -36289,10 +36319,10 @@
         <v>185</v>
       </c>
       <c r="F1357" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1357" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1358" spans="1:7" ht="28.8">
@@ -36304,10 +36334,10 @@
         <v>185</v>
       </c>
       <c r="F1358" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1358" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1359" spans="1:7" ht="28.8">
@@ -36319,10 +36349,10 @@
         <v>185</v>
       </c>
       <c r="F1359" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1359" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1360" spans="1:7" ht="28.8">
@@ -36334,10 +36364,10 @@
         <v>185</v>
       </c>
       <c r="F1360" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1360" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1361" spans="1:7" ht="28.8">
@@ -36349,10 +36379,10 @@
         <v>185</v>
       </c>
       <c r="F1361" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1361" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1362" spans="1:7" ht="28.8">
@@ -36364,10 +36394,10 @@
         <v>185</v>
       </c>
       <c r="F1362" s="14" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="G1362" s="41" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1363" spans="1:7">
@@ -40632,7 +40662,7 @@
         <v>25</v>
       </c>
       <c r="B127" t="s">
-        <v>1718</v>
+        <v>1705</v>
       </c>
       <c r="C127">
         <v>949</v>
@@ -40652,7 +40682,7 @@
         <v>25</v>
       </c>
       <c r="B128" t="s">
-        <v>1719</v>
+        <v>1706</v>
       </c>
       <c r="C128">
         <v>950</v>
@@ -40672,7 +40702,7 @@
         <v>25</v>
       </c>
       <c r="B129" t="s">
-        <v>1720</v>
+        <v>1707</v>
       </c>
       <c r="C129">
         <v>1013</v>
@@ -40692,7 +40722,7 @@
         <v>25</v>
       </c>
       <c r="B130" t="s">
-        <v>1721</v>
+        <v>1708</v>
       </c>
       <c r="C130">
         <v>1016</v>
@@ -40712,7 +40742,7 @@
         <v>25</v>
       </c>
       <c r="B131" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="C131">
         <v>879</v>
@@ -40732,7 +40762,7 @@
         <v>25</v>
       </c>
       <c r="B132" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="C132">
         <v>879</v>
@@ -43152,7 +43182,7 @@
         <v>248</v>
       </c>
       <c r="B253" t="s">
-        <v>1706</v>
+        <v>1693</v>
       </c>
       <c r="C253">
         <v>3662</v>
@@ -43172,7 +43202,7 @@
         <v>248</v>
       </c>
       <c r="B254" t="s">
-        <v>1707</v>
+        <v>1694</v>
       </c>
       <c r="C254">
         <v>3726</v>
@@ -43192,7 +43222,7 @@
         <v>248</v>
       </c>
       <c r="B255" t="s">
-        <v>1708</v>
+        <v>1695</v>
       </c>
       <c r="C255">
         <v>3662</v>
@@ -46359,7 +46389,7 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -46504,10 +46534,10 @@
         <v>1655</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1">
@@ -46515,10 +46545,10 @@
         <v>1670</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1">
@@ -46526,10 +46556,10 @@
         <v>1668</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1">
@@ -46537,10 +46567,10 @@
         <v>1669</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -46889,10 +46919,10 @@
         <v>1633</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1750</v>
+        <v>1737</v>
       </c>
       <c r="C51" t="s">
-        <v>1751</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1">
@@ -46900,10 +46930,10 @@
         <v>1638</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
       <c r="C52" t="s">
-        <v>1749</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1">
@@ -46911,10 +46941,10 @@
         <v>1647</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
       <c r="C53" t="s">
-        <v>1749</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1">
@@ -46922,10 +46952,10 @@
         <v>1629</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
       <c r="C54" t="s">
-        <v>1749</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -47524,16 +47554,16 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
       <c r="B9" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
       <c r="C9" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="10" spans="1:4">

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75DECD1-58F8-4810-AF42-57BBA541F02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C6B8E7-73EF-42F8-9DD4-751D264D6133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -6564,9 +6564,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10123,11 +10123,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I2685"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D1315" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="A1326" sqref="A1326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6443C99A-D2C4-41F5-8640-1FCB400C74F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD66B51-45D1-4894-865A-B3A26207ECA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8325" uniqueCount="1842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8372" uniqueCount="1863">
   <si>
     <t>Name</t>
   </si>
@@ -5661,6 +5661,69 @@
     <t>This is Φ2 clock OUTPUT (CPU generates this signal)</t>
   </si>
   <si>
+    <t>Commodore shared files/Component images/C64 RF modulator.png</t>
+  </si>
+  <si>
+    <t>You need to measure this from the backside of motherboard</t>
+  </si>
+  <si>
+    <t>+B</t>
+  </si>
+  <si>
+    <t>Analog?</t>
+  </si>
+  <si>
+    <t>Note 2V/DIV</t>
+  </si>
+  <si>
+    <t>SYNC+LUM (INPUT)</t>
+  </si>
+  <si>
+    <t>Signal originates from VIC-II</t>
+  </si>
+  <si>
+    <t>COLOR (INPUT)</t>
+  </si>
+  <si>
+    <t>AUDIO (INPUT)</t>
+  </si>
+  <si>
+    <t>COMP. (OUTPUT)</t>
+  </si>
+  <si>
+    <t>SYNC+LUM (OUTPUT)</t>
+  </si>
+  <si>
+    <t>COLOR (OUTPUT)</t>
+  </si>
+  <si>
+    <t>INTER CARRIER SELECTOR</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/M1_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/M1_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/M1_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/M1_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/M1_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/M1_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/M1_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/M1_8_PAL.png</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -5673,7 +5736,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-20</t>
+      <t>2025-December-21</t>
     </r>
   </si>
 </sst>
@@ -5804,7 +5867,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5958,6 +6021,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6308,7 +6374,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>1841</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6350,12 +6416,12 @@
         <v>266</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="28.8">
       <c r="A9" s="22" t="s">
@@ -10139,7 +10205,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I2685"/>
+  <dimension ref="A1:I2694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
@@ -36091,7 +36157,7 @@
     </row>
     <row r="1326" spans="1:7">
       <c r="A1326" s="14" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="B1326" s="14"/>
       <c r="C1326" s="37"/>
@@ -36099,253 +36165,303 @@
         <v>176</v>
       </c>
       <c r="F1326" s="14" t="s">
-        <v>1697</v>
+        <v>1841</v>
+      </c>
+      <c r="G1326" s="1" t="s">
+        <v>1842</v>
       </c>
     </row>
     <row r="1327" spans="1:7">
       <c r="A1327" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1327" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1327" s="37">
+        <v>1</v>
+      </c>
+      <c r="D1327" s="56" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E1327" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F1327" s="14" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G1327" s="1" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:7">
+      <c r="A1328" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1328" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1328" s="37">
+        <v>2</v>
+      </c>
+      <c r="D1328" s="56" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E1328" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F1328" s="14" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G1328" s="1" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:7">
+      <c r="A1329" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1329" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1329" s="37">
+        <v>3</v>
+      </c>
+      <c r="D1329" s="56" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E1329" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F1329" s="14" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G1329" s="1" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7">
+      <c r="A1330" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1330" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1330" s="37">
+        <v>4</v>
+      </c>
+      <c r="D1330" s="56" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E1330" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F1330" s="14" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:7">
+      <c r="A1331" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1331" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1331" s="37">
+        <v>5</v>
+      </c>
+      <c r="D1331" s="56" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E1331" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F1331" s="14" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:7">
+      <c r="A1332" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1332" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1332" s="37">
+        <v>6</v>
+      </c>
+      <c r="D1332" s="56" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E1332" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F1332" s="14" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:7">
+      <c r="A1333" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1333" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1333" s="37">
+        <v>7</v>
+      </c>
+      <c r="D1333" s="56" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E1333" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F1333" s="14" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:7">
+      <c r="A1334" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1334" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1334" s="37">
+        <v>8</v>
+      </c>
+      <c r="D1334" s="56" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E1334" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F1334" s="14" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:7">
+      <c r="A1335" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B1327" s="14"/>
-      <c r="C1327" s="37"/>
-      <c r="D1327" s="14" t="s">
-        <v>1581</v>
-      </c>
-      <c r="F1327" s="14" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:7" ht="28.8">
-      <c r="A1328" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1328" s="14"/>
-      <c r="C1328" s="37"/>
-      <c r="D1328" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1328" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="G1328" s="1" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:7" ht="28.8">
-      <c r="A1329" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1329" s="14"/>
-      <c r="C1329" s="37"/>
-      <c r="D1329" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1329" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="G1329" s="1" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:7" ht="72">
-      <c r="A1330" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1330" s="14"/>
-      <c r="C1330" s="37"/>
-      <c r="D1330" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1330" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:7" ht="43.2">
-      <c r="A1331" s="14" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B1331" s="14"/>
-      <c r="C1331" s="37"/>
-      <c r="D1331" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1331" s="1" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G1331" s="1" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:7">
-      <c r="A1332" s="49" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B1332"/>
-      <c r="C1332" s="37"/>
-      <c r="D1332" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1332" s="1" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G1332" s="1" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:7">
-      <c r="A1333" s="49" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B1333"/>
-      <c r="C1333" s="37"/>
-      <c r="D1333" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1333" s="1" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G1333" s="1" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="1334" spans="1:7" ht="28.8">
-      <c r="A1334" s="16" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C1334" s="1"/>
-      <c r="D1334" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1334" s="14" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G1334" s="41" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:7" ht="28.8">
-      <c r="A1335" s="16" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C1335" s="1"/>
+      <c r="B1335" s="14"/>
+      <c r="C1335" s="37"/>
       <c r="D1335" s="14" t="s">
         <v>176</v>
       </c>
       <c r="F1335" s="14" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G1335" s="41" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:7" ht="28.8">
-      <c r="A1336" s="16" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C1336" s="1"/>
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:7">
+      <c r="A1336" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1336" s="14"/>
+      <c r="C1336" s="37"/>
       <c r="D1336" s="14" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F1336" s="14" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:7" ht="28.8">
+      <c r="A1337" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1337" s="14"/>
+      <c r="C1337" s="37"/>
+      <c r="D1337" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F1336" s="14" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G1336" s="41" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:7" ht="28.8">
-      <c r="A1337" s="16" t="s">
-        <v>1608</v>
-      </c>
-      <c r="C1337" s="1"/>
-      <c r="D1337" s="14" t="s">
+      <c r="F1337" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1337" s="1" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:7" ht="28.8">
+      <c r="A1338" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1338" s="14"/>
+      <c r="C1338" s="37"/>
+      <c r="D1338" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F1337" s="14" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G1337" s="41" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:7" ht="28.8">
-      <c r="A1338" s="16" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C1338" s="1"/>
-      <c r="D1338" s="14" t="s">
+      <c r="F1338" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1338" s="1" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:7" ht="72">
+      <c r="A1339" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1339" s="14"/>
+      <c r="C1339" s="37"/>
+      <c r="D1339" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F1338" s="14" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G1338" s="41" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:7" ht="28.8">
-      <c r="A1339" s="16" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C1339" s="1"/>
-      <c r="D1339" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1339" s="14" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G1339" s="41" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:7" ht="28.8">
-      <c r="A1340" s="16" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C1340" s="1"/>
+      <c r="G1339" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:7" ht="43.2">
+      <c r="A1340" s="14" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B1340" s="14"/>
+      <c r="C1340" s="37"/>
       <c r="D1340" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F1340" s="14" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G1340" s="41" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="1341" spans="1:7" ht="28.8">
-      <c r="A1341" s="16" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C1341" s="1"/>
+      <c r="F1340" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G1340" s="1" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:7">
+      <c r="A1341" s="49" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1341"/>
+      <c r="C1341" s="37"/>
       <c r="D1341" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F1341" s="14" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G1341" s="41" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="1342" spans="1:7" ht="28.8">
-      <c r="A1342" s="16" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C1342" s="1"/>
+      <c r="F1341" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G1341" s="1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:7">
+      <c r="A1342" s="49" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B1342"/>
+      <c r="C1342" s="37"/>
       <c r="D1342" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F1342" s="14" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G1342" s="41" t="s">
-        <v>1700</v>
+      <c r="F1342" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G1342" s="1" t="s">
+        <v>1682</v>
       </c>
     </row>
     <row r="1343" spans="1:7" ht="28.8">
       <c r="A1343" s="16" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="C1343" s="1"/>
       <c r="D1343" s="14" t="s">
@@ -36360,7 +36476,7 @@
     </row>
     <row r="1344" spans="1:7" ht="28.8">
       <c r="A1344" s="16" t="s">
-        <v>1620</v>
+        <v>1609</v>
       </c>
       <c r="C1344" s="1"/>
       <c r="D1344" s="14" t="s">
@@ -36375,7 +36491,7 @@
     </row>
     <row r="1345" spans="1:7" ht="28.8">
       <c r="A1345" s="16" t="s">
-        <v>1629</v>
+        <v>1618</v>
       </c>
       <c r="C1345" s="1"/>
       <c r="D1345" s="14" t="s">
@@ -36390,7 +36506,7 @@
     </row>
     <row r="1346" spans="1:7" ht="28.8">
       <c r="A1346" s="16" t="s">
-        <v>1621</v>
+        <v>1608</v>
       </c>
       <c r="C1346" s="1"/>
       <c r="D1346" s="14" t="s">
@@ -36405,7 +36521,7 @@
     </row>
     <row r="1347" spans="1:7" ht="28.8">
       <c r="A1347" s="16" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="C1347" s="1"/>
       <c r="D1347" s="14" t="s">
@@ -36420,7 +36536,7 @@
     </row>
     <row r="1348" spans="1:7" ht="28.8">
       <c r="A1348" s="16" t="s">
-        <v>1623</v>
+        <v>1613</v>
       </c>
       <c r="C1348" s="1"/>
       <c r="D1348" s="14" t="s">
@@ -36435,7 +36551,7 @@
     </row>
     <row r="1349" spans="1:7" ht="28.8">
       <c r="A1349" s="16" t="s">
-        <v>1631</v>
+        <v>1614</v>
       </c>
       <c r="C1349" s="1"/>
       <c r="D1349" s="14" t="s">
@@ -36450,7 +36566,7 @@
     </row>
     <row r="1350" spans="1:7" ht="28.8">
       <c r="A1350" s="16" t="s">
-        <v>1637</v>
+        <v>1626</v>
       </c>
       <c r="C1350" s="1"/>
       <c r="D1350" s="14" t="s">
@@ -36465,7 +36581,7 @@
     </row>
     <row r="1351" spans="1:7" ht="28.8">
       <c r="A1351" s="16" t="s">
-        <v>1617</v>
+        <v>1630</v>
       </c>
       <c r="C1351" s="1"/>
       <c r="D1351" s="14" t="s">
@@ -36480,7 +36596,7 @@
     </row>
     <row r="1352" spans="1:7" ht="28.8">
       <c r="A1352" s="16" t="s">
-        <v>1645</v>
+        <v>1619</v>
       </c>
       <c r="C1352" s="1"/>
       <c r="D1352" s="14" t="s">
@@ -36495,7 +36611,7 @@
     </row>
     <row r="1353" spans="1:7" ht="28.8">
       <c r="A1353" s="16" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="C1353" s="1"/>
       <c r="D1353" s="14" t="s">
@@ -36510,7 +36626,7 @@
     </row>
     <row r="1354" spans="1:7" ht="28.8">
       <c r="A1354" s="16" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="C1354" s="1"/>
       <c r="D1354" s="14" t="s">
@@ -36525,7 +36641,7 @@
     </row>
     <row r="1355" spans="1:7" ht="28.8">
       <c r="A1355" s="16" t="s">
-        <v>1641</v>
+        <v>1621</v>
       </c>
       <c r="C1355" s="1"/>
       <c r="D1355" s="14" t="s">
@@ -36540,7 +36656,7 @@
     </row>
     <row r="1356" spans="1:7" ht="28.8">
       <c r="A1356" s="16" t="s">
-        <v>1642</v>
+        <v>1628</v>
       </c>
       <c r="C1356" s="1"/>
       <c r="D1356" s="14" t="s">
@@ -36555,7 +36671,7 @@
     </row>
     <row r="1357" spans="1:7" ht="28.8">
       <c r="A1357" s="16" t="s">
-        <v>1643</v>
+        <v>1623</v>
       </c>
       <c r="C1357" s="1"/>
       <c r="D1357" s="14" t="s">
@@ -36570,7 +36686,7 @@
     </row>
     <row r="1358" spans="1:7" ht="28.8">
       <c r="A1358" s="16" t="s">
-        <v>1624</v>
+        <v>1631</v>
       </c>
       <c r="C1358" s="1"/>
       <c r="D1358" s="14" t="s">
@@ -36585,7 +36701,7 @@
     </row>
     <row r="1359" spans="1:7" ht="28.8">
       <c r="A1359" s="16" t="s">
-        <v>1627</v>
+        <v>1637</v>
       </c>
       <c r="C1359" s="1"/>
       <c r="D1359" s="14" t="s">
@@ -36600,7 +36716,7 @@
     </row>
     <row r="1360" spans="1:7" ht="28.8">
       <c r="A1360" s="16" t="s">
-        <v>1635</v>
+        <v>1617</v>
       </c>
       <c r="C1360" s="1"/>
       <c r="D1360" s="14" t="s">
@@ -36615,7 +36731,7 @@
     </row>
     <row r="1361" spans="1:7" ht="28.8">
       <c r="A1361" s="16" t="s">
-        <v>1610</v>
+        <v>1645</v>
       </c>
       <c r="C1361" s="1"/>
       <c r="D1361" s="14" t="s">
@@ -36630,7 +36746,7 @@
     </row>
     <row r="1362" spans="1:7" ht="28.8">
       <c r="A1362" s="16" t="s">
-        <v>1634</v>
+        <v>1622</v>
       </c>
       <c r="C1362" s="1"/>
       <c r="D1362" s="14" t="s">
@@ -36643,70 +36759,160 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="1363" spans="1:7">
-      <c r="A1363" s="26"/>
-      <c r="B1363" s="26"/>
-      <c r="C1363" s="33"/>
-    </row>
-    <row r="1364" spans="1:7">
-      <c r="A1364" s="46"/>
-      <c r="B1364"/>
-      <c r="C1364" s="4"/>
-    </row>
-    <row r="1365" spans="1:7">
-      <c r="A1365" s="47"/>
-      <c r="B1365" s="27"/>
-      <c r="C1365" s="50"/>
-    </row>
-    <row r="1366" spans="1:7">
-      <c r="A1366" s="46"/>
-      <c r="B1366"/>
-      <c r="C1366" s="4"/>
-    </row>
-    <row r="1367" spans="1:7">
-      <c r="A1367" s="14"/>
-      <c r="B1367" s="14"/>
-      <c r="C1367" s="37"/>
-    </row>
-    <row r="1368" spans="1:7">
-      <c r="A1368" s="14"/>
-      <c r="B1368" s="14"/>
-      <c r="C1368" s="37"/>
-    </row>
-    <row r="1369" spans="1:7">
-      <c r="A1369" s="28"/>
-      <c r="B1369" s="28"/>
-      <c r="C1369" s="38"/>
-    </row>
-    <row r="1370" spans="1:7">
-      <c r="A1370" s="14"/>
-      <c r="B1370" s="14"/>
-      <c r="C1370" s="37"/>
-    </row>
-    <row r="1371" spans="1:7">
-      <c r="A1371" s="14"/>
-      <c r="B1371" s="14"/>
-      <c r="C1371" s="37"/>
+    <row r="1363" spans="1:7" ht="28.8">
+      <c r="A1363" s="16" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C1363" s="1"/>
+      <c r="D1363" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1363" s="14" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G1363" s="41" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:7" ht="28.8">
+      <c r="A1364" s="16" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C1364" s="1"/>
+      <c r="D1364" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1364" s="14" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G1364" s="41" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:7" ht="28.8">
+      <c r="A1365" s="16" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C1365" s="1"/>
+      <c r="D1365" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1365" s="14" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G1365" s="41" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:7" ht="28.8">
+      <c r="A1366" s="16" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C1366" s="1"/>
+      <c r="D1366" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1366" s="14" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G1366" s="41" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:7" ht="28.8">
+      <c r="A1367" s="16" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C1367" s="1"/>
+      <c r="D1367" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1367" s="14" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G1367" s="41" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:7" ht="28.8">
+      <c r="A1368" s="16" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C1368" s="1"/>
+      <c r="D1368" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1368" s="14" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G1368" s="41" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:7" ht="28.8">
+      <c r="A1369" s="16" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C1369" s="1"/>
+      <c r="D1369" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1369" s="14" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G1369" s="41" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:7" ht="28.8">
+      <c r="A1370" s="16" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C1370" s="1"/>
+      <c r="D1370" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1370" s="14" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G1370" s="41" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:7" ht="28.8">
+      <c r="A1371" s="16" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C1371" s="1"/>
+      <c r="D1371" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1371" s="14" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G1371" s="41" t="s">
+        <v>1700</v>
+      </c>
     </row>
     <row r="1372" spans="1:7">
-      <c r="A1372" s="14"/>
-      <c r="B1372" s="14"/>
-      <c r="C1372" s="37"/>
+      <c r="A1372" s="26"/>
+      <c r="B1372" s="26"/>
+      <c r="C1372" s="33"/>
     </row>
     <row r="1373" spans="1:7">
-      <c r="A1373" s="28"/>
-      <c r="B1373" s="28"/>
-      <c r="C1373" s="38"/>
+      <c r="A1373" s="46"/>
+      <c r="B1373"/>
+      <c r="C1373" s="4"/>
     </row>
     <row r="1374" spans="1:7">
-      <c r="A1374" s="14"/>
-      <c r="B1374" s="14"/>
-      <c r="C1374" s="37"/>
+      <c r="A1374" s="47"/>
+      <c r="B1374" s="27"/>
+      <c r="C1374" s="50"/>
     </row>
     <row r="1375" spans="1:7">
-      <c r="A1375" s="14"/>
-      <c r="B1375" s="14"/>
-      <c r="C1375" s="37"/>
+      <c r="A1375" s="46"/>
+      <c r="B1375"/>
+      <c r="C1375" s="4"/>
     </row>
     <row r="1376" spans="1:7">
       <c r="A1376" s="14"/>
@@ -36719,9 +36925,9 @@
       <c r="C1377" s="37"/>
     </row>
     <row r="1378" spans="1:3">
-      <c r="A1378" s="14"/>
-      <c r="B1378" s="14"/>
-      <c r="C1378" s="37"/>
+      <c r="A1378" s="28"/>
+      <c r="B1378" s="28"/>
+      <c r="C1378" s="38"/>
     </row>
     <row r="1379" spans="1:3">
       <c r="A1379" s="14"/>
@@ -36739,9 +36945,9 @@
       <c r="C1381" s="37"/>
     </row>
     <row r="1382" spans="1:3">
-      <c r="A1382" s="14"/>
-      <c r="B1382" s="14"/>
-      <c r="C1382" s="37"/>
+      <c r="A1382" s="28"/>
+      <c r="B1382" s="28"/>
+      <c r="C1382" s="38"/>
     </row>
     <row r="1383" spans="1:3">
       <c r="A1383" s="14"/>
@@ -36788,75 +36994,84 @@
       <c r="B1391" s="14"/>
       <c r="C1391" s="37"/>
     </row>
-    <row r="1518" spans="5:5">
-      <c r="E1518" s="41"/>
-    </row>
-    <row r="1519" spans="5:5">
-      <c r="E1519" s="41"/>
-    </row>
-    <row r="1520" spans="5:5">
-      <c r="E1520" s="41"/>
-    </row>
-    <row r="1521" spans="5:7">
-      <c r="E1521" s="41"/>
-    </row>
-    <row r="1522" spans="5:7">
-      <c r="E1522" s="41"/>
-    </row>
-    <row r="1523" spans="5:7">
-      <c r="E1523" s="41"/>
-    </row>
-    <row r="1524" spans="5:7">
-      <c r="E1524" s="41"/>
-    </row>
-    <row r="1534" spans="5:7">
-      <c r="E1534" s="41"/>
-    </row>
-    <row r="1536" spans="5:7">
-      <c r="E1536" s="41"/>
-      <c r="G1536" s="41"/>
-    </row>
-    <row r="1537" spans="5:7">
-      <c r="G1537" s="41"/>
-    </row>
-    <row r="1538" spans="5:7">
-      <c r="E1538" s="42"/>
-      <c r="G1538" s="41"/>
-    </row>
-    <row r="1539" spans="5:7">
-      <c r="E1539" s="41"/>
-      <c r="G1539" s="41"/>
-    </row>
-    <row r="1540" spans="5:7">
-      <c r="E1540" s="41"/>
-      <c r="G1540" s="41"/>
-    </row>
-    <row r="1541" spans="5:7">
-      <c r="E1541" s="41"/>
-      <c r="G1541" s="41"/>
-    </row>
-    <row r="1542" spans="5:7">
-      <c r="E1542" s="41"/>
-      <c r="G1542" s="41"/>
+    <row r="1392" spans="1:3">
+      <c r="A1392" s="14"/>
+      <c r="B1392" s="14"/>
+      <c r="C1392" s="37"/>
+    </row>
+    <row r="1393" spans="1:3">
+      <c r="A1393" s="14"/>
+      <c r="B1393" s="14"/>
+      <c r="C1393" s="37"/>
+    </row>
+    <row r="1394" spans="1:3">
+      <c r="A1394" s="14"/>
+      <c r="B1394" s="14"/>
+      <c r="C1394" s="37"/>
+    </row>
+    <row r="1395" spans="1:3">
+      <c r="A1395" s="14"/>
+      <c r="B1395" s="14"/>
+      <c r="C1395" s="37"/>
+    </row>
+    <row r="1396" spans="1:3">
+      <c r="A1396" s="14"/>
+      <c r="B1396" s="14"/>
+      <c r="C1396" s="37"/>
+    </row>
+    <row r="1397" spans="1:3">
+      <c r="A1397" s="14"/>
+      <c r="B1397" s="14"/>
+      <c r="C1397" s="37"/>
+    </row>
+    <row r="1398" spans="1:3">
+      <c r="A1398" s="14"/>
+      <c r="B1398" s="14"/>
+      <c r="C1398" s="37"/>
+    </row>
+    <row r="1399" spans="1:3">
+      <c r="A1399" s="14"/>
+      <c r="B1399" s="14"/>
+      <c r="C1399" s="37"/>
+    </row>
+    <row r="1400" spans="1:3">
+      <c r="A1400" s="14"/>
+      <c r="B1400" s="14"/>
+      <c r="C1400" s="37"/>
+    </row>
+    <row r="1527" spans="5:5">
+      <c r="E1527" s="41"/>
+    </row>
+    <row r="1528" spans="5:5">
+      <c r="E1528" s="41"/>
+    </row>
+    <row r="1529" spans="5:5">
+      <c r="E1529" s="41"/>
+    </row>
+    <row r="1530" spans="5:5">
+      <c r="E1530" s="41"/>
+    </row>
+    <row r="1531" spans="5:5">
+      <c r="E1531" s="41"/>
+    </row>
+    <row r="1532" spans="5:5">
+      <c r="E1532" s="41"/>
+    </row>
+    <row r="1533" spans="5:5">
+      <c r="E1533" s="41"/>
     </row>
     <row r="1543" spans="5:7">
       <c r="E1543" s="41"/>
-      <c r="G1543" s="41"/>
-    </row>
-    <row r="1544" spans="5:7">
-      <c r="E1544" s="43"/>
-      <c r="G1544" s="41"/>
     </row>
     <row r="1545" spans="5:7">
       <c r="E1545" s="41"/>
       <c r="G1545" s="41"/>
     </row>
     <row r="1546" spans="5:7">
-      <c r="E1546" s="41"/>
       <c r="G1546" s="41"/>
     </row>
     <row r="1547" spans="5:7">
-      <c r="E1547" s="41"/>
+      <c r="E1547" s="42"/>
       <c r="G1547" s="41"/>
     </row>
     <row r="1548" spans="5:7">
@@ -36880,7 +37095,7 @@
       <c r="G1552" s="41"/>
     </row>
     <row r="1553" spans="5:7">
-      <c r="E1553" s="41"/>
+      <c r="E1553" s="43"/>
       <c r="G1553" s="41"/>
     </row>
     <row r="1554" spans="5:7">
@@ -37003,35 +37218,44 @@
       <c r="E1583" s="41"/>
       <c r="G1583" s="41"/>
     </row>
+    <row r="1584" spans="5:7">
+      <c r="E1584" s="41"/>
+      <c r="G1584" s="41"/>
+    </row>
+    <row r="1585" spans="5:7">
+      <c r="E1585" s="41"/>
+      <c r="G1585" s="41"/>
+    </row>
+    <row r="1586" spans="5:7">
+      <c r="E1586" s="41"/>
+      <c r="G1586" s="41"/>
+    </row>
+    <row r="1587" spans="5:7">
+      <c r="E1587" s="41"/>
+      <c r="G1587" s="41"/>
+    </row>
+    <row r="1588" spans="5:7">
+      <c r="E1588" s="41"/>
+      <c r="G1588" s="41"/>
+    </row>
+    <row r="1589" spans="5:7">
+      <c r="E1589" s="41"/>
+      <c r="G1589" s="41"/>
+    </row>
+    <row r="1590" spans="5:7">
+      <c r="E1590" s="41"/>
+      <c r="G1590" s="41"/>
+    </row>
     <row r="1591" spans="5:7">
       <c r="E1591" s="41"/>
+      <c r="G1591" s="41"/>
+    </row>
+    <row r="1592" spans="5:7">
+      <c r="E1592" s="41"/>
+      <c r="G1592" s="41"/>
     </row>
     <row r="1600" spans="5:7">
-      <c r="G1600" s="41"/>
-    </row>
-    <row r="1601" spans="7:7">
-      <c r="G1601" s="41"/>
-    </row>
-    <row r="1602" spans="7:7">
-      <c r="G1602" s="41"/>
-    </row>
-    <row r="1603" spans="7:7">
-      <c r="G1603" s="41"/>
-    </row>
-    <row r="1604" spans="7:7">
-      <c r="G1604" s="41"/>
-    </row>
-    <row r="1605" spans="7:7">
-      <c r="G1605" s="41"/>
-    </row>
-    <row r="1606" spans="7:7">
-      <c r="G1606" s="41"/>
-    </row>
-    <row r="1607" spans="7:7">
-      <c r="G1607" s="41"/>
-    </row>
-    <row r="1608" spans="7:7">
-      <c r="G1608" s="41"/>
+      <c r="E1600" s="41"/>
     </row>
     <row r="1609" spans="7:7">
       <c r="G1609" s="41"/>
@@ -37048,33 +37272,48 @@
     <row r="1613" spans="7:7">
       <c r="G1613" s="41"/>
     </row>
-    <row r="1643" spans="5:5">
-      <c r="E1643" s="41"/>
-    </row>
-    <row r="1662" spans="5:5">
-      <c r="E1662" s="41"/>
-    </row>
-    <row r="1663" spans="5:5">
-      <c r="E1663" s="41"/>
-    </row>
-    <row r="1666" spans="5:5">
-      <c r="E1666" s="41"/>
-    </row>
-    <row r="1667" spans="5:5">
-      <c r="E1667" s="41"/>
-    </row>
-    <row r="1668" spans="5:5">
-      <c r="E1668" s="41"/>
-    </row>
-    <row r="1669" spans="5:5">
-      <c r="E1669" s="41"/>
-    </row>
-    <row r="1670" spans="5:5">
-      <c r="E1670" s="41"/>
+    <row r="1614" spans="7:7">
+      <c r="G1614" s="41"/>
+    </row>
+    <row r="1615" spans="7:7">
+      <c r="G1615" s="41"/>
+    </row>
+    <row r="1616" spans="7:7">
+      <c r="G1616" s="41"/>
+    </row>
+    <row r="1617" spans="7:7">
+      <c r="G1617" s="41"/>
+    </row>
+    <row r="1618" spans="7:7">
+      <c r="G1618" s="41"/>
+    </row>
+    <row r="1619" spans="7:7">
+      <c r="G1619" s="41"/>
+    </row>
+    <row r="1620" spans="7:7">
+      <c r="G1620" s="41"/>
+    </row>
+    <row r="1621" spans="7:7">
+      <c r="G1621" s="41"/>
+    </row>
+    <row r="1622" spans="7:7">
+      <c r="G1622" s="41"/>
+    </row>
+    <row r="1652" spans="5:5">
+      <c r="E1652" s="41"/>
     </row>
     <row r="1671" spans="5:5">
       <c r="E1671" s="41"/>
     </row>
+    <row r="1672" spans="5:5">
+      <c r="E1672" s="41"/>
+    </row>
+    <row r="1675" spans="5:5">
+      <c r="E1675" s="41"/>
+    </row>
+    <row r="1676" spans="5:5">
+      <c r="E1676" s="41"/>
+    </row>
     <row r="1677" spans="5:5">
       <c r="E1677" s="41"/>
     </row>
@@ -37087,18 +37326,6 @@
     <row r="1680" spans="5:5">
       <c r="E1680" s="41"/>
     </row>
-    <row r="1681" spans="5:5">
-      <c r="E1681" s="41"/>
-    </row>
-    <row r="1682" spans="5:5">
-      <c r="E1682" s="41"/>
-    </row>
-    <row r="1683" spans="5:5">
-      <c r="E1683" s="41"/>
-    </row>
-    <row r="1685" spans="5:5">
-      <c r="E1685" s="41"/>
-    </row>
     <row r="1686" spans="5:5">
       <c r="E1686" s="41"/>
     </row>
@@ -37108,81 +37335,80 @@
     <row r="1688" spans="5:5">
       <c r="E1688" s="41"/>
     </row>
+    <row r="1689" spans="5:5">
+      <c r="E1689" s="41"/>
+    </row>
+    <row r="1690" spans="5:5">
+      <c r="E1690" s="41"/>
+    </row>
+    <row r="1691" spans="5:5">
+      <c r="E1691" s="41"/>
+    </row>
     <row r="1692" spans="5:5">
       <c r="E1692" s="41"/>
     </row>
-    <row r="1699" spans="5:5">
-      <c r="E1699" s="41"/>
-    </row>
-    <row r="1703" spans="5:5">
-      <c r="E1703" s="41"/>
-    </row>
-    <row r="1714" spans="5:7">
-      <c r="E1714" s="41"/>
-    </row>
-    <row r="1724" spans="5:7">
-      <c r="E1724" s="41"/>
-    </row>
-    <row r="1726" spans="5:7">
-      <c r="G1726" s="41"/>
-    </row>
-    <row r="1727" spans="5:7">
-      <c r="G1727" s="41"/>
-    </row>
-    <row r="1728" spans="5:7">
-      <c r="G1728" s="41"/>
-    </row>
-    <row r="1729" spans="7:7">
-      <c r="G1729" s="41"/>
-    </row>
-    <row r="1730" spans="7:7">
-      <c r="G1730" s="41"/>
-    </row>
-    <row r="1731" spans="7:7">
-      <c r="G1731" s="41"/>
-    </row>
-    <row r="1732" spans="7:7">
-      <c r="G1732" s="41"/>
-    </row>
-    <row r="1733" spans="7:7">
-      <c r="G1733" s="41"/>
-    </row>
-    <row r="1734" spans="7:7">
-      <c r="G1734" s="41"/>
-    </row>
-    <row r="1735" spans="7:7">
+    <row r="1694" spans="5:5">
+      <c r="E1694" s="41"/>
+    </row>
+    <row r="1695" spans="5:5">
+      <c r="E1695" s="41"/>
+    </row>
+    <row r="1696" spans="5:5">
+      <c r="E1696" s="41"/>
+    </row>
+    <row r="1697" spans="5:5">
+      <c r="E1697" s="41"/>
+    </row>
+    <row r="1701" spans="5:5">
+      <c r="E1701" s="41"/>
+    </row>
+    <row r="1708" spans="5:5">
+      <c r="E1708" s="41"/>
+    </row>
+    <row r="1712" spans="5:5">
+      <c r="E1712" s="41"/>
+    </row>
+    <row r="1723" spans="5:5">
+      <c r="E1723" s="41"/>
+    </row>
+    <row r="1733" spans="5:7">
+      <c r="E1733" s="41"/>
+    </row>
+    <row r="1735" spans="5:7">
       <c r="G1735" s="41"/>
     </row>
-    <row r="1736" spans="7:7">
+    <row r="1736" spans="5:7">
       <c r="G1736" s="41"/>
     </row>
-    <row r="1737" spans="7:7">
+    <row r="1737" spans="5:7">
       <c r="G1737" s="41"/>
     </row>
-    <row r="1738" spans="7:7">
+    <row r="1738" spans="5:7">
       <c r="G1738" s="41"/>
     </row>
-    <row r="1739" spans="7:7">
+    <row r="1739" spans="5:7">
       <c r="G1739" s="41"/>
     </row>
-    <row r="1740" spans="7:7">
+    <row r="1740" spans="5:7">
       <c r="G1740" s="41"/>
     </row>
-    <row r="1741" spans="7:7">
+    <row r="1741" spans="5:7">
       <c r="G1741" s="41"/>
     </row>
-    <row r="1742" spans="7:7">
+    <row r="1742" spans="5:7">
       <c r="G1742" s="41"/>
     </row>
-    <row r="1743" spans="7:7">
+    <row r="1743" spans="5:7">
       <c r="G1743" s="41"/>
     </row>
-    <row r="1744" spans="7:7">
+    <row r="1744" spans="5:7">
       <c r="G1744" s="41"/>
     </row>
     <row r="1745" spans="5:7">
-      <c r="E1745" s="41"/>
       <c r="G1745" s="41"/>
+    </row>
+    <row r="1746" spans="5:7">
+      <c r="G1746" s="41"/>
     </row>
     <row r="1747" spans="5:7">
       <c r="G1747" s="41"/>
@@ -37209,9 +37435,6 @@
       <c r="E1754" s="41"/>
       <c r="G1754" s="41"/>
     </row>
-    <row r="1755" spans="5:7">
-      <c r="G1755" s="41"/>
-    </row>
     <row r="1756" spans="5:7">
       <c r="G1756" s="41"/>
     </row>
@@ -37231,8 +37454,11 @@
       <c r="G1761" s="41"/>
     </row>
     <row r="1762" spans="5:7">
-      <c r="E1762" s="41"/>
       <c r="G1762" s="41"/>
+    </row>
+    <row r="1763" spans="5:7">
+      <c r="E1763" s="41"/>
+      <c r="G1763" s="41"/>
     </row>
     <row r="1764" spans="5:7">
       <c r="G1764" s="41"/>
@@ -37259,9 +37485,6 @@
       <c r="E1771" s="41"/>
       <c r="G1771" s="41"/>
     </row>
-    <row r="1772" spans="5:7">
-      <c r="G1772" s="41"/>
-    </row>
     <row r="1773" spans="5:7">
       <c r="G1773" s="41"/>
     </row>
@@ -37281,60 +37504,61 @@
       <c r="G1778" s="41"/>
     </row>
     <row r="1779" spans="5:7">
-      <c r="E1779" s="41"/>
       <c r="G1779" s="41"/>
     </row>
+    <row r="1780" spans="5:7">
+      <c r="E1780" s="41"/>
+      <c r="G1780" s="41"/>
+    </row>
+    <row r="1781" spans="5:7">
+      <c r="G1781" s="41"/>
+    </row>
+    <row r="1782" spans="5:7">
+      <c r="G1782" s="41"/>
+    </row>
+    <row r="1783" spans="5:7">
+      <c r="G1783" s="41"/>
+    </row>
+    <row r="1784" spans="5:7">
+      <c r="G1784" s="41"/>
+    </row>
+    <row r="1785" spans="5:7">
+      <c r="G1785" s="41"/>
+    </row>
+    <row r="1786" spans="5:7">
+      <c r="G1786" s="41"/>
+    </row>
     <row r="1787" spans="5:7">
-      <c r="E1787" s="41"/>
-    </row>
-    <row r="1794" spans="5:5">
-      <c r="E1794" s="41"/>
-    </row>
-    <row r="1810" spans="5:5">
-      <c r="E1810" s="42"/>
-    </row>
-    <row r="1811" spans="5:5">
-      <c r="E1811" s="42"/>
-    </row>
-    <row r="1814" spans="5:5">
-      <c r="E1814" s="42"/>
-    </row>
-    <row r="1815" spans="5:5">
-      <c r="E1815" s="41"/>
-    </row>
-    <row r="1828" spans="5:5">
-      <c r="E1828" s="41"/>
-    </row>
-    <row r="1840" spans="5:5">
-      <c r="E1840" s="41"/>
-    </row>
-    <row r="1844" spans="5:5">
-      <c r="E1844" s="41"/>
-    </row>
-    <row r="1845" spans="5:5">
-      <c r="E1845" s="41"/>
-    </row>
-    <row r="1846" spans="5:5">
-      <c r="E1846" s="41"/>
-    </row>
-    <row r="1847" spans="5:5">
-      <c r="E1847" s="41"/>
-    </row>
-    <row r="1848" spans="5:5">
-      <c r="E1848" s="41"/>
+      <c r="G1787" s="41"/>
+    </row>
+    <row r="1788" spans="5:7">
+      <c r="E1788" s="41"/>
+      <c r="G1788" s="41"/>
+    </row>
+    <row r="1796" spans="5:5">
+      <c r="E1796" s="41"/>
+    </row>
+    <row r="1803" spans="5:5">
+      <c r="E1803" s="41"/>
+    </row>
+    <row r="1819" spans="5:5">
+      <c r="E1819" s="42"/>
+    </row>
+    <row r="1820" spans="5:5">
+      <c r="E1820" s="42"/>
+    </row>
+    <row r="1823" spans="5:5">
+      <c r="E1823" s="42"/>
+    </row>
+    <row r="1824" spans="5:5">
+      <c r="E1824" s="41"/>
+    </row>
+    <row r="1837" spans="5:5">
+      <c r="E1837" s="41"/>
     </row>
     <row r="1849" spans="5:5">
       <c r="E1849" s="41"/>
     </row>
-    <row r="1850" spans="5:5">
-      <c r="E1850" s="41"/>
-    </row>
-    <row r="1851" spans="5:5">
-      <c r="E1851" s="41"/>
-    </row>
-    <row r="1852" spans="5:5">
-      <c r="E1852" s="41"/>
-    </row>
     <row r="1853" spans="5:5">
       <c r="E1853" s="41"/>
     </row>
@@ -37347,65 +37571,65 @@
     <row r="1856" spans="5:5">
       <c r="E1856" s="41"/>
     </row>
-    <row r="1857" spans="5:7">
+    <row r="1857" spans="5:5">
       <c r="E1857" s="41"/>
     </row>
-    <row r="1858" spans="5:7">
+    <row r="1858" spans="5:5">
       <c r="E1858" s="41"/>
     </row>
-    <row r="1859" spans="5:7">
+    <row r="1859" spans="5:5">
       <c r="E1859" s="41"/>
     </row>
-    <row r="1860" spans="5:7">
+    <row r="1860" spans="5:5">
       <c r="E1860" s="41"/>
     </row>
-    <row r="1861" spans="5:7">
+    <row r="1861" spans="5:5">
       <c r="E1861" s="41"/>
     </row>
-    <row r="1862" spans="5:7">
+    <row r="1862" spans="5:5">
       <c r="E1862" s="41"/>
     </row>
-    <row r="1863" spans="5:7">
+    <row r="1863" spans="5:5">
       <c r="E1863" s="41"/>
     </row>
-    <row r="1864" spans="5:7">
+    <row r="1864" spans="5:5">
       <c r="E1864" s="41"/>
     </row>
-    <row r="1865" spans="5:7">
+    <row r="1865" spans="5:5">
       <c r="E1865" s="41"/>
     </row>
-    <row r="1866" spans="5:7">
+    <row r="1866" spans="5:5">
       <c r="E1866" s="41"/>
     </row>
-    <row r="1867" spans="5:7">
+    <row r="1867" spans="5:5">
       <c r="E1867" s="41"/>
     </row>
-    <row r="1869" spans="5:7">
-      <c r="G1869" s="41"/>
-    </row>
-    <row r="1870" spans="5:7">
-      <c r="G1870" s="41"/>
-    </row>
-    <row r="1871" spans="5:7">
-      <c r="G1871" s="41"/>
-    </row>
-    <row r="1872" spans="5:7">
-      <c r="G1872" s="41"/>
+    <row r="1868" spans="5:5">
+      <c r="E1868" s="41"/>
+    </row>
+    <row r="1869" spans="5:5">
+      <c r="E1869" s="41"/>
+    </row>
+    <row r="1870" spans="5:5">
+      <c r="E1870" s="41"/>
+    </row>
+    <row r="1871" spans="5:5">
+      <c r="E1871" s="41"/>
+    </row>
+    <row r="1872" spans="5:5">
+      <c r="E1872" s="41"/>
     </row>
     <row r="1873" spans="5:7">
-      <c r="G1873" s="41"/>
+      <c r="E1873" s="41"/>
     </row>
     <row r="1874" spans="5:7">
-      <c r="G1874" s="41"/>
+      <c r="E1874" s="41"/>
     </row>
     <row r="1875" spans="5:7">
-      <c r="G1875" s="41"/>
+      <c r="E1875" s="41"/>
     </row>
     <row r="1876" spans="5:7">
-      <c r="G1876" s="41"/>
-    </row>
-    <row r="1877" spans="5:7">
-      <c r="G1877" s="41"/>
+      <c r="E1876" s="41"/>
     </row>
     <row r="1878" spans="5:7">
       <c r="G1878" s="41"/>
@@ -37420,70 +37644,70 @@
       <c r="G1881" s="41"/>
     </row>
     <row r="1882" spans="5:7">
-      <c r="E1882" s="41"/>
       <c r="G1882" s="41"/>
     </row>
+    <row r="1883" spans="5:7">
+      <c r="G1883" s="41"/>
+    </row>
     <row r="1884" spans="5:7">
-      <c r="E1884" s="41"/>
+      <c r="G1884" s="41"/>
     </row>
     <row r="1885" spans="5:7">
-      <c r="E1885" s="41"/>
+      <c r="G1885" s="41"/>
     </row>
     <row r="1886" spans="5:7">
-      <c r="E1886" s="41"/>
+      <c r="G1886" s="41"/>
     </row>
     <row r="1887" spans="5:7">
-      <c r="E1887" s="41"/>
+      <c r="G1887" s="41"/>
     </row>
     <row r="1888" spans="5:7">
-      <c r="E1888" s="41"/>
-    </row>
-    <row r="1889" spans="5:5">
-      <c r="E1889" s="41"/>
-    </row>
-    <row r="1890" spans="5:5">
-      <c r="E1890" s="41"/>
-    </row>
-    <row r="1891" spans="5:5">
+      <c r="G1888" s="41"/>
+    </row>
+    <row r="1889" spans="5:7">
+      <c r="G1889" s="41"/>
+    </row>
+    <row r="1890" spans="5:7">
+      <c r="G1890" s="41"/>
+    </row>
+    <row r="1891" spans="5:7">
       <c r="E1891" s="41"/>
-    </row>
-    <row r="1892" spans="5:5">
-      <c r="E1892" s="41"/>
-    </row>
-    <row r="1893" spans="5:5">
+      <c r="G1891" s="41"/>
+    </row>
+    <row r="1893" spans="5:7">
       <c r="E1893" s="41"/>
     </row>
-    <row r="1894" spans="5:5">
+    <row r="1894" spans="5:7">
       <c r="E1894" s="41"/>
     </row>
-    <row r="1895" spans="5:5">
+    <row r="1895" spans="5:7">
       <c r="E1895" s="41"/>
     </row>
-    <row r="1896" spans="5:5">
+    <row r="1896" spans="5:7">
       <c r="E1896" s="41"/>
     </row>
-    <row r="1897" spans="5:5">
+    <row r="1897" spans="5:7">
       <c r="E1897" s="41"/>
     </row>
-    <row r="1898" spans="5:5">
+    <row r="1898" spans="5:7">
       <c r="E1898" s="41"/>
     </row>
-    <row r="1899" spans="5:5">
+    <row r="1899" spans="5:7">
       <c r="E1899" s="41"/>
     </row>
-    <row r="1900" spans="5:5">
+    <row r="1900" spans="5:7">
       <c r="E1900" s="41"/>
     </row>
-    <row r="1901" spans="5:5">
+    <row r="1901" spans="5:7">
       <c r="E1901" s="41"/>
     </row>
-    <row r="1902" spans="5:5">
+    <row r="1902" spans="5:7">
       <c r="E1902" s="41"/>
     </row>
-    <row r="1903" spans="5:5">
+    <row r="1903" spans="5:7">
       <c r="E1903" s="41"/>
     </row>
-    <row r="1904" spans="5:5">
+    <row r="1904" spans="5:7">
       <c r="E1904" s="41"/>
     </row>
     <row r="1905" spans="5:5">
@@ -37534,74 +37758,65 @@
     <row r="1920" spans="5:5">
       <c r="E1920" s="41"/>
     </row>
-    <row r="1921" spans="5:7">
+    <row r="1921" spans="5:5">
       <c r="E1921" s="41"/>
     </row>
-    <row r="1922" spans="5:7">
+    <row r="1922" spans="5:5">
       <c r="E1922" s="41"/>
     </row>
-    <row r="1923" spans="5:7">
+    <row r="1923" spans="5:5">
       <c r="E1923" s="41"/>
     </row>
-    <row r="1924" spans="5:7">
+    <row r="1924" spans="5:5">
       <c r="E1924" s="41"/>
     </row>
-    <row r="1925" spans="5:7">
+    <row r="1925" spans="5:5">
       <c r="E1925" s="41"/>
     </row>
-    <row r="1926" spans="5:7">
+    <row r="1926" spans="5:5">
       <c r="E1926" s="41"/>
     </row>
-    <row r="1927" spans="5:7">
+    <row r="1927" spans="5:5">
       <c r="E1927" s="41"/>
     </row>
-    <row r="1928" spans="5:7">
+    <row r="1928" spans="5:5">
       <c r="E1928" s="41"/>
     </row>
-    <row r="1929" spans="5:7">
+    <row r="1929" spans="5:5">
       <c r="E1929" s="41"/>
     </row>
-    <row r="1930" spans="5:7">
+    <row r="1930" spans="5:5">
       <c r="E1930" s="41"/>
     </row>
-    <row r="1931" spans="5:7">
+    <row r="1931" spans="5:5">
       <c r="E1931" s="41"/>
     </row>
-    <row r="1933" spans="5:7">
+    <row r="1932" spans="5:5">
+      <c r="E1932" s="41"/>
+    </row>
+    <row r="1933" spans="5:5">
       <c r="E1933" s="41"/>
-      <c r="G1933" s="41"/>
-    </row>
-    <row r="1934" spans="5:7">
+    </row>
+    <row r="1934" spans="5:5">
       <c r="E1934" s="41"/>
-      <c r="G1934" s="41"/>
-    </row>
-    <row r="1935" spans="5:7">
+    </row>
+    <row r="1935" spans="5:5">
       <c r="E1935" s="41"/>
-      <c r="G1935" s="41"/>
-    </row>
-    <row r="1936" spans="5:7">
+    </row>
+    <row r="1936" spans="5:5">
       <c r="E1936" s="41"/>
-      <c r="G1936" s="41"/>
     </row>
     <row r="1937" spans="5:7">
       <c r="E1937" s="41"/>
-      <c r="G1937" s="41"/>
     </row>
     <row r="1938" spans="5:7">
       <c r="E1938" s="41"/>
-      <c r="G1938" s="41"/>
     </row>
     <row r="1939" spans="5:7">
       <c r="E1939" s="41"/>
-      <c r="G1939" s="41"/>
     </row>
     <row r="1940" spans="5:7">
       <c r="E1940" s="41"/>
-      <c r="G1940" s="41"/>
-    </row>
-    <row r="1941" spans="5:7">
-      <c r="E1941" s="41"/>
-      <c r="G1941" s="41"/>
     </row>
     <row r="1942" spans="5:7">
       <c r="E1942" s="41"/>
@@ -37759,35 +37974,44 @@
       <c r="E1980" s="41"/>
       <c r="G1980" s="41"/>
     </row>
-    <row r="1990" spans="5:5">
-      <c r="E1990" s="41"/>
-    </row>
-    <row r="2001" spans="7:7">
-      <c r="G2001" s="41"/>
-    </row>
-    <row r="2002" spans="7:7">
-      <c r="G2002" s="41"/>
-    </row>
-    <row r="2003" spans="7:7">
-      <c r="G2003" s="41"/>
-    </row>
-    <row r="2004" spans="7:7">
-      <c r="G2004" s="41"/>
-    </row>
-    <row r="2005" spans="7:7">
-      <c r="G2005" s="41"/>
-    </row>
-    <row r="2006" spans="7:7">
-      <c r="G2006" s="41"/>
-    </row>
-    <row r="2007" spans="7:7">
-      <c r="G2007" s="41"/>
-    </row>
-    <row r="2008" spans="7:7">
-      <c r="G2008" s="41"/>
-    </row>
-    <row r="2009" spans="7:7">
-      <c r="G2009" s="41"/>
+    <row r="1981" spans="5:7">
+      <c r="E1981" s="41"/>
+      <c r="G1981" s="41"/>
+    </row>
+    <row r="1982" spans="5:7">
+      <c r="E1982" s="41"/>
+      <c r="G1982" s="41"/>
+    </row>
+    <row r="1983" spans="5:7">
+      <c r="E1983" s="41"/>
+      <c r="G1983" s="41"/>
+    </row>
+    <row r="1984" spans="5:7">
+      <c r="E1984" s="41"/>
+      <c r="G1984" s="41"/>
+    </row>
+    <row r="1985" spans="5:7">
+      <c r="E1985" s="41"/>
+      <c r="G1985" s="41"/>
+    </row>
+    <row r="1986" spans="5:7">
+      <c r="E1986" s="41"/>
+      <c r="G1986" s="41"/>
+    </row>
+    <row r="1987" spans="5:7">
+      <c r="E1987" s="41"/>
+      <c r="G1987" s="41"/>
+    </row>
+    <row r="1988" spans="5:7">
+      <c r="E1988" s="41"/>
+      <c r="G1988" s="41"/>
+    </row>
+    <row r="1989" spans="5:7">
+      <c r="E1989" s="41"/>
+      <c r="G1989" s="41"/>
+    </row>
+    <row r="1999" spans="5:7">
+      <c r="E1999" s="41"/>
     </row>
     <row r="2010" spans="7:7">
       <c r="G2010" s="41"/>
@@ -37820,47 +38044,38 @@
       <c r="G2019" s="41"/>
     </row>
     <row r="2020" spans="5:7">
-      <c r="E2020" s="41"/>
       <c r="G2020" s="41"/>
     </row>
-    <row r="2030" spans="5:7">
-      <c r="E2030" s="41"/>
-    </row>
-    <row r="2041" spans="5:7">
-      <c r="E2041" s="41"/>
-      <c r="G2041" s="41"/>
-    </row>
-    <row r="2042" spans="5:7">
-      <c r="E2042" s="41"/>
-      <c r="G2042" s="41"/>
-    </row>
-    <row r="2043" spans="5:7">
-      <c r="E2043" s="41"/>
-      <c r="G2043" s="41"/>
-    </row>
-    <row r="2044" spans="5:7">
-      <c r="E2044" s="41"/>
-      <c r="G2044" s="41"/>
-    </row>
-    <row r="2045" spans="5:7">
-      <c r="E2045" s="41"/>
-      <c r="G2045" s="41"/>
-    </row>
-    <row r="2046" spans="5:7">
-      <c r="E2046" s="41"/>
-      <c r="G2046" s="41"/>
-    </row>
-    <row r="2047" spans="5:7">
-      <c r="E2047" s="41"/>
-      <c r="G2047" s="41"/>
-    </row>
-    <row r="2048" spans="5:7">
-      <c r="E2048" s="41"/>
-      <c r="G2048" s="41"/>
-    </row>
-    <row r="2049" spans="5:7">
-      <c r="E2049" s="41"/>
-      <c r="G2049" s="41"/>
+    <row r="2021" spans="5:7">
+      <c r="G2021" s="41"/>
+    </row>
+    <row r="2022" spans="5:7">
+      <c r="G2022" s="41"/>
+    </row>
+    <row r="2023" spans="5:7">
+      <c r="G2023" s="41"/>
+    </row>
+    <row r="2024" spans="5:7">
+      <c r="G2024" s="41"/>
+    </row>
+    <row r="2025" spans="5:7">
+      <c r="G2025" s="41"/>
+    </row>
+    <row r="2026" spans="5:7">
+      <c r="G2026" s="41"/>
+    </row>
+    <row r="2027" spans="5:7">
+      <c r="G2027" s="41"/>
+    </row>
+    <row r="2028" spans="5:7">
+      <c r="G2028" s="41"/>
+    </row>
+    <row r="2029" spans="5:7">
+      <c r="E2029" s="41"/>
+      <c r="G2029" s="41"/>
+    </row>
+    <row r="2039" spans="5:5">
+      <c r="E2039" s="41"/>
     </row>
     <row r="2050" spans="5:7">
       <c r="E2050" s="41"/>
@@ -37890,6 +38105,10 @@
       <c r="E2056" s="41"/>
       <c r="G2056" s="41"/>
     </row>
+    <row r="2057" spans="5:7">
+      <c r="E2057" s="41"/>
+      <c r="G2057" s="41"/>
+    </row>
     <row r="2058" spans="5:7">
       <c r="E2058" s="41"/>
       <c r="G2058" s="41"/>
@@ -37922,10 +38141,6 @@
       <c r="E2065" s="41"/>
       <c r="G2065" s="41"/>
     </row>
-    <row r="2066" spans="5:7">
-      <c r="E2066" s="41"/>
-      <c r="G2066" s="41"/>
-    </row>
     <row r="2067" spans="5:7">
       <c r="E2067" s="41"/>
       <c r="G2067" s="41"/>
@@ -37946,42 +38161,57 @@
       <c r="E2071" s="41"/>
       <c r="G2071" s="41"/>
     </row>
+    <row r="2072" spans="5:7">
+      <c r="E2072" s="41"/>
+      <c r="G2072" s="41"/>
+    </row>
+    <row r="2073" spans="5:7">
+      <c r="E2073" s="41"/>
+      <c r="G2073" s="41"/>
+    </row>
     <row r="2074" spans="5:7">
       <c r="E2074" s="41"/>
+      <c r="G2074" s="41"/>
+    </row>
+    <row r="2075" spans="5:7">
+      <c r="E2075" s="41"/>
+      <c r="G2075" s="41"/>
+    </row>
+    <row r="2076" spans="5:7">
+      <c r="E2076" s="41"/>
+      <c r="G2076" s="41"/>
+    </row>
+    <row r="2077" spans="5:7">
+      <c r="E2077" s="41"/>
+      <c r="G2077" s="41"/>
     </row>
     <row r="2078" spans="5:7">
       <c r="E2078" s="41"/>
+      <c r="G2078" s="41"/>
     </row>
     <row r="2079" spans="5:7">
       <c r="E2079" s="41"/>
+      <c r="G2079" s="41"/>
     </row>
     <row r="2080" spans="5:7">
       <c r="E2080" s="41"/>
-    </row>
-    <row r="2081" spans="5:5">
-      <c r="E2081" s="41"/>
-    </row>
-    <row r="2084" spans="5:5">
-      <c r="E2084" s="41"/>
-    </row>
-    <row r="2085" spans="5:5">
-      <c r="E2085" s="41"/>
-    </row>
-    <row r="2086" spans="5:5">
-      <c r="E2086" s="41"/>
+      <c r="G2080" s="41"/>
+    </row>
+    <row r="2083" spans="5:5">
+      <c r="E2083" s="41"/>
     </row>
     <row r="2087" spans="5:5">
       <c r="E2087" s="41"/>
     </row>
+    <row r="2088" spans="5:5">
+      <c r="E2088" s="41"/>
+    </row>
+    <row r="2089" spans="5:5">
+      <c r="E2089" s="41"/>
+    </row>
     <row r="2090" spans="5:5">
       <c r="E2090" s="41"/>
     </row>
-    <row r="2091" spans="5:5">
-      <c r="E2091" s="41"/>
-    </row>
-    <row r="2092" spans="5:5">
-      <c r="E2092" s="41"/>
-    </row>
     <row r="2093" spans="5:5">
       <c r="E2093" s="41"/>
     </row>
@@ -37994,12 +38224,6 @@
     <row r="2096" spans="5:5">
       <c r="E2096" s="41"/>
     </row>
-    <row r="2097" spans="5:5">
-      <c r="E2097" s="41"/>
-    </row>
-    <row r="2098" spans="5:5">
-      <c r="E2098" s="41"/>
-    </row>
     <row r="2099" spans="5:5">
       <c r="E2099" s="41"/>
     </row>
@@ -38015,6 +38239,9 @@
     <row r="2103" spans="5:5">
       <c r="E2103" s="41"/>
     </row>
+    <row r="2104" spans="5:5">
+      <c r="E2104" s="41"/>
+    </row>
     <row r="2105" spans="5:5">
       <c r="E2105" s="41"/>
     </row>
@@ -38039,9 +38266,6 @@
     <row r="2112" spans="5:5">
       <c r="E2112" s="41"/>
     </row>
-    <row r="2113" spans="5:5">
-      <c r="E2113" s="41"/>
-    </row>
     <row r="2114" spans="5:5">
       <c r="E2114" s="41"/>
     </row>
@@ -38057,6 +38281,9 @@
     <row r="2118" spans="5:5">
       <c r="E2118" s="41"/>
     </row>
+    <row r="2119" spans="5:5">
+      <c r="E2119" s="41"/>
+    </row>
     <row r="2120" spans="5:5">
       <c r="E2120" s="41"/>
     </row>
@@ -38081,9 +38308,6 @@
     <row r="2127" spans="5:5">
       <c r="E2127" s="41"/>
     </row>
-    <row r="2128" spans="5:5">
-      <c r="E2128" s="41"/>
-    </row>
     <row r="2129" spans="5:5">
       <c r="E2129" s="41"/>
     </row>
@@ -38099,6 +38323,9 @@
     <row r="2133" spans="5:5">
       <c r="E2133" s="41"/>
     </row>
+    <row r="2134" spans="5:5">
+      <c r="E2134" s="41"/>
+    </row>
     <row r="2135" spans="5:5">
       <c r="E2135" s="41"/>
     </row>
@@ -38123,9 +38350,6 @@
     <row r="2142" spans="5:5">
       <c r="E2142" s="41"/>
     </row>
-    <row r="2143" spans="5:5">
-      <c r="E2143" s="41"/>
-    </row>
     <row r="2144" spans="5:5">
       <c r="E2144" s="41"/>
     </row>
@@ -38183,60 +38407,60 @@
     <row r="2162" spans="5:5">
       <c r="E2162" s="41"/>
     </row>
+    <row r="2163" spans="5:5">
+      <c r="E2163" s="41"/>
+    </row>
     <row r="2164" spans="5:5">
       <c r="E2164" s="41"/>
     </row>
-    <row r="2177" spans="5:5">
-      <c r="E2177" s="41"/>
-    </row>
-    <row r="2191" spans="5:5">
-      <c r="E2191" s="41"/>
-    </row>
-    <row r="2193" spans="5:5">
-      <c r="E2193" s="41"/>
-    </row>
-    <row r="2206" spans="5:5">
-      <c r="E2206" s="41"/>
-    </row>
-    <row r="2220" spans="5:5">
-      <c r="E2220" s="41"/>
-    </row>
-    <row r="2222" spans="5:5">
-      <c r="E2222" s="41"/>
-    </row>
-    <row r="2235" spans="5:5">
-      <c r="E2235" s="41"/>
-    </row>
-    <row r="2249" spans="5:5">
-      <c r="E2249" s="41"/>
-    </row>
-    <row r="2252" spans="5:5">
-      <c r="E2252" s="41"/>
-    </row>
-    <row r="2253" spans="5:5">
-      <c r="E2253" s="41"/>
-    </row>
-    <row r="2254" spans="5:5">
-      <c r="E2254" s="41"/>
-    </row>
-    <row r="2255" spans="5:5">
-      <c r="E2255" s="41"/>
-    </row>
-    <row r="2256" spans="5:5">
-      <c r="E2256" s="41"/>
-    </row>
-    <row r="2257" spans="5:5">
-      <c r="E2257" s="41"/>
+    <row r="2165" spans="5:5">
+      <c r="E2165" s="41"/>
+    </row>
+    <row r="2166" spans="5:5">
+      <c r="E2166" s="41"/>
+    </row>
+    <row r="2167" spans="5:5">
+      <c r="E2167" s="41"/>
+    </row>
+    <row r="2168" spans="5:5">
+      <c r="E2168" s="41"/>
+    </row>
+    <row r="2169" spans="5:5">
+      <c r="E2169" s="41"/>
+    </row>
+    <row r="2170" spans="5:5">
+      <c r="E2170" s="41"/>
+    </row>
+    <row r="2171" spans="5:5">
+      <c r="E2171" s="41"/>
+    </row>
+    <row r="2173" spans="5:5">
+      <c r="E2173" s="41"/>
+    </row>
+    <row r="2186" spans="5:5">
+      <c r="E2186" s="41"/>
+    </row>
+    <row r="2200" spans="5:5">
+      <c r="E2200" s="41"/>
+    </row>
+    <row r="2202" spans="5:5">
+      <c r="E2202" s="41"/>
+    </row>
+    <row r="2215" spans="5:5">
+      <c r="E2215" s="41"/>
+    </row>
+    <row r="2229" spans="5:5">
+      <c r="E2229" s="41"/>
+    </row>
+    <row r="2231" spans="5:5">
+      <c r="E2231" s="41"/>
+    </row>
+    <row r="2244" spans="5:5">
+      <c r="E2244" s="41"/>
     </row>
     <row r="2258" spans="5:5">
       <c r="E2258" s="41"/>
     </row>
-    <row r="2259" spans="5:5">
-      <c r="E2259" s="41"/>
-    </row>
-    <row r="2260" spans="5:5">
-      <c r="E2260" s="41"/>
-    </row>
     <row r="2261" spans="5:5">
       <c r="E2261" s="41"/>
     </row>
@@ -38252,181 +38476,208 @@
     <row r="2265" spans="5:5">
       <c r="E2265" s="41"/>
     </row>
+    <row r="2266" spans="5:5">
+      <c r="E2266" s="41"/>
+    </row>
+    <row r="2267" spans="5:5">
+      <c r="E2267" s="41"/>
+    </row>
+    <row r="2268" spans="5:5">
+      <c r="E2268" s="41"/>
+    </row>
+    <row r="2269" spans="5:5">
+      <c r="E2269" s="41"/>
+    </row>
+    <row r="2270" spans="5:5">
+      <c r="E2270" s="41"/>
+    </row>
+    <row r="2271" spans="5:5">
+      <c r="E2271" s="41"/>
+    </row>
+    <row r="2272" spans="5:5">
+      <c r="E2272" s="41"/>
+    </row>
+    <row r="2273" spans="5:5">
+      <c r="E2273" s="41"/>
+    </row>
     <row r="2274" spans="5:5">
       <c r="E2274" s="41"/>
     </row>
-    <row r="2291" spans="5:5">
-      <c r="E2291" s="41"/>
-    </row>
-    <row r="2308" spans="5:5">
-      <c r="E2308" s="41"/>
-    </row>
-    <row r="2325" spans="5:5">
-      <c r="E2325" s="41"/>
-    </row>
-    <row r="2342" spans="5:5">
-      <c r="E2342" s="41"/>
-    </row>
-    <row r="2359" spans="5:5">
-      <c r="E2359" s="41"/>
-    </row>
-    <row r="2376" spans="5:5">
-      <c r="E2376" s="41"/>
-    </row>
-    <row r="2393" spans="5:5">
-      <c r="E2393" s="41"/>
-    </row>
-    <row r="2410" spans="5:5">
-      <c r="E2410" s="41"/>
-    </row>
-    <row r="2427" spans="5:5">
-      <c r="E2427" s="41"/>
-    </row>
-    <row r="2444" spans="5:5">
-      <c r="E2444" s="41"/>
-    </row>
-    <row r="2461" spans="5:5">
-      <c r="E2461" s="41"/>
-    </row>
-    <row r="2478" spans="5:5">
-      <c r="E2478" s="41"/>
-    </row>
-    <row r="2495" spans="5:5">
-      <c r="E2495" s="41"/>
-    </row>
-    <row r="2512" spans="5:5">
-      <c r="E2512" s="41"/>
-    </row>
-    <row r="2529" spans="5:7">
-      <c r="E2529" s="41"/>
-    </row>
-    <row r="2539" spans="5:7">
-      <c r="G2539" s="41"/>
-    </row>
-    <row r="2540" spans="5:7">
-      <c r="G2540" s="41"/>
-    </row>
-    <row r="2541" spans="5:7">
-      <c r="G2541" s="41"/>
-    </row>
-    <row r="2542" spans="5:7">
-      <c r="G2542" s="41"/>
-    </row>
-    <row r="2543" spans="5:7">
-      <c r="G2543" s="41"/>
-    </row>
-    <row r="2544" spans="5:7">
-      <c r="G2544" s="41"/>
-    </row>
-    <row r="2545" spans="5:7">
-      <c r="G2545" s="41"/>
-    </row>
-    <row r="2546" spans="5:7">
-      <c r="G2546" s="41"/>
-    </row>
-    <row r="2547" spans="5:7">
-      <c r="G2547" s="41"/>
-    </row>
-    <row r="2548" spans="5:7">
+    <row r="2283" spans="5:5">
+      <c r="E2283" s="41"/>
+    </row>
+    <row r="2300" spans="5:5">
+      <c r="E2300" s="41"/>
+    </row>
+    <row r="2317" spans="5:5">
+      <c r="E2317" s="41"/>
+    </row>
+    <row r="2334" spans="5:5">
+      <c r="E2334" s="41"/>
+    </row>
+    <row r="2351" spans="5:5">
+      <c r="E2351" s="41"/>
+    </row>
+    <row r="2368" spans="5:5">
+      <c r="E2368" s="41"/>
+    </row>
+    <row r="2385" spans="5:5">
+      <c r="E2385" s="41"/>
+    </row>
+    <row r="2402" spans="5:5">
+      <c r="E2402" s="41"/>
+    </row>
+    <row r="2419" spans="5:5">
+      <c r="E2419" s="41"/>
+    </row>
+    <row r="2436" spans="5:5">
+      <c r="E2436" s="41"/>
+    </row>
+    <row r="2453" spans="5:5">
+      <c r="E2453" s="41"/>
+    </row>
+    <row r="2470" spans="5:5">
+      <c r="E2470" s="41"/>
+    </row>
+    <row r="2487" spans="5:5">
+      <c r="E2487" s="41"/>
+    </row>
+    <row r="2504" spans="5:5">
+      <c r="E2504" s="41"/>
+    </row>
+    <row r="2521" spans="5:5">
+      <c r="E2521" s="41"/>
+    </row>
+    <row r="2538" spans="5:5">
+      <c r="E2538" s="41"/>
+    </row>
+    <row r="2548" spans="7:7">
       <c r="G2548" s="41"/>
     </row>
-    <row r="2549" spans="5:7">
+    <row r="2549" spans="7:7">
       <c r="G2549" s="41"/>
     </row>
-    <row r="2550" spans="5:7">
+    <row r="2550" spans="7:7">
       <c r="G2550" s="41"/>
     </row>
-    <row r="2551" spans="5:7">
+    <row r="2551" spans="7:7">
       <c r="G2551" s="41"/>
     </row>
-    <row r="2552" spans="5:7">
-      <c r="E2552" s="41"/>
+    <row r="2552" spans="7:7">
       <c r="G2552" s="41"/>
     </row>
-    <row r="2573" spans="5:5">
-      <c r="E2573" s="41"/>
-    </row>
-    <row r="2588" spans="5:5">
-      <c r="E2588" s="41"/>
-    </row>
-    <row r="2603" spans="5:5">
-      <c r="E2603" s="41"/>
-    </row>
-    <row r="2618" spans="5:5">
-      <c r="E2618" s="41"/>
-    </row>
-    <row r="2634" spans="5:5">
-      <c r="E2634" s="41"/>
-    </row>
-    <row r="2642" spans="5:7">
-      <c r="E2642" s="41"/>
-    </row>
-    <row r="2651" spans="5:7">
-      <c r="G2651" s="41"/>
-    </row>
-    <row r="2652" spans="5:7">
-      <c r="G2652" s="41"/>
-    </row>
-    <row r="2653" spans="5:7">
-      <c r="G2653" s="41"/>
-    </row>
-    <row r="2654" spans="5:7">
-      <c r="G2654" s="41"/>
-    </row>
-    <row r="2655" spans="5:7">
-      <c r="G2655" s="41"/>
-    </row>
-    <row r="2656" spans="5:7">
-      <c r="G2656" s="41"/>
-    </row>
-    <row r="2657" spans="5:7">
-      <c r="G2657" s="41"/>
-    </row>
-    <row r="2658" spans="5:7">
-      <c r="G2658" s="41"/>
-    </row>
-    <row r="2659" spans="5:7">
-      <c r="G2659" s="41"/>
-    </row>
-    <row r="2660" spans="5:7">
+    <row r="2553" spans="7:7">
+      <c r="G2553" s="41"/>
+    </row>
+    <row r="2554" spans="7:7">
+      <c r="G2554" s="41"/>
+    </row>
+    <row r="2555" spans="7:7">
+      <c r="G2555" s="41"/>
+    </row>
+    <row r="2556" spans="7:7">
+      <c r="G2556" s="41"/>
+    </row>
+    <row r="2557" spans="7:7">
+      <c r="G2557" s="41"/>
+    </row>
+    <row r="2558" spans="7:7">
+      <c r="G2558" s="41"/>
+    </row>
+    <row r="2559" spans="7:7">
+      <c r="G2559" s="41"/>
+    </row>
+    <row r="2560" spans="7:7">
+      <c r="G2560" s="41"/>
+    </row>
+    <row r="2561" spans="5:7">
+      <c r="E2561" s="41"/>
+      <c r="G2561" s="41"/>
+    </row>
+    <row r="2582" spans="5:5">
+      <c r="E2582" s="41"/>
+    </row>
+    <row r="2597" spans="5:5">
+      <c r="E2597" s="41"/>
+    </row>
+    <row r="2612" spans="5:5">
+      <c r="E2612" s="41"/>
+    </row>
+    <row r="2627" spans="5:5">
+      <c r="E2627" s="41"/>
+    </row>
+    <row r="2643" spans="5:5">
+      <c r="E2643" s="41"/>
+    </row>
+    <row r="2651" spans="5:5">
+      <c r="E2651" s="41"/>
+    </row>
+    <row r="2660" spans="7:7">
       <c r="G2660" s="41"/>
     </row>
-    <row r="2661" spans="5:7">
+    <row r="2661" spans="7:7">
       <c r="G2661" s="41"/>
     </row>
-    <row r="2662" spans="5:7">
+    <row r="2662" spans="7:7">
       <c r="G2662" s="41"/>
     </row>
-    <row r="2663" spans="5:7">
+    <row r="2663" spans="7:7">
       <c r="G2663" s="41"/>
     </row>
-    <row r="2664" spans="5:7">
+    <row r="2664" spans="7:7">
       <c r="G2664" s="41"/>
     </row>
-    <row r="2665" spans="5:7">
+    <row r="2665" spans="7:7">
       <c r="G2665" s="41"/>
     </row>
-    <row r="2666" spans="5:7">
+    <row r="2666" spans="7:7">
       <c r="G2666" s="41"/>
     </row>
-    <row r="2667" spans="5:7">
+    <row r="2667" spans="7:7">
       <c r="G2667" s="41"/>
     </row>
-    <row r="2668" spans="5:7">
+    <row r="2668" spans="7:7">
       <c r="G2668" s="41"/>
     </row>
-    <row r="2669" spans="5:7">
+    <row r="2669" spans="7:7">
       <c r="G2669" s="41"/>
     </row>
-    <row r="2670" spans="5:7">
-      <c r="E2670" s="41"/>
+    <row r="2670" spans="7:7">
       <c r="G2670" s="41"/>
     </row>
-    <row r="2678" spans="5:5">
-      <c r="E2678" s="41"/>
-    </row>
-    <row r="2685" spans="5:5">
-      <c r="E2685" s="41"/>
+    <row r="2671" spans="7:7">
+      <c r="G2671" s="41"/>
+    </row>
+    <row r="2672" spans="7:7">
+      <c r="G2672" s="41"/>
+    </row>
+    <row r="2673" spans="5:7">
+      <c r="G2673" s="41"/>
+    </row>
+    <row r="2674" spans="5:7">
+      <c r="G2674" s="41"/>
+    </row>
+    <row r="2675" spans="5:7">
+      <c r="G2675" s="41"/>
+    </row>
+    <row r="2676" spans="5:7">
+      <c r="G2676" s="41"/>
+    </row>
+    <row r="2677" spans="5:7">
+      <c r="G2677" s="41"/>
+    </row>
+    <row r="2678" spans="5:7">
+      <c r="G2678" s="41"/>
+    </row>
+    <row r="2679" spans="5:7">
+      <c r="E2679" s="41"/>
+      <c r="G2679" s="41"/>
+    </row>
+    <row r="2687" spans="5:7">
+      <c r="E2687" s="41"/>
+    </row>
+    <row r="2694" spans="5:5">
+      <c r="E2694" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD66B51-45D1-4894-865A-B3A26207ECA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6314B99C-6015-451B-8FBA-B13348E6B569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -5736,7 +5736,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-21</t>
+      <t>2025-December-22</t>
     </r>
   </si>
 </sst>
@@ -47805,7 +47805,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891A024A-BCF2-49BE-A7A6-EB59E9CD0B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A4E4C1-3358-494D-8205-71705C15A5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8411" uniqueCount="1868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8412" uniqueCount="1869">
   <si>
     <t>Name</t>
   </si>
@@ -5655,6 +5655,93 @@
     <t>Commodore 64/250425/Scope baseline/Images/M1_8_PAL.png</t>
   </si>
   <si>
+    <t>TIP29A</t>
+  </si>
+  <si>
+    <t>Compatible part-number: 2SD880</t>
+  </si>
+  <si>
+    <t>Compatible part-number: 2SC2458</t>
+  </si>
+  <si>
+    <t>Compatible part-number: BZX55C2V7</t>
+  </si>
+  <si>
+    <t>Compatible part-number: BZX55C6V8</t>
+  </si>
+  <si>
+    <t>Compatible part-number: S2VB20</t>
+  </si>
+  <si>
+    <t>Compatible part-number: 1N4007</t>
+  </si>
+  <si>
+    <t>1N4001</t>
+  </si>
+  <si>
+    <t>1N914</t>
+  </si>
+  <si>
+    <t>1N4371</t>
+  </si>
+  <si>
+    <t>1N754A</t>
+  </si>
+  <si>
+    <t>Compatible part-number: 1N4148</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6526_cia_recreated.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6510_mpu.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7406.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4164b_samsung.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS258_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS139_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6581_sid.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6567_vic_ii_preliminary.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/556.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS373_national_semiconductor.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS08_ti.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/8701.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7800.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4066B.PDF</t>
+  </si>
+  <si>
+    <t>2026-February-12</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -5667,92 +5754,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2026-January-16</t>
+      <t>2026-February-9</t>
     </r>
-  </si>
-  <si>
-    <t>TIP29A</t>
-  </si>
-  <si>
-    <t>Compatible part-number: 2SD880</t>
-  </si>
-  <si>
-    <t>Compatible part-number: 2SC2458</t>
-  </si>
-  <si>
-    <t>Compatible part-number: BZX55C2V7</t>
-  </si>
-  <si>
-    <t>Compatible part-number: BZX55C6V8</t>
-  </si>
-  <si>
-    <t>Compatible part-number: S2VB20</t>
-  </si>
-  <si>
-    <t>Compatible part-number: 1N4007</t>
-  </si>
-  <si>
-    <t>1N4001</t>
-  </si>
-  <si>
-    <t>1N914</t>
-  </si>
-  <si>
-    <t>1N4371</t>
-  </si>
-  <si>
-    <t>1N754A</t>
-  </si>
-  <si>
-    <t>Compatible part-number: 1N4148</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6526_cia_recreated.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6510_mpu.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7406.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/4164b_samsung.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS258_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS139_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6581_sid.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6567_vic_ii_preliminary.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/556.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS373_national_semiconductor.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS08_ti.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/8701.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7800.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/4066B.PDF</t>
   </si>
 </sst>
 </file>
@@ -6356,9 +6359,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6383,7 +6386,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>1839</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6600,7 +6603,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9514FADE-BE8B-438B-9E6C-BADB0BC574D6}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6647,6 +6650,11 @@
         <v>1774</v>
       </c>
     </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>1867</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6658,8 +6666,8 @@
   <dimension ref="A1:G361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7925,7 +7933,7 @@
         <v>1641</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D79" s="41" t="s">
         <v>1713</v>
@@ -7942,7 +7950,7 @@
         <v>1642</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D80" s="41" t="s">
         <v>1748</v>
@@ -7976,7 +7984,7 @@
         <v>1771</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D82" s="41" t="s">
         <v>1715</v>
@@ -7993,7 +8001,7 @@
         <v>1771</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D83" s="41" t="s">
         <v>1715</v>
@@ -8008,7 +8016,7 @@
       </c>
       <c r="B84" s="41"/>
       <c r="C84" s="41" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D84" s="41"/>
       <c r="E84" s="1" t="s">
@@ -8021,7 +8029,7 @@
       </c>
       <c r="B85" s="41"/>
       <c r="C85" s="41" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D85" s="41"/>
       <c r="E85" s="1" t="s">
@@ -8034,7 +8042,7 @@
       </c>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D86" s="41"/>
       <c r="E86" s="1" t="s">
@@ -8047,7 +8055,7 @@
       </c>
       <c r="B87" s="41"/>
       <c r="C87" s="41" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D87" s="41"/>
       <c r="E87" s="1" t="s">
@@ -8060,7 +8068,7 @@
       </c>
       <c r="B88" s="41"/>
       <c r="C88" s="41" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D88" s="41"/>
       <c r="E88" s="1" t="s">
@@ -8073,7 +8081,7 @@
       </c>
       <c r="B89" s="41"/>
       <c r="C89" s="41" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D89" s="41"/>
       <c r="E89" s="1" t="s">
@@ -9253,7 +9261,7 @@
         <v>1772</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>1742</v>
@@ -11195,7 +11203,7 @@
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="41" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -11208,7 +11216,7 @@
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="41" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -11221,7 +11229,7 @@
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="41" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -11234,7 +11242,7 @@
       </c>
       <c r="F71" s="14"/>
       <c r="G71" s="41" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -11247,7 +11255,7 @@
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="41" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -11260,7 +11268,7 @@
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="41" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -11273,7 +11281,7 @@
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="41" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -11286,7 +11294,7 @@
       </c>
       <c r="F75" s="14"/>
       <c r="G75" s="41" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -11299,7 +11307,7 @@
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="41" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -11312,7 +11320,7 @@
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="41" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -11325,7 +11333,7 @@
       </c>
       <c r="F78" s="14"/>
       <c r="G78" s="41" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -37038,7 +37046,7 @@
         <v>176</v>
       </c>
       <c r="G1383" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1384" spans="1:7">
@@ -37051,7 +37059,7 @@
         <v>176</v>
       </c>
       <c r="G1384" s="41" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1385" spans="1:7">
@@ -37064,7 +37072,7 @@
         <v>176</v>
       </c>
       <c r="G1385" s="41" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1386" spans="1:7">
@@ -37077,7 +37085,7 @@
         <v>176</v>
       </c>
       <c r="G1386" s="41" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1387" spans="1:7">
@@ -47049,9 +47057,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -47242,7 +47250,7 @@
         <v>177</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -47253,7 +47261,7 @@
         <v>177</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -47264,7 +47272,7 @@
         <v>178</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -47275,7 +47283,7 @@
         <v>178</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -47286,7 +47294,7 @@
         <v>179</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -47308,7 +47316,7 @@
         <v>181</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -47319,7 +47327,7 @@
         <v>182</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -47330,7 +47338,7 @@
         <v>183</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -47341,7 +47349,7 @@
         <v>183</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -47352,7 +47360,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -47363,7 +47371,7 @@
         <v>183</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -47385,7 +47393,7 @@
         <v>185</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -47396,7 +47404,7 @@
         <v>186</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -47407,7 +47415,7 @@
         <v>187</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -47429,7 +47437,7 @@
         <v>310</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -47440,7 +47448,7 @@
         <v>189</v>
       </c>
       <c r="C38" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -47451,7 +47459,7 @@
         <v>190</v>
       </c>
       <c r="C39" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -47462,7 +47470,7 @@
         <v>183</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -47473,7 +47481,7 @@
         <v>183</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -47484,7 +47492,7 @@
         <v>183</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -47495,7 +47503,7 @@
         <v>183</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -47517,7 +47525,7 @@
         <v>191</v>
       </c>
       <c r="C45" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -47528,7 +47536,7 @@
         <v>192</v>
       </c>
       <c r="C46" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -47539,7 +47547,7 @@
         <v>187</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -47550,7 +47558,7 @@
         <v>261</v>
       </c>
       <c r="C48" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -47561,7 +47569,7 @@
         <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -47572,7 +47580,7 @@
         <v>194</v>
       </c>
       <c r="C50" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1">

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A4E4C1-3358-494D-8205-71705C15A5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14277CD8-38A5-498F-A5EE-F7563A77F960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8412" uniqueCount="1869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8457" uniqueCount="1879">
   <si>
     <t>Name</t>
   </si>
@@ -5756,6 +5756,36 @@
       </rPr>
       <t>2026-February-9</t>
     </r>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/M1_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/M1_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/M1_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/M1_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/M1_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/M1_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/M1_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250425/Scope baseline/Images/M1_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>There is a diff here between PAL and NTSC?</t>
+  </si>
+  <si>
+    <t>There is a diff here between NTSC and PAL?</t>
   </si>
 </sst>
 </file>
@@ -6457,10 +6487,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="14" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>311</v>
+        <v>1751</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -6474,13 +6504,14 @@
       <c r="F10" s="7">
         <v>1</v>
       </c>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -6494,14 +6525,13 @@
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="14" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1751</v>
+        <v>312</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -10204,7 +10234,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I2705"/>
+  <dimension ref="A1:I2713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
@@ -36341,22 +36371,22 @@
         <v>262</v>
       </c>
       <c r="B1339" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C1339" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1339" s="54" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="E1339" s="1" t="s">
         <v>1821</v>
       </c>
       <c r="F1339" s="14" t="s">
-        <v>1832</v>
+        <v>1869</v>
       </c>
       <c r="G1339" s="1" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1340" spans="1:7">
@@ -36367,19 +36397,19 @@
         <v>281</v>
       </c>
       <c r="C1340" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1340" s="54" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="E1340" s="1" t="s">
         <v>1821</v>
       </c>
       <c r="F1340" s="14" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G1340" s="1" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1341" spans="1:7">
@@ -36387,19 +36417,22 @@
         <v>262</v>
       </c>
       <c r="B1341" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C1341" s="37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1341" s="54" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="E1341" s="1" t="s">
         <v>1821</v>
       </c>
       <c r="F1341" s="14" t="s">
-        <v>1834</v>
+        <v>1870</v>
+      </c>
+      <c r="G1341" s="1" t="s">
+        <v>1824</v>
       </c>
     </row>
     <row r="1342" spans="1:7">
@@ -36410,16 +36443,19 @@
         <v>281</v>
       </c>
       <c r="C1342" s="37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1342" s="54" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="E1342" s="1" t="s">
         <v>1821</v>
       </c>
       <c r="F1342" s="14" t="s">
-        <v>1835</v>
+        <v>1833</v>
+      </c>
+      <c r="G1342" s="1" t="s">
+        <v>1822</v>
       </c>
     </row>
     <row r="1343" spans="1:7">
@@ -36427,19 +36463,22 @@
         <v>262</v>
       </c>
       <c r="B1343" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C1343" s="37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1343" s="54" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="E1343" s="1" t="s">
         <v>1821</v>
       </c>
       <c r="F1343" s="14" t="s">
-        <v>1836</v>
+        <v>1871</v>
+      </c>
+      <c r="G1343" s="1" t="s">
+        <v>1822</v>
       </c>
     </row>
     <row r="1344" spans="1:7">
@@ -36450,16 +36489,19 @@
         <v>281</v>
       </c>
       <c r="C1344" s="37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1344" s="54" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="E1344" s="1" t="s">
         <v>1821</v>
       </c>
       <c r="F1344" s="14" t="s">
-        <v>1837</v>
+        <v>1834</v>
+      </c>
+      <c r="G1344" s="24" t="s">
+        <v>1877</v>
       </c>
     </row>
     <row r="1345" spans="1:7">
@@ -36467,263 +36509,306 @@
         <v>262</v>
       </c>
       <c r="B1345" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C1345" s="37">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1345" s="54" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="E1345" s="1" t="s">
         <v>1821</v>
       </c>
       <c r="F1345" s="14" t="s">
-        <v>1838</v>
+        <v>1872</v>
+      </c>
+      <c r="G1345" s="24" t="s">
+        <v>1878</v>
       </c>
     </row>
     <row r="1346" spans="1:7">
       <c r="A1346" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1346" s="14"/>
-      <c r="C1346" s="37"/>
-      <c r="D1346" s="14" t="s">
-        <v>176</v>
+        <v>262</v>
+      </c>
+      <c r="B1346" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1346" s="37">
+        <v>5</v>
+      </c>
+      <c r="D1346" s="54" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E1346" s="1" t="s">
+        <v>1821</v>
       </c>
       <c r="F1346" s="14" t="s">
-        <v>1677</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1347" spans="1:7">
       <c r="A1347" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1347" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1347" s="37">
+        <v>5</v>
+      </c>
+      <c r="D1347" s="54" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E1347" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F1347" s="14" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:7">
+      <c r="A1348" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1348" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1348" s="37">
+        <v>6</v>
+      </c>
+      <c r="D1348" s="54" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E1348" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F1348" s="14" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:7">
+      <c r="A1349" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1349" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1349" s="37">
+        <v>6</v>
+      </c>
+      <c r="D1349" s="54" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E1349" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F1349" s="14" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:7">
+      <c r="A1350" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1350" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1350" s="37">
+        <v>7</v>
+      </c>
+      <c r="D1350" s="54" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E1350" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F1350" s="14" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:7">
+      <c r="A1351" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1351" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1351" s="37">
+        <v>7</v>
+      </c>
+      <c r="D1351" s="54" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E1351" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F1351" s="14" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:7">
+      <c r="A1352" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1352" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1352" s="37">
+        <v>8</v>
+      </c>
+      <c r="D1352" s="54" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E1352" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F1352" s="14" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:7">
+      <c r="A1353" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1353" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1353" s="37">
+        <v>8</v>
+      </c>
+      <c r="D1353" s="54" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E1353" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F1353" s="14" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:7">
+      <c r="A1354" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B1347" s="14"/>
-      <c r="C1347" s="37"/>
-      <c r="D1347" s="14" t="s">
-        <v>1565</v>
-      </c>
-      <c r="F1347" s="14" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:7" ht="28.8">
-      <c r="A1348" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1348" s="14"/>
-      <c r="C1348" s="37"/>
-      <c r="D1348" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1348" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="G1348" s="1" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:7" ht="28.8">
-      <c r="A1349" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1349" s="14"/>
-      <c r="C1349" s="37"/>
-      <c r="D1349" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1349" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="G1349" s="1" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1350" spans="1:7" ht="72">
-      <c r="A1350" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1350" s="14"/>
-      <c r="C1350" s="37"/>
-      <c r="D1350" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1350" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:7" ht="43.2">
-      <c r="A1351" s="14" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B1351" s="14"/>
-      <c r="C1351" s="37"/>
-      <c r="D1351" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1351" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="G1351" s="1" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="1352" spans="1:7">
-      <c r="A1352" s="47" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B1352"/>
-      <c r="C1352" s="37"/>
-      <c r="D1352" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1352" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="G1352" s="1" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="1353" spans="1:7">
-      <c r="A1353" s="47" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B1353"/>
-      <c r="C1353" s="37"/>
-      <c r="D1353" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1353" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="G1353" s="1" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="1354" spans="1:7" ht="28.8">
-      <c r="A1354" s="16" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C1354" s="1"/>
+      <c r="B1354" s="14"/>
+      <c r="C1354" s="37"/>
       <c r="D1354" s="14" t="s">
         <v>176</v>
       </c>
       <c r="F1354" s="14" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G1354" s="41" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:7" ht="28.8">
-      <c r="A1355" s="16" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C1355" s="1"/>
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:7">
+      <c r="A1355" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1355" s="14"/>
+      <c r="C1355" s="37"/>
       <c r="D1355" s="14" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F1355" s="14" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:7" ht="28.8">
+      <c r="A1356" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1356" s="14"/>
+      <c r="C1356" s="37"/>
+      <c r="D1356" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F1355" s="14" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G1355" s="41" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1356" spans="1:7" ht="28.8">
-      <c r="A1356" s="16" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C1356" s="1"/>
-      <c r="D1356" s="14" t="s">
+      <c r="F1356" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1356" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:7" ht="28.8">
+      <c r="A1357" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1357" s="14"/>
+      <c r="C1357" s="37"/>
+      <c r="D1357" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F1356" s="14" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G1356" s="41" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:7" ht="28.8">
-      <c r="A1357" s="16" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C1357" s="1"/>
-      <c r="D1357" s="14" t="s">
+      <c r="F1357" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1357" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:7" ht="72">
+      <c r="A1358" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1358" s="14"/>
+      <c r="C1358" s="37"/>
+      <c r="D1358" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F1357" s="14" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G1357" s="41" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:7" ht="28.8">
-      <c r="A1358" s="16" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C1358" s="1"/>
-      <c r="D1358" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1358" s="14" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G1358" s="41" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:7" ht="28.8">
-      <c r="A1359" s="16" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C1359" s="1"/>
+      <c r="G1358" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:7" ht="43.2">
+      <c r="A1359" s="14" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B1359" s="14"/>
+      <c r="C1359" s="37"/>
       <c r="D1359" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F1359" s="14" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G1359" s="41" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:7" ht="28.8">
-      <c r="A1360" s="16" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C1360" s="1"/>
+      <c r="F1359" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G1359" s="1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:7">
+      <c r="A1360" s="47" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B1360"/>
+      <c r="C1360" s="37"/>
       <c r="D1360" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F1360" s="14" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G1360" s="41" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1361" spans="1:7" ht="28.8">
-      <c r="A1361" s="16" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C1361" s="1"/>
+      <c r="F1360" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G1360" s="1" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:7">
+      <c r="A1361" s="47" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B1361"/>
+      <c r="C1361" s="37"/>
       <c r="D1361" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F1361" s="14" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G1361" s="41" t="s">
-        <v>1680</v>
+      <c r="F1361" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G1361" s="1" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="1362" spans="1:7" ht="28.8">
       <c r="A1362" s="16" t="s">
-        <v>1614</v>
+        <v>1596</v>
       </c>
       <c r="C1362" s="1"/>
       <c r="D1362" s="14" t="s">
@@ -36738,7 +36823,7 @@
     </row>
     <row r="1363" spans="1:7" ht="28.8">
       <c r="A1363" s="16" t="s">
-        <v>1603</v>
+        <v>1593</v>
       </c>
       <c r="C1363" s="1"/>
       <c r="D1363" s="14" t="s">
@@ -36753,7 +36838,7 @@
     </row>
     <row r="1364" spans="1:7" ht="28.8">
       <c r="A1364" s="16" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="C1364" s="1"/>
       <c r="D1364" s="14" t="s">
@@ -36768,7 +36853,7 @@
     </row>
     <row r="1365" spans="1:7" ht="28.8">
       <c r="A1365" s="16" t="s">
-        <v>1613</v>
+        <v>1592</v>
       </c>
       <c r="C1365" s="1"/>
       <c r="D1365" s="14" t="s">
@@ -36783,7 +36868,7 @@
     </row>
     <row r="1366" spans="1:7" ht="28.8">
       <c r="A1366" s="16" t="s">
-        <v>1605</v>
+        <v>1616</v>
       </c>
       <c r="C1366" s="1"/>
       <c r="D1366" s="14" t="s">
@@ -36798,7 +36883,7 @@
     </row>
     <row r="1367" spans="1:7" ht="28.8">
       <c r="A1367" s="16" t="s">
-        <v>1612</v>
+        <v>1597</v>
       </c>
       <c r="C1367" s="1"/>
       <c r="D1367" s="14" t="s">
@@ -36813,7 +36898,7 @@
     </row>
     <row r="1368" spans="1:7" ht="28.8">
       <c r="A1368" s="16" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
       <c r="C1368" s="1"/>
       <c r="D1368" s="14" t="s">
@@ -36828,7 +36913,7 @@
     </row>
     <row r="1369" spans="1:7" ht="28.8">
       <c r="A1369" s="16" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="C1369" s="1"/>
       <c r="D1369" s="14" t="s">
@@ -36843,7 +36928,7 @@
     </row>
     <row r="1370" spans="1:7" ht="28.8">
       <c r="A1370" s="16" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="C1370" s="1"/>
       <c r="D1370" s="14" t="s">
@@ -36858,7 +36943,7 @@
     </row>
     <row r="1371" spans="1:7" ht="28.8">
       <c r="A1371" s="16" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="C1371" s="1"/>
       <c r="D1371" s="14" t="s">
@@ -36873,7 +36958,7 @@
     </row>
     <row r="1372" spans="1:7" ht="28.8">
       <c r="A1372" s="16" t="s">
-        <v>1629</v>
+        <v>1604</v>
       </c>
       <c r="C1372" s="1"/>
       <c r="D1372" s="14" t="s">
@@ -36888,7 +36973,7 @@
     </row>
     <row r="1373" spans="1:7" ht="28.8">
       <c r="A1373" s="16" t="s">
-        <v>1606</v>
+        <v>1613</v>
       </c>
       <c r="C1373" s="1"/>
       <c r="D1373" s="14" t="s">
@@ -36903,7 +36988,7 @@
     </row>
     <row r="1374" spans="1:7" ht="28.8">
       <c r="A1374" s="16" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="C1374" s="1"/>
       <c r="D1374" s="14" t="s">
@@ -36918,7 +37003,7 @@
     </row>
     <row r="1375" spans="1:7" ht="28.8">
       <c r="A1375" s="16" t="s">
-        <v>1625</v>
+        <v>1612</v>
       </c>
       <c r="C1375" s="1"/>
       <c r="D1375" s="14" t="s">
@@ -36933,7 +37018,7 @@
     </row>
     <row r="1376" spans="1:7" ht="28.8">
       <c r="A1376" s="16" t="s">
-        <v>1626</v>
+        <v>1607</v>
       </c>
       <c r="C1376" s="1"/>
       <c r="D1376" s="14" t="s">
@@ -36948,7 +37033,7 @@
     </row>
     <row r="1377" spans="1:7" ht="28.8">
       <c r="A1377" s="16" t="s">
-        <v>1627</v>
+        <v>1615</v>
       </c>
       <c r="C1377" s="1"/>
       <c r="D1377" s="14" t="s">
@@ -36963,7 +37048,7 @@
     </row>
     <row r="1378" spans="1:7" ht="28.8">
       <c r="A1378" s="16" t="s">
-        <v>1608</v>
+        <v>1621</v>
       </c>
       <c r="C1378" s="1"/>
       <c r="D1378" s="14" t="s">
@@ -36978,7 +37063,7 @@
     </row>
     <row r="1379" spans="1:7" ht="28.8">
       <c r="A1379" s="16" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="C1379" s="1"/>
       <c r="D1379" s="14" t="s">
@@ -36993,7 +37078,7 @@
     </row>
     <row r="1380" spans="1:7" ht="28.8">
       <c r="A1380" s="16" t="s">
-        <v>1619</v>
+        <v>1629</v>
       </c>
       <c r="C1380" s="1"/>
       <c r="D1380" s="14" t="s">
@@ -37008,7 +37093,7 @@
     </row>
     <row r="1381" spans="1:7" ht="28.8">
       <c r="A1381" s="16" t="s">
-        <v>1594</v>
+        <v>1606</v>
       </c>
       <c r="C1381" s="1"/>
       <c r="D1381" s="14" t="s">
@@ -37023,7 +37108,7 @@
     </row>
     <row r="1382" spans="1:7" ht="28.8">
       <c r="A1382" s="16" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="C1382" s="1"/>
       <c r="D1382" s="14" t="s">
@@ -37036,165 +37121,245 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="1383" spans="1:7">
-      <c r="A1383" s="14" t="s">
+    <row r="1383" spans="1:7" ht="28.8">
+      <c r="A1383" s="16" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C1383" s="1"/>
+      <c r="D1383" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1383" s="14" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G1383" s="41" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:7" ht="28.8">
+      <c r="A1384" s="16" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C1384" s="1"/>
+      <c r="D1384" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1384" s="14" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G1384" s="41" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:7" ht="28.8">
+      <c r="A1385" s="16" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C1385" s="1"/>
+      <c r="D1385" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1385" s="14" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G1385" s="41" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:7" ht="28.8">
+      <c r="A1386" s="16" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C1386" s="1"/>
+      <c r="D1386" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1386" s="14" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G1386" s="41" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:7" ht="28.8">
+      <c r="A1387" s="16" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C1387" s="1"/>
+      <c r="D1387" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1387" s="14" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G1387" s="41" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:7" ht="28.8">
+      <c r="A1388" s="16" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C1388" s="1"/>
+      <c r="D1388" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1388" s="14" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G1388" s="41" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:7" ht="28.8">
+      <c r="A1389" s="16" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C1389" s="1"/>
+      <c r="D1389" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1389" s="14" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G1389" s="41" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:7" ht="28.8">
+      <c r="A1390" s="16" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C1390" s="1"/>
+      <c r="D1390" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1390" s="14" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G1390" s="41" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:7">
+      <c r="A1391" s="14" t="s">
         <v>1595</v>
       </c>
-      <c r="B1383" s="14"/>
-      <c r="C1383" s="37"/>
-      <c r="D1383" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1383" s="1" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:7">
-      <c r="A1384" s="49" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B1384"/>
-      <c r="C1384" s="4"/>
-      <c r="D1384" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1384" s="41" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:7">
-      <c r="A1385" s="49" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B1385" s="27"/>
-      <c r="C1385" s="48"/>
-      <c r="D1385" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1385" s="41" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:7">
-      <c r="A1386" s="49" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B1386"/>
-      <c r="C1386" s="4"/>
-      <c r="D1386" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1386" s="41" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:7">
-      <c r="A1387" s="14"/>
-      <c r="B1387" s="14"/>
-      <c r="C1387" s="37"/>
-      <c r="G1387" s="41"/>
-    </row>
-    <row r="1388" spans="1:7">
-      <c r="A1388" s="14"/>
-      <c r="B1388" s="14"/>
-      <c r="C1388" s="37"/>
-    </row>
-    <row r="1389" spans="1:7">
-      <c r="A1389" s="28"/>
-      <c r="B1389" s="28"/>
-      <c r="C1389" s="38"/>
-    </row>
-    <row r="1390" spans="1:7">
-      <c r="A1390" s="14"/>
-      <c r="B1390" s="14"/>
-      <c r="C1390" s="37"/>
-    </row>
-    <row r="1391" spans="1:7">
-      <c r="A1391" s="14"/>
       <c r="B1391" s="14"/>
       <c r="C1391" s="37"/>
+      <c r="D1391" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1391" s="1" t="s">
+        <v>1840</v>
+      </c>
     </row>
     <row r="1392" spans="1:7">
-      <c r="A1392" s="14"/>
-      <c r="B1392" s="14"/>
-      <c r="C1392" s="37"/>
-    </row>
-    <row r="1393" spans="1:3">
-      <c r="A1393" s="28"/>
-      <c r="B1393" s="28"/>
-      <c r="C1393" s="38"/>
-    </row>
-    <row r="1394" spans="1:3">
-      <c r="A1394" s="14"/>
-      <c r="B1394" s="14"/>
-      <c r="C1394" s="37"/>
-    </row>
-    <row r="1395" spans="1:3">
+      <c r="A1392" s="49" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1392"/>
+      <c r="C1392" s="4"/>
+      <c r="D1392" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1392" s="41" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:7">
+      <c r="A1393" s="49" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B1393" s="27"/>
+      <c r="C1393" s="48"/>
+      <c r="D1393" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1393" s="41" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:7">
+      <c r="A1394" s="49" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B1394"/>
+      <c r="C1394" s="4"/>
+      <c r="D1394" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1394" s="41" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:7">
       <c r="A1395" s="14"/>
       <c r="B1395" s="14"/>
       <c r="C1395" s="37"/>
-    </row>
-    <row r="1396" spans="1:3">
+      <c r="G1395" s="41"/>
+    </row>
+    <row r="1396" spans="1:7">
       <c r="A1396" s="14"/>
       <c r="B1396" s="14"/>
       <c r="C1396" s="37"/>
     </row>
-    <row r="1397" spans="1:3">
-      <c r="A1397" s="14"/>
-      <c r="B1397" s="14"/>
-      <c r="C1397" s="37"/>
-    </row>
-    <row r="1398" spans="1:3">
+    <row r="1397" spans="1:7">
+      <c r="A1397" s="28"/>
+      <c r="B1397" s="28"/>
+      <c r="C1397" s="38"/>
+    </row>
+    <row r="1398" spans="1:7">
       <c r="A1398" s="14"/>
       <c r="B1398" s="14"/>
       <c r="C1398" s="37"/>
     </row>
-    <row r="1399" spans="1:3">
+    <row r="1399" spans="1:7">
       <c r="A1399" s="14"/>
       <c r="B1399" s="14"/>
       <c r="C1399" s="37"/>
     </row>
-    <row r="1400" spans="1:3">
+    <row r="1400" spans="1:7">
       <c r="A1400" s="14"/>
       <c r="B1400" s="14"/>
       <c r="C1400" s="37"/>
     </row>
-    <row r="1401" spans="1:3">
-      <c r="A1401" s="14"/>
-      <c r="B1401" s="14"/>
-      <c r="C1401" s="37"/>
-    </row>
-    <row r="1402" spans="1:3">
+    <row r="1401" spans="1:7">
+      <c r="A1401" s="28"/>
+      <c r="B1401" s="28"/>
+      <c r="C1401" s="38"/>
+    </row>
+    <row r="1402" spans="1:7">
       <c r="A1402" s="14"/>
       <c r="B1402" s="14"/>
       <c r="C1402" s="37"/>
     </row>
-    <row r="1403" spans="1:3">
+    <row r="1403" spans="1:7">
       <c r="A1403" s="14"/>
       <c r="B1403" s="14"/>
       <c r="C1403" s="37"/>
     </row>
-    <row r="1404" spans="1:3">
+    <row r="1404" spans="1:7">
       <c r="A1404" s="14"/>
       <c r="B1404" s="14"/>
       <c r="C1404" s="37"/>
     </row>
-    <row r="1405" spans="1:3">
+    <row r="1405" spans="1:7">
       <c r="A1405" s="14"/>
       <c r="B1405" s="14"/>
       <c r="C1405" s="37"/>
     </row>
-    <row r="1406" spans="1:3">
+    <row r="1406" spans="1:7">
       <c r="A1406" s="14"/>
       <c r="B1406" s="14"/>
       <c r="C1406" s="37"/>
     </row>
-    <row r="1407" spans="1:3">
+    <row r="1407" spans="1:7">
       <c r="A1407" s="14"/>
       <c r="B1407" s="14"/>
       <c r="C1407" s="37"/>
     </row>
-    <row r="1408" spans="1:3">
+    <row r="1408" spans="1:7">
       <c r="A1408" s="14"/>
       <c r="B1408" s="14"/>
       <c r="C1408" s="37"/>
@@ -37214,71 +37379,79 @@
       <c r="B1411" s="14"/>
       <c r="C1411" s="37"/>
     </row>
-    <row r="1538" spans="5:5">
-      <c r="E1538" s="41"/>
-    </row>
-    <row r="1539" spans="5:5">
-      <c r="E1539" s="41"/>
-    </row>
-    <row r="1540" spans="5:5">
-      <c r="E1540" s="41"/>
-    </row>
-    <row r="1541" spans="5:5">
-      <c r="E1541" s="41"/>
-    </row>
-    <row r="1542" spans="5:5">
-      <c r="E1542" s="41"/>
-    </row>
-    <row r="1543" spans="5:5">
-      <c r="E1543" s="41"/>
-    </row>
-    <row r="1544" spans="5:5">
-      <c r="E1544" s="41"/>
-    </row>
-    <row r="1554" spans="5:7">
-      <c r="E1554" s="41"/>
-    </row>
-    <row r="1556" spans="5:7">
-      <c r="E1556" s="41"/>
-      <c r="G1556" s="41"/>
-    </row>
-    <row r="1557" spans="5:7">
-      <c r="G1557" s="41"/>
-    </row>
-    <row r="1558" spans="5:7">
-      <c r="E1558" s="42"/>
-      <c r="G1558" s="41"/>
-    </row>
-    <row r="1559" spans="5:7">
-      <c r="E1559" s="41"/>
-      <c r="G1559" s="41"/>
-    </row>
-    <row r="1560" spans="5:7">
-      <c r="E1560" s="41"/>
-      <c r="G1560" s="41"/>
-    </row>
-    <row r="1561" spans="5:7">
-      <c r="E1561" s="41"/>
-      <c r="G1561" s="41"/>
+    <row r="1412" spans="1:3">
+      <c r="A1412" s="14"/>
+      <c r="B1412" s="14"/>
+      <c r="C1412" s="37"/>
+    </row>
+    <row r="1413" spans="1:3">
+      <c r="A1413" s="14"/>
+      <c r="B1413" s="14"/>
+      <c r="C1413" s="37"/>
+    </row>
+    <row r="1414" spans="1:3">
+      <c r="A1414" s="14"/>
+      <c r="B1414" s="14"/>
+      <c r="C1414" s="37"/>
+    </row>
+    <row r="1415" spans="1:3">
+      <c r="A1415" s="14"/>
+      <c r="B1415" s="14"/>
+      <c r="C1415" s="37"/>
+    </row>
+    <row r="1416" spans="1:3">
+      <c r="A1416" s="14"/>
+      <c r="B1416" s="14"/>
+      <c r="C1416" s="37"/>
+    </row>
+    <row r="1417" spans="1:3">
+      <c r="A1417" s="14"/>
+      <c r="B1417" s="14"/>
+      <c r="C1417" s="37"/>
+    </row>
+    <row r="1418" spans="1:3">
+      <c r="A1418" s="14"/>
+      <c r="B1418" s="14"/>
+      <c r="C1418" s="37"/>
+    </row>
+    <row r="1419" spans="1:3">
+      <c r="A1419" s="14"/>
+      <c r="B1419" s="14"/>
+      <c r="C1419" s="37"/>
+    </row>
+    <row r="1546" spans="5:5">
+      <c r="E1546" s="41"/>
+    </row>
+    <row r="1547" spans="5:5">
+      <c r="E1547" s="41"/>
+    </row>
+    <row r="1548" spans="5:5">
+      <c r="E1548" s="41"/>
+    </row>
+    <row r="1549" spans="5:5">
+      <c r="E1549" s="41"/>
+    </row>
+    <row r="1550" spans="5:5">
+      <c r="E1550" s="41"/>
+    </row>
+    <row r="1551" spans="5:5">
+      <c r="E1551" s="41"/>
+    </row>
+    <row r="1552" spans="5:5">
+      <c r="E1552" s="41"/>
     </row>
     <row r="1562" spans="5:7">
       <c r="E1562" s="41"/>
-      <c r="G1562" s="41"/>
-    </row>
-    <row r="1563" spans="5:7">
-      <c r="E1563" s="41"/>
-      <c r="G1563" s="41"/>
     </row>
     <row r="1564" spans="5:7">
-      <c r="E1564" s="43"/>
+      <c r="E1564" s="41"/>
       <c r="G1564" s="41"/>
     </row>
     <row r="1565" spans="5:7">
-      <c r="E1565" s="41"/>
       <c r="G1565" s="41"/>
     </row>
     <row r="1566" spans="5:7">
-      <c r="E1566" s="41"/>
+      <c r="E1566" s="42"/>
       <c r="G1566" s="41"/>
     </row>
     <row r="1567" spans="5:7">
@@ -37302,7 +37475,7 @@
       <c r="G1571" s="41"/>
     </row>
     <row r="1572" spans="5:7">
-      <c r="E1572" s="41"/>
+      <c r="E1572" s="43"/>
       <c r="G1572" s="41"/>
     </row>
     <row r="1573" spans="5:7">
@@ -37429,71 +37602,85 @@
       <c r="E1603" s="41"/>
       <c r="G1603" s="41"/>
     </row>
+    <row r="1604" spans="5:7">
+      <c r="E1604" s="41"/>
+      <c r="G1604" s="41"/>
+    </row>
+    <row r="1605" spans="5:7">
+      <c r="E1605" s="41"/>
+      <c r="G1605" s="41"/>
+    </row>
+    <row r="1606" spans="5:7">
+      <c r="E1606" s="41"/>
+      <c r="G1606" s="41"/>
+    </row>
+    <row r="1607" spans="5:7">
+      <c r="E1607" s="41"/>
+      <c r="G1607" s="41"/>
+    </row>
+    <row r="1608" spans="5:7">
+      <c r="E1608" s="41"/>
+      <c r="G1608" s="41"/>
+    </row>
+    <row r="1609" spans="5:7">
+      <c r="E1609" s="41"/>
+      <c r="G1609" s="41"/>
+    </row>
+    <row r="1610" spans="5:7">
+      <c r="E1610" s="41"/>
+      <c r="G1610" s="41"/>
+    </row>
     <row r="1611" spans="5:7">
       <c r="E1611" s="41"/>
-    </row>
-    <row r="1620" spans="7:7">
-      <c r="G1620" s="41"/>
-    </row>
-    <row r="1621" spans="7:7">
-      <c r="G1621" s="41"/>
-    </row>
-    <row r="1622" spans="7:7">
-      <c r="G1622" s="41"/>
-    </row>
-    <row r="1623" spans="7:7">
-      <c r="G1623" s="41"/>
-    </row>
-    <row r="1624" spans="7:7">
-      <c r="G1624" s="41"/>
-    </row>
-    <row r="1625" spans="7:7">
-      <c r="G1625" s="41"/>
-    </row>
-    <row r="1626" spans="7:7">
-      <c r="G1626" s="41"/>
-    </row>
-    <row r="1627" spans="7:7">
-      <c r="G1627" s="41"/>
-    </row>
-    <row r="1628" spans="7:7">
+      <c r="G1611" s="41"/>
+    </row>
+    <row r="1619" spans="5:7">
+      <c r="E1619" s="41"/>
+    </row>
+    <row r="1628" spans="5:7">
       <c r="G1628" s="41"/>
     </row>
-    <row r="1629" spans="7:7">
+    <row r="1629" spans="5:7">
       <c r="G1629" s="41"/>
     </row>
-    <row r="1630" spans="7:7">
+    <row r="1630" spans="5:7">
       <c r="G1630" s="41"/>
     </row>
-    <row r="1631" spans="7:7">
+    <row r="1631" spans="5:7">
       <c r="G1631" s="41"/>
     </row>
-    <row r="1632" spans="7:7">
+    <row r="1632" spans="5:7">
       <c r="G1632" s="41"/>
     </row>
     <row r="1633" spans="7:7">
       <c r="G1633" s="41"/>
     </row>
-    <row r="1663" spans="5:5">
-      <c r="E1663" s="41"/>
-    </row>
-    <row r="1682" spans="5:5">
-      <c r="E1682" s="41"/>
-    </row>
-    <row r="1683" spans="5:5">
-      <c r="E1683" s="41"/>
-    </row>
-    <row r="1686" spans="5:5">
-      <c r="E1686" s="41"/>
-    </row>
-    <row r="1687" spans="5:5">
-      <c r="E1687" s="41"/>
-    </row>
-    <row r="1688" spans="5:5">
-      <c r="E1688" s="41"/>
-    </row>
-    <row r="1689" spans="5:5">
-      <c r="E1689" s="41"/>
+    <row r="1634" spans="7:7">
+      <c r="G1634" s="41"/>
+    </row>
+    <row r="1635" spans="7:7">
+      <c r="G1635" s="41"/>
+    </row>
+    <row r="1636" spans="7:7">
+      <c r="G1636" s="41"/>
+    </row>
+    <row r="1637" spans="7:7">
+      <c r="G1637" s="41"/>
+    </row>
+    <row r="1638" spans="7:7">
+      <c r="G1638" s="41"/>
+    </row>
+    <row r="1639" spans="7:7">
+      <c r="G1639" s="41"/>
+    </row>
+    <row r="1640" spans="7:7">
+      <c r="G1640" s="41"/>
+    </row>
+    <row r="1641" spans="7:7">
+      <c r="G1641" s="41"/>
+    </row>
+    <row r="1671" spans="5:5">
+      <c r="E1671" s="41"/>
     </row>
     <row r="1690" spans="5:5">
       <c r="E1690" s="41"/>
@@ -37501,6 +37688,15 @@
     <row r="1691" spans="5:5">
       <c r="E1691" s="41"/>
     </row>
+    <row r="1694" spans="5:5">
+      <c r="E1694" s="41"/>
+    </row>
+    <row r="1695" spans="5:5">
+      <c r="E1695" s="41"/>
+    </row>
+    <row r="1696" spans="5:5">
+      <c r="E1696" s="41"/>
+    </row>
     <row r="1697" spans="5:5">
       <c r="E1697" s="41"/>
     </row>
@@ -37510,18 +37706,6 @@
     <row r="1699" spans="5:5">
       <c r="E1699" s="41"/>
     </row>
-    <row r="1700" spans="5:5">
-      <c r="E1700" s="41"/>
-    </row>
-    <row r="1701" spans="5:5">
-      <c r="E1701" s="41"/>
-    </row>
-    <row r="1702" spans="5:5">
-      <c r="E1702" s="41"/>
-    </row>
-    <row r="1703" spans="5:5">
-      <c r="E1703" s="41"/>
-    </row>
     <row r="1705" spans="5:5">
       <c r="E1705" s="41"/>
     </row>
@@ -37534,64 +37718,61 @@
     <row r="1708" spans="5:5">
       <c r="E1708" s="41"/>
     </row>
-    <row r="1712" spans="5:5">
-      <c r="E1712" s="41"/>
-    </row>
-    <row r="1719" spans="5:5">
-      <c r="E1719" s="41"/>
-    </row>
-    <row r="1723" spans="5:5">
-      <c r="E1723" s="41"/>
-    </row>
-    <row r="1734" spans="5:5">
-      <c r="E1734" s="41"/>
-    </row>
-    <row r="1744" spans="5:5">
-      <c r="E1744" s="41"/>
-    </row>
-    <row r="1746" spans="7:7">
-      <c r="G1746" s="41"/>
-    </row>
-    <row r="1747" spans="7:7">
-      <c r="G1747" s="41"/>
-    </row>
-    <row r="1748" spans="7:7">
-      <c r="G1748" s="41"/>
-    </row>
-    <row r="1749" spans="7:7">
-      <c r="G1749" s="41"/>
-    </row>
-    <row r="1750" spans="7:7">
-      <c r="G1750" s="41"/>
-    </row>
-    <row r="1751" spans="7:7">
-      <c r="G1751" s="41"/>
-    </row>
-    <row r="1752" spans="7:7">
-      <c r="G1752" s="41"/>
-    </row>
-    <row r="1753" spans="7:7">
-      <c r="G1753" s="41"/>
-    </row>
-    <row r="1754" spans="7:7">
+    <row r="1709" spans="5:5">
+      <c r="E1709" s="41"/>
+    </row>
+    <row r="1710" spans="5:5">
+      <c r="E1710" s="41"/>
+    </row>
+    <row r="1711" spans="5:5">
+      <c r="E1711" s="41"/>
+    </row>
+    <row r="1713" spans="5:5">
+      <c r="E1713" s="41"/>
+    </row>
+    <row r="1714" spans="5:5">
+      <c r="E1714" s="41"/>
+    </row>
+    <row r="1715" spans="5:5">
+      <c r="E1715" s="41"/>
+    </row>
+    <row r="1716" spans="5:5">
+      <c r="E1716" s="41"/>
+    </row>
+    <row r="1720" spans="5:5">
+      <c r="E1720" s="41"/>
+    </row>
+    <row r="1727" spans="5:5">
+      <c r="E1727" s="41"/>
+    </row>
+    <row r="1731" spans="5:5">
+      <c r="E1731" s="41"/>
+    </row>
+    <row r="1742" spans="5:5">
+      <c r="E1742" s="41"/>
+    </row>
+    <row r="1752" spans="5:7">
+      <c r="E1752" s="41"/>
+    </row>
+    <row r="1754" spans="5:7">
       <c r="G1754" s="41"/>
     </row>
-    <row r="1755" spans="7:7">
+    <row r="1755" spans="5:7">
       <c r="G1755" s="41"/>
     </row>
-    <row r="1756" spans="7:7">
+    <row r="1756" spans="5:7">
       <c r="G1756" s="41"/>
     </row>
-    <row r="1757" spans="7:7">
+    <row r="1757" spans="5:7">
       <c r="G1757" s="41"/>
     </row>
-    <row r="1758" spans="7:7">
+    <row r="1758" spans="5:7">
       <c r="G1758" s="41"/>
     </row>
-    <row r="1759" spans="7:7">
+    <row r="1759" spans="5:7">
       <c r="G1759" s="41"/>
     </row>
-    <row r="1760" spans="7:7">
+    <row r="1760" spans="5:7">
       <c r="G1760" s="41"/>
     </row>
     <row r="1761" spans="5:7">
@@ -37607,8 +37788,10 @@
       <c r="G1764" s="41"/>
     </row>
     <row r="1765" spans="5:7">
-      <c r="E1765" s="41"/>
       <c r="G1765" s="41"/>
+    </row>
+    <row r="1766" spans="5:7">
+      <c r="G1766" s="41"/>
     </row>
     <row r="1767" spans="5:7">
       <c r="G1767" s="41"/>
@@ -37629,11 +37812,8 @@
       <c r="G1772" s="41"/>
     </row>
     <row r="1773" spans="5:7">
+      <c r="E1773" s="41"/>
       <c r="G1773" s="41"/>
-    </row>
-    <row r="1774" spans="5:7">
-      <c r="E1774" s="41"/>
-      <c r="G1774" s="41"/>
     </row>
     <row r="1775" spans="5:7">
       <c r="G1775" s="41"/>
@@ -37660,6 +37840,9 @@
       <c r="E1782" s="41"/>
       <c r="G1782" s="41"/>
     </row>
+    <row r="1783" spans="5:7">
+      <c r="G1783" s="41"/>
+    </row>
     <row r="1784" spans="5:7">
       <c r="G1784" s="41"/>
     </row>
@@ -37679,11 +37862,8 @@
       <c r="G1789" s="41"/>
     </row>
     <row r="1790" spans="5:7">
+      <c r="E1790" s="41"/>
       <c r="G1790" s="41"/>
-    </row>
-    <row r="1791" spans="5:7">
-      <c r="E1791" s="41"/>
-      <c r="G1791" s="41"/>
     </row>
     <row r="1792" spans="5:7">
       <c r="G1792" s="41"/>
@@ -37710,54 +37890,55 @@
       <c r="E1799" s="41"/>
       <c r="G1799" s="41"/>
     </row>
+    <row r="1800" spans="5:7">
+      <c r="G1800" s="41"/>
+    </row>
+    <row r="1801" spans="5:7">
+      <c r="G1801" s="41"/>
+    </row>
+    <row r="1802" spans="5:7">
+      <c r="G1802" s="41"/>
+    </row>
+    <row r="1803" spans="5:7">
+      <c r="G1803" s="41"/>
+    </row>
+    <row r="1804" spans="5:7">
+      <c r="G1804" s="41"/>
+    </row>
+    <row r="1805" spans="5:7">
+      <c r="G1805" s="41"/>
+    </row>
+    <row r="1806" spans="5:7">
+      <c r="G1806" s="41"/>
+    </row>
     <row r="1807" spans="5:7">
       <c r="E1807" s="41"/>
-    </row>
-    <row r="1814" spans="5:5">
-      <c r="E1814" s="41"/>
-    </row>
-    <row r="1830" spans="5:5">
-      <c r="E1830" s="42"/>
-    </row>
-    <row r="1831" spans="5:5">
-      <c r="E1831" s="42"/>
-    </row>
-    <row r="1834" spans="5:5">
-      <c r="E1834" s="42"/>
-    </row>
-    <row r="1835" spans="5:5">
-      <c r="E1835" s="41"/>
-    </row>
-    <row r="1848" spans="5:5">
-      <c r="E1848" s="41"/>
-    </row>
-    <row r="1860" spans="5:5">
-      <c r="E1860" s="41"/>
-    </row>
-    <row r="1864" spans="5:5">
-      <c r="E1864" s="41"/>
-    </row>
-    <row r="1865" spans="5:5">
-      <c r="E1865" s="41"/>
-    </row>
-    <row r="1866" spans="5:5">
-      <c r="E1866" s="41"/>
-    </row>
-    <row r="1867" spans="5:5">
-      <c r="E1867" s="41"/>
+      <c r="G1807" s="41"/>
+    </row>
+    <row r="1815" spans="5:5">
+      <c r="E1815" s="41"/>
+    </row>
+    <row r="1822" spans="5:5">
+      <c r="E1822" s="41"/>
+    </row>
+    <row r="1838" spans="5:5">
+      <c r="E1838" s="42"/>
+    </row>
+    <row r="1839" spans="5:5">
+      <c r="E1839" s="42"/>
+    </row>
+    <row r="1842" spans="5:5">
+      <c r="E1842" s="42"/>
+    </row>
+    <row r="1843" spans="5:5">
+      <c r="E1843" s="41"/>
+    </row>
+    <row r="1856" spans="5:5">
+      <c r="E1856" s="41"/>
     </row>
     <row r="1868" spans="5:5">
       <c r="E1868" s="41"/>
     </row>
-    <row r="1869" spans="5:5">
-      <c r="E1869" s="41"/>
-    </row>
-    <row r="1870" spans="5:5">
-      <c r="E1870" s="41"/>
-    </row>
-    <row r="1871" spans="5:5">
-      <c r="E1871" s="41"/>
-    </row>
     <row r="1872" spans="5:5">
       <c r="E1872" s="41"/>
     </row>
@@ -37806,29 +37987,29 @@
     <row r="1887" spans="5:5">
       <c r="E1887" s="41"/>
     </row>
+    <row r="1888" spans="5:5">
+      <c r="E1888" s="41"/>
+    </row>
     <row r="1889" spans="5:7">
-      <c r="G1889" s="41"/>
+      <c r="E1889" s="41"/>
     </row>
     <row r="1890" spans="5:7">
-      <c r="G1890" s="41"/>
+      <c r="E1890" s="41"/>
     </row>
     <row r="1891" spans="5:7">
-      <c r="G1891" s="41"/>
+      <c r="E1891" s="41"/>
     </row>
     <row r="1892" spans="5:7">
-      <c r="G1892" s="41"/>
+      <c r="E1892" s="41"/>
     </row>
     <row r="1893" spans="5:7">
-      <c r="G1893" s="41"/>
+      <c r="E1893" s="41"/>
     </row>
     <row r="1894" spans="5:7">
-      <c r="G1894" s="41"/>
+      <c r="E1894" s="41"/>
     </row>
     <row r="1895" spans="5:7">
-      <c r="G1895" s="41"/>
-    </row>
-    <row r="1896" spans="5:7">
-      <c r="G1896" s="41"/>
+      <c r="E1895" s="41"/>
     </row>
     <row r="1897" spans="5:7">
       <c r="G1897" s="41"/>
@@ -37846,58 +38027,58 @@
       <c r="G1901" s="41"/>
     </row>
     <row r="1902" spans="5:7">
-      <c r="E1902" s="41"/>
       <c r="G1902" s="41"/>
     </row>
+    <row r="1903" spans="5:7">
+      <c r="G1903" s="41"/>
+    </row>
     <row r="1904" spans="5:7">
-      <c r="E1904" s="41"/>
-    </row>
-    <row r="1905" spans="5:5">
-      <c r="E1905" s="41"/>
-    </row>
-    <row r="1906" spans="5:5">
-      <c r="E1906" s="41"/>
-    </row>
-    <row r="1907" spans="5:5">
-      <c r="E1907" s="41"/>
-    </row>
-    <row r="1908" spans="5:5">
-      <c r="E1908" s="41"/>
-    </row>
-    <row r="1909" spans="5:5">
-      <c r="E1909" s="41"/>
-    </row>
-    <row r="1910" spans="5:5">
+      <c r="G1904" s="41"/>
+    </row>
+    <row r="1905" spans="5:7">
+      <c r="G1905" s="41"/>
+    </row>
+    <row r="1906" spans="5:7">
+      <c r="G1906" s="41"/>
+    </row>
+    <row r="1907" spans="5:7">
+      <c r="G1907" s="41"/>
+    </row>
+    <row r="1908" spans="5:7">
+      <c r="G1908" s="41"/>
+    </row>
+    <row r="1909" spans="5:7">
+      <c r="G1909" s="41"/>
+    </row>
+    <row r="1910" spans="5:7">
       <c r="E1910" s="41"/>
-    </row>
-    <row r="1911" spans="5:5">
-      <c r="E1911" s="41"/>
-    </row>
-    <row r="1912" spans="5:5">
+      <c r="G1910" s="41"/>
+    </row>
+    <row r="1912" spans="5:7">
       <c r="E1912" s="41"/>
     </row>
-    <row r="1913" spans="5:5">
+    <row r="1913" spans="5:7">
       <c r="E1913" s="41"/>
     </row>
-    <row r="1914" spans="5:5">
+    <row r="1914" spans="5:7">
       <c r="E1914" s="41"/>
     </row>
-    <row r="1915" spans="5:5">
+    <row r="1915" spans="5:7">
       <c r="E1915" s="41"/>
     </row>
-    <row r="1916" spans="5:5">
+    <row r="1916" spans="5:7">
       <c r="E1916" s="41"/>
     </row>
-    <row r="1917" spans="5:5">
+    <row r="1917" spans="5:7">
       <c r="E1917" s="41"/>
     </row>
-    <row r="1918" spans="5:5">
+    <row r="1918" spans="5:7">
       <c r="E1918" s="41"/>
     </row>
-    <row r="1919" spans="5:5">
+    <row r="1919" spans="5:7">
       <c r="E1919" s="41"/>
     </row>
-    <row r="1920" spans="5:5">
+    <row r="1920" spans="5:7">
       <c r="E1920" s="41"/>
     </row>
     <row r="1921" spans="5:5">
@@ -37993,37 +38174,29 @@
     <row r="1951" spans="5:5">
       <c r="E1951" s="41"/>
     </row>
+    <row r="1952" spans="5:5">
+      <c r="E1952" s="41"/>
+    </row>
     <row r="1953" spans="5:7">
       <c r="E1953" s="41"/>
-      <c r="G1953" s="41"/>
     </row>
     <row r="1954" spans="5:7">
       <c r="E1954" s="41"/>
-      <c r="G1954" s="41"/>
     </row>
     <row r="1955" spans="5:7">
       <c r="E1955" s="41"/>
-      <c r="G1955" s="41"/>
     </row>
     <row r="1956" spans="5:7">
       <c r="E1956" s="41"/>
-      <c r="G1956" s="41"/>
     </row>
     <row r="1957" spans="5:7">
       <c r="E1957" s="41"/>
-      <c r="G1957" s="41"/>
     </row>
     <row r="1958" spans="5:7">
       <c r="E1958" s="41"/>
-      <c r="G1958" s="41"/>
     </row>
     <row r="1959" spans="5:7">
       <c r="E1959" s="41"/>
-      <c r="G1959" s="41"/>
-    </row>
-    <row r="1960" spans="5:7">
-      <c r="E1960" s="41"/>
-      <c r="G1960" s="41"/>
     </row>
     <row r="1961" spans="5:7">
       <c r="E1961" s="41"/>
@@ -38185,43 +38358,51 @@
       <c r="E2000" s="41"/>
       <c r="G2000" s="41"/>
     </row>
-    <row r="2010" spans="5:5">
-      <c r="E2010" s="41"/>
-    </row>
-    <row r="2021" spans="7:7">
-      <c r="G2021" s="41"/>
-    </row>
-    <row r="2022" spans="7:7">
-      <c r="G2022" s="41"/>
-    </row>
-    <row r="2023" spans="7:7">
-      <c r="G2023" s="41"/>
-    </row>
-    <row r="2024" spans="7:7">
-      <c r="G2024" s="41"/>
-    </row>
-    <row r="2025" spans="7:7">
-      <c r="G2025" s="41"/>
-    </row>
-    <row r="2026" spans="7:7">
-      <c r="G2026" s="41"/>
-    </row>
-    <row r="2027" spans="7:7">
-      <c r="G2027" s="41"/>
-    </row>
-    <row r="2028" spans="7:7">
-      <c r="G2028" s="41"/>
-    </row>
-    <row r="2029" spans="7:7">
+    <row r="2001" spans="5:7">
+      <c r="E2001" s="41"/>
+      <c r="G2001" s="41"/>
+    </row>
+    <row r="2002" spans="5:7">
+      <c r="E2002" s="41"/>
+      <c r="G2002" s="41"/>
+    </row>
+    <row r="2003" spans="5:7">
+      <c r="E2003" s="41"/>
+      <c r="G2003" s="41"/>
+    </row>
+    <row r="2004" spans="5:7">
+      <c r="E2004" s="41"/>
+      <c r="G2004" s="41"/>
+    </row>
+    <row r="2005" spans="5:7">
+      <c r="E2005" s="41"/>
+      <c r="G2005" s="41"/>
+    </row>
+    <row r="2006" spans="5:7">
+      <c r="E2006" s="41"/>
+      <c r="G2006" s="41"/>
+    </row>
+    <row r="2007" spans="5:7">
+      <c r="E2007" s="41"/>
+      <c r="G2007" s="41"/>
+    </row>
+    <row r="2008" spans="5:7">
+      <c r="E2008" s="41"/>
+      <c r="G2008" s="41"/>
+    </row>
+    <row r="2018" spans="5:7">
+      <c r="E2018" s="41"/>
+    </row>
+    <row r="2029" spans="5:7">
       <c r="G2029" s="41"/>
     </row>
-    <row r="2030" spans="7:7">
+    <row r="2030" spans="5:7">
       <c r="G2030" s="41"/>
     </row>
-    <row r="2031" spans="7:7">
+    <row r="2031" spans="5:7">
       <c r="G2031" s="41"/>
     </row>
-    <row r="2032" spans="7:7">
+    <row r="2032" spans="5:7">
       <c r="G2032" s="41"/>
     </row>
     <row r="2033" spans="5:7">
@@ -38246,43 +38427,35 @@
       <c r="G2039" s="41"/>
     </row>
     <row r="2040" spans="5:7">
-      <c r="E2040" s="41"/>
       <c r="G2040" s="41"/>
     </row>
-    <row r="2050" spans="5:7">
-      <c r="E2050" s="41"/>
-    </row>
-    <row r="2061" spans="5:7">
-      <c r="E2061" s="41"/>
-      <c r="G2061" s="41"/>
-    </row>
-    <row r="2062" spans="5:7">
-      <c r="E2062" s="41"/>
-      <c r="G2062" s="41"/>
-    </row>
-    <row r="2063" spans="5:7">
-      <c r="E2063" s="41"/>
-      <c r="G2063" s="41"/>
-    </row>
-    <row r="2064" spans="5:7">
-      <c r="E2064" s="41"/>
-      <c r="G2064" s="41"/>
-    </row>
-    <row r="2065" spans="5:7">
-      <c r="E2065" s="41"/>
-      <c r="G2065" s="41"/>
-    </row>
-    <row r="2066" spans="5:7">
-      <c r="E2066" s="41"/>
-      <c r="G2066" s="41"/>
-    </row>
-    <row r="2067" spans="5:7">
-      <c r="E2067" s="41"/>
-      <c r="G2067" s="41"/>
-    </row>
-    <row r="2068" spans="5:7">
-      <c r="E2068" s="41"/>
-      <c r="G2068" s="41"/>
+    <row r="2041" spans="5:7">
+      <c r="G2041" s="41"/>
+    </row>
+    <row r="2042" spans="5:7">
+      <c r="G2042" s="41"/>
+    </row>
+    <row r="2043" spans="5:7">
+      <c r="G2043" s="41"/>
+    </row>
+    <row r="2044" spans="5:7">
+      <c r="G2044" s="41"/>
+    </row>
+    <row r="2045" spans="5:7">
+      <c r="G2045" s="41"/>
+    </row>
+    <row r="2046" spans="5:7">
+      <c r="G2046" s="41"/>
+    </row>
+    <row r="2047" spans="5:7">
+      <c r="G2047" s="41"/>
+    </row>
+    <row r="2048" spans="5:7">
+      <c r="E2048" s="41"/>
+      <c r="G2048" s="41"/>
+    </row>
+    <row r="2058" spans="5:5">
+      <c r="E2058" s="41"/>
     </row>
     <row r="2069" spans="5:7">
       <c r="E2069" s="41"/>
@@ -38316,6 +38489,10 @@
       <c r="E2076" s="41"/>
       <c r="G2076" s="41"/>
     </row>
+    <row r="2077" spans="5:7">
+      <c r="E2077" s="41"/>
+      <c r="G2077" s="41"/>
+    </row>
     <row r="2078" spans="5:7">
       <c r="E2078" s="41"/>
       <c r="G2078" s="41"/>
@@ -38344,10 +38521,6 @@
       <c r="E2084" s="41"/>
       <c r="G2084" s="41"/>
     </row>
-    <row r="2085" spans="5:7">
-      <c r="E2085" s="41"/>
-      <c r="G2085" s="41"/>
-    </row>
     <row r="2086" spans="5:7">
       <c r="E2086" s="41"/>
       <c r="G2086" s="41"/>
@@ -38372,40 +38545,54 @@
       <c r="E2091" s="41"/>
       <c r="G2091" s="41"/>
     </row>
+    <row r="2092" spans="5:7">
+      <c r="E2092" s="41"/>
+      <c r="G2092" s="41"/>
+    </row>
+    <row r="2093" spans="5:7">
+      <c r="E2093" s="41"/>
+      <c r="G2093" s="41"/>
+    </row>
     <row r="2094" spans="5:7">
       <c r="E2094" s="41"/>
-    </row>
-    <row r="2098" spans="5:5">
+      <c r="G2094" s="41"/>
+    </row>
+    <row r="2095" spans="5:7">
+      <c r="E2095" s="41"/>
+      <c r="G2095" s="41"/>
+    </row>
+    <row r="2096" spans="5:7">
+      <c r="E2096" s="41"/>
+      <c r="G2096" s="41"/>
+    </row>
+    <row r="2097" spans="5:7">
+      <c r="E2097" s="41"/>
+      <c r="G2097" s="41"/>
+    </row>
+    <row r="2098" spans="5:7">
       <c r="E2098" s="41"/>
-    </row>
-    <row r="2099" spans="5:5">
+      <c r="G2098" s="41"/>
+    </row>
+    <row r="2099" spans="5:7">
       <c r="E2099" s="41"/>
-    </row>
-    <row r="2100" spans="5:5">
-      <c r="E2100" s="41"/>
-    </row>
-    <row r="2101" spans="5:5">
-      <c r="E2101" s="41"/>
-    </row>
-    <row r="2104" spans="5:5">
-      <c r="E2104" s="41"/>
-    </row>
-    <row r="2105" spans="5:5">
-      <c r="E2105" s="41"/>
-    </row>
-    <row r="2106" spans="5:5">
+      <c r="G2099" s="41"/>
+    </row>
+    <row r="2102" spans="5:7">
+      <c r="E2102" s="41"/>
+    </row>
+    <row r="2106" spans="5:7">
       <c r="E2106" s="41"/>
     </row>
-    <row r="2107" spans="5:5">
+    <row r="2107" spans="5:7">
       <c r="E2107" s="41"/>
     </row>
-    <row r="2110" spans="5:5">
-      <c r="E2110" s="41"/>
-    </row>
-    <row r="2111" spans="5:5">
-      <c r="E2111" s="41"/>
-    </row>
-    <row r="2112" spans="5:5">
+    <row r="2108" spans="5:7">
+      <c r="E2108" s="41"/>
+    </row>
+    <row r="2109" spans="5:7">
+      <c r="E2109" s="41"/>
+    </row>
+    <row r="2112" spans="5:7">
       <c r="E2112" s="41"/>
     </row>
     <row r="2113" spans="5:5">
@@ -38417,12 +38604,6 @@
     <row r="2115" spans="5:5">
       <c r="E2115" s="41"/>
     </row>
-    <row r="2116" spans="5:5">
-      <c r="E2116" s="41"/>
-    </row>
-    <row r="2117" spans="5:5">
-      <c r="E2117" s="41"/>
-    </row>
     <row r="2118" spans="5:5">
       <c r="E2118" s="41"/>
     </row>
@@ -38441,6 +38622,9 @@
     <row r="2123" spans="5:5">
       <c r="E2123" s="41"/>
     </row>
+    <row r="2124" spans="5:5">
+      <c r="E2124" s="41"/>
+    </row>
     <row r="2125" spans="5:5">
       <c r="E2125" s="41"/>
     </row>
@@ -38462,9 +38646,6 @@
     <row r="2131" spans="5:5">
       <c r="E2131" s="41"/>
     </row>
-    <row r="2132" spans="5:5">
-      <c r="E2132" s="41"/>
-    </row>
     <row r="2133" spans="5:5">
       <c r="E2133" s="41"/>
     </row>
@@ -38483,6 +38664,9 @@
     <row r="2138" spans="5:5">
       <c r="E2138" s="41"/>
     </row>
+    <row r="2139" spans="5:5">
+      <c r="E2139" s="41"/>
+    </row>
     <row r="2140" spans="5:5">
       <c r="E2140" s="41"/>
     </row>
@@ -38504,9 +38688,6 @@
     <row r="2146" spans="5:5">
       <c r="E2146" s="41"/>
     </row>
-    <row r="2147" spans="5:5">
-      <c r="E2147" s="41"/>
-    </row>
     <row r="2148" spans="5:5">
       <c r="E2148" s="41"/>
     </row>
@@ -38525,6 +38706,9 @@
     <row r="2153" spans="5:5">
       <c r="E2153" s="41"/>
     </row>
+    <row r="2154" spans="5:5">
+      <c r="E2154" s="41"/>
+    </row>
     <row r="2155" spans="5:5">
       <c r="E2155" s="41"/>
     </row>
@@ -38546,9 +38730,6 @@
     <row r="2161" spans="5:5">
       <c r="E2161" s="41"/>
     </row>
-    <row r="2162" spans="5:5">
-      <c r="E2162" s="41"/>
-    </row>
     <row r="2163" spans="5:5">
       <c r="E2163" s="41"/>
     </row>
@@ -38609,57 +38790,57 @@
     <row r="2182" spans="5:5">
       <c r="E2182" s="41"/>
     </row>
+    <row r="2183" spans="5:5">
+      <c r="E2183" s="41"/>
+    </row>
     <row r="2184" spans="5:5">
       <c r="E2184" s="41"/>
     </row>
-    <row r="2197" spans="5:5">
-      <c r="E2197" s="41"/>
-    </row>
-    <row r="2211" spans="5:5">
-      <c r="E2211" s="41"/>
-    </row>
-    <row r="2213" spans="5:5">
-      <c r="E2213" s="41"/>
-    </row>
-    <row r="2226" spans="5:5">
-      <c r="E2226" s="41"/>
-    </row>
-    <row r="2240" spans="5:5">
-      <c r="E2240" s="41"/>
-    </row>
-    <row r="2242" spans="5:5">
-      <c r="E2242" s="41"/>
-    </row>
-    <row r="2255" spans="5:5">
-      <c r="E2255" s="41"/>
-    </row>
-    <row r="2269" spans="5:5">
-      <c r="E2269" s="41"/>
-    </row>
-    <row r="2272" spans="5:5">
-      <c r="E2272" s="41"/>
-    </row>
-    <row r="2273" spans="5:5">
-      <c r="E2273" s="41"/>
-    </row>
-    <row r="2274" spans="5:5">
-      <c r="E2274" s="41"/>
-    </row>
-    <row r="2275" spans="5:5">
-      <c r="E2275" s="41"/>
-    </row>
-    <row r="2276" spans="5:5">
-      <c r="E2276" s="41"/>
+    <row r="2185" spans="5:5">
+      <c r="E2185" s="41"/>
+    </row>
+    <row r="2186" spans="5:5">
+      <c r="E2186" s="41"/>
+    </row>
+    <row r="2187" spans="5:5">
+      <c r="E2187" s="41"/>
+    </row>
+    <row r="2188" spans="5:5">
+      <c r="E2188" s="41"/>
+    </row>
+    <row r="2189" spans="5:5">
+      <c r="E2189" s="41"/>
+    </row>
+    <row r="2190" spans="5:5">
+      <c r="E2190" s="41"/>
+    </row>
+    <row r="2192" spans="5:5">
+      <c r="E2192" s="41"/>
+    </row>
+    <row r="2205" spans="5:5">
+      <c r="E2205" s="41"/>
+    </row>
+    <row r="2219" spans="5:5">
+      <c r="E2219" s="41"/>
+    </row>
+    <row r="2221" spans="5:5">
+      <c r="E2221" s="41"/>
+    </row>
+    <row r="2234" spans="5:5">
+      <c r="E2234" s="41"/>
+    </row>
+    <row r="2248" spans="5:5">
+      <c r="E2248" s="41"/>
+    </row>
+    <row r="2250" spans="5:5">
+      <c r="E2250" s="41"/>
+    </row>
+    <row r="2263" spans="5:5">
+      <c r="E2263" s="41"/>
     </row>
     <row r="2277" spans="5:5">
       <c r="E2277" s="41"/>
     </row>
-    <row r="2278" spans="5:5">
-      <c r="E2278" s="41"/>
-    </row>
-    <row r="2279" spans="5:5">
-      <c r="E2279" s="41"/>
-    </row>
     <row r="2280" spans="5:5">
       <c r="E2280" s="41"/>
     </row>
@@ -38678,138 +38859,138 @@
     <row r="2285" spans="5:5">
       <c r="E2285" s="41"/>
     </row>
-    <row r="2294" spans="5:5">
-      <c r="E2294" s="41"/>
-    </row>
-    <row r="2311" spans="5:5">
-      <c r="E2311" s="41"/>
-    </row>
-    <row r="2328" spans="5:5">
-      <c r="E2328" s="41"/>
-    </row>
-    <row r="2345" spans="5:5">
-      <c r="E2345" s="41"/>
-    </row>
-    <row r="2362" spans="5:5">
-      <c r="E2362" s="41"/>
-    </row>
-    <row r="2379" spans="5:5">
-      <c r="E2379" s="41"/>
-    </row>
-    <row r="2396" spans="5:5">
-      <c r="E2396" s="41"/>
-    </row>
-    <row r="2413" spans="5:5">
-      <c r="E2413" s="41"/>
-    </row>
-    <row r="2430" spans="5:5">
-      <c r="E2430" s="41"/>
-    </row>
-    <row r="2447" spans="5:5">
-      <c r="E2447" s="41"/>
-    </row>
-    <row r="2464" spans="5:5">
-      <c r="E2464" s="41"/>
-    </row>
-    <row r="2481" spans="5:5">
-      <c r="E2481" s="41"/>
-    </row>
-    <row r="2498" spans="5:5">
-      <c r="E2498" s="41"/>
-    </row>
-    <row r="2515" spans="5:5">
-      <c r="E2515" s="41"/>
-    </row>
-    <row r="2532" spans="5:5">
-      <c r="E2532" s="41"/>
-    </row>
-    <row r="2549" spans="5:7">
-      <c r="E2549" s="41"/>
-    </row>
-    <row r="2559" spans="5:7">
-      <c r="G2559" s="41"/>
-    </row>
-    <row r="2560" spans="5:7">
-      <c r="G2560" s="41"/>
-    </row>
-    <row r="2561" spans="5:7">
-      <c r="G2561" s="41"/>
-    </row>
-    <row r="2562" spans="5:7">
-      <c r="G2562" s="41"/>
-    </row>
-    <row r="2563" spans="5:7">
-      <c r="G2563" s="41"/>
-    </row>
-    <row r="2564" spans="5:7">
-      <c r="G2564" s="41"/>
-    </row>
-    <row r="2565" spans="5:7">
-      <c r="G2565" s="41"/>
-    </row>
-    <row r="2566" spans="5:7">
-      <c r="G2566" s="41"/>
-    </row>
-    <row r="2567" spans="5:7">
+    <row r="2286" spans="5:5">
+      <c r="E2286" s="41"/>
+    </row>
+    <row r="2287" spans="5:5">
+      <c r="E2287" s="41"/>
+    </row>
+    <row r="2288" spans="5:5">
+      <c r="E2288" s="41"/>
+    </row>
+    <row r="2289" spans="5:5">
+      <c r="E2289" s="41"/>
+    </row>
+    <row r="2290" spans="5:5">
+      <c r="E2290" s="41"/>
+    </row>
+    <row r="2291" spans="5:5">
+      <c r="E2291" s="41"/>
+    </row>
+    <row r="2292" spans="5:5">
+      <c r="E2292" s="41"/>
+    </row>
+    <row r="2293" spans="5:5">
+      <c r="E2293" s="41"/>
+    </row>
+    <row r="2302" spans="5:5">
+      <c r="E2302" s="41"/>
+    </row>
+    <row r="2319" spans="5:5">
+      <c r="E2319" s="41"/>
+    </row>
+    <row r="2336" spans="5:5">
+      <c r="E2336" s="41"/>
+    </row>
+    <row r="2353" spans="5:5">
+      <c r="E2353" s="41"/>
+    </row>
+    <row r="2370" spans="5:5">
+      <c r="E2370" s="41"/>
+    </row>
+    <row r="2387" spans="5:5">
+      <c r="E2387" s="41"/>
+    </row>
+    <row r="2404" spans="5:5">
+      <c r="E2404" s="41"/>
+    </row>
+    <row r="2421" spans="5:5">
+      <c r="E2421" s="41"/>
+    </row>
+    <row r="2438" spans="5:5">
+      <c r="E2438" s="41"/>
+    </row>
+    <row r="2455" spans="5:5">
+      <c r="E2455" s="41"/>
+    </row>
+    <row r="2472" spans="5:5">
+      <c r="E2472" s="41"/>
+    </row>
+    <row r="2489" spans="5:5">
+      <c r="E2489" s="41"/>
+    </row>
+    <row r="2506" spans="5:5">
+      <c r="E2506" s="41"/>
+    </row>
+    <row r="2523" spans="5:5">
+      <c r="E2523" s="41"/>
+    </row>
+    <row r="2540" spans="5:5">
+      <c r="E2540" s="41"/>
+    </row>
+    <row r="2557" spans="5:5">
+      <c r="E2557" s="41"/>
+    </row>
+    <row r="2567" spans="7:7">
       <c r="G2567" s="41"/>
     </row>
-    <row r="2568" spans="5:7">
+    <row r="2568" spans="7:7">
       <c r="G2568" s="41"/>
     </row>
-    <row r="2569" spans="5:7">
+    <row r="2569" spans="7:7">
       <c r="G2569" s="41"/>
     </row>
-    <row r="2570" spans="5:7">
+    <row r="2570" spans="7:7">
       <c r="G2570" s="41"/>
     </row>
-    <row r="2571" spans="5:7">
+    <row r="2571" spans="7:7">
       <c r="G2571" s="41"/>
     </row>
-    <row r="2572" spans="5:7">
-      <c r="E2572" s="41"/>
+    <row r="2572" spans="7:7">
       <c r="G2572" s="41"/>
     </row>
-    <row r="2593" spans="5:5">
-      <c r="E2593" s="41"/>
-    </row>
-    <row r="2608" spans="5:5">
-      <c r="E2608" s="41"/>
-    </row>
-    <row r="2623" spans="5:5">
-      <c r="E2623" s="41"/>
-    </row>
-    <row r="2638" spans="5:5">
-      <c r="E2638" s="41"/>
-    </row>
-    <row r="2654" spans="5:5">
-      <c r="E2654" s="41"/>
-    </row>
-    <row r="2662" spans="5:7">
+    <row r="2573" spans="7:7">
+      <c r="G2573" s="41"/>
+    </row>
+    <row r="2574" spans="7:7">
+      <c r="G2574" s="41"/>
+    </row>
+    <row r="2575" spans="7:7">
+      <c r="G2575" s="41"/>
+    </row>
+    <row r="2576" spans="7:7">
+      <c r="G2576" s="41"/>
+    </row>
+    <row r="2577" spans="5:7">
+      <c r="G2577" s="41"/>
+    </row>
+    <row r="2578" spans="5:7">
+      <c r="G2578" s="41"/>
+    </row>
+    <row r="2579" spans="5:7">
+      <c r="G2579" s="41"/>
+    </row>
+    <row r="2580" spans="5:7">
+      <c r="E2580" s="41"/>
+      <c r="G2580" s="41"/>
+    </row>
+    <row r="2601" spans="5:5">
+      <c r="E2601" s="41"/>
+    </row>
+    <row r="2616" spans="5:5">
+      <c r="E2616" s="41"/>
+    </row>
+    <row r="2631" spans="5:5">
+      <c r="E2631" s="41"/>
+    </row>
+    <row r="2646" spans="5:5">
+      <c r="E2646" s="41"/>
+    </row>
+    <row r="2662" spans="5:5">
       <c r="E2662" s="41"/>
     </row>
-    <row r="2671" spans="5:7">
-      <c r="G2671" s="41"/>
-    </row>
-    <row r="2672" spans="5:7">
-      <c r="G2672" s="41"/>
-    </row>
-    <row r="2673" spans="7:7">
-      <c r="G2673" s="41"/>
-    </row>
-    <row r="2674" spans="7:7">
-      <c r="G2674" s="41"/>
-    </row>
-    <row r="2675" spans="7:7">
-      <c r="G2675" s="41"/>
-    </row>
-    <row r="2676" spans="7:7">
-      <c r="G2676" s="41"/>
-    </row>
-    <row r="2677" spans="7:7">
-      <c r="G2677" s="41"/>
-    </row>
-    <row r="2678" spans="7:7">
-      <c r="G2678" s="41"/>
+    <row r="2670" spans="5:5">
+      <c r="E2670" s="41"/>
     </row>
     <row r="2679" spans="7:7">
       <c r="G2679" s="41"/>
@@ -38845,14 +39026,38 @@
       <c r="G2689" s="41"/>
     </row>
     <row r="2690" spans="5:7">
-      <c r="E2690" s="41"/>
       <c r="G2690" s="41"/>
+    </row>
+    <row r="2691" spans="5:7">
+      <c r="G2691" s="41"/>
+    </row>
+    <row r="2692" spans="5:7">
+      <c r="G2692" s="41"/>
+    </row>
+    <row r="2693" spans="5:7">
+      <c r="G2693" s="41"/>
+    </row>
+    <row r="2694" spans="5:7">
+      <c r="G2694" s="41"/>
+    </row>
+    <row r="2695" spans="5:7">
+      <c r="G2695" s="41"/>
+    </row>
+    <row r="2696" spans="5:7">
+      <c r="G2696" s="41"/>
+    </row>
+    <row r="2697" spans="5:7">
+      <c r="G2697" s="41"/>
     </row>
     <row r="2698" spans="5:7">
       <c r="E2698" s="41"/>
-    </row>
-    <row r="2705" spans="5:5">
-      <c r="E2705" s="41"/>
+      <c r="G2698" s="41"/>
+    </row>
+    <row r="2706" spans="5:5">
+      <c r="E2706" s="41"/>
+    </row>
+    <row r="2713" spans="5:5">
+      <c r="E2713" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBAF9B7-C4F0-4DE1-8AD5-B291DB5B4AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B203B70B-A4CC-4EB1-B303-AA32D33841C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8805" uniqueCount="1887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8806" uniqueCount="1888">
   <si>
     <t>Name</t>
   </si>
@@ -5798,6 +5798,9 @@
     <t>Jumper for PAL or NTSC</t>
   </si>
   <si>
+    <t>2026-February-21</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -5810,7 +5813,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2026-February-20</t>
+      <t>2026-February-21</t>
     </r>
   </si>
 </sst>
@@ -6442,7 +6445,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6770,7 +6773,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9514FADE-BE8B-438B-9E6C-BADB0BC574D6}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6822,8 +6825,14 @@
         <v>1862</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>1886</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/Commodore 64/250425/Data C64 250425.xlsx
+++ b/Data/Commodore 64/250425/Data C64 250425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250425\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B203B70B-A4CC-4EB1-B303-AA32D33841C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46629AC-0FDB-4159-88D9-DBC72A017324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
